--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -53,36 +53,36 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
+    <t>John Rambo</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
-    <t>Fabíola</t>
-  </si>
-  <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
-    <t>Goblyn</t>
+    <t>leal</t>
   </si>
   <si>
     <t>snowkids</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
     <t>Madnasty</t>
   </si>
   <si>
+    <t>zau</t>
+  </si>
+  <si>
     <t>King Bonixe</t>
   </si>
   <si>
-    <t>zau</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
@@ -98,97 +98,100 @@
     <t>KryptoNnN</t>
   </si>
   <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
+    <t>filipe</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>metamox</t>
+  </si>
+  <si>
+    <t>Wut</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
-    <t>filipe</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>carmen</t>
-  </si>
-  <si>
     <t>topdosl33ts</t>
   </si>
   <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>metamox</t>
+    <t>YOSHINZ</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>Savler</t>
+  </si>
+  <si>
+    <t>fglopes</t>
   </si>
   <si>
     <t>Welton</t>
   </si>
   <si>
-    <t>YOSHINZ</t>
-  </si>
-  <si>
-    <t>fglopes</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>Savler</t>
+    <t>LCINORC</t>
+  </si>
+  <si>
+    <t>hugo</t>
   </si>
   <si>
     <t>Sergas</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Pikaya</t>
   </si>
   <si>
     <t>Manu</t>
   </si>
   <si>
+    <t>mounir</t>
+  </si>
+  <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>Pikaya</t>
-  </si>
-  <si>
     <t>castelhano</t>
   </si>
   <si>
+    <t>Jonas 705</t>
+  </si>
+  <si>
+    <t>NOVA I MIGUEL☉</t>
+  </si>
+  <si>
     <t>Sra. Clash</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>mounir</t>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>MASTER PT</t>
+  </si>
+  <si>
+    <t>EBAERV_</t>
   </si>
   <si>
     <t>Bruno Lopez</t>
   </si>
   <si>
-    <t>MASTER PT</t>
-  </si>
-  <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
     <t>Doomesticador</t>
   </si>
   <si>
-    <t>NOVA I MIGUEL☉</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>EBAERV_</t>
+    <t>pedro</t>
   </si>
 </sst>
 </file>
@@ -276,19 +279,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C2" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D2" t="n">
-        <v>29960.0</v>
+        <v>31080.0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -297,10 +300,10 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="J2" t="n">
-        <v>242.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="3">
@@ -308,19 +311,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C3" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D3" t="n">
-        <v>28280.0</v>
+        <v>29680.0</v>
       </c>
       <c r="E3" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -329,10 +332,10 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="J3" t="n">
-        <v>233.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="4">
@@ -340,19 +343,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C4" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D4" t="n">
-        <v>29680.0</v>
+        <v>30800.0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F4" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -361,10 +364,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="J4" t="n">
-        <v>214.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="5">
@@ -372,19 +375,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C5" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D5" t="n">
-        <v>27682.0</v>
+        <v>33040.0</v>
       </c>
       <c r="E5" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -393,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="J5" t="n">
-        <v>200.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="6">
@@ -410,25 +413,25 @@
         <v>72.0</v>
       </c>
       <c r="D6" t="n">
-        <v>27172.0</v>
+        <v>27682.0</v>
       </c>
       <c r="E6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>78.0</v>
+        <v>67.0</v>
       </c>
       <c r="J6" t="n">
-        <v>196.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="7">
@@ -436,19 +439,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="C7" t="n">
-        <v>69.0</v>
+        <v>75.0</v>
       </c>
       <c r="D7" t="n">
-        <v>26775.0</v>
+        <v>31080.0</v>
       </c>
       <c r="E7" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -457,10 +460,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>67.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>195.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="8">
@@ -474,10 +477,10 @@
         <v>72.0</v>
       </c>
       <c r="D8" t="n">
-        <v>31360.0</v>
+        <v>27895.0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" t="n">
         <v>16.0</v>
@@ -489,10 +492,10 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="J8" t="n">
-        <v>192.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="9">
@@ -500,31 +503,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28852.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>24.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29960.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26.0</v>
-      </c>
       <c r="F9" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>54.0</v>
+        <v>75.0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="10">
@@ -532,19 +535,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C10" t="n">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="D10" t="n">
-        <v>27770.0</v>
+        <v>26600.0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="G10" t="n">
         <v>2.0</v>
@@ -553,10 +556,10 @@
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>60.0</v>
+        <v>74.0</v>
       </c>
       <c r="J10" t="n">
-        <v>186.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="11">
@@ -564,19 +567,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="C11" t="n">
-        <v>64.0</v>
+        <v>73.0</v>
       </c>
       <c r="D11" t="n">
-        <v>25760.0</v>
+        <v>28890.0</v>
       </c>
       <c r="E11" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="F11" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="G11" t="n">
         <v>2.0</v>
@@ -585,10 +588,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>73.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>186.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="12">
@@ -596,19 +599,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="D12" t="n">
-        <v>24920.0</v>
+        <v>26040.0</v>
       </c>
       <c r="E12" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F12" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -617,10 +620,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>57.99999999999999</v>
+        <v>60.0</v>
       </c>
       <c r="J12" t="n">
-        <v>174.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="13">
@@ -628,31 +631,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.0</v>
+        <v>73.0</v>
       </c>
       <c r="D13" t="n">
-        <v>22680.0</v>
+        <v>29960.0</v>
       </c>
       <c r="E13" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="F13" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>61.0</v>
+        <v>50.0</v>
       </c>
       <c r="J13" t="n">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="14">
@@ -660,31 +663,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23800.0</v>
+      </c>
+      <c r="E14" t="n">
         <v>24.0</v>
       </c>
-      <c r="C14" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28840.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.0</v>
-      </c>
       <c r="F14" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +695,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C15" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="D15" t="n">
-        <v>26320.0</v>
+        <v>27440.0</v>
       </c>
       <c r="E15" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F15" t="n">
         <v>12.0</v>
@@ -713,10 +716,10 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="J15" t="n">
-        <v>169.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="16">
@@ -724,16 +727,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C16" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D16" t="n">
-        <v>26610.0</v>
+        <v>27992.0</v>
       </c>
       <c r="E16" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="F16" t="n">
         <v>13.0</v>
@@ -745,10 +748,10 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="J16" t="n">
-        <v>164.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="17">
@@ -780,7 +783,7 @@
         <v>71.0</v>
       </c>
       <c r="J17" t="n">
-        <v>161.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +791,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C18" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="D18" t="n">
-        <v>27171.0</v>
+        <v>28291.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F18" t="n">
         <v>11.0</v>
@@ -809,10 +812,10 @@
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="J18" t="n">
-        <v>155.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="19">
@@ -820,19 +823,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C19" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="D19" t="n">
-        <v>23635.0</v>
+        <v>24947.0</v>
       </c>
       <c r="E19" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F19" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -841,10 +844,10 @@
         <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>56.99999999999999</v>
+        <v>59.0</v>
       </c>
       <c r="J19" t="n">
-        <v>143.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="20">
@@ -852,31 +855,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>68.0</v>
+        <v>54.0</v>
       </c>
       <c r="D20" t="n">
-        <v>27853.0</v>
+        <v>23240.0</v>
       </c>
       <c r="E20" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="J20" t="n">
-        <v>135.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="21">
@@ -884,31 +887,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="C21" t="n">
-        <v>51.0</v>
+        <v>62.0</v>
       </c>
       <c r="D21" t="n">
-        <v>22120.0</v>
+        <v>27440.0</v>
       </c>
       <c r="E21" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F21" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H21" t="n">
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="J21" t="n">
-        <v>133.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="22">
@@ -916,31 +919,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="C22" t="n">
-        <v>59.0</v>
+        <v>71.0</v>
       </c>
       <c r="D22" t="n">
-        <v>26040.0</v>
+        <v>25908.0</v>
       </c>
       <c r="E22" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="F22" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="J22" t="n">
-        <v>131.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="23">
@@ -948,16 +951,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C23" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="D23" t="n">
-        <v>21358.0</v>
+        <v>22407.0</v>
       </c>
       <c r="E23" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F23" t="n">
         <v>8.0</v>
@@ -969,10 +972,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="J23" t="n">
-        <v>129.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="24">
@@ -983,28 +986,28 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="D24" t="n">
-        <v>24859.0</v>
+        <v>25335.0</v>
       </c>
       <c r="E24" t="n">
         <v>24.0</v>
       </c>
       <c r="F24" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>33.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="J24" t="n">
-        <v>127.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="25">
@@ -1012,31 +1015,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.0</v>
+        <v>41.0</v>
       </c>
       <c r="D25" t="n">
-        <v>22680.0</v>
+        <v>17640.0</v>
       </c>
       <c r="E25" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>75.0</v>
+        <v>62.0</v>
       </c>
       <c r="J25" t="n">
-        <v>123.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="26">
@@ -1044,31 +1047,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="C26" t="n">
-        <v>41.0</v>
+        <v>69.0</v>
       </c>
       <c r="D26" t="n">
-        <v>17640.0</v>
+        <v>28133.0</v>
       </c>
       <c r="E26" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="F26" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I26" t="n">
-        <v>62.0</v>
+        <v>33.0</v>
       </c>
       <c r="J26" t="n">
-        <v>114.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="27">
@@ -1079,28 +1082,28 @@
         <v>22.0</v>
       </c>
       <c r="C27" t="n">
-        <v>66.0</v>
+        <v>60.0</v>
       </c>
       <c r="D27" t="n">
-        <v>24023.0</v>
+        <v>23800.0</v>
       </c>
       <c r="E27" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F27" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>6.0</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.0</v>
+        <v>71.0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="28">
@@ -1108,31 +1111,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C28" t="n">
-        <v>56.0</v>
+        <v>27.0</v>
       </c>
       <c r="D28" t="n">
-        <v>25200.0</v>
+        <v>9800.0</v>
       </c>
       <c r="E28" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>26.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="29">
@@ -1140,31 +1143,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n">
         <v>9.0</v>
       </c>
-      <c r="C29" t="n">
-        <v>26.0</v>
-      </c>
       <c r="D29" t="n">
-        <v>9520.0</v>
+        <v>3640.0</v>
       </c>
       <c r="E29" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.0</v>
+        <v>67.0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="30">
@@ -1172,31 +1175,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="C30" t="n">
-        <v>40.0</v>
+        <v>18.0</v>
       </c>
       <c r="D30" t="n">
-        <v>15552.0</v>
+        <v>8120.0</v>
       </c>
       <c r="E30" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.000000000000002</v>
+        <v>50.0</v>
       </c>
       <c r="J30" t="n">
-        <v>61.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="31">
@@ -1204,31 +1207,31 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="D31" t="n">
-        <v>7000.0</v>
+        <v>11480.0</v>
       </c>
       <c r="E31" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" t="n">
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="J31" t="n">
-        <v>55.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="32">
@@ -1236,19 +1239,19 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="C32" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="D32" t="n">
-        <v>10360.0</v>
+        <v>16601.0</v>
       </c>
       <c r="E32" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G32" t="n">
         <v>2.0</v>
@@ -1257,10 +1260,10 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.0</v>
+        <v>20.0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="33">
@@ -1268,31 +1271,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="C33" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
       <c r="D33" t="n">
-        <v>14192.0</v>
+        <v>26600.0</v>
       </c>
       <c r="E33" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F33" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G33" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I33" t="n">
-        <v>43.0</v>
+        <v>26.0</v>
       </c>
       <c r="J33" t="n">
-        <v>50.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="34">
@@ -1300,19 +1303,19 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="D34" t="n">
-        <v>2800.0</v>
+        <v>5600.0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G34" t="n">
         <v>0.0</v>
@@ -1321,10 +1324,10 @@
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="35">
@@ -1332,31 +1335,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="C35" t="n">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="D35" t="n">
-        <v>13069.0</v>
+        <v>6160.0</v>
       </c>
       <c r="E35" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H35" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="J35" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="36">
@@ -1364,31 +1367,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C36" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D36" t="n">
-        <v>12963.0</v>
+        <v>15032.0</v>
       </c>
       <c r="E36" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.0</v>
+        <v>43.0</v>
       </c>
       <c r="J36" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="37">
@@ -1396,31 +1399,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C37" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D37" t="n">
-        <v>4200.0</v>
+        <v>3640.0</v>
       </c>
       <c r="E37" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H37" t="n">
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>50.0</v>
+        <v>67.0</v>
       </c>
       <c r="J37" t="n">
-        <v>38.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="38">
@@ -1428,19 +1431,19 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10640.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F38" t="n">
         <v>4.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>5600.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2.0</v>
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
@@ -1452,7 +1455,7 @@
         <v>67.0</v>
       </c>
       <c r="J38" t="n">
-        <v>28.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="39">
@@ -1460,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="C39" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="D39" t="n">
-        <v>8960.0</v>
+        <v>13069.0</v>
       </c>
       <c r="E39" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H39" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="40">
@@ -1492,31 +1495,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="C40" t="n">
-        <v>29.0</v>
+        <v>16.0</v>
       </c>
       <c r="D40" t="n">
-        <v>11480.0</v>
+        <v>7280.0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="F40" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I40" t="n">
-        <v>47.0</v>
+        <v>17.0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="41">
@@ -1524,31 +1527,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C41" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="D41" t="n">
-        <v>9868.0</v>
+        <v>14363.0</v>
       </c>
       <c r="E41" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I41" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="J41" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
@@ -1556,31 +1559,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="C42" t="n">
-        <v>8.0</v>
+        <v>29.0</v>
       </c>
       <c r="D42" t="n">
-        <v>3640.0</v>
+        <v>11480.0</v>
       </c>
       <c r="E42" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.0</v>
+        <v>47.0</v>
       </c>
       <c r="J42" t="n">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -1588,31 +1591,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C43" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="D43" t="n">
-        <v>6160.0</v>
+        <v>1574.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
         <v>2.0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="44">
@@ -1626,13 +1629,13 @@
         <v>3.0</v>
       </c>
       <c r="D44" t="n">
-        <v>1049.0</v>
+        <v>1225.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
@@ -1641,10 +1644,10 @@
         <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>-14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -1652,31 +1655,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C45" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="D45" t="n">
-        <v>4129.0</v>
+        <v>9868.0</v>
       </c>
       <c r="E45" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I45" t="n">
         <v>20.0</v>
       </c>
       <c r="J45" t="n">
-        <v>-16.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
@@ -1684,31 +1687,29 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>525.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="I46"/>
       <c r="J46" t="n">
-        <v>-21.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -1716,29 +1717,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>5301.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
-      <c r="I47"/>
+      <c r="I47" t="n">
+        <v>17.0</v>
+      </c>
       <c r="J47" t="n">
-        <v>-29.0</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="48">
@@ -1768,7 +1771,7 @@
       </c>
       <c r="I48"/>
       <c r="J48" t="n">
-        <v>-34.0</v>
+        <v>-12.0</v>
       </c>
     </row>
     <row r="49">
@@ -1776,19 +1779,19 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>1049.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -1796,9 +1799,11 @@
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
-      <c r="I49"/>
+      <c r="I49" t="n">
+        <v>100.0</v>
+      </c>
       <c r="J49" t="n">
-        <v>-35.0</v>
+        <v>-14.0</v>
       </c>
     </row>
     <row r="50">
@@ -1828,7 +1833,39 @@
       </c>
       <c r="I50"/>
       <c r="J50" t="n">
-        <v>-38.0</v>
+        <v>-30.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8689.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-84.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -56,42 +56,42 @@
     <t>John Rambo</t>
   </si>
   <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
+    <t>leal</t>
+  </si>
+  <si>
     <t>Goblyn</t>
   </si>
   <si>
-    <t>Fabíola</t>
-  </si>
-  <si>
     <t>Inferno</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
     <t>snowkids</t>
   </si>
   <si>
     <t>Madnasty</t>
   </si>
   <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
     <t>zau</t>
   </si>
   <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>Tio João</t>
   </si>
   <si>
@@ -104,73 +104,73 @@
     <t>filipe</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>metamox</t>
   </si>
   <si>
+    <t>topdosl33ts</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>topdosl33ts</t>
+    <t>Tabo da amarela</t>
   </si>
   <si>
     <t>YOSHINZ</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>Matilde Pires</t>
   </si>
   <si>
     <t>Savler</t>
   </si>
   <si>
+    <t>Welton</t>
+  </si>
+  <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>Welton</t>
-  </si>
-  <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
     <t>hugo</t>
   </si>
   <si>
+    <t>Pikaya</t>
+  </si>
+  <si>
     <t>Sergas</t>
   </si>
   <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>Pikaya</t>
+    <t>mounir</t>
   </si>
   <si>
     <t>Manu</t>
   </si>
   <si>
-    <t>mounir</t>
-  </si>
-  <si>
     <t>supercell</t>
   </si>
   <si>
     <t>castelhano</t>
   </si>
   <si>
+    <t>NOVA I MIGUEL☉</t>
+  </si>
+  <si>
     <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
     <t>Sra. Clash</t>
@@ -279,16 +279,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D2" t="n">
-        <v>31080.0</v>
+        <v>31920.0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F2" t="n">
         <v>23.0</v>
@@ -300,10 +300,10 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.0</v>
+        <v>82.0</v>
       </c>
       <c r="J2" t="n">
-        <v>258.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,19 +311,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C3" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D3" t="n">
-        <v>29680.0</v>
+        <v>30520.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -335,7 +335,7 @@
         <v>79.0</v>
       </c>
       <c r="J3" t="n">
-        <v>244.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,31 +343,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31920.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
         <v>75.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>30800.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74.0</v>
-      </c>
       <c r="J4" t="n">
-        <v>224.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="5">
@@ -375,19 +375,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C5" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D5" t="n">
-        <v>33040.0</v>
+        <v>34440.0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -396,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="J5" t="n">
-        <v>203.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="6">
@@ -407,19 +407,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C6" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D6" t="n">
-        <v>27682.0</v>
+        <v>28735.0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="F6" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -428,10 +428,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="J6" t="n">
-        <v>202.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="7">
@@ -445,13 +445,13 @@
         <v>75.0</v>
       </c>
       <c r="D7" t="n">
-        <v>31080.0</v>
+        <v>29082.0</v>
       </c>
       <c r="E7" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -460,10 +460,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>56.00000000000001</v>
+        <v>64.0</v>
       </c>
       <c r="J7" t="n">
-        <v>200.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="8">
@@ -474,28 +474,28 @@
         <v>24.0</v>
       </c>
       <c r="C8" t="n">
-        <v>72.0</v>
+        <v>70.0</v>
       </c>
       <c r="D8" t="n">
-        <v>27895.0</v>
+        <v>27720.0</v>
       </c>
       <c r="E8" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="F8" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.0</v>
+        <v>75.0</v>
       </c>
       <c r="J8" t="n">
-        <v>200.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,31 +503,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C9" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D9" t="n">
-        <v>28852.0</v>
+        <v>32200.0</v>
       </c>
       <c r="E9" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="F9" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>75.0</v>
+        <v>54.0</v>
       </c>
       <c r="J9" t="n">
-        <v>198.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,31 +535,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="C10" t="n">
-        <v>67.0</v>
+        <v>78.0</v>
       </c>
       <c r="D10" t="n">
-        <v>26600.0</v>
+        <v>30252.0</v>
       </c>
       <c r="E10" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F10" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
-        <v>74.0</v>
+        <v>72.0</v>
       </c>
       <c r="J10" t="n">
-        <v>196.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,16 +567,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C11" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="D11" t="n">
-        <v>28890.0</v>
+        <v>30290.0</v>
       </c>
       <c r="E11" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F11" t="n">
         <v>15.0</v>
@@ -588,10 +588,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>191.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C12" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="D12" t="n">
-        <v>26040.0</v>
+        <v>27720.0</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F12" t="n">
         <v>15.0</v>
@@ -620,10 +620,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>60.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>185.0</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,31 +631,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25200.0</v>
+      </c>
+      <c r="E13" t="n">
         <v>25.0</v>
       </c>
-      <c r="C13" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29960.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>26.0</v>
-      </c>
       <c r="F13" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="J13" t="n">
-        <v>180.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="14">
@@ -663,31 +663,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="C14" t="n">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D14" t="n">
-        <v>23800.0</v>
+        <v>31080.0</v>
       </c>
       <c r="E14" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="F14" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.99999999999999</v>
+        <v>48.0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +695,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C15" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="D15" t="n">
-        <v>27440.0</v>
+        <v>28560.0</v>
       </c>
       <c r="E15" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" t="n">
         <v>12.0</v>
@@ -716,10 +716,10 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="J15" t="n">
-        <v>173.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="16">
@@ -727,19 +727,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="C16" t="n">
-        <v>75.0</v>
+        <v>63.0</v>
       </c>
       <c r="D16" t="n">
-        <v>27992.0</v>
+        <v>26600.0</v>
       </c>
       <c r="E16" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="F16" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -748,10 +748,10 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0</v>
+        <v>73.0</v>
       </c>
       <c r="J16" t="n">
-        <v>170.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,31 +759,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="C17" t="n">
-        <v>60.0</v>
+        <v>77.0</v>
       </c>
       <c r="D17" t="n">
-        <v>25480.0</v>
+        <v>28779.0</v>
       </c>
       <c r="E17" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="F17" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.0</v>
+        <v>43.0</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="18">
@@ -791,19 +791,19 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C18" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D18" t="n">
-        <v>28291.0</v>
+        <v>29411.0</v>
       </c>
       <c r="E18" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F18" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -812,10 +812,10 @@
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="J18" t="n">
-        <v>159.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,19 +823,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="D19" t="n">
-        <v>24947.0</v>
+        <v>26347.0</v>
       </c>
       <c r="E19" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -844,10 +844,10 @@
         <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="J19" t="n">
-        <v>149.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="20">
@@ -855,19 +855,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C20" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="D20" t="n">
-        <v>23240.0</v>
+        <v>24640.0</v>
       </c>
       <c r="E20" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F20" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G20" t="n">
         <v>3.0</v>
@@ -876,10 +876,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="J20" t="n">
-        <v>140.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,19 +887,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C21" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="D21" t="n">
-        <v>27440.0</v>
+        <v>28560.0</v>
       </c>
       <c r="E21" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F21" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G21" t="n">
         <v>7.0</v>
@@ -908,10 +908,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="J21" t="n">
-        <v>136.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,31 +919,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>23719.0</v>
+      </c>
+      <c r="E22" t="n">
         <v>24.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>25908.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>26.0</v>
       </c>
       <c r="F22" t="n">
         <v>9.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="J22" t="n">
-        <v>136.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,31 +951,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="C23" t="n">
-        <v>60.0</v>
+        <v>74.0</v>
       </c>
       <c r="D23" t="n">
-        <v>22407.0</v>
+        <v>26694.0</v>
       </c>
       <c r="E23" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="J23" t="n">
-        <v>133.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="24">
@@ -983,16 +983,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C24" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="D24" t="n">
-        <v>25335.0</v>
+        <v>26070.0</v>
       </c>
       <c r="E24" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F24" t="n">
         <v>7.0</v>
@@ -1004,10 +1004,10 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>28.999999999999996</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="J24" t="n">
-        <v>124.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,31 +1015,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="C25" t="n">
-        <v>41.0</v>
+        <v>63.0</v>
       </c>
       <c r="D25" t="n">
-        <v>17640.0</v>
+        <v>24920.0</v>
       </c>
       <c r="E25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F25" t="n">
         <v>16.0</v>
       </c>
-      <c r="F25" t="n">
-        <v>10.0</v>
-      </c>
       <c r="G25" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.0</v>
+        <v>73.0</v>
       </c>
       <c r="J25" t="n">
-        <v>115.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="26">
@@ -1047,28 +1047,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="C26" t="n">
-        <v>69.0</v>
+        <v>41.0</v>
       </c>
       <c r="D26" t="n">
-        <v>28133.0</v>
+        <v>17640.0</v>
       </c>
       <c r="E26" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>33.0</v>
+        <v>62.0</v>
       </c>
       <c r="J26" t="n">
         <v>113.0</v>
@@ -1079,31 +1079,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="C27" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="D27" t="n">
-        <v>23800.0</v>
+        <v>28413.0</v>
       </c>
       <c r="E27" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F27" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="G27" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H27" t="n">
         <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>71.0</v>
+        <v>32.0</v>
       </c>
       <c r="J27" t="n">
-        <v>111.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="28">
@@ -1111,31 +1111,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="D28" t="n">
-        <v>9800.0</v>
+        <v>5040.0</v>
       </c>
       <c r="E28" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>55.00000000000001</v>
+        <v>75.0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="29">
@@ -1143,31 +1143,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9800.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G29" t="n">
         <v>3.0</v>
       </c>
-      <c r="C29" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3640.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="30">
@@ -1175,16 +1175,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C30" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="D30" t="n">
-        <v>8120.0</v>
+        <v>9520.0</v>
       </c>
       <c r="E30" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F30" t="n">
         <v>3.0</v>
@@ -1196,10 +1196,10 @@
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="J30" t="n">
-        <v>83.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="31">
@@ -1207,19 +1207,19 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C31" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="D31" t="n">
-        <v>11480.0</v>
+        <v>12880.0</v>
       </c>
       <c r="E31" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G31" t="n">
         <v>2.0</v>
@@ -1228,10 +1228,10 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="32">
@@ -1239,31 +1239,31 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="D32" t="n">
-        <v>16601.0</v>
+        <v>27440.0</v>
       </c>
       <c r="E32" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H32" t="n">
         <v>2.0</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I32" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="33">
@@ -1271,31 +1271,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="C33" t="n">
-        <v>59.0</v>
+        <v>18.0</v>
       </c>
       <c r="D33" t="n">
-        <v>26600.0</v>
+        <v>7000.0</v>
       </c>
       <c r="E33" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="F33" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="J33" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="34">
@@ -1303,31 +1303,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="C34" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16601.0</v>
+      </c>
+      <c r="E34" t="n">
         <v>15.0</v>
       </c>
-      <c r="D34" t="n">
-        <v>5600.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5.0</v>
-      </c>
       <c r="F34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G34" t="n">
         <v>2.0</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H34" t="n">
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="35">
@@ -1335,19 +1335,19 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C35" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="D35" t="n">
-        <v>6160.0</v>
+        <v>7280.0</v>
       </c>
       <c r="E35" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G35" t="n">
         <v>1.0</v>
@@ -1356,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="J35" t="n">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,31 +1367,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C36" t="n">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="D36" t="n">
-        <v>15032.0</v>
+        <v>11760.0</v>
       </c>
       <c r="E36" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G36" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H36" t="n">
         <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.0</v>
+        <v>71.0</v>
       </c>
       <c r="J36" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="37">
@@ -1399,31 +1399,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="C37" t="n">
-        <v>8.0</v>
+        <v>38.0</v>
       </c>
       <c r="D37" t="n">
-        <v>3640.0</v>
+        <v>16432.0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.0</v>
+        <v>40.0</v>
       </c>
       <c r="J37" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,31 +1431,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" t="n">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="D38" t="n">
-        <v>10640.0</v>
+        <v>3640.0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F38" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
         <v>67.0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,28 +1463,28 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="C39" t="n">
-        <v>45.0</v>
+        <v>19.0</v>
       </c>
       <c r="D39" t="n">
-        <v>13069.0</v>
+        <v>8680.0</v>
       </c>
       <c r="E39" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J39" t="n">
         <v>37.0</v>
@@ -1495,31 +1495,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="C40" t="n">
-        <v>16.0</v>
+        <v>45.0</v>
       </c>
       <c r="D40" t="n">
-        <v>7280.0</v>
+        <v>13069.0</v>
       </c>
       <c r="E40" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H40" t="n">
         <v>1.0</v>
       </c>
       <c r="I40" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="41">
@@ -1551,7 +1551,7 @@
         <v>15.0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1583,7 @@
         <v>47.0</v>
       </c>
       <c r="J42" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
@@ -1594,28 +1594,28 @@
         <v>2.0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1574.0</v>
+        <v>2450.0</v>
       </c>
       <c r="E43" t="n">
         <v>2.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="44">
@@ -1623,22 +1623,22 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="E44" t="n">
         <v>3.0</v>
       </c>
-      <c r="D44" t="n">
-        <v>1225.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F44" t="n">
         <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -1647,7 +1647,7 @@
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="45">
@@ -1679,7 +1679,7 @@
         <v>20.0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -1717,31 +1717,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C47" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="D47" t="n">
-        <v>5301.0</v>
+        <v>6281.0</v>
       </c>
       <c r="E47" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F47" t="n">
         <v>1.0</v>
       </c>
       <c r="G47" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>17.0</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J47" t="n">
-        <v>-5.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="48">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="I48"/>
       <c r="J48" t="n">
-        <v>-12.0</v>
+        <v>-14.0</v>
       </c>
     </row>
     <row r="49">
@@ -1803,7 +1803,7 @@
         <v>100.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-14.0</v>
+        <v>-18.0</v>
       </c>
     </row>
     <row r="50">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="I50"/>
       <c r="J50" t="n">
-        <v>-30.0</v>
+        <v>-33.0</v>
       </c>
     </row>
     <row r="51">
@@ -1841,16 +1841,16 @@
         <v>59</v>
       </c>
       <c r="B51" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C51" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="D51" t="n">
-        <v>8689.0</v>
+        <v>9809.0</v>
       </c>
       <c r="E51" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F51" t="n">
         <v>3.0</v>
@@ -1862,10 +1862,10 @@
         <v>4.0</v>
       </c>
       <c r="I51" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="J51" t="n">
-        <v>-84.0</v>
+        <v>-81.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -59,36 +59,36 @@
     <t>Fabíola</t>
   </si>
   <si>
+    <t>leal</t>
+  </si>
+  <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>snowkids</t>
+  </si>
+  <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
-    <t>Inferno</t>
-  </si>
-  <si>
-    <t>snowkids</t>
-  </si>
-  <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
     <t>King Bonixe</t>
   </si>
   <si>
     <t>zau</t>
   </si>
   <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>faneca</t>
   </si>
   <si>
@@ -101,12 +101,12 @@
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
@@ -125,15 +125,15 @@
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>Savler</t>
+  </si>
+  <si>
     <t>YOSHINZ</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>Savler</t>
-  </si>
-  <si>
     <t>Welton</t>
   </si>
   <si>
@@ -146,27 +146,24 @@
     <t>hugo</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>mounir</t>
+  </si>
+  <si>
     <t>Pikaya</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>mounir</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>castelhano</t>
-  </si>
-  <si>
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
@@ -176,7 +173,7 @@
     <t>Sra. Clash</t>
   </si>
   <si>
-    <t>Alex</t>
+    <t>SELFIE</t>
   </si>
   <si>
     <t>MASTER PT</t>
@@ -279,19 +276,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C2" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="D2" t="n">
-        <v>31920.0</v>
+        <v>33320.0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -300,10 +297,10 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="J2" t="n">
-        <v>260.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,19 +308,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C3" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="D3" t="n">
-        <v>30520.0</v>
+        <v>31920.0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -332,10 +329,10 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
-        <v>252.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,19 +340,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="D4" t="n">
-        <v>31920.0</v>
+        <v>33040.0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -364,10 +361,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="J4" t="n">
-        <v>232.0</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="5">
@@ -375,19 +372,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C5" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="D5" t="n">
-        <v>34440.0</v>
+        <v>35840.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -396,10 +393,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="J5" t="n">
-        <v>212.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="6">
@@ -407,19 +404,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C6" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D6" t="n">
-        <v>28735.0</v>
+        <v>29855.0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F6" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -428,10 +425,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="J6" t="n">
-        <v>207.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,28 +439,28 @@
         <v>25.0</v>
       </c>
       <c r="C7" t="n">
-        <v>75.0</v>
+        <v>73.0</v>
       </c>
       <c r="D7" t="n">
-        <v>29082.0</v>
+        <v>29400.0</v>
       </c>
       <c r="E7" t="n">
         <v>25.0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>64.0</v>
+        <v>76.0</v>
       </c>
       <c r="J7" t="n">
-        <v>206.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,31 +468,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="C8" t="n">
-        <v>70.0</v>
+        <v>81.0</v>
       </c>
       <c r="D8" t="n">
-        <v>27720.0</v>
+        <v>33320.0</v>
       </c>
       <c r="E8" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="F8" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>75.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>205.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,31 +500,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31372.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>26.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32200.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>28.0</v>
-      </c>
       <c r="F9" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>54.0</v>
+        <v>73.0</v>
       </c>
       <c r="J9" t="n">
-        <v>202.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,31 +532,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C10" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="D10" t="n">
-        <v>30252.0</v>
+        <v>31690.0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F10" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>72.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>202.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,31 +564,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C11" t="n">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="D11" t="n">
-        <v>30290.0</v>
+        <v>29120.0</v>
       </c>
       <c r="E11" t="n">
         <v>27.0</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>56.00000000000001</v>
+        <v>59.0</v>
       </c>
       <c r="J11" t="n">
-        <v>194.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,31 +596,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="C12" t="n">
-        <v>72.0</v>
+        <v>78.0</v>
       </c>
       <c r="D12" t="n">
-        <v>27720.0</v>
+        <v>30202.0</v>
       </c>
       <c r="E12" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="F12" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I12" t="n">
-        <v>57.99999999999999</v>
+        <v>64.0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,19 +628,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C13" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25200.0</v>
+        <v>26600.0</v>
       </c>
       <c r="E13" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G13" t="n">
         <v>3.0</v>
@@ -652,10 +649,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="J13" t="n">
-        <v>184.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="14">
@@ -663,19 +660,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C14" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="D14" t="n">
-        <v>31080.0</v>
+        <v>32760.0</v>
       </c>
       <c r="E14" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F14" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n">
         <v>2.0</v>
@@ -684,10 +681,10 @@
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="J14" t="n">
-        <v>183.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="15">
@@ -695,31 +692,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="C15" t="n">
-        <v>71.0</v>
+        <v>66.0</v>
       </c>
       <c r="D15" t="n">
-        <v>28560.0</v>
+        <v>27720.0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F15" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.0</v>
+        <v>74.0</v>
       </c>
       <c r="J15" t="n">
-        <v>176.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="16">
@@ -727,31 +724,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.0</v>
+        <v>74.0</v>
       </c>
       <c r="D16" t="n">
-        <v>26600.0</v>
+        <v>29400.0</v>
       </c>
       <c r="E16" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="F16" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>73.0</v>
+        <v>46.0</v>
       </c>
       <c r="J16" t="n">
-        <v>171.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,16 +756,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C17" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="D17" t="n">
-        <v>28779.0</v>
+        <v>30249.0</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F17" t="n">
         <v>13.0</v>
@@ -780,10 +777,10 @@
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="J17" t="n">
-        <v>170.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="18">
@@ -791,16 +788,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C18" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D18" t="n">
-        <v>29411.0</v>
+        <v>30531.0</v>
       </c>
       <c r="E18" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F18" t="n">
         <v>12.0</v>
@@ -812,10 +809,10 @@
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,19 +820,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C19" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="D19" t="n">
-        <v>26347.0</v>
+        <v>27467.0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F19" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -844,10 +841,10 @@
         <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="J19" t="n">
-        <v>158.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="20">
@@ -855,16 +852,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C20" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="D20" t="n">
-        <v>24640.0</v>
+        <v>25760.0</v>
       </c>
       <c r="E20" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F20" t="n">
         <v>12.0</v>
@@ -876,10 +873,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="J20" t="n">
-        <v>149.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,31 +884,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C21" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="D21" t="n">
-        <v>28560.0</v>
+        <v>24768.0</v>
       </c>
       <c r="E21" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F21" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H21" t="n">
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="J21" t="n">
-        <v>144.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,31 +916,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="C22" t="n">
-        <v>63.0</v>
+        <v>68.0</v>
       </c>
       <c r="D22" t="n">
-        <v>23719.0</v>
+        <v>29680.0</v>
       </c>
       <c r="E22" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="J22" t="n">
-        <v>142.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,16 +948,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C23" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="D23" t="n">
-        <v>26694.0</v>
+        <v>27743.0</v>
       </c>
       <c r="E23" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F23" t="n">
         <v>9.0</v>
@@ -972,10 +969,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="J23" t="n">
-        <v>138.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="24">
@@ -983,19 +980,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C24" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D24" t="n">
-        <v>26070.0</v>
+        <v>27540.0</v>
       </c>
       <c r="E24" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F24" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -1004,10 +1001,10 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>28.000000000000004</v>
+        <v>31.0</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,16 +1012,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26040.0</v>
+      </c>
+      <c r="E25" t="n">
         <v>23.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>24920.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>22.0</v>
       </c>
       <c r="F25" t="n">
         <v>16.0</v>
@@ -1036,10 +1033,10 @@
         <v>2.0</v>
       </c>
       <c r="I25" t="n">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
       <c r="J25" t="n">
-        <v>119.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="26">
@@ -1079,16 +1076,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="D27" t="n">
-        <v>28413.0</v>
+        <v>29199.0</v>
       </c>
       <c r="E27" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F27" t="n">
         <v>8.0</v>
@@ -1100,10 +1097,10 @@
         <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="J27" t="n">
-        <v>108.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="28">
@@ -1111,16 +1108,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C28" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="D28" t="n">
-        <v>5040.0</v>
+        <v>6440.0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F28" t="n">
         <v>3.0</v>
@@ -1132,10 +1129,10 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.0</v>
+        <v>60.0</v>
       </c>
       <c r="J28" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="29">
@@ -1143,31 +1140,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C29" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="D29" t="n">
-        <v>9800.0</v>
+        <v>10640.0</v>
       </c>
       <c r="E29" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>55.00000000000001</v>
+        <v>50.0</v>
       </c>
       <c r="J29" t="n">
-        <v>89.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="30">
@@ -1175,31 +1172,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C30" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="D30" t="n">
-        <v>9520.0</v>
+        <v>14000.0</v>
       </c>
       <c r="E30" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="F30" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.0</v>
+        <v>75.0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="31">
@@ -1210,28 +1207,28 @@
         <v>11.0</v>
       </c>
       <c r="C31" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="D31" t="n">
-        <v>12880.0</v>
+        <v>11480.0</v>
       </c>
       <c r="E31" t="n">
         <v>11.0</v>
       </c>
       <c r="F31" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I31" t="n">
-        <v>73.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>83.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="32">
@@ -1239,19 +1236,19 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C32" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="D32" t="n">
-        <v>27440.0</v>
+        <v>28280.0</v>
       </c>
       <c r="E32" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G32" t="n">
         <v>4.0</v>
@@ -1260,10 +1257,10 @@
         <v>2.0</v>
       </c>
       <c r="I32" t="n">
-        <v>25.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="J32" t="n">
-        <v>73.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="33">
@@ -1271,19 +1268,19 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C33" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="D33" t="n">
-        <v>7000.0</v>
+        <v>7840.0</v>
       </c>
       <c r="E33" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G33" t="n">
         <v>0.0</v>
@@ -1292,10 +1289,10 @@
         <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>28.999999999999996</v>
+        <v>38.0</v>
       </c>
       <c r="J33" t="n">
-        <v>72.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="34">
@@ -1303,16 +1300,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D34" t="n">
-        <v>16601.0</v>
+        <v>17913.0</v>
       </c>
       <c r="E34" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -1324,10 +1321,10 @@
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="35">
@@ -1335,16 +1332,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C35" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="D35" t="n">
-        <v>7280.0</v>
+        <v>8400.0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F35" t="n">
         <v>3.0</v>
@@ -1356,10 +1353,10 @@
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="J35" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,31 +1364,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16992.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G36" t="n">
         <v>8.0</v>
       </c>
-      <c r="C36" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>11760.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H36" t="n">
         <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>71.0</v>
+        <v>38.0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="37">
@@ -1399,31 +1396,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C37" t="n">
-        <v>38.0</v>
+        <v>10.0</v>
       </c>
       <c r="D37" t="n">
-        <v>16432.0</v>
+        <v>4480.0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="F37" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,31 +1428,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14206.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G38" t="n">
         <v>3.0</v>
       </c>
-      <c r="C38" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3640.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.0</v>
+        <v>6.0</v>
       </c>
       <c r="J38" t="n">
-        <v>47.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,16 +1460,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C39" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="D39" t="n">
-        <v>8680.0</v>
+        <v>10360.0</v>
       </c>
       <c r="E39" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -1484,10 +1481,10 @@
         <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.000000000000002</v>
+        <v>12.0</v>
       </c>
       <c r="J39" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,31 +1492,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.0</v>
+        <v>27.0</v>
       </c>
       <c r="D40" t="n">
-        <v>13069.0</v>
+        <v>13440.0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
       <c r="J40" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="41">
@@ -1527,19 +1524,19 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C41" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="D41" t="n">
-        <v>14363.0</v>
+        <v>15763.0</v>
       </c>
       <c r="E41" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G41" t="n">
         <v>2.0</v>
@@ -1548,10 +1545,10 @@
         <v>1.0</v>
       </c>
       <c r="I41" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="42">
@@ -1559,31 +1556,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="C42" t="n">
-        <v>29.0</v>
+        <v>9.0</v>
       </c>
       <c r="D42" t="n">
-        <v>11480.0</v>
+        <v>3920.0</v>
       </c>
       <c r="E42" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="F42" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="43">
@@ -1591,31 +1588,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C43" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D43" t="n">
-        <v>2450.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="44">
@@ -1623,31 +1620,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C44" t="n">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
       <c r="D44" t="n">
-        <v>1836.0</v>
+        <v>9868.0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J44" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -1655,31 +1652,29 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>9868.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>20.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I45"/>
       <c r="J45" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1687,29 +1682,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>7016.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
       </c>
-      <c r="I46"/>
+      <c r="I46" t="n">
+        <v>12.0</v>
+      </c>
       <c r="J46" t="n">
-        <v>3.0</v>
+        <v>-8.0</v>
       </c>
     </row>
     <row r="47">
@@ -1717,31 +1714,29 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>6281.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
-      <c r="I47" t="n">
-        <v>14.000000000000002</v>
-      </c>
+      <c r="I47"/>
       <c r="J47" t="n">
-        <v>-6.0</v>
+        <v>-16.0</v>
       </c>
     </row>
     <row r="48">
@@ -1749,19 +1744,19 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>1049.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -1769,9 +1764,11 @@
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
-      <c r="I48"/>
+      <c r="I48" t="n">
+        <v>100.0</v>
+      </c>
       <c r="J48" t="n">
-        <v>-14.0</v>
+        <v>-21.0</v>
       </c>
     </row>
     <row r="49">
@@ -1779,19 +1776,19 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1049.0</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -1799,11 +1796,9 @@
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
-      <c r="I49" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="I49"/>
       <c r="J49" t="n">
-        <v>-18.0</v>
+        <v>-36.0</v>
       </c>
     </row>
     <row r="50">
@@ -1811,61 +1806,31 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>9809.0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I50"/>
+        <v>4.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>50.0</v>
+      </c>
       <c r="J50" t="n">
-        <v>-33.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>9809.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>-81.0</v>
+        <v>-82.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -53,48 +53,48 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>Fabíola</t>
+    <t>Goblyn</t>
   </si>
   <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
     <t>Inferno</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>snowkids</t>
   </si>
   <si>
-    <t>Madnasty</t>
+    <t>zau</t>
+  </si>
+  <si>
+    <t>King Bonixe</t>
   </si>
   <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
-    <t>zau</t>
+    <t>pjp</t>
   </si>
   <si>
     <t>unb</t>
   </si>
   <si>
-    <t>pjp</t>
+    <t>Tio João</t>
   </si>
   <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
@@ -134,12 +134,12 @@
     <t>YOSHINZ</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>Welton</t>
   </si>
   <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
     <t>fglopes</t>
   </si>
   <si>
@@ -149,19 +149,22 @@
     <t>Sergas</t>
   </si>
   <si>
+    <t>mounir</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
     <t>Manu</t>
   </si>
   <si>
-    <t>mounir</t>
+    <t>pwepito</t>
+  </si>
+  <si>
+    <t>supercell</t>
   </si>
   <si>
     <t>Pikaya</t>
-  </si>
-  <si>
-    <t>supercell</t>
   </si>
   <si>
     <t>NOVA I MIGUEL☉</t>
@@ -276,19 +279,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="D2" t="n">
-        <v>33320.0</v>
+        <v>34720.0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -300,7 +303,7 @@
         <v>83.0</v>
       </c>
       <c r="J2" t="n">
-        <v>269.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="3">
@@ -308,31 +311,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C3" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33040.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>81.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>31920.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80.0</v>
-      </c>
       <c r="J3" t="n">
-        <v>261.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="4">
@@ -340,19 +343,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C4" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="D4" t="n">
-        <v>33040.0</v>
+        <v>34160.0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -361,10 +364,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0</v>
+        <v>249.0</v>
       </c>
     </row>
     <row r="5">
@@ -378,10 +381,10 @@
         <v>81.0</v>
       </c>
       <c r="D5" t="n">
-        <v>35840.0</v>
+        <v>30975.0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="F5" t="n">
         <v>19.0</v>
@@ -393,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="J5" t="n">
-        <v>221.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="6">
@@ -404,19 +407,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C6" t="n">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="D6" t="n">
-        <v>29855.0</v>
+        <v>36960.0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -425,10 +428,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="J6" t="n">
-        <v>216.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="7">
@@ -436,31 +439,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="C7" t="n">
-        <v>73.0</v>
+        <v>84.0</v>
       </c>
       <c r="D7" t="n">
-        <v>29400.0</v>
+        <v>34160.0</v>
       </c>
       <c r="E7" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="F7" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>76.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>214.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="8">
@@ -468,31 +471,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C8" t="n">
-        <v>81.0</v>
+        <v>76.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33320.0</v>
+        <v>30520.0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="F8" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>55.00000000000001</v>
+        <v>73.0</v>
       </c>
       <c r="J8" t="n">
-        <v>211.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="9">
@@ -500,16 +503,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32492.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>27.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>31372.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26.0</v>
       </c>
       <c r="F9" t="n">
         <v>19.0</v>
@@ -521,10 +524,10 @@
         <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
       <c r="J9" t="n">
-        <v>210.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="10">
@@ -532,31 +535,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C10" t="n">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="D10" t="n">
-        <v>31690.0</v>
+        <v>30800.0</v>
       </c>
       <c r="E10" t="n">
         <v>28.0</v>
       </c>
       <c r="F10" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>56.99999999999999</v>
+        <v>61.0</v>
       </c>
       <c r="J10" t="n">
-        <v>204.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="11">
@@ -564,31 +567,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="C11" t="n">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
       <c r="D11" t="n">
-        <v>29120.0</v>
+        <v>33090.0</v>
       </c>
       <c r="E11" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="F11" t="n">
         <v>16.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>198.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="12">
@@ -596,31 +599,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C12" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="D12" t="n">
-        <v>30202.0</v>
+        <v>33880.0</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="F12" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>64.0</v>
+        <v>52.0</v>
       </c>
       <c r="J12" t="n">
-        <v>196.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="13">
@@ -628,19 +631,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C13" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="D13" t="n">
-        <v>26600.0</v>
+        <v>27720.0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F13" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G13" t="n">
         <v>3.0</v>
@@ -649,10 +652,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="J13" t="n">
-        <v>193.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="14">
@@ -660,31 +663,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C14" t="n">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="D14" t="n">
-        <v>32760.0</v>
+        <v>30202.0</v>
       </c>
       <c r="E14" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F14" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.0</v>
+        <v>64.0</v>
       </c>
       <c r="J14" t="n">
-        <v>192.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="15">
@@ -692,31 +695,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="C15" t="n">
-        <v>66.0</v>
+        <v>77.0</v>
       </c>
       <c r="D15" t="n">
-        <v>27720.0</v>
+        <v>30520.0</v>
       </c>
       <c r="E15" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="F15" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>74.0</v>
+        <v>48.0</v>
       </c>
       <c r="J15" t="n">
-        <v>179.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="16">
@@ -724,31 +727,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="C16" t="n">
-        <v>74.0</v>
+        <v>67.0</v>
       </c>
       <c r="D16" t="n">
-        <v>29400.0</v>
+        <v>28000.0</v>
       </c>
       <c r="E16" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F16" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.0</v>
+        <v>75.0</v>
       </c>
       <c r="J16" t="n">
-        <v>178.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,28 +762,28 @@
         <v>27.0</v>
       </c>
       <c r="C17" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="D17" t="n">
-        <v>30249.0</v>
+        <v>31371.0</v>
       </c>
       <c r="E17" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="F17" t="n">
         <v>13.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="J17" t="n">
-        <v>174.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="18">
@@ -788,31 +791,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C18" t="n">
-        <v>78.0</v>
+        <v>83.0</v>
       </c>
       <c r="D18" t="n">
-        <v>30531.0</v>
+        <v>31298.0</v>
       </c>
       <c r="E18" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="F18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="J18" t="n">
-        <v>171.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="19">
@@ -820,19 +823,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C19" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D19" t="n">
-        <v>27467.0</v>
+        <v>28516.0</v>
       </c>
       <c r="E19" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -841,10 +844,10 @@
         <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="J19" t="n">
-        <v>166.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="20">
@@ -852,19 +855,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C20" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="D20" t="n">
-        <v>25760.0</v>
+        <v>26880.0</v>
       </c>
       <c r="E20" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F20" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G20" t="n">
         <v>3.0</v>
@@ -873,10 +876,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="21">
@@ -884,19 +887,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C21" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="D21" t="n">
-        <v>24768.0</v>
+        <v>25817.0</v>
       </c>
       <c r="E21" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F21" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G21" t="n">
         <v>3.0</v>
@@ -905,10 +908,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="J21" t="n">
-        <v>150.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="22">
@@ -916,16 +919,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C22" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="D22" t="n">
-        <v>29680.0</v>
+        <v>31080.0</v>
       </c>
       <c r="E22" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F22" t="n">
         <v>11.0</v>
@@ -937,10 +940,10 @@
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="J22" t="n">
-        <v>147.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="23">
@@ -948,19 +951,19 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C23" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="D23" t="n">
-        <v>27743.0</v>
+        <v>28478.0</v>
       </c>
       <c r="E23" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F23" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G23" t="n">
         <v>1.0</v>
@@ -969,10 +972,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="J23" t="n">
-        <v>141.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="24">
@@ -980,19 +983,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C24" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D24" t="n">
-        <v>27540.0</v>
+        <v>28765.0</v>
       </c>
       <c r="E24" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F24" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -1001,10 +1004,10 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="25">
@@ -1012,16 +1015,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27160.0</v>
+      </c>
+      <c r="E25" t="n">
         <v>24.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>26040.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>23.0</v>
       </c>
       <c r="F25" t="n">
         <v>16.0</v>
@@ -1033,10 +1036,10 @@
         <v>2.0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="J25" t="n">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="26">
@@ -1044,19 +1047,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C26" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="D26" t="n">
-        <v>17640.0</v>
+        <v>19040.0</v>
       </c>
       <c r="E26" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F26" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G26" t="n">
         <v>4.0</v>
@@ -1065,10 +1068,10 @@
         <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="J26" t="n">
-        <v>113.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="27">
@@ -1076,16 +1079,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C27" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="D27" t="n">
-        <v>29199.0</v>
+        <v>30039.0</v>
       </c>
       <c r="E27" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F27" t="n">
         <v>8.0</v>
@@ -1097,10 +1100,10 @@
         <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="J27" t="n">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="28">
@@ -1108,19 +1111,19 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C28" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="D28" t="n">
-        <v>6440.0</v>
+        <v>7560.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -1129,10 +1132,10 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>60.0</v>
+        <v>67.0</v>
       </c>
       <c r="J28" t="n">
-        <v>99.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="29">
@@ -1140,19 +1143,19 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C29" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="D29" t="n">
-        <v>10640.0</v>
+        <v>11480.0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -1161,10 +1164,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>94.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="30">
@@ -1172,19 +1175,19 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C30" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="D30" t="n">
-        <v>14000.0</v>
+        <v>15120.0</v>
       </c>
       <c r="E30" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F30" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G30" t="n">
         <v>2.0</v>
@@ -1193,10 +1196,10 @@
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="31">
@@ -1204,19 +1207,19 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C31" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="D31" t="n">
-        <v>11480.0</v>
+        <v>12880.0</v>
       </c>
       <c r="E31" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G31" t="n">
         <v>3.0</v>
@@ -1225,10 +1228,10 @@
         <v>1.0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.00000000000001</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="32">
@@ -1236,31 +1239,31 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="C32" t="n">
-        <v>65.0</v>
+        <v>24.0</v>
       </c>
       <c r="D32" t="n">
-        <v>28280.0</v>
+        <v>8960.0</v>
       </c>
       <c r="E32" t="n">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>28.999999999999996</v>
+        <v>44.0</v>
       </c>
       <c r="J32" t="n">
-        <v>81.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="33">
@@ -1268,31 +1271,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>28280.0</v>
+      </c>
+      <c r="E33" t="n">
         <v>21.0</v>
       </c>
-      <c r="D33" t="n">
-        <v>7840.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8.0</v>
-      </c>
       <c r="F33" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I33" t="n">
-        <v>38.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="J33" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="34">
@@ -1300,16 +1303,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="D34" t="n">
-        <v>17913.0</v>
+        <v>18962.0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -1321,10 +1324,10 @@
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="J34" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="35">
@@ -1332,16 +1335,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C35" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D35" t="n">
-        <v>8400.0</v>
+        <v>9800.0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F35" t="n">
         <v>3.0</v>
@@ -1353,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="J35" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="36">
@@ -1364,19 +1367,19 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C36" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="D36" t="n">
-        <v>16992.0</v>
+        <v>18112.0</v>
       </c>
       <c r="E36" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G36" t="n">
         <v>8.0</v>
@@ -1385,10 +1388,10 @@
         <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="J36" t="n">
-        <v>49.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="37">
@@ -1396,16 +1399,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C37" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="D37" t="n">
-        <v>4480.0</v>
+        <v>11760.0</v>
       </c>
       <c r="E37" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -1414,13 +1417,13 @@
         <v>2.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J37" t="n">
         <v>50.0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>47.0</v>
       </c>
     </row>
     <row r="38">
@@ -1428,31 +1431,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="C38" t="n">
-        <v>48.0</v>
+        <v>10.0</v>
       </c>
       <c r="D38" t="n">
-        <v>14206.0</v>
+        <v>4480.0</v>
       </c>
       <c r="E38" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.0</v>
+        <v>50.0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="39">
@@ -1460,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="C39" t="n">
-        <v>22.0</v>
+        <v>51.0</v>
       </c>
       <c r="D39" t="n">
-        <v>10360.0</v>
+        <v>15046.0</v>
       </c>
       <c r="E39" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H39" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="J39" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="40">
@@ -1492,31 +1495,29 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" t="n">
-        <v>13440.0</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G40" t="n">
         <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>71.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I40"/>
       <c r="J40" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="41">
@@ -1524,16 +1525,16 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C41" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="D41" t="n">
-        <v>15763.0</v>
+        <v>17163.0</v>
       </c>
       <c r="E41" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -1545,10 +1546,10 @@
         <v>1.0</v>
       </c>
       <c r="I41" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="J41" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="42">
@@ -1556,31 +1557,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C42" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="D42" t="n">
-        <v>3920.0</v>
+        <v>13440.0</v>
       </c>
       <c r="E42" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G42" t="n">
         <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I42" t="n">
-        <v>33.0</v>
+        <v>71.0</v>
       </c>
       <c r="J42" t="n">
-        <v>19.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="43">
@@ -1588,31 +1589,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1836.0</v>
+        <v>5145.0</v>
       </c>
       <c r="E43" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="J43" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="44">
@@ -1620,31 +1621,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C44" t="n">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="D44" t="n">
-        <v>9868.0</v>
+        <v>3148.0</v>
       </c>
       <c r="E44" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
@@ -1652,29 +1653,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>10988.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I45"/>
+        <v>2.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>18.0</v>
+      </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -1682,31 +1685,29 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>7016.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
       </c>
-      <c r="I46" t="n">
-        <v>12.0</v>
-      </c>
+      <c r="I46"/>
       <c r="J46" t="n">
-        <v>-8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1714,27 +1715,29 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>7471.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
-      <c r="I47"/>
+      <c r="I47" t="n">
+        <v>11.0</v>
+      </c>
       <c r="J47" t="n">
         <v>-16.0</v>
       </c>
@@ -1744,19 +1747,19 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1049.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -1764,11 +1767,9 @@
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
-      <c r="I48" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="I48"/>
       <c r="J48" t="n">
-        <v>-21.0</v>
+        <v>-18.0</v>
       </c>
     </row>
     <row r="49">
@@ -1776,19 +1777,19 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>1049.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -1796,9 +1797,11 @@
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
-      <c r="I49"/>
+      <c r="I49" t="n">
+        <v>100.0</v>
+      </c>
       <c r="J49" t="n">
-        <v>-36.0</v>
+        <v>-24.0</v>
       </c>
     </row>
     <row r="50">
@@ -1806,31 +1809,61 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n">
-        <v>9809.0</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50" t="n">
+        <v>-40.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10929.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F51" t="n">
         <v>3.0</v>
       </c>
-      <c r="G50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.0</v>
       </c>
-      <c r="I50" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>-82.0</v>
+      <c r="I51" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-80.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -495,7 +495,7 @@
         <v>73.0</v>
       </c>
       <c r="J8" t="n">
-        <v>216.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,7 +527,7 @@
         <v>70.0</v>
       </c>
       <c r="J9" t="n">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="10">
@@ -847,7 +847,7 @@
         <v>64.0</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="20">
@@ -879,7 +879,7 @@
         <v>52.0</v>
       </c>
       <c r="J20" t="n">
-        <v>161.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="21">
@@ -975,7 +975,7 @@
         <v>34.0</v>
       </c>
       <c r="J23" t="n">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="24">
@@ -1103,7 +1103,7 @@
         <v>30.0</v>
       </c>
       <c r="J27" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="28">
@@ -1135,7 +1135,7 @@
         <v>67.0</v>
       </c>
       <c r="J28" t="n">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="29">
@@ -1231,7 +1231,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>90.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="32">
@@ -1327,7 +1327,7 @@
         <v>18.0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="35">
@@ -1581,7 +1581,7 @@
         <v>71.0</v>
       </c>
       <c r="J42" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="43">
@@ -1613,7 +1613,7 @@
         <v>25.0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="44">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="I46"/>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1739,7 +1739,7 @@
         <v>11.0</v>
       </c>
       <c r="J47" t="n">
-        <v>-16.0</v>
+        <v>-18.0</v>
       </c>
     </row>
     <row r="48">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="I48"/>
       <c r="J48" t="n">
-        <v>-18.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="49">
@@ -1863,7 +1863,7 @@
         <v>43.0</v>
       </c>
       <c r="J51" t="n">
-        <v>-80.0</v>
+        <v>-79.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -53,12 +53,12 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
+    <t>John Rambo</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
@@ -86,6 +86,9 @@
     <t>pjp</t>
   </si>
   <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
     <t>unb</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
     <t>faneca</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
     <t>TheKingJK</t>
   </si>
   <si>
@@ -116,12 +116,12 @@
     <t>topdosl33ts</t>
   </si>
   <si>
+    <t>qzt</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>qzt</t>
-  </si>
-  <si>
     <t>Tabo da amarela</t>
   </si>
   <si>
@@ -131,12 +131,12 @@
     <t>Savler</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>YOSHINZ</t>
   </si>
   <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
     <t>Welton</t>
   </si>
   <si>
@@ -149,40 +149,40 @@
     <t>Sergas</t>
   </si>
   <si>
+    <t>supercell</t>
+  </si>
+  <si>
     <t>mounir</t>
   </si>
   <si>
     <t>Marcelo</t>
   </si>
   <si>
+    <t>Pikaya</t>
+  </si>
+  <si>
     <t>Manu</t>
   </si>
   <si>
     <t>pwepito</t>
   </si>
   <si>
-    <t>supercell</t>
-  </si>
-  <si>
-    <t>Pikaya</t>
-  </si>
-  <si>
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
     <t>Jonas 705</t>
   </si>
   <si>
+    <t>SELFIE</t>
+  </si>
+  <si>
     <t>Sra. Clash</t>
   </si>
   <si>
-    <t>SELFIE</t>
+    <t>EBAERV_</t>
   </si>
   <si>
     <t>MASTER PT</t>
-  </si>
-  <si>
-    <t>EBAERV_</t>
   </si>
   <si>
     <t>Bruno Lopez</t>
@@ -279,31 +279,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C2" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35840.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
         <v>84.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>34720.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>83.0</v>
-      </c>
       <c r="J2" t="n">
-        <v>278.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,19 +311,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="D3" t="n">
-        <v>33040.0</v>
+        <v>33880.0</v>
       </c>
       <c r="E3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -335,7 +335,7 @@
         <v>81.0</v>
       </c>
       <c r="J3" t="n">
-        <v>269.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,19 +343,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C4" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="D4" t="n">
-        <v>34160.0</v>
+        <v>35560.0</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -367,7 +367,7 @@
         <v>77.0</v>
       </c>
       <c r="J4" t="n">
-        <v>249.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="5">
@@ -375,19 +375,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="C5" t="n">
-        <v>81.0</v>
+        <v>87.0</v>
       </c>
       <c r="D5" t="n">
-        <v>30975.0</v>
+        <v>38640.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -396,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>68.0</v>
+        <v>65.0</v>
       </c>
       <c r="J5" t="n">
-        <v>224.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="6">
@@ -413,13 +413,13 @@
         <v>84.0</v>
       </c>
       <c r="D6" t="n">
-        <v>36960.0</v>
+        <v>32375.0</v>
       </c>
       <c r="E6" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -428,10 +428,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>63.0</v>
+        <v>69.0</v>
       </c>
       <c r="J6" t="n">
-        <v>224.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="7">
@@ -439,19 +439,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C7" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="D7" t="n">
-        <v>34160.0</v>
+        <v>35560.0</v>
       </c>
       <c r="E7" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F7" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -460,10 +460,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>56.99999999999999</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>219.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,19 +471,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C8" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="D8" t="n">
-        <v>30520.0</v>
+        <v>31920.0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G8" t="n">
         <v>2.0</v>
@@ -492,10 +492,10 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="J8" t="n">
-        <v>217.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,19 +503,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33892.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>28.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32492.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>27.0</v>
-      </c>
       <c r="F9" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -524,10 +524,10 @@
         <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="J9" t="n">
-        <v>213.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,16 +535,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C10" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="D10" t="n">
-        <v>30800.0</v>
+        <v>32200.0</v>
       </c>
       <c r="E10" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F10" t="n">
         <v>17.0</v>
@@ -556,10 +556,10 @@
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>61.0</v>
+        <v>59.0</v>
       </c>
       <c r="J10" t="n">
-        <v>207.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,16 +567,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C11" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="D11" t="n">
-        <v>33090.0</v>
+        <v>34770.0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F11" t="n">
         <v>16.0</v>
@@ -588,10 +588,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>55.00000000000001</v>
+        <v>53.0</v>
       </c>
       <c r="J11" t="n">
-        <v>207.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,19 +599,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C12" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="D12" t="n">
-        <v>33880.0</v>
+        <v>35000.0</v>
       </c>
       <c r="E12" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F12" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G12" t="n">
         <v>2.0</v>
@@ -620,10 +620,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="J12" t="n">
-        <v>201.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,16 +631,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C13" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="D13" t="n">
-        <v>27720.0</v>
+        <v>28560.0</v>
       </c>
       <c r="E13" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F13" t="n">
         <v>17.0</v>
@@ -652,10 +652,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="J13" t="n">
-        <v>201.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="14">
@@ -687,7 +687,7 @@
         <v>64.0</v>
       </c>
       <c r="J14" t="n">
-        <v>196.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="15">
@@ -727,31 +727,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="C16" t="n">
-        <v>67.0</v>
+        <v>78.0</v>
       </c>
       <c r="D16" t="n">
-        <v>28000.0</v>
+        <v>30196.0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="F16" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.0</v>
+        <v>65.0</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,31 +759,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="C17" t="n">
-        <v>81.0</v>
+        <v>70.0</v>
       </c>
       <c r="D17" t="n">
-        <v>31371.0</v>
+        <v>28840.0</v>
       </c>
       <c r="E17" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.0</v>
+        <v>72.0</v>
       </c>
       <c r="J17" t="n">
-        <v>179.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="18">
@@ -794,28 +794,28 @@
         <v>28.0</v>
       </c>
       <c r="C18" t="n">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="D18" t="n">
-        <v>31298.0</v>
+        <v>32771.0</v>
       </c>
       <c r="E18" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="F18" t="n">
         <v>13.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="J18" t="n">
-        <v>177.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,31 +823,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="C19" t="n">
-        <v>75.0</v>
+        <v>86.0</v>
       </c>
       <c r="D19" t="n">
-        <v>28516.0</v>
+        <v>32873.0</v>
       </c>
       <c r="E19" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="F19" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.0</v>
+        <v>39.0</v>
       </c>
       <c r="J19" t="n">
-        <v>175.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="20">
@@ -855,19 +855,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C20" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="D20" t="n">
-        <v>26880.0</v>
+        <v>28280.0</v>
       </c>
       <c r="E20" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F20" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G20" t="n">
         <v>3.0</v>
@@ -876,10 +876,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="J20" t="n">
-        <v>160.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,19 +887,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C21" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="D21" t="n">
-        <v>25817.0</v>
+        <v>26866.0</v>
       </c>
       <c r="E21" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F21" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G21" t="n">
         <v>3.0</v>
@@ -908,10 +908,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="J21" t="n">
-        <v>158.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,16 +919,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C22" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="D22" t="n">
-        <v>31080.0</v>
+        <v>32480.0</v>
       </c>
       <c r="E22" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F22" t="n">
         <v>11.0</v>
@@ -940,10 +940,10 @@
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="J22" t="n">
-        <v>151.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,16 +951,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="D23" t="n">
-        <v>28478.0</v>
+        <v>29790.0</v>
       </c>
       <c r="E23" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F23" t="n">
         <v>10.0</v>
@@ -972,10 +972,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="J23" t="n">
-        <v>149.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="24">
@@ -983,31 +983,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C24" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="D24" t="n">
-        <v>28765.0</v>
+        <v>29010.0</v>
       </c>
       <c r="E24" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F24" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="J24" t="n">
-        <v>144.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,31 +1015,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27440.0</v>
+      </c>
+      <c r="E25" t="n">
         <v>25.0</v>
       </c>
-      <c r="C25" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>27160.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>24.0</v>
-      </c>
       <c r="F25" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H25" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="J25" t="n">
-        <v>125.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="26">
@@ -1047,28 +1047,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="C26" t="n">
-        <v>44.0</v>
+        <v>79.0</v>
       </c>
       <c r="D26" t="n">
-        <v>19040.0</v>
+        <v>31439.0</v>
       </c>
       <c r="E26" t="n">
-        <v>17.0</v>
+        <v>28.0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.0</v>
+        <v>32.0</v>
       </c>
       <c r="J26" t="n">
         <v>121.0</v>
@@ -1079,31 +1079,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="C27" t="n">
-        <v>76.0</v>
+        <v>44.0</v>
       </c>
       <c r="D27" t="n">
-        <v>30039.0</v>
+        <v>19040.0</v>
       </c>
       <c r="E27" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="J27" t="n">
-        <v>113.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="28">
@@ -1111,19 +1111,19 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="D28" t="n">
-        <v>7560.0</v>
+        <v>9240.0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -1132,10 +1132,10 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>67.0</v>
+        <v>71.0</v>
       </c>
       <c r="J28" t="n">
-        <v>108.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="29">
@@ -1143,16 +1143,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="D29" t="n">
-        <v>11480.0</v>
+        <v>12600.0</v>
       </c>
       <c r="E29" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F29" t="n">
         <v>5.0</v>
@@ -1164,10 +1164,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.00000000000001</v>
+        <v>50.0</v>
       </c>
       <c r="J29" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="30">
@@ -1175,16 +1175,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C30" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="D30" t="n">
-        <v>15120.0</v>
+        <v>16240.0</v>
       </c>
       <c r="E30" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F30" t="n">
         <v>10.0</v>
@@ -1196,10 +1196,10 @@
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>77.0</v>
+        <v>71.0</v>
       </c>
       <c r="J30" t="n">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="31">
@@ -1207,31 +1207,31 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="D31" t="n">
-        <v>12880.0</v>
+        <v>10080.0</v>
       </c>
       <c r="E31" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>57.99999999999999</v>
+        <v>50.0</v>
       </c>
       <c r="J31" t="n">
-        <v>89.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="32">
@@ -1239,31 +1239,31 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C32" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="D32" t="n">
-        <v>8960.0</v>
+        <v>12880.0</v>
       </c>
       <c r="E32" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="33">
@@ -1271,16 +1271,16 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C33" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="D33" t="n">
-        <v>28280.0</v>
+        <v>29680.0</v>
       </c>
       <c r="E33" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F33" t="n">
         <v>6.0</v>
@@ -1292,10 +1292,10 @@
         <v>2.0</v>
       </c>
       <c r="I33" t="n">
-        <v>28.999999999999996</v>
+        <v>27.0</v>
       </c>
       <c r="J33" t="n">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="34">
@@ -1303,28 +1303,28 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C34" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="D34" t="n">
-        <v>18962.0</v>
+        <v>19486.0</v>
       </c>
       <c r="E34" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="J34" t="n">
         <v>76.0</v>
@@ -1335,16 +1335,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C35" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="D35" t="n">
-        <v>9800.0</v>
+        <v>11480.0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F35" t="n">
         <v>3.0</v>
@@ -1356,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="J35" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,19 +1367,19 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C36" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D36" t="n">
-        <v>18112.0</v>
+        <v>19232.0</v>
       </c>
       <c r="E36" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F36" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G36" t="n">
         <v>8.0</v>
@@ -1388,10 +1388,10 @@
         <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="J36" t="n">
-        <v>57.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="37">
@@ -1399,19 +1399,19 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="C37" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="D37" t="n">
-        <v>11760.0</v>
+        <v>18738.0</v>
       </c>
       <c r="E37" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G37" t="n">
         <v>2.0</v>
@@ -1420,10 +1420,10 @@
         <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="J37" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,16 +1431,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C38" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="D38" t="n">
-        <v>4480.0</v>
+        <v>11760.0</v>
       </c>
       <c r="E38" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="F38" t="n">
         <v>2.0</v>
@@ -1449,13 +1449,13 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J38" t="n">
         <v>50.0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>47.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="C39" t="n">
-        <v>51.0</v>
+        <v>11.0</v>
       </c>
       <c r="D39" t="n">
-        <v>15046.0</v>
+        <v>5040.0</v>
       </c>
       <c r="E39" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.0</v>
+        <v>60.0</v>
       </c>
       <c r="J39" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,29 +1495,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>14840.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G40" t="n">
         <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I40"/>
+        <v>2.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>75.0</v>
+      </c>
       <c r="J40" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="41">
@@ -1525,31 +1527,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C41" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="D41" t="n">
-        <v>17163.0</v>
+        <v>15046.0</v>
       </c>
       <c r="E41" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G41" t="n">
         <v>3.0</v>
       </c>
-      <c r="G41" t="n">
-        <v>2.0</v>
-      </c>
       <c r="H41" t="n">
         <v>1.0</v>
       </c>
       <c r="I41" t="n">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="J41" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="42">
@@ -1557,31 +1559,29 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" t="n">
-        <v>13440.0</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
         <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>71.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I42"/>
       <c r="J42" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="43">
@@ -1589,31 +1589,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C43" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="D43" t="n">
-        <v>5145.0</v>
+        <v>5880.0</v>
       </c>
       <c r="E43" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="44">
@@ -1621,31 +1621,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D44" t="n">
-        <v>3148.0</v>
+        <v>3410.0</v>
       </c>
       <c r="E44" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J44" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="45">
@@ -1653,31 +1653,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="D45" t="n">
-        <v>10988.0</v>
+        <v>1137.0</v>
       </c>
       <c r="E45" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -1685,29 +1685,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>10988.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I46"/>
+        <v>2.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18.0</v>
+      </c>
       <c r="J46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -1715,31 +1717,29 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>7471.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
-      <c r="I47" t="n">
-        <v>11.0</v>
-      </c>
+      <c r="I47"/>
       <c r="J47" t="n">
-        <v>-18.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="48">
@@ -1747,29 +1747,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>7716.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
-      <c r="I48"/>
+      <c r="I48" t="n">
+        <v>10.0</v>
+      </c>
       <c r="J48" t="n">
-        <v>-20.0</v>
+        <v>-26.0</v>
       </c>
     </row>
     <row r="49">
@@ -1801,7 +1803,7 @@
         <v>100.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-24.0</v>
+        <v>-27.0</v>
       </c>
     </row>
     <row r="50">
@@ -1831,7 +1833,7 @@
       </c>
       <c r="I50"/>
       <c r="J50" t="n">
-        <v>-40.0</v>
+        <v>-43.0</v>
       </c>
     </row>
     <row r="51">
@@ -1839,19 +1841,19 @@
         <v>59</v>
       </c>
       <c r="B51" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C51" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="D51" t="n">
-        <v>10929.0</v>
+        <v>11978.0</v>
       </c>
       <c r="E51" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F51" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G51" t="n">
         <v>1.0</v>
@@ -1860,10 +1862,10 @@
         <v>4.0</v>
       </c>
       <c r="I51" t="n">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="J51" t="n">
-        <v>-79.0</v>
+        <v>-72.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -113,12 +113,12 @@
     <t>metamox</t>
   </si>
   <si>
+    <t>qzt</t>
+  </si>
+  <si>
     <t>topdosl33ts</t>
   </si>
   <si>
-    <t>qzt</t>
-  </si>
-  <si>
     <t>Wut</t>
   </si>
   <si>
@@ -155,12 +155,12 @@
     <t>mounir</t>
   </si>
   <si>
+    <t>Pikaya</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>Pikaya</t>
-  </si>
-  <si>
     <t>Manu</t>
   </si>
   <si>
@@ -173,10 +173,10 @@
     <t>Jonas 705</t>
   </si>
   <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
     <t>SELFIE</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
   </si>
   <si>
     <t>EBAERV_</t>
@@ -527,7 +527,7 @@
         <v>71.0</v>
       </c>
       <c r="J9" t="n">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="10">
@@ -975,7 +975,7 @@
         <v>33.0</v>
       </c>
       <c r="J23" t="n">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="24">
@@ -1015,28 +1015,28 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C25" t="n">
-        <v>70.0</v>
+        <v>79.0</v>
       </c>
       <c r="D25" t="n">
-        <v>27440.0</v>
+        <v>31439.0</v>
       </c>
       <c r="E25" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F25" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="H25" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" t="n">
-        <v>68.0</v>
+        <v>32.0</v>
       </c>
       <c r="J25" t="n">
         <v>122.0</v>
@@ -1047,31 +1047,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="C26" t="n">
-        <v>79.0</v>
+        <v>70.0</v>
       </c>
       <c r="D26" t="n">
-        <v>31439.0</v>
+        <v>27440.0</v>
       </c>
       <c r="E26" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="H26" t="n">
         <v>2.0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.0</v>
+        <v>68.0</v>
       </c>
       <c r="J26" t="n">
-        <v>121.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="27">
@@ -1103,7 +1103,7 @@
         <v>65.0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="28">
@@ -1167,7 +1167,7 @@
         <v>50.0</v>
       </c>
       <c r="J29" t="n">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="30">
@@ -1463,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>11.0</v>
+        <v>30.0</v>
       </c>
       <c r="D39" t="n">
-        <v>5040.0</v>
+        <v>14840.0</v>
       </c>
       <c r="E39" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G39" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I39" t="n">
-        <v>60.0</v>
+        <v>75.0</v>
       </c>
       <c r="J39" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,28 +1495,28 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" t="n">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="D40" t="n">
-        <v>14840.0</v>
+        <v>5040.0</v>
       </c>
       <c r="E40" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F40" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>75.0</v>
+        <v>60.0</v>
       </c>
       <c r="J40" t="n">
         <v>48.0</v>
@@ -1645,7 +1645,7 @@
         <v>20.0</v>
       </c>
       <c r="J44" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
@@ -1653,28 +1653,28 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.0</v>
+        <v>29.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1137.0</v>
+        <v>10988.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="J45" t="n">
         <v>3.0</v>
@@ -1685,31 +1685,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C46" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="D46" t="n">
-        <v>10988.0</v>
+        <v>1137.0</v>
       </c>
       <c r="E46" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -53,12 +53,12 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>Fabíola</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
@@ -68,33 +68,33 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>snowkids</t>
+  </si>
+  <si>
+    <t>zau</t>
+  </si>
+  <si>
     <t>Madnasty</t>
   </si>
   <si>
-    <t>snowkids</t>
-  </si>
-  <si>
-    <t>zau</t>
-  </si>
-  <si>
     <t>King Bonixe</t>
   </si>
   <si>
     <t>Robb Stark</t>
   </si>
   <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
+    <t>Tio João</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
     <t>unb</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
     <t>faneca</t>
   </si>
   <si>
@@ -104,27 +104,27 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>carmen</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>carmen</t>
-  </si>
-  <si>
     <t>metamox</t>
   </si>
   <si>
     <t>qzt</t>
   </si>
   <si>
+    <t>Wut</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>topdosl33ts</t>
   </si>
   <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>Matilde Pires</t>
   </si>
   <si>
@@ -152,37 +152,37 @@
     <t>supercell</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>pwepito</t>
+  </si>
+  <si>
     <t>mounir</t>
   </si>
   <si>
     <t>Pikaya</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>pwepito</t>
+    <t>Jonas 705</t>
   </si>
   <si>
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
     <t>Sra. Clash</t>
   </si>
   <si>
     <t>SELFIE</t>
   </si>
   <si>
+    <t>MASTER PT</t>
+  </si>
+  <si>
     <t>EBAERV_</t>
-  </si>
-  <si>
-    <t>MASTER PT</t>
   </si>
   <si>
     <t>Bruno Lopez</t>
@@ -279,19 +279,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C2" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D2" t="n">
-        <v>35840.0</v>
+        <v>36680.0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -303,7 +303,7 @@
         <v>84.0</v>
       </c>
       <c r="J2" t="n">
-        <v>286.0</v>
+        <v>293.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,16 +311,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C3" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D3" t="n">
-        <v>33880.0</v>
+        <v>35000.0</v>
       </c>
       <c r="E3" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F3" t="n">
         <v>26.0</v>
@@ -332,10 +332,10 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>81.0</v>
+        <v>79.0</v>
       </c>
       <c r="J3" t="n">
-        <v>277.0</v>
+        <v>279.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,19 +343,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C4" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D4" t="n">
-        <v>35560.0</v>
+        <v>36680.0</v>
       </c>
       <c r="E4" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -364,10 +364,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="J4" t="n">
-        <v>258.0</v>
+        <v>266.0</v>
       </c>
     </row>
     <row r="5">
@@ -381,13 +381,13 @@
         <v>87.0</v>
       </c>
       <c r="D5" t="n">
-        <v>38640.0</v>
+        <v>33495.0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="F5" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -396,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="J5" t="n">
-        <v>234.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="6">
@@ -407,19 +407,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="C6" t="n">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
       <c r="D6" t="n">
-        <v>32375.0</v>
+        <v>39760.0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="F6" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -428,10 +428,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>69.0</v>
+        <v>66.0</v>
       </c>
       <c r="J6" t="n">
-        <v>233.0</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="7">
@@ -439,19 +439,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C7" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D7" t="n">
-        <v>35560.0</v>
+        <v>36400.0</v>
       </c>
       <c r="E7" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F7" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -460,10 +460,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>57.99999999999999</v>
+        <v>59.0</v>
       </c>
       <c r="J7" t="n">
-        <v>228.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,19 +471,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C8" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="D8" t="n">
-        <v>31920.0</v>
+        <v>33320.0</v>
       </c>
       <c r="E8" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F8" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G8" t="n">
         <v>2.0</v>
@@ -492,10 +492,10 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="J8" t="n">
-        <v>226.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,19 +503,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35012.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>29.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33892.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>28.0</v>
-      </c>
       <c r="F9" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -524,10 +524,10 @@
         <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="J9" t="n">
-        <v>222.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,31 +535,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="C10" t="n">
-        <v>81.0</v>
+        <v>88.0</v>
       </c>
       <c r="D10" t="n">
-        <v>32200.0</v>
+        <v>36170.0</v>
       </c>
       <c r="E10" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="F10" t="n">
         <v>17.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>211.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,19 +567,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C11" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="D11" t="n">
-        <v>34770.0</v>
+        <v>36120.0</v>
       </c>
       <c r="E11" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F11" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G11" t="n">
         <v>2.0</v>
@@ -588,10 +588,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>53.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>211.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,31 +599,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C12" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="D12" t="n">
-        <v>35000.0</v>
+        <v>33600.0</v>
       </c>
       <c r="E12" t="n">
         <v>30.0</v>
       </c>
       <c r="F12" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>53.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>209.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,19 +631,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C13" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D13" t="n">
-        <v>28560.0</v>
+        <v>29960.0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G13" t="n">
         <v>3.0</v>
@@ -652,10 +652,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="J13" t="n">
-        <v>203.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="14">
@@ -695,31 +695,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C15" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="D15" t="n">
-        <v>30520.0</v>
+        <v>31316.0</v>
       </c>
       <c r="E15" t="n">
         <v>27.0</v>
       </c>
       <c r="F15" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.0</v>
+        <v>67.0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="16">
@@ -727,31 +727,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.0</v>
+        <v>87.0</v>
       </c>
       <c r="D16" t="n">
-        <v>30196.0</v>
+        <v>33891.0</v>
       </c>
       <c r="E16" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="F16" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="J16" t="n">
-        <v>184.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,31 +759,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="C17" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="D17" t="n">
-        <v>28840.0</v>
+        <v>31640.0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F17" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>72.0</v>
+        <v>46.0</v>
       </c>
       <c r="J17" t="n">
-        <v>184.0</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="18">
@@ -791,31 +791,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="C18" t="n">
-        <v>84.0</v>
+        <v>70.0</v>
       </c>
       <c r="D18" t="n">
-        <v>32771.0</v>
+        <v>28840.0</v>
       </c>
       <c r="E18" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="F18" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.0</v>
+        <v>72.0</v>
       </c>
       <c r="J18" t="n">
-        <v>182.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,16 +823,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C19" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="D19" t="n">
-        <v>32873.0</v>
+        <v>33713.0</v>
       </c>
       <c r="E19" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F19" t="n">
         <v>13.0</v>
@@ -844,10 +844,10 @@
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="J19" t="n">
-        <v>181.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="20">
@@ -855,16 +855,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C20" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="D20" t="n">
-        <v>28280.0</v>
+        <v>29120.0</v>
       </c>
       <c r="E20" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F20" t="n">
         <v>14.0</v>
@@ -876,10 +876,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,16 +887,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C21" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="D21" t="n">
-        <v>26866.0</v>
+        <v>27915.0</v>
       </c>
       <c r="E21" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F21" t="n">
         <v>12.0</v>
@@ -908,10 +908,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="J21" t="n">
-        <v>166.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,31 +919,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="C22" t="n">
-        <v>74.0</v>
+        <v>86.0</v>
       </c>
       <c r="D22" t="n">
-        <v>32480.0</v>
+        <v>30839.0</v>
       </c>
       <c r="E22" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="F22" t="n">
         <v>11.0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="J22" t="n">
-        <v>154.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,31 +951,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C23" t="n">
-        <v>83.0</v>
+        <v>74.0</v>
       </c>
       <c r="D23" t="n">
-        <v>29790.0</v>
+        <v>32480.0</v>
       </c>
       <c r="E23" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="F23" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
     </row>
     <row r="24">
@@ -983,31 +983,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C24" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="D24" t="n">
-        <v>29010.0</v>
+        <v>29500.0</v>
       </c>
       <c r="E24" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F24" t="n">
         <v>10.0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="J24" t="n">
-        <v>147.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,19 +1015,19 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C25" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="D25" t="n">
-        <v>31439.0</v>
+        <v>33119.0</v>
       </c>
       <c r="E25" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G25" t="n">
         <v>5.0</v>
@@ -1036,10 +1036,10 @@
         <v>2.0</v>
       </c>
       <c r="I25" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="J25" t="n">
-        <v>122.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="26">
@@ -1047,28 +1047,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="C26" t="n">
-        <v>70.0</v>
+        <v>47.0</v>
       </c>
       <c r="D26" t="n">
-        <v>27440.0</v>
+        <v>20160.0</v>
       </c>
       <c r="E26" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="F26" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="G26" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>68.0</v>
+        <v>61.0</v>
       </c>
       <c r="J26" t="n">
         <v>122.0</v>
@@ -1079,31 +1079,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="C27" t="n">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="D27" t="n">
-        <v>19040.0</v>
+        <v>9800.0</v>
       </c>
       <c r="E27" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="F27" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="G27" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="J27" t="n">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="28">
@@ -1111,31 +1111,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
       <c r="C28" t="n">
-        <v>21.0</v>
+        <v>70.0</v>
       </c>
       <c r="D28" t="n">
-        <v>9240.0</v>
+        <v>27440.0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.0</v>
+        <v>68.0</v>
       </c>
       <c r="J28" t="n">
-        <v>117.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="29">
@@ -1143,19 +1143,19 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C29" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="D29" t="n">
-        <v>12600.0</v>
+        <v>13440.0</v>
       </c>
       <c r="E29" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -1164,10 +1164,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>104.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="30">
@@ -1175,31 +1175,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C30" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="D30" t="n">
-        <v>16240.0</v>
+        <v>17080.0</v>
       </c>
       <c r="E30" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F30" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="J30" t="n">
-        <v>102.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="31">
@@ -1207,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="D31" t="n">
-        <v>10080.0</v>
+        <v>11760.0</v>
       </c>
       <c r="E31" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F31" t="n">
         <v>5.0</v>
@@ -1228,10 +1228,10 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="J31" t="n">
-        <v>96.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="32">
@@ -1271,31 +1271,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C33" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="D33" t="n">
-        <v>29680.0</v>
+        <v>30800.0</v>
       </c>
       <c r="E33" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F33" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H33" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="J33" t="n">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="34">
@@ -1327,7 +1327,7 @@
         <v>17.0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="35">
@@ -1335,16 +1335,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C35" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="D35" t="n">
-        <v>11480.0</v>
+        <v>12600.0</v>
       </c>
       <c r="E35" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F35" t="n">
         <v>3.0</v>
@@ -1356,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,31 +1367,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C36" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="D36" t="n">
-        <v>19232.0</v>
+        <v>20352.0</v>
       </c>
       <c r="E36" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H36" t="n">
         <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="J36" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="37">
@@ -1399,19 +1399,19 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C37" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="D37" t="n">
-        <v>18738.0</v>
+        <v>19524.0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G37" t="n">
         <v>2.0</v>
@@ -1420,10 +1420,10 @@
         <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>25.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="J37" t="n">
-        <v>51.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,31 +1431,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C38" t="n">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="D38" t="n">
-        <v>11760.0</v>
+        <v>5600.0</v>
       </c>
       <c r="E38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.0</v>
+        <v>67.0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="C39" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="D39" t="n">
-        <v>14840.0</v>
+        <v>15046.0</v>
       </c>
       <c r="E39" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="F39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I39" t="n">
         <v>6.0</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>75.0</v>
-      </c>
       <c r="J39" t="n">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,31 +1495,29 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" t="n">
-        <v>5040.0</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
-      <c r="I40" t="n">
-        <v>60.0</v>
-      </c>
+      <c r="I40"/>
       <c r="J40" t="n">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="41">
@@ -1527,31 +1525,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C41" t="n">
-        <v>51.0</v>
+        <v>28.0</v>
       </c>
       <c r="D41" t="n">
-        <v>15046.0</v>
+        <v>12600.0</v>
       </c>
       <c r="E41" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="42">
@@ -1559,29 +1557,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>16240.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G42" t="n">
         <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I42"/>
+        <v>3.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>75.0</v>
+      </c>
       <c r="J42" t="n">
-        <v>43.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="43">
@@ -1589,31 +1589,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C43" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="D43" t="n">
-        <v>5880.0</v>
+        <v>4459.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="44">
@@ -1624,10 +1624,10 @@
         <v>5.0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="D44" t="n">
-        <v>3410.0</v>
+        <v>5880.0</v>
       </c>
       <c r="E44" t="n">
         <v>5.0</v>
@@ -1636,7 +1636,7 @@
         <v>1.0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -1645,7 +1645,7 @@
         <v>20.0</v>
       </c>
       <c r="J44" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="45">
@@ -1653,19 +1653,19 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12090.0</v>
+      </c>
+      <c r="E45" t="n">
         <v>12.0</v>
       </c>
-      <c r="C45" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>10988.0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>11.0</v>
-      </c>
       <c r="F45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G45" t="n">
         <v>7.0</v>
@@ -1674,10 +1674,10 @@
         <v>2.0</v>
       </c>
       <c r="I45" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
@@ -1717,29 +1717,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>8941.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
-      <c r="I47"/>
+      <c r="I47" t="n">
+        <v>18.0</v>
+      </c>
       <c r="J47" t="n">
-        <v>-20.0</v>
+        <v>-17.0</v>
       </c>
     </row>
     <row r="48">
@@ -1747,31 +1749,29 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>7716.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
-      <c r="I48" t="n">
-        <v>10.0</v>
-      </c>
+      <c r="I48"/>
       <c r="J48" t="n">
-        <v>-26.0</v>
+        <v>-23.0</v>
       </c>
     </row>
     <row r="49">
@@ -1803,7 +1803,7 @@
         <v>100.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-27.0</v>
+        <v>-31.0</v>
       </c>
     </row>
     <row r="50">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="I50"/>
       <c r="J50" t="n">
-        <v>-43.0</v>
+        <v>-47.0</v>
       </c>
     </row>
     <row r="51">
@@ -1841,31 +1841,31 @@
         <v>59</v>
       </c>
       <c r="B51" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C51" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="D51" t="n">
-        <v>11978.0</v>
+        <v>12240.0</v>
       </c>
       <c r="E51" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F51" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H51" t="n">
         <v>4.0</v>
       </c>
       <c r="I51" t="n">
-        <v>50.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>-72.0</v>
+        <v>-70.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -59,45 +59,45 @@
     <t>John Rambo</t>
   </si>
   <si>
+    <t>leal</t>
+  </si>
+  <si>
     <t>Goblyn</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
     <t>Inferno</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>snowkids</t>
   </si>
   <si>
     <t>zau</t>
   </si>
   <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
     <t>King Bonixe</t>
   </si>
   <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
+    <t>pjp</t>
+  </si>
+  <si>
+    <t>Tio João</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
-    <t>Tio João</t>
-  </si>
-  <si>
-    <t>pjp</t>
+    <t>faneca</t>
   </si>
   <si>
     <t>unb</t>
   </si>
   <si>
-    <t>faneca</t>
-  </si>
-  <si>
     <t>TheKingJK</t>
   </si>
   <si>
@@ -113,46 +113,49 @@
     <t>metamox</t>
   </si>
   <si>
+    <t>topdosl33ts</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
-    <t>topdosl33ts</t>
+    <t>Savler</t>
   </si>
   <si>
     <t>Matilde Pires</t>
   </si>
   <si>
-    <t>Savler</t>
-  </si>
-  <si>
     <t>LCINORC</t>
   </si>
   <si>
     <t>YOSHINZ</t>
   </si>
   <si>
+    <t>fglopes</t>
+  </si>
+  <si>
+    <t>Sergas</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
     <t>Welton</t>
   </si>
   <si>
-    <t>fglopes</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>Sergas</t>
+    <t>Marcelo</t>
   </si>
   <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>Marcelo</t>
+    <t>mounir</t>
   </si>
   <si>
     <t>Manu</t>
@@ -161,19 +164,16 @@
     <t>pwepito</t>
   </si>
   <si>
-    <t>mounir</t>
-  </si>
-  <si>
     <t>Pikaya</t>
   </si>
   <si>
+    <t>NOVA I MIGUEL☉</t>
+  </si>
+  <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
     <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>NOVA I MIGUEL☉</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
   </si>
   <si>
     <t>SELFIE</t>
@@ -279,19 +279,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C2" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D2" t="n">
-        <v>36680.0</v>
+        <v>37800.0</v>
       </c>
       <c r="E2" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -300,10 +300,10 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="J2" t="n">
-        <v>293.0</v>
+        <v>302.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,16 +311,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C3" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D3" t="n">
-        <v>35000.0</v>
+        <v>36120.0</v>
       </c>
       <c r="E3" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F3" t="n">
         <v>26.0</v>
@@ -332,10 +332,10 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>79.0</v>
+        <v>76.0</v>
       </c>
       <c r="J3" t="n">
-        <v>279.0</v>
+        <v>282.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,16 +343,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C4" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>36680.0</v>
+        <v>37520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F4" t="n">
         <v>25.0</v>
@@ -364,10 +364,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>78.0</v>
+        <v>76.0</v>
       </c>
       <c r="J4" t="n">
-        <v>266.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="5">
@@ -375,19 +375,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C5" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D5" t="n">
-        <v>33495.0</v>
+        <v>35175.0</v>
       </c>
       <c r="E5" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -396,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="J5" t="n">
-        <v>242.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="6">
@@ -407,16 +407,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C6" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D6" t="n">
-        <v>39760.0</v>
+        <v>40600.0</v>
       </c>
       <c r="E6" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F6" t="n">
         <v>21.0</v>
@@ -428,10 +428,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>66.0</v>
+        <v>64.0</v>
       </c>
       <c r="J6" t="n">
-        <v>241.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="7">
@@ -439,31 +439,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C7" t="n">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="D7" t="n">
-        <v>36400.0</v>
+        <v>34440.0</v>
       </c>
       <c r="E7" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0</v>
+        <v>76.0</v>
       </c>
       <c r="J7" t="n">
-        <v>236.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,31 +471,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="C8" t="n">
-        <v>82.0</v>
+        <v>93.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33320.0</v>
+        <v>37520.0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="F8" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>75.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>235.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,19 +503,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36132.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>30.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35012.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29.0</v>
-      </c>
       <c r="F9" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -524,10 +524,10 @@
         <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="J9" t="n">
-        <v>230.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,31 +535,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C10" t="n">
-        <v>88.0</v>
+        <v>87.0</v>
       </c>
       <c r="D10" t="n">
-        <v>36170.0</v>
+        <v>34720.0</v>
       </c>
       <c r="E10" t="n">
         <v>31.0</v>
       </c>
       <c r="F10" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>55.00000000000001</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>220.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,16 +567,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C11" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="D11" t="n">
-        <v>36120.0</v>
+        <v>37290.0</v>
       </c>
       <c r="E11" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F11" t="n">
         <v>17.0</v>
@@ -588,10 +588,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>55.00000000000001</v>
+        <v>53.0</v>
       </c>
       <c r="J11" t="n">
-        <v>217.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,31 +599,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="C12" t="n">
-        <v>84.0</v>
+        <v>91.0</v>
       </c>
       <c r="D12" t="n">
-        <v>33600.0</v>
+        <v>37520.0</v>
       </c>
       <c r="E12" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="F12" t="n">
         <v>17.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.99999999999999</v>
+        <v>53.0</v>
       </c>
       <c r="J12" t="n">
-        <v>214.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,31 +631,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C13" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="D13" t="n">
-        <v>29960.0</v>
+        <v>30240.0</v>
       </c>
       <c r="E13" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="J13" t="n">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="14">
@@ -663,19 +663,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C14" t="n">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="D14" t="n">
-        <v>30202.0</v>
+        <v>32716.0</v>
       </c>
       <c r="E14" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F14" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -684,10 +684,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="J14" t="n">
-        <v>195.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="15">
@@ -695,31 +695,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C15" t="n">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
       <c r="D15" t="n">
-        <v>31316.0</v>
+        <v>33320.0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="F15" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
       <c r="J15" t="n">
-        <v>193.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="16">
@@ -727,19 +727,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C16" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D16" t="n">
-        <v>33891.0</v>
+        <v>35291.0</v>
       </c>
       <c r="E16" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -748,10 +748,10 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="J16" t="n">
-        <v>190.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,31 +759,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C17" t="n">
-        <v>80.0</v>
+        <v>78.0</v>
       </c>
       <c r="D17" t="n">
-        <v>31640.0</v>
+        <v>30202.0</v>
       </c>
       <c r="E17" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
-        <v>46.0</v>
+        <v>64.0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="18">
@@ -791,31 +791,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="C18" t="n">
-        <v>70.0</v>
+        <v>92.0</v>
       </c>
       <c r="D18" t="n">
-        <v>28840.0</v>
+        <v>34833.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="F18" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>72.0</v>
+        <v>40.0</v>
       </c>
       <c r="J18" t="n">
-        <v>183.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,31 +823,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="C19" t="n">
-        <v>89.0</v>
+        <v>71.0</v>
       </c>
       <c r="D19" t="n">
-        <v>33713.0</v>
+        <v>29120.0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H19" t="n">
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>38.0</v>
+        <v>69.0</v>
       </c>
       <c r="J19" t="n">
-        <v>183.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="20">
@@ -855,16 +855,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C20" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="D20" t="n">
-        <v>29120.0</v>
+        <v>30240.0</v>
       </c>
       <c r="E20" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F20" t="n">
         <v>14.0</v>
@@ -876,10 +876,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="J20" t="n">
-        <v>171.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,16 +887,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C21" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D21" t="n">
-        <v>27915.0</v>
+        <v>29227.0</v>
       </c>
       <c r="E21" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F21" t="n">
         <v>12.0</v>
@@ -908,10 +908,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="J21" t="n">
-        <v>169.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,19 +919,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C22" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="D22" t="n">
-        <v>30839.0</v>
+        <v>31888.0</v>
       </c>
       <c r="E22" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F22" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
@@ -940,10 +940,10 @@
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="J22" t="n">
-        <v>160.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,16 +951,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C23" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="D23" t="n">
-        <v>32480.0</v>
+        <v>33600.0</v>
       </c>
       <c r="E23" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F23" t="n">
         <v>11.0</v>
@@ -972,10 +972,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="J23" t="n">
-        <v>153.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="24">
@@ -983,19 +983,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C24" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="D24" t="n">
-        <v>29500.0</v>
+        <v>30970.0</v>
       </c>
       <c r="E24" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F24" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G24" t="n">
         <v>3.0</v>
@@ -1004,10 +1004,10 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="J24" t="n">
-        <v>146.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,31 +1015,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="C25" t="n">
-        <v>82.0</v>
+        <v>73.0</v>
       </c>
       <c r="D25" t="n">
-        <v>33119.0</v>
+        <v>28840.0</v>
       </c>
       <c r="E25" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="F25" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="H25" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.0</v>
+        <v>69.0</v>
       </c>
       <c r="J25" t="n">
-        <v>131.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="26">
@@ -1047,31 +1047,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="C26" t="n">
-        <v>47.0</v>
+        <v>25.0</v>
       </c>
       <c r="D26" t="n">
-        <v>20160.0</v>
+        <v>11200.0</v>
       </c>
       <c r="E26" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H26" t="n">
         <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>61.0</v>
+        <v>78.0</v>
       </c>
       <c r="J26" t="n">
-        <v>122.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="27">
@@ -1079,31 +1079,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="C27" t="n">
-        <v>22.0</v>
+        <v>84.0</v>
       </c>
       <c r="D27" t="n">
-        <v>9800.0</v>
+        <v>33679.0</v>
       </c>
       <c r="E27" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="F27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>6.0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>2.0</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I27" t="n">
-        <v>75.0</v>
+        <v>33.0</v>
       </c>
       <c r="J27" t="n">
-        <v>121.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="28">
@@ -1111,31 +1111,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="C28" t="n">
-        <v>70.0</v>
+        <v>47.0</v>
       </c>
       <c r="D28" t="n">
-        <v>27440.0</v>
+        <v>20160.0</v>
       </c>
       <c r="E28" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="F28" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="G28" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>68.0</v>
+        <v>61.0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="29">
@@ -1143,31 +1143,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C29" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="D29" t="n">
-        <v>13440.0</v>
+        <v>18480.0</v>
       </c>
       <c r="E29" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>55.00000000000001</v>
+        <v>75.0</v>
       </c>
       <c r="J29" t="n">
-        <v>112.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="30">
@@ -1175,31 +1175,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="C30" t="n">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
       <c r="D30" t="n">
-        <v>17080.0</v>
+        <v>14560.0</v>
       </c>
       <c r="E30" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="F30" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>73.0</v>
+        <v>50.0</v>
       </c>
       <c r="J30" t="n">
-        <v>108.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="31">
@@ -1207,19 +1207,19 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C31" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="D31" t="n">
-        <v>11760.0</v>
+        <v>12880.0</v>
       </c>
       <c r="E31" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -1228,10 +1228,10 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="J31" t="n">
-        <v>100.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="32">
@@ -1263,7 +1263,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="33">
@@ -1271,31 +1271,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="C33" t="n">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
       <c r="D33" t="n">
-        <v>30800.0</v>
+        <v>20535.0</v>
       </c>
       <c r="E33" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G33" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="34">
@@ -1303,31 +1303,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="C34" t="n">
         <v>51.0</v>
       </c>
       <c r="D34" t="n">
-        <v>19486.0</v>
+        <v>21472.0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.0</v>
+        <v>50.0</v>
       </c>
       <c r="J34" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="35">
@@ -1335,16 +1335,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C35" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="D35" t="n">
-        <v>12600.0</v>
+        <v>13720.0</v>
       </c>
       <c r="E35" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F35" t="n">
         <v>3.0</v>
@@ -1356,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,31 +1367,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="C36" t="n">
-        <v>48.0</v>
+        <v>73.0</v>
       </c>
       <c r="D36" t="n">
-        <v>20352.0</v>
+        <v>32200.0</v>
       </c>
       <c r="E36" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="F36" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G36" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I36" t="n">
-        <v>47.0</v>
+        <v>30.0</v>
       </c>
       <c r="J36" t="n">
-        <v>68.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="37">
@@ -1399,31 +1399,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="C37" t="n">
-        <v>49.0</v>
+        <v>16.0</v>
       </c>
       <c r="D37" t="n">
-        <v>19524.0</v>
+        <v>7000.0</v>
       </c>
       <c r="E37" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="F37" t="n">
         <v>5.0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>28.999999999999996</v>
+        <v>71.0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,31 +1431,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="C38" t="n">
-        <v>13.0</v>
+        <v>52.0</v>
       </c>
       <c r="D38" t="n">
-        <v>5600.0</v>
+        <v>20573.0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="F38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="J38" t="n">
-        <v>53.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C39" t="n">
-        <v>51.0</v>
+        <v>31.0</v>
       </c>
       <c r="D39" t="n">
-        <v>15046.0</v>
+        <v>13720.0</v>
       </c>
       <c r="E39" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
       <c r="J39" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,27 +1495,29 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>15256.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I40"/>
+        <v>1.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11.0</v>
+      </c>
       <c r="J40" t="n">
         <v>43.0</v>
       </c>
@@ -1525,31 +1527,29 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n">
-        <v>12600.0</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>22.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I41"/>
       <c r="J41" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="42">
@@ -1581,7 +1581,7 @@
         <v>75.0</v>
       </c>
       <c r="J42" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="43">
@@ -1589,31 +1589,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C43" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="D43" t="n">
-        <v>4459.0</v>
+        <v>5880.0</v>
       </c>
       <c r="E43" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="44">
@@ -1621,31 +1621,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="C44" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13210.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J44" t="n">
         <v>14.0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>5880.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>22.0</v>
       </c>
     </row>
     <row r="45">
@@ -1653,31 +1653,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="C45" t="n">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="D45" t="n">
-        <v>12090.0</v>
+        <v>5509.0</v>
       </c>
       <c r="E45" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="F45" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" t="n">
         <v>7.0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="J45" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="46">
@@ -1685,13 +1685,13 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1137.0</v>
+        <v>1364.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -1700,16 +1700,16 @@
         <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.0</v>
+        <v>-12.0</v>
       </c>
     </row>
     <row r="47">
@@ -1717,16 +1717,16 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C47" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="D47" t="n">
-        <v>8941.0</v>
+        <v>10411.0</v>
       </c>
       <c r="E47" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -1738,10 +1738,10 @@
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="J47" t="n">
-        <v>-17.0</v>
+        <v>-14.0</v>
       </c>
     </row>
     <row r="48">
@@ -1749,13 +1749,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>962.0</v>
       </c>
       <c r="E48" t="n">
         <v>0.0</v>
@@ -1767,11 +1767,11 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48"/>
       <c r="J48" t="n">
-        <v>-23.0</v>
+        <v>-32.0</v>
       </c>
     </row>
     <row r="49">
@@ -1803,7 +1803,7 @@
         <v>100.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-31.0</v>
+        <v>-35.0</v>
       </c>
     </row>
     <row r="50">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="I50"/>
       <c r="J50" t="n">
-        <v>-47.0</v>
+        <v>-51.0</v>
       </c>
     </row>
     <row r="51">
@@ -1865,7 +1865,7 @@
         <v>56.00000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>-70.0</v>
+        <v>-72.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -113,7 +113,7 @@
     <t>metamox</t>
   </si>
   <si>
-    <t>topdosl33ts</t>
+    <t>CarvaPower.</t>
   </si>
   <si>
     <t>Tabo da amarela</t>
@@ -149,10 +149,10 @@
     <t>Welton</t>
   </si>
   <si>
+    <t>supercell</t>
+  </si>
+  <si>
     <t>Marcelo</t>
-  </si>
-  <si>
-    <t>supercell</t>
   </si>
   <si>
     <t>mounir</t>
@@ -687,7 +687,7 @@
         <v>68.0</v>
       </c>
       <c r="J14" t="n">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="15">
@@ -847,7 +847,7 @@
         <v>69.0</v>
       </c>
       <c r="J19" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="20">
@@ -1039,7 +1039,7 @@
         <v>69.0</v>
       </c>
       <c r="J25" t="n">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="26">
@@ -1071,7 +1071,7 @@
         <v>78.0</v>
       </c>
       <c r="J26" t="n">
-        <v>129.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="27">
@@ -1327,7 +1327,7 @@
         <v>50.0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="35">
@@ -1399,31 +1399,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.0</v>
+        <v>52.0</v>
       </c>
       <c r="D37" t="n">
-        <v>7000.0</v>
+        <v>20573.0</v>
       </c>
       <c r="E37" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="F37" t="n">
         <v>5.0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="J37" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,28 +1431,28 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="C38" t="n">
-        <v>52.0</v>
+        <v>16.0</v>
       </c>
       <c r="D38" t="n">
-        <v>20573.0</v>
+        <v>7000.0</v>
       </c>
       <c r="E38" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="F38" t="n">
         <v>5.0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>28.000000000000004</v>
+        <v>71.0</v>
       </c>
       <c r="J38" t="n">
         <v>61.0</v>
@@ -1519,7 +1519,7 @@
         <v>11.0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="41">
@@ -1865,7 +1865,7 @@
         <v>56.00000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>-72.0</v>
+        <v>-71.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -83,12 +83,12 @@
     <t>KryptoNnN</t>
   </si>
   <si>
+    <t>Tio João</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
     <t>Robb Stark</t>
   </si>
   <si>
@@ -98,39 +98,39 @@
     <t>unb</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
+    <t>metamox</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>metamox</t>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
+    <t>qzt</t>
   </si>
   <si>
     <t>CarvaPower.</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
-    <t>qzt</t>
+    <t>Savler</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
   </si>
   <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>Savler</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>LCINORC</t>
   </si>
   <si>
@@ -140,24 +140,21 @@
     <t>fglopes</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
     <t>Sergas</t>
   </si>
   <si>
-    <t>hugo</t>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>supercell</t>
   </si>
   <si>
     <t>Welton</t>
   </si>
   <si>
-    <t>supercell</t>
-  </si>
-  <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>mounir</t>
-  </si>
-  <si>
     <t>Manu</t>
   </si>
   <si>
@@ -170,12 +167,18 @@
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
     <t>Sra. Clash</t>
   </si>
   <si>
     <t>Jonas 705</t>
   </si>
   <si>
+    <t>RubenVski</t>
+  </si>
+  <si>
     <t>SELFIE</t>
   </si>
   <si>
@@ -189,9 +192,6 @@
   </si>
   <si>
     <t>Doomesticador</t>
-  </si>
-  <si>
-    <t>pedro</t>
   </si>
 </sst>
 </file>
@@ -279,19 +279,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C2" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D2" t="n">
-        <v>37800.0</v>
+        <v>39200.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -303,7 +303,7 @@
         <v>85.0</v>
       </c>
       <c r="J2" t="n">
-        <v>302.0</v>
+        <v>311.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,16 +311,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C3" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D3" t="n">
-        <v>36120.0</v>
+        <v>37520.0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F3" t="n">
         <v>26.0</v>
@@ -332,10 +332,10 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>76.0</v>
+        <v>74.0</v>
       </c>
       <c r="J3" t="n">
-        <v>282.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,19 +343,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C4" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D4" t="n">
-        <v>37520.0</v>
+        <v>38360.0</v>
       </c>
       <c r="E4" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -367,7 +367,7 @@
         <v>76.0</v>
       </c>
       <c r="J4" t="n">
-        <v>269.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="5">
@@ -375,19 +375,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C5" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D5" t="n">
-        <v>35175.0</v>
+        <v>36575.0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -396,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="J5" t="n">
-        <v>251.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="6">
@@ -407,19 +407,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C6" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D6" t="n">
-        <v>40600.0</v>
+        <v>41720.0</v>
       </c>
       <c r="E6" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -428,10 +428,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="J6" t="n">
-        <v>244.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="7">
@@ -439,19 +439,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C7" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="D7" t="n">
-        <v>34440.0</v>
+        <v>35280.0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G7" t="n">
         <v>2.0</v>
@@ -460,10 +460,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="J7" t="n">
-        <v>243.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,19 +471,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C8" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D8" t="n">
-        <v>37520.0</v>
+        <v>39200.0</v>
       </c>
       <c r="E8" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -492,10 +492,10 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>57.99999999999999</v>
+        <v>59.0</v>
       </c>
       <c r="J8" t="n">
-        <v>239.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,19 +503,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37532.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>31.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>36132.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>30.0</v>
-      </c>
       <c r="F9" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -524,10 +524,10 @@
         <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="J9" t="n">
-        <v>239.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,19 +535,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D10" t="n">
-        <v>34720.0</v>
+        <v>36120.0</v>
       </c>
       <c r="E10" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F10" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -556,10 +556,10 @@
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>57.99999999999999</v>
+        <v>59.0</v>
       </c>
       <c r="J10" t="n">
-        <v>223.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,19 +567,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C11" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="D11" t="n">
-        <v>37290.0</v>
+        <v>38130.0</v>
       </c>
       <c r="E11" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F11" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G11" t="n">
         <v>2.0</v>
@@ -588,10 +588,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>53.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>223.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,19 +599,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C12" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="D12" t="n">
-        <v>37520.0</v>
+        <v>38920.0</v>
       </c>
       <c r="E12" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F12" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G12" t="n">
         <v>2.0</v>
@@ -620,10 +620,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>53.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>221.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,19 +631,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="D13" t="n">
-        <v>30240.0</v>
+        <v>31360.0</v>
       </c>
       <c r="E13" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G13" t="n">
         <v>5.0</v>
@@ -652,10 +652,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="J13" t="n">
-        <v>212.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="14">
@@ -663,19 +663,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C14" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="D14" t="n">
-        <v>32716.0</v>
+        <v>34116.0</v>
       </c>
       <c r="E14" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="F14" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -684,10 +684,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="J14" t="n">
-        <v>202.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="15">
@@ -695,31 +695,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="C15" t="n">
-        <v>83.0</v>
+        <v>93.0</v>
       </c>
       <c r="D15" t="n">
-        <v>33320.0</v>
+        <v>36411.0</v>
       </c>
       <c r="E15" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="F15" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="J15" t="n">
-        <v>199.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="16">
@@ -727,22 +727,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34160.0</v>
+      </c>
+      <c r="E16" t="n">
         <v>30.0</v>
       </c>
-      <c r="C16" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>35291.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>32.0</v>
-      </c>
       <c r="F16" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
@@ -751,7 +751,7 @@
         <v>47.0</v>
       </c>
       <c r="J16" t="n">
-        <v>199.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="17">
@@ -791,16 +791,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C18" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="D18" t="n">
-        <v>34833.0</v>
+        <v>35882.0</v>
       </c>
       <c r="E18" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F18" t="n">
         <v>14.0</v>
@@ -812,10 +812,10 @@
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="J18" t="n">
-        <v>191.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,19 +823,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="D19" t="n">
-        <v>29120.0</v>
+        <v>30240.0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F19" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G19" t="n">
         <v>4.0</v>
@@ -844,10 +844,10 @@
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="J19" t="n">
-        <v>180.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="20">
@@ -855,19 +855,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="C20" t="n">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
       <c r="D20" t="n">
-        <v>30240.0</v>
+        <v>30802.0</v>
       </c>
       <c r="E20" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="F20" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G20" t="n">
         <v>3.0</v>
@@ -876,10 +876,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="J20" t="n">
-        <v>174.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,31 +887,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C21" t="n">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
       <c r="D21" t="n">
-        <v>29227.0</v>
+        <v>30520.0</v>
       </c>
       <c r="E21" t="n">
         <v>29.0</v>
       </c>
       <c r="F21" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H21" t="n">
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="J21" t="n">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,16 +919,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C22" t="n">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="D22" t="n">
-        <v>31888.0</v>
+        <v>33008.0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F22" t="n">
         <v>12.0</v>
@@ -940,10 +940,10 @@
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="J22" t="n">
-        <v>168.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,31 +951,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="C23" t="n">
-        <v>77.0</v>
+        <v>87.0</v>
       </c>
       <c r="D23" t="n">
-        <v>33600.0</v>
+        <v>32019.0</v>
       </c>
       <c r="E23" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="F23" t="n">
         <v>11.0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="J23" t="n">
-        <v>157.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="24">
@@ -986,28 +986,28 @@
         <v>29.0</v>
       </c>
       <c r="C24" t="n">
-        <v>84.0</v>
+        <v>79.0</v>
       </c>
       <c r="D24" t="n">
-        <v>30970.0</v>
+        <v>34440.0</v>
       </c>
       <c r="E24" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="F24" t="n">
         <v>11.0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="J24" t="n">
-        <v>155.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,31 +1015,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="C25" t="n">
-        <v>73.0</v>
+        <v>28.0</v>
       </c>
       <c r="D25" t="n">
-        <v>28840.0</v>
+        <v>12600.0</v>
       </c>
       <c r="E25" t="n">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="F25" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="J25" t="n">
-        <v>131.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="26">
@@ -1047,31 +1047,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>9.0</v>
+        <v>31.0</v>
       </c>
       <c r="C26" t="n">
-        <v>25.0</v>
+        <v>87.0</v>
       </c>
       <c r="D26" t="n">
-        <v>11200.0</v>
+        <v>35079.0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.0</v>
+        <v>31.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.0</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I26" t="n">
-        <v>78.0</v>
+        <v>32.0</v>
       </c>
       <c r="J26" t="n">
-        <v>130.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="27">
@@ -1079,31 +1079,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="C27" t="n">
-        <v>84.0</v>
+        <v>74.0</v>
       </c>
       <c r="D27" t="n">
-        <v>33679.0</v>
+        <v>29400.0</v>
       </c>
       <c r="E27" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="F27" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>10.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>6.0</v>
       </c>
       <c r="H27" t="n">
         <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>33.0</v>
+        <v>70.0</v>
       </c>
       <c r="J27" t="n">
-        <v>129.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="28">
@@ -1114,28 +1114,28 @@
         <v>17.0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="D28" t="n">
-        <v>20160.0</v>
+        <v>19880.0</v>
       </c>
       <c r="E28" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="F28" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.0</v>
+        <v>71.0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="29">
@@ -1143,31 +1143,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C29" t="n">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="D29" t="n">
-        <v>18480.0</v>
+        <v>15960.0</v>
       </c>
       <c r="E29" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="F29" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>75.0</v>
+        <v>46.0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="30">
@@ -1175,31 +1175,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="C30" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="D30" t="n">
-        <v>14560.0</v>
+        <v>20160.0</v>
       </c>
       <c r="E30" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.0</v>
+        <v>61.0</v>
       </c>
       <c r="J30" t="n">
-        <v>115.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="31">
@@ -1207,19 +1207,19 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="D31" t="n">
-        <v>12880.0</v>
+        <v>14280.0</v>
       </c>
       <c r="E31" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -1228,10 +1228,10 @@
         <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="J31" t="n">
-        <v>108.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="32">
@@ -1263,7 +1263,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>88.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="33">
@@ -1271,19 +1271,19 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C33" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="D33" t="n">
-        <v>20535.0</v>
+        <v>21655.0</v>
       </c>
       <c r="E33" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F33" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G33" t="n">
         <v>3.0</v>
@@ -1292,10 +1292,10 @@
         <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="J33" t="n">
-        <v>78.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="34">
@@ -1303,31 +1303,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C34" t="n">
-        <v>51.0</v>
+        <v>35.0</v>
       </c>
       <c r="D34" t="n">
-        <v>21472.0</v>
+        <v>14840.0</v>
       </c>
       <c r="E34" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="F34" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="G34" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="H34" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="35">
@@ -1335,31 +1335,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="C35" t="n">
-        <v>32.0</v>
+        <v>54.0</v>
       </c>
       <c r="D35" t="n">
-        <v>13720.0</v>
+        <v>22312.0</v>
       </c>
       <c r="E35" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F35" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="H35" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>27.0</v>
+        <v>48.0</v>
       </c>
       <c r="J35" t="n">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,31 +1367,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="C36" t="n">
-        <v>73.0</v>
+        <v>19.0</v>
       </c>
       <c r="D36" t="n">
-        <v>32200.0</v>
+        <v>8120.0</v>
       </c>
       <c r="E36" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="F36" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G36" t="n">
         <v>5.0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>30.0</v>
+        <v>75.0</v>
       </c>
       <c r="J36" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="37">
@@ -1423,7 +1423,7 @@
         <v>28.000000000000004</v>
       </c>
       <c r="J37" t="n">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,31 +1431,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>32760.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F38" t="n">
         <v>7.0</v>
       </c>
-      <c r="C38" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>7000.0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>7.0</v>
       </c>
-      <c r="F38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5.0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="J38" t="n">
-        <v>61.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="C39" t="n">
-        <v>31.0</v>
+        <v>55.0</v>
       </c>
       <c r="D39" t="n">
-        <v>13720.0</v>
+        <v>16306.0</v>
       </c>
       <c r="E39" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="J39" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,31 +1495,29 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" t="n">
-        <v>15256.0</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I40"/>
       <c r="J40" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="41">
@@ -1527,29 +1525,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>17289.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G41" t="n">
         <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I41"/>
+        <v>3.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>78.0</v>
+      </c>
       <c r="J41" t="n">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="42">
@@ -1557,31 +1557,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="C42" t="n">
-        <v>33.0</v>
+        <v>17.0</v>
       </c>
       <c r="D42" t="n">
-        <v>16240.0</v>
+        <v>7105.0</v>
       </c>
       <c r="E42" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F42" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>75.0</v>
+        <v>17.0</v>
       </c>
       <c r="J42" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="43">
@@ -1589,29 +1589,27 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>5880.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
-      <c r="I43" t="n">
-        <v>20.0</v>
-      </c>
+      <c r="I43"/>
       <c r="J43" t="n">
         <v>21.0</v>
       </c>
@@ -1621,31 +1619,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14330.0</v>
+      </c>
+      <c r="E44" t="n">
         <v>14.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>13210.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>13.0</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H44" t="n">
         <v>2.0</v>
       </c>
       <c r="I44" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="J44" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="45">
@@ -1685,31 +1683,29 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1364.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I46"/>
       <c r="J46" t="n">
-        <v>-12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -1717,31 +1713,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C47" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="D47" t="n">
-        <v>10411.0</v>
+        <v>1591.0</v>
       </c>
       <c r="E47" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="F47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="J47" t="n">
-        <v>-14.0</v>
+        <v>-16.0</v>
       </c>
     </row>
     <row r="48">
@@ -1749,29 +1745,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C48" t="n">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="D48" t="n">
-        <v>962.0</v>
+        <v>10411.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I48"/>
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17.0</v>
+      </c>
       <c r="J48" t="n">
-        <v>-32.0</v>
+        <v>-18.0</v>
       </c>
     </row>
     <row r="49">
@@ -1779,13 +1777,13 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C49" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1049.0</v>
+        <v>2117.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -1797,13 +1795,13 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
         <v>100.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-35.0</v>
+        <v>-26.0</v>
       </c>
     </row>
     <row r="50">
@@ -1811,19 +1809,19 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>1049.0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
@@ -1831,9 +1829,11 @@
       <c r="H50" t="n">
         <v>0.0</v>
       </c>
-      <c r="I50"/>
+      <c r="I50" t="n">
+        <v>100.0</v>
+      </c>
       <c r="J50" t="n">
-        <v>-51.0</v>
+        <v>-39.0</v>
       </c>
     </row>
     <row r="51">
@@ -1841,31 +1841,29 @@
         <v>59</v>
       </c>
       <c r="B51" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" t="n">
-        <v>12240.0</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>56.00000000000001</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I51"/>
       <c r="J51" t="n">
-        <v>-71.0</v>
+        <v>-55.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -59,15 +59,15 @@
     <t>John Rambo</t>
   </si>
   <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
-    <t>Inferno</t>
-  </si>
-  <si>
     <t>Madnasty</t>
   </si>
   <si>
@@ -89,12 +89,12 @@
     <t>pjp</t>
   </si>
   <si>
+    <t>faneca</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>faneca</t>
-  </si>
-  <si>
     <t>unb</t>
   </si>
   <si>
@@ -119,27 +119,27 @@
     <t>qzt</t>
   </si>
   <si>
+    <t>Savler</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
+    <t>Wut</t>
+  </si>
+  <si>
     <t>CarvaPower.</t>
   </si>
   <si>
-    <t>Savler</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>LCINORC</t>
+    <t>fglopes</t>
   </si>
   <si>
     <t>YOSHINZ</t>
   </si>
   <si>
-    <t>fglopes</t>
-  </si>
-  <si>
     <t>hugo</t>
   </si>
   <si>
@@ -155,22 +155,22 @@
     <t>Welton</t>
   </si>
   <si>
+    <t>pwepito</t>
+  </si>
+  <si>
     <t>Manu</t>
   </si>
   <si>
-    <t>pwepito</t>
-  </si>
-  <si>
     <t>Pikaya</t>
   </si>
   <si>
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
     <t>Da Silva</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
   </si>
   <si>
     <t>Jonas 705</t>
@@ -279,19 +279,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C2" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="D2" t="n">
-        <v>39200.0</v>
+        <v>40600.0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -300,10 +300,10 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="J2" t="n">
-        <v>311.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,16 +311,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C3" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="D3" t="n">
-        <v>37520.0</v>
+        <v>38360.0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F3" t="n">
         <v>26.0</v>
@@ -332,10 +332,10 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>74.0</v>
+        <v>72.0</v>
       </c>
       <c r="J3" t="n">
-        <v>286.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,19 +343,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C4" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="D4" t="n">
-        <v>38360.0</v>
+        <v>39200.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F4" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -364,10 +364,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.0</v>
+        <v>284.0</v>
       </c>
     </row>
     <row r="5">
@@ -375,16 +375,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C5" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D5" t="n">
-        <v>36575.0</v>
+        <v>37415.0</v>
       </c>
       <c r="E5" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F5" t="n">
         <v>23.0</v>
@@ -396,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>72.0</v>
+        <v>70.0</v>
       </c>
       <c r="J5" t="n">
-        <v>260.0</v>
+        <v>262.0</v>
       </c>
     </row>
     <row r="6">
@@ -407,19 +407,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C6" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="D6" t="n">
-        <v>41720.0</v>
+        <v>43120.0</v>
       </c>
       <c r="E6" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -428,10 +428,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="J6" t="n">
-        <v>252.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="7">
@@ -439,31 +439,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="C7" t="n">
-        <v>88.0</v>
+        <v>99.0</v>
       </c>
       <c r="D7" t="n">
-        <v>35280.0</v>
+        <v>38932.0</v>
       </c>
       <c r="E7" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
       <c r="J7" t="n">
-        <v>250.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,16 +471,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C8" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="D8" t="n">
-        <v>39200.0</v>
+        <v>40600.0</v>
       </c>
       <c r="E8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F8" t="n">
         <v>20.0</v>
@@ -492,10 +492,10 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>59.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>248.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,31 +503,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="C9" t="n">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
       <c r="D9" t="n">
-        <v>37532.0</v>
+        <v>35560.0</v>
       </c>
       <c r="E9" t="n">
         <v>31.0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="J9" t="n">
-        <v>248.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,19 +535,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C10" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D10" t="n">
-        <v>36120.0</v>
+        <v>37240.0</v>
       </c>
       <c r="E10" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F10" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -556,10 +556,10 @@
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="J10" t="n">
-        <v>232.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,19 +567,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C11" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="D11" t="n">
-        <v>38130.0</v>
+        <v>39250.0</v>
       </c>
       <c r="E11" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F11" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G11" t="n">
         <v>2.0</v>
@@ -588,10 +588,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>55.00000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>231.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C12" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="D12" t="n">
-        <v>38920.0</v>
+        <v>40600.0</v>
       </c>
       <c r="E12" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F12" t="n">
         <v>18.0</v>
@@ -620,10 +620,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>55.00000000000001</v>
+        <v>53.0</v>
       </c>
       <c r="J12" t="n">
-        <v>230.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,16 +631,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C13" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="D13" t="n">
-        <v>31360.0</v>
+        <v>32480.0</v>
       </c>
       <c r="E13" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F13" t="n">
         <v>20.0</v>
@@ -652,10 +652,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>65.0</v>
+        <v>62.0</v>
       </c>
       <c r="J13" t="n">
-        <v>220.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="14">
@@ -663,16 +663,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C14" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D14" t="n">
-        <v>34116.0</v>
+        <v>34956.0</v>
       </c>
       <c r="E14" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F14" t="n">
         <v>20.0</v>
@@ -684,10 +684,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="J14" t="n">
-        <v>210.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="15">
@@ -695,19 +695,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C15" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D15" t="n">
-        <v>36411.0</v>
+        <v>37811.0</v>
       </c>
       <c r="E15" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -716,10 +716,10 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="J15" t="n">
-        <v>202.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="16">
@@ -727,16 +727,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C16" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="D16" t="n">
-        <v>34160.0</v>
+        <v>35000.0</v>
       </c>
       <c r="E16" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F16" t="n">
         <v>14.0</v>
@@ -748,10 +748,10 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="J16" t="n">
-        <v>201.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,31 +759,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="C17" t="n">
-        <v>78.0</v>
+        <v>98.0</v>
       </c>
       <c r="D17" t="n">
-        <v>30202.0</v>
+        <v>37282.0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="F17" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>64.0</v>
+        <v>38.0</v>
       </c>
       <c r="J17" t="n">
-        <v>194.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="18">
@@ -791,31 +791,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="C18" t="n">
-        <v>95.0</v>
+        <v>78.0</v>
       </c>
       <c r="D18" t="n">
-        <v>35882.0</v>
+        <v>30202.0</v>
       </c>
       <c r="E18" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="F18" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,16 +823,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C19" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="D19" t="n">
-        <v>30240.0</v>
+        <v>31640.0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F19" t="n">
         <v>19.0</v>
@@ -844,10 +844,10 @@
         <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>70.0</v>
+        <v>68.0</v>
       </c>
       <c r="J19" t="n">
-        <v>188.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="20">
@@ -855,16 +855,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C20" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="D20" t="n">
-        <v>30802.0</v>
+        <v>32114.0</v>
       </c>
       <c r="E20" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F20" t="n">
         <v>13.0</v>
@@ -876,10 +876,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,19 +887,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C21" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="D21" t="n">
-        <v>30520.0</v>
+        <v>31920.0</v>
       </c>
       <c r="E21" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F21" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G21" t="n">
         <v>5.0</v>
@@ -908,10 +908,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="J21" t="n">
-        <v>174.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,19 +919,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C22" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="D22" t="n">
-        <v>33008.0</v>
+        <v>34057.0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F22" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
@@ -940,10 +940,10 @@
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="J22" t="n">
-        <v>171.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,16 +951,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C23" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D23" t="n">
-        <v>32019.0</v>
+        <v>33331.0</v>
       </c>
       <c r="E23" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F23" t="n">
         <v>11.0</v>
@@ -972,10 +972,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="J23" t="n">
-        <v>158.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="24">
@@ -983,16 +983,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C24" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="D24" t="n">
-        <v>34440.0</v>
+        <v>35840.0</v>
       </c>
       <c r="E24" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F24" t="n">
         <v>11.0</v>
@@ -1004,10 +1004,10 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="J24" t="n">
-        <v>154.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,19 +1015,19 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C25" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="D25" t="n">
-        <v>12600.0</v>
+        <v>14000.0</v>
       </c>
       <c r="E25" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G25" t="n">
         <v>2.0</v>
@@ -1036,10 +1036,10 @@
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="J25" t="n">
-        <v>134.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="26">
@@ -1047,16 +1047,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C26" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="D26" t="n">
-        <v>35079.0</v>
+        <v>36479.0</v>
       </c>
       <c r="E26" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F26" t="n">
         <v>10.0</v>
@@ -1068,10 +1068,10 @@
         <v>2.0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="27">
@@ -1079,31 +1079,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="C27" t="n">
-        <v>74.0</v>
+        <v>51.0</v>
       </c>
       <c r="D27" t="n">
-        <v>29400.0</v>
+        <v>21280.0</v>
       </c>
       <c r="E27" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="F27" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="G27" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="J27" t="n">
-        <v>127.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="28">
@@ -1111,28 +1111,28 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="C28" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
       <c r="D28" t="n">
-        <v>19880.0</v>
+        <v>17080.0</v>
       </c>
       <c r="E28" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.0</v>
+        <v>43.0</v>
       </c>
       <c r="J28" t="n">
         <v>121.0</v>
@@ -1149,13 +1149,13 @@
         <v>39.0</v>
       </c>
       <c r="D29" t="n">
-        <v>15960.0</v>
+        <v>15680.0</v>
       </c>
       <c r="E29" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -1164,10 +1164,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="J29" t="n">
-        <v>119.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="30">
@@ -1199,7 +1199,7 @@
         <v>61.0</v>
       </c>
       <c r="J30" t="n">
-        <v>119.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="31">
@@ -1207,31 +1207,31 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="C31" t="n">
-        <v>36.0</v>
+        <v>77.0</v>
       </c>
       <c r="D31" t="n">
-        <v>14280.0</v>
+        <v>30520.0</v>
       </c>
       <c r="E31" t="n">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I31" t="n">
-        <v>54.0</v>
+        <v>70.0</v>
       </c>
       <c r="J31" t="n">
-        <v>118.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="32">
@@ -1239,31 +1239,31 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="C32" t="n">
-        <v>33.0</v>
+        <v>60.0</v>
       </c>
       <c r="D32" t="n">
-        <v>12880.0</v>
+        <v>22441.0</v>
       </c>
       <c r="E32" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G32" t="n">
         <v>3.0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>57.99999999999999</v>
+        <v>19.0</v>
       </c>
       <c r="J32" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="33">
@@ -1271,31 +1271,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C33" t="n">
-        <v>57.0</v>
+        <v>33.0</v>
       </c>
       <c r="D33" t="n">
-        <v>21655.0</v>
+        <v>12880.0</v>
       </c>
       <c r="E33" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="F33" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G33" t="n">
         <v>3.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="34">
@@ -1303,16 +1303,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C34" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="D34" t="n">
-        <v>14840.0</v>
+        <v>15960.0</v>
       </c>
       <c r="E34" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F34" t="n">
         <v>4.0</v>
@@ -1324,10 +1324,10 @@
         <v>1.0</v>
       </c>
       <c r="I34" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="35">
@@ -1335,16 +1335,16 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C35" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="D35" t="n">
-        <v>22312.0</v>
+        <v>23712.0</v>
       </c>
       <c r="E35" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="F35" t="n">
         <v>10.0</v>
@@ -1356,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="J35" t="n">
-        <v>79.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,16 +1367,16 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C36" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="D36" t="n">
-        <v>8120.0</v>
+        <v>9240.0</v>
       </c>
       <c r="E36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F36" t="n">
         <v>6.0</v>
@@ -1388,10 +1388,10 @@
         <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>75.0</v>
+        <v>67.0</v>
       </c>
       <c r="J36" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="37">
@@ -1399,19 +1399,19 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C37" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="D37" t="n">
-        <v>20573.0</v>
+        <v>21622.0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F37" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G37" t="n">
         <v>2.0</v>
@@ -1420,10 +1420,10 @@
         <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>28.000000000000004</v>
+        <v>32.0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,19 +1431,19 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C38" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="D38" t="n">
-        <v>32760.0</v>
+        <v>33600.0</v>
       </c>
       <c r="E38" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G38" t="n">
         <v>7.0</v>
@@ -1452,10 +1452,10 @@
         <v>3.0</v>
       </c>
       <c r="I38" t="n">
-        <v>28.999999999999996</v>
+        <v>32.0</v>
       </c>
       <c r="J38" t="n">
-        <v>58.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="C39" t="n">
-        <v>55.0</v>
+        <v>3.0</v>
       </c>
       <c r="D39" t="n">
-        <v>16306.0</v>
+        <v>1120.0</v>
       </c>
       <c r="E39" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="J39" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,29 +1495,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>16936.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I40"/>
+        <v>2.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.0</v>
+      </c>
       <c r="J40" t="n">
-        <v>42.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
@@ -1557,31 +1559,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C42" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="D42" t="n">
-        <v>7105.0</v>
+        <v>7350.0</v>
       </c>
       <c r="E42" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -1589,27 +1591,29 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>15695.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I43"/>
+        <v>2.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>27.0</v>
+      </c>
       <c r="J43" t="n">
         <v>21.0</v>
       </c>
@@ -1619,31 +1623,29 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n">
-        <v>14330.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44" t="n">
         <v>21.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>12.0</v>
       </c>
     </row>
     <row r="45">
@@ -1651,31 +1653,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C45" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="D45" t="n">
-        <v>5509.0</v>
+        <v>6296.0</v>
       </c>
       <c r="E45" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
       </c>
       <c r="G45" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H45" t="n">
         <v>1.0</v>
       </c>
       <c r="I45" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
@@ -1777,17 +1779,17 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3079.0</v>
+      </c>
+      <c r="E49" t="n">
         <v>2.0</v>
       </c>
-      <c r="C49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2117.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F49" t="n">
         <v>1.0</v>
       </c>
@@ -1798,10 +1800,10 @@
         <v>1.0</v>
       </c>
       <c r="I49" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-26.0</v>
+        <v>-21.0</v>
       </c>
     </row>
     <row r="50">
@@ -1833,7 +1835,7 @@
         <v>100.0</v>
       </c>
       <c r="J50" t="n">
-        <v>-39.0</v>
+        <v>-42.0</v>
       </c>
     </row>
     <row r="51">
@@ -1863,7 +1865,7 @@
       </c>
       <c r="I51"/>
       <c r="J51" t="n">
-        <v>-55.0</v>
+        <v>-59.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -173,6 +173,9 @@
     <t>Da Silva</t>
   </si>
   <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
     <t>Jonas 705</t>
   </si>
   <si>
@@ -186,9 +189,6 @@
   </si>
   <si>
     <t>EBAERV_</t>
-  </si>
-  <si>
-    <t>Bruno Lopez</t>
   </si>
   <si>
     <t>Doomesticador</t>
@@ -687,7 +687,7 @@
         <v>67.0</v>
       </c>
       <c r="J14" t="n">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="15">
@@ -1327,7 +1327,7 @@
         <v>31.0</v>
       </c>
       <c r="J34" t="n">
-        <v>86.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="35">
@@ -1359,7 +1359,7 @@
         <v>45.0</v>
       </c>
       <c r="J35" t="n">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="36">
@@ -1391,7 +1391,7 @@
         <v>67.0</v>
       </c>
       <c r="J36" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="37">
@@ -1653,31 +1653,29 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>6296.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>25.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I45"/>
       <c r="J45" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="46">
@@ -1685,29 +1683,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>6296.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I46"/>
+        <v>1.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25.0</v>
+      </c>
       <c r="J46" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -1715,31 +1715,29 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47" t="n">
         <v>3.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1591.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>-16.0</v>
       </c>
     </row>
     <row r="48">
@@ -1747,31 +1745,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C48" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="D48" t="n">
-        <v>10411.0</v>
+        <v>1591.0</v>
       </c>
       <c r="E48" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>-18.0</v>
+        <v>-16.0</v>
       </c>
     </row>
     <row r="49">
@@ -1779,31 +1777,31 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C49" t="n">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
       <c r="D49" t="n">
-        <v>3079.0</v>
+        <v>10411.0</v>
       </c>
       <c r="E49" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2.0</v>
       </c>
-      <c r="F49" t="n">
-        <v>1.0</v>
-      </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>50.0</v>
+        <v>17.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-21.0</v>
+        <v>-18.0</v>
       </c>
     </row>
     <row r="50">
@@ -1811,16 +1809,16 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C50" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1049.0</v>
+        <v>3079.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F50" t="n">
         <v>1.0</v>
@@ -1829,13 +1827,13 @@
         <v>0.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I50" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="J50" t="n">
-        <v>-42.0</v>
+        <v>-21.0</v>
       </c>
     </row>
     <row r="51">

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -56,24 +56,24 @@
     <t>Fabíola</t>
   </si>
   <si>
+    <t>Inferno</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>Inferno</t>
+    <t>leal</t>
   </si>
   <si>
     <t>Goblyn</t>
   </si>
   <si>
-    <t>leal</t>
+    <t>snowkids</t>
   </si>
   <si>
     <t>Madnasty</t>
   </si>
   <si>
-    <t>snowkids</t>
-  </si>
-  <si>
     <t>zau</t>
   </si>
   <si>
@@ -86,27 +86,27 @@
     <t>Tio João</t>
   </si>
   <si>
+    <t>faneca</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>faneca</t>
+    <t>unb</t>
   </si>
   <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>Ricky</t>
   </si>
   <si>
+    <t>carmen</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
-    <t>carmen</t>
-  </si>
-  <si>
     <t>metamox</t>
   </si>
   <si>
@@ -119,15 +119,15 @@
     <t>qzt</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
     <t>Matilde Pires</t>
   </si>
   <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
     <t>Wut</t>
   </si>
   <si>
@@ -137,15 +137,15 @@
     <t>fglopes</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
     <t>YOSHINZ</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
     <t>Marcelo</t>
   </si>
   <si>
@@ -161,18 +161,18 @@
     <t>Manu</t>
   </si>
   <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
     <t>Pikaya</t>
   </si>
   <si>
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
-    <t>Sra. Clash</t>
-  </si>
-  <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
     <t>rei da guerra</t>
   </si>
   <si>
@@ -182,13 +182,10 @@
     <t>RubenVski</t>
   </si>
   <si>
-    <t>SELFIE</t>
+    <t>EBAERV_</t>
   </si>
   <si>
     <t>MASTER PT</t>
-  </si>
-  <si>
-    <t>EBAERV_</t>
   </si>
   <si>
     <t>Doomesticador</t>
@@ -279,19 +276,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C2" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="D2" t="n">
-        <v>40600.0</v>
+        <v>42000.0</v>
       </c>
       <c r="E2" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F2" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -303,7 +300,7 @@
         <v>86.0</v>
       </c>
       <c r="J2" t="n">
-        <v>320.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,19 +308,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C3" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="D3" t="n">
-        <v>38360.0</v>
+        <v>39480.0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -332,10 +329,10 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="J3" t="n">
-        <v>288.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,16 +340,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C4" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="D4" t="n">
-        <v>39200.0</v>
+        <v>40320.0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F4" t="n">
         <v>27.0</v>
@@ -364,10 +361,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
       <c r="J4" t="n">
-        <v>284.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="5">
@@ -375,19 +372,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C5" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="D5" t="n">
-        <v>37415.0</v>
+        <v>38255.0</v>
       </c>
       <c r="E5" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -396,10 +393,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="J5" t="n">
-        <v>262.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="6">
@@ -407,31 +404,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40332.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>33.0</v>
       </c>
-      <c r="C6" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43120.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36.0</v>
-      </c>
       <c r="F6" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
-        <v>64.0</v>
+        <v>76.0</v>
       </c>
       <c r="J6" t="n">
-        <v>261.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="7">
@@ -439,31 +436,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C7" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="D7" t="n">
-        <v>38932.0</v>
+        <v>43960.0</v>
       </c>
       <c r="E7" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.0</v>
+        <v>62.0</v>
       </c>
       <c r="J7" t="n">
-        <v>257.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,31 +468,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="C8" t="n">
-        <v>99.0</v>
+        <v>92.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40600.0</v>
+        <v>36960.0</v>
       </c>
       <c r="E8" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="F8" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>56.99999999999999</v>
+        <v>75.0</v>
       </c>
       <c r="J8" t="n">
-        <v>252.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,31 +500,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="C9" t="n">
-        <v>89.0</v>
+        <v>102.0</v>
       </c>
       <c r="D9" t="n">
-        <v>35560.0</v>
+        <v>41720.0</v>
       </c>
       <c r="E9" t="n">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>77.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>252.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,31 +532,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="C10" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>37240.0</v>
+        <v>40090.0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F10" t="n">
         <v>20.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>61.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>240.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,31 +564,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="C11" t="n">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="D11" t="n">
-        <v>39250.0</v>
+        <v>38080.0</v>
       </c>
       <c r="E11" t="n">
         <v>34.0</v>
       </c>
       <c r="F11" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>56.00000000000001</v>
+        <v>59.0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.0</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C12" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>40600.0</v>
+        <v>41440.0</v>
       </c>
       <c r="E12" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F12" t="n">
         <v>18.0</v>
@@ -620,10 +617,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,19 +628,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C13" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="D13" t="n">
-        <v>32480.0</v>
+        <v>33600.0</v>
       </c>
       <c r="E13" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F13" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G13" t="n">
         <v>5.0</v>
@@ -652,10 +649,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="J13" t="n">
-        <v>223.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="14">
@@ -663,19 +660,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C14" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>34956.0</v>
+        <v>36076.0</v>
       </c>
       <c r="E14" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F14" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -684,10 +681,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="J14" t="n">
-        <v>213.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +692,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C15" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="D15" t="n">
-        <v>37811.0</v>
+        <v>39211.0</v>
       </c>
       <c r="E15" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="F15" t="n">
         <v>16.0</v>
@@ -716,10 +713,10 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>47.0</v>
+        <v>44.0</v>
       </c>
       <c r="J15" t="n">
-        <v>211.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="16">
@@ -727,19 +724,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="C16" t="n">
-        <v>89.0</v>
+        <v>101.0</v>
       </c>
       <c r="D16" t="n">
-        <v>35000.0</v>
+        <v>38682.0</v>
       </c>
       <c r="E16" t="n">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
@@ -748,10 +745,10 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="J16" t="n">
-        <v>203.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,31 +756,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="C17" t="n">
-        <v>98.0</v>
+        <v>90.0</v>
       </c>
       <c r="D17" t="n">
-        <v>37282.0</v>
+        <v>35280.0</v>
       </c>
       <c r="E17" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="F17" t="n">
         <v>14.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="J17" t="n">
-        <v>197.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="18">
@@ -791,31 +788,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C18" t="n">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
       <c r="D18" t="n">
-        <v>30202.0</v>
+        <v>32760.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="F18" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>64.0</v>
+        <v>69.0</v>
       </c>
       <c r="J18" t="n">
-        <v>193.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,28 +820,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C19" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="D19" t="n">
-        <v>31640.0</v>
+        <v>30202.0</v>
       </c>
       <c r="E19" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F19" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="G19" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="J19" t="n">
         <v>192.0</v>
@@ -855,16 +852,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C20" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
-        <v>32114.0</v>
+        <v>33426.0</v>
       </c>
       <c r="E20" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F20" t="n">
         <v>13.0</v>
@@ -876,10 +873,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="J20" t="n">
-        <v>185.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,31 +884,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="C21" t="n">
-        <v>76.0</v>
+        <v>98.0</v>
       </c>
       <c r="D21" t="n">
-        <v>31920.0</v>
+        <v>35106.0</v>
       </c>
       <c r="E21" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="F21" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="G21" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n">
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>53.0</v>
+        <v>37.0</v>
       </c>
       <c r="J21" t="n">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,31 +916,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="C22" t="n">
-        <v>95.0</v>
+        <v>77.0</v>
       </c>
       <c r="D22" t="n">
-        <v>34057.0</v>
+        <v>32200.0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>38.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>179.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,16 +948,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C23" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D23" t="n">
-        <v>33331.0</v>
+        <v>34380.0</v>
       </c>
       <c r="E23" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="F23" t="n">
         <v>11.0</v>
@@ -972,10 +969,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="J23" t="n">
-        <v>161.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="24">
@@ -1007,7 +1004,7 @@
         <v>37.0</v>
       </c>
       <c r="J24" t="n">
-        <v>157.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,16 +1012,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C25" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="D25" t="n">
-        <v>14000.0</v>
+        <v>15400.0</v>
       </c>
       <c r="E25" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F25" t="n">
         <v>8.0</v>
@@ -1036,10 +1033,10 @@
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="J25" t="n">
-        <v>143.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="26">
@@ -1047,19 +1044,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C26" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D26" t="n">
-        <v>36479.0</v>
+        <v>37599.0</v>
       </c>
       <c r="E26" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F26" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G26" t="n">
         <v>6.0</v>
@@ -1068,10 +1065,10 @@
         <v>2.0</v>
       </c>
       <c r="I26" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="27">
@@ -1079,31 +1076,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="C27" t="n">
-        <v>51.0</v>
+        <v>42.0</v>
       </c>
       <c r="D27" t="n">
-        <v>21280.0</v>
+        <v>17080.0</v>
       </c>
       <c r="E27" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="F27" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.0</v>
+        <v>50.0</v>
       </c>
       <c r="J27" t="n">
-        <v>124.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="28">
@@ -1111,31 +1108,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="C28" t="n">
-        <v>42.0</v>
+        <v>54.0</v>
       </c>
       <c r="D28" t="n">
-        <v>17080.0</v>
+        <v>22680.0</v>
       </c>
       <c r="E28" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>43.0</v>
+        <v>63.0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="29">
@@ -1143,19 +1140,19 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C29" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="D29" t="n">
-        <v>15680.0</v>
+        <v>18200.0</v>
       </c>
       <c r="E29" t="n">
         <v>15.0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -1164,10 +1161,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>47.0</v>
+        <v>40.0</v>
       </c>
       <c r="J29" t="n">
-        <v>121.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="30">
@@ -1199,7 +1196,7 @@
         <v>61.0</v>
       </c>
       <c r="J30" t="n">
-        <v>117.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="31">
@@ -1239,19 +1236,19 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="D32" t="n">
-        <v>22441.0</v>
+        <v>23561.0</v>
       </c>
       <c r="E32" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G32" t="n">
         <v>3.0</v>
@@ -1260,10 +1257,10 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="J32" t="n">
-        <v>88.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="33">
@@ -1271,31 +1268,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n">
-        <v>33.0</v>
+        <v>60.0</v>
       </c>
       <c r="D33" t="n">
-        <v>12880.0</v>
+        <v>24832.0</v>
       </c>
       <c r="E33" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="H33" t="n">
         <v>1.0</v>
       </c>
       <c r="I33" t="n">
-        <v>57.99999999999999</v>
+        <v>48.0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="34">
@@ -1303,28 +1300,28 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C34" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="D34" t="n">
-        <v>15960.0</v>
+        <v>12880.0</v>
       </c>
       <c r="E34" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H34" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" t="n">
-        <v>31.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J34" t="n">
         <v>85.0</v>
@@ -1335,31 +1332,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="C35" t="n">
-        <v>57.0</v>
+        <v>38.0</v>
       </c>
       <c r="D35" t="n">
-        <v>23712.0</v>
+        <v>15960.0</v>
       </c>
       <c r="E35" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="F35" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="H35" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="J35" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,19 +1364,19 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C36" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="D36" t="n">
-        <v>9240.0</v>
+        <v>10360.0</v>
       </c>
       <c r="E36" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G36" t="n">
         <v>5.0</v>
@@ -1388,10 +1385,10 @@
         <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="J36" t="n">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="37">
@@ -1399,19 +1396,19 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="D37" t="n">
-        <v>21622.0</v>
+        <v>22934.0</v>
       </c>
       <c r="E37" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F37" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G37" t="n">
         <v>2.0</v>
@@ -1420,10 +1417,10 @@
         <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,16 +1428,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C38" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="D38" t="n">
-        <v>33600.0</v>
+        <v>34440.0</v>
       </c>
       <c r="E38" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F38" t="n">
         <v>8.0</v>
@@ -1452,10 +1449,10 @@
         <v>3.0</v>
       </c>
       <c r="I38" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="J38" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,31 +1460,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="E39" t="n">
         <v>3.0</v>
       </c>
-      <c r="D39" t="n">
-        <v>1120.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="J39" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,16 +1492,16 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>17566.0</v>
+      </c>
+      <c r="E40" t="n">
         <v>21.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>16936.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>20.0</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
@@ -1519,7 +1516,7 @@
         <v>10.0</v>
       </c>
       <c r="J40" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="41">
@@ -1527,31 +1524,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C41" t="n">
-        <v>36.0</v>
+        <v>3.0</v>
       </c>
       <c r="D41" t="n">
-        <v>17289.0</v>
+        <v>1312.0</v>
       </c>
       <c r="E41" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
         <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.0</v>
+        <v>100.0</v>
       </c>
       <c r="J41" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="42">
@@ -1559,31 +1556,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="C42" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="D42" t="n">
-        <v>7350.0</v>
+        <v>17007.0</v>
       </c>
       <c r="E42" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G42" t="n">
         <v>8.0</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>2.0</v>
       </c>
-      <c r="G42" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I42" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="J42" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="43">
@@ -1591,31 +1588,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C43" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="D43" t="n">
-        <v>15695.0</v>
+        <v>17289.0</v>
       </c>
       <c r="E43" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="F43" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I43" t="n">
-        <v>27.0</v>
+        <v>78.0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -1623,29 +1620,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>7350.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
       </c>
-      <c r="I44"/>
+      <c r="I44" t="n">
+        <v>25.0</v>
+      </c>
       <c r="J44" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -1675,7 +1674,7 @@
       </c>
       <c r="I45"/>
       <c r="J45" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="46">
@@ -1683,31 +1682,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7083.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="J46" t="n">
         <v>8.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6296.0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -1715,29 +1714,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>560.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
-      <c r="I47"/>
+      <c r="I47" t="n">
+        <v>100.0</v>
+      </c>
       <c r="J47" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="48">
@@ -1745,31 +1746,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4339.0</v>
+      </c>
+      <c r="E48" t="n">
         <v>3.0</v>
       </c>
-      <c r="C48" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1591.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2.0</v>
-      </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
         <v>1.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="J48" t="n">
-        <v>-16.0</v>
+        <v>-18.0</v>
       </c>
     </row>
     <row r="49">
@@ -1777,31 +1778,31 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C49" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D49" t="n">
-        <v>10411.0</v>
+        <v>10901.0</v>
       </c>
       <c r="E49" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
       </c>
       <c r="G49" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-18.0</v>
+        <v>-30.0</v>
       </c>
     </row>
     <row r="50">
@@ -1809,61 +1810,29 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n">
-        <v>3079.0</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>50.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I50"/>
       <c r="J50" t="n">
-        <v>-21.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I51"/>
-      <c r="J51" t="n">
-        <v>-59.0</v>
+        <v>-63.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -140,12 +140,12 @@
     <t>Sergas</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
     <t>YOSHINZ</t>
   </si>
   <si>
-    <t>hugo</t>
-  </si>
-  <si>
     <t>Marcelo</t>
   </si>
   <si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Sra. Clash</t>
+  </si>
+  <si>
+    <t>batata</t>
   </si>
   <si>
     <t>Pikaya</t>
@@ -332,7 +335,7 @@
         <v>73.0</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0</v>
+        <v>296.0</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +399,7 @@
         <v>71.0</v>
       </c>
       <c r="J5" t="n">
-        <v>269.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="6">
@@ -588,7 +591,7 @@
         <v>59.0</v>
       </c>
       <c r="J11" t="n">
-        <v>241.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="12">
@@ -716,7 +719,7 @@
         <v>44.0</v>
       </c>
       <c r="J15" t="n">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="16">
@@ -972,7 +975,7 @@
         <v>32.0</v>
       </c>
       <c r="J23" t="n">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1263,7 @@
         <v>22.0</v>
       </c>
       <c r="J32" t="n">
-        <v>96.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="33">
@@ -1292,7 +1295,7 @@
         <v>48.0</v>
       </c>
       <c r="J33" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="34">
@@ -1300,31 +1303,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="D34" t="n">
-        <v>12880.0</v>
+        <v>15960.0</v>
       </c>
       <c r="E34" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H34" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" t="n">
-        <v>57.99999999999999</v>
+        <v>31.0</v>
       </c>
       <c r="J34" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="35">
@@ -1332,31 +1335,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C35" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="D35" t="n">
-        <v>15960.0</v>
+        <v>12880.0</v>
       </c>
       <c r="E35" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F35" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H35" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="36">
@@ -1420,7 +1423,7 @@
         <v>35.0</v>
       </c>
       <c r="J37" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1487,7 @@
         <v>67.0</v>
       </c>
       <c r="J39" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="40">
@@ -1588,31 +1591,29 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>17289.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>78.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="I43"/>
       <c r="J43" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="44">
@@ -1620,31 +1621,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17289.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F44" t="n">
         <v>7.0</v>
       </c>
-      <c r="C44" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>7350.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2.0</v>
-      </c>
       <c r="G44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.0</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I44" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="J44" t="n">
         <v>25.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -1652,29 +1653,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>7350.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
       </c>
-      <c r="I45"/>
+      <c r="I45" t="n">
+        <v>25.0</v>
+      </c>
       <c r="J45" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="46">
@@ -1682,31 +1685,29 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46" t="n">
         <v>18.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>7083.0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>8.0</v>
       </c>
     </row>
     <row r="47">
@@ -1714,31 +1715,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C47" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="D47" t="n">
-        <v>560.0</v>
+        <v>7083.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
-        <v>100.0</v>
+        <v>33.0</v>
       </c>
       <c r="J47" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="48">
@@ -1746,31 +1747,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="D48" t="n">
-        <v>4339.0</v>
+        <v>560.0</v>
       </c>
       <c r="E48" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F48" t="n">
         <v>1.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>33.0</v>
+        <v>100.0</v>
       </c>
       <c r="J48" t="n">
-        <v>-18.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="49">
@@ -1778,31 +1779,31 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="C49" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="D49" t="n">
-        <v>10901.0</v>
+        <v>4339.0</v>
       </c>
       <c r="E49" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="J49" t="n">
-        <v>-30.0</v>
+        <v>-21.0</v>
       </c>
     </row>
     <row r="50">
@@ -1810,28 +1811,60 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>10901.0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H50" t="n">
         <v>0.0</v>
       </c>
-      <c r="I50"/>
+      <c r="I50" t="n">
+        <v>15.0</v>
+      </c>
       <c r="J50" t="n">
+        <v>-32.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51" t="n">
         <v>-63.0</v>
       </c>
     </row>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -59,18 +59,18 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
+    <t>leal</t>
+  </si>
+  <si>
+    <t>snowkids</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
-    <t>snowkids</t>
-  </si>
-  <si>
     <t>Madnasty</t>
   </si>
   <si>
@@ -95,12 +95,12 @@
     <t>unb</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
@@ -116,12 +116,12 @@
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
     <t>Savler</t>
   </si>
   <si>
@@ -137,33 +137,33 @@
     <t>fglopes</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
     <t>Sergas</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
+    <t>supercell</t>
+  </si>
+  <si>
     <t>YOSHINZ</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>supercell</t>
-  </si>
-  <si>
     <t>Welton</t>
   </si>
   <si>
     <t>pwepito</t>
   </si>
   <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
     <t>Manu</t>
   </si>
   <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
     <t>Sra. Clash</t>
   </si>
   <si>
@@ -179,10 +179,10 @@
     <t>rei da guerra</t>
   </si>
   <si>
+    <t>RubenVski</t>
+  </si>
+  <si>
     <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>RubenVski</t>
   </si>
   <si>
     <t>EBAERV_</t>
@@ -279,19 +279,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C2" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="D2" t="n">
-        <v>42000.0</v>
+        <v>43400.0</v>
       </c>
       <c r="E2" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="F2" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -303,7 +303,7 @@
         <v>86.0</v>
       </c>
       <c r="J2" t="n">
-        <v>329.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,16 +311,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C3" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="D3" t="n">
-        <v>39480.0</v>
+        <v>40880.0</v>
       </c>
       <c r="E3" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="F3" t="n">
         <v>27.0</v>
@@ -332,10 +332,10 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>73.0</v>
+        <v>71.0</v>
       </c>
       <c r="J3" t="n">
-        <v>296.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="4">
@@ -343,19 +343,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C4" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="D4" t="n">
-        <v>40320.0</v>
+        <v>41160.0</v>
       </c>
       <c r="E4" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="F4" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -364,10 +364,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="J4" t="n">
-        <v>287.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="5">
@@ -375,16 +375,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C5" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="D5" t="n">
-        <v>38255.0</v>
+        <v>39095.0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F5" t="n">
         <v>24.0</v>
@@ -396,10 +396,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>71.0</v>
+        <v>69.0</v>
       </c>
       <c r="J5" t="n">
-        <v>270.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="6">
@@ -407,16 +407,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41172.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>34.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40332.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33.0</v>
       </c>
       <c r="F6" t="n">
         <v>25.0</v>
@@ -428,10 +428,10 @@
         <v>1.0</v>
       </c>
       <c r="I6" t="n">
-        <v>76.0</v>
+        <v>74.0</v>
       </c>
       <c r="J6" t="n">
-        <v>265.0</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="7">
@@ -439,19 +439,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C7" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43960.0</v>
+        <v>42840.0</v>
       </c>
       <c r="E7" t="n">
         <v>37.0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -460,10 +460,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>62.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>264.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="8">
@@ -471,16 +471,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C8" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="D8" t="n">
-        <v>36960.0</v>
+        <v>37800.0</v>
       </c>
       <c r="E8" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F8" t="n">
         <v>24.0</v>
@@ -492,10 +492,10 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>75.0</v>
+        <v>73.0</v>
       </c>
       <c r="J8" t="n">
-        <v>255.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,31 +503,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C9" t="n">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="D9" t="n">
-        <v>41720.0</v>
+        <v>41490.0</v>
       </c>
       <c r="E9" t="n">
         <v>36.0</v>
       </c>
       <c r="F9" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>56.00000000000001</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>254.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,31 +535,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0</v>
+        <v>105.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40090.0</v>
+        <v>45640.0</v>
       </c>
       <c r="E10" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F10" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
-        <v>56.99999999999999</v>
+        <v>62.0</v>
       </c>
       <c r="J10" t="n">
-        <v>247.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="11">
@@ -567,19 +567,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C11" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="D11" t="n">
-        <v>38080.0</v>
+        <v>38920.0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F11" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -588,10 +588,10 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="J11" t="n">
-        <v>242.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="12">
@@ -599,19 +599,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0</v>
+        <v>103.0</v>
       </c>
       <c r="D12" t="n">
-        <v>41440.0</v>
+        <v>42840.0</v>
       </c>
       <c r="E12" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F12" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G12" t="n">
         <v>2.0</v>
@@ -620,10 +620,10 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="J12" t="n">
-        <v>236.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="13">
@@ -631,19 +631,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C13" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="D13" t="n">
-        <v>33600.0</v>
+        <v>35000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F13" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G13" t="n">
         <v>5.0</v>
@@ -652,10 +652,10 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="J13" t="n">
-        <v>232.0</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="14">
@@ -663,19 +663,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C14" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D14" t="n">
-        <v>36076.0</v>
+        <v>37756.0</v>
       </c>
       <c r="E14" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F14" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -684,10 +684,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="J14" t="n">
-        <v>221.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="15">
@@ -695,19 +695,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C15" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="D15" t="n">
-        <v>39211.0</v>
+        <v>40611.0</v>
       </c>
       <c r="E15" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="F15" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -716,10 +716,10 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="J15" t="n">
-        <v>215.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="16">
@@ -727,19 +727,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="D16" t="n">
-        <v>38682.0</v>
+        <v>39451.0</v>
       </c>
       <c r="E16" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
@@ -748,10 +748,10 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="J16" t="n">
-        <v>206.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="17">
@@ -759,19 +759,19 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C17" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>35280.0</v>
+        <v>36400.0</v>
       </c>
       <c r="E17" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F17" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G17" t="n">
         <v>3.0</v>
@@ -780,10 +780,10 @@
         <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="J17" t="n">
-        <v>200.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="18">
@@ -791,16 +791,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C18" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="D18" t="n">
-        <v>32760.0</v>
+        <v>33880.0</v>
       </c>
       <c r="E18" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="F18" t="n">
         <v>20.0</v>
@@ -812,10 +812,10 @@
         <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="J18" t="n">
-        <v>200.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="19">
@@ -823,28 +823,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="C19" t="n">
-        <v>78.0</v>
+        <v>90.0</v>
       </c>
       <c r="D19" t="n">
-        <v>30202.0</v>
+        <v>34738.0</v>
       </c>
       <c r="E19" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="F19" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.0</v>
+        <v>39.0</v>
       </c>
       <c r="J19" t="n">
         <v>192.0</v>
@@ -855,31 +855,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="C20" t="n">
-        <v>87.0</v>
+        <v>78.0</v>
       </c>
       <c r="D20" t="n">
-        <v>33426.0</v>
+        <v>30202.0</v>
       </c>
       <c r="E20" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="F20" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.0</v>
+        <v>64.0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="21">
@@ -887,19 +887,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C21" t="n">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
       <c r="D21" t="n">
-        <v>35106.0</v>
+        <v>36155.0</v>
       </c>
       <c r="E21" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F21" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
@@ -908,10 +908,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="J21" t="n">
-        <v>182.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="22">
@@ -919,31 +919,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C22" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="D22" t="n">
-        <v>32200.0</v>
+        <v>32760.0</v>
       </c>
       <c r="E22" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="F22" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.00000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>181.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="23">
@@ -951,16 +951,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C23" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="D23" t="n">
-        <v>34380.0</v>
+        <v>35955.0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="F23" t="n">
         <v>11.0</v>
@@ -972,10 +972,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="J23" t="n">
-        <v>164.0</v>
+        <v>167.0</v>
       </c>
     </row>
     <row r="24">
@@ -1007,7 +1007,7 @@
         <v>37.0</v>
       </c>
       <c r="J24" t="n">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,16 +1015,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="D25" t="n">
-        <v>15400.0</v>
+        <v>16800.0</v>
       </c>
       <c r="E25" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F25" t="n">
         <v>8.0</v>
@@ -1036,10 +1036,10 @@
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>67.0</v>
+        <v>62.0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="26">
@@ -1047,31 +1047,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="C26" t="n">
-        <v>93.0</v>
+        <v>45.0</v>
       </c>
       <c r="D26" t="n">
-        <v>37599.0</v>
+        <v>18480.0</v>
       </c>
       <c r="E26" t="n">
-        <v>33.0</v>
+        <v>17.0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>33.0</v>
+        <v>53.0</v>
       </c>
       <c r="J26" t="n">
-        <v>144.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="27">
@@ -1079,31 +1079,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>14.0</v>
+        <v>34.0</v>
       </c>
       <c r="C27" t="n">
-        <v>42.0</v>
+        <v>94.0</v>
       </c>
       <c r="D27" t="n">
-        <v>17080.0</v>
+        <v>38159.0</v>
       </c>
       <c r="E27" t="n">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="F27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>8.0</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>50.0</v>
+        <v>32.0</v>
       </c>
       <c r="J27" t="n">
-        <v>130.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="28">
@@ -1111,19 +1111,19 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C28" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="D28" t="n">
-        <v>22680.0</v>
+        <v>23520.0</v>
       </c>
       <c r="E28" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G28" t="n">
         <v>3.0</v>
@@ -1132,10 +1132,10 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="J28" t="n">
-        <v>127.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="29">
@@ -1143,16 +1143,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C29" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="D29" t="n">
-        <v>18200.0</v>
+        <v>19600.0</v>
       </c>
       <c r="E29" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F29" t="n">
         <v>6.0</v>
@@ -1164,10 +1164,10 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="30">
@@ -1175,19 +1175,19 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C30" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="D30" t="n">
-        <v>20160.0</v>
+        <v>21560.0</v>
       </c>
       <c r="E30" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F30" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G30" t="n">
         <v>4.0</v>
@@ -1196,10 +1196,10 @@
         <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="J30" t="n">
-        <v>115.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="31">
@@ -1231,7 +1231,7 @@
         <v>70.0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="32">
@@ -1239,16 +1239,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C32" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="D32" t="n">
-        <v>23561.0</v>
+        <v>24681.0</v>
       </c>
       <c r="E32" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F32" t="n">
         <v>5.0</v>
@@ -1260,10 +1260,10 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="33">
@@ -1271,31 +1271,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="C33" t="n">
-        <v>60.0</v>
+        <v>28.0</v>
       </c>
       <c r="D33" t="n">
-        <v>24832.0</v>
+        <v>11480.0</v>
       </c>
       <c r="E33" t="n">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="F33" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G33" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.0</v>
+        <v>75.0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="34">
@@ -1303,31 +1303,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="C34" t="n">
-        <v>38.0</v>
+        <v>63.0</v>
       </c>
       <c r="D34" t="n">
-        <v>15960.0</v>
+        <v>25952.0</v>
       </c>
       <c r="E34" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="H34" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" t="n">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
       <c r="J34" t="n">
-        <v>86.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="35">
@@ -1335,31 +1335,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C35" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="D35" t="n">
-        <v>12880.0</v>
+        <v>17640.0</v>
       </c>
       <c r="E35" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H35" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>57.99999999999999</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="J35" t="n">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="36">
@@ -1367,31 +1367,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="C36" t="n">
-        <v>25.0</v>
+        <v>61.0</v>
       </c>
       <c r="D36" t="n">
-        <v>10360.0</v>
+        <v>23720.0</v>
       </c>
       <c r="E36" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F36" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>70.0</v>
+        <v>38.0</v>
       </c>
       <c r="J36" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="37">
@@ -1399,31 +1399,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C37" t="n">
-        <v>58.0</v>
+        <v>33.0</v>
       </c>
       <c r="D37" t="n">
-        <v>22934.0</v>
+        <v>12880.0</v>
       </c>
       <c r="E37" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="F37" t="n">
         <v>7.0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H37" t="n">
         <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>35.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>77.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="38">
@@ -1431,19 +1431,19 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C38" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="D38" t="n">
-        <v>34440.0</v>
+        <v>35840.0</v>
       </c>
       <c r="E38" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G38" t="n">
         <v>7.0</v>
@@ -1452,10 +1452,10 @@
         <v>3.0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="J38" t="n">
-        <v>68.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="39">
@@ -1463,31 +1463,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2240.0</v>
+      </c>
+      <c r="E39" t="n">
         <v>4.0</v>
       </c>
-      <c r="D39" t="n">
-        <v>1400.0</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>3.0</v>
       </c>
-      <c r="F39" t="n">
-        <v>2.0</v>
-      </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.0</v>
+        <v>75.0</v>
       </c>
       <c r="J39" t="n">
-        <v>54.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,31 +1495,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="C40" t="n">
-        <v>61.0</v>
+        <v>6.0</v>
       </c>
       <c r="D40" t="n">
-        <v>17566.0</v>
+        <v>2624.0</v>
       </c>
       <c r="E40" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="41">
@@ -1527,31 +1527,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="C41" t="n">
-        <v>3.0</v>
+        <v>61.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1312.0</v>
+        <v>17566.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I41" t="n">
-        <v>100.0</v>
+        <v>10.0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
@@ -1559,16 +1559,16 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18056.0</v>
+      </c>
+      <c r="E42" t="n">
         <v>17.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>17007.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>16.0</v>
       </c>
       <c r="F42" t="n">
         <v>5.0</v>
@@ -1580,10 +1580,10 @@
         <v>2.0</v>
       </c>
       <c r="I42" t="n">
-        <v>31.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="J42" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="43">
@@ -1677,7 +1677,7 @@
         <v>25.0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="46">
@@ -1685,16 +1685,16 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>1049.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -1705,9 +1705,11 @@
       <c r="H46" t="n">
         <v>0.0</v>
       </c>
-      <c r="I46"/>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J46" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="47">
@@ -1715,31 +1717,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="C47" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="D47" t="n">
-        <v>7083.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E47" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="F47" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="J47" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="48">
@@ -1747,31 +1749,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7083.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.0</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>560.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I48" t="n">
-        <v>100.0</v>
+        <v>33.0</v>
       </c>
       <c r="J48" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="49">
@@ -1811,16 +1813,16 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C50" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="D50" t="n">
-        <v>10901.0</v>
+        <v>12126.0</v>
       </c>
       <c r="E50" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -1832,10 +1834,10 @@
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>15.0</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J50" t="n">
-        <v>-32.0</v>
+        <v>-26.0</v>
       </c>
     </row>
     <row r="51">
@@ -1865,7 +1867,7 @@
       </c>
       <c r="I51"/>
       <c r="J51" t="n">
-        <v>-63.0</v>
+        <v>-67.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>warsEntered</t>
+  </si>
+  <si>
+    <t>pctLastPeriod</t>
   </si>
   <si>
     <t>collectionDayBattlesPlayed</t>
@@ -273,490 +276,538 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>35.0</v>
       </c>
       <c r="C2" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D2" t="n">
         <v>105.0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>43400.0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>37.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>32.0</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>86.0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>338.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>35.0</v>
       </c>
       <c r="C3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>105.0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>40880.0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>38.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>27.0</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
         <v>71.0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>300.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>35.0</v>
       </c>
       <c r="C4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D4" t="n">
         <v>105.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>41160.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>37.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>28.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>76.0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>294.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>34.0</v>
       </c>
       <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
         <v>102.0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>39095.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>35.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>24.0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
         <v>69.0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>272.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>35.0</v>
       </c>
       <c r="C6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D6" t="n">
         <v>105.0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>41172.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>34.0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>25.0</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.0</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>74.0</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>268.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
         <v>35.0</v>
       </c>
       <c r="C7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>105.0</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>42840.0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>37.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>21.0</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>56.99999999999999</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>263.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>33.0</v>
       </c>
       <c r="C8" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D8" t="n">
         <v>95.0</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>37800.0</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>33.0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>24.0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4.0</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
         <v>73.0</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>257.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>35.0</v>
       </c>
       <c r="C9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D9" t="n">
         <v>103.0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>41490.0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>36.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>21.0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
         <v>57.99999999999999</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>255.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
         <v>35.0</v>
       </c>
       <c r="C10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D10" t="n">
         <v>105.0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>45640.0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>37.0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>23.0</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>62.0</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>255.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>33.0</v>
       </c>
       <c r="C11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D11" t="n">
         <v>99.0</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>38920.0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>35.0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>21.0</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
         <v>60.0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
         <v>35.0</v>
       </c>
       <c r="C12" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D12" t="n">
         <v>103.0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>42840.0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>36.0</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>19.0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2.0</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
         <v>53.0</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>245.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
         <v>31.0</v>
       </c>
       <c r="C13" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D13" t="n">
         <v>88.0</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>35000.0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>34.0</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>22.0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>5.0</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
         <v>65.0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>241.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>32.0</v>
       </c>
       <c r="C14" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D14" t="n">
         <v>96.0</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>37756.0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>32.0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>22.0</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.0</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>69.0</v>
       </c>
-      <c r="J14" t="n">
-        <v>230.0</v>
+      <c r="K14" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
         <v>34.0</v>
       </c>
       <c r="C15" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D15" t="n">
         <v>102.0</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>40611.0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>37.0</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>17.0</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
         <v>46.0</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>224.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
         <v>35.0</v>
       </c>
       <c r="C16" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D16" t="n">
         <v>104.0</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>39451.0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>39.0</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>16.0</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1.0</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
         <v>41.0</v>
       </c>
-      <c r="J16" t="n">
-        <v>213.0</v>
+      <c r="K16" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
         <v>32.0</v>
@@ -765,830 +816,908 @@
         <v>93.0</v>
       </c>
       <c r="D17" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E17" t="n">
         <v>36400.0</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>33.0</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>15.0</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>3.0</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
         <v>45.0</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>208.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
         <v>29.0</v>
       </c>
       <c r="C18" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D18" t="n">
         <v>83.0</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>33880.0</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>30.0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>20.0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>4.0</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
         <v>67.0</v>
       </c>
-      <c r="J18" t="n">
-        <v>202.0</v>
+      <c r="K18" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
         <v>31.0</v>
       </c>
       <c r="C19" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D19" t="n">
         <v>90.0</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>34738.0</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>33.0</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>13.0</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>3.0</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
         <v>39.0</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>192.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="n">
         <v>26.0</v>
       </c>
       <c r="C20" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D20" t="n">
         <v>78.0</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>30202.0</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>25.0</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>16.0</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.0</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>64.0</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
         <v>34.0</v>
       </c>
       <c r="C21" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D21" t="n">
         <v>101.0</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>36155.0</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>36.0</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>14.0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1.0</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
         <v>39.0</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>190.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
         <v>29.0</v>
       </c>
       <c r="C22" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D22" t="n">
         <v>79.0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>32760.0</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>32.0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>18.0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>8.0</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
         <v>56.00000000000001</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>183.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="n">
         <v>33.0</v>
       </c>
       <c r="C23" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D23" t="n">
         <v>96.0</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>35955.0</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>35.0</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>11.0</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>3.0</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
         <v>31.0</v>
       </c>
-      <c r="J23" t="n">
-        <v>167.0</v>
+      <c r="K23" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n">
         <v>30.0</v>
       </c>
       <c r="C24" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D24" t="n">
         <v>82.0</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>35840.0</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>30.0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>11.0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>8.0</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
         <v>37.0</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>157.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>13.0</v>
       </c>
       <c r="C25" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D25" t="n">
         <v>37.0</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>16800.0</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>13.0</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>8.0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>2.0</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
         <v>62.0</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>149.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>15.0</v>
       </c>
       <c r="C26" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D26" t="n">
         <v>45.0</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>18480.0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>17.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>9.0</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H26" t="n">
         <v>0.0</v>
       </c>
       <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
         <v>53.0</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>139.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
         <v>34.0</v>
       </c>
       <c r="C27" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D27" t="n">
         <v>94.0</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>38159.0</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>34.0</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>11.0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>8.0</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>2.0</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>32.0</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>136.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
         <v>20.0</v>
       </c>
       <c r="C28" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D28" t="n">
         <v>57.0</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>23520.0</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>20.0</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>13.0</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>3.0</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="n">
         <v>65.0</v>
       </c>
-      <c r="J28" t="n">
-        <v>135.0</v>
+      <c r="K28" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="n">
         <v>16.0</v>
       </c>
       <c r="C29" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D29" t="n">
         <v>48.0</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>19600.0</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>16.0</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>6.0</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H29" t="n">
         <v>0.0</v>
       </c>
       <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n">
         <v>38.0</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="n">
         <v>18.0</v>
       </c>
       <c r="C30" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D30" t="n">
         <v>50.0</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>21560.0</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>19.0</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>12.0</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>4.0</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n">
         <v>63.0</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>124.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="n">
         <v>29.0</v>
       </c>
       <c r="C31" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D31" t="n">
         <v>77.0</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>30520.0</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>27.0</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>19.0</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>10.0</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>3.0</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>70.0</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="n">
         <v>23.0</v>
       </c>
       <c r="C32" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D32" t="n">
         <v>66.0</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>24681.0</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>24.0</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>5.0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>3.0</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
         <v>21.0</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>99.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="n">
         <v>11.0</v>
       </c>
       <c r="C33" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D33" t="n">
         <v>28.0</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>11480.0</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>12.0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>9.0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>5.0</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
         <v>75.0</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>95.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="n">
         <v>24.0</v>
       </c>
       <c r="C34" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D34" t="n">
         <v>63.0</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>25952.0</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>24.0</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>11.0</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>9.0</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>1.0</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>46.0</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>93.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="n">
         <v>14.0</v>
       </c>
       <c r="C35" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D35" t="n">
         <v>41.0</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>17640.0</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>14.0</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>4.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.0</v>
       </c>
       <c r="H35" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J35" t="n">
         <v>28.999999999999996</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>90.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="n">
         <v>21.0</v>
       </c>
       <c r="C36" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D36" t="n">
         <v>61.0</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>23720.0</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>21.0</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>8.0</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>2.0</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>1.0</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>38.0</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>84.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="n">
         <v>12.0</v>
       </c>
       <c r="C37" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D37" t="n">
         <v>33.0</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>12880.0</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>12.0</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>7.0</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>3.0</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>1.0</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>57.99999999999999</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>84.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="n">
         <v>30.0</v>
       </c>
       <c r="C38" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D38" t="n">
         <v>83.0</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>35840.0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>27.0</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>9.0</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>7.0</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>3.0</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>33.0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="n">
         <v>3.0</v>
       </c>
       <c r="C39" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D39" t="n">
         <v>6.0</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>2240.0</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>4.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3.0</v>
       </c>
       <c r="G39" t="n">
         <v>3.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n">
         <v>75.0</v>
       </c>
-      <c r="J39" t="n">
-        <v>59.0</v>
+      <c r="K39" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="n">
         <v>2.0</v>
       </c>
       <c r="C40" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D40" t="n">
         <v>6.0</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>2624.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2.0</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="K40" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
       </c>
       <c r="C41" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D41" t="n">
         <v>61.0</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>17566.0</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>21.0</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>2.0</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>5.0</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>2.0</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>10.0</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="n">
         <v>18.0</v>
       </c>
       <c r="C42" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D42" t="n">
         <v>46.0</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>18056.0</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>17.0</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>5.0</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>8.0</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>2.0</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>28.999999999999996</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -1611,94 +1740,103 @@
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
-      <c r="I43"/>
-      <c r="J43" t="n">
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="n">
         <v>12.0</v>
       </c>
       <c r="C44" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D44" t="n">
         <v>36.0</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>17289.0</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>9.0</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>7.0</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I44" t="n">
         <v>3.0</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>78.0</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" t="n">
         <v>7.0</v>
       </c>
       <c r="C45" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D45" t="n">
         <v>18.0</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>7350.0</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>8.0</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>2.0</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>3.0</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n">
         <v>25.0</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" t="n">
         <v>1.0</v>
       </c>
       <c r="C46" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D46" t="n">
         <v>3.0</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>1049.0</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>1.0</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="G46" t="n">
         <v>0.0</v>
       </c>
@@ -1709,140 +1847,155 @@
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
       </c>
       <c r="C47" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D47" t="n">
         <v>4.0</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>1960.0</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>2.0</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>1.0</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>2.0</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="n">
         <v>50.0</v>
       </c>
-      <c r="J47" t="n">
-        <v>11.0</v>
+      <c r="K47" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="n">
         <v>9.0</v>
       </c>
       <c r="C48" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D48" t="n">
         <v>18.0</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>7083.0</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>9.0</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>3.0</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>9.0</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>1.0</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>33.0</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="n">
         <v>4.0</v>
       </c>
       <c r="C49" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D49" t="n">
         <v>12.0</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>4339.0</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>3.0</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>1.0</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
         <v>1.0</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>33.0</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>-21.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="n">
         <v>14.0</v>
       </c>
       <c r="C50" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D50" t="n">
         <v>30.0</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>12126.0</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>14.0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2.0</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>12.0</v>
       </c>
-      <c r="H50" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
         <v>14.000000000000002</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>-26.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -1865,8 +2018,11 @@
       <c r="H51" t="n">
         <v>0.0</v>
       </c>
-      <c r="I51"/>
-      <c r="J51" t="n">
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51" t="n">
         <v>-67.0</v>
       </c>
     </row>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -56,27 +56,27 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
+    <t>Inferno</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>Inferno</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
+    <t>snowkids</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>snowkids</t>
+    <t>Madnasty</t>
   </si>
   <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
     <t>zau</t>
   </si>
   <si>
@@ -101,12 +101,12 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>carmen</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>carmen</t>
-  </si>
-  <si>
     <t>TheKingJK</t>
   </si>
   <si>
@@ -125,43 +125,46 @@
     <t>qzt</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>Wut</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Sergas</t>
+  </si>
+  <si>
+    <t>fglopes</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>supercell</t>
+  </si>
+  <si>
+    <t>Welton</t>
+  </si>
+  <si>
+    <t>YOSHINZ</t>
+  </si>
+  <si>
+    <t>pwepito</t>
+  </si>
+  <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
     <t>CarvaPower.</t>
   </si>
   <si>
-    <t>fglopes</t>
-  </si>
-  <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>Sergas</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>supercell</t>
-  </si>
-  <si>
-    <t>YOSHINZ</t>
-  </si>
-  <si>
-    <t>Welton</t>
-  </si>
-  <si>
-    <t>pwepito</t>
-  </si>
-  <si>
-    <t>Da Silva</t>
+    <t>president</t>
   </si>
   <si>
     <t>Manu</t>
@@ -173,28 +176,25 @@
     <t>batata</t>
   </si>
   <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
     <t>Pikaya</t>
   </si>
   <si>
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
-    <t>rei da guerra</t>
+    <t>Jonas 705</t>
   </si>
   <si>
     <t>RubenVski</t>
   </si>
   <si>
-    <t>Jonas 705</t>
+    <t>MASTER PT</t>
   </si>
   <si>
     <t>EBAERV_</t>
-  </si>
-  <si>
-    <t>MASTER PT</t>
-  </si>
-  <si>
-    <t>Doomesticador</t>
   </si>
 </sst>
 </file>
@@ -285,19 +285,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>105.0</v>
+        <v>108.0</v>
       </c>
       <c r="E2" t="n">
-        <v>43400.0</v>
+        <v>44520.0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G2" t="n">
         <v>32.0</v>
@@ -309,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.0</v>
+        <v>84.0</v>
       </c>
       <c r="K2" t="n">
-        <v>338.0</v>
+        <v>341.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>105.0</v>
+        <v>108.0</v>
       </c>
       <c r="E3" t="n">
-        <v>40880.0</v>
+        <v>42000.0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="G3" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="K3" t="n">
-        <v>300.0</v>
+        <v>307.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>105.0</v>
+        <v>108.0</v>
       </c>
       <c r="E4" t="n">
-        <v>41160.0</v>
+        <v>42560.0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -382,7 +382,7 @@
         <v>76.0</v>
       </c>
       <c r="K4" t="n">
-        <v>294.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,34 +390,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>102.0</v>
+        <v>108.0</v>
       </c>
       <c r="E5" t="n">
-        <v>39095.0</v>
+        <v>42292.0</v>
       </c>
       <c r="F5" t="n">
         <v>35.0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="K5" t="n">
-        <v>272.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="6">
@@ -434,25 +434,25 @@
         <v>105.0</v>
       </c>
       <c r="E6" t="n">
-        <v>41172.0</v>
+        <v>40215.0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>74.0</v>
+        <v>67.0</v>
       </c>
       <c r="K6" t="n">
-        <v>268.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,19 +460,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>105.0</v>
+        <v>108.0</v>
       </c>
       <c r="E7" t="n">
-        <v>42840.0</v>
+        <v>43680.0</v>
       </c>
       <c r="F7" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G7" t="n">
         <v>21.0</v>
@@ -484,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>56.99999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>263.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,34 +495,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="C8" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.0</v>
+        <v>106.0</v>
       </c>
       <c r="E8" t="n">
-        <v>37800.0</v>
+        <v>42610.0</v>
       </c>
       <c r="F8" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="G8" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.0</v>
+        <v>59.0</v>
       </c>
       <c r="K8" t="n">
-        <v>257.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,34 +530,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C9" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D9" t="n">
-        <v>103.0</v>
+        <v>98.0</v>
       </c>
       <c r="E9" t="n">
-        <v>41490.0</v>
+        <v>38920.0</v>
       </c>
       <c r="F9" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="G9" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>57.99999999999999</v>
+        <v>71.0</v>
       </c>
       <c r="K9" t="n">
-        <v>255.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>105.0</v>
+        <v>102.0</v>
       </c>
       <c r="E10" t="n">
-        <v>45640.0</v>
+        <v>40040.0</v>
       </c>
       <c r="F10" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="K10" t="n">
-        <v>255.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,34 +600,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D11" t="n">
-        <v>99.0</v>
+        <v>105.0</v>
       </c>
       <c r="E11" t="n">
-        <v>38920.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F11" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="G11" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="K11" t="n">
-        <v>250.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,19 +635,19 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>103.0</v>
+        <v>106.0</v>
       </c>
       <c r="E12" t="n">
-        <v>42840.0</v>
+        <v>44240.0</v>
       </c>
       <c r="F12" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="G12" t="n">
         <v>19.0</v>
@@ -659,10 +659,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="K12" t="n">
-        <v>245.0</v>
+        <v>249.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,19 +670,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C13" t="n">
         <v>93.0</v>
       </c>
       <c r="D13" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="E13" t="n">
-        <v>35000.0</v>
+        <v>36680.0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="G13" t="n">
         <v>22.0</v>
@@ -694,10 +694,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.0</v>
+        <v>63.0</v>
       </c>
       <c r="K13" t="n">
-        <v>241.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,22 +705,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C14" t="n">
         <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="E14" t="n">
-        <v>37756.0</v>
+        <v>38876.0</v>
       </c>
       <c r="F14" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="G14" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -729,10 +729,10 @@
         <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K14" t="n">
-        <v>231.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="E15" t="n">
-        <v>40611.0</v>
+        <v>41731.0</v>
       </c>
       <c r="F15" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G15" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
@@ -764,10 +764,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="K15" t="n">
-        <v>224.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,19 +775,19 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C16" t="n">
         <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>104.0</v>
+        <v>107.0</v>
       </c>
       <c r="E16" t="n">
-        <v>39451.0</v>
+        <v>40763.0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G16" t="n">
         <v>16.0</v>
@@ -799,10 +799,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="K16" t="n">
-        <v>214.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,19 +810,19 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C17" t="n">
         <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="E17" t="n">
-        <v>36400.0</v>
+        <v>37520.0</v>
       </c>
       <c r="F17" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G17" t="n">
         <v>15.0</v>
@@ -834,10 +834,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="K17" t="n">
-        <v>208.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,19 +845,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C18" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D18" t="n">
-        <v>83.0</v>
+        <v>86.0</v>
       </c>
       <c r="E18" t="n">
-        <v>33880.0</v>
+        <v>35000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="G18" t="n">
         <v>20.0</v>
@@ -869,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="K18" t="n">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,19 +880,19 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C19" t="n">
         <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="E19" t="n">
-        <v>34738.0</v>
+        <v>36313.0</v>
       </c>
       <c r="F19" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G19" t="n">
         <v>13.0</v>
@@ -904,10 +904,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="K19" t="n">
-        <v>192.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>26.0</v>
+        <v>35.0</v>
       </c>
       <c r="C20" t="n">
-        <v>40.0</v>
+        <v>93.0</v>
       </c>
       <c r="D20" t="n">
-        <v>78.0</v>
+        <v>104.0</v>
       </c>
       <c r="E20" t="n">
-        <v>30202.0</v>
+        <v>37204.0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="G20" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>64.0</v>
+        <v>38.0</v>
       </c>
       <c r="K20" t="n">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,31 +950,31 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="C21" t="n">
-        <v>93.0</v>
+        <v>33.0</v>
       </c>
       <c r="D21" t="n">
-        <v>101.0</v>
+        <v>78.0</v>
       </c>
       <c r="E21" t="n">
-        <v>36155.0</v>
+        <v>30202.0</v>
       </c>
       <c r="F21" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J21" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="K21" t="n">
         <v>190.0</v>
@@ -988,7 +988,7 @@
         <v>29.0</v>
       </c>
       <c r="C22" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D22" t="n">
         <v>79.0</v>
@@ -1020,19 +1020,19 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C23" t="n">
         <v>93.0</v>
       </c>
       <c r="D23" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="E23" t="n">
-        <v>35955.0</v>
+        <v>36741.0</v>
       </c>
       <c r="F23" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="G23" t="n">
         <v>11.0</v>
@@ -1047,7 +1047,7 @@
         <v>31.0</v>
       </c>
       <c r="K23" t="n">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,19 +1055,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C24" t="n">
         <v>80.0</v>
       </c>
       <c r="D24" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="E24" t="n">
-        <v>35840.0</v>
+        <v>37240.0</v>
       </c>
       <c r="F24" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="G24" t="n">
         <v>11.0</v>
@@ -1079,10 +1079,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="K24" t="n">
-        <v>157.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,22 +1090,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="E25" t="n">
-        <v>16800.0</v>
+        <v>17640.0</v>
       </c>
       <c r="F25" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H25" t="n">
         <v>2.0</v>
@@ -1114,10 +1114,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="K25" t="n">
-        <v>149.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,19 +1125,19 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="E26" t="n">
-        <v>18480.0</v>
+        <v>19880.0</v>
       </c>
       <c r="F26" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G26" t="n">
         <v>9.0</v>
@@ -1149,10 +1149,10 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="K26" t="n">
-        <v>139.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,19 +1160,19 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="E27" t="n">
-        <v>38159.0</v>
+        <v>39279.0</v>
       </c>
       <c r="F27" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="G27" t="n">
         <v>11.0</v>
@@ -1184,10 +1184,10 @@
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="K27" t="n">
-        <v>136.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,34 +1195,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="C28" t="n">
         <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.0</v>
+        <v>51.0</v>
       </c>
       <c r="E28" t="n">
-        <v>23520.0</v>
+        <v>20720.0</v>
       </c>
       <c r="F28" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="G28" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.0</v>
+        <v>41.0</v>
       </c>
       <c r="K28" t="n">
-        <v>134.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>48.0</v>
+        <v>58.0</v>
       </c>
       <c r="E29" t="n">
-        <v>19600.0</v>
+        <v>23800.0</v>
       </c>
       <c r="F29" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.0</v>
+        <v>62.0</v>
       </c>
       <c r="K29" t="n">
-        <v>128.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="30">
@@ -1292,7 +1292,7 @@
         <v>63.0</v>
       </c>
       <c r="K30" t="n">
-        <v>124.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="C31" t="n">
         <v>67.0</v>
       </c>
       <c r="D31" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12880.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="n">
         <v>77.0</v>
       </c>
-      <c r="E31" t="n">
-        <v>30520.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>70.0</v>
-      </c>
       <c r="K31" t="n">
-        <v>100.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D32" t="n">
         <v>66.0</v>
       </c>
       <c r="E32" t="n">
-        <v>24681.0</v>
+        <v>27352.0</v>
       </c>
       <c r="F32" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>21.0</v>
+        <v>44.0</v>
       </c>
       <c r="K32" t="n">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,22 +1370,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="C33" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D33" t="n">
         <v>67.0</v>
       </c>
-      <c r="D33" t="n">
-        <v>28.0</v>
-      </c>
       <c r="E33" t="n">
-        <v>11480.0</v>
+        <v>24961.0</v>
       </c>
       <c r="F33" t="n">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
       <c r="G33" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="H33" t="n">
         <v>5.0</v>
@@ -1394,10 +1394,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>75.0</v>
+        <v>19.0</v>
       </c>
       <c r="K33" t="n">
-        <v>95.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,31 +1405,31 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="C34" t="n">
         <v>93.0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.0</v>
+        <v>44.0</v>
       </c>
       <c r="E34" t="n">
-        <v>25952.0</v>
+        <v>19040.0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="H34" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
       </c>
       <c r="J34" t="n">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="K34" t="n">
         <v>93.0</v>
@@ -1440,34 +1440,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="C35" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D35" t="n">
-        <v>41.0</v>
+        <v>64.0</v>
       </c>
       <c r="E35" t="n">
-        <v>17640.0</v>
+        <v>24769.0</v>
       </c>
       <c r="F35" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>28.999999999999996</v>
+        <v>41.0</v>
       </c>
       <c r="K35" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="C36" t="n">
-        <v>73.0</v>
+        <v>93.0</v>
       </c>
       <c r="D36" t="n">
-        <v>61.0</v>
+        <v>86.0</v>
       </c>
       <c r="E36" t="n">
-        <v>23720.0</v>
+        <v>37240.0</v>
       </c>
       <c r="F36" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="G36" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J36" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="K36" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="37">
@@ -1513,7 +1513,7 @@
         <v>12.0</v>
       </c>
       <c r="C37" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="D37" t="n">
         <v>33.0</v>
@@ -1537,7 +1537,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>84.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,34 +1545,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>30.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" t="n">
-        <v>93.0</v>
+        <v>43.0</v>
       </c>
       <c r="D38" t="n">
-        <v>83.0</v>
+        <v>6.0</v>
       </c>
       <c r="E38" t="n">
-        <v>35840.0</v>
+        <v>2240.0</v>
       </c>
       <c r="F38" t="n">
-        <v>27.0</v>
+        <v>4.0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>33.0</v>
+        <v>75.0</v>
       </c>
       <c r="K38" t="n">
-        <v>77.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="39">
@@ -1583,31 +1583,31 @@
         <v>3.0</v>
       </c>
       <c r="C39" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E39" t="n">
-        <v>2240.0</v>
+        <v>3410.0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G39" t="n">
         <v>3.0</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="K39" t="n">
-        <v>58.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,34 +1615,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.0</v>
+        <v>80.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2624.0</v>
+        <v>31640.0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="K40" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,34 +1650,32 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>17566.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>10.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J41"/>
       <c r="K41" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1683,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C42" t="n">
         <v>47.0</v>
       </c>
       <c r="D42" t="n">
-        <v>46.0</v>
+        <v>61.0</v>
       </c>
       <c r="E42" t="n">
-        <v>18056.0</v>
+        <v>17566.0</v>
       </c>
       <c r="F42" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="G42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8.0</v>
       </c>
       <c r="I42" t="n">
         <v>2.0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.999999999999996</v>
+        <v>10.0</v>
       </c>
       <c r="K42" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,32 +1718,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>18056.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J43"/>
+        <v>2.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>28.999999999999996</v>
+      </c>
       <c r="K43" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -1753,34 +1753,32 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>17289.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>78.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="45">
@@ -1788,31 +1786,31 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C45" t="n">
-        <v>54.0</v>
+        <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="E45" t="n">
-        <v>7350.0</v>
+        <v>2361.0</v>
       </c>
       <c r="F45" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
         <v>24.0</v>
@@ -1823,34 +1821,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C46" t="n">
-        <v>100.0</v>
+        <v>47.0</v>
       </c>
       <c r="D46" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17289.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I46" t="n">
         <v>3.0</v>
       </c>
-      <c r="E46" t="n">
-        <v>1049.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="K46" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="47">
@@ -1858,34 +1856,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7595.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G47" t="n">
         <v>2.0</v>
       </c>
-      <c r="C47" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1960.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H47" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
       </c>
       <c r="J47" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="K47" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="48">
@@ -1896,7 +1894,7 @@
         <v>9.0</v>
       </c>
       <c r="C48" t="n">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="D48" t="n">
         <v>18.0</v>
@@ -1928,16 +1926,16 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C49" t="n">
-        <v>27.0</v>
+        <v>100.0</v>
       </c>
       <c r="D49" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4339.0</v>
+        <v>2520.0</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -1946,16 +1944,16 @@
         <v>1.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J49" t="n">
         <v>33.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-21.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="50">
@@ -1963,19 +1961,19 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C50" t="n">
         <v>87.0</v>
       </c>
       <c r="D50" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="E50" t="n">
-        <v>12126.0</v>
+        <v>13596.0</v>
       </c>
       <c r="F50" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G50" t="n">
         <v>2.0</v>
@@ -1987,10 +1985,10 @@
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>14.000000000000002</v>
+        <v>13.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-26.0</v>
+        <v>-23.0</v>
       </c>
     </row>
     <row r="51">
@@ -1998,32 +1996,34 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0</v>
+        <v>4339.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H51" t="n">
         <v>0.0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J51"/>
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33.0</v>
+      </c>
       <c r="K51" t="n">
-        <v>-67.0</v>
+        <v>-23.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -347,7 +347,7 @@
         <v>70.0</v>
       </c>
       <c r="K3" t="n">
-        <v>307.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         <v>59.0</v>
       </c>
       <c r="K8" t="n">
-        <v>263.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="9">
@@ -592,7 +592,7 @@
         <v>61.0</v>
       </c>
       <c r="K10" t="n">
-        <v>257.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="11">
@@ -732,7 +732,7 @@
         <v>70.0</v>
       </c>
       <c r="K14" t="n">
-        <v>238.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +767,7 @@
         <v>47.0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +872,7 @@
         <v>65.0</v>
       </c>
       <c r="K18" t="n">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="19">
@@ -1012,7 +1012,7 @@
         <v>56.00000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="23">
@@ -1047,7 +1047,7 @@
         <v>31.0</v>
       </c>
       <c r="K23" t="n">
-        <v>169.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="24">
@@ -1432,7 +1432,7 @@
         <v>27.0</v>
       </c>
       <c r="K34" t="n">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="35">

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -140,12 +140,12 @@
     <t>Sergas</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>hugo</t>
-  </si>
-  <si>
     <t>supercell</t>
   </si>
   <si>
@@ -185,10 +185,10 @@
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>RubenVski</t>
+  </si>
+  <si>
     <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>RubenVski</t>
   </si>
   <si>
     <t>MASTER PT</t>
@@ -837,7 +837,7 @@
         <v>44.0</v>
       </c>
       <c r="K17" t="n">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="18">
@@ -1012,7 +1012,7 @@
         <v>56.00000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>184.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="23">
@@ -1370,31 +1370,31 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="C33" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D33" t="n">
-        <v>67.0</v>
+        <v>44.0</v>
       </c>
       <c r="E33" t="n">
-        <v>24961.0</v>
+        <v>19040.0</v>
       </c>
       <c r="F33" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="G33" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H33" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="K33" t="n">
         <v>94.0</v>
@@ -1405,34 +1405,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="C34" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>24961.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="K34" t="n">
         <v>93.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>19040.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>94.0</v>
       </c>
     </row>
     <row r="35">
@@ -1537,7 +1537,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>83.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="38">
@@ -1848,7 +1848,7 @@
         <v>78.0</v>
       </c>
       <c r="K46" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="47">
@@ -1883,7 +1883,7 @@
         <v>22.0</v>
       </c>
       <c r="K47" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="48">
@@ -1891,34 +1891,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="C48" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="D48" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="E48" t="n">
-        <v>7083.0</v>
+        <v>2520.0</v>
       </c>
       <c r="F48" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="G48" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H48" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J48" t="n">
         <v>33.0</v>
       </c>
       <c r="K48" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="49">
@@ -1926,28 +1926,28 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7083.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G49" t="n">
         <v>3.0</v>
       </c>
-      <c r="C49" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2520.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I49" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.0</v>
       </c>
       <c r="J49" t="n">
         <v>33.0</v>
@@ -1988,7 +1988,7 @@
         <v>13.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-23.0</v>
+        <v>-25.0</v>
       </c>
     </row>
     <row r="51">
@@ -2023,7 +2023,7 @@
         <v>33.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-23.0</v>
+        <v>-26.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -50,12 +50,12 @@
     <t>bascenso</t>
   </si>
   <si>
+    <t>☆ Di♡g♡</t>
+  </si>
+  <si>
     <t>thunder</t>
   </si>
   <si>
-    <t>☆ Di♡g♡</t>
-  </si>
-  <si>
     <t>Inferno</t>
   </si>
   <si>
@@ -68,24 +68,24 @@
     <t>snowkids</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Madnasty</t>
+    <t>zau</t>
+  </si>
+  <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
   </si>
   <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>zau</t>
-  </si>
-  <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
     <t>Tio João</t>
   </si>
   <si>
@@ -98,16 +98,19 @@
     <t>unb</t>
   </si>
   <si>
+    <t>carmen</t>
+  </si>
+  <si>
     <t>Ricky</t>
   </si>
   <si>
-    <t>carmen</t>
+    <t>TheKingJK</t>
   </si>
   <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>TheKingJK</t>
+    <t>Tabo da amarela</t>
   </si>
   <si>
     <t>metamox</t>
@@ -116,15 +119,12 @@
     <t>filipe</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
+    <t>qzt</t>
   </si>
   <si>
     <t>LCINORC</t>
   </si>
   <si>
-    <t>qzt</t>
-  </si>
-  <si>
     <t>Matilde Pires</t>
   </si>
   <si>
@@ -137,6 +137,9 @@
     <t>Marcelo</t>
   </si>
   <si>
+    <t>supercell</t>
+  </si>
+  <si>
     <t>Sergas</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
     <t>fglopes</t>
   </si>
   <si>
-    <t>supercell</t>
-  </si>
-  <si>
     <t>Welton</t>
   </si>
   <si>
@@ -161,40 +161,40 @@
     <t>Da Silva</t>
   </si>
   <si>
+    <t>president</t>
+  </si>
+  <si>
     <t>CarvaPower.</t>
   </si>
   <si>
-    <t>president</t>
-  </si>
-  <si>
     <t>Manu</t>
   </si>
   <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
+    <t>batata</t>
+  </si>
+  <si>
+    <t>yusif</t>
+  </si>
+  <si>
     <t>Sra. Clash</t>
   </si>
   <si>
-    <t>batata</t>
-  </si>
-  <si>
-    <t>rei da guerra</t>
-  </si>
-  <si>
     <t>Pikaya</t>
   </si>
   <si>
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
+    <t>Jonas 705</t>
+  </si>
+  <si>
     <t>RubenVski</t>
   </si>
   <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
     <t>MASTER PT</t>
-  </si>
-  <si>
-    <t>EBAERV_</t>
   </si>
 </sst>
 </file>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>108.0</v>
+        <v>114.0</v>
       </c>
       <c r="E2" t="n">
-        <v>44520.0</v>
+        <v>46480.0</v>
       </c>
       <c r="F2" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -309,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="K2" t="n">
-        <v>341.0</v>
+        <v>352.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>108.0</v>
+        <v>114.0</v>
       </c>
       <c r="E3" t="n">
-        <v>42000.0</v>
+        <v>45080.0</v>
       </c>
       <c r="F3" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>70.0</v>
+        <v>76.0</v>
       </c>
       <c r="K3" t="n">
-        <v>308.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,19 +355,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>108.0</v>
+        <v>114.0</v>
       </c>
       <c r="E4" t="n">
-        <v>42560.0</v>
+        <v>44800.0</v>
       </c>
       <c r="F4" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="G4" t="n">
         <v>29.0</v>
@@ -379,10 +379,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>76.0</v>
+        <v>69.0</v>
       </c>
       <c r="K4" t="n">
-        <v>303.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>108.0</v>
+        <v>114.0</v>
       </c>
       <c r="E5" t="n">
-        <v>42292.0</v>
+        <v>44532.0</v>
       </c>
       <c r="F5" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -414,10 +414,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="K5" t="n">
-        <v>276.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>105.0</v>
+        <v>111.0</v>
       </c>
       <c r="E6" t="n">
-        <v>40215.0</v>
+        <v>42455.0</v>
       </c>
       <c r="F6" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -449,10 +449,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>108.0</v>
+        <v>114.0</v>
       </c>
       <c r="E7" t="n">
-        <v>43680.0</v>
+        <v>46200.0</v>
       </c>
       <c r="F7" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
@@ -484,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>55.00000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>265.0</v>
+        <v>282.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,22 +495,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>106.0</v>
+        <v>112.0</v>
       </c>
       <c r="E8" t="n">
-        <v>42610.0</v>
+        <v>45410.0</v>
       </c>
       <c r="F8" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H8" t="n">
         <v>2.0</v>
@@ -522,7 +522,7 @@
         <v>59.0</v>
       </c>
       <c r="K8" t="n">
-        <v>264.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,34 +530,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="C9" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>98.0</v>
+        <v>108.0</v>
       </c>
       <c r="E9" t="n">
-        <v>38920.0</v>
+        <v>42560.0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="G9" t="n">
         <v>24.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>71.0</v>
+        <v>63.0</v>
       </c>
       <c r="K9" t="n">
-        <v>260.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>102.0</v>
+        <v>104.0</v>
       </c>
       <c r="E10" t="n">
-        <v>40040.0</v>
+        <v>42000.0</v>
       </c>
       <c r="F10" t="n">
         <v>36.0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>61.0</v>
+        <v>69.0</v>
       </c>
       <c r="K10" t="n">
-        <v>258.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,34 +600,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="C11" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>105.0</v>
+        <v>112.0</v>
       </c>
       <c r="E11" t="n">
-        <v>45640.0</v>
+        <v>47320.0</v>
       </c>
       <c r="F11" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="G11" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
       <c r="K11" t="n">
-        <v>255.0</v>
+        <v>262.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,34 +635,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D12" t="n">
-        <v>106.0</v>
+        <v>97.0</v>
       </c>
       <c r="E12" t="n">
-        <v>44240.0</v>
+        <v>38920.0</v>
       </c>
       <c r="F12" t="n">
         <v>37.0</v>
       </c>
       <c r="G12" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0</v>
+        <v>62.0</v>
       </c>
       <c r="K12" t="n">
-        <v>249.0</v>
+        <v>256.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,34 +670,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="C13" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>91.0</v>
+        <v>105.0</v>
       </c>
       <c r="E13" t="n">
-        <v>36680.0</v>
+        <v>41116.0</v>
       </c>
       <c r="F13" t="n">
         <v>35.0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="H13" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.0</v>
+        <v>71.0</v>
       </c>
       <c r="K13" t="n">
-        <v>245.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="C14" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D14" t="n">
-        <v>99.0</v>
+        <v>105.0</v>
       </c>
       <c r="E14" t="n">
-        <v>38876.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F14" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="G14" t="n">
         <v>23.0</v>
@@ -729,10 +729,10 @@
         <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>70.0</v>
+        <v>62.0</v>
       </c>
       <c r="K14" t="n">
-        <v>239.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,19 +740,19 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>105.0</v>
+        <v>111.0</v>
       </c>
       <c r="E15" t="n">
-        <v>41731.0</v>
+        <v>43971.0</v>
       </c>
       <c r="F15" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="G15" t="n">
         <v>18.0</v>
@@ -764,10 +764,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="K15" t="n">
-        <v>232.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,19 +775,19 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C16" t="n">
         <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0</v>
+        <v>113.0</v>
       </c>
       <c r="E16" t="n">
-        <v>40763.0</v>
+        <v>43142.0</v>
       </c>
       <c r="F16" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="G16" t="n">
         <v>16.0</v>
@@ -799,10 +799,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="K16" t="n">
-        <v>217.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,22 +810,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="C17" t="n">
         <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>96.0</v>
+        <v>102.0</v>
       </c>
       <c r="E17" t="n">
-        <v>37520.0</v>
+        <v>39760.0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="G17" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H17" t="n">
         <v>3.0</v>
@@ -837,7 +837,7 @@
         <v>44.0</v>
       </c>
       <c r="K17" t="n">
-        <v>211.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,22 +845,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="C18" t="n">
         <v>87.0</v>
       </c>
       <c r="D18" t="n">
-        <v>86.0</v>
+        <v>92.0</v>
       </c>
       <c r="E18" t="n">
-        <v>35000.0</v>
+        <v>38360.0</v>
       </c>
       <c r="F18" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="G18" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H18" t="n">
         <v>4.0</v>
@@ -869,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="K18" t="n">
-        <v>206.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,34 +880,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="C19" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>93.0</v>
+        <v>110.0</v>
       </c>
       <c r="E19" t="n">
-        <v>36313.0</v>
+        <v>39653.0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="G19" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="K19" t="n">
-        <v>196.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C20" t="n">
         <v>93.0</v>
       </c>
       <c r="D20" t="n">
-        <v>104.0</v>
+        <v>99.0</v>
       </c>
       <c r="E20" t="n">
-        <v>37204.0</v>
+        <v>38833.0</v>
       </c>
       <c r="F20" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="G20" t="n">
         <v>14.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="K20" t="n">
-        <v>192.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="C21" t="n">
-        <v>33.0</v>
+        <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>78.0</v>
+        <v>85.0</v>
       </c>
       <c r="E21" t="n">
-        <v>30202.0</v>
+        <v>35280.0</v>
       </c>
       <c r="F21" t="n">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="G21" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>190.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,34 +985,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.0</v>
+        <v>20.0</v>
       </c>
       <c r="D22" t="n">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="E22" t="n">
-        <v>32760.0</v>
+        <v>30202.0</v>
       </c>
       <c r="F22" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>56.00000000000001</v>
+        <v>64.0</v>
       </c>
       <c r="K22" t="n">
-        <v>183.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1020,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>34.0</v>
+        <v>16.0</v>
       </c>
       <c r="C23" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>99.0</v>
+        <v>46.0</v>
       </c>
       <c r="E23" t="n">
-        <v>36741.0</v>
+        <v>20440.0</v>
       </c>
       <c r="F23" t="n">
-        <v>36.0</v>
+        <v>17.0</v>
       </c>
       <c r="G23" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>31.0</v>
+        <v>71.0</v>
       </c>
       <c r="K23" t="n">
-        <v>170.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,34 +1055,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="C24" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D24" t="n">
-        <v>85.0</v>
+        <v>105.0</v>
       </c>
       <c r="E24" t="n">
-        <v>37240.0</v>
+        <v>39365.0</v>
       </c>
       <c r="F24" t="n">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="G24" t="n">
         <v>11.0</v>
       </c>
       <c r="H24" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>160.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>14.0</v>
+        <v>33.0</v>
       </c>
       <c r="C25" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.0</v>
+        <v>91.0</v>
       </c>
       <c r="E25" t="n">
-        <v>17640.0</v>
+        <v>39200.0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.0</v>
+        <v>33.0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>64.0</v>
+        <v>36.0</v>
       </c>
       <c r="K25" t="n">
-        <v>157.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>16.0</v>
+        <v>37.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>48.0</v>
+        <v>103.0</v>
       </c>
       <c r="E26" t="n">
-        <v>19880.0</v>
+        <v>41519.0</v>
       </c>
       <c r="F26" t="n">
-        <v>18.0</v>
+        <v>37.0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>35.0</v>
+        <v>18.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>97.0</v>
+        <v>54.0</v>
       </c>
       <c r="E27" t="n">
-        <v>39279.0</v>
+        <v>23065.0</v>
       </c>
       <c r="F27" t="n">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
       <c r="G27" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="H27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>31.0</v>
+        <v>45.0</v>
       </c>
       <c r="K27" t="n">
-        <v>139.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,22 +1195,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="C28" t="n">
         <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>51.0</v>
+        <v>57.0</v>
       </c>
       <c r="E28" t="n">
-        <v>20720.0</v>
+        <v>23240.0</v>
       </c>
       <c r="F28" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="G28" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
@@ -1219,10 +1219,10 @@
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="K28" t="n">
-        <v>136.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="E29" t="n">
-        <v>23800.0</v>
+        <v>25480.0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="G29" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="K29" t="n">
-        <v>129.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,19 +1265,19 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C30" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="D30" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="E30" t="n">
-        <v>21560.0</v>
+        <v>23240.0</v>
       </c>
       <c r="F30" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G30" t="n">
         <v>12.0</v>
@@ -1289,10 +1289,10 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>63.0</v>
+        <v>60.0</v>
       </c>
       <c r="K30" t="n">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,22 +1300,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15400.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G31" t="n">
         <v>12.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>12880.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>10.0</v>
       </c>
       <c r="H31" t="n">
         <v>5.0</v>
@@ -1324,10 +1324,10 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="K31" t="n">
-        <v>104.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,16 +1335,16 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="C32" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D32" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="E32" t="n">
-        <v>27352.0</v>
+        <v>26867.0</v>
       </c>
       <c r="F32" t="n">
         <v>25.0</v>
@@ -1353,7 +1353,7 @@
         <v>11.0</v>
       </c>
       <c r="H32" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -1362,7 +1362,7 @@
         <v>44.0</v>
       </c>
       <c r="K32" t="n">
-        <v>97.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,34 +1370,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="C33" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>44.0</v>
+        <v>72.0</v>
       </c>
       <c r="E33" t="n">
-        <v>19040.0</v>
+        <v>29592.0</v>
       </c>
       <c r="F33" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>27.0</v>
+        <v>44.0</v>
       </c>
       <c r="K33" t="n">
-        <v>94.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,34 +1405,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>21840.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J34" t="n">
         <v>24.0</v>
       </c>
-      <c r="C34" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>24961.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>19.0</v>
-      </c>
       <c r="K34" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,34 +1440,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="C35" t="n">
         <v>80.0</v>
       </c>
       <c r="D35" t="n">
-        <v>64.0</v>
+        <v>70.0</v>
       </c>
       <c r="E35" t="n">
-        <v>24769.0</v>
+        <v>26361.0</v>
       </c>
       <c r="F35" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="K35" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,19 +1475,19 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C36" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D36" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="E36" t="n">
-        <v>37240.0</v>
+        <v>38920.0</v>
       </c>
       <c r="F36" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G36" t="n">
         <v>10.0</v>
@@ -1499,10 +1499,10 @@
         <v>3.0</v>
       </c>
       <c r="J36" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="K36" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="37">
@@ -1513,7 +1513,7 @@
         <v>12.0</v>
       </c>
       <c r="C37" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="D37" t="n">
         <v>33.0</v>
@@ -1537,7 +1537,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,19 +1545,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C38" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E38" t="n">
-        <v>2240.0</v>
+        <v>3080.0</v>
       </c>
       <c r="F38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G38" t="n">
         <v>3.0</v>
@@ -1569,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>75.0</v>
+        <v>60.0</v>
       </c>
       <c r="K38" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,22 +1580,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C39" t="n">
         <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="E39" t="n">
-        <v>3410.0</v>
+        <v>5508.0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
@@ -1604,10 +1604,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="K39" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,31 +1615,31 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="C40" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.0</v>
+        <v>3.0</v>
       </c>
       <c r="E40" t="n">
-        <v>31640.0</v>
+        <v>786.0</v>
       </c>
       <c r="F40" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="K40" t="n">
         <v>39.0</v>
@@ -1650,32 +1650,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>31640.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J41"/>
+        <v>4.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>70.0</v>
+      </c>
       <c r="K41" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="42">
@@ -1683,22 +1685,22 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>18196.0</v>
+      </c>
+      <c r="F42" t="n">
         <v>22.0</v>
       </c>
-      <c r="C42" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>17566.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>21.0</v>
-      </c>
       <c r="G42" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H42" t="n">
         <v>5.0</v>
@@ -1707,10 +1709,10 @@
         <v>2.0</v>
       </c>
       <c r="J42" t="n">
-        <v>10.0</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="43">
@@ -1718,34 +1720,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="C43" t="n">
-        <v>47.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>46.0</v>
+        <v>12.0</v>
       </c>
       <c r="E43" t="n">
-        <v>18056.0</v>
+        <v>4250.0</v>
       </c>
       <c r="F43" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.999999999999996</v>
+        <v>25.0</v>
       </c>
       <c r="K43" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="44">
@@ -1753,22 +1755,22 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>1049.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -1776,9 +1778,11 @@
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
-      <c r="J44"/>
+      <c r="J44" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K44" t="n">
-        <v>27.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="45">
@@ -1786,19 +1790,19 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>2361.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
         <v>0.0</v>
@@ -1809,11 +1813,9 @@
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="J45"/>
       <c r="K45" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="46">
@@ -1821,34 +1823,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="C46" t="n">
-        <v>47.0</v>
+        <v>60.0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.0</v>
+        <v>49.0</v>
       </c>
       <c r="E46" t="n">
-        <v>17289.0</v>
+        <v>19105.0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.0</v>
+        <v>32.0</v>
       </c>
       <c r="K46" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="47">
@@ -1856,31 +1858,31 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C47" t="n">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
       <c r="D47" t="n">
-        <v>19.0</v>
+        <v>36.0</v>
       </c>
       <c r="E47" t="n">
-        <v>7595.0</v>
+        <v>17289.0</v>
       </c>
       <c r="F47" t="n">
         <v>9.0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="H47" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J47" t="n">
-        <v>22.0</v>
+        <v>78.0</v>
       </c>
       <c r="K47" t="n">
         <v>19.0</v>
@@ -1891,34 +1893,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C48" t="n">
-        <v>100.0</v>
+        <v>53.0</v>
       </c>
       <c r="D48" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7595.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.0</v>
       </c>
-      <c r="E48" t="n">
-        <v>2520.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4.0</v>
-      </c>
       <c r="I48" t="n">
         <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>33.0</v>
+        <v>22.0</v>
       </c>
       <c r="K48" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="49">
@@ -1926,19 +1928,19 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C49" t="n">
-        <v>75.0</v>
+        <v>71.0</v>
       </c>
       <c r="D49" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="E49" t="n">
-        <v>7083.0</v>
+        <v>8132.0</v>
       </c>
       <c r="F49" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G49" t="n">
         <v>3.0</v>
@@ -1950,10 +1952,10 @@
         <v>1.0</v>
       </c>
       <c r="J49" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="K49" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="50">
@@ -1961,34 +1963,34 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C50" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D50" t="n">
-        <v>33.0</v>
+        <v>6.0</v>
       </c>
       <c r="E50" t="n">
-        <v>13596.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F50" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="G50" t="n">
         <v>2.0</v>
       </c>
       <c r="H50" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>13.0</v>
+        <v>50.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-25.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -1996,34 +1998,34 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="C51" t="n">
-        <v>27.0</v>
+        <v>87.0</v>
       </c>
       <c r="D51" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>16291.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.0</v>
       </c>
-      <c r="E51" t="n">
-        <v>4339.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J51" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-26.0</v>
+        <v>-17.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -56,18 +56,18 @@
     <t>thunder</t>
   </si>
   <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
-    <t>Fabíola</t>
+    <t>snowkids</t>
   </si>
   <si>
     <t>Goblyn</t>
   </si>
   <si>
-    <t>snowkids</t>
-  </si>
-  <si>
     <t>Madnasty</t>
   </si>
   <si>
@@ -89,12 +89,12 @@
     <t>Tio João</t>
   </si>
   <si>
+    <t>pjp</t>
+  </si>
+  <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>pjp</t>
-  </si>
-  <si>
     <t>unb</t>
   </si>
   <si>
@@ -113,88 +113,88 @@
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>filipe</t>
+  </si>
+  <si>
     <t>metamox</t>
   </si>
   <si>
-    <t>filipe</t>
-  </si>
-  <si>
     <t>qzt</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
     <t>LCINORC</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>Savler</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>Marcelo</t>
+    <t>Sergas</t>
   </si>
   <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
     <t>hugo</t>
   </si>
   <si>
+    <t>Welton</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>Welton</t>
-  </si>
-  <si>
     <t>YOSHINZ</t>
   </si>
   <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
     <t>pwepito</t>
   </si>
   <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
     <t>president</t>
   </si>
   <si>
+    <t>batata</t>
+  </si>
+  <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
     <t>CarvaPower.</t>
   </si>
   <si>
     <t>Manu</t>
   </si>
   <si>
-    <t>rei da guerra</t>
-  </si>
-  <si>
-    <t>batata</t>
-  </si>
-  <si>
     <t>yusif</t>
   </si>
   <si>
+    <t>Pikaya</t>
+  </si>
+  <si>
+    <t>NOVA I MIGUEL☉</t>
+  </si>
+  <si>
+    <t>Jonas 705</t>
+  </si>
+  <si>
+    <t>RubenVski</t>
+  </si>
+  <si>
+    <t>MASTER PT</t>
+  </si>
+  <si>
     <t>Sra. Clash</t>
-  </si>
-  <si>
-    <t>Pikaya</t>
-  </si>
-  <si>
-    <t>NOVA I MIGUEL☉</t>
-  </si>
-  <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>RubenVski</t>
-  </si>
-  <si>
-    <t>MASTER PT</t>
   </si>
 </sst>
 </file>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="E2" t="n">
-        <v>46480.0</v>
+        <v>47880.0</v>
       </c>
       <c r="F2" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G2" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -309,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="K2" t="n">
-        <v>352.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="E3" t="n">
-        <v>45080.0</v>
+        <v>46760.0</v>
       </c>
       <c r="F3" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -347,7 +347,7 @@
         <v>76.0</v>
       </c>
       <c r="K3" t="n">
-        <v>321.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="E4" t="n">
-        <v>44800.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F4" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -379,10 +379,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K4" t="n">
-        <v>320.0</v>
+        <v>328.0</v>
       </c>
     </row>
     <row r="5">
@@ -399,25 +399,25 @@
         <v>114.0</v>
       </c>
       <c r="E5" t="n">
-        <v>44532.0</v>
+        <v>43575.0</v>
       </c>
       <c r="F5" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="G5" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>76.0</v>
+        <v>67.0</v>
       </c>
       <c r="K5" t="n">
-        <v>292.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,34 +425,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>111.0</v>
+        <v>117.0</v>
       </c>
       <c r="E6" t="n">
-        <v>42455.0</v>
+        <v>45372.0</v>
       </c>
       <c r="F6" t="n">
         <v>38.0</v>
       </c>
       <c r="G6" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>68.0</v>
+        <v>74.0</v>
       </c>
       <c r="K6" t="n">
-        <v>291.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,34 +460,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="E7" t="n">
-        <v>46200.0</v>
+        <v>47090.0</v>
       </c>
       <c r="F7" t="n">
         <v>40.0</v>
       </c>
       <c r="G7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>56.99999999999999</v>
+        <v>60.0</v>
       </c>
       <c r="K7" t="n">
-        <v>282.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,34 +495,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>112.0</v>
+        <v>117.0</v>
       </c>
       <c r="E8" t="n">
-        <v>45410.0</v>
+        <v>47040.0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="G8" t="n">
         <v>23.0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>59.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>276.0</v>
+        <v>284.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
       <c r="E9" t="n">
-        <v>42560.0</v>
+        <v>43400.0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -554,10 +554,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,22 +565,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.0</v>
+        <v>107.0</v>
       </c>
       <c r="E10" t="n">
-        <v>42000.0</v>
+        <v>43400.0</v>
       </c>
       <c r="F10" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -589,10 +589,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K10" t="n">
-        <v>274.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,22 +600,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="E11" t="n">
-        <v>47320.0</v>
+        <v>49000.0</v>
       </c>
       <c r="F11" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="G11" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H11" t="n">
         <v>2.0</v>
@@ -624,10 +624,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>262.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,22 +635,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C12" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
       <c r="E12" t="n">
-        <v>38920.0</v>
+        <v>40320.0</v>
       </c>
       <c r="F12" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G12" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H12" t="n">
         <v>5.0</v>
@@ -659,10 +659,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="K12" t="n">
-        <v>256.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,34 +670,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="E13" t="n">
-        <v>41116.0</v>
+        <v>41396.0</v>
       </c>
       <c r="F13" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="K13" t="n">
-        <v>255.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="14">
@@ -708,7 +708,7 @@
         <v>35.0</v>
       </c>
       <c r="C14" t="n">
-        <v>80.0</v>
+        <v>73.0</v>
       </c>
       <c r="D14" t="n">
         <v>105.0</v>
@@ -740,19 +740,19 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
       <c r="E15" t="n">
-        <v>43971.0</v>
+        <v>45091.0</v>
       </c>
       <c r="F15" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G15" t="n">
         <v>18.0</v>
@@ -764,10 +764,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="K15" t="n">
-        <v>238.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,34 +775,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>113.0</v>
+        <v>105.0</v>
       </c>
       <c r="E16" t="n">
-        <v>43142.0</v>
+        <v>40880.0</v>
       </c>
       <c r="F16" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="G16" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
       <c r="K16" t="n">
-        <v>223.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,34 +810,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="C17" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>102.0</v>
+        <v>116.0</v>
       </c>
       <c r="E17" t="n">
-        <v>39760.0</v>
+        <v>43928.0</v>
       </c>
       <c r="F17" t="n">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
       <c r="G17" t="n">
         <v>16.0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.0</v>
+        <v>37.0</v>
       </c>
       <c r="K17" t="n">
-        <v>221.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,19 +845,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C18" t="n">
         <v>87.0</v>
       </c>
       <c r="D18" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="E18" t="n">
-        <v>38360.0</v>
+        <v>39480.0</v>
       </c>
       <c r="F18" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G18" t="n">
         <v>21.0</v>
@@ -869,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="K18" t="n">
-        <v>219.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,19 +880,19 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0</v>
+        <v>113.0</v>
       </c>
       <c r="E19" t="n">
-        <v>39653.0</v>
+        <v>40439.0</v>
       </c>
       <c r="F19" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G19" t="n">
         <v>16.0</v>
@@ -904,10 +904,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="K19" t="n">
-        <v>209.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,19 +915,19 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C20" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="E20" t="n">
-        <v>38833.0</v>
+        <v>39953.0</v>
       </c>
       <c r="F20" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="G20" t="n">
         <v>14.0</v>
@@ -939,10 +939,10 @@
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="K20" t="n">
-        <v>207.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,22 +950,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="E21" t="n">
-        <v>35280.0</v>
+        <v>36400.0</v>
       </c>
       <c r="F21" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="G21" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H21" t="n">
         <v>8.0</v>
@@ -974,10 +974,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>56.99999999999999</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>200.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,19 +985,19 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C22" t="n">
         <v>20.0</v>
       </c>
       <c r="D22" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="E22" t="n">
-        <v>30202.0</v>
+        <v>31882.0</v>
       </c>
       <c r="F22" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G22" t="n">
         <v>16.0</v>
@@ -1009,10 +1009,10 @@
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="K22" t="n">
-        <v>187.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,22 +1020,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="E23" t="n">
-        <v>20440.0</v>
+        <v>22120.0</v>
       </c>
       <c r="F23" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G23" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H23" t="n">
         <v>2.0</v>
@@ -1044,10 +1044,10 @@
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="K23" t="n">
-        <v>181.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,34 +1055,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="C24" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D24" t="n">
-        <v>105.0</v>
+        <v>94.0</v>
       </c>
       <c r="E24" t="n">
-        <v>39365.0</v>
+        <v>40320.0</v>
       </c>
       <c r="F24" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
         <v>38.0</v>
       </c>
-      <c r="G24" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>28.999999999999996</v>
-      </c>
       <c r="K24" t="n">
-        <v>176.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="C25" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>91.0</v>
+        <v>108.0</v>
       </c>
       <c r="E25" t="n">
-        <v>39200.0</v>
+        <v>40677.0</v>
       </c>
       <c r="F25" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>36.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>170.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,22 +1125,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>103.0</v>
+        <v>106.0</v>
       </c>
       <c r="E26" t="n">
-        <v>41519.0</v>
+        <v>42919.0</v>
       </c>
       <c r="F26" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="G26" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H26" t="n">
         <v>8.0</v>
@@ -1149,10 +1149,10 @@
         <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K26" t="n">
-        <v>156.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,16 +1160,16 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>54.0</v>
+        <v>60.0</v>
       </c>
       <c r="E27" t="n">
-        <v>23065.0</v>
+        <v>24360.0</v>
       </c>
       <c r="F27" t="n">
         <v>20.0</v>
@@ -1187,7 +1187,7 @@
         <v>45.0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="28">
@@ -1204,13 +1204,13 @@
         <v>57.0</v>
       </c>
       <c r="E28" t="n">
-        <v>23240.0</v>
+        <v>24465.0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="G28" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
@@ -1219,10 +1219,10 @@
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="K28" t="n">
-        <v>148.0</v>
+        <v>153.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,19 +1230,19 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="E29" t="n">
-        <v>25480.0</v>
+        <v>26320.0</v>
       </c>
       <c r="F29" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="G29" t="n">
         <v>14.0</v>
@@ -1254,10 +1254,10 @@
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>61.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>131.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C30" t="n">
-        <v>33.0</v>
+        <v>80.0</v>
       </c>
       <c r="D30" t="n">
-        <v>53.0</v>
+        <v>40.0</v>
       </c>
       <c r="E30" t="n">
-        <v>23240.0</v>
+        <v>16520.0</v>
       </c>
       <c r="F30" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="G30" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H30" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.0</v>
+        <v>81.0</v>
       </c>
       <c r="K30" t="n">
-        <v>123.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C31" t="n">
-        <v>73.0</v>
+        <v>33.0</v>
       </c>
       <c r="D31" t="n">
-        <v>37.0</v>
+        <v>54.0</v>
       </c>
       <c r="E31" t="n">
-        <v>15400.0</v>
+        <v>23520.0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="G31" t="n">
         <v>12.0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>122.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="E32" t="n">
-        <v>26867.0</v>
+        <v>30992.0</v>
       </c>
       <c r="F32" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="G32" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="K32" t="n">
-        <v>108.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,34 +1370,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="C33" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D33" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="E33" t="n">
-        <v>29592.0</v>
+        <v>27916.0</v>
       </c>
       <c r="F33" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="G33" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H33" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="K33" t="n">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="34">
@@ -1408,7 +1408,7 @@
         <v>17.0</v>
       </c>
       <c r="C34" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D34" t="n">
         <v>50.0</v>
@@ -1440,34 +1440,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="C35" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D35" t="n">
-        <v>70.0</v>
+        <v>92.0</v>
       </c>
       <c r="E35" t="n">
-        <v>26361.0</v>
+        <v>40320.0</v>
       </c>
       <c r="F35" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J35" t="n">
-        <v>19.0</v>
+        <v>37.0</v>
       </c>
       <c r="K35" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="C36" t="n">
-        <v>87.0</v>
+        <v>73.0</v>
       </c>
       <c r="D36" t="n">
-        <v>89.0</v>
+        <v>70.0</v>
       </c>
       <c r="E36" t="n">
-        <v>38920.0</v>
+        <v>26361.0</v>
       </c>
       <c r="F36" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="G36" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H36" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="K36" t="n">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="37">
@@ -1513,7 +1513,7 @@
         <v>12.0</v>
       </c>
       <c r="C37" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="D37" t="n">
         <v>33.0</v>
@@ -1537,7 +1537,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>80.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,31 +1545,31 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6820.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G38" t="n">
         <v>4.0</v>
       </c>
-      <c r="C38" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3080.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>3.0</v>
-      </c>
       <c r="H38" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>60.0</v>
+        <v>67.0</v>
       </c>
       <c r="K38" t="n">
         <v>60.0</v>
@@ -1583,31 +1583,31 @@
         <v>5.0</v>
       </c>
       <c r="C39" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="D39" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="E39" t="n">
-        <v>5508.0</v>
+        <v>3640.0</v>
       </c>
       <c r="F39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.0</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="K39" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,23 +1615,23 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2186.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G40" t="n">
         <v>1.0</v>
       </c>
-      <c r="C40" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>786.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
@@ -1639,10 +1639,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="K40" t="n">
-        <v>39.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,34 +1650,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
       <c r="C41" t="n">
         <v>67.0</v>
       </c>
       <c r="D41" t="n">
-        <v>80.0</v>
+        <v>6.0</v>
       </c>
       <c r="E41" t="n">
-        <v>31640.0</v>
+        <v>2624.0</v>
       </c>
       <c r="F41" t="n">
-        <v>27.0</v>
+        <v>2.0</v>
       </c>
       <c r="G41" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="K41" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C42" t="n">
-        <v>53.0</v>
+        <v>125.0</v>
       </c>
       <c r="D42" t="n">
-        <v>64.0</v>
+        <v>15.0</v>
       </c>
       <c r="E42" t="n">
-        <v>18196.0</v>
+        <v>5299.0</v>
       </c>
       <c r="F42" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>14.000000000000002</v>
+        <v>20.0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,34 +1720,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31640.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I43" t="n">
         <v>4.0</v>
       </c>
-      <c r="C43" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4250.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J43" t="n">
-        <v>25.0</v>
+        <v>70.0</v>
       </c>
       <c r="K43" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="44">
@@ -1755,34 +1755,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="C44" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18196.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="K44" t="n">
         <v>33.0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1049.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>34.0</v>
       </c>
     </row>
     <row r="45">
@@ -1790,19 +1790,19 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C45" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" t="n">
         <v>0.0</v>
@@ -1813,9 +1813,11 @@
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
-      <c r="J45"/>
+      <c r="J45" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K45" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="46">
@@ -1823,34 +1825,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C46" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.0</v>
+        <v>36.0</v>
       </c>
       <c r="E46" t="n">
-        <v>19105.0</v>
+        <v>17289.0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H46" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.0</v>
+        <v>78.0</v>
       </c>
       <c r="K46" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="47">
@@ -1858,34 +1860,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C47" t="n">
-        <v>47.0</v>
+        <v>53.0</v>
       </c>
       <c r="D47" t="n">
-        <v>36.0</v>
+        <v>19.0</v>
       </c>
       <c r="E47" t="n">
-        <v>17289.0</v>
+        <v>7595.0</v>
       </c>
       <c r="F47" t="n">
         <v>9.0</v>
       </c>
       <c r="G47" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I47" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J47" t="n">
-        <v>78.0</v>
+        <v>22.0</v>
       </c>
       <c r="K47" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="48">
@@ -1893,34 +1895,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C48" t="n">
-        <v>53.0</v>
+        <v>67.0</v>
       </c>
       <c r="D48" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="E48" t="n">
-        <v>7595.0</v>
+        <v>9707.0</v>
       </c>
       <c r="F48" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H48" t="n">
         <v>9.0</v>
       </c>
-      <c r="G48" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5.0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="K48" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="49">
@@ -1928,34 +1930,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C49" t="n">
-        <v>71.0</v>
+        <v>80.0</v>
       </c>
       <c r="D49" t="n">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="E49" t="n">
-        <v>8132.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F49" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="G49" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H49" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J49" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K49" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
@@ -1963,34 +1965,34 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="C50" t="n">
         <v>80.0</v>
       </c>
       <c r="D50" t="n">
-        <v>6.0</v>
+        <v>39.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2800.0</v>
+        <v>16291.0</v>
       </c>
       <c r="F50" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="G50" t="n">
         <v>2.0</v>
       </c>
       <c r="H50" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>50.0</v>
+        <v>12.0</v>
       </c>
       <c r="K50" t="n">
-        <v>6.0</v>
+        <v>-19.0</v>
       </c>
     </row>
     <row r="51">
@@ -1998,34 +2000,34 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="C51" t="n">
-        <v>87.0</v>
+        <v>67.0</v>
       </c>
       <c r="D51" t="n">
-        <v>39.0</v>
+        <v>50.0</v>
       </c>
       <c r="E51" t="n">
-        <v>16291.0</v>
+        <v>19385.0</v>
       </c>
       <c r="F51" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="G51" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="H51" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J51" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.0</v>
+        <v>-21.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -56,12 +56,12 @@
     <t>thunder</t>
   </si>
   <si>
+    <t>Inferno</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>Inferno</t>
-  </si>
-  <si>
     <t>snowkids</t>
   </si>
   <si>
@@ -137,12 +137,12 @@
     <t>Wut</t>
   </si>
   <si>
+    <t>supercell</t>
+  </si>
+  <si>
     <t>Sergas</t>
   </si>
   <si>
-    <t>supercell</t>
-  </si>
-  <si>
     <t>hugo</t>
   </si>
   <si>
@@ -188,7 +188,7 @@
     <t>Jonas 705</t>
   </si>
   <si>
-    <t>RubenVski</t>
+    <t>diogo</t>
   </si>
   <si>
     <t>MASTER PT</t>
@@ -390,34 +390,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45372.0</v>
+      </c>
+      <c r="F5" t="n">
         <v>38.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>43575.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>39.0</v>
-      </c>
       <c r="G5" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
       <c r="K5" t="n">
-        <v>294.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,31 +425,31 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43575.0</v>
+      </c>
+      <c r="F6" t="n">
         <v>39.0</v>
       </c>
-      <c r="C6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>45372.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>38.0</v>
-      </c>
       <c r="G6" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>74.0</v>
+        <v>67.0</v>
       </c>
       <c r="K6" t="n">
         <v>294.0</v>
@@ -697,7 +697,7 @@
         <v>72.0</v>
       </c>
       <c r="K13" t="n">
-        <v>258.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="14">
@@ -907,7 +907,7 @@
         <v>40.0</v>
       </c>
       <c r="K19" t="n">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="20">
@@ -1012,7 +1012,7 @@
         <v>62.0</v>
       </c>
       <c r="K22" t="n">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="23">
@@ -1082,7 +1082,7 @@
         <v>38.0</v>
       </c>
       <c r="K24" t="n">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="25">
@@ -1222,7 +1222,7 @@
         <v>43.0</v>
       </c>
       <c r="K28" t="n">
-        <v>153.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="29">
@@ -1292,7 +1292,7 @@
         <v>81.0</v>
       </c>
       <c r="K30" t="n">
-        <v>130.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="31">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="C32" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D32" t="n">
-        <v>75.0</v>
+        <v>73.0</v>
       </c>
       <c r="E32" t="n">
-        <v>30992.0</v>
+        <v>27916.0</v>
       </c>
       <c r="F32" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H32" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="K32" t="n">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,31 +1370,31 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="C33" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="E33" t="n">
-        <v>27916.0</v>
+        <v>30992.0</v>
       </c>
       <c r="F33" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="G33" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="K33" t="n">
         <v>111.0</v>
@@ -1607,7 +1607,7 @@
         <v>50.0</v>
       </c>
       <c r="K39" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="40">
@@ -1930,34 +1930,32 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2800.0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G49" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
       </c>
-      <c r="J49" t="n">
-        <v>50.0</v>
-      </c>
+      <c r="J49"/>
       <c r="K49" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1992,7 +1990,7 @@
         <v>12.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-19.0</v>
+        <v>-18.0</v>
       </c>
     </row>
     <row r="51">

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -50,39 +50,39 @@
     <t>bascenso</t>
   </si>
   <si>
+    <t>thunder</t>
+  </si>
+  <si>
     <t>☆ Di♡g♡</t>
   </si>
   <si>
-    <t>thunder</t>
+    <t>Fabíola</t>
   </si>
   <si>
     <t>Inferno</t>
   </si>
   <si>
-    <t>Fabíola</t>
-  </si>
-  <si>
     <t>snowkids</t>
   </si>
   <si>
+    <t>leal</t>
+  </si>
+  <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>Goblyn</t>
   </si>
   <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
-    <t>leal</t>
-  </si>
-  <si>
     <t>zau</t>
   </si>
   <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
     <t>King Bonixe</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
     <t>John Rambo</t>
   </si>
   <si>
@@ -92,27 +92,27 @@
     <t>pjp</t>
   </si>
   <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>unb</t>
+    <t>Ricky</t>
   </si>
   <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>Ricky</t>
+    <t>Robb Stark</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
   </si>
   <si>
     <t>TheKingJK</t>
   </si>
   <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>filipe</t>
   </si>
   <si>
@@ -122,36 +122,36 @@
     <t>qzt</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>Matilde Pires</t>
   </si>
   <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
     <t>Savler</t>
   </si>
   <si>
     <t>Marcelo</t>
   </si>
   <si>
+    <t>supercell</t>
+  </si>
+  <si>
+    <t>Sergas</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>supercell</t>
-  </si>
-  <si>
-    <t>Sergas</t>
+    <t>Welton</t>
+  </si>
+  <si>
+    <t>fglopes</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>Welton</t>
-  </si>
-  <si>
-    <t>fglopes</t>
-  </si>
-  <si>
     <t>YOSHINZ</t>
   </si>
   <si>
@@ -164,19 +164,19 @@
     <t>president</t>
   </si>
   <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
+    <t>CarvaPower.</t>
+  </si>
+  <si>
     <t>batata</t>
   </si>
   <si>
-    <t>rei da guerra</t>
-  </si>
-  <si>
-    <t>CarvaPower.</t>
+    <t>yusif</t>
   </si>
   <si>
     <t>Manu</t>
-  </si>
-  <si>
-    <t>yusif</t>
   </si>
   <si>
     <t>Pikaya</t>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>117.0</v>
+        <v>120.0</v>
       </c>
       <c r="E2" t="n">
-        <v>47880.0</v>
+        <v>49000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -312,7 +312,7 @@
         <v>83.0</v>
       </c>
       <c r="K2" t="n">
-        <v>360.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.0</v>
+        <v>120.0</v>
       </c>
       <c r="E3" t="n">
         <v>46760.0</v>
       </c>
       <c r="F3" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G3" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0</v>
+        <v>70.0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.0</v>
+        <v>352.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.0</v>
+        <v>120.0</v>
       </c>
       <c r="E4" t="n">
-        <v>45640.0</v>
+        <v>47600.0</v>
       </c>
       <c r="F4" t="n">
         <v>43.0</v>
       </c>
       <c r="G4" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -379,10 +379,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="K4" t="n">
-        <v>328.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="5">
@@ -399,10 +399,10 @@
         <v>117.0</v>
       </c>
       <c r="E5" t="n">
-        <v>45372.0</v>
+        <v>45255.0</v>
       </c>
       <c r="F5" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="G5" t="n">
         <v>28.0</v>
@@ -411,13 +411,13 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.0</v>
+        <v>68.0</v>
       </c>
       <c r="K5" t="n">
-        <v>295.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,34 +425,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>114.0</v>
+        <v>120.0</v>
       </c>
       <c r="E6" t="n">
-        <v>43575.0</v>
+        <v>46772.0</v>
       </c>
       <c r="F6" t="n">
         <v>39.0</v>
       </c>
       <c r="G6" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
       <c r="K6" t="n">
-        <v>294.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="E7" t="n">
-        <v>47090.0</v>
+        <v>48490.0</v>
       </c>
       <c r="F7" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -484,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="K7" t="n">
-        <v>286.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,34 +495,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>117.0</v>
+        <v>110.0</v>
       </c>
       <c r="E8" t="n">
-        <v>47040.0</v>
+        <v>44800.0</v>
       </c>
       <c r="F8" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="G8" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.00000000000001</v>
+        <v>71.0</v>
       </c>
       <c r="K8" t="n">
-        <v>284.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,19 +530,19 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
       <c r="E9" t="n">
-        <v>43400.0</v>
+        <v>44800.0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G9" t="n">
         <v>25.0</v>
@@ -554,10 +554,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="K9" t="n">
-        <v>283.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>107.0</v>
+        <v>120.0</v>
       </c>
       <c r="E10" t="n">
-        <v>43400.0</v>
+        <v>48440.0</v>
       </c>
       <c r="F10" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="G10" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>70.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>283.0</v>
+        <v>296.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,19 +600,19 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="E11" t="n">
-        <v>49000.0</v>
+        <v>50120.0</v>
       </c>
       <c r="F11" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G11" t="n">
         <v>22.0</v>
@@ -624,10 +624,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="K11" t="n">
-        <v>277.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,34 +635,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>100.0</v>
+        <v>109.0</v>
       </c>
       <c r="E12" t="n">
-        <v>40320.0</v>
+        <v>43076.0</v>
       </c>
       <c r="F12" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="G12" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="H12" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>63.0</v>
+        <v>73.0</v>
       </c>
       <c r="K12" t="n">
-        <v>265.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="13">
@@ -676,28 +676,28 @@
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.0</v>
+        <v>103.0</v>
       </c>
       <c r="E13" t="n">
-        <v>41396.0</v>
+        <v>41440.0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.0</v>
+        <v>62.0</v>
       </c>
       <c r="K13" t="n">
-        <v>259.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="14">
@@ -708,7 +708,7 @@
         <v>35.0</v>
       </c>
       <c r="C14" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="D14" t="n">
         <v>105.0</v>
@@ -732,7 +732,7 @@
         <v>62.0</v>
       </c>
       <c r="K14" t="n">
-        <v>254.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="E15" t="n">
-        <v>45091.0</v>
+        <v>46211.0</v>
       </c>
       <c r="F15" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G15" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
@@ -764,10 +764,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="K15" t="n">
-        <v>240.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,22 +775,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>105.0</v>
+        <v>108.0</v>
       </c>
       <c r="E16" t="n">
-        <v>40880.0</v>
+        <v>42000.0</v>
       </c>
       <c r="F16" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G16" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H16" t="n">
         <v>3.0</v>
@@ -799,10 +799,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="K16" t="n">
-        <v>230.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,34 +810,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>116.0</v>
+        <v>98.0</v>
       </c>
       <c r="E17" t="n">
-        <v>43928.0</v>
+        <v>40600.0</v>
       </c>
       <c r="F17" t="n">
-        <v>43.0</v>
+        <v>35.0</v>
       </c>
       <c r="G17" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>37.0</v>
+        <v>63.0</v>
       </c>
       <c r="K17" t="n">
-        <v>225.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,34 +845,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="C18" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>95.0</v>
+        <v>119.0</v>
       </c>
       <c r="E18" t="n">
-        <v>39480.0</v>
+        <v>45538.0</v>
       </c>
       <c r="F18" t="n">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="G18" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.0</v>
+        <v>36.0</v>
       </c>
       <c r="K18" t="n">
-        <v>222.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,34 +880,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>41353.0</v>
+      </c>
+      <c r="F19" t="n">
         <v>38.0</v>
       </c>
-      <c r="C19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>40439.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>40.0</v>
-      </c>
       <c r="G19" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="K19" t="n">
-        <v>212.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>102.0</v>
+        <v>116.0</v>
       </c>
       <c r="E20" t="n">
-        <v>39953.0</v>
+        <v>41751.0</v>
       </c>
       <c r="F20" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="G20" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="K20" t="n">
-        <v>210.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="C21" t="n">
-        <v>93.0</v>
+        <v>27.0</v>
       </c>
       <c r="D21" t="n">
-        <v>88.0</v>
+        <v>84.0</v>
       </c>
       <c r="E21" t="n">
-        <v>36400.0</v>
+        <v>33282.0</v>
       </c>
       <c r="F21" t="n">
-        <v>36.0</v>
+        <v>27.0</v>
       </c>
       <c r="G21" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="H21" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>57.99999999999999</v>
+        <v>63.0</v>
       </c>
       <c r="K21" t="n">
-        <v>209.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,34 +985,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="C22" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>81.0</v>
+        <v>52.0</v>
       </c>
       <c r="E22" t="n">
-        <v>31882.0</v>
+        <v>23240.0</v>
       </c>
       <c r="F22" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="G22" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>62.0</v>
+        <v>74.0</v>
       </c>
       <c r="K22" t="n">
-        <v>192.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1020,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="C23" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D23" t="n">
-        <v>49.0</v>
+        <v>89.0</v>
       </c>
       <c r="E23" t="n">
-        <v>22120.0</v>
+        <v>36960.0</v>
       </c>
       <c r="F23" t="n">
-        <v>18.0</v>
+        <v>36.0</v>
       </c>
       <c r="G23" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>190.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,22 +1055,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C24" t="n">
         <v>80.0</v>
       </c>
       <c r="D24" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="E24" t="n">
-        <v>40320.0</v>
+        <v>41440.0</v>
       </c>
       <c r="F24" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="G24" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H24" t="n">
         <v>8.0</v>
@@ -1079,10 +1079,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="K24" t="n">
-        <v>179.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,22 +1090,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
       <c r="E25" t="n">
-        <v>40677.0</v>
+        <v>42077.0</v>
       </c>
       <c r="F25" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H25" t="n">
         <v>3.0</v>
@@ -1114,10 +1114,10 @@
         <v>1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>28.999999999999996</v>
+        <v>31.0</v>
       </c>
       <c r="K25" t="n">
-        <v>168.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,22 +1125,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>106.0</v>
+        <v>109.0</v>
       </c>
       <c r="E26" t="n">
-        <v>42919.0</v>
+        <v>44599.0</v>
       </c>
       <c r="F26" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H26" t="n">
         <v>8.0</v>
@@ -1149,10 +1149,10 @@
         <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="K26" t="n">
-        <v>165.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="27">
@@ -1169,13 +1169,13 @@
         <v>60.0</v>
       </c>
       <c r="E27" t="n">
-        <v>24360.0</v>
+        <v>25865.0</v>
       </c>
       <c r="F27" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="G27" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
@@ -1187,7 +1187,7 @@
         <v>45.0</v>
       </c>
       <c r="K27" t="n">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,16 +1195,16 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="C28" t="n">
         <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.0</v>
+        <v>63.0</v>
       </c>
       <c r="E28" t="n">
-        <v>24465.0</v>
+        <v>25480.0</v>
       </c>
       <c r="F28" t="n">
         <v>21.0</v>
@@ -1222,7 +1222,7 @@
         <v>43.0</v>
       </c>
       <c r="K28" t="n">
-        <v>154.0</v>
+        <v>153.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,22 +1230,22 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="E29" t="n">
-        <v>26320.0</v>
+        <v>27440.0</v>
       </c>
       <c r="F29" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G29" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H29" t="n">
         <v>7.0</v>
@@ -1254,10 +1254,10 @@
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>56.00000000000001</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>133.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,22 +1265,22 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C30" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E30" t="n">
-        <v>16520.0</v>
+        <v>18200.0</v>
       </c>
       <c r="F30" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G30" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H30" t="n">
         <v>5.0</v>
@@ -1289,10 +1289,10 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="K30" t="n">
-        <v>129.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.0</v>
+        <v>87.0</v>
       </c>
       <c r="D31" t="n">
-        <v>54.0</v>
+        <v>76.0</v>
       </c>
       <c r="E31" t="n">
-        <v>23520.0</v>
+        <v>29228.0</v>
       </c>
       <c r="F31" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="G31" t="n">
         <v>12.0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>56.99999999999999</v>
+        <v>44.0</v>
       </c>
       <c r="K31" t="n">
-        <v>117.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="C32" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="E32" t="n">
-        <v>27916.0</v>
+        <v>31832.0</v>
       </c>
       <c r="F32" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="G32" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="K32" t="n">
-        <v>111.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,34 +1370,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="C33" t="n">
-        <v>100.0</v>
+        <v>33.0</v>
       </c>
       <c r="D33" t="n">
-        <v>75.0</v>
+        <v>54.0</v>
       </c>
       <c r="E33" t="n">
-        <v>30992.0</v>
+        <v>23520.0</v>
       </c>
       <c r="F33" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="G33" t="n">
         <v>12.0</v>
       </c>
       <c r="H33" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>43.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,34 +1405,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>17.0</v>
+        <v>34.0</v>
       </c>
       <c r="C34" t="n">
         <v>87.0</v>
       </c>
       <c r="D34" t="n">
-        <v>50.0</v>
+        <v>95.0</v>
       </c>
       <c r="E34" t="n">
-        <v>21840.0</v>
+        <v>41440.0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.0</v>
+        <v>35.0</v>
       </c>
       <c r="K34" t="n">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,34 +1440,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="C35" t="n">
-        <v>87.0</v>
+        <v>73.0</v>
       </c>
       <c r="D35" t="n">
-        <v>92.0</v>
+        <v>73.0</v>
       </c>
       <c r="E35" t="n">
-        <v>40320.0</v>
+        <v>28041.0</v>
       </c>
       <c r="F35" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="G35" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
       <c r="K35" t="n">
-        <v>99.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="C36" t="n">
-        <v>73.0</v>
+        <v>87.0</v>
       </c>
       <c r="D36" t="n">
-        <v>70.0</v>
+        <v>53.0</v>
       </c>
       <c r="E36" t="n">
-        <v>26361.0</v>
+        <v>23520.0</v>
       </c>
       <c r="F36" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H36" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="K36" t="n">
-        <v>95.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="37">
@@ -1513,7 +1513,7 @@
         <v>12.0</v>
       </c>
       <c r="C37" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="D37" t="n">
         <v>33.0</v>
@@ -1537,7 +1537,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>78.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,19 +1545,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C38" t="n">
-        <v>120.0</v>
+        <v>117.0</v>
       </c>
       <c r="D38" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="E38" t="n">
-        <v>6820.0</v>
+        <v>8220.0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G38" t="n">
         <v>4.0</v>
@@ -1569,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>67.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="39">
@@ -1583,7 +1583,7 @@
         <v>5.0</v>
       </c>
       <c r="C39" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D39" t="n">
         <v>11.0</v>
@@ -1607,7 +1607,7 @@
         <v>50.0</v>
       </c>
       <c r="K39" t="n">
-        <v>57.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,19 +1615,19 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2186.0</v>
+        <v>2972.0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G40" t="n">
         <v>1.0</v>
@@ -1639,10 +1639,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="K40" t="n">
-        <v>47.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,19 +1650,19 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" t="n">
-        <v>67.0</v>
+        <v>120.0</v>
       </c>
       <c r="D41" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6348.0</v>
+      </c>
+      <c r="F41" t="n">
         <v>6.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2624.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2.0</v>
       </c>
       <c r="G41" t="n">
         <v>1.0</v>
@@ -1674,10 +1674,10 @@
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>50.0</v>
+        <v>17.0</v>
       </c>
       <c r="K41" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>5.0</v>
+        <v>31.0</v>
       </c>
       <c r="C42" t="n">
-        <v>125.0</v>
+        <v>60.0</v>
       </c>
       <c r="D42" t="n">
-        <v>15.0</v>
+        <v>81.0</v>
       </c>
       <c r="E42" t="n">
-        <v>5299.0</v>
+        <v>32200.0</v>
       </c>
       <c r="F42" t="n">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.0</v>
+        <v>68.0</v>
       </c>
       <c r="K42" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,34 +1720,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>30.0</v>
+        <v>3.0</v>
       </c>
       <c r="C43" t="n">
-        <v>60.0</v>
+        <v>75.0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.0</v>
+        <v>9.0</v>
       </c>
       <c r="E43" t="n">
-        <v>31640.0</v>
+        <v>3673.0</v>
       </c>
       <c r="F43" t="n">
-        <v>27.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.0</v>
+        <v>33.0</v>
       </c>
       <c r="K43" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="44">
@@ -1755,31 +1755,31 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="C44" t="n">
-        <v>47.0</v>
+        <v>200.0</v>
       </c>
       <c r="D44" t="n">
-        <v>64.0</v>
+        <v>6.0</v>
       </c>
       <c r="E44" t="n">
-        <v>18196.0</v>
+        <v>2520.0</v>
       </c>
       <c r="F44" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>14.000000000000002</v>
+        <v>33.0</v>
       </c>
       <c r="K44" t="n">
         <v>33.0</v>
@@ -1790,34 +1790,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C45" t="e">
-        <v>#DIV/0!</v>
+        <v>23.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>47.0</v>
       </c>
       <c r="D45" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18196.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G45" t="n">
         <v>3.0</v>
       </c>
-      <c r="E45" t="n">
-        <v>1120.0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I45" t="n">
         <v>2.0</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -1828,7 +1828,7 @@
         <v>12.0</v>
       </c>
       <c r="C46" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="D46" t="n">
         <v>36.0</v>
@@ -1852,7 +1852,7 @@
         <v>78.0</v>
       </c>
       <c r="K46" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="47">
@@ -1863,7 +1863,7 @@
         <v>8.0</v>
       </c>
       <c r="C47" t="n">
-        <v>53.0</v>
+        <v>47.0</v>
       </c>
       <c r="D47" t="n">
         <v>19.0</v>
@@ -1895,19 +1895,19 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C48" t="n">
         <v>67.0</v>
       </c>
       <c r="D48" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="E48" t="n">
-        <v>9707.0</v>
+        <v>11019.0</v>
       </c>
       <c r="F48" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G48" t="n">
         <v>3.0</v>
@@ -1919,10 +1919,10 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="K48" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="49">
@@ -1963,19 +1963,19 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C50" t="n">
         <v>80.0</v>
       </c>
       <c r="D50" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="E50" t="n">
-        <v>16291.0</v>
+        <v>17516.0</v>
       </c>
       <c r="F50" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G50" t="n">
         <v>2.0</v>
@@ -1987,10 +1987,10 @@
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-18.0</v>
+        <v>-17.0</v>
       </c>
     </row>
     <row r="51">
@@ -1998,19 +1998,19 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C51" t="n">
-        <v>67.0</v>
+        <v>73.0</v>
       </c>
       <c r="D51" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="E51" t="n">
-        <v>19385.0</v>
+        <v>20225.0</v>
       </c>
       <c r="F51" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G51" t="n">
         <v>6.0</v>
@@ -2022,10 +2022,10 @@
         <v>3.0</v>
       </c>
       <c r="J51" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-21.0</v>
+        <v>-22.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -83,12 +83,12 @@
     <t>King Bonixe</t>
   </si>
   <si>
+    <t>Tio João</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
@@ -101,27 +101,30 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>Robb Stark</t>
+  </si>
+  <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
     <t>Tabo da amarela</t>
   </si>
   <si>
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>metamox</t>
+  </si>
+  <si>
+    <t>Jonix21</t>
+  </si>
+  <si>
+    <t>qzt</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>metamox</t>
-  </si>
-  <si>
-    <t>qzt</t>
-  </si>
-  <si>
     <t>LCINORC</t>
   </si>
   <si>
@@ -131,67 +134,58 @@
     <t>Savler</t>
   </si>
   <si>
+    <t>supercell</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>supercell</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
     <t>Wut</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>fglopes</t>
+  </si>
+  <si>
     <t>Welton</t>
   </si>
   <si>
-    <t>fglopes</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>YOSHINZ</t>
-  </si>
-  <si>
     <t>Da Silva</t>
   </si>
   <si>
     <t>pwepito</t>
   </si>
   <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
+    <t>batata</t>
+  </si>
+  <si>
     <t>president</t>
   </si>
   <si>
-    <t>rei da guerra</t>
-  </si>
-  <si>
-    <t>CarvaPower.</t>
-  </si>
-  <si>
-    <t>batata</t>
-  </si>
-  <si>
     <t>yusif</t>
   </si>
   <si>
     <t>Manu</t>
   </si>
   <si>
+    <t>Jonas 705</t>
+  </si>
+  <si>
     <t>Pikaya</t>
   </si>
   <si>
     <t>NOVA I MIGUEL☉</t>
   </si>
   <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
     <t>diogo</t>
-  </si>
-  <si>
-    <t>MASTER PT</t>
   </si>
   <si>
     <t>Sra. Clash</t>
@@ -285,22 +279,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="E2" t="n">
-        <v>49000.0</v>
+        <v>50120.0</v>
       </c>
       <c r="F2" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G2" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -309,10 +303,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="K2" t="n">
-        <v>388.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,19 +314,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="E3" t="n">
-        <v>46760.0</v>
+        <v>47880.0</v>
       </c>
       <c r="F3" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G3" t="n">
         <v>31.0</v>
@@ -344,10 +338,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="K3" t="n">
-        <v>352.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,19 +349,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="E4" t="n">
-        <v>47600.0</v>
+        <v>48440.0</v>
       </c>
       <c r="F4" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G4" t="n">
         <v>32.0</v>
@@ -379,10 +373,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="K4" t="n">
-        <v>350.0</v>
+        <v>352.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +384,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>117.0</v>
+        <v>120.0</v>
       </c>
       <c r="E5" t="n">
-        <v>45255.0</v>
+        <v>46375.0</v>
       </c>
       <c r="F5" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G5" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -414,10 +408,10 @@
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="K5" t="n">
-        <v>323.0</v>
+        <v>332.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +419,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>48172.0</v>
+      </c>
+      <c r="F6" t="n">
         <v>40.0</v>
       </c>
-      <c r="C6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>46772.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>39.0</v>
-      </c>
       <c r="G6" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -449,10 +443,10 @@
         <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="K6" t="n">
-        <v>318.0</v>
+        <v>328.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +454,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>118.0</v>
+        <v>121.0</v>
       </c>
       <c r="E7" t="n">
-        <v>48490.0</v>
+        <v>49330.0</v>
       </c>
       <c r="F7" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -484,10 +478,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="K7" t="n">
-        <v>305.0</v>
+        <v>314.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,19 +489,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>110.0</v>
+        <v>113.0</v>
       </c>
       <c r="E8" t="n">
-        <v>44800.0</v>
+        <v>45920.0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G8" t="n">
         <v>27.0</v>
@@ -519,10 +513,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.0</v>
+        <v>69.0</v>
       </c>
       <c r="K8" t="n">
-        <v>304.0</v>
+        <v>307.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,19 +524,19 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="E9" t="n">
-        <v>44800.0</v>
+        <v>46200.0</v>
       </c>
       <c r="F9" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G9" t="n">
         <v>25.0</v>
@@ -554,10 +548,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="K9" t="n">
-        <v>297.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,19 +559,19 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="E10" t="n">
-        <v>48440.0</v>
+        <v>49560.0</v>
       </c>
       <c r="F10" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G10" t="n">
         <v>23.0</v>
@@ -589,10 +583,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>55.00000000000001</v>
+        <v>53.0</v>
       </c>
       <c r="K10" t="n">
-        <v>296.0</v>
+        <v>298.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,34 +594,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>118.0</v>
+        <v>120.0</v>
       </c>
       <c r="E11" t="n">
-        <v>50120.0</v>
+        <v>50960.0</v>
       </c>
       <c r="F11" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G11" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>285.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,19 +629,19 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>109.0</v>
+        <v>112.0</v>
       </c>
       <c r="E12" t="n">
-        <v>43076.0</v>
+        <v>44476.0</v>
       </c>
       <c r="F12" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G12" t="n">
         <v>27.0</v>
@@ -659,10 +653,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>73.0</v>
+        <v>71.0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,22 +664,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.0</v>
+        <v>106.0</v>
       </c>
       <c r="E13" t="n">
-        <v>41440.0</v>
+        <v>42840.0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H13" t="n">
         <v>5.0</v>
@@ -697,7 +691,7 @@
         <v>62.0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,31 +699,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="C14" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>105.0</v>
+        <v>120.0</v>
       </c>
       <c r="E14" t="n">
-        <v>45640.0</v>
+        <v>47331.0</v>
       </c>
       <c r="F14" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="G14" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>62.0</v>
+        <v>45.0</v>
       </c>
       <c r="K14" t="n">
         <v>263.0</v>
@@ -740,34 +734,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="C15" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="D15" t="n">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
       <c r="E15" t="n">
-        <v>46211.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F15" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="G15" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.0</v>
+        <v>62.0</v>
       </c>
       <c r="K15" t="n">
-        <v>254.0</v>
+        <v>262.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,31 +769,31 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>108.0</v>
+        <v>110.0</v>
       </c>
       <c r="E16" t="n">
-        <v>42000.0</v>
+        <v>42840.0</v>
       </c>
       <c r="F16" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G16" t="n">
         <v>18.0</v>
       </c>
       <c r="H16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="K16" t="n">
         <v>243.0</v>
@@ -810,34 +804,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C17" t="n">
         <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="E17" t="n">
-        <v>40600.0</v>
+        <v>40880.0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="G17" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="K17" t="n">
-        <v>242.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,22 +839,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>119.0</v>
+        <v>122.0</v>
       </c>
       <c r="E18" t="n">
-        <v>45538.0</v>
+        <v>46587.0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G18" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H18" t="n">
         <v>1.0</v>
@@ -869,10 +863,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,19 +874,19 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>105.0</v>
+        <v>108.0</v>
       </c>
       <c r="E19" t="n">
-        <v>41353.0</v>
+        <v>42402.0</v>
       </c>
       <c r="F19" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G19" t="n">
         <v>14.0</v>
@@ -904,10 +898,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="K19" t="n">
-        <v>214.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +909,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="C20" t="n">
-        <v>100.0</v>
+        <v>27.0</v>
       </c>
       <c r="D20" t="n">
-        <v>116.0</v>
+        <v>87.0</v>
       </c>
       <c r="E20" t="n">
-        <v>41751.0</v>
+        <v>34682.0</v>
       </c>
       <c r="F20" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="G20" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>40.0</v>
+        <v>64.0</v>
       </c>
       <c r="K20" t="n">
-        <v>206.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +944,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>28.0</v>
+        <v>39.0</v>
       </c>
       <c r="C21" t="n">
-        <v>27.0</v>
+        <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>84.0</v>
+        <v>116.0</v>
       </c>
       <c r="E21" t="n">
-        <v>33282.0</v>
+        <v>41751.0</v>
       </c>
       <c r="F21" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="G21" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>63.0</v>
+        <v>40.0</v>
       </c>
       <c r="K21" t="n">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,19 +979,19 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C22" t="n">
         <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="E22" t="n">
-        <v>23240.0</v>
+        <v>24920.0</v>
       </c>
       <c r="F22" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G22" t="n">
         <v>14.0</v>
@@ -1009,10 +1003,10 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>74.0</v>
+        <v>70.0</v>
       </c>
       <c r="K22" t="n">
-        <v>198.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="23">
@@ -1023,7 +1017,7 @@
         <v>33.0</v>
       </c>
       <c r="C23" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D23" t="n">
         <v>89.0</v>
@@ -1055,31 +1049,31 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="C24" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>97.0</v>
+        <v>114.0</v>
       </c>
       <c r="E24" t="n">
-        <v>41440.0</v>
+        <v>43477.0</v>
       </c>
       <c r="F24" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="H24" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="K24" t="n">
         <v>186.0</v>
@@ -1090,34 +1084,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.0</v>
+        <v>72.0</v>
       </c>
       <c r="E25" t="n">
-        <v>42077.0</v>
+        <v>28000.0</v>
       </c>
       <c r="F25" t="n">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>176.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,19 +1119,19 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>109.0</v>
+        <v>112.0</v>
       </c>
       <c r="E26" t="n">
-        <v>44599.0</v>
+        <v>45946.0</v>
       </c>
       <c r="F26" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G26" t="n">
         <v>15.0</v>
@@ -1149,10 +1143,10 @@
         <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="K26" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1154,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="C27" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D27" t="n">
-        <v>60.0</v>
+        <v>98.0</v>
       </c>
       <c r="E27" t="n">
-        <v>25865.0</v>
+        <v>41720.0</v>
       </c>
       <c r="F27" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="G27" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H27" t="n">
         <v>10.0</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I27" t="n">
         <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="K27" t="n">
-        <v>157.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="28">
@@ -1204,13 +1198,13 @@
         <v>63.0</v>
       </c>
       <c r="E28" t="n">
-        <v>25480.0</v>
+        <v>27265.0</v>
       </c>
       <c r="F28" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
@@ -1222,7 +1216,7 @@
         <v>43.0</v>
       </c>
       <c r="K28" t="n">
-        <v>153.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1224,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
       <c r="E29" t="n">
-        <v>27440.0</v>
+        <v>26600.0</v>
       </c>
       <c r="F29" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="G29" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>57.99999999999999</v>
+        <v>41.0</v>
       </c>
       <c r="K29" t="n">
-        <v>150.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1259,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28000.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G30" t="n">
         <v>16.0</v>
       </c>
-      <c r="C30" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>18200.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>14.0</v>
-      </c>
       <c r="H30" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>82.0</v>
+        <v>59.0</v>
       </c>
       <c r="K30" t="n">
-        <v>144.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,22 +1294,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="E31" t="n">
-        <v>29228.0</v>
+        <v>30540.0</v>
       </c>
       <c r="F31" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H31" t="n">
         <v>2.0</v>
@@ -1324,10 +1318,10 @@
         <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="K31" t="n">
-        <v>126.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1329,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>29.0</v>
+        <v>17.0</v>
       </c>
       <c r="C32" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>78.0</v>
+        <v>46.0</v>
       </c>
       <c r="E32" t="n">
-        <v>31832.0</v>
+        <v>19600.0</v>
       </c>
       <c r="F32" t="n">
-        <v>29.0</v>
+        <v>17.0</v>
       </c>
       <c r="G32" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H32" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.0</v>
+        <v>82.0</v>
       </c>
       <c r="K32" t="n">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,34 +1364,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="C33" t="n">
-        <v>33.0</v>
+        <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>54.0</v>
+        <v>80.0</v>
       </c>
       <c r="E33" t="n">
-        <v>23520.0</v>
+        <v>32672.0</v>
       </c>
       <c r="F33" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="G33" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>56.99999999999999</v>
+        <v>47.0</v>
       </c>
       <c r="K33" t="n">
-        <v>118.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,34 +1399,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>34.0</v>
+        <v>20.0</v>
       </c>
       <c r="C34" t="n">
-        <v>87.0</v>
+        <v>33.0</v>
       </c>
       <c r="D34" t="n">
-        <v>95.0</v>
+        <v>54.0</v>
       </c>
       <c r="E34" t="n">
-        <v>41440.0</v>
+        <v>23520.0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>35.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>102.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,34 +1434,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="C35" t="n">
-        <v>73.0</v>
+        <v>87.0</v>
       </c>
       <c r="D35" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
       <c r="E35" t="n">
-        <v>28041.0</v>
+        <v>24360.0</v>
       </c>
       <c r="F35" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="G35" t="n">
         <v>5.0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="K35" t="n">
-        <v>95.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1469,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="C36" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D36" t="n">
-        <v>53.0</v>
+        <v>75.0</v>
       </c>
       <c r="E36" t="n">
-        <v>23520.0</v>
+        <v>28828.0</v>
       </c>
       <c r="F36" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="G36" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="K36" t="n">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,34 +1504,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="C37" t="n">
-        <v>13.0</v>
+        <v>87.0</v>
       </c>
       <c r="D37" t="n">
-        <v>33.0</v>
+        <v>96.0</v>
       </c>
       <c r="E37" t="n">
-        <v>12880.0</v>
+        <v>41720.0</v>
       </c>
       <c r="F37" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="H37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I37" t="n">
         <v>3.0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.0</v>
-      </c>
       <c r="J37" t="n">
-        <v>57.99999999999999</v>
+        <v>34.0</v>
       </c>
       <c r="K37" t="n">
-        <v>72.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,19 +1539,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C38" t="n">
-        <v>117.0</v>
+        <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="E38" t="n">
-        <v>8220.0</v>
+        <v>9795.0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G38" t="n">
         <v>4.0</v>
@@ -1569,10 +1563,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>56.99999999999999</v>
+        <v>50.0</v>
       </c>
       <c r="K38" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,34 +1574,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C39" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="D39" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="E39" t="n">
-        <v>3640.0</v>
+        <v>4480.0</v>
       </c>
       <c r="F39" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G39" t="n">
         <v>3.0</v>
       </c>
       <c r="H39" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="K39" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,22 +1609,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2972.0</v>
+        <v>7660.0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1639,10 +1633,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K40" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,22 +1644,22 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C41" t="n">
-        <v>120.0</v>
+        <v>80.0</v>
       </c>
       <c r="D41" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="E41" t="n">
-        <v>6348.0</v>
+        <v>4985.0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -1674,10 +1668,10 @@
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>17.0</v>
+        <v>50.0</v>
       </c>
       <c r="K41" t="n">
-        <v>36.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1679,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>31.0</v>
+        <v>4.0</v>
       </c>
       <c r="C42" t="n">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="D42" t="n">
-        <v>81.0</v>
+        <v>12.0</v>
       </c>
       <c r="E42" t="n">
-        <v>32200.0</v>
+        <v>4547.0</v>
       </c>
       <c r="F42" t="n">
-        <v>28.0</v>
+        <v>4.0</v>
       </c>
       <c r="G42" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>68.0</v>
+        <v>25.0</v>
       </c>
       <c r="K42" t="n">
-        <v>36.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="43">
@@ -1723,19 +1717,19 @@
         <v>3.0</v>
       </c>
       <c r="C43" t="n">
-        <v>75.0</v>
+        <v>150.0</v>
       </c>
       <c r="D43" t="n">
         <v>9.0</v>
       </c>
       <c r="E43" t="n">
-        <v>3673.0</v>
+        <v>3360.0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1744,10 +1738,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="K43" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="44">
@@ -1755,34 +1749,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18196.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.0</v>
       </c>
-      <c r="C44" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2520.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J44" t="n">
-        <v>33.0</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="45">
@@ -1790,34 +1784,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="C45" t="n">
-        <v>47.0</v>
+        <v>67.0</v>
       </c>
       <c r="D45" t="n">
-        <v>64.0</v>
+        <v>30.0</v>
       </c>
       <c r="E45" t="n">
-        <v>18196.0</v>
+        <v>11805.0</v>
       </c>
       <c r="F45" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="G45" t="n">
         <v>3.0</v>
       </c>
       <c r="H45" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.000000000000002</v>
+        <v>23.0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="46">
@@ -1828,7 +1822,7 @@
         <v>12.0</v>
       </c>
       <c r="C46" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="D46" t="n">
         <v>36.0</v>
@@ -1852,7 +1846,7 @@
         <v>78.0</v>
       </c>
       <c r="K46" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="47">
@@ -1863,7 +1857,7 @@
         <v>8.0</v>
       </c>
       <c r="C47" t="n">
-        <v>47.0</v>
+        <v>40.0</v>
       </c>
       <c r="D47" t="n">
         <v>19.0</v>
@@ -1887,7 +1881,7 @@
         <v>22.0</v>
       </c>
       <c r="K47" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="48">
@@ -1895,34 +1889,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D48" t="n">
-        <v>27.0</v>
+        <v>3.0</v>
       </c>
       <c r="E48" t="n">
-        <v>11019.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F48" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -1930,102 +1924,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>21345.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J49"/>
+        <v>3.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>28.999999999999996</v>
+      </c>
       <c r="K49" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>17516.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-17.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>20225.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-22.0</v>
+        <v>-19.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -56,12 +56,12 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
+    <t>Inferno</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>Inferno</t>
-  </si>
-  <si>
     <t>snowkids</t>
   </si>
   <si>
@@ -71,12 +71,12 @@
     <t>Madnasty</t>
   </si>
   <si>
+    <t>zau</t>
+  </si>
+  <si>
     <t>Goblyn</t>
   </si>
   <si>
-    <t>zau</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
@@ -116,30 +116,30 @@
     <t>metamox</t>
   </si>
   <si>
+    <t>qzt</t>
+  </si>
+  <si>
+    <t>filipe</t>
+  </si>
+  <si>
     <t>Jonix21</t>
   </si>
   <si>
-    <t>qzt</t>
-  </si>
-  <si>
-    <t>filipe</t>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>Savler</t>
   </si>
   <si>
     <t>LCINORC</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>Savler</t>
+    <t>Marcelo</t>
   </si>
   <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
@@ -158,34 +158,40 @@
     <t>Da Silva</t>
   </si>
   <si>
+    <t>batata</t>
+  </si>
+  <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
     <t>pwepito</t>
   </si>
   <si>
-    <t>rei da guerra</t>
-  </si>
-  <si>
-    <t>batata</t>
-  </si>
-  <si>
     <t>president</t>
   </si>
   <si>
     <t>yusif</t>
   </si>
   <si>
+    <t>@PedroMXGO</t>
+  </si>
+  <si>
     <t>Manu</t>
   </si>
   <si>
     <t>Jonas 705</t>
   </si>
   <si>
+    <t>bin0-dA-k1nG</t>
+  </si>
+  <si>
+    <t>diogo</t>
+  </si>
+  <si>
+    <t>NOVA I MIGUEL☉</t>
+  </si>
+  <si>
     <t>Pikaya</t>
-  </si>
-  <si>
-    <t>NOVA I MIGUEL☉</t>
-  </si>
-  <si>
-    <t>diogo</t>
   </si>
   <si>
     <t>Sra. Clash</t>
@@ -279,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="E2" t="n">
-        <v>50120.0</v>
+        <v>51240.0</v>
       </c>
       <c r="F2" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -306,7 +312,7 @@
         <v>84.0</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0</v>
+        <v>406.0</v>
       </c>
     </row>
     <row r="3">
@@ -314,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="E3" t="n">
-        <v>47880.0</v>
+        <v>49000.0</v>
       </c>
       <c r="F3" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -338,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K3" t="n">
-        <v>355.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,7 +358,7 @@
         <v>41.0</v>
       </c>
       <c r="C4" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D4" t="n">
         <v>123.0</v>
@@ -384,34 +390,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>120.0</v>
+        <v>126.0</v>
       </c>
       <c r="E5" t="n">
-        <v>46375.0</v>
+        <v>49292.0</v>
       </c>
       <c r="F5" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="G5" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.0</v>
+        <v>76.0</v>
       </c>
       <c r="K5" t="n">
-        <v>332.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="6">
@@ -428,25 +434,25 @@
         <v>123.0</v>
       </c>
       <c r="E6" t="n">
-        <v>48172.0</v>
+        <v>47215.0</v>
       </c>
       <c r="F6" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="G6" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>75.0</v>
+        <v>67.0</v>
       </c>
       <c r="K6" t="n">
-        <v>328.0</v>
+        <v>334.0</v>
       </c>
     </row>
     <row r="7">
@@ -454,19 +460,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>121.0</v>
+        <v>124.0</v>
       </c>
       <c r="E7" t="n">
-        <v>49330.0</v>
+        <v>50730.0</v>
       </c>
       <c r="F7" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G7" t="n">
         <v>26.0</v>
@@ -478,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="K7" t="n">
-        <v>314.0</v>
+        <v>317.0</v>
       </c>
     </row>
     <row r="8">
@@ -489,22 +495,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>113.0</v>
+        <v>116.0</v>
       </c>
       <c r="E8" t="n">
-        <v>45920.0</v>
+        <v>47040.0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G8" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H8" t="n">
         <v>4.0</v>
@@ -513,10 +519,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K8" t="n">
-        <v>307.0</v>
+        <v>316.0</v>
       </c>
     </row>
     <row r="9">
@@ -524,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>117.0</v>
+        <v>120.0</v>
       </c>
       <c r="E9" t="n">
-        <v>46200.0</v>
+        <v>47880.0</v>
       </c>
       <c r="F9" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G9" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -548,10 +554,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +565,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
@@ -568,16 +574,16 @@
         <v>123.0</v>
       </c>
       <c r="E10" t="n">
-        <v>49560.0</v>
+        <v>52080.0</v>
       </c>
       <c r="F10" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -586,7 +592,7 @@
         <v>53.0</v>
       </c>
       <c r="K10" t="n">
-        <v>298.0</v>
+        <v>301.0</v>
       </c>
     </row>
     <row r="11">
@@ -594,16 +600,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>120.0</v>
+        <v>126.0</v>
       </c>
       <c r="E11" t="n">
-        <v>50960.0</v>
+        <v>50680.0</v>
       </c>
       <c r="F11" t="n">
         <v>44.0</v>
@@ -612,7 +618,7 @@
         <v>23.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -621,7 +627,7 @@
         <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>292.0</v>
+        <v>301.0</v>
       </c>
     </row>
     <row r="12">
@@ -629,19 +635,19 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="E12" t="n">
-        <v>44476.0</v>
+        <v>45876.0</v>
       </c>
       <c r="F12" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G12" t="n">
         <v>27.0</v>
@@ -653,10 +659,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.0</v>
+        <v>69.0</v>
       </c>
       <c r="K12" t="n">
-        <v>287.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="13">
@@ -664,19 +670,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.0</v>
+        <v>109.0</v>
       </c>
       <c r="E13" t="n">
-        <v>42840.0</v>
+        <v>43680.0</v>
       </c>
       <c r="F13" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G13" t="n">
         <v>25.0</v>
@@ -688,10 +694,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="K13" t="n">
-        <v>287.0</v>
+        <v>289.0</v>
       </c>
     </row>
     <row r="14">
@@ -699,19 +705,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C14" t="n">
         <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="E14" t="n">
-        <v>47331.0</v>
+        <v>48731.0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G14" t="n">
         <v>20.0</v>
@@ -723,10 +729,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="K14" t="n">
-        <v>263.0</v>
+        <v>266.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,7 +743,7 @@
         <v>35.0</v>
       </c>
       <c r="C15" t="n">
-        <v>60.0</v>
+        <v>53.0</v>
       </c>
       <c r="D15" t="n">
         <v>105.0</v>
@@ -769,22 +775,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0</v>
+        <v>113.0</v>
       </c>
       <c r="E16" t="n">
-        <v>42840.0</v>
+        <v>44520.0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H16" t="n">
         <v>4.0</v>
@@ -793,10 +799,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="K16" t="n">
-        <v>243.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="17">
@@ -804,22 +810,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C17" t="n">
         <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="E17" t="n">
-        <v>40880.0</v>
+        <v>42280.0</v>
       </c>
       <c r="F17" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="G17" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H17" t="n">
         <v>6.0</v>
@@ -828,10 +834,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="K17" t="n">
-        <v>243.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="18">
@@ -839,19 +845,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
       <c r="E18" t="n">
-        <v>46587.0</v>
+        <v>47707.0</v>
       </c>
       <c r="F18" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G18" t="n">
         <v>17.0</v>
@@ -863,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="K18" t="n">
-        <v>240.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="19">
@@ -874,22 +880,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
       <c r="E19" t="n">
-        <v>42402.0</v>
+        <v>43802.0</v>
       </c>
       <c r="F19" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H19" t="n">
         <v>3.0</v>
@@ -898,10 +904,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="K19" t="n">
-        <v>217.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="20">
@@ -909,19 +915,19 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C20" t="n">
         <v>27.0</v>
       </c>
       <c r="D20" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="E20" t="n">
-        <v>34682.0</v>
+        <v>35522.0</v>
       </c>
       <c r="F20" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G20" t="n">
         <v>18.0</v>
@@ -933,10 +939,10 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="K20" t="n">
-        <v>215.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="21">
@@ -944,19 +950,19 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>116.0</v>
+        <v>119.0</v>
       </c>
       <c r="E21" t="n">
-        <v>41751.0</v>
+        <v>42800.0</v>
       </c>
       <c r="F21" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G21" t="n">
         <v>16.0</v>
@@ -968,10 +974,10 @@
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="K21" t="n">
-        <v>206.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="22">
@@ -979,19 +985,19 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C22" t="n">
         <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="E22" t="n">
-        <v>24920.0</v>
+        <v>26600.0</v>
       </c>
       <c r="F22" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G22" t="n">
         <v>14.0</v>
@@ -1003,10 +1009,10 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="K22" t="n">
-        <v>202.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,7 +1023,7 @@
         <v>33.0</v>
       </c>
       <c r="C23" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D23" t="n">
         <v>89.0</v>
@@ -1049,22 +1055,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="E24" t="n">
-        <v>43477.0</v>
+        <v>44877.0</v>
       </c>
       <c r="F24" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G24" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.0</v>
@@ -1073,10 +1079,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="K24" t="n">
-        <v>186.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="25">
@@ -1084,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>24.0</v>
+        <v>41.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>72.0</v>
+        <v>115.0</v>
       </c>
       <c r="E25" t="n">
-        <v>28000.0</v>
+        <v>47066.0</v>
       </c>
       <c r="F25" t="n">
-        <v>25.0</v>
+        <v>42.0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J25" t="n">
-        <v>56.00000000000001</v>
+        <v>38.0</v>
       </c>
       <c r="K25" t="n">
-        <v>185.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="26">
@@ -1119,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="C26" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D26" t="n">
-        <v>112.0</v>
+        <v>101.0</v>
       </c>
       <c r="E26" t="n">
-        <v>45946.0</v>
+        <v>42840.0</v>
       </c>
       <c r="F26" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="G26" t="n">
         <v>15.0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="K26" t="n">
-        <v>179.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="27">
@@ -1154,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>36.0</v>
+        <v>24.0</v>
       </c>
       <c r="C27" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>98.0</v>
+        <v>72.0</v>
       </c>
       <c r="E27" t="n">
-        <v>41720.0</v>
+        <v>28000.0</v>
       </c>
       <c r="F27" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="G27" t="n">
         <v>14.0</v>
       </c>
       <c r="H27" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>39.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>176.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="28">
@@ -1189,22 +1195,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C28" t="n">
         <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>63.0</v>
+        <v>69.0</v>
       </c>
       <c r="E28" t="n">
-        <v>27265.0</v>
+        <v>28280.0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G28" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
@@ -1213,10 +1219,10 @@
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="K28" t="n">
-        <v>160.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="29">
@@ -1224,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>66.0</v>
+        <v>73.0</v>
       </c>
       <c r="E29" t="n">
-        <v>26600.0</v>
+        <v>29680.0</v>
       </c>
       <c r="F29" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="G29" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>41.0</v>
+        <v>61.0</v>
       </c>
       <c r="K29" t="n">
-        <v>155.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="30">
@@ -1259,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>70.0</v>
+        <v>66.0</v>
       </c>
       <c r="E30" t="n">
-        <v>28000.0</v>
+        <v>28665.0</v>
       </c>
       <c r="F30" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="G30" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="H30" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
       <c r="K30" t="n">
-        <v>154.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="31">
@@ -1294,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="C31" t="n">
         <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>79.0</v>
+        <v>49.0</v>
       </c>
       <c r="E31" t="n">
-        <v>30540.0</v>
+        <v>21000.0</v>
       </c>
       <c r="F31" t="n">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="G31" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I31" t="n">
         <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>46.0</v>
+        <v>83.0</v>
       </c>
       <c r="K31" t="n">
-        <v>135.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="32">
@@ -1329,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>17.0</v>
+        <v>28.0</v>
       </c>
       <c r="C32" t="n">
         <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>46.0</v>
+        <v>82.0</v>
       </c>
       <c r="E32" t="n">
-        <v>19600.0</v>
+        <v>31589.0</v>
       </c>
       <c r="F32" t="n">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="G32" t="n">
         <v>14.0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>82.0</v>
+        <v>48.0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="33">
@@ -1364,34 +1370,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="E33" t="n">
-        <v>32672.0</v>
+        <v>32952.0</v>
       </c>
       <c r="F33" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="G33" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H33" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="K33" t="n">
-        <v>127.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="34">
@@ -1399,19 +1405,19 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="D34" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="E34" t="n">
-        <v>23520.0</v>
+        <v>24640.0</v>
       </c>
       <c r="F34" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G34" t="n">
         <v>12.0</v>
@@ -1423,10 +1429,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.99999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>116.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="35">
@@ -1434,19 +1440,19 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C35" t="n">
         <v>87.0</v>
       </c>
       <c r="D35" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="E35" t="n">
-        <v>24360.0</v>
+        <v>25480.0</v>
       </c>
       <c r="F35" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G35" t="n">
         <v>5.0</v>
@@ -1458,10 +1464,10 @@
         <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="K35" t="n">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="36">
@@ -1469,19 +1475,19 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C36" t="n">
         <v>80.0</v>
       </c>
       <c r="D36" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="E36" t="n">
-        <v>28828.0</v>
+        <v>29948.0</v>
       </c>
       <c r="F36" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="G36" t="n">
         <v>6.0</v>
@@ -1493,10 +1499,10 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="K36" t="n">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="37">
@@ -1504,19 +1510,19 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C37" t="n">
         <v>87.0</v>
       </c>
       <c r="D37" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="E37" t="n">
-        <v>41720.0</v>
+        <v>43120.0</v>
       </c>
       <c r="F37" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="G37" t="n">
         <v>11.0</v>
@@ -1528,10 +1534,10 @@
         <v>3.0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="K37" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,22 +1545,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="E38" t="n">
-        <v>9795.0</v>
+        <v>10915.0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1563,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>66.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="39">
@@ -1574,34 +1580,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C39" t="n">
-        <v>50.0</v>
+        <v>83.0</v>
       </c>
       <c r="D39" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="E39" t="n">
-        <v>4480.0</v>
+        <v>6560.0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G39" t="n">
         <v>3.0</v>
       </c>
       <c r="H39" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>43.0</v>
+        <v>60.0</v>
       </c>
       <c r="K39" t="n">
-        <v>49.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="40">
@@ -1609,22 +1615,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="E40" t="n">
-        <v>7660.0</v>
+        <v>8500.0</v>
       </c>
       <c r="F40" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1633,10 +1639,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>28.999999999999996</v>
+        <v>38.0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="41">
@@ -1644,34 +1650,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" t="n">
-        <v>80.0</v>
+        <v>46.0</v>
       </c>
       <c r="D41" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E41" t="n">
-        <v>4985.0</v>
+        <v>4480.0</v>
       </c>
       <c r="F41" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="K41" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="42">
@@ -1679,19 +1685,19 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C42" t="n">
         <v>100.0</v>
       </c>
       <c r="D42" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="E42" t="n">
-        <v>4547.0</v>
+        <v>5596.0</v>
       </c>
       <c r="F42" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G42" t="n">
         <v>1.0</v>
@@ -1703,10 +1709,10 @@
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="K42" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="43">
@@ -1714,19 +1720,19 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C43" t="n">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="E43" t="n">
-        <v>3360.0</v>
+        <v>4200.0</v>
       </c>
       <c r="F43" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G43" t="n">
         <v>2.0</v>
@@ -1738,10 +1744,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="K43" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="44">
@@ -1749,34 +1755,32 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n">
-        <v>64.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>18196.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>14.000000000000002</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="45">
@@ -1784,34 +1788,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="C45" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D45" t="n">
         <v>67.0</v>
       </c>
-      <c r="D45" t="n">
-        <v>30.0</v>
-      </c>
       <c r="E45" t="n">
-        <v>11805.0</v>
+        <v>18826.0</v>
       </c>
       <c r="F45" t="n">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
       <c r="G45" t="n">
         <v>3.0</v>
       </c>
       <c r="H45" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J45" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="K45" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -1819,34 +1823,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.0</v>
+        <v>73.0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="E46" t="n">
-        <v>17289.0</v>
+        <v>13117.0</v>
       </c>
       <c r="F46" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H46" t="n">
         <v>9.0</v>
       </c>
-      <c r="G46" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I46" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.0</v>
+        <v>21.0</v>
       </c>
       <c r="K46" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="47">
@@ -1854,34 +1858,32 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47" t="n">
         <v>19.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7595.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>13.0</v>
       </c>
     </row>
     <row r="48">
@@ -1889,23 +1891,23 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2520.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G48" t="n">
         <v>1.0</v>
       </c>
-      <c r="C48" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1400.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
@@ -1913,10 +1915,10 @@
         <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="K48" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="49">
@@ -1924,34 +1926,104 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="C49" t="n">
-        <v>80.0</v>
+        <v>33.0</v>
       </c>
       <c r="D49" t="n">
-        <v>56.0</v>
+        <v>19.0</v>
       </c>
       <c r="E49" t="n">
-        <v>21345.0</v>
+        <v>7595.0</v>
       </c>
       <c r="F49" t="n">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="G49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>17289.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>22394.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G51" t="n">
         <v>6.0</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>13.0</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>3.0</v>
       </c>
-      <c r="J49" t="n">
-        <v>28.999999999999996</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-19.0</v>
+      <c r="J51" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-17.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -86,15 +86,15 @@
     <t>Tio João</t>
   </si>
   <si>
+    <t>pjp</t>
+  </si>
+  <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>pjp</t>
-  </si>
-  <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>faneca</t>
   </si>
   <si>
@@ -110,21 +110,21 @@
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>metamox</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
-    <t>metamox</t>
+    <t>Jonix21</t>
+  </si>
+  <si>
+    <t>filipe</t>
   </si>
   <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>filipe</t>
-  </si>
-  <si>
-    <t>Jonix21</t>
-  </si>
-  <si>
     <t>Matilde Pires</t>
   </si>
   <si>
@@ -134,12 +134,12 @@
     <t>LCINORC</t>
   </si>
   <si>
+    <t>supercell</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>supercell</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
@@ -164,16 +164,16 @@
     <t>rei da guerra</t>
   </si>
   <si>
+    <t>president</t>
+  </si>
+  <si>
     <t>pwepito</t>
   </si>
   <si>
-    <t>president</t>
-  </si>
-  <si>
     <t>yusif</t>
   </si>
   <si>
-    <t>@PedroMXGO</t>
+    <t>ninja</t>
   </si>
   <si>
     <t>Manu</t>
@@ -188,10 +188,10 @@
     <t>diogo</t>
   </si>
   <si>
+    <t>Pikaya</t>
+  </si>
+  <si>
     <t>NOVA I MIGUEL☉</t>
-  </si>
-  <si>
-    <t>Pikaya</t>
   </si>
   <si>
     <t>Sra. Clash</t>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>126.0</v>
+        <v>129.0</v>
       </c>
       <c r="E2" t="n">
-        <v>51240.0</v>
+        <v>52640.0</v>
       </c>
       <c r="F2" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -312,7 +312,7 @@
         <v>84.0</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>126.0</v>
+        <v>129.0</v>
       </c>
       <c r="E3" t="n">
-        <v>49000.0</v>
+        <v>50680.0</v>
       </c>
       <c r="F3" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G3" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -347,7 +347,7 @@
         <v>70.0</v>
       </c>
       <c r="K3" t="n">
-        <v>364.0</v>
+        <v>374.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C4" t="n">
         <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="E4" t="n">
-        <v>48440.0</v>
+        <v>49840.0</v>
       </c>
       <c r="F4" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G4" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -382,7 +382,7 @@
         <v>73.0</v>
       </c>
       <c r="K4" t="n">
-        <v>352.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50412.0</v>
+      </c>
+      <c r="F5" t="n">
         <v>42.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>49292.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>41.0</v>
-      </c>
       <c r="G5" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -417,7 +417,7 @@
         <v>76.0</v>
       </c>
       <c r="K5" t="n">
-        <v>337.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="E6" t="n">
-        <v>47215.0</v>
+        <v>48055.0</v>
       </c>
       <c r="F6" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G6" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -449,10 +449,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K6" t="n">
-        <v>334.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>124.0</v>
+        <v>127.0</v>
       </c>
       <c r="E7" t="n">
-        <v>50730.0</v>
+        <v>52410.0</v>
       </c>
       <c r="F7" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G7" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -484,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="K7" t="n">
-        <v>317.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,22 +495,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>116.0</v>
+        <v>119.0</v>
       </c>
       <c r="E8" t="n">
-        <v>47040.0</v>
+        <v>47880.0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G8" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H8" t="n">
         <v>4.0</v>
@@ -519,10 +519,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="K8" t="n">
-        <v>316.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="E9" t="n">
-        <v>47880.0</v>
+        <v>49000.0</v>
       </c>
       <c r="F9" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G9" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -554,10 +554,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="K9" t="n">
-        <v>310.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,22 +565,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="E10" t="n">
-        <v>52080.0</v>
+        <v>53200.0</v>
       </c>
       <c r="F10" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H10" t="n">
         <v>3.0</v>
@@ -589,10 +589,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="K10" t="n">
-        <v>301.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,19 +600,19 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>126.0</v>
+        <v>129.0</v>
       </c>
       <c r="E11" t="n">
-        <v>50680.0</v>
+        <v>51800.0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G11" t="n">
         <v>23.0</v>
@@ -624,10 +624,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="K11" t="n">
-        <v>301.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,22 +635,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="E12" t="n">
-        <v>45876.0</v>
+        <v>47556.0</v>
       </c>
       <c r="F12" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G12" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H12" t="n">
         <v>2.0</v>
@@ -659,10 +659,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,19 +670,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>109.0</v>
+        <v>112.0</v>
       </c>
       <c r="E13" t="n">
-        <v>43680.0</v>
+        <v>45360.0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G13" t="n">
         <v>25.0</v>
@@ -694,10 +694,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="K13" t="n">
-        <v>289.0</v>
+        <v>293.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C14" t="n">
         <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="E14" t="n">
-        <v>48731.0</v>
+        <v>49571.0</v>
       </c>
       <c r="F14" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G14" t="n">
         <v>20.0</v>
@@ -729,10 +729,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="K14" t="n">
-        <v>266.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,31 +740,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="C15" t="n">
-        <v>53.0</v>
+        <v>93.0</v>
       </c>
       <c r="D15" t="n">
-        <v>105.0</v>
+        <v>116.0</v>
       </c>
       <c r="E15" t="n">
         <v>45640.0</v>
       </c>
       <c r="F15" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="G15" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="K15" t="n">
         <v>262.0</v>
@@ -775,34 +775,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>113.0</v>
+        <v>105.0</v>
       </c>
       <c r="E16" t="n">
-        <v>44520.0</v>
+        <v>43400.0</v>
       </c>
       <c r="F16" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.0</v>
+        <v>66.0</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,34 +810,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="C17" t="n">
-        <v>93.0</v>
+        <v>47.0</v>
       </c>
       <c r="D17" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="E17" t="n">
-        <v>42280.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F17" t="n">
         <v>37.0</v>
       </c>
       <c r="G17" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>65.0</v>
+        <v>62.0</v>
       </c>
       <c r="K17" t="n">
-        <v>252.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,19 +845,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>125.0</v>
+        <v>128.0</v>
       </c>
       <c r="E18" t="n">
-        <v>47707.0</v>
+        <v>48493.0</v>
       </c>
       <c r="F18" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G18" t="n">
         <v>17.0</v>
@@ -869,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="K18" t="n">
-        <v>243.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,22 +880,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
       <c r="E19" t="n">
-        <v>43802.0</v>
+        <v>45482.0</v>
       </c>
       <c r="F19" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G19" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H19" t="n">
         <v>3.0</v>
@@ -904,10 +904,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="K19" t="n">
-        <v>227.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,19 +915,19 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36922.0</v>
+      </c>
+      <c r="F20" t="n">
         <v>30.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>35522.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>29.0</v>
       </c>
       <c r="G20" t="n">
         <v>18.0</v>
@@ -939,10 +939,10 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,22 +950,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>119.0</v>
+        <v>122.0</v>
       </c>
       <c r="E21" t="n">
-        <v>42800.0</v>
+        <v>44200.0</v>
       </c>
       <c r="F21" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G21" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H21" t="n">
         <v>1.0</v>
@@ -974,10 +974,10 @@
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="K21" t="n">
-        <v>209.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,22 +985,22 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C22" t="n">
         <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="E22" t="n">
-        <v>26600.0</v>
+        <v>28000.0</v>
       </c>
       <c r="F22" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H22" t="n">
         <v>2.0</v>
@@ -1009,10 +1009,10 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1020,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>89.0</v>
+        <v>120.0</v>
       </c>
       <c r="E23" t="n">
-        <v>36960.0</v>
+        <v>45997.0</v>
       </c>
       <c r="F23" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="G23" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="H23" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>57.99999999999999</v>
+        <v>33.0</v>
       </c>
       <c r="K23" t="n">
-        <v>197.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,31 +1055,31 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="C24" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D24" t="n">
-        <v>117.0</v>
+        <v>89.0</v>
       </c>
       <c r="E24" t="n">
-        <v>44877.0</v>
+        <v>36960.0</v>
       </c>
       <c r="F24" t="n">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="I24" t="n">
         <v>1.0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>196.0</v>
@@ -1090,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="C25" t="n">
-        <v>100.0</v>
+        <v>7.0</v>
       </c>
       <c r="D25" t="n">
-        <v>115.0</v>
+        <v>75.0</v>
       </c>
       <c r="E25" t="n">
-        <v>47066.0</v>
+        <v>29680.0</v>
       </c>
       <c r="F25" t="n">
-        <v>42.0</v>
+        <v>26.0</v>
       </c>
       <c r="G25" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>38.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>188.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,19 +1125,19 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C26" t="n">
         <v>80.0</v>
       </c>
       <c r="D26" t="n">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="E26" t="n">
-        <v>42840.0</v>
+        <v>43960.0</v>
       </c>
       <c r="F26" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G26" t="n">
         <v>15.0</v>
@@ -1149,10 +1149,10 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="K26" t="n">
-        <v>185.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>24.0</v>
+        <v>42.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>72.0</v>
+        <v>117.0</v>
       </c>
       <c r="E27" t="n">
-        <v>28000.0</v>
+        <v>47853.0</v>
       </c>
       <c r="F27" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="G27" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>56.00000000000001</v>
+        <v>37.0</v>
       </c>
       <c r="K27" t="n">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,19 +1195,19 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C28" t="n">
         <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="E28" t="n">
-        <v>28280.0</v>
+        <v>29960.0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G28" t="n">
         <v>11.0</v>
@@ -1219,10 +1219,10 @@
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="K28" t="n">
-        <v>172.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,22 +1230,22 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="E29" t="n">
-        <v>29680.0</v>
+        <v>31080.0</v>
       </c>
       <c r="F29" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G29" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H29" t="n">
         <v>8.0</v>
@@ -1254,10 +1254,10 @@
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="K29" t="n">
-        <v>164.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,19 +1265,19 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="E30" t="n">
-        <v>28665.0</v>
+        <v>29785.0</v>
       </c>
       <c r="F30" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G30" t="n">
         <v>10.0</v>
@@ -1289,10 +1289,10 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="K30" t="n">
-        <v>163.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="C31" t="n">
         <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>49.0</v>
+        <v>85.0</v>
       </c>
       <c r="E31" t="n">
-        <v>21000.0</v>
+        <v>32901.0</v>
       </c>
       <c r="F31" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="G31" t="n">
         <v>15.0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" t="n">
         <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>83.0</v>
+        <v>50.0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="C32" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>82.0</v>
+        <v>51.0</v>
       </c>
       <c r="E32" t="n">
-        <v>31589.0</v>
+        <v>21840.0</v>
       </c>
       <c r="F32" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="G32" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>48.0</v>
+        <v>84.0</v>
       </c>
       <c r="K32" t="n">
-        <v>144.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,19 +1370,19 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="E33" t="n">
-        <v>32952.0</v>
+        <v>34072.0</v>
       </c>
       <c r="F33" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="G33" t="n">
         <v>15.0</v>
@@ -1394,10 +1394,10 @@
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="K33" t="n">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="34">
@@ -1408,7 +1408,7 @@
         <v>21.0</v>
       </c>
       <c r="C34" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="D34" t="n">
         <v>57.0</v>
@@ -1432,7 +1432,7 @@
         <v>55.00000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>118.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,19 +1440,19 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C35" t="n">
         <v>87.0</v>
       </c>
       <c r="D35" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="E35" t="n">
-        <v>25480.0</v>
+        <v>26880.0</v>
       </c>
       <c r="F35" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G35" t="n">
         <v>5.0</v>
@@ -1464,10 +1464,10 @@
         <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="K35" t="n">
-        <v>106.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,19 +1475,19 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C36" t="n">
         <v>80.0</v>
       </c>
       <c r="D36" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="E36" t="n">
-        <v>29948.0</v>
+        <v>30788.0</v>
       </c>
       <c r="F36" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="G36" t="n">
         <v>6.0</v>
@@ -1499,10 +1499,10 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="K36" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,19 +1510,19 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C37" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D37" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="E37" t="n">
-        <v>43120.0</v>
+        <v>44240.0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G37" t="n">
         <v>11.0</v>
@@ -1534,10 +1534,10 @@
         <v>3.0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="K37" t="n">
-        <v>96.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,19 +1545,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="E38" t="n">
-        <v>10915.0</v>
+        <v>12315.0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G38" t="n">
         <v>5.0</v>
@@ -1569,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>56.00000000000001</v>
+        <v>50.0</v>
       </c>
       <c r="K38" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,22 +1580,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C39" t="n">
-        <v>83.0</v>
+        <v>86.0</v>
       </c>
       <c r="D39" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="E39" t="n">
-        <v>6560.0</v>
+        <v>7609.0</v>
       </c>
       <c r="F39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
@@ -1604,10 +1604,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.0</v>
+        <v>67.0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,19 +1615,19 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="E40" t="n">
-        <v>8500.0</v>
+        <v>9620.0</v>
       </c>
       <c r="F40" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G40" t="n">
         <v>3.0</v>
@@ -1639,10 +1639,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="K40" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="41">
@@ -1653,28 +1653,28 @@
         <v>6.0</v>
       </c>
       <c r="C41" t="n">
-        <v>46.0</v>
+        <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="E41" t="n">
-        <v>4480.0</v>
+        <v>6382.0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="K41" t="n">
         <v>49.0</v>
@@ -1685,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4480.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.0</v>
       </c>
-      <c r="C42" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5596.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.0</v>
+        <v>43.0</v>
       </c>
       <c r="K42" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="43">
@@ -1723,7 +1723,7 @@
         <v>4.0</v>
       </c>
       <c r="C43" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D43" t="n">
         <v>12.0</v>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="45">
@@ -1791,7 +1791,7 @@
         <v>24.0</v>
       </c>
       <c r="C45" t="n">
-        <v>47.0</v>
+        <v>40.0</v>
       </c>
       <c r="D45" t="n">
         <v>67.0</v>
@@ -1815,7 +1815,7 @@
         <v>13.0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="46">
@@ -1823,19 +1823,19 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C46" t="n">
         <v>73.0</v>
       </c>
       <c r="D46" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="E46" t="n">
-        <v>13117.0</v>
+        <v>14517.0</v>
       </c>
       <c r="F46" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G46" t="n">
         <v>3.0</v>
@@ -1847,10 +1847,10 @@
         <v>1.0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="K46" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="47">
@@ -1891,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C48" t="n">
         <v>100.0</v>
       </c>
       <c r="D48" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2520.0</v>
+        <v>3920.0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G48" t="n">
         <v>1.0</v>
@@ -1915,10 +1915,10 @@
         <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="K48" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="49">
@@ -1926,34 +1926,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C49" t="n">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="D49" t="n">
-        <v>19.0</v>
+        <v>36.0</v>
       </c>
       <c r="E49" t="n">
-        <v>7595.0</v>
+        <v>17289.0</v>
       </c>
       <c r="F49" t="n">
         <v>9.0</v>
       </c>
       <c r="G49" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="H49" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J49" t="n">
-        <v>22.0</v>
+        <v>78.0</v>
       </c>
       <c r="K49" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="50">
@@ -1961,34 +1961,34 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="C50" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D50" t="n">
         <v>20.0</v>
       </c>
-      <c r="D50" t="n">
-        <v>36.0</v>
-      </c>
       <c r="E50" t="n">
-        <v>17289.0</v>
+        <v>7840.0</v>
       </c>
       <c r="F50" t="n">
         <v>9.0</v>
       </c>
       <c r="G50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H50" t="n">
         <v>7.0</v>
       </c>
-      <c r="H50" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I50" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J50" t="n">
-        <v>78.0</v>
+        <v>22.0</v>
       </c>
       <c r="K50" t="n">
-        <v>11.0</v>
+        <v>-8.0</v>
       </c>
     </row>
     <row r="51">
@@ -1996,22 +1996,22 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C51" t="n">
         <v>87.0</v>
       </c>
       <c r="D51" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="E51" t="n">
-        <v>22394.0</v>
+        <v>23443.0</v>
       </c>
       <c r="F51" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G51" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H51" t="n">
         <v>13.0</v>
@@ -2020,10 +2020,10 @@
         <v>3.0</v>
       </c>
       <c r="J51" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.0</v>
+        <v>-8.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -1012,7 +1012,7 @@
         <v>68.0</v>
       </c>
       <c r="K22" t="n">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="23">
@@ -1187,7 +1187,7 @@
         <v>37.0</v>
       </c>
       <c r="K27" t="n">
-        <v>184.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="28">
@@ -1362,7 +1362,7 @@
         <v>84.0</v>
       </c>
       <c r="K32" t="n">
-        <v>150.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="33">
@@ -1397,7 +1397,7 @@
         <v>47.0</v>
       </c>
       <c r="K33" t="n">
-        <v>125.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="34">
@@ -1537,7 +1537,7 @@
         <v>32.0</v>
       </c>
       <c r="K37" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="38">
@@ -1642,7 +1642,7 @@
         <v>33.0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="41">
@@ -1712,7 +1712,7 @@
         <v>43.0</v>
       </c>
       <c r="K42" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="43">

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -50,12 +50,12 @@
     <t>bascenso</t>
   </si>
   <si>
+    <t>☆ Di♡g♡</t>
+  </si>
+  <si>
     <t>thunder</t>
   </si>
   <si>
-    <t>☆ Di♡g♡</t>
-  </si>
-  <si>
     <t>Inferno</t>
   </si>
   <si>
@@ -86,12 +86,12 @@
     <t>Tio João</t>
   </si>
   <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>John Rambo</t>
   </si>
   <si>
@@ -101,12 +101,12 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>carmen</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>carmen</t>
-  </si>
-  <si>
     <t>Tabo da amarela</t>
   </si>
   <si>
@@ -116,79 +116,79 @@
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>qzt</t>
+  </si>
+  <si>
+    <t>Savler</t>
+  </si>
+  <si>
     <t>Jonix21</t>
   </si>
   <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>qzt</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>Savler</t>
-  </si>
-  <si>
     <t>LCINORC</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
     <t>Wut</t>
   </si>
   <si>
+    <t>fglopes</t>
+  </si>
+  <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>fglopes</t>
+    <t>Da Silva</t>
+  </si>
+  <si>
+    <t>batata</t>
+  </si>
+  <si>
+    <t>rei da guerra</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>pwepito</t>
   </si>
   <si>
     <t>Welton</t>
   </si>
   <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
-    <t>batata</t>
-  </si>
-  <si>
-    <t>rei da guerra</t>
-  </si>
-  <si>
-    <t>president</t>
-  </si>
-  <si>
-    <t>pwepito</t>
-  </si>
-  <si>
-    <t>yusif</t>
+    <t>bin0-dA-k1nG</t>
+  </si>
+  <si>
+    <t>jnuno15</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>EoMatheus</t>
   </si>
   <si>
     <t>ninja</t>
   </si>
   <si>
-    <t>Manu</t>
-  </si>
-  <si>
     <t>Jonas 705</t>
   </si>
   <si>
-    <t>bin0-dA-k1nG</t>
-  </si>
-  <si>
     <t>diogo</t>
-  </si>
-  <si>
-    <t>Pikaya</t>
   </si>
   <si>
     <t>NOVA I MIGUEL☉</t>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>129.0</v>
+        <v>135.0</v>
       </c>
       <c r="E2" t="n">
-        <v>52640.0</v>
+        <v>54880.0</v>
       </c>
       <c r="F2" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -309,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="K2" t="n">
-        <v>416.0</v>
+        <v>421.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C3" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D3" t="n">
-        <v>129.0</v>
+        <v>132.0</v>
       </c>
       <c r="E3" t="n">
-        <v>50680.0</v>
+        <v>52080.0</v>
       </c>
       <c r="F3" t="n">
         <v>47.0</v>
       </c>
       <c r="G3" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="K3" t="n">
-        <v>374.0</v>
+        <v>368.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,19 +355,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="C4" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>126.0</v>
+        <v>135.0</v>
       </c>
       <c r="E4" t="n">
-        <v>49840.0</v>
+        <v>52920.0</v>
       </c>
       <c r="F4" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="G4" t="n">
         <v>33.0</v>
@@ -379,10 +379,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="K4" t="n">
-        <v>362.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>129.0</v>
+        <v>135.0</v>
       </c>
       <c r="E5" t="n">
-        <v>50412.0</v>
+        <v>53212.0</v>
       </c>
       <c r="F5" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G5" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -414,10 +414,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="K5" t="n">
-        <v>346.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>126.0</v>
+        <v>132.0</v>
       </c>
       <c r="E6" t="n">
-        <v>48055.0</v>
+        <v>50295.0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="G6" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -449,10 +449,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="K6" t="n">
-        <v>343.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>127.0</v>
+        <v>133.0</v>
       </c>
       <c r="E7" t="n">
-        <v>52410.0</v>
+        <v>54370.0</v>
       </c>
       <c r="F7" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -484,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="K7" t="n">
-        <v>327.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,34 +495,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>119.0</v>
+        <v>123.0</v>
       </c>
       <c r="E8" t="n">
-        <v>47880.0</v>
+        <v>49000.0</v>
       </c>
       <c r="F8" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,19 +530,19 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>123.0</v>
+        <v>129.0</v>
       </c>
       <c r="E9" t="n">
-        <v>49000.0</v>
+        <v>51520.0</v>
       </c>
       <c r="F9" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="G9" t="n">
         <v>27.0</v>
@@ -554,10 +554,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.0</v>
+        <v>60.0</v>
       </c>
       <c r="K9" t="n">
-        <v>319.0</v>
+        <v>312.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,22 +565,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>126.0</v>
+        <v>132.0</v>
       </c>
       <c r="E10" t="n">
-        <v>53200.0</v>
+        <v>55720.0</v>
       </c>
       <c r="F10" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H10" t="n">
         <v>3.0</v>
@@ -592,7 +592,7 @@
         <v>54.0</v>
       </c>
       <c r="K10" t="n">
-        <v>310.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,22 +600,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>129.0</v>
+        <v>135.0</v>
       </c>
       <c r="E11" t="n">
-        <v>51800.0</v>
+        <v>54320.0</v>
       </c>
       <c r="F11" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="G11" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
@@ -624,10 +624,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>303.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,22 +635,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>118.0</v>
+        <v>124.0</v>
       </c>
       <c r="E12" t="n">
-        <v>47556.0</v>
+        <v>49391.0</v>
       </c>
       <c r="F12" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="G12" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H12" t="n">
         <v>2.0</v>
@@ -659,10 +659,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="K12" t="n">
-        <v>300.0</v>
+        <v>301.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,22 +670,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>112.0</v>
+        <v>118.0</v>
       </c>
       <c r="E13" t="n">
-        <v>45360.0</v>
+        <v>47880.0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H13" t="n">
         <v>5.0</v>
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="K13" t="n">
         <v>293.0</v>
@@ -705,22 +705,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="C14" t="n">
         <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>126.0</v>
+        <v>132.0</v>
       </c>
       <c r="E14" t="n">
-        <v>49571.0</v>
+        <v>52371.0</v>
       </c>
       <c r="F14" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="G14" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -729,10 +729,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="K14" t="n">
-        <v>269.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,34 +740,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45360.0</v>
+      </c>
+      <c r="F15" t="n">
         <v>40.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>45640.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>41.0</v>
-      </c>
       <c r="G15" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="H15" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>49.0</v>
+        <v>68.0</v>
       </c>
       <c r="K15" t="n">
-        <v>262.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,34 +775,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="C16" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>105.0</v>
+        <v>122.0</v>
       </c>
       <c r="E16" t="n">
-        <v>43400.0</v>
+        <v>48720.0</v>
       </c>
       <c r="F16" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.0</v>
+        <v>47.0</v>
       </c>
       <c r="K16" t="n">
-        <v>261.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="17">
@@ -813,7 +813,7 @@
         <v>35.0</v>
       </c>
       <c r="C17" t="n">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
       <c r="D17" t="n">
         <v>105.0</v>
@@ -837,7 +837,7 @@
         <v>62.0</v>
       </c>
       <c r="K17" t="n">
-        <v>261.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,19 +845,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.0</v>
+        <v>134.0</v>
       </c>
       <c r="E18" t="n">
-        <v>48493.0</v>
+        <v>50854.0</v>
       </c>
       <c r="F18" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="G18" t="n">
         <v>17.0</v>
@@ -869,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="K18" t="n">
-        <v>245.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,22 +880,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>114.0</v>
+        <v>120.0</v>
       </c>
       <c r="E19" t="n">
-        <v>45482.0</v>
+        <v>47162.0</v>
       </c>
       <c r="F19" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="G19" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H19" t="n">
         <v>3.0</v>
@@ -904,10 +904,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="K19" t="n">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,31 +915,31 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
       <c r="C20" t="n">
-        <v>33.0</v>
+        <v>93.0</v>
       </c>
       <c r="D20" t="n">
-        <v>93.0</v>
+        <v>128.0</v>
       </c>
       <c r="E20" t="n">
-        <v>36922.0</v>
+        <v>46440.0</v>
       </c>
       <c r="F20" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
       <c r="G20" t="n">
         <v>18.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>60.0</v>
+        <v>41.0</v>
       </c>
       <c r="K20" t="n">
         <v>220.0</v>
@@ -950,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>41.0</v>
+        <v>32.0</v>
       </c>
       <c r="C21" t="n">
-        <v>93.0</v>
+        <v>40.0</v>
       </c>
       <c r="D21" t="n">
-        <v>122.0</v>
+        <v>96.0</v>
       </c>
       <c r="E21" t="n">
-        <v>44200.0</v>
+        <v>38322.0</v>
       </c>
       <c r="F21" t="n">
-        <v>42.0</v>
+        <v>31.0</v>
       </c>
       <c r="G21" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.0</v>
+        <v>61.0</v>
       </c>
       <c r="K21" t="n">
-        <v>219.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,22 +985,22 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C22" t="n">
         <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
       <c r="E22" t="n">
-        <v>28000.0</v>
+        <v>30520.0</v>
       </c>
       <c r="F22" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="G22" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H22" t="n">
         <v>2.0</v>
@@ -1009,7 +1009,7 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.0</v>
+        <v>67.0</v>
       </c>
       <c r="K22" t="n">
         <v>216.0</v>
@@ -1020,22 +1020,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>120.0</v>
+        <v>126.0</v>
       </c>
       <c r="E23" t="n">
-        <v>45997.0</v>
+        <v>48237.0</v>
       </c>
       <c r="F23" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G23" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H23" t="n">
         <v>3.0</v>
@@ -1044,10 +1044,10 @@
         <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K23" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="24">
@@ -1058,7 +1058,7 @@
         <v>33.0</v>
       </c>
       <c r="C24" t="n">
-        <v>73.0</v>
+        <v>60.0</v>
       </c>
       <c r="D24" t="n">
         <v>89.0</v>
@@ -1082,7 +1082,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>196.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,22 +1090,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.0</v>
+        <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="E25" t="n">
-        <v>29680.0</v>
+        <v>32760.0</v>
       </c>
       <c r="F25" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
@@ -1114,10 +1114,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>57.99999999999999</v>
+        <v>46.0</v>
       </c>
       <c r="K25" t="n">
-        <v>194.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="C26" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>104.0</v>
+        <v>122.0</v>
       </c>
       <c r="E26" t="n">
-        <v>43960.0</v>
+        <v>50093.0</v>
       </c>
       <c r="F26" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="G26" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="H26" t="n">
         <v>10.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="K26" t="n">
-        <v>188.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>42.0</v>
+        <v>30.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>117.0</v>
+        <v>81.0</v>
       </c>
       <c r="E27" t="n">
-        <v>47853.0</v>
+        <v>33320.0</v>
       </c>
       <c r="F27" t="n">
-        <v>43.0</v>
+        <v>31.0</v>
       </c>
       <c r="G27" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="H27" t="n">
         <v>9.0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>37.0</v>
+        <v>61.0</v>
       </c>
       <c r="K27" t="n">
-        <v>185.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,34 +1195,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="C28" t="n">
-        <v>100.0</v>
+        <v>13.0</v>
       </c>
       <c r="D28" t="n">
-        <v>72.0</v>
+        <v>78.0</v>
       </c>
       <c r="E28" t="n">
-        <v>29960.0</v>
+        <v>31360.0</v>
       </c>
       <c r="F28" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G28" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="H28" t="n">
         <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" t="n">
-        <v>44.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>176.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>28.0</v>
+        <v>40.0</v>
       </c>
       <c r="C29" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D29" t="n">
-        <v>76.0</v>
+        <v>108.0</v>
       </c>
       <c r="E29" t="n">
-        <v>31080.0</v>
+        <v>45360.0</v>
       </c>
       <c r="F29" t="n">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
       <c r="G29" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>62.0</v>
+        <v>38.0</v>
       </c>
       <c r="K29" t="n">
-        <v>174.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,22 +1265,22 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>69.0</v>
+        <v>75.0</v>
       </c>
       <c r="E30" t="n">
-        <v>29785.0</v>
+        <v>32585.0</v>
       </c>
       <c r="F30" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="G30" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H30" t="n">
         <v>0.0</v>
@@ -1289,10 +1289,10 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="K30" t="n">
-        <v>166.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D31" t="n">
-        <v>85.0</v>
+        <v>51.0</v>
       </c>
       <c r="E31" t="n">
-        <v>32901.0</v>
+        <v>21840.0</v>
       </c>
       <c r="F31" t="n">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="I31" t="n">
         <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.0</v>
+        <v>84.0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>19.0</v>
+        <v>31.0</v>
       </c>
       <c r="C32" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>51.0</v>
+        <v>91.0</v>
       </c>
       <c r="E32" t="n">
-        <v>21840.0</v>
+        <v>35262.0</v>
       </c>
       <c r="F32" t="n">
-        <v>19.0</v>
+        <v>31.0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J32" t="n">
-        <v>84.0</v>
+        <v>48.0</v>
       </c>
       <c r="K32" t="n">
-        <v>149.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,22 +1370,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C33" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D33" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="E33" t="n">
-        <v>34072.0</v>
+        <v>35192.0</v>
       </c>
       <c r="F33" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="G33" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H33" t="n">
         <v>12.0</v>
@@ -1394,10 +1394,10 @@
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="K33" t="n">
-        <v>124.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,22 +1405,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C34" t="n">
         <v>33.0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="E34" t="n">
-        <v>24640.0</v>
+        <v>25760.0</v>
       </c>
       <c r="F34" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G34" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H34" t="n">
         <v>6.0</v>
@@ -1429,10 +1429,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>55.00000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,34 +1440,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="C35" t="n">
         <v>87.0</v>
       </c>
       <c r="D35" t="n">
-        <v>62.0</v>
+        <v>87.0</v>
       </c>
       <c r="E35" t="n">
-        <v>26880.0</v>
+        <v>33868.0</v>
       </c>
       <c r="F35" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
         <v>21.0</v>
       </c>
-      <c r="G35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>24.0</v>
-      </c>
       <c r="K35" t="n">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="n">
         <v>80.0</v>
       </c>
       <c r="D36" t="n">
-        <v>81.0</v>
+        <v>65.0</v>
       </c>
       <c r="E36" t="n">
-        <v>30788.0</v>
+        <v>28280.0</v>
       </c>
       <c r="F36" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H36" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="K36" t="n">
-        <v>105.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,34 +1510,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>37.0</v>
+        <v>12.0</v>
       </c>
       <c r="C37" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D37" t="n">
-        <v>102.0</v>
+        <v>36.0</v>
       </c>
       <c r="E37" t="n">
-        <v>44240.0</v>
+        <v>14275.0</v>
       </c>
       <c r="F37" t="n">
-        <v>34.0</v>
+        <v>12.0</v>
       </c>
       <c r="G37" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="H37" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>32.0</v>
+        <v>50.0</v>
       </c>
       <c r="K37" t="n">
-        <v>99.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,22 +1545,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0</v>
+        <v>89.0</v>
       </c>
       <c r="D38" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="E38" t="n">
-        <v>12315.0</v>
+        <v>9970.0</v>
       </c>
       <c r="F38" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1569,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0</v>
+        <v>78.0</v>
       </c>
       <c r="K38" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,34 +1580,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>86.0</v>
+        <v>91.0</v>
       </c>
       <c r="D39" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="E39" t="n">
-        <v>7609.0</v>
+        <v>10407.0</v>
       </c>
       <c r="F39" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="G39" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>67.0</v>
+        <v>30.0</v>
       </c>
       <c r="K39" t="n">
-        <v>64.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,34 +1615,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="E40" t="n">
-        <v>9620.0</v>
+        <v>7362.0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.0</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="K40" t="n">
-        <v>57.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="41">
@@ -1653,31 +1653,31 @@
         <v>6.0</v>
       </c>
       <c r="C41" t="n">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="D41" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="E41" t="n">
-        <v>6382.0</v>
+        <v>4480.0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>17.0</v>
+        <v>43.0</v>
       </c>
       <c r="K41" t="n">
-        <v>49.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>6.0</v>
+        <v>39.0</v>
       </c>
       <c r="C42" t="n">
-        <v>43.0</v>
+        <v>93.0</v>
       </c>
       <c r="D42" t="n">
-        <v>13.0</v>
+        <v>108.0</v>
       </c>
       <c r="E42" t="n">
-        <v>4480.0</v>
+        <v>45920.0</v>
       </c>
       <c r="F42" t="n">
-        <v>7.0</v>
+        <v>35.0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="H42" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J42" t="n">
-        <v>43.0</v>
+        <v>31.0</v>
       </c>
       <c r="K42" t="n">
-        <v>46.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,22 +1720,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C43" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="E43" t="n">
-        <v>4200.0</v>
+        <v>3080.0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1744,10 +1744,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="K43" t="n">
-        <v>43.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -1788,22 +1788,22 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>20086.0</v>
+      </c>
+      <c r="F45" t="n">
         <v>24.0</v>
       </c>
-      <c r="C45" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>18826.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>23.0</v>
-      </c>
       <c r="G45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H45" t="n">
         <v>5.0</v>
@@ -1812,10 +1812,10 @@
         <v>2.0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="K45" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="46">
@@ -1823,34 +1823,32 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>14517.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>20.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J46"/>
       <c r="K46" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="47">
@@ -1858,32 +1856,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>280.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
       </c>
-      <c r="J47"/>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K47" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="48">
@@ -1891,34 +1891,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15304.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G48" t="n">
         <v>3.0</v>
       </c>
-      <c r="C48" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3920.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>33.0</v>
+        <v>19.0</v>
       </c>
       <c r="K48" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="49">
@@ -1926,34 +1926,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C49" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="D49" t="n">
-        <v>36.0</v>
+        <v>14.0</v>
       </c>
       <c r="E49" t="n">
-        <v>17289.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F49" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="G49" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J49" t="n">
-        <v>78.0</v>
+        <v>50.0</v>
       </c>
       <c r="K49" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="50">
@@ -1964,7 +1964,7 @@
         <v>9.0</v>
       </c>
       <c r="C50" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="D50" t="n">
         <v>20.0</v>
@@ -1988,7 +1988,7 @@
         <v>22.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-8.0</v>
+        <v>-13.0</v>
       </c>
     </row>
     <row r="51">
@@ -1996,34 +1996,34 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>24754.0</v>
+      </c>
+      <c r="F51" t="n">
         <v>25.0</v>
       </c>
-      <c r="C51" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>23443.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>23.0</v>
-      </c>
       <c r="G51" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="H51" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="I51" t="n">
         <v>3.0</v>
       </c>
       <c r="J51" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.0</v>
+        <v>-16.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -50,12 +50,12 @@
     <t>bascenso</t>
   </si>
   <si>
+    <t>thunder</t>
+  </si>
+  <si>
     <t>☆ Di♡g♡</t>
   </si>
   <si>
-    <t>thunder</t>
-  </si>
-  <si>
     <t>Inferno</t>
   </si>
   <si>
@@ -65,18 +65,18 @@
     <t>snowkids</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Madnasty</t>
+    <t>Goblyn</t>
   </si>
   <si>
     <t>zau</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
@@ -101,45 +101,45 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>Robb Stark</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
+    <t>TheKingJK</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
   </si>
   <si>
     <t>metamox</t>
   </si>
   <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
+    <t>Savler</t>
   </si>
   <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>Savler</t>
-  </si>
-  <si>
     <t>Jonix21</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>LCINORC</t>
+    <t>supercell</t>
   </si>
   <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>supercell</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
@@ -152,34 +152,34 @@
     <t>hugo</t>
   </si>
   <si>
+    <t>batata</t>
+  </si>
+  <si>
     <t>Da Silva</t>
   </si>
   <si>
-    <t>batata</t>
-  </si>
-  <si>
     <t>rei da guerra</t>
   </si>
   <si>
     <t>president</t>
   </si>
   <si>
+    <t>Welton</t>
+  </si>
+  <si>
     <t>pwepito</t>
   </si>
   <si>
-    <t>Welton</t>
-  </si>
-  <si>
     <t>bin0-dA-k1nG</t>
   </si>
   <si>
     <t>jnuno15</t>
   </si>
   <si>
+    <t>EoMatheus</t>
+  </si>
+  <si>
     <t>Manu</t>
-  </si>
-  <si>
-    <t>EoMatheus</t>
   </si>
   <si>
     <t>ninja</t>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>135.0</v>
+        <v>138.0</v>
       </c>
       <c r="E2" t="n">
-        <v>54880.0</v>
+        <v>56280.0</v>
       </c>
       <c r="F2" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="G2" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -312,7 +312,7 @@
         <v>85.0</v>
       </c>
       <c r="K2" t="n">
-        <v>421.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="C3" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>132.0</v>
+        <v>138.0</v>
       </c>
       <c r="E3" t="n">
-        <v>52080.0</v>
+        <v>53760.0</v>
       </c>
       <c r="F3" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="G3" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>74.0</v>
+        <v>68.0</v>
       </c>
       <c r="K3" t="n">
-        <v>368.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="4">
@@ -358,19 +358,19 @@
         <v>45.0</v>
       </c>
       <c r="C4" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D4" t="n">
         <v>135.0</v>
       </c>
       <c r="E4" t="n">
-        <v>52920.0</v>
+        <v>53480.0</v>
       </c>
       <c r="F4" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="G4" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -379,10 +379,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>67.0</v>
+        <v>73.0</v>
       </c>
       <c r="K4" t="n">
-        <v>366.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>54612.0</v>
+      </c>
+      <c r="F5" t="n">
         <v>45.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>53212.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>44.0</v>
-      </c>
       <c r="G5" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -414,10 +414,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="K5" t="n">
-        <v>353.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>132.0</v>
+        <v>135.0</v>
       </c>
       <c r="E6" t="n">
-        <v>50295.0</v>
+        <v>51415.0</v>
       </c>
       <c r="F6" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G6" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -452,7 +452,7 @@
         <v>70.0</v>
       </c>
       <c r="K6" t="n">
-        <v>349.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,19 +460,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.0</v>
+        <v>136.0</v>
       </c>
       <c r="E7" t="n">
-        <v>54370.0</v>
+        <v>55770.0</v>
       </c>
       <c r="F7" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G7" t="n">
         <v>29.0</v>
@@ -484,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="K7" t="n">
-        <v>333.0</v>
+        <v>336.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,34 +495,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>123.0</v>
+        <v>132.0</v>
       </c>
       <c r="E8" t="n">
-        <v>49000.0</v>
+        <v>52920.0</v>
       </c>
       <c r="F8" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="G8" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="K8" t="n">
-        <v>315.0</v>
+        <v>322.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,34 +530,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>129.0</v>
+        <v>126.0</v>
       </c>
       <c r="E9" t="n">
-        <v>51520.0</v>
+        <v>50120.0</v>
       </c>
       <c r="F9" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.0</v>
+        <v>68.0</v>
       </c>
       <c r="K9" t="n">
-        <v>312.0</v>
+        <v>317.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>132.0</v>
+        <v>138.0</v>
       </c>
       <c r="E10" t="n">
         <v>55720.0</v>
       </c>
       <c r="F10" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="G10" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
       <c r="K10" t="n">
-        <v>309.0</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
@@ -609,25 +609,25 @@
         <v>135.0</v>
       </c>
       <c r="E11" t="n">
-        <v>54320.0</v>
+        <v>56560.0</v>
       </c>
       <c r="F11" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="G11" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="K11" t="n">
-        <v>309.0</v>
+        <v>311.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,19 +635,19 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>124.0</v>
+        <v>127.0</v>
       </c>
       <c r="E12" t="n">
-        <v>49391.0</v>
+        <v>50511.0</v>
       </c>
       <c r="F12" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G12" t="n">
         <v>29.0</v>
@@ -659,10 +659,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="K12" t="n">
-        <v>301.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,22 +670,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>118.0</v>
+        <v>121.0</v>
       </c>
       <c r="E13" t="n">
-        <v>47880.0</v>
+        <v>49280.0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H13" t="n">
         <v>5.0</v>
@@ -694,10 +694,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="K13" t="n">
-        <v>293.0</v>
+        <v>302.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C14" t="n">
         <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>132.0</v>
+        <v>135.0</v>
       </c>
       <c r="E14" t="n">
-        <v>52371.0</v>
+        <v>53771.0</v>
       </c>
       <c r="F14" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G14" t="n">
         <v>22.0</v>
@@ -729,10 +729,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="K14" t="n">
-        <v>277.0</v>
+        <v>279.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,25 +740,25 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>111.0</v>
+        <v>113.0</v>
       </c>
       <c r="E15" t="n">
-        <v>45360.0</v>
+        <v>46200.0</v>
       </c>
       <c r="F15" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G15" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H15" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
@@ -767,7 +767,7 @@
         <v>68.0</v>
       </c>
       <c r="K15" t="n">
-        <v>270.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,34 +775,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C16" t="n">
         <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>122.0</v>
+        <v>124.0</v>
       </c>
       <c r="E16" t="n">
-        <v>48720.0</v>
+        <v>49560.0</v>
       </c>
       <c r="F16" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G16" t="n">
         <v>20.0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="K16" t="n">
-        <v>258.0</v>
+        <v>256.0</v>
       </c>
     </row>
     <row r="17">
@@ -813,7 +813,7 @@
         <v>35.0</v>
       </c>
       <c r="C17" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="D17" t="n">
         <v>105.0</v>
@@ -837,7 +837,7 @@
         <v>62.0</v>
       </c>
       <c r="K17" t="n">
-        <v>248.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,19 +845,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>134.0</v>
+        <v>137.0</v>
       </c>
       <c r="E18" t="n">
-        <v>50854.0</v>
+        <v>52166.0</v>
       </c>
       <c r="F18" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G18" t="n">
         <v>17.0</v>
@@ -869,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="K18" t="n">
-        <v>239.0</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,19 +880,19 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="E19" t="n">
-        <v>47162.0</v>
+        <v>48282.0</v>
       </c>
       <c r="F19" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G19" t="n">
         <v>17.0</v>
@@ -904,10 +904,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="K19" t="n">
-        <v>236.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>43.0</v>
+        <v>33.0</v>
       </c>
       <c r="C20" t="n">
-        <v>93.0</v>
+        <v>47.0</v>
       </c>
       <c r="D20" t="n">
-        <v>128.0</v>
+        <v>99.0</v>
       </c>
       <c r="E20" t="n">
-        <v>46440.0</v>
+        <v>39442.0</v>
       </c>
       <c r="F20" t="n">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="G20" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>41.0</v>
+        <v>62.0</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="C21" t="n">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>96.0</v>
+        <v>70.0</v>
       </c>
       <c r="E21" t="n">
-        <v>38322.0</v>
+        <v>32200.0</v>
       </c>
       <c r="F21" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="G21" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>61.0</v>
+        <v>68.0</v>
       </c>
       <c r="K21" t="n">
-        <v>218.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,34 +985,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="C22" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>67.0</v>
+        <v>131.0</v>
       </c>
       <c r="E22" t="n">
-        <v>30520.0</v>
+        <v>47560.0</v>
       </c>
       <c r="F22" t="n">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="G22" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>67.0</v>
+        <v>40.0</v>
       </c>
       <c r="K22" t="n">
-        <v>216.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1020,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>43.0</v>
+        <v>34.0</v>
       </c>
       <c r="C23" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="D23" t="n">
-        <v>126.0</v>
+        <v>92.0</v>
       </c>
       <c r="E23" t="n">
-        <v>48237.0</v>
+        <v>38640.0</v>
       </c>
       <c r="F23" t="n">
-        <v>44.0</v>
+        <v>37.0</v>
       </c>
       <c r="G23" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>34.0</v>
+        <v>59.0</v>
       </c>
       <c r="K23" t="n">
-        <v>200.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,31 +1055,31 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="C24" t="n">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>89.0</v>
+        <v>81.0</v>
       </c>
       <c r="E24" t="n">
-        <v>36960.0</v>
+        <v>34440.0</v>
       </c>
       <c r="F24" t="n">
-        <v>36.0</v>
+        <v>29.0</v>
       </c>
       <c r="G24" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="H24" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>57.99999999999999</v>
+        <v>45.0</v>
       </c>
       <c r="K24" t="n">
         <v>186.0</v>
@@ -1090,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>26.0</v>
+        <v>44.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>78.0</v>
+        <v>129.0</v>
       </c>
       <c r="E25" t="n">
-        <v>32760.0</v>
+        <v>49023.0</v>
       </c>
       <c r="F25" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="G25" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J25" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="K25" t="n">
-        <v>182.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>44.0</v>
+        <v>31.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>122.0</v>
+        <v>84.0</v>
       </c>
       <c r="E26" t="n">
-        <v>50093.0</v>
+        <v>34160.0</v>
       </c>
       <c r="F26" t="n">
-        <v>45.0</v>
+        <v>32.0</v>
       </c>
       <c r="G26" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="H26" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.0</v>
+        <v>62.0</v>
       </c>
       <c r="K26" t="n">
-        <v>179.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>81.0</v>
+        <v>124.0</v>
       </c>
       <c r="E27" t="n">
-        <v>33320.0</v>
+        <v>50653.0</v>
       </c>
       <c r="F27" t="n">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
       <c r="G27" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H27" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>61.0</v>
+        <v>37.0</v>
       </c>
       <c r="K27" t="n">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,19 +1195,19 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="D28" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="E28" t="n">
-        <v>31360.0</v>
+        <v>32200.0</v>
       </c>
       <c r="F28" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G28" t="n">
         <v>15.0</v>
@@ -1219,10 +1219,10 @@
         <v>1.0</v>
       </c>
       <c r="J28" t="n">
-        <v>57.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>171.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,25 +1230,25 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>40.0</v>
+        <v>26.0</v>
       </c>
       <c r="C29" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>108.0</v>
+        <v>78.0</v>
       </c>
       <c r="E29" t="n">
-        <v>45360.0</v>
+        <v>33985.0</v>
       </c>
       <c r="F29" t="n">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
       <c r="G29" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="H29" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -1257,7 +1257,7 @@
         <v>38.0</v>
       </c>
       <c r="K29" t="n">
-        <v>166.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>25.0</v>
+        <v>41.0</v>
       </c>
       <c r="C30" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>75.0</v>
+        <v>111.0</v>
       </c>
       <c r="E30" t="n">
-        <v>32585.0</v>
+        <v>46200.0</v>
       </c>
       <c r="F30" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="G30" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="K30" t="n">
-        <v>165.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>19.0</v>
+        <v>32.0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>51.0</v>
+        <v>94.0</v>
       </c>
       <c r="E31" t="n">
-        <v>21840.0</v>
+        <v>36942.0</v>
       </c>
       <c r="F31" t="n">
-        <v>19.0</v>
+        <v>32.0</v>
       </c>
       <c r="G31" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>84.0</v>
+        <v>47.0</v>
       </c>
       <c r="K31" t="n">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="C32" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D32" t="n">
-        <v>91.0</v>
+        <v>51.0</v>
       </c>
       <c r="E32" t="n">
-        <v>35262.0</v>
+        <v>21840.0</v>
       </c>
       <c r="F32" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="G32" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>48.0</v>
+        <v>84.0</v>
       </c>
       <c r="K32" t="n">
-        <v>138.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="33">
@@ -1373,7 +1373,7 @@
         <v>33.0</v>
       </c>
       <c r="C33" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D33" t="n">
         <v>87.0</v>
@@ -1397,7 +1397,7 @@
         <v>48.0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,22 +1405,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="D34" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="E34" t="n">
-        <v>25760.0</v>
+        <v>27440.0</v>
       </c>
       <c r="F34" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H34" t="n">
         <v>6.0</v>
@@ -1429,10 +1429,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.99999999999999</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>115.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,25 +1440,25 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C35" t="n">
         <v>87.0</v>
       </c>
       <c r="D35" t="n">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="E35" t="n">
-        <v>33868.0</v>
+        <v>34130.0</v>
       </c>
       <c r="F35" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G35" t="n">
         <v>7.0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -1467,7 +1467,7 @@
         <v>21.0</v>
       </c>
       <c r="K35" t="n">
-        <v>111.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,19 +1475,19 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C36" t="n">
         <v>80.0</v>
       </c>
       <c r="D36" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="E36" t="n">
-        <v>28280.0</v>
+        <v>29400.0</v>
       </c>
       <c r="F36" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G36" t="n">
         <v>5.0</v>
@@ -1499,10 +1499,10 @@
         <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="K36" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,22 +1510,22 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="C37" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.0</v>
+        <v>27.0</v>
       </c>
       <c r="E37" t="n">
-        <v>14275.0</v>
+        <v>11545.0</v>
       </c>
       <c r="F37" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H37" t="n">
         <v>0.0</v>
@@ -1534,10 +1534,10 @@
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="K37" t="n">
-        <v>85.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,22 +1545,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="C38" t="n">
-        <v>89.0</v>
+        <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="E38" t="n">
-        <v>9970.0</v>
+        <v>15395.0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1569,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>78.0</v>
+        <v>46.0</v>
       </c>
       <c r="K38" t="n">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="39">
@@ -1583,7 +1583,7 @@
         <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>91.0</v>
+        <v>83.0</v>
       </c>
       <c r="D39" t="n">
         <v>29.0</v>
@@ -1618,7 +1618,7 @@
         <v>8.0</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0</v>
+        <v>89.0</v>
       </c>
       <c r="D40" t="n">
         <v>21.0</v>
@@ -1650,34 +1650,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>6.0</v>
+        <v>40.0</v>
       </c>
       <c r="C41" t="n">
-        <v>40.0</v>
+        <v>93.0</v>
       </c>
       <c r="D41" t="n">
-        <v>13.0</v>
+        <v>111.0</v>
       </c>
       <c r="E41" t="n">
-        <v>4480.0</v>
+        <v>46760.0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.0</v>
+        <v>36.0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.0</v>
+        <v>33.0</v>
       </c>
       <c r="K41" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>39.0</v>
+        <v>6.0</v>
       </c>
       <c r="C42" t="n">
-        <v>93.0</v>
+        <v>40.0</v>
       </c>
       <c r="D42" t="n">
-        <v>108.0</v>
+        <v>13.0</v>
       </c>
       <c r="E42" t="n">
-        <v>45920.0</v>
+        <v>4480.0</v>
       </c>
       <c r="F42" t="n">
-        <v>35.0</v>
+        <v>7.0</v>
       </c>
       <c r="G42" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="H42" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="I42" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
       <c r="K42" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,19 +1720,19 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C43" t="n">
         <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E43" t="n">
-        <v>3080.0</v>
+        <v>4480.0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
         <v>1.0</v>
@@ -1744,10 +1744,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="K43" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="44">
@@ -1788,32 +1788,30 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>20086.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>17.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J45"/>
       <c r="K45" t="n">
         <v>24.0</v>
       </c>
@@ -1823,32 +1821,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>20086.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J46"/>
+        <v>2.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>17.0</v>
+      </c>
       <c r="K46" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="47">
@@ -1856,25 +1856,25 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C47" t="n">
         <v>100.0</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E47" t="n">
-        <v>280.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -1891,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C48" t="n">
         <v>67.0</v>
       </c>
       <c r="D48" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="E48" t="n">
-        <v>15304.0</v>
+        <v>16616.0</v>
       </c>
       <c r="F48" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G48" t="n">
         <v>3.0</v>
@@ -1915,10 +1915,10 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="K48" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="49">
@@ -1929,7 +1929,7 @@
         <v>5.0</v>
       </c>
       <c r="C49" t="n">
-        <v>100.0</v>
+        <v>83.0</v>
       </c>
       <c r="D49" t="n">
         <v>14.0</v>
@@ -1996,19 +1996,19 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C51" t="n">
         <v>93.0</v>
       </c>
       <c r="D51" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="E51" t="n">
-        <v>24754.0</v>
+        <v>25540.0</v>
       </c>
       <c r="F51" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G51" t="n">
         <v>9.0</v>
@@ -2020,10 +2020,10 @@
         <v>3.0</v>
       </c>
       <c r="J51" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-16.0</v>
+        <v>-14.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -50,12 +50,12 @@
     <t>bascenso</t>
   </si>
   <si>
+    <t>☆ Di♡g♡</t>
+  </si>
+  <si>
     <t>thunder</t>
   </si>
   <si>
-    <t>☆ Di♡g♡</t>
-  </si>
-  <si>
     <t>Inferno</t>
   </si>
   <si>
@@ -65,39 +65,39 @@
     <t>snowkids</t>
   </si>
   <si>
+    <t>leal</t>
+  </si>
+  <si>
     <t>Madnasty</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
     <t>zau</t>
   </si>
   <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
-    <t>King Bonixe</t>
+    <t>unb</t>
   </si>
   <si>
     <t>Tio João</t>
   </si>
   <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
+    <t>faneca</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>faneca</t>
-  </si>
-  <si>
     <t>Ricky</t>
   </si>
   <si>
@@ -113,27 +113,27 @@
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>metamox</t>
+  </si>
+  <si>
+    <t>Savler</t>
+  </si>
+  <si>
     <t>Matilde Pires</t>
   </si>
   <si>
-    <t>metamox</t>
-  </si>
-  <si>
-    <t>Savler</t>
+    <t>Jonix21</t>
   </si>
   <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>Jonix21</t>
+    <t>filipe</t>
   </si>
   <si>
     <t>LCINORC</t>
   </si>
   <si>
-    <t>filipe</t>
-  </si>
-  <si>
     <t>supercell</t>
   </si>
   <si>
@@ -146,55 +146,52 @@
     <t>Wut</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>batata</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>batata</t>
-  </si>
-  <si>
     <t>Da Silva</t>
   </si>
   <si>
     <t>rei da guerra</t>
   </si>
   <si>
+    <t>Welton</t>
+  </si>
+  <si>
     <t>president</t>
   </si>
   <si>
-    <t>Welton</t>
-  </si>
-  <si>
     <t>pwepito</t>
   </si>
   <si>
     <t>bin0-dA-k1nG</t>
   </si>
   <si>
+    <t>EoMatheus</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Jonas 705</t>
+  </si>
+  <si>
     <t>jnuno15</t>
   </si>
   <si>
-    <t>EoMatheus</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>ninja</t>
-  </si>
-  <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
     <t>diogo</t>
   </si>
   <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
     <t>NOVA I MIGUEL☉</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
   </si>
 </sst>
 </file>
@@ -285,19 +282,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>138.0</v>
+        <v>141.0</v>
       </c>
       <c r="E2" t="n">
-        <v>56280.0</v>
+        <v>57120.0</v>
       </c>
       <c r="F2" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="G2" t="n">
         <v>41.0</v>
@@ -309,10 +306,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="K2" t="n">
-        <v>430.0</v>
+        <v>432.0</v>
       </c>
     </row>
     <row r="3">
@@ -323,19 +320,19 @@
         <v>46.0</v>
       </c>
       <c r="C3" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D3" t="n">
         <v>138.0</v>
       </c>
       <c r="E3" t="n">
-        <v>53760.0</v>
+        <v>54320.0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +341,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="K3" t="n">
-        <v>375.0</v>
+        <v>379.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +352,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="C4" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.0</v>
+        <v>141.0</v>
       </c>
       <c r="E4" t="n">
-        <v>53480.0</v>
+        <v>54880.0</v>
       </c>
       <c r="F4" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -379,10 +376,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="K4" t="n">
-        <v>371.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +387,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55732.0</v>
+      </c>
+      <c r="F5" t="n">
         <v>46.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>54612.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>45.0</v>
-      </c>
       <c r="G5" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -417,7 +414,7 @@
         <v>78.0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,19 +422,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>135.0</v>
+        <v>138.0</v>
       </c>
       <c r="E6" t="n">
-        <v>51415.0</v>
+        <v>52815.0</v>
       </c>
       <c r="F6" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="G6" t="n">
         <v>33.0</v>
@@ -449,10 +446,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="K6" t="n">
-        <v>358.0</v>
+        <v>361.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,19 +457,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0</v>
+        <v>139.0</v>
       </c>
       <c r="E7" t="n">
-        <v>55770.0</v>
+        <v>56890.0</v>
       </c>
       <c r="F7" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="G7" t="n">
         <v>29.0</v>
@@ -484,10 +481,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="K7" t="n">
-        <v>336.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,34 +492,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>132.0</v>
+        <v>129.0</v>
       </c>
       <c r="E8" t="n">
-        <v>52920.0</v>
+        <v>51520.0</v>
       </c>
       <c r="F8" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="G8" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>60.0</v>
+        <v>69.0</v>
       </c>
       <c r="K8" t="n">
-        <v>322.0</v>
+        <v>326.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,34 +527,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>126.0</v>
+        <v>135.0</v>
       </c>
       <c r="E9" t="n">
-        <v>50120.0</v>
+        <v>54600.0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="G9" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>68.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>317.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,19 +562,19 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>138.0</v>
+        <v>141.0</v>
       </c>
       <c r="E10" t="n">
-        <v>55720.0</v>
+        <v>57400.0</v>
       </c>
       <c r="F10" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G10" t="n">
         <v>25.0</v>
@@ -589,10 +586,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="K10" t="n">
-        <v>313.0</v>
+        <v>316.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,19 +597,19 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>135.0</v>
+        <v>138.0</v>
       </c>
       <c r="E11" t="n">
-        <v>56560.0</v>
+        <v>57960.0</v>
       </c>
       <c r="F11" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G11" t="n">
         <v>26.0</v>
@@ -624,10 +621,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>311.0</v>
+        <v>314.0</v>
       </c>
     </row>
     <row r="12">
@@ -641,28 +638,28 @@
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>127.0</v>
+        <v>124.0</v>
       </c>
       <c r="E12" t="n">
-        <v>50511.0</v>
+        <v>50680.0</v>
       </c>
       <c r="F12" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="G12" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="K12" t="n">
-        <v>303.0</v>
+        <v>312.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,34 +667,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.0</v>
+        <v>130.0</v>
       </c>
       <c r="E13" t="n">
-        <v>49280.0</v>
+        <v>51297.0</v>
       </c>
       <c r="F13" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="H13" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="K13" t="n">
-        <v>302.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,34 +702,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="C14" t="n">
         <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>135.0</v>
+        <v>116.0</v>
       </c>
       <c r="E14" t="n">
-        <v>53771.0</v>
+        <v>47600.0</v>
       </c>
       <c r="F14" t="n">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
       <c r="G14" t="n">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.0</v>
+        <v>69.0</v>
       </c>
       <c r="K14" t="n">
-        <v>279.0</v>
+        <v>284.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,34 +737,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>113.0</v>
+        <v>138.0</v>
       </c>
       <c r="E15" t="n">
-        <v>46200.0</v>
+        <v>55171.0</v>
       </c>
       <c r="F15" t="n">
-        <v>41.0</v>
+        <v>51.0</v>
       </c>
       <c r="G15" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="H15" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.0</v>
+        <v>43.0</v>
       </c>
       <c r="K15" t="n">
-        <v>274.0</v>
+        <v>282.0</v>
       </c>
     </row>
     <row r="16">
@@ -778,7 +775,7 @@
         <v>43.0</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D16" t="n">
         <v>124.0</v>
@@ -810,34 +807,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>53286.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
         <v>35.0</v>
       </c>
-      <c r="C17" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>45640.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>62.0</v>
-      </c>
       <c r="K17" t="n">
-        <v>246.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,34 +842,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="C18" t="n">
-        <v>100.0</v>
+        <v>20.0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.0</v>
+        <v>105.0</v>
       </c>
       <c r="E18" t="n">
-        <v>52166.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F18" t="n">
-        <v>50.0</v>
+        <v>37.0</v>
       </c>
       <c r="G18" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.0</v>
+        <v>62.0</v>
       </c>
       <c r="K18" t="n">
-        <v>241.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,19 +877,19 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="E19" t="n">
-        <v>48282.0</v>
+        <v>49122.0</v>
       </c>
       <c r="F19" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G19" t="n">
         <v>17.0</v>
@@ -904,10 +901,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="K19" t="n">
-        <v>238.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,22 +912,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>40282.0</v>
+      </c>
+      <c r="F20" t="n">
         <v>33.0</v>
       </c>
-      <c r="C20" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>39442.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>32.0</v>
-      </c>
       <c r="G20" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H20" t="n">
         <v>0.0</v>
@@ -939,10 +936,10 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="K20" t="n">
-        <v>227.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,22 +947,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="E21" t="n">
-        <v>32200.0</v>
+        <v>33040.0</v>
       </c>
       <c r="F21" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G21" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H21" t="n">
         <v>2.0</v>
@@ -974,10 +971,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="K21" t="n">
-        <v>226.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,22 +982,22 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C22" t="n">
         <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.0</v>
+        <v>134.0</v>
       </c>
       <c r="E22" t="n">
-        <v>47560.0</v>
+        <v>48680.0</v>
       </c>
       <c r="F22" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H22" t="n">
         <v>1.0</v>
@@ -1009,10 +1006,10 @@
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="K22" t="n">
-        <v>222.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,22 +1017,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C23" t="n">
         <v>60.0</v>
       </c>
       <c r="D23" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="E23" t="n">
-        <v>38640.0</v>
+        <v>40320.0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G23" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H23" t="n">
         <v>10.0</v>
@@ -1044,10 +1041,10 @@
         <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="K23" t="n">
-        <v>197.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,34 +1052,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>81.0</v>
+        <v>132.0</v>
       </c>
       <c r="E24" t="n">
-        <v>34440.0</v>
+        <v>50703.0</v>
       </c>
       <c r="F24" t="n">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="G24" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J24" t="n">
-        <v>45.0</v>
+        <v>36.0</v>
       </c>
       <c r="K24" t="n">
-        <v>186.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,34 +1087,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>129.0</v>
+        <v>87.0</v>
       </c>
       <c r="E25" t="n">
-        <v>49023.0</v>
+        <v>35840.0</v>
       </c>
       <c r="F25" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.0</v>
+        <v>64.0</v>
       </c>
       <c r="K25" t="n">
-        <v>185.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,7 +1122,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
@@ -1134,25 +1131,25 @@
         <v>84.0</v>
       </c>
       <c r="E26" t="n">
-        <v>34160.0</v>
+        <v>35560.0</v>
       </c>
       <c r="F26" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="G26" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>62.0</v>
+        <v>43.0</v>
       </c>
       <c r="K26" t="n">
-        <v>183.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1157,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
       <c r="C27" t="n">
-        <v>100.0</v>
+        <v>27.0</v>
       </c>
       <c r="D27" t="n">
-        <v>124.0</v>
+        <v>82.0</v>
       </c>
       <c r="E27" t="n">
-        <v>50653.0</v>
+        <v>32480.0</v>
       </c>
       <c r="F27" t="n">
-        <v>46.0</v>
+        <v>28.0</v>
       </c>
       <c r="G27" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="H27" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>37.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>174.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,34 +1192,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="C28" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>81.0</v>
+        <v>126.0</v>
       </c>
       <c r="E28" t="n">
-        <v>32200.0</v>
+        <v>51493.0</v>
       </c>
       <c r="F28" t="n">
-        <v>27.0</v>
+        <v>47.0</v>
       </c>
       <c r="G28" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J28" t="n">
-        <v>56.00000000000001</v>
+        <v>38.0</v>
       </c>
       <c r="K28" t="n">
-        <v>173.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1227,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="C29" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D29" t="n">
-        <v>78.0</v>
+        <v>114.0</v>
       </c>
       <c r="E29" t="n">
-        <v>33985.0</v>
+        <v>47880.0</v>
       </c>
       <c r="F29" t="n">
-        <v>29.0</v>
+        <v>42.0</v>
       </c>
       <c r="G29" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="K29" t="n">
-        <v>169.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,25 +1262,25 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>41.0</v>
+        <v>27.0</v>
       </c>
       <c r="C30" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>111.0</v>
+        <v>81.0</v>
       </c>
       <c r="E30" t="n">
-        <v>46200.0</v>
+        <v>35385.0</v>
       </c>
       <c r="F30" t="n">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
       <c r="G30" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="H30" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -1292,7 +1289,7 @@
         <v>37.0</v>
       </c>
       <c r="K30" t="n">
-        <v>168.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,22 +1297,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D31" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="E31" t="n">
-        <v>36942.0</v>
+        <v>38342.0</v>
       </c>
       <c r="F31" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H31" t="n">
         <v>2.0</v>
@@ -1324,10 +1321,10 @@
         <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="K31" t="n">
-        <v>141.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,19 +1332,19 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="C32" t="n">
         <v>80.0</v>
       </c>
       <c r="D32" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="E32" t="n">
-        <v>21840.0</v>
+        <v>22960.0</v>
       </c>
       <c r="F32" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G32" t="n">
         <v>16.0</v>
@@ -1359,10 +1356,10 @@
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>84.0</v>
+        <v>80.0</v>
       </c>
       <c r="K32" t="n">
-        <v>140.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,22 +1367,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C33" t="n">
         <v>87.0</v>
       </c>
       <c r="D33" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="E33" t="n">
-        <v>35192.0</v>
+        <v>36872.0</v>
       </c>
       <c r="F33" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G33" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H33" t="n">
         <v>12.0</v>
@@ -1394,10 +1391,10 @@
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="K33" t="n">
-        <v>127.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C34" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="E34" t="n">
-        <v>27440.0</v>
+        <v>28840.0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G34" t="n">
         <v>14.0</v>
@@ -1429,10 +1426,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>57.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>125.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,34 +1437,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="C35" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D35" t="n">
-        <v>88.0</v>
+        <v>71.0</v>
       </c>
       <c r="E35" t="n">
-        <v>34130.0</v>
+        <v>30240.0</v>
       </c>
       <c r="F35" t="n">
-        <v>34.0</v>
+        <v>24.0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H35" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" t="n">
         <v>21.0</v>
       </c>
       <c r="K35" t="n">
-        <v>102.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,31 +1472,31 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="C36" t="n">
-        <v>80.0</v>
+        <v>91.0</v>
       </c>
       <c r="D36" t="n">
-        <v>68.0</v>
+        <v>30.0</v>
       </c>
       <c r="E36" t="n">
-        <v>29400.0</v>
+        <v>13120.0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>22.0</v>
+        <v>82.0</v>
       </c>
       <c r="K36" t="n">
         <v>102.0</v>
@@ -1510,34 +1507,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
       <c r="C37" t="n">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
       <c r="D37" t="n">
-        <v>27.0</v>
+        <v>88.0</v>
       </c>
       <c r="E37" t="n">
-        <v>11545.0</v>
+        <v>34130.0</v>
       </c>
       <c r="F37" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="G37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H37" t="n">
         <v>8.0</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.0</v>
+        <v>21.0</v>
       </c>
       <c r="K37" t="n">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="38">
@@ -1548,7 +1545,7 @@
         <v>13.0</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D38" t="n">
         <v>39.0</v>
@@ -1572,7 +1569,7 @@
         <v>46.0</v>
       </c>
       <c r="K38" t="n">
-        <v>88.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,19 +1577,19 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C39" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="D39" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="E39" t="n">
-        <v>10407.0</v>
+        <v>11456.0</v>
       </c>
       <c r="F39" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G39" t="n">
         <v>3.0</v>
@@ -1604,10 +1601,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="K39" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,34 +1612,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>8.0</v>
+        <v>41.0</v>
       </c>
       <c r="C40" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="D40" t="n">
-        <v>21.0</v>
+        <v>114.0</v>
       </c>
       <c r="E40" t="n">
-        <v>7362.0</v>
+        <v>47880.0</v>
       </c>
       <c r="F40" t="n">
-        <v>8.0</v>
+        <v>37.0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H40" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="K40" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,34 +1647,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="C41" t="n">
-        <v>93.0</v>
+        <v>90.0</v>
       </c>
       <c r="D41" t="n">
-        <v>111.0</v>
+        <v>23.0</v>
       </c>
       <c r="E41" t="n">
-        <v>46760.0</v>
+        <v>7852.0</v>
       </c>
       <c r="F41" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K41" t="n">
         <v>36.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>38.0</v>
       </c>
     </row>
     <row r="42">
@@ -1712,7 +1709,7 @@
         <v>43.0</v>
       </c>
       <c r="K42" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="43">
@@ -1723,7 +1720,7 @@
         <v>3.0</v>
       </c>
       <c r="C43" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="D43" t="n">
         <v>9.0</v>
@@ -1780,7 +1777,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="45">
@@ -1788,32 +1785,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>20086.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J45"/>
+        <v>2.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>17.0</v>
+      </c>
       <c r="K45" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="46">
@@ -1821,34 +1820,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="C46" t="n">
-        <v>40.0</v>
+        <v>73.0</v>
       </c>
       <c r="D46" t="n">
-        <v>70.0</v>
+        <v>44.0</v>
       </c>
       <c r="E46" t="n">
-        <v>20086.0</v>
+        <v>17665.0</v>
       </c>
       <c r="F46" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" t="n">
         <v>17.0</v>
       </c>
       <c r="K46" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="47">
@@ -1856,34 +1855,32 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D47" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3.0</v>
       </c>
       <c r="E47" t="n">
         <v>1120.0</v>
       </c>
       <c r="F47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="48">
@@ -1891,34 +1888,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="C48" t="n">
-        <v>67.0</v>
+        <v>71.0</v>
       </c>
       <c r="D48" t="n">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="E48" t="n">
-        <v>16616.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F48" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="G48" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H48" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>18.0</v>
+        <v>50.0</v>
       </c>
       <c r="K48" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="49">
@@ -1926,34 +1923,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
       <c r="C49" t="n">
-        <v>83.0</v>
+        <v>93.0</v>
       </c>
       <c r="D49" t="n">
-        <v>14.0</v>
+        <v>72.0</v>
       </c>
       <c r="E49" t="n">
-        <v>5880.0</v>
+        <v>26852.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4.0</v>
+        <v>27.0</v>
       </c>
       <c r="G49" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J49" t="n">
-        <v>50.0</v>
+        <v>37.0</v>
       </c>
       <c r="K49" t="n">
-        <v>13.0</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="50">
@@ -1964,7 +1961,7 @@
         <v>9.0</v>
       </c>
       <c r="C50" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="D50" t="n">
         <v>20.0</v>
@@ -1988,42 +1985,7 @@
         <v>22.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-13.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>25540.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-14.0</v>
+        <v>-17.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -65,10 +65,13 @@
     <t>snowkids</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Madnasty</t>
+    <t>King Bonixe</t>
   </si>
   <si>
     <t>Goblyn</t>
@@ -77,9 +80,6 @@
     <t>zau</t>
   </si>
   <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
@@ -95,18 +95,18 @@
     <t>faneca</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Robb Stark</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
@@ -125,33 +125,33 @@
     <t>Jonix21</t>
   </si>
   <si>
+    <t>filipe</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>filipe</t>
-  </si>
-  <si>
     <t>LCINORC</t>
   </si>
   <si>
     <t>supercell</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
+    <t>Wut</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
-    <t>Wut</t>
+    <t>batata</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>batata</t>
-  </si>
-  <si>
     <t>fglopes</t>
   </si>
   <si>
@@ -170,16 +170,16 @@
     <t>pwepito</t>
   </si>
   <si>
+    <t>EoMatheus</t>
+  </si>
+  <si>
     <t>bin0-dA-k1nG</t>
   </si>
   <si>
-    <t>EoMatheus</t>
+    <t>Jonas 705</t>
   </si>
   <si>
     <t>Manu</t>
-  </si>
-  <si>
-    <t>Jonas 705</t>
   </si>
   <si>
     <t>jnuno15</t>
@@ -282,19 +282,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="E2" t="n">
-        <v>57120.0</v>
+        <v>58520.0</v>
       </c>
       <c r="F2" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G2" t="n">
         <v>41.0</v>
@@ -306,10 +306,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="K2" t="n">
-        <v>432.0</v>
+        <v>435.0</v>
       </c>
     </row>
     <row r="3">
@@ -317,19 +317,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C3" t="n">
         <v>93.0</v>
       </c>
       <c r="D3" t="n">
-        <v>138.0</v>
+        <v>141.0</v>
       </c>
       <c r="E3" t="n">
-        <v>54320.0</v>
+        <v>55160.0</v>
       </c>
       <c r="F3" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G3" t="n">
         <v>36.0</v>
@@ -341,10 +341,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="K3" t="n">
-        <v>379.0</v>
+        <v>381.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,19 +352,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="E4" t="n">
-        <v>54880.0</v>
+        <v>56000.0</v>
       </c>
       <c r="F4" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G4" t="n">
         <v>34.0</v>
@@ -376,10 +376,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="K4" t="n">
-        <v>377.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,19 +387,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="E5" t="n">
-        <v>55732.0</v>
+        <v>56572.0</v>
       </c>
       <c r="F5" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G5" t="n">
         <v>36.0</v>
@@ -411,10 +411,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>78.0</v>
+        <v>77.0</v>
       </c>
       <c r="K5" t="n">
-        <v>371.0</v>
+        <v>373.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,19 +422,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>138.0</v>
+        <v>141.0</v>
       </c>
       <c r="E6" t="n">
-        <v>52815.0</v>
+        <v>53935.0</v>
       </c>
       <c r="F6" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="G6" t="n">
         <v>33.0</v>
@@ -446,10 +446,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="K6" t="n">
-        <v>361.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,19 +457,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>139.0</v>
+        <v>142.0</v>
       </c>
       <c r="E7" t="n">
-        <v>56890.0</v>
+        <v>58290.0</v>
       </c>
       <c r="F7" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="G7" t="n">
         <v>29.0</v>
@@ -481,10 +481,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="K7" t="n">
-        <v>338.0</v>
+        <v>341.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,34 +492,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>129.0</v>
+        <v>138.0</v>
       </c>
       <c r="E8" t="n">
-        <v>51520.0</v>
+        <v>56000.0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="G8" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>69.0</v>
+        <v>59.0</v>
       </c>
       <c r="K8" t="n">
-        <v>326.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,34 +527,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>135.0</v>
+        <v>132.0</v>
       </c>
       <c r="E9" t="n">
-        <v>54600.0</v>
+        <v>52640.0</v>
       </c>
       <c r="F9" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="G9" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>57.99999999999999</v>
+        <v>67.0</v>
       </c>
       <c r="K9" t="n">
-        <v>325.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="10">
@@ -562,34 +562,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>47.0</v>
+        <v>44.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>141.0</v>
+        <v>127.0</v>
       </c>
       <c r="E10" t="n">
-        <v>57400.0</v>
+        <v>51800.0</v>
       </c>
       <c r="F10" t="n">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
       <c r="K10" t="n">
-        <v>316.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="11">
@@ -597,34 +597,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>138.0</v>
+        <v>144.0</v>
       </c>
       <c r="E11" t="n">
-        <v>57960.0</v>
+        <v>59080.0</v>
       </c>
       <c r="F11" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G11" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="K11" t="n">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +632,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>124.0</v>
+        <v>141.0</v>
       </c>
       <c r="E12" t="n">
-        <v>50680.0</v>
+        <v>59080.0</v>
       </c>
       <c r="F12" t="n">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="G12" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="H12" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
       <c r="K12" t="n">
-        <v>312.0</v>
+        <v>316.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,22 +667,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.0</v>
+        <v>133.0</v>
       </c>
       <c r="E13" t="n">
-        <v>51297.0</v>
+        <v>52417.0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G13" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H13" t="n">
         <v>2.0</v>
@@ -691,10 +691,10 @@
         <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="K13" t="n">
-        <v>305.0</v>
+        <v>314.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,19 +702,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C14" t="n">
         <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>116.0</v>
+        <v>119.0</v>
       </c>
       <c r="E14" t="n">
-        <v>47600.0</v>
+        <v>49280.0</v>
       </c>
       <c r="F14" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G14" t="n">
         <v>29.0</v>
@@ -726,10 +726,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="K14" t="n">
-        <v>284.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,7 +740,7 @@
         <v>46.0</v>
       </c>
       <c r="C15" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D15" t="n">
         <v>138.0</v>
@@ -764,7 +764,7 @@
         <v>43.0</v>
       </c>
       <c r="K15" t="n">
-        <v>282.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="16">
@@ -772,34 +772,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="E16" t="n">
-        <v>49560.0</v>
+        <v>49840.0</v>
       </c>
       <c r="F16" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="K16" t="n">
-        <v>256.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,19 +807,19 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>140.0</v>
+        <v>143.0</v>
       </c>
       <c r="E17" t="n">
-        <v>53286.0</v>
+        <v>54598.0</v>
       </c>
       <c r="F17" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G17" t="n">
         <v>18.0</v>
@@ -834,7 +834,7 @@
         <v>35.0</v>
       </c>
       <c r="K17" t="n">
-        <v>250.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +842,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="C18" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>105.0</v>
+        <v>129.0</v>
       </c>
       <c r="E18" t="n">
-        <v>45640.0</v>
+        <v>50522.0</v>
       </c>
       <c r="F18" t="n">
-        <v>37.0</v>
+        <v>46.0</v>
       </c>
       <c r="G18" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.0</v>
+        <v>39.0</v>
       </c>
       <c r="K18" t="n">
-        <v>245.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,34 +877,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>43.0</v>
+        <v>35.0</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.0</v>
+        <v>105.0</v>
       </c>
       <c r="E19" t="n">
-        <v>49122.0</v>
+        <v>41122.0</v>
       </c>
       <c r="F19" t="n">
-        <v>45.0</v>
+        <v>34.0</v>
       </c>
       <c r="G19" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>38.0</v>
+        <v>65.0</v>
       </c>
       <c r="K19" t="n">
-        <v>240.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,34 +912,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="C20" t="n">
-        <v>53.0</v>
+        <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>102.0</v>
+        <v>76.0</v>
       </c>
       <c r="E20" t="n">
-        <v>40282.0</v>
+        <v>34160.0</v>
       </c>
       <c r="F20" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="G20" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>64.0</v>
+        <v>70.0</v>
       </c>
       <c r="K20" t="n">
-        <v>235.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,34 +947,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="C21" t="n">
-        <v>100.0</v>
+        <v>13.0</v>
       </c>
       <c r="D21" t="n">
-        <v>73.0</v>
+        <v>105.0</v>
       </c>
       <c r="E21" t="n">
-        <v>33040.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F21" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="G21" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>69.0</v>
+        <v>62.0</v>
       </c>
       <c r="K21" t="n">
-        <v>234.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,19 +982,19 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C22" t="n">
         <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>134.0</v>
+        <v>137.0</v>
       </c>
       <c r="E22" t="n">
-        <v>48680.0</v>
+        <v>50080.0</v>
       </c>
       <c r="F22" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G22" t="n">
         <v>19.0</v>
@@ -1006,10 +1006,10 @@
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="K22" t="n">
-        <v>231.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,22 +1017,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C23" t="n">
         <v>60.0</v>
       </c>
       <c r="D23" t="n">
-        <v>95.0</v>
+        <v>98.0</v>
       </c>
       <c r="E23" t="n">
-        <v>40320.0</v>
+        <v>41440.0</v>
       </c>
       <c r="F23" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G23" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H23" t="n">
         <v>10.0</v>
@@ -1041,10 +1041,10 @@
         <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="K23" t="n">
-        <v>207.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,22 +1052,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>132.0</v>
+        <v>135.0</v>
       </c>
       <c r="E24" t="n">
-        <v>50703.0</v>
+        <v>52383.0</v>
       </c>
       <c r="F24" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G24" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.0</v>
@@ -1076,10 +1076,10 @@
         <v>2.0</v>
       </c>
       <c r="J24" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="K24" t="n">
-        <v>196.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,22 +1087,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="E25" t="n">
-        <v>35840.0</v>
+        <v>37240.0</v>
       </c>
       <c r="F25" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G25" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H25" t="n">
         <v>9.0</v>
@@ -1111,10 +1111,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="K25" t="n">
-        <v>193.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,19 +1122,19 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="E26" t="n">
-        <v>35560.0</v>
+        <v>36680.0</v>
       </c>
       <c r="F26" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="G26" t="n">
         <v>13.0</v>
@@ -1146,10 +1146,10 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="K26" t="n">
-        <v>188.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,19 +1157,19 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C27" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="D27" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="E27" t="n">
-        <v>32480.0</v>
+        <v>33600.0</v>
       </c>
       <c r="F27" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G27" t="n">
         <v>16.0</v>
@@ -1181,10 +1181,10 @@
         <v>1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>56.99999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>177.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,34 +1192,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="C28" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D28" t="n">
-        <v>126.0</v>
+        <v>117.0</v>
       </c>
       <c r="E28" t="n">
-        <v>51493.0</v>
+        <v>49560.0</v>
       </c>
       <c r="F28" t="n">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="H28" t="n">
         <v>12.0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="K28" t="n">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,34 +1227,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="C29" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D29" t="n">
-        <v>114.0</v>
+        <v>126.0</v>
       </c>
       <c r="E29" t="n">
-        <v>47880.0</v>
+        <v>51493.0</v>
       </c>
       <c r="F29" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="G29" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H29" t="n">
         <v>12.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="K29" t="n">
-        <v>172.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="E30" t="n">
-        <v>35385.0</v>
+        <v>36505.0</v>
       </c>
       <c r="F30" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="G30" t="n">
         <v>11.0</v>
@@ -1286,10 +1286,10 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="K30" t="n">
-        <v>171.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,7 +1300,7 @@
         <v>33.0</v>
       </c>
       <c r="C31" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D31" t="n">
         <v>97.0</v>
@@ -1324,7 +1324,7 @@
         <v>48.0</v>
       </c>
       <c r="K31" t="n">
-        <v>151.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,34 +1332,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>20.0</v>
+        <v>35.0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D32" t="n">
-        <v>54.0</v>
+        <v>93.0</v>
       </c>
       <c r="E32" t="n">
-        <v>22960.0</v>
+        <v>37992.0</v>
       </c>
       <c r="F32" t="n">
-        <v>20.0</v>
+        <v>35.0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>80.0</v>
+        <v>49.0</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,34 +1367,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="C33" t="n">
-        <v>87.0</v>
+        <v>53.0</v>
       </c>
       <c r="D33" t="n">
-        <v>90.0</v>
+        <v>68.0</v>
       </c>
       <c r="E33" t="n">
-        <v>36872.0</v>
+        <v>29680.0</v>
       </c>
       <c r="F33" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="G33" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="H33" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>50.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>137.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="34">
@@ -1402,31 +1402,31 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.0</v>
+        <v>80.0</v>
       </c>
       <c r="D34" t="n">
-        <v>66.0</v>
+        <v>57.0</v>
       </c>
       <c r="E34" t="n">
-        <v>28840.0</v>
+        <v>23800.0</v>
       </c>
       <c r="F34" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H34" t="n">
         <v>6.0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.00000000000001</v>
+        <v>80.0</v>
       </c>
       <c r="K34" t="n">
         <v>128.0</v>
@@ -1437,34 +1437,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="C35" t="n">
-        <v>80.0</v>
+        <v>92.0</v>
       </c>
       <c r="D35" t="n">
-        <v>71.0</v>
+        <v>33.0</v>
       </c>
       <c r="E35" t="n">
-        <v>30240.0</v>
+        <v>14432.0</v>
       </c>
       <c r="F35" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.0</v>
+        <v>83.0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,34 +1472,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="C36" t="n">
-        <v>91.0</v>
+        <v>80.0</v>
       </c>
       <c r="D36" t="n">
-        <v>30.0</v>
+        <v>74.0</v>
       </c>
       <c r="E36" t="n">
-        <v>13120.0</v>
+        <v>31640.0</v>
       </c>
       <c r="F36" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="G36" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>82.0</v>
+        <v>20.0</v>
       </c>
       <c r="K36" t="n">
-        <v>102.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="37">
@@ -1507,19 +1507,19 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C37" t="n">
         <v>80.0</v>
       </c>
       <c r="D37" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="E37" t="n">
-        <v>34130.0</v>
+        <v>35179.0</v>
       </c>
       <c r="F37" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="G37" t="n">
         <v>7.0</v>
@@ -1531,7 +1531,7 @@
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="K37" t="n">
         <v>101.0</v>
@@ -1542,22 +1542,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C38" t="n">
         <v>93.0</v>
       </c>
       <c r="D38" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="E38" t="n">
-        <v>15395.0</v>
+        <v>16515.0</v>
       </c>
       <c r="F38" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1566,10 +1566,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="K38" t="n">
-        <v>87.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,7 +1580,7 @@
         <v>11.0</v>
       </c>
       <c r="C39" t="n">
-        <v>85.0</v>
+        <v>79.0</v>
       </c>
       <c r="D39" t="n">
         <v>32.0</v>
@@ -1604,7 +1604,7 @@
         <v>27.0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="40">
@@ -1612,19 +1612,19 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C40" t="n">
         <v>93.0</v>
       </c>
       <c r="D40" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="E40" t="n">
-        <v>47880.0</v>
+        <v>49280.0</v>
       </c>
       <c r="F40" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G40" t="n">
         <v>12.0</v>
@@ -1639,7 +1639,7 @@
         <v>32.0</v>
       </c>
       <c r="K40" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,7 +1650,7 @@
         <v>9.0</v>
       </c>
       <c r="C41" t="n">
-        <v>90.0</v>
+        <v>82.0</v>
       </c>
       <c r="D41" t="n">
         <v>23.0</v>
@@ -1685,7 +1685,7 @@
         <v>6.0</v>
       </c>
       <c r="C42" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="D42" t="n">
         <v>13.0</v>
@@ -1709,7 +1709,7 @@
         <v>43.0</v>
       </c>
       <c r="K42" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="43">
@@ -1717,22 +1717,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>4480.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1740,11 +1740,9 @@
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
-      <c r="J43" t="n">
-        <v>33.0</v>
-      </c>
+      <c r="J43"/>
       <c r="K43" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="44">
@@ -1752,87 +1750,87 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>5600.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J44"/>
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>33.0</v>
+      </c>
       <c r="K44" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B45" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>20086.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>17.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J45"/>
       <c r="K45" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C46" t="n">
         <v>73.0</v>
       </c>
       <c r="D46" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="E46" t="n">
-        <v>17665.0</v>
+        <v>18451.0</v>
       </c>
       <c r="F46" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G46" t="n">
         <v>3.0</v>
@@ -1844,7 +1842,7 @@
         <v>1.0</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="K46" t="n">
         <v>19.0</v>
@@ -1852,58 +1850,60 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="C47" t="n">
-        <v>100.0</v>
+        <v>27.0</v>
       </c>
       <c r="D47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>20086.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I47" t="n">
         <v>2.0</v>
       </c>
-      <c r="E47" t="n">
-        <v>1120.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J47"/>
+      <c r="J47" t="n">
+        <v>17.0</v>
+      </c>
       <c r="K47" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
-        <v>71.0</v>
+        <v>50.0</v>
       </c>
       <c r="D48" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="E48" t="n">
-        <v>5880.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F48" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
         <v>1.0</v>
@@ -1911,81 +1911,114 @@
       <c r="I48" t="n">
         <v>1.0</v>
       </c>
-      <c r="J48" t="n">
-        <v>50.0</v>
-      </c>
+      <c r="J48"/>
       <c r="K48" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c r="C49" t="n">
-        <v>93.0</v>
+        <v>62.0</v>
       </c>
       <c r="D49" t="n">
-        <v>72.0</v>
+        <v>14.0</v>
       </c>
       <c r="E49" t="n">
-        <v>26852.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F49" t="n">
-        <v>27.0</v>
+        <v>4.0</v>
       </c>
       <c r="G49" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="H49" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J49" t="n">
-        <v>37.0</v>
+        <v>50.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>27954.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-2.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>9.0</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D51" t="n">
         <v>20.0</v>
       </c>
-      <c r="D50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="E51" t="n">
         <v>7840.0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F51" t="n">
         <v>9.0</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G51" t="n">
         <v>2.0</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>7.0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="I51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="n">
         <v>22.0</v>
       </c>
-      <c r="K50" t="n">
-        <v>-17.0</v>
+      <c r="K51" t="n">
+        <v>-19.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -68,48 +68,48 @@
     <t>Madnasty</t>
   </si>
   <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>King Bonixe</t>
+    <t>zau</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
   </si>
   <si>
     <t>Goblyn</t>
   </si>
   <si>
-    <t>zau</t>
-  </si>
-  <si>
-    <t>KryptoNnN</t>
+    <t>Tio João</t>
   </si>
   <si>
     <t>unb</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>Robb Stark</t>
   </si>
   <si>
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>carmen</t>
+  </si>
+  <si>
     <t>John Rambo</t>
   </si>
   <si>
-    <t>carmen</t>
-  </si>
-  <si>
     <t>TheKingJK</t>
   </si>
   <si>
@@ -122,24 +122,24 @@
     <t>Matilde Pires</t>
   </si>
   <si>
+    <t>filipe</t>
+  </si>
+  <si>
     <t>Jonix21</t>
   </si>
   <si>
-    <t>filipe</t>
-  </si>
-  <si>
     <t>qzt</t>
   </si>
   <si>
     <t>LCINORC</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
     <t>Wut</t>
   </si>
   <si>
@@ -161,37 +161,37 @@
     <t>rei da guerra</t>
   </si>
   <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>pwepito</t>
+  </si>
+  <si>
+    <t>EoMatheus</t>
+  </si>
+  <si>
+    <t>Jonas 705</t>
+  </si>
+  <si>
+    <t>jnuno15</t>
+  </si>
+  <si>
+    <t>diogo</t>
+  </si>
+  <si>
+    <t>MC ZE</t>
+  </si>
+  <si>
+    <t>Diogo Assunção</t>
+  </si>
+  <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
     <t>Welton</t>
-  </si>
-  <si>
-    <t>president</t>
-  </si>
-  <si>
-    <t>pwepito</t>
-  </si>
-  <si>
-    <t>EoMatheus</t>
-  </si>
-  <si>
-    <t>bin0-dA-k1nG</t>
-  </si>
-  <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>jnuno15</t>
-  </si>
-  <si>
-    <t>diogo</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
-  </si>
-  <si>
-    <t>NOVA I MIGUEL☉</t>
   </si>
 </sst>
 </file>
@@ -282,22 +282,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>144.0</v>
+        <v>147.0</v>
       </c>
       <c r="E2" t="n">
-        <v>58520.0</v>
+        <v>59360.0</v>
       </c>
       <c r="F2" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -309,7 +309,7 @@
         <v>82.0</v>
       </c>
       <c r="K2" t="n">
-        <v>435.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="3">
@@ -317,22 +317,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C3" t="n">
         <v>93.0</v>
       </c>
       <c r="D3" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="E3" t="n">
-        <v>55160.0</v>
+        <v>56560.0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G3" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -341,10 +341,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="K3" t="n">
-        <v>381.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,22 +352,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>144.0</v>
+        <v>147.0</v>
       </c>
       <c r="E4" t="n">
-        <v>56000.0</v>
+        <v>57120.0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -379,7 +379,7 @@
         <v>65.0</v>
       </c>
       <c r="K4" t="n">
-        <v>380.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,19 +387,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>144.0</v>
+        <v>147.0</v>
       </c>
       <c r="E5" t="n">
-        <v>56572.0</v>
+        <v>57692.0</v>
       </c>
       <c r="F5" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="G5" t="n">
         <v>36.0</v>
@@ -411,10 +411,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
       <c r="K5" t="n">
-        <v>373.0</v>
+        <v>376.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,22 +422,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="E6" t="n">
-        <v>53935.0</v>
+        <v>55335.0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G6" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -446,10 +446,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K6" t="n">
-        <v>364.0</v>
+        <v>373.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,22 +457,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0</v>
+        <v>145.0</v>
       </c>
       <c r="E7" t="n">
-        <v>58290.0</v>
+        <v>59410.0</v>
       </c>
       <c r="F7" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G7" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -481,10 +481,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="K7" t="n">
-        <v>341.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,19 +492,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>138.0</v>
+        <v>141.0</v>
       </c>
       <c r="E8" t="n">
-        <v>56000.0</v>
+        <v>56840.0</v>
       </c>
       <c r="F8" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G8" t="n">
         <v>29.0</v>
@@ -516,10 +516,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>59.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>335.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,34 +527,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>132.0</v>
+        <v>130.0</v>
       </c>
       <c r="E9" t="n">
-        <v>52640.0</v>
+        <v>53200.0</v>
       </c>
       <c r="F9" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="G9" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
       <c r="K9" t="n">
-        <v>329.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="10">
@@ -562,34 +562,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D10" t="n">
-        <v>127.0</v>
+        <v>132.0</v>
       </c>
       <c r="E10" t="n">
-        <v>51800.0</v>
+        <v>52640.0</v>
       </c>
       <c r="F10" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="G10" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>62.0</v>
+        <v>67.0</v>
       </c>
       <c r="K10" t="n">
-        <v>321.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
@@ -606,25 +606,25 @@
         <v>144.0</v>
       </c>
       <c r="E11" t="n">
-        <v>59080.0</v>
+        <v>60200.0</v>
       </c>
       <c r="F11" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G11" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>320.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +632,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>141.0</v>
+        <v>136.0</v>
       </c>
       <c r="E12" t="n">
-        <v>59080.0</v>
+        <v>54097.0</v>
       </c>
       <c r="F12" t="n">
-        <v>51.0</v>
+        <v>46.0</v>
       </c>
       <c r="G12" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0</v>
+        <v>67.0</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,34 +667,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>133.0</v>
+        <v>147.0</v>
       </c>
       <c r="E13" t="n">
-        <v>52417.0</v>
+        <v>60200.0</v>
       </c>
       <c r="F13" t="n">
-        <v>45.0</v>
+        <v>53.0</v>
       </c>
       <c r="G13" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.0</v>
+        <v>47.0</v>
       </c>
       <c r="K13" t="n">
-        <v>314.0</v>
+        <v>322.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,34 +702,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="C14" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>119.0</v>
+        <v>141.0</v>
       </c>
       <c r="E14" t="n">
-        <v>49280.0</v>
+        <v>56291.0</v>
       </c>
       <c r="F14" t="n">
-        <v>43.0</v>
+        <v>52.0</v>
       </c>
       <c r="G14" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>67.0</v>
+        <v>44.0</v>
       </c>
       <c r="K14" t="n">
-        <v>287.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,34 +737,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="C15" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>138.0</v>
+        <v>120.0</v>
       </c>
       <c r="E15" t="n">
-        <v>55171.0</v>
+        <v>49560.0</v>
       </c>
       <c r="F15" t="n">
-        <v>51.0</v>
+        <v>44.0</v>
       </c>
       <c r="G15" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>43.0</v>
+        <v>68.0</v>
       </c>
       <c r="K15" t="n">
-        <v>283.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="16">
@@ -772,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>125.0</v>
+        <v>128.0</v>
       </c>
       <c r="E16" t="n">
-        <v>49840.0</v>
+        <v>50680.0</v>
       </c>
       <c r="F16" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G16" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H16" t="n">
         <v>7.0</v>
@@ -796,10 +796,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="K16" t="n">
-        <v>255.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,34 +807,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>143.0</v>
+        <v>132.0</v>
       </c>
       <c r="E17" t="n">
-        <v>54598.0</v>
+        <v>51922.0</v>
       </c>
       <c r="F17" t="n">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="K17" t="n">
-        <v>254.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +842,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>129.0</v>
+        <v>146.0</v>
       </c>
       <c r="E18" t="n">
-        <v>50522.0</v>
+        <v>56173.0</v>
       </c>
       <c r="F18" t="n">
-        <v>46.0</v>
+        <v>53.0</v>
       </c>
       <c r="G18" t="n">
         <v>18.0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="K18" t="n">
-        <v>250.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,22 +877,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>42434.0</v>
+      </c>
+      <c r="F19" t="n">
         <v>35.0</v>
       </c>
-      <c r="C19" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>41122.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>34.0</v>
-      </c>
       <c r="G19" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H19" t="n">
         <v>0.0</v>
@@ -901,10 +901,10 @@
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="K19" t="n">
-        <v>244.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,22 +912,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="E20" t="n">
-        <v>34160.0</v>
+        <v>35000.0</v>
       </c>
       <c r="F20" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="G20" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H20" t="n">
         <v>2.0</v>
@@ -936,10 +936,10 @@
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="K20" t="n">
-        <v>243.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,31 +947,31 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>35.0</v>
+        <v>47.0</v>
       </c>
       <c r="C21" t="n">
-        <v>13.0</v>
+        <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>105.0</v>
+        <v>140.0</v>
       </c>
       <c r="E21" t="n">
-        <v>45640.0</v>
+        <v>51129.0</v>
       </c>
       <c r="F21" t="n">
-        <v>37.0</v>
+        <v>49.0</v>
       </c>
       <c r="G21" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
       <c r="K21" t="n">
         <v>243.0</v>
@@ -982,34 +982,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.0</v>
+        <v>7.0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.0</v>
+        <v>105.0</v>
       </c>
       <c r="E22" t="n">
-        <v>50080.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F22" t="n">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.0</v>
+        <v>62.0</v>
       </c>
       <c r="K22" t="n">
-        <v>234.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,22 +1017,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C23" t="n">
         <v>60.0</v>
       </c>
       <c r="D23" t="n">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
       <c r="E23" t="n">
-        <v>41440.0</v>
+        <v>42840.0</v>
       </c>
       <c r="F23" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G23" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H23" t="n">
         <v>10.0</v>
@@ -1044,7 +1044,7 @@
         <v>62.0</v>
       </c>
       <c r="K23" t="n">
-        <v>215.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,22 +1052,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>135.0</v>
+        <v>138.0</v>
       </c>
       <c r="E24" t="n">
-        <v>52383.0</v>
+        <v>53503.0</v>
       </c>
       <c r="F24" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G24" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.0</v>
@@ -1076,10 +1076,10 @@
         <v>2.0</v>
       </c>
       <c r="J24" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="K24" t="n">
-        <v>206.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,22 +1087,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="E25" t="n">
-        <v>37240.0</v>
+        <v>38360.0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="G25" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H25" t="n">
         <v>9.0</v>
@@ -1111,10 +1111,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="K25" t="n">
-        <v>203.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,19 +1122,19 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="E26" t="n">
-        <v>36680.0</v>
+        <v>38080.0</v>
       </c>
       <c r="F26" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="G26" t="n">
         <v>13.0</v>
@@ -1146,10 +1146,10 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="K26" t="n">
-        <v>191.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,34 +1157,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>29.0</v>
+        <v>44.0</v>
       </c>
       <c r="C27" t="n">
-        <v>33.0</v>
+        <v>93.0</v>
       </c>
       <c r="D27" t="n">
-        <v>85.0</v>
+        <v>120.0</v>
       </c>
       <c r="E27" t="n">
-        <v>33600.0</v>
+        <v>50960.0</v>
       </c>
       <c r="F27" t="n">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="G27" t="n">
         <v>16.0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>55.00000000000001</v>
+        <v>36.0</v>
       </c>
       <c r="K27" t="n">
-        <v>180.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,34 +1192,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.0</v>
+        <v>40.0</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0</v>
+        <v>88.0</v>
       </c>
       <c r="E28" t="n">
-        <v>49560.0</v>
+        <v>34720.0</v>
       </c>
       <c r="F28" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="G28" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H28" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.0</v>
+        <v>53.0</v>
       </c>
       <c r="K28" t="n">
-        <v>176.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,19 +1227,19 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C29" t="n">
         <v>93.0</v>
       </c>
       <c r="D29" t="n">
-        <v>126.0</v>
+        <v>129.0</v>
       </c>
       <c r="E29" t="n">
-        <v>51493.0</v>
+        <v>52893.0</v>
       </c>
       <c r="F29" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="G29" t="n">
         <v>18.0</v>
@@ -1254,7 +1254,7 @@
         <v>38.0</v>
       </c>
       <c r="K29" t="n">
-        <v>175.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="E30" t="n">
-        <v>36505.0</v>
+        <v>37905.0</v>
       </c>
       <c r="F30" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="G30" t="n">
         <v>11.0</v>
@@ -1286,10 +1286,10 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="K30" t="n">
-        <v>174.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,31 +1297,31 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D31" t="n">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="E31" t="n">
-        <v>38342.0</v>
+        <v>39672.0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="G31" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="K31" t="n">
         <v>149.0</v>
@@ -1332,34 +1332,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="C32" t="n">
         <v>87.0</v>
       </c>
       <c r="D32" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="E32" t="n">
-        <v>37992.0</v>
+        <v>38342.0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="G32" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="H32" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J32" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="K32" t="n">
-        <v>139.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="33">
@@ -1394,7 +1394,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>132.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,7 +1405,7 @@
         <v>21.0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.0</v>
+        <v>73.0</v>
       </c>
       <c r="D34" t="n">
         <v>57.0</v>
@@ -1429,7 +1429,7 @@
         <v>80.0</v>
       </c>
       <c r="K34" t="n">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,19 +1437,19 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C35" t="n">
         <v>92.0</v>
       </c>
       <c r="D35" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="E35" t="n">
-        <v>14432.0</v>
+        <v>15481.0</v>
       </c>
       <c r="F35" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G35" t="n">
         <v>10.0</v>
@@ -1461,10 +1461,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>83.0</v>
+        <v>77.0</v>
       </c>
       <c r="K35" t="n">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,34 +1472,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C36" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D36" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="E36" t="n">
-        <v>31640.0</v>
+        <v>32200.0</v>
       </c>
       <c r="F36" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="K36" t="n">
-        <v>107.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="37">
@@ -1507,19 +1507,19 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="C37" t="n">
         <v>80.0</v>
       </c>
       <c r="D37" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="E37" t="n">
-        <v>35179.0</v>
+        <v>36019.0</v>
       </c>
       <c r="F37" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="G37" t="n">
         <v>7.0</v>
@@ -1531,10 +1531,10 @@
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="K37" t="n">
-        <v>101.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="38">
@@ -1542,19 +1542,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C38" t="n">
         <v>93.0</v>
       </c>
       <c r="D38" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E38" t="n">
-        <v>16515.0</v>
+        <v>18195.0</v>
       </c>
       <c r="F38" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G38" t="n">
         <v>7.0</v>
@@ -1566,10 +1566,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
       <c r="K38" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="39">
@@ -1577,19 +1577,19 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C39" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="D39" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="E39" t="n">
-        <v>11456.0</v>
+        <v>12505.0</v>
       </c>
       <c r="F39" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G39" t="n">
         <v>3.0</v>
@@ -1601,10 +1601,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="K39" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="40">
@@ -1612,34 +1612,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>42.0</v>
+        <v>10.0</v>
       </c>
       <c r="C40" t="n">
-        <v>93.0</v>
+        <v>83.0</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0</v>
+        <v>26.0</v>
       </c>
       <c r="E40" t="n">
-        <v>49280.0</v>
+        <v>8832.0</v>
       </c>
       <c r="F40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K40" t="n">
         <v>38.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>43.0</v>
       </c>
     </row>
     <row r="41">
@@ -1647,74 +1647,74 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" t="n">
-        <v>82.0</v>
+        <v>27.0</v>
       </c>
       <c r="D41" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="E41" t="n">
-        <v>7852.0</v>
+        <v>4480.0</v>
       </c>
       <c r="F41" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.0</v>
+        <v>43.0</v>
       </c>
       <c r="K41" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>33.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C42" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D42" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="E42" t="n">
-        <v>4480.0</v>
+        <v>1680.0</v>
       </c>
       <c r="F42" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>43.0</v>
+        <v>100.0</v>
       </c>
       <c r="K42" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -1747,54 +1747,54 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="C44" t="n">
-        <v>80.0</v>
+        <v>67.0</v>
       </c>
       <c r="D44" t="n">
-        <v>12.0</v>
+        <v>47.0</v>
       </c>
       <c r="E44" t="n">
-        <v>5600.0</v>
+        <v>18451.0</v>
       </c>
       <c r="F44" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G44" t="n">
         <v>3.0</v>
       </c>
-      <c r="G44" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="K44" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1803,14 +1803,14 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="46">
@@ -1818,34 +1818,34 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="C46" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
       <c r="D46" t="n">
-        <v>47.0</v>
+        <v>14.0</v>
       </c>
       <c r="E46" t="n">
-        <v>18451.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H46" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I46" t="n">
         <v>1.0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.0</v>
+        <v>50.0</v>
       </c>
       <c r="K46" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="47">
@@ -1853,34 +1853,32 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>20086.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>17.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -1888,16 +1886,16 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1120.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1906,14 +1904,14 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -1921,34 +1919,34 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>5.0</v>
+        <v>31.0</v>
       </c>
       <c r="C49" t="n">
-        <v>62.0</v>
+        <v>93.0</v>
       </c>
       <c r="D49" t="n">
-        <v>14.0</v>
+        <v>78.0</v>
       </c>
       <c r="E49" t="n">
-        <v>5880.0</v>
+        <v>29003.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
       <c r="G49" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J49" t="n">
-        <v>50.0</v>
+        <v>34.0</v>
       </c>
       <c r="K49" t="n">
-        <v>12.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1956,34 +1954,34 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="C50" t="n">
-        <v>93.0</v>
+        <v>27.0</v>
       </c>
       <c r="D50" t="n">
-        <v>75.0</v>
+        <v>73.0</v>
       </c>
       <c r="E50" t="n">
-        <v>27954.0</v>
+        <v>20926.0</v>
       </c>
       <c r="F50" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="G50" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H50" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="I50" t="n">
         <v>3.0</v>
       </c>
       <c r="J50" t="n">
-        <v>36.0</v>
+        <v>17.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.0</v>
+        <v>-10.0</v>
       </c>
     </row>
     <row r="51">
@@ -1991,34 +1989,34 @@
         <v>59</v>
       </c>
       <c r="B51" t="n">
-        <v>9.0</v>
+        <v>43.0</v>
       </c>
       <c r="C51" t="n">
-        <v>13.0</v>
+        <v>93.0</v>
       </c>
       <c r="D51" t="n">
-        <v>20.0</v>
+        <v>118.0</v>
       </c>
       <c r="E51" t="n">
-        <v>7840.0</v>
+        <v>49560.0</v>
       </c>
       <c r="F51" t="n">
-        <v>9.0</v>
+        <v>38.0</v>
       </c>
       <c r="G51" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="H51" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="J51" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-19.0</v>
+        <v>-140.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -379,7 +379,7 @@
         <v>65.0</v>
       </c>
       <c r="K4" t="n">
-        <v>388.0</v>
+        <v>389.0</v>
       </c>
     </row>
     <row r="5">
@@ -1429,7 +1429,7 @@
         <v>80.0</v>
       </c>
       <c r="K34" t="n">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="35">
@@ -1639,77 +1639,77 @@
         <v>10.0</v>
       </c>
       <c r="K40" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D41" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="E41" t="n">
-        <v>4480.0</v>
+        <v>1680.0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.0</v>
+        <v>100.0</v>
       </c>
       <c r="K41" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C42" t="e">
-        <v>#DIV/0!</v>
+        <v>6.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>27.0</v>
       </c>
       <c r="D42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4480.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G42" t="n">
         <v>3.0</v>
       </c>
-      <c r="E42" t="n">
-        <v>1680.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0</v>
+        <v>43.0</v>
       </c>
       <c r="K42" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="43">
@@ -1946,7 +1946,7 @@
         <v>34.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -56,12 +56,12 @@
     <t>thunder</t>
   </si>
   <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
-    <t>Fabíola</t>
-  </si>
-  <si>
     <t>snowkids</t>
   </si>
   <si>
@@ -74,12 +74,12 @@
     <t>leal</t>
   </si>
   <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
     <t>zau</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
@@ -92,24 +92,21 @@
     <t>pjp</t>
   </si>
   <si>
+    <t>Robb Stark</t>
+  </si>
+  <si>
     <t>Ricky</t>
   </si>
   <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
     <t>TheKingJK</t>
   </si>
   <si>
@@ -125,27 +122,27 @@
     <t>filipe</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>Jonix21</t>
   </si>
   <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
     <t>supercell</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>batata</t>
   </si>
   <si>
@@ -164,28 +161,28 @@
     <t>president</t>
   </si>
   <si>
-    <t>pwepito</t>
-  </si>
-  <si>
-    <t>EoMatheus</t>
-  </si>
-  <si>
     <t>Jonas 705</t>
   </si>
   <si>
     <t>jnuno15</t>
   </si>
   <si>
+    <t>Nandes_13</t>
+  </si>
+  <si>
     <t>diogo</t>
   </si>
   <si>
-    <t>MC ZE</t>
+    <t>SUPERCELL</t>
+  </si>
+  <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
+    <t>Paula Dentro ⚠</t>
   </si>
   <si>
     <t>Diogo Assunção</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
   </si>
   <si>
     <t>Manu</t>
@@ -282,22 +279,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>147.0</v>
+        <v>150.0</v>
       </c>
       <c r="E2" t="n">
-        <v>59360.0</v>
+        <v>60480.0</v>
       </c>
       <c r="F2" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G2" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -306,10 +303,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="K2" t="n">
-        <v>443.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="3">
@@ -317,22 +314,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C3" t="n">
         <v>93.0</v>
       </c>
       <c r="D3" t="n">
-        <v>144.0</v>
+        <v>147.0</v>
       </c>
       <c r="E3" t="n">
-        <v>56560.0</v>
+        <v>57680.0</v>
       </c>
       <c r="F3" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G3" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,7 +341,7 @@
         <v>73.0</v>
       </c>
       <c r="K3" t="n">
-        <v>391.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,22 +349,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>147.0</v>
+        <v>150.0</v>
       </c>
       <c r="E4" t="n">
-        <v>57120.0</v>
+        <v>58520.0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -379,7 +376,7 @@
         <v>65.0</v>
       </c>
       <c r="K4" t="n">
-        <v>389.0</v>
+        <v>398.0</v>
       </c>
     </row>
     <row r="5">
@@ -396,25 +393,25 @@
         <v>147.0</v>
       </c>
       <c r="E5" t="n">
-        <v>57692.0</v>
+        <v>56735.0</v>
       </c>
       <c r="F5" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="G5" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.0</v>
+        <v>69.0</v>
       </c>
       <c r="K5" t="n">
-        <v>376.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,34 +419,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>144.0</v>
+        <v>150.0</v>
       </c>
       <c r="E6" t="n">
-        <v>55335.0</v>
+        <v>58812.0</v>
       </c>
       <c r="F6" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="G6" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,22 +454,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>145.0</v>
+        <v>148.0</v>
       </c>
       <c r="E7" t="n">
-        <v>59410.0</v>
+        <v>60250.0</v>
       </c>
       <c r="F7" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G7" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -481,10 +478,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="K7" t="n">
-        <v>350.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,19 +489,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="E8" t="n">
-        <v>56840.0</v>
+        <v>58520.0</v>
       </c>
       <c r="F8" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G8" t="n">
         <v>29.0</v>
@@ -516,10 +513,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>57.99999999999999</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>337.0</v>
+        <v>341.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,22 +524,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>130.0</v>
+        <v>133.0</v>
       </c>
       <c r="E9" t="n">
-        <v>53200.0</v>
+        <v>54320.0</v>
       </c>
       <c r="F9" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="H9" t="n">
         <v>5.0</v>
@@ -551,10 +548,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="K9" t="n">
-        <v>330.0</v>
+        <v>339.0</v>
       </c>
     </row>
     <row r="10">
@@ -562,22 +559,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C10" t="n">
         <v>93.0</v>
       </c>
       <c r="D10" t="n">
-        <v>132.0</v>
+        <v>135.0</v>
       </c>
       <c r="E10" t="n">
-        <v>52640.0</v>
+        <v>54040.0</v>
       </c>
       <c r="F10" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G10" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="H10" t="n">
         <v>6.0</v>
@@ -586,10 +583,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K10" t="n">
-        <v>329.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="11">
@@ -597,34 +594,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>144.0</v>
+        <v>139.0</v>
       </c>
       <c r="E11" t="n">
-        <v>60200.0</v>
+        <v>54937.0</v>
       </c>
       <c r="F11" t="n">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="G11" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0</v>
+        <v>68.0</v>
       </c>
       <c r="K11" t="n">
-        <v>325.0</v>
+        <v>332.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +629,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>136.0</v>
+        <v>147.0</v>
       </c>
       <c r="E12" t="n">
-        <v>54097.0</v>
+        <v>61040.0</v>
       </c>
       <c r="F12" t="n">
-        <v>46.0</v>
+        <v>53.0</v>
       </c>
       <c r="G12" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>67.0</v>
+        <v>51.0</v>
       </c>
       <c r="K12" t="n">
-        <v>324.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,19 +664,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0</v>
+        <v>150.0</v>
       </c>
       <c r="E13" t="n">
-        <v>60200.0</v>
+        <v>61880.0</v>
       </c>
       <c r="F13" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="G13" t="n">
         <v>25.0</v>
@@ -691,10 +688,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="K13" t="n">
-        <v>322.0</v>
+        <v>326.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,19 +699,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C14" t="n">
         <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="E14" t="n">
-        <v>56291.0</v>
+        <v>57411.0</v>
       </c>
       <c r="F14" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="G14" t="n">
         <v>23.0</v>
@@ -726,10 +723,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="K14" t="n">
-        <v>291.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,19 +734,19 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="E15" t="n">
-        <v>49560.0</v>
+        <v>50680.0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G15" t="n">
         <v>30.0</v>
@@ -761,10 +758,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.0</v>
+        <v>67.0</v>
       </c>
       <c r="K15" t="n">
-        <v>285.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="16">
@@ -772,22 +769,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0</v>
+        <v>131.0</v>
       </c>
       <c r="E16" t="n">
-        <v>50680.0</v>
+        <v>52080.0</v>
       </c>
       <c r="F16" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H16" t="n">
         <v>7.0</v>
@@ -796,10 +793,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="K16" t="n">
-        <v>263.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,34 +804,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>45.0</v>
+        <v>37.0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D17" t="n">
-        <v>132.0</v>
+        <v>111.0</v>
       </c>
       <c r="E17" t="n">
-        <v>51922.0</v>
+        <v>43834.0</v>
       </c>
       <c r="F17" t="n">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
       <c r="G17" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>40.0</v>
+        <v>67.0</v>
       </c>
       <c r="K17" t="n">
-        <v>259.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +839,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>49.0</v>
+        <v>46.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.0</v>
+        <v>135.0</v>
       </c>
       <c r="E18" t="n">
-        <v>56173.0</v>
+        <v>53042.0</v>
       </c>
       <c r="F18" t="n">
-        <v>53.0</v>
+        <v>48.0</v>
       </c>
       <c r="G18" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.0</v>
+        <v>262.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,34 +874,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>108.0</v>
+        <v>82.0</v>
       </c>
       <c r="E19" t="n">
-        <v>42434.0</v>
+        <v>36120.0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,34 +909,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>27.0</v>
+        <v>50.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>79.0</v>
+        <v>149.0</v>
       </c>
       <c r="E20" t="n">
-        <v>35000.0</v>
+        <v>57293.0</v>
       </c>
       <c r="F20" t="n">
-        <v>28.0</v>
+        <v>55.0</v>
       </c>
       <c r="G20" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.0</v>
+        <v>33.0</v>
       </c>
       <c r="K20" t="n">
-        <v>251.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +944,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>140.0</v>
+        <v>143.0</v>
       </c>
       <c r="E21" t="n">
-        <v>51129.0</v>
+        <v>51915.0</v>
       </c>
       <c r="F21" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G21" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H21" t="n">
         <v>1.0</v>
@@ -971,10 +968,10 @@
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="K21" t="n">
-        <v>243.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,34 +979,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.0</v>
+        <v>60.0</v>
       </c>
       <c r="D22" t="n">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="E22" t="n">
-        <v>45640.0</v>
+        <v>43960.0</v>
       </c>
       <c r="F22" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="G22" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="K22" t="n">
-        <v>242.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,34 +1014,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>37.0</v>
+        <v>48.0</v>
       </c>
       <c r="C23" t="n">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>101.0</v>
+        <v>141.0</v>
       </c>
       <c r="E23" t="n">
-        <v>42840.0</v>
+        <v>54623.0</v>
       </c>
       <c r="F23" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J23" t="n">
         <v>40.0</v>
       </c>
-      <c r="G23" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>62.0</v>
-      </c>
       <c r="K23" t="n">
-        <v>225.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,31 +1049,31 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>47.0</v>
+        <v>35.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>138.0</v>
+        <v>96.0</v>
       </c>
       <c r="E24" t="n">
-        <v>53503.0</v>
+        <v>39760.0</v>
       </c>
       <c r="F24" t="n">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
       <c r="G24" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.0</v>
+        <v>64.0</v>
       </c>
       <c r="K24" t="n">
         <v>215.0</v>
@@ -1087,7 +1084,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
@@ -1096,25 +1093,25 @@
         <v>93.0</v>
       </c>
       <c r="E25" t="n">
-        <v>38360.0</v>
+        <v>38920.0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="G25" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="H25" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>66.0</v>
+        <v>42.0</v>
       </c>
       <c r="K25" t="n">
-        <v>212.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,34 +1119,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>90.0</v>
+        <v>123.0</v>
       </c>
       <c r="E26" t="n">
-        <v>38080.0</v>
+        <v>52360.0</v>
       </c>
       <c r="F26" t="n">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="G26" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="K26" t="n">
-        <v>194.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,25 +1154,25 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>44.0</v>
+        <v>30.0</v>
       </c>
       <c r="C27" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>120.0</v>
+        <v>90.0</v>
       </c>
       <c r="E27" t="n">
-        <v>50960.0</v>
+        <v>39585.0</v>
       </c>
       <c r="F27" t="n">
-        <v>45.0</v>
+        <v>33.0</v>
       </c>
       <c r="G27" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="H27" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -1184,7 +1181,7 @@
         <v>36.0</v>
       </c>
       <c r="K27" t="n">
-        <v>185.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="28">
@@ -1219,7 +1216,7 @@
         <v>53.0</v>
       </c>
       <c r="K28" t="n">
-        <v>182.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,7 +1227,7 @@
         <v>47.0</v>
       </c>
       <c r="C29" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D29" t="n">
         <v>129.0</v>
@@ -1262,34 +1259,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>29.0</v>
+        <v>37.0</v>
       </c>
       <c r="C30" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>87.0</v>
+        <v>99.0</v>
       </c>
       <c r="E30" t="n">
-        <v>37905.0</v>
+        <v>41072.0</v>
       </c>
       <c r="F30" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="G30" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.0</v>
+        <v>51.0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,34 +1294,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D31" t="n">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="E31" t="n">
-        <v>39672.0</v>
+        <v>38342.0</v>
       </c>
       <c r="F31" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="K31" t="n">
-        <v>149.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,34 +1329,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>33.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n">
-        <v>87.0</v>
+        <v>73.0</v>
       </c>
       <c r="D32" t="n">
-        <v>97.0</v>
+        <v>60.0</v>
       </c>
       <c r="E32" t="n">
-        <v>38342.0</v>
+        <v>25200.0</v>
       </c>
       <c r="F32" t="n">
-        <v>33.0</v>
+        <v>21.0</v>
       </c>
       <c r="G32" t="n">
         <v>16.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="I32" t="n">
         <v>2.0</v>
       </c>
       <c r="J32" t="n">
-        <v>48.0</v>
+        <v>76.0</v>
       </c>
       <c r="K32" t="n">
-        <v>147.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,7 +1367,7 @@
         <v>25.0</v>
       </c>
       <c r="C33" t="n">
-        <v>53.0</v>
+        <v>47.0</v>
       </c>
       <c r="D33" t="n">
         <v>68.0</v>
@@ -1394,7 +1391,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>129.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="34">
@@ -1402,34 +1399,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="C34" t="n">
-        <v>73.0</v>
+        <v>93.0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.0</v>
+        <v>39.0</v>
       </c>
       <c r="E34" t="n">
-        <v>23800.0</v>
+        <v>16530.0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.0</v>
+        <v>71.0</v>
       </c>
       <c r="K34" t="n">
-        <v>126.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,34 +1434,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="C35" t="n">
-        <v>92.0</v>
+        <v>87.0</v>
       </c>
       <c r="D35" t="n">
-        <v>36.0</v>
+        <v>79.0</v>
       </c>
       <c r="E35" t="n">
-        <v>15481.0</v>
+        <v>33320.0</v>
       </c>
       <c r="F35" t="n">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="G35" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>77.0</v>
+        <v>22.0</v>
       </c>
       <c r="K35" t="n">
-        <v>114.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,34 +1469,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>26.0</v>
+        <v>35.0</v>
       </c>
       <c r="C36" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D36" t="n">
-        <v>76.0</v>
+        <v>97.0</v>
       </c>
       <c r="E36" t="n">
-        <v>32200.0</v>
+        <v>37419.0</v>
       </c>
       <c r="F36" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="K36" t="n">
-        <v>113.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="37">
@@ -1507,34 +1504,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>34.0</v>
+        <v>16.0</v>
       </c>
       <c r="C37" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D37" t="n">
-        <v>94.0</v>
+        <v>48.0</v>
       </c>
       <c r="E37" t="n">
-        <v>36019.0</v>
+        <v>19035.0</v>
       </c>
       <c r="F37" t="n">
-        <v>36.0</v>
+        <v>16.0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.0</v>
+        <v>50.0</v>
       </c>
       <c r="K37" t="n">
-        <v>105.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="38">
@@ -1542,34 +1539,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="C38" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D38" t="n">
-        <v>45.0</v>
+        <v>38.0</v>
       </c>
       <c r="E38" t="n">
-        <v>18195.0</v>
+        <v>13554.0</v>
       </c>
       <c r="F38" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
       <c r="K38" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="39">
@@ -1577,104 +1574,104 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C39" t="n">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
       <c r="D39" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="E39" t="n">
-        <v>12505.0</v>
+        <v>9567.0</v>
       </c>
       <c r="F39" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="K39" t="n">
-        <v>57.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C40" t="n">
-        <v>83.0</v>
+        <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="E40" t="n">
-        <v>8832.0</v>
+        <v>3080.0</v>
       </c>
       <c r="F40" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="n">
         <v>1.0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="K40" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B41" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>18451.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I41" t="n">
         <v>1.0</v>
       </c>
-      <c r="C41" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1680.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J41" t="n">
-        <v>100.0</v>
+        <v>16.0</v>
       </c>
       <c r="K41" t="n">
-        <v>32.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="42">
@@ -1682,34 +1679,32 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C42" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="D42" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="E42" t="n">
-        <v>4480.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F42" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>43.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="J42"/>
       <c r="K42" t="n">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="43">
@@ -1742,7 +1737,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="44">
@@ -1750,34 +1745,34 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="n">
-        <v>67.0</v>
+        <v>50.0</v>
       </c>
       <c r="D44" t="n">
-        <v>47.0</v>
+        <v>14.0</v>
       </c>
       <c r="E44" t="n">
-        <v>18451.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F44" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H44" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.0</v>
+        <v>50.0</v>
       </c>
       <c r="K44" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="45">
@@ -1785,16 +1780,16 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1120.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1803,14 +1798,14 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -1818,34 +1813,34 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="C46" t="n">
-        <v>56.0</v>
+        <v>93.0</v>
       </c>
       <c r="D46" t="n">
-        <v>14.0</v>
+        <v>81.0</v>
       </c>
       <c r="E46" t="n">
-        <v>5880.0</v>
+        <v>30315.0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -1878,7 +1873,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -1919,34 +1914,34 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="C49" t="n">
-        <v>93.0</v>
+        <v>27.0</v>
       </c>
       <c r="D49" t="n">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
       <c r="E49" t="n">
-        <v>29003.0</v>
+        <v>20926.0</v>
       </c>
       <c r="F49" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="G49" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H49" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="I49" t="n">
         <v>3.0</v>
       </c>
       <c r="J49" t="n">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0</v>
+        <v>-13.0</v>
       </c>
     </row>
     <row r="50">
@@ -1954,69 +1949,34 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>26.0</v>
+        <v>44.0</v>
       </c>
       <c r="C50" t="n">
-        <v>27.0</v>
+        <v>93.0</v>
       </c>
       <c r="D50" t="n">
-        <v>73.0</v>
+        <v>121.0</v>
       </c>
       <c r="E50" t="n">
-        <v>20926.0</v>
+        <v>50400.0</v>
       </c>
       <c r="F50" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="G50" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="H50" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I50" t="n">
         <v>5.0</v>
       </c>
-      <c r="I50" t="n">
-        <v>3.0</v>
-      </c>
       <c r="J50" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-10.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>49560.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-140.0</v>
+        <v>-138.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -149,16 +149,19 @@
     <t>hugo</t>
   </si>
   <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
     <t>rei da guerra</t>
   </si>
   <si>
     <t>president</t>
+  </si>
+  <si>
+    <t>Maurogamer</t>
   </si>
   <si>
     <t>Jonas 705</t>
@@ -1006,7 +1009,7 @@
         <v>63.0</v>
       </c>
       <c r="K22" t="n">
-        <v>234.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="23">
@@ -1469,34 +1472,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
       <c r="C36" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D36" t="n">
-        <v>97.0</v>
+        <v>48.0</v>
       </c>
       <c r="E36" t="n">
-        <v>37419.0</v>
+        <v>19035.0</v>
       </c>
       <c r="F36" t="n">
-        <v>37.0</v>
+        <v>16.0</v>
       </c>
       <c r="G36" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H36" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>19.0</v>
+        <v>50.0</v>
       </c>
       <c r="K36" t="n">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="37">
@@ -1504,34 +1507,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>16.0</v>
+        <v>35.0</v>
       </c>
       <c r="C37" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.0</v>
+        <v>97.0</v>
       </c>
       <c r="E37" t="n">
-        <v>19035.0</v>
+        <v>37419.0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.0</v>
+        <v>37.0</v>
       </c>
       <c r="G37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H37" t="n">
         <v>8.0</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>50.0</v>
+        <v>19.0</v>
       </c>
       <c r="K37" t="n">
-        <v>108.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="38">
@@ -1566,7 +1569,7 @@
         <v>21.0</v>
       </c>
       <c r="K38" t="n">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="39">
@@ -1644,32 +1647,30 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>67.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>18451.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>16.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J41"/>
       <c r="K41" t="n">
         <v>19.0</v>
       </c>
@@ -1679,32 +1680,34 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="C42" t="n">
-        <v>25.0</v>
+        <v>67.0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.0</v>
+        <v>47.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1120.0</v>
+        <v>18451.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
       </c>
-      <c r="J42"/>
+      <c r="J42" t="n">
+        <v>16.0</v>
+      </c>
       <c r="K42" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="43">
@@ -1712,16 +1715,16 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1730,14 +1733,14 @@
         <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
@@ -1745,34 +1748,32 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>5880.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>50.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="45">
@@ -1780,32 +1781,34 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J45"/>
+        <v>1.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>50.0</v>
+      </c>
       <c r="K45" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
@@ -1813,34 +1816,32 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>30315.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>33.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J46"/>
       <c r="K46" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
@@ -1848,32 +1849,34 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>30315.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J47"/>
+        <v>3.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>33.0</v>
+      </c>
       <c r="K47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -1906,7 +1909,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1914,34 +1917,32 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n">
-        <v>20926.0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>17.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J49"/>
       <c r="K49" t="n">
-        <v>-13.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1949,33 +1950,68 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20926.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-13.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="n">
         <v>44.0</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>93.0</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>121.0</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E51" t="n">
         <v>50400.0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F51" t="n">
         <v>39.0</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G51" t="n">
         <v>12.0</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>11.0</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>5.0</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J51" t="n">
         <v>31.0</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K51" t="n">
         <v>-138.0</v>
       </c>
     </row>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -50,39 +50,39 @@
     <t>bascenso</t>
   </si>
   <si>
+    <t>thunder</t>
+  </si>
+  <si>
     <t>☆ Di♡g♡</t>
   </si>
   <si>
-    <t>thunder</t>
+    <t>Inferno</t>
   </si>
   <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>Inferno</t>
-  </si>
-  <si>
     <t>snowkids</t>
   </si>
   <si>
+    <t>leal</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
     <t>Madnasty</t>
   </si>
   <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
-    <t>leal</t>
-  </si>
-  <si>
-    <t>KryptoNnN</t>
+    <t>Goblyn</t>
   </si>
   <si>
     <t>zau</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
     <t>Tio João</t>
   </si>
   <si>
@@ -119,12 +119,12 @@
     <t>Matilde Pires</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
     <t>Jonix21</t>
   </si>
   <si>
@@ -134,24 +134,24 @@
     <t>Sergas</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Wut</t>
+  </si>
+  <si>
+    <t>batata</t>
+  </si>
+  <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>batata</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
     <t>fglopes</t>
   </si>
   <si>
@@ -161,9 +161,6 @@
     <t>president</t>
   </si>
   <si>
-    <t>Maurogamer</t>
-  </si>
-  <si>
     <t>Jonas 705</t>
   </si>
   <si>
@@ -179,19 +176,16 @@
     <t>SUPERCELL</t>
   </si>
   <si>
+    <t>Paula Dentro ⚠</t>
+  </si>
+  <si>
+    <t>Diogo Assunção</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
     <t>Sra. Clash</t>
-  </si>
-  <si>
-    <t>Paula Dentro ⚠</t>
-  </si>
-  <si>
-    <t>Diogo Assunção</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>Welton</t>
   </si>
 </sst>
 </file>
@@ -282,22 +276,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C2" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D2" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="E2" t="n">
-        <v>60480.0</v>
+        <v>62160.0</v>
       </c>
       <c r="F2" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -309,7 +303,7 @@
         <v>83.0</v>
       </c>
       <c r="K2" t="n">
-        <v>452.0</v>
+        <v>462.0</v>
       </c>
     </row>
     <row r="3">
@@ -317,19 +311,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="C3" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.0</v>
+        <v>156.0</v>
       </c>
       <c r="E3" t="n">
-        <v>57680.0</v>
+        <v>61040.0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.0</v>
+        <v>57.0</v>
       </c>
       <c r="G3" t="n">
         <v>38.0</v>
@@ -341,10 +335,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="K3" t="n">
-        <v>400.0</v>
+        <v>417.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,22 +346,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C4" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="E4" t="n">
-        <v>58520.0</v>
+        <v>60480.0</v>
       </c>
       <c r="F4" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="G4" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -376,10 +370,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="K4" t="n">
-        <v>398.0</v>
+        <v>406.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,34 +381,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>147.0</v>
+        <v>156.0</v>
       </c>
       <c r="E5" t="n">
-        <v>56735.0</v>
+        <v>61052.0</v>
       </c>
       <c r="F5" t="n">
         <v>51.0</v>
       </c>
       <c r="G5" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.0</v>
+        <v>75.0</v>
       </c>
       <c r="K5" t="n">
-        <v>383.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,19 +416,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="E6" t="n">
-        <v>58812.0</v>
+        <v>58695.0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="G6" t="n">
         <v>36.0</v>
@@ -443,13 +437,13 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="K6" t="n">
-        <v>378.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,22 +451,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.0</v>
+        <v>154.0</v>
       </c>
       <c r="E7" t="n">
-        <v>60250.0</v>
+        <v>62490.0</v>
       </c>
       <c r="F7" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="G7" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -484,7 +478,7 @@
         <v>61.0</v>
       </c>
       <c r="K7" t="n">
-        <v>358.0</v>
+        <v>376.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,34 +486,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C8" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D8" t="n">
-        <v>144.0</v>
+        <v>141.0</v>
       </c>
       <c r="E8" t="n">
-        <v>58520.0</v>
+        <v>56840.0</v>
       </c>
       <c r="F8" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.99999999999999</v>
+        <v>69.0</v>
       </c>
       <c r="K8" t="n">
-        <v>341.0</v>
+        <v>357.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,34 +521,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>133.0</v>
+        <v>145.0</v>
       </c>
       <c r="E9" t="n">
-        <v>54320.0</v>
+        <v>57457.0</v>
       </c>
       <c r="F9" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="G9" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.0</v>
+        <v>69.0</v>
       </c>
       <c r="K9" t="n">
-        <v>339.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="10">
@@ -562,34 +556,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C10" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.0</v>
+        <v>139.0</v>
       </c>
       <c r="E10" t="n">
-        <v>54040.0</v>
+        <v>56840.0</v>
       </c>
       <c r="F10" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="G10" t="n">
         <v>32.0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>68.0</v>
+        <v>62.0</v>
       </c>
       <c r="K10" t="n">
-        <v>338.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="11">
@@ -597,34 +591,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>139.0</v>
+        <v>150.0</v>
       </c>
       <c r="E11" t="n">
-        <v>54937.0</v>
+        <v>61040.0</v>
       </c>
       <c r="F11" t="n">
-        <v>47.0</v>
+        <v>53.0</v>
       </c>
       <c r="G11" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>68.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>332.0</v>
+        <v>346.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +626,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.0</v>
+        <v>156.0</v>
       </c>
       <c r="E12" t="n">
-        <v>61040.0</v>
+        <v>64120.0</v>
       </c>
       <c r="F12" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="G12" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0</v>
+        <v>46.0</v>
       </c>
       <c r="K12" t="n">
-        <v>327.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,10 +661,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C13" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D13" t="n">
         <v>150.0</v>
@@ -682,19 +676,19 @@
         <v>54.0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.0</v>
+        <v>52.0</v>
       </c>
       <c r="K13" t="n">
-        <v>326.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,19 +696,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="C14" t="n">
         <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>144.0</v>
+        <v>150.0</v>
       </c>
       <c r="E14" t="n">
-        <v>57411.0</v>
+        <v>59091.0</v>
       </c>
       <c r="F14" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="G14" t="n">
         <v>23.0</v>
@@ -726,10 +720,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="K14" t="n">
-        <v>294.0</v>
+        <v>298.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,34 +731,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>123.0</v>
+        <v>127.0</v>
       </c>
       <c r="E15" t="n">
-        <v>50680.0</v>
+        <v>52080.0</v>
       </c>
       <c r="F15" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="G15" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="H15" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>67.0</v>
+        <v>66.0</v>
       </c>
       <c r="K15" t="n">
-        <v>287.0</v>
+        <v>284.0</v>
       </c>
     </row>
     <row r="16">
@@ -772,19 +766,19 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>131.0</v>
+        <v>137.0</v>
       </c>
       <c r="E16" t="n">
-        <v>52080.0</v>
+        <v>54600.0</v>
       </c>
       <c r="F16" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="G16" t="n">
         <v>23.0</v>
@@ -796,10 +790,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="K16" t="n">
-        <v>273.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,22 +801,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C17" t="n">
-        <v>73.0</v>
+        <v>87.0</v>
       </c>
       <c r="D17" t="n">
-        <v>111.0</v>
+        <v>117.0</v>
       </c>
       <c r="E17" t="n">
-        <v>43834.0</v>
+        <v>47194.0</v>
       </c>
       <c r="F17" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="G17" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
@@ -831,10 +825,10 @@
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>67.0</v>
+        <v>66.0</v>
       </c>
       <c r="K17" t="n">
-        <v>263.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,22 +836,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>135.0</v>
+        <v>141.0</v>
       </c>
       <c r="E18" t="n">
-        <v>53042.0</v>
+        <v>55842.0</v>
       </c>
       <c r="F18" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="G18" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H18" t="n">
         <v>3.0</v>
@@ -869,7 +863,7 @@
         <v>40.0</v>
       </c>
       <c r="K18" t="n">
-        <v>262.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,22 +871,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
       <c r="E19" t="n">
-        <v>36120.0</v>
+        <v>38360.0</v>
       </c>
       <c r="F19" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="G19" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H19" t="n">
         <v>2.0</v>
@@ -901,10 +895,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="K19" t="n">
-        <v>260.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,22 +906,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>149.0</v>
+        <v>155.0</v>
       </c>
       <c r="E20" t="n">
-        <v>57293.0</v>
+        <v>59742.0</v>
       </c>
       <c r="F20" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="G20" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H20" t="n">
         <v>1.0</v>
@@ -939,7 +933,7 @@
         <v>33.0</v>
       </c>
       <c r="K20" t="n">
-        <v>259.0</v>
+        <v>271.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,19 +941,19 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>143.0</v>
+        <v>149.0</v>
       </c>
       <c r="E21" t="n">
-        <v>51915.0</v>
+        <v>53750.0</v>
       </c>
       <c r="F21" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="G21" t="n">
         <v>21.0</v>
@@ -971,10 +965,10 @@
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="K21" t="n">
-        <v>251.0</v>
+        <v>256.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,22 +976,22 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="C22" t="n">
-        <v>60.0</v>
+        <v>67.0</v>
       </c>
       <c r="D22" t="n">
-        <v>104.0</v>
+        <v>110.0</v>
       </c>
       <c r="E22" t="n">
-        <v>43960.0</v>
+        <v>45920.0</v>
       </c>
       <c r="F22" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="G22" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="H22" t="n">
         <v>10.0</v>
@@ -1006,10 +1000,10 @@
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="K22" t="n">
-        <v>233.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,22 +1011,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>141.0</v>
+        <v>147.0</v>
       </c>
       <c r="E23" t="n">
-        <v>54623.0</v>
+        <v>56583.0</v>
       </c>
       <c r="F23" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="G23" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H23" t="n">
         <v>3.0</v>
@@ -1044,7 +1038,7 @@
         <v>40.0</v>
       </c>
       <c r="K23" t="n">
-        <v>224.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,34 +1046,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>96.0</v>
+        <v>100.0</v>
       </c>
       <c r="E24" t="n">
-        <v>39760.0</v>
+        <v>41720.0</v>
       </c>
       <c r="F24" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="G24" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H24" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="K24" t="n">
-        <v>215.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,19 +1081,19 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>93.0</v>
+        <v>99.0</v>
       </c>
       <c r="E25" t="n">
-        <v>38920.0</v>
+        <v>41440.0</v>
       </c>
       <c r="F25" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="G25" t="n">
         <v>14.0</v>
@@ -1111,10 +1105,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="K25" t="n">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,34 +1116,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>45.0</v>
+        <v>32.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>123.0</v>
+        <v>96.0</v>
       </c>
       <c r="E26" t="n">
-        <v>52360.0</v>
+        <v>42385.0</v>
       </c>
       <c r="F26" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="G26" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H26" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="K26" t="n">
-        <v>188.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,34 +1151,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>30.0</v>
+        <v>47.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>90.0</v>
+        <v>129.0</v>
       </c>
       <c r="E27" t="n">
-        <v>39585.0</v>
+        <v>54320.0</v>
       </c>
       <c r="F27" t="n">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="G27" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.0</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I27" t="n">
         <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="K27" t="n">
-        <v>187.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,22 +1186,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.0</v>
+        <v>53.0</v>
       </c>
       <c r="D28" t="n">
-        <v>88.0</v>
+        <v>94.0</v>
       </c>
       <c r="E28" t="n">
-        <v>34720.0</v>
+        <v>36680.0</v>
       </c>
       <c r="F28" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="G28" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H28" t="n">
         <v>2.0</v>
@@ -1219,7 +1213,7 @@
         <v>53.0</v>
       </c>
       <c r="K28" t="n">
-        <v>180.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,34 +1221,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="C29" t="n">
         <v>87.0</v>
       </c>
       <c r="D29" t="n">
-        <v>129.0</v>
+        <v>134.0</v>
       </c>
       <c r="E29" t="n">
-        <v>52893.0</v>
+        <v>54573.0</v>
       </c>
       <c r="F29" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="G29" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H29" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="I29" t="n">
         <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="K29" t="n">
-        <v>178.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,22 +1256,22 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C30" t="n">
         <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>99.0</v>
+        <v>105.0</v>
       </c>
       <c r="E30" t="n">
-        <v>41072.0</v>
+        <v>42752.0</v>
       </c>
       <c r="F30" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="G30" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H30" t="n">
         <v>12.0</v>
@@ -1289,7 +1283,7 @@
         <v>51.0</v>
       </c>
       <c r="K30" t="n">
-        <v>159.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,34 +1291,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D31" t="n">
-        <v>97.0</v>
+        <v>85.0</v>
       </c>
       <c r="E31" t="n">
-        <v>38342.0</v>
+        <v>36680.0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="G31" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="H31" t="n">
         <v>2.0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>48.0</v>
+        <v>24.0</v>
       </c>
       <c r="K31" t="n">
-        <v>145.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,7 +1329,7 @@
         <v>22.0</v>
       </c>
       <c r="C32" t="n">
-        <v>73.0</v>
+        <v>60.0</v>
       </c>
       <c r="D32" t="n">
         <v>60.0</v>
@@ -1359,7 +1353,7 @@
         <v>76.0</v>
       </c>
       <c r="K32" t="n">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,19 +1361,19 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C33" t="n">
         <v>47.0</v>
       </c>
       <c r="D33" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="E33" t="n">
-        <v>29680.0</v>
+        <v>30800.0</v>
       </c>
       <c r="F33" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G33" t="n">
         <v>15.0</v>
@@ -1391,10 +1385,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>57.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>126.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,7 +1399,7 @@
         <v>13.0</v>
       </c>
       <c r="C34" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D34" t="n">
         <v>39.0</v>
@@ -1429,7 +1423,7 @@
         <v>71.0</v>
       </c>
       <c r="K34" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,34 +1431,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="C35" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D35" t="n">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
       <c r="E35" t="n">
-        <v>33320.0</v>
+        <v>21835.0</v>
       </c>
       <c r="F35" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="K35" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,34 +1466,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>38622.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G36" t="n">
         <v>16.0</v>
       </c>
-      <c r="C36" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="H36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J36" t="n">
         <v>48.0</v>
       </c>
-      <c r="E36" t="n">
-        <v>19035.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>50.0</v>
-      </c>
       <c r="K36" t="n">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,7 +1504,7 @@
         <v>35.0</v>
       </c>
       <c r="C37" t="n">
-        <v>80.0</v>
+        <v>67.0</v>
       </c>
       <c r="D37" t="n">
         <v>97.0</v>
@@ -1534,7 +1528,7 @@
         <v>19.0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="38">
@@ -1542,19 +1536,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C38" t="n">
         <v>80.0</v>
       </c>
       <c r="D38" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="E38" t="n">
-        <v>13554.0</v>
+        <v>15915.0</v>
       </c>
       <c r="F38" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="G38" t="n">
         <v>3.0</v>
@@ -1566,77 +1560,77 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="K38" t="n">
-        <v>59.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" t="n">
-        <v>85.0</v>
+        <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="E39" t="n">
-        <v>9567.0</v>
+        <v>5320.0</v>
       </c>
       <c r="F39" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>9.0</v>
+        <v>50.0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D40" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10547.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.0</v>
       </c>
-      <c r="E40" t="n">
-        <v>3080.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>50.0</v>
+        <v>8.0</v>
       </c>
       <c r="K40" t="n">
         <v>35.0</v>
@@ -1647,32 +1641,34 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>18451.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J41"/>
+        <v>1.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16.0</v>
+      </c>
       <c r="K41" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="42">
@@ -1680,34 +1676,32 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="C42" t="n">
-        <v>67.0</v>
+        <v>17.0</v>
       </c>
       <c r="D42" t="n">
-        <v>47.0</v>
+        <v>2.0</v>
       </c>
       <c r="E42" t="n">
-        <v>18451.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F42" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
       </c>
-      <c r="J42" t="n">
-        <v>16.0</v>
-      </c>
+      <c r="J42"/>
       <c r="K42" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="43">
@@ -1715,16 +1709,16 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1120.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1733,14 +1727,14 @@
         <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="44">
@@ -1748,32 +1742,34 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J44"/>
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>50.0</v>
+      </c>
       <c r="K44" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
@@ -1781,34 +1777,34 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="E45" t="n">
-        <v>5880.0</v>
+        <v>280.0</v>
       </c>
       <c r="F45" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H45" t="n">
         <v>2.0</v>
       </c>
-      <c r="H45" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="K45" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="46">
@@ -1841,7 +1837,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -1849,34 +1845,32 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>30315.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>33.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1884,32 +1878,34 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>21766.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J48"/>
+        <v>3.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>20.0</v>
+      </c>
       <c r="K48" t="n">
-        <v>2.0</v>
+        <v>-8.0</v>
       </c>
     </row>
     <row r="49">
@@ -1917,102 +1913,34 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>31364.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J49"/>
+        <v>3.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>31.0</v>
+      </c>
       <c r="K49" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>20926.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-13.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>50400.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-138.0</v>
+        <v>-23.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -65,18 +65,18 @@
     <t>snowkids</t>
   </si>
   <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
@@ -92,100 +92,106 @@
     <t>pjp</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>carmen</t>
-  </si>
-  <si>
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>Savler</t>
+  </si>
+  <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
+    <t>qzt</t>
+  </si>
+  <si>
+    <t>filipe</t>
+  </si>
+  <si>
+    <t>Jonix21</t>
+  </si>
+  <si>
     <t>metamox</t>
   </si>
   <si>
-    <t>Savler</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>LCINORC</t>
-  </si>
-  <si>
-    <t>filipe</t>
-  </si>
-  <si>
-    <t>Jonix21</t>
-  </si>
-  <si>
-    <t>qzt</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
     <t>Wut</t>
   </si>
   <si>
+    <t>fglopes</t>
+  </si>
+  <si>
     <t>batata</t>
   </si>
   <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
     <t>supercell</t>
   </si>
   <si>
-    <t>fglopes</t>
-  </si>
-  <si>
     <t>rei da guerra</t>
   </si>
   <si>
     <t>president</t>
   </si>
   <si>
+    <t>Marcelino</t>
+  </si>
+  <si>
+    <t>MIGUEL O PIOR</t>
+  </si>
+  <si>
+    <t>Pedpedy</t>
+  </si>
+  <si>
     <t>Jonas 705</t>
   </si>
   <si>
     <t>jnuno15</t>
   </si>
   <si>
-    <t>Nandes_13</t>
+    <t>SUPERCELL</t>
   </si>
   <si>
     <t>diogo</t>
   </si>
   <si>
-    <t>SUPERCELL</t>
-  </si>
-  <si>
     <t>Paula Dentro ⚠</t>
   </si>
   <si>
     <t>Diogo Assunção</t>
   </si>
   <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
     <t>Manu</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
   </si>
 </sst>
 </file>
@@ -276,34 +282,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="C2" t="n">
         <v>93.0</v>
       </c>
       <c r="D2" t="n">
-        <v>153.0</v>
+        <v>161.0</v>
       </c>
       <c r="E2" t="n">
-        <v>62160.0</v>
+        <v>65309.0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.0</v>
+        <v>80.0</v>
       </c>
       <c r="K2" t="n">
-        <v>462.0</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,22 +317,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>156.0</v>
+        <v>165.0</v>
       </c>
       <c r="E3" t="n">
-        <v>61040.0</v>
+        <v>64960.0</v>
       </c>
       <c r="F3" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="G3" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -335,10 +341,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K3" t="n">
-        <v>417.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="4">
@@ -346,22 +352,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="C4" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D4" t="n">
-        <v>153.0</v>
+        <v>159.0</v>
       </c>
       <c r="E4" t="n">
-        <v>60480.0</v>
+        <v>63280.0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="G4" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -373,7 +379,7 @@
         <v>70.0</v>
       </c>
       <c r="K4" t="n">
-        <v>406.0</v>
+        <v>419.0</v>
       </c>
     </row>
     <row r="5">
@@ -381,22 +387,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>156.0</v>
+        <v>165.0</v>
       </c>
       <c r="E5" t="n">
-        <v>61052.0</v>
+        <v>64692.0</v>
       </c>
       <c r="F5" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="G5" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -405,10 +411,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.0</v>
+        <v>72.0</v>
       </c>
       <c r="K5" t="n">
-        <v>396.0</v>
+        <v>411.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,19 +422,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>153.0</v>
+        <v>162.0</v>
       </c>
       <c r="E6" t="n">
-        <v>58695.0</v>
+        <v>62055.0</v>
       </c>
       <c r="F6" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="G6" t="n">
         <v>36.0</v>
@@ -440,10 +446,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="K6" t="n">
-        <v>393.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="7">
@@ -451,19 +457,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0</v>
+        <v>163.0</v>
       </c>
       <c r="E7" t="n">
-        <v>62490.0</v>
+        <v>65850.0</v>
       </c>
       <c r="F7" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="G7" t="n">
         <v>33.0</v>
@@ -475,10 +481,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>61.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>376.0</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="8">
@@ -486,34 +492,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="C8" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>141.0</v>
+        <v>148.0</v>
       </c>
       <c r="E8" t="n">
-        <v>56840.0</v>
+        <v>59920.0</v>
       </c>
       <c r="F8" t="n">
-        <v>49.0</v>
+        <v>55.0</v>
       </c>
       <c r="G8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>69.0</v>
+        <v>64.0</v>
       </c>
       <c r="K8" t="n">
-        <v>357.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="9">
@@ -521,34 +527,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>145.0</v>
+        <v>159.0</v>
       </c>
       <c r="E9" t="n">
-        <v>57457.0</v>
+        <v>64120.0</v>
       </c>
       <c r="F9" t="n">
-        <v>49.0</v>
+        <v>56.0</v>
       </c>
       <c r="G9" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>351.0</v>
+        <v>373.0</v>
       </c>
     </row>
     <row r="10">
@@ -556,34 +562,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>139.0</v>
+        <v>152.0</v>
       </c>
       <c r="E10" t="n">
-        <v>56840.0</v>
+        <v>60817.0</v>
       </c>
       <c r="F10" t="n">
         <v>52.0</v>
       </c>
       <c r="G10" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>62.0</v>
+        <v>69.0</v>
       </c>
       <c r="K10" t="n">
-        <v>351.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="11">
@@ -591,34 +597,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D11" t="n">
         <v>150.0</v>
       </c>
       <c r="E11" t="n">
-        <v>61040.0</v>
+        <v>60200.0</v>
       </c>
       <c r="F11" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="G11" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.00000000000001</v>
+        <v>67.0</v>
       </c>
       <c r="K11" t="n">
-        <v>346.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="12">
@@ -626,22 +632,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>156.0</v>
+        <v>165.0</v>
       </c>
       <c r="E12" t="n">
-        <v>64120.0</v>
+        <v>67480.0</v>
       </c>
       <c r="F12" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="G12" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
@@ -653,7 +659,7 @@
         <v>46.0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="13">
@@ -661,19 +667,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C13" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D13" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="E13" t="n">
-        <v>61880.0</v>
+        <v>63000.0</v>
       </c>
       <c r="F13" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G13" t="n">
         <v>28.0</v>
@@ -685,10 +691,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>335.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="14">
@@ -696,22 +702,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="C14" t="n">
         <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>150.0</v>
+        <v>159.0</v>
       </c>
       <c r="E14" t="n">
-        <v>59091.0</v>
+        <v>62731.0</v>
       </c>
       <c r="F14" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="G14" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -720,10 +726,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="K14" t="n">
-        <v>298.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="15">
@@ -731,22 +737,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="C15" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D15" t="n">
-        <v>127.0</v>
+        <v>133.0</v>
       </c>
       <c r="E15" t="n">
-        <v>52080.0</v>
+        <v>54880.0</v>
       </c>
       <c r="F15" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="G15" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="H15" t="n">
         <v>11.0</v>
@@ -755,10 +761,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="K15" t="n">
-        <v>284.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="16">
@@ -766,34 +772,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="C16" t="n">
         <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="E16" t="n">
-        <v>54600.0</v>
+        <v>57960.0</v>
       </c>
       <c r="F16" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="G16" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="H16" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="K16" t="n">
-        <v>278.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="17">
@@ -801,34 +807,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>39.0</v>
+        <v>51.0</v>
       </c>
       <c r="C17" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="E17" t="n">
-        <v>47194.0</v>
+        <v>60234.0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.0</v>
+        <v>53.0</v>
       </c>
       <c r="G17" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>66.0</v>
+        <v>40.0</v>
       </c>
       <c r="K17" t="n">
-        <v>276.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="18">
@@ -836,34 +842,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>48.0</v>
+        <v>33.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>141.0</v>
+        <v>97.0</v>
       </c>
       <c r="E18" t="n">
-        <v>55842.0</v>
+        <v>41720.0</v>
       </c>
       <c r="F18" t="n">
-        <v>50.0</v>
+        <v>34.0</v>
       </c>
       <c r="G18" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>40.0</v>
+        <v>68.0</v>
       </c>
       <c r="K18" t="n">
-        <v>274.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="19">
@@ -871,34 +877,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>30.0</v>
+        <v>53.0</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>88.0</v>
+        <v>158.0</v>
       </c>
       <c r="E19" t="n">
-        <v>38360.0</v>
+        <v>56634.0</v>
       </c>
       <c r="F19" t="n">
-        <v>31.0</v>
+        <v>55.0</v>
       </c>
       <c r="G19" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>71.0</v>
+        <v>44.0</v>
       </c>
       <c r="K19" t="n">
-        <v>272.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="20">
@@ -906,34 +912,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="C20" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D20" t="n">
-        <v>155.0</v>
+        <v>126.0</v>
       </c>
       <c r="E20" t="n">
-        <v>59742.0</v>
+        <v>50274.0</v>
       </c>
       <c r="F20" t="n">
-        <v>57.0</v>
+        <v>40.0</v>
       </c>
       <c r="G20" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J20" t="n">
-        <v>33.0</v>
+        <v>68.0</v>
       </c>
       <c r="K20" t="n">
-        <v>271.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="21">
@@ -941,34 +947,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>149.0</v>
+        <v>161.0</v>
       </c>
       <c r="E21" t="n">
-        <v>53750.0</v>
+        <v>62542.0</v>
       </c>
       <c r="F21" t="n">
-        <v>52.0</v>
+        <v>59.0</v>
       </c>
       <c r="G21" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="H21" t="n">
         <v>1.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="K21" t="n">
-        <v>256.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="22">
@@ -976,34 +982,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="C22" t="n">
         <v>67.0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0</v>
+        <v>118.0</v>
       </c>
       <c r="E22" t="n">
-        <v>45920.0</v>
+        <v>49560.0</v>
       </c>
       <c r="F22" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="G22" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H22" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.0</v>
+        <v>63.0</v>
       </c>
       <c r="K22" t="n">
-        <v>251.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="23">
@@ -1011,34 +1017,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>50.0</v>
+        <v>36.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>147.0</v>
+        <v>108.0</v>
       </c>
       <c r="E23" t="n">
-        <v>56583.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F23" t="n">
-        <v>50.0</v>
+        <v>38.0</v>
       </c>
       <c r="G23" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="K23" t="n">
-        <v>235.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="24">
@@ -1046,22 +1052,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>100.0</v>
+        <v>109.0</v>
       </c>
       <c r="E24" t="n">
-        <v>41720.0</v>
+        <v>45640.0</v>
       </c>
       <c r="F24" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="G24" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H24" t="n">
         <v>11.0</v>
@@ -1070,10 +1076,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="25">
@@ -1081,22 +1087,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>99.0</v>
+        <v>105.0</v>
       </c>
       <c r="E25" t="n">
-        <v>41440.0</v>
+        <v>46305.0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
@@ -1105,10 +1111,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="K25" t="n">
-        <v>208.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="26">
@@ -1116,34 +1122,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>32.0</v>
+        <v>52.0</v>
       </c>
       <c r="C26" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D26" t="n">
-        <v>96.0</v>
+        <v>143.0</v>
       </c>
       <c r="E26" t="n">
-        <v>42385.0</v>
+        <v>58213.0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.0</v>
+        <v>54.0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="K26" t="n">
-        <v>206.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="27">
@@ -1151,22 +1157,22 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>129.0</v>
+        <v>138.0</v>
       </c>
       <c r="E27" t="n">
-        <v>54320.0</v>
+        <v>57960.0</v>
       </c>
       <c r="F27" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="G27" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H27" t="n">
         <v>12.0</v>
@@ -1178,7 +1184,7 @@
         <v>35.0</v>
       </c>
       <c r="K27" t="n">
-        <v>199.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="28">
@@ -1186,22 +1192,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="C28" t="n">
-        <v>53.0</v>
+        <v>73.0</v>
       </c>
       <c r="D28" t="n">
-        <v>94.0</v>
+        <v>103.0</v>
       </c>
       <c r="E28" t="n">
-        <v>36680.0</v>
+        <v>40040.0</v>
       </c>
       <c r="F28" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H28" t="n">
         <v>2.0</v>
@@ -1210,10 +1216,10 @@
         <v>1.0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="K28" t="n">
-        <v>191.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="29">
@@ -1221,16 +1227,16 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="C29" t="n">
         <v>87.0</v>
       </c>
       <c r="D29" t="n">
-        <v>134.0</v>
+        <v>150.0</v>
       </c>
       <c r="E29" t="n">
-        <v>54573.0</v>
+        <v>57983.0</v>
       </c>
       <c r="F29" t="n">
         <v>50.0</v>
@@ -1239,16 +1245,16 @@
         <v>20.0</v>
       </c>
       <c r="H29" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J29" t="n">
         <v>40.0</v>
       </c>
       <c r="K29" t="n">
-        <v>187.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="30">
@@ -1256,22 +1262,22 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="C30" t="n">
         <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>105.0</v>
+        <v>114.0</v>
       </c>
       <c r="E30" t="n">
-        <v>42752.0</v>
+        <v>47512.0</v>
       </c>
       <c r="F30" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="G30" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H30" t="n">
         <v>12.0</v>
@@ -1280,10 +1286,10 @@
         <v>1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="K30" t="n">
-        <v>169.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="31">
@@ -1291,22 +1297,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>85.0</v>
+        <v>94.0</v>
       </c>
       <c r="E31" t="n">
-        <v>36680.0</v>
+        <v>40320.0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H31" t="n">
         <v>2.0</v>
@@ -1315,10 +1321,10 @@
         <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,34 +1332,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C32" t="n">
-        <v>60.0</v>
+        <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="E32" t="n">
-        <v>25200.0</v>
+        <v>26315.0</v>
       </c>
       <c r="F32" t="n">
         <v>21.0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>76.0</v>
+        <v>48.0</v>
       </c>
       <c r="K32" t="n">
-        <v>128.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="33">
@@ -1361,34 +1367,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="C33" t="n">
-        <v>47.0</v>
+        <v>53.0</v>
       </c>
       <c r="D33" t="n">
-        <v>71.0</v>
+        <v>65.0</v>
       </c>
       <c r="E33" t="n">
-        <v>30800.0</v>
+        <v>27440.0</v>
       </c>
       <c r="F33" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="G33" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="H33" t="n">
         <v>7.0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J33" t="n">
-        <v>56.00000000000001</v>
+        <v>74.0</v>
       </c>
       <c r="K33" t="n">
-        <v>125.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="34">
@@ -1396,31 +1402,31 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="C34" t="n">
-        <v>87.0</v>
+        <v>40.0</v>
       </c>
       <c r="D34" t="n">
-        <v>39.0</v>
+        <v>71.0</v>
       </c>
       <c r="E34" t="n">
-        <v>16530.0</v>
+        <v>30800.0</v>
       </c>
       <c r="F34" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K34" t="n">
         <v>115.0</v>
@@ -1431,34 +1437,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>40779.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
         <v>18.0</v>
       </c>
-      <c r="C35" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>21835.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>44.0</v>
-      </c>
       <c r="K35" t="n">
-        <v>115.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="36">
@@ -1466,34 +1472,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="C36" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="D36" t="n">
-        <v>98.0</v>
+        <v>39.0</v>
       </c>
       <c r="E36" t="n">
-        <v>38622.0</v>
+        <v>16530.0</v>
       </c>
       <c r="F36" t="n">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="G36" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="H36" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>48.0</v>
+        <v>71.0</v>
       </c>
       <c r="K36" t="n">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="37">
@@ -1501,34 +1507,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0</v>
+        <v>53.0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="E37" t="n">
-        <v>37419.0</v>
+        <v>38622.0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.0</v>
+        <v>48.0</v>
       </c>
       <c r="K37" t="n">
-        <v>104.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1545,7 @@
         <v>15.0</v>
       </c>
       <c r="C38" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="D38" t="n">
         <v>44.0</v>
@@ -1563,27 +1569,27 @@
         <v>18.0</v>
       </c>
       <c r="K38" t="n">
-        <v>65.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C39" t="n">
         <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="E39" t="n">
-        <v>5320.0</v>
+        <v>8960.0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G39" t="n">
         <v>2.0</v>
@@ -1595,10 +1601,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>50.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>46.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="40">
@@ -1606,19 +1612,19 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="C40" t="n">
         <v>87.0</v>
       </c>
       <c r="D40" t="n">
-        <v>33.0</v>
+        <v>42.0</v>
       </c>
       <c r="E40" t="n">
-        <v>10547.0</v>
+        <v>14817.0</v>
       </c>
       <c r="F40" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G40" t="n">
         <v>1.0</v>
@@ -1630,10 +1636,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="K40" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="41">
@@ -1641,34 +1647,34 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>60.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D41" t="n">
-        <v>47.0</v>
+        <v>3.0</v>
       </c>
       <c r="E41" t="n">
-        <v>18451.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F41" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>16.0</v>
+        <v>100.0</v>
       </c>
       <c r="K41" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="42">
@@ -1676,16 +1682,16 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1120.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -1694,14 +1700,14 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="43">
@@ -1742,34 +1748,34 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="C44" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="D44" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="E44" t="n">
-        <v>5880.0</v>
+        <v>18451.0</v>
       </c>
       <c r="F44" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.0</v>
+        <v>16.0</v>
       </c>
       <c r="K44" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="45">
@@ -1780,31 +1786,29 @@
         <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>100.0</v>
+        <v>11.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E45" t="n">
-        <v>280.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>100.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="J45"/>
       <c r="K45" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
@@ -1812,32 +1816,34 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>280.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
-      <c r="J46"/>
+      <c r="J46" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K46" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="47">
@@ -1845,32 +1851,34 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J47"/>
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>50.0</v>
+      </c>
       <c r="K47" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -1878,34 +1886,32 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>76.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>21766.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>20.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J48"/>
       <c r="K48" t="n">
-        <v>-8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1913,34 +1919,102 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C50" t="n">
         <v>100.0</v>
       </c>
-      <c r="D49" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>31364.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="D50" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>34163.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I50" t="n">
         <v>3.0</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J50" t="n">
         <v>31.0</v>
       </c>
-      <c r="K49" t="n">
-        <v>-23.0</v>
+      <c r="K50" t="n">
+        <v>-31.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25405.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-236.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -65,39 +65,39 @@
     <t>snowkids</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>King Bonixe</t>
   </si>
   <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
     <t>zau</t>
   </si>
   <si>
     <t>Tio João</t>
   </si>
   <si>
+    <t>pjp</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>unb</t>
   </si>
   <si>
-    <t>pjp</t>
-  </si>
-  <si>
     <t>Ricky</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
@@ -110,24 +110,24 @@
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>Savler</t>
+  </si>
+  <si>
     <t>Matilde Pires</t>
   </si>
   <si>
-    <t>Savler</t>
-  </si>
-  <si>
     <t>LCINORC</t>
   </si>
   <si>
     <t>qzt</t>
   </si>
   <si>
+    <t>Jonix21</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>Jonix21</t>
-  </si>
-  <si>
     <t>metamox</t>
   </si>
   <si>
@@ -143,12 +143,12 @@
     <t>Marcelo</t>
   </si>
   <si>
+    <t>fglopes</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>fglopes</t>
-  </si>
-  <si>
     <t>batata</t>
   </si>
   <si>
@@ -161,31 +161,22 @@
     <t>president</t>
   </si>
   <si>
+    <t>MIGUEL O PIOR</t>
+  </si>
+  <si>
     <t>Marcelino</t>
   </si>
   <si>
-    <t>MIGUEL O PIOR</t>
-  </si>
-  <si>
-    <t>Pedpedy</t>
+    <t>André™</t>
   </si>
   <si>
     <t>Jonas 705</t>
   </si>
   <si>
-    <t>jnuno15</t>
-  </si>
-  <si>
-    <t>SUPERCELL</t>
-  </si>
-  <si>
-    <t>diogo</t>
+    <t>JoaoYTV</t>
   </si>
   <si>
     <t>Paula Dentro ⚠</t>
-  </si>
-  <si>
-    <t>Diogo Assunção</t>
   </si>
   <si>
     <t>Sra. Clash</t>
@@ -282,22 +273,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="C2" t="n">
         <v>93.0</v>
       </c>
       <c r="D2" t="n">
-        <v>161.0</v>
+        <v>167.0</v>
       </c>
       <c r="E2" t="n">
-        <v>65309.0</v>
+        <v>67687.0</v>
       </c>
       <c r="F2" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="G2" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -306,10 +297,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="K2" t="n">
-        <v>475.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="3">
@@ -317,22 +308,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>165.0</v>
+        <v>171.0</v>
       </c>
       <c r="E3" t="n">
-        <v>64960.0</v>
+        <v>67200.0</v>
       </c>
       <c r="F3" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="G3" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -341,10 +332,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="K3" t="n">
-        <v>445.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,22 +343,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="C4" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>159.0</v>
+        <v>165.0</v>
       </c>
       <c r="E4" t="n">
-        <v>63280.0</v>
+        <v>65800.0</v>
       </c>
       <c r="F4" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -376,10 +367,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="K4" t="n">
-        <v>419.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,22 +378,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.0</v>
+        <v>171.0</v>
       </c>
       <c r="E5" t="n">
-        <v>64692.0</v>
+        <v>67492.0</v>
       </c>
       <c r="F5" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -411,10 +402,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="K5" t="n">
-        <v>411.0</v>
+        <v>423.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,19 +413,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>162.0</v>
+        <v>168.0</v>
       </c>
       <c r="E6" t="n">
-        <v>62055.0</v>
+        <v>64855.0</v>
       </c>
       <c r="F6" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="G6" t="n">
         <v>36.0</v>
@@ -446,10 +437,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="K6" t="n">
-        <v>401.0</v>
+        <v>407.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,22 +448,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>163.0</v>
+        <v>169.0</v>
       </c>
       <c r="E7" t="n">
-        <v>65850.0</v>
+        <v>68370.0</v>
       </c>
       <c r="F7" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="G7" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -484,7 +475,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>384.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,34 +483,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>148.0</v>
+        <v>165.0</v>
       </c>
       <c r="E8" t="n">
-        <v>59920.0</v>
+        <v>66640.0</v>
       </c>
       <c r="F8" t="n">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="H8" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>64.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>378.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="9">
@@ -533,28 +524,28 @@
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>159.0</v>
+        <v>154.0</v>
       </c>
       <c r="E9" t="n">
-        <v>64120.0</v>
+        <v>62440.0</v>
       </c>
       <c r="F9" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="G9" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.99999999999999</v>
+        <v>63.0</v>
       </c>
       <c r="K9" t="n">
-        <v>373.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="10">
@@ -562,22 +553,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>152.0</v>
+        <v>158.0</v>
       </c>
       <c r="E10" t="n">
-        <v>60817.0</v>
+        <v>63897.0</v>
       </c>
       <c r="F10" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G10" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -586,10 +577,10 @@
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K10" t="n">
-        <v>366.0</v>
+        <v>386.0</v>
       </c>
     </row>
     <row r="11">
@@ -597,34 +588,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>52.0</v>
+        <v>57.0</v>
       </c>
       <c r="C11" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>150.0</v>
+        <v>171.0</v>
       </c>
       <c r="E11" t="n">
-        <v>60200.0</v>
+        <v>70000.0</v>
       </c>
       <c r="F11" t="n">
-        <v>51.0</v>
+        <v>61.0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
       <c r="K11" t="n">
-        <v>353.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +623,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>55.0</v>
+        <v>53.0</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D12" t="n">
-        <v>165.0</v>
+        <v>153.0</v>
       </c>
       <c r="E12" t="n">
-        <v>67480.0</v>
+        <v>61600.0</v>
       </c>
       <c r="F12" t="n">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
       <c r="G12" t="n">
-        <v>27.0</v>
+        <v>35.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.0</v>
+        <v>67.0</v>
       </c>
       <c r="K12" t="n">
-        <v>351.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C13" t="n">
         <v>80.0</v>
       </c>
       <c r="D13" t="n">
-        <v>153.0</v>
+        <v>159.0</v>
       </c>
       <c r="E13" t="n">
-        <v>63000.0</v>
+        <v>65520.0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="G13" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H13" t="n">
         <v>3.0</v>
@@ -694,7 +685,7 @@
         <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>337.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,22 +693,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="C14" t="n">
         <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.0</v>
+        <v>165.0</v>
       </c>
       <c r="E14" t="n">
-        <v>62731.0</v>
+        <v>64971.0</v>
       </c>
       <c r="F14" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -729,7 +720,7 @@
         <v>43.0</v>
       </c>
       <c r="K14" t="n">
-        <v>319.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,34 +728,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="C15" t="n">
         <v>93.0</v>
       </c>
       <c r="D15" t="n">
-        <v>133.0</v>
+        <v>151.0</v>
       </c>
       <c r="E15" t="n">
-        <v>54880.0</v>
+        <v>60760.0</v>
       </c>
       <c r="F15" t="n">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="G15" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="H15" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
       <c r="K15" t="n">
-        <v>303.0</v>
+        <v>307.0</v>
       </c>
     </row>
     <row r="16">
@@ -772,34 +763,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>51.0</v>
+        <v>35.0</v>
       </c>
       <c r="C16" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>145.0</v>
+        <v>103.0</v>
       </c>
       <c r="E16" t="n">
-        <v>57960.0</v>
+        <v>44240.0</v>
       </c>
       <c r="F16" t="n">
-        <v>52.0</v>
+        <v>36.0</v>
       </c>
       <c r="G16" t="n">
         <v>25.0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.0</v>
+        <v>69.0</v>
       </c>
       <c r="K16" t="n">
-        <v>294.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,34 +798,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D17" t="n">
-        <v>150.0</v>
+        <v>136.0</v>
       </c>
       <c r="E17" t="n">
-        <v>60234.0</v>
+        <v>55720.0</v>
       </c>
       <c r="F17" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="G17" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>40.0</v>
+        <v>66.0</v>
       </c>
       <c r="K17" t="n">
-        <v>291.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +833,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>33.0</v>
+        <v>53.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>97.0</v>
+        <v>156.0</v>
       </c>
       <c r="E18" t="n">
-        <v>41720.0</v>
+        <v>63034.0</v>
       </c>
       <c r="F18" t="n">
-        <v>34.0</v>
+        <v>55.0</v>
       </c>
       <c r="G18" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="H18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>68.0</v>
+        <v>40.0</v>
       </c>
       <c r="K18" t="n">
-        <v>286.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,22 +868,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="C19" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>158.0</v>
+        <v>164.0</v>
       </c>
       <c r="E19" t="n">
-        <v>56634.0</v>
+        <v>58469.0</v>
       </c>
       <c r="F19" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="G19" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H19" t="n">
         <v>1.0</v>
@@ -904,7 +895,7 @@
         <v>44.0</v>
       </c>
       <c r="K19" t="n">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,22 +903,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="C20" t="n">
         <v>93.0</v>
       </c>
       <c r="D20" t="n">
-        <v>126.0</v>
+        <v>132.0</v>
       </c>
       <c r="E20" t="n">
-        <v>50274.0</v>
+        <v>52514.0</v>
       </c>
       <c r="F20" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="G20" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H20" t="n">
         <v>0.0</v>
@@ -936,10 +927,10 @@
         <v>2.0</v>
       </c>
       <c r="J20" t="n">
-        <v>68.0</v>
+        <v>67.0</v>
       </c>
       <c r="K20" t="n">
-        <v>280.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,19 +938,19 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>161.0</v>
+        <v>167.0</v>
       </c>
       <c r="E21" t="n">
-        <v>62542.0</v>
+        <v>65342.0</v>
       </c>
       <c r="F21" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="G21" t="n">
         <v>19.0</v>
@@ -971,10 +962,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="K21" t="n">
-        <v>277.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,22 +973,22 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C22" t="n">
-        <v>67.0</v>
+        <v>80.0</v>
       </c>
       <c r="D22" t="n">
-        <v>118.0</v>
+        <v>124.0</v>
       </c>
       <c r="E22" t="n">
-        <v>49560.0</v>
+        <v>52080.0</v>
       </c>
       <c r="F22" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="H22" t="n">
         <v>11.0</v>
@@ -1006,10 +997,10 @@
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="K22" t="n">
-        <v>260.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,34 +1008,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>108.0</v>
+        <v>115.0</v>
       </c>
       <c r="E23" t="n">
-        <v>45640.0</v>
+        <v>48160.0</v>
       </c>
       <c r="F23" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="G23" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>42.0</v>
+        <v>63.0</v>
       </c>
       <c r="K23" t="n">
-        <v>230.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,34 +1043,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>109.0</v>
+        <v>114.0</v>
       </c>
       <c r="E24" t="n">
-        <v>45640.0</v>
+        <v>49000.0</v>
       </c>
       <c r="F24" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="G24" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="H24" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>61.0</v>
+        <v>42.0</v>
       </c>
       <c r="K24" t="n">
-        <v>229.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,22 +1078,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>105.0</v>
+        <v>111.0</v>
       </c>
       <c r="E25" t="n">
-        <v>46305.0</v>
+        <v>48981.0</v>
       </c>
       <c r="F25" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
@@ -1111,10 +1102,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="K25" t="n">
-        <v>221.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,22 +1113,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C26" t="n">
         <v>87.0</v>
       </c>
       <c r="D26" t="n">
-        <v>143.0</v>
+        <v>149.0</v>
       </c>
       <c r="E26" t="n">
-        <v>58213.0</v>
+        <v>61013.0</v>
       </c>
       <c r="F26" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="G26" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H26" t="n">
         <v>13.0</v>
@@ -1149,7 +1140,7 @@
         <v>43.0</v>
       </c>
       <c r="K26" t="n">
-        <v>215.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,34 +1148,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>50.0</v>
+        <v>37.0</v>
       </c>
       <c r="C27" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D27" t="n">
-        <v>138.0</v>
+        <v>109.0</v>
       </c>
       <c r="E27" t="n">
-        <v>57960.0</v>
+        <v>42840.0</v>
       </c>
       <c r="F27" t="n">
-        <v>51.0</v>
+        <v>37.0</v>
       </c>
       <c r="G27" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H27" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>35.0</v>
+        <v>54.0</v>
       </c>
       <c r="K27" t="n">
-        <v>213.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,34 +1183,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>35.0</v>
+        <v>52.0</v>
       </c>
       <c r="C28" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>103.0</v>
+        <v>144.0</v>
       </c>
       <c r="E28" t="n">
-        <v>40040.0</v>
+        <v>60480.0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.0</v>
+        <v>53.0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.0</v>
+        <v>34.0</v>
       </c>
       <c r="K28" t="n">
-        <v>211.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,7 +1221,7 @@
         <v>51.0</v>
       </c>
       <c r="C29" t="n">
-        <v>87.0</v>
+        <v>73.0</v>
       </c>
       <c r="D29" t="n">
         <v>150.0</v>
@@ -1254,7 +1245,7 @@
         <v>40.0</v>
       </c>
       <c r="K29" t="n">
-        <v>209.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,34 +1253,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="C30" t="n">
         <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>114.0</v>
+        <v>118.0</v>
       </c>
       <c r="E30" t="n">
-        <v>47512.0</v>
+        <v>48912.0</v>
       </c>
       <c r="F30" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G30" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H30" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="K30" t="n">
-        <v>186.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,22 +1288,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="C31" t="n">
         <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
       <c r="E31" t="n">
-        <v>40320.0</v>
+        <v>42280.0</v>
       </c>
       <c r="F31" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="G31" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H31" t="n">
         <v>2.0</v>
@@ -1321,10 +1312,10 @@
         <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K31" t="n">
-        <v>143.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,19 +1323,19 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C32" t="n">
         <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>63.0</v>
+        <v>69.0</v>
       </c>
       <c r="E32" t="n">
-        <v>26315.0</v>
+        <v>28275.0</v>
       </c>
       <c r="F32" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="G32" t="n">
         <v>10.0</v>
@@ -1356,10 +1347,10 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
       <c r="K32" t="n">
-        <v>137.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,7 +1361,7 @@
         <v>24.0</v>
       </c>
       <c r="C33" t="n">
-        <v>53.0</v>
+        <v>40.0</v>
       </c>
       <c r="D33" t="n">
         <v>65.0</v>
@@ -1394,7 +1385,7 @@
         <v>74.0</v>
       </c>
       <c r="K33" t="n">
-        <v>131.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="34">
@@ -1402,34 +1393,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="C34" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="D34" t="n">
-        <v>71.0</v>
+        <v>112.0</v>
       </c>
       <c r="E34" t="n">
-        <v>30800.0</v>
+        <v>43579.0</v>
       </c>
       <c r="F34" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.00000000000001</v>
+        <v>19.0</v>
       </c>
       <c r="K34" t="n">
-        <v>115.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,22 +1428,22 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="C35" t="n">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="D35" t="n">
-        <v>106.0</v>
+        <v>73.0</v>
       </c>
       <c r="E35" t="n">
-        <v>40779.0</v>
+        <v>31920.0</v>
       </c>
       <c r="F35" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="H35" t="n">
         <v>8.0</v>
@@ -1461,10 +1452,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>18.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,7 +1466,7 @@
         <v>13.0</v>
       </c>
       <c r="C36" t="n">
-        <v>67.0</v>
+        <v>53.0</v>
       </c>
       <c r="D36" t="n">
         <v>39.0</v>
@@ -1499,7 +1490,7 @@
         <v>71.0</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,7 +1501,7 @@
         <v>34.0</v>
       </c>
       <c r="C37" t="n">
-        <v>53.0</v>
+        <v>40.0</v>
       </c>
       <c r="D37" t="n">
         <v>98.0</v>
@@ -1534,7 +1525,7 @@
         <v>48.0</v>
       </c>
       <c r="K37" t="n">
-        <v>103.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,7 +1536,7 @@
         <v>15.0</v>
       </c>
       <c r="C38" t="n">
-        <v>60.0</v>
+        <v>47.0</v>
       </c>
       <c r="D38" t="n">
         <v>44.0</v>
@@ -1569,7 +1560,7 @@
         <v>18.0</v>
       </c>
       <c r="K38" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="39">
@@ -1577,31 +1568,31 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C39" t="n">
-        <v>100.0</v>
+        <v>89.0</v>
       </c>
       <c r="D39" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="E39" t="n">
-        <v>8960.0</v>
+        <v>9747.0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G39" t="n">
         <v>2.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.999999999999996</v>
+        <v>25.0</v>
       </c>
       <c r="K39" t="n">
         <v>54.0</v>
@@ -1612,19 +1603,19 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="C40" t="n">
         <v>87.0</v>
       </c>
       <c r="D40" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="E40" t="n">
-        <v>14817.0</v>
+        <v>17529.0</v>
       </c>
       <c r="F40" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="G40" t="n">
         <v>1.0</v>
@@ -1639,7 +1630,7 @@
         <v>6.0</v>
       </c>
       <c r="K40" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="41">
@@ -1649,8 +1640,8 @@
       <c r="B41" t="n">
         <v>1.0</v>
       </c>
-      <c r="C41" t="e">
-        <v>#DIV/0!</v>
+      <c r="C41" t="n">
+        <v>33.0</v>
       </c>
       <c r="D41" t="n">
         <v>3.0</v>
@@ -1674,7 +1665,7 @@
         <v>100.0</v>
       </c>
       <c r="K41" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="42">
@@ -1682,22 +1673,22 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
@@ -1705,9 +1696,11 @@
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
-      <c r="J42"/>
+      <c r="J42" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K42" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="43">
@@ -1740,7 +1733,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="44">
@@ -1751,7 +1744,7 @@
         <v>19.0</v>
       </c>
       <c r="C44" t="n">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
       <c r="D44" t="n">
         <v>47.0</v>
@@ -1775,7 +1768,7 @@
         <v>16.0</v>
       </c>
       <c r="K44" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="45">
@@ -1783,16 +1776,16 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1120.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1801,14 +1794,14 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -1816,34 +1809,32 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>280.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
-      <c r="J46" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="J46"/>
       <c r="K46" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1851,34 +1842,34 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>5.0</v>
+        <v>39.0</v>
       </c>
       <c r="C47" t="n">
-        <v>33.0</v>
+        <v>100.0</v>
       </c>
       <c r="D47" t="n">
-        <v>14.0</v>
+        <v>97.0</v>
       </c>
       <c r="E47" t="n">
-        <v>5880.0</v>
+        <v>36332.0</v>
       </c>
       <c r="F47" t="n">
-        <v>4.0</v>
+        <v>37.0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J47" t="n">
-        <v>50.0</v>
+        <v>32.0</v>
       </c>
       <c r="K47" t="n">
-        <v>6.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="48">
@@ -1886,135 +1877,34 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>26995.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J48"/>
+        <v>5.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>21.0</v>
+      </c>
       <c r="K48" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>34163.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-31.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>25405.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-236.0</v>
+        <v>-226.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -161,6 +161,9 @@
     <t>president</t>
   </si>
   <si>
+    <t>Rei</t>
+  </si>
+  <si>
     <t>MIGUEL O PIOR</t>
   </si>
   <si>
@@ -170,16 +173,19 @@
     <t>André™</t>
   </si>
   <si>
+    <t>Ruizinhooo</t>
+  </si>
+  <si>
     <t>Jonas 705</t>
   </si>
   <si>
     <t>JoaoYTV</t>
   </si>
   <si>
-    <t>Paula Dentro ⚠</t>
-  </si>
-  <si>
     <t>Sra. Clash</t>
+  </si>
+  <si>
+    <t>MARCO TULIO</t>
   </si>
   <si>
     <t>Manu</t>
@@ -370,7 +376,7 @@
         <v>69.0</v>
       </c>
       <c r="K4" t="n">
-        <v>430.0</v>
+        <v>431.0</v>
       </c>
     </row>
     <row r="5">
@@ -965,7 +971,7 @@
         <v>31.0</v>
       </c>
       <c r="K21" t="n">
-        <v>283.0</v>
+        <v>284.0</v>
       </c>
     </row>
     <row r="22">
@@ -1280,7 +1286,7 @@
         <v>51.0</v>
       </c>
       <c r="K30" t="n">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="31">
@@ -1315,7 +1321,7 @@
         <v>26.0</v>
       </c>
       <c r="K31" t="n">
-        <v>155.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="32">
@@ -1385,7 +1391,7 @@
         <v>74.0</v>
       </c>
       <c r="K33" t="n">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="34">
@@ -1420,7 +1426,7 @@
         <v>19.0</v>
       </c>
       <c r="K34" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1496,7 @@
         <v>71.0</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="37">
@@ -1638,22 +1644,22 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1400.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -1661,11 +1667,9 @@
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
-      <c r="J41" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="J41"/>
       <c r="K41" t="n">
-        <v>28.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="42">
@@ -1700,7 +1704,7 @@
         <v>100.0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="43">
@@ -1708,22 +1712,22 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1731,9 +1735,11 @@
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
-      <c r="J43"/>
+      <c r="J43" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K43" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="44">
@@ -1741,34 +1747,32 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>18451.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>16.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="45">
@@ -1801,7 +1805,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="46">
@@ -1809,32 +1813,34 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>18451.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J46"/>
+        <v>1.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>16.0</v>
+      </c>
       <c r="K46" t="n">
-        <v>-1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="47">
@@ -1842,34 +1848,32 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>97.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>36332.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>32.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>-20.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
@@ -1877,33 +1881,103 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>36332.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J48" t="n">
         <v>32.0</v>
       </c>
-      <c r="C48" t="n">
+      <c r="K48" t="n">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3640.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-175.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C50" t="n">
         <v>53.0</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D50" t="n">
         <v>91.0</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E50" t="n">
         <v>26995.0</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F50" t="n">
         <v>28.0</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G50" t="n">
         <v>6.0</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H50" t="n">
         <v>5.0</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I50" t="n">
         <v>5.0</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J50" t="n">
         <v>21.0</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K50" t="n">
         <v>-226.0</v>
       </c>
     </row>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -110,24 +110,24 @@
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>LCINORC</t>
   </si>
   <si>
+    <t>Jonix21</t>
+  </si>
+  <si>
+    <t>filipe</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>Jonix21</t>
-  </si>
-  <si>
-    <t>filipe</t>
-  </si>
-  <si>
     <t>metamox</t>
   </si>
   <si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Marcelino</t>
+  </si>
+  <si>
+    <t>Barbosa</t>
   </si>
   <si>
     <t>André™</t>
@@ -279,22 +282,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C2" t="n">
         <v>93.0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.0</v>
+        <v>170.0</v>
       </c>
       <c r="E2" t="n">
-        <v>67687.0</v>
+        <v>68578.0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -303,10 +306,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="K2" t="n">
-        <v>486.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="3">
@@ -314,22 +317,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>171.0</v>
+        <v>174.0</v>
       </c>
       <c r="E3" t="n">
-        <v>67200.0</v>
+        <v>68320.0</v>
       </c>
       <c r="F3" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="G3" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -338,10 +341,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K3" t="n">
-        <v>463.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="4">
@@ -349,22 +352,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C4" t="n">
         <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>165.0</v>
+        <v>168.0</v>
       </c>
       <c r="E4" t="n">
-        <v>65800.0</v>
+        <v>67200.0</v>
       </c>
       <c r="F4" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -376,7 +379,7 @@
         <v>69.0</v>
       </c>
       <c r="K4" t="n">
-        <v>431.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="5">
@@ -384,22 +387,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>171.0</v>
+        <v>174.0</v>
       </c>
       <c r="E5" t="n">
-        <v>67492.0</v>
+        <v>68892.0</v>
       </c>
       <c r="F5" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="G5" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -408,10 +411,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="K5" t="n">
-        <v>423.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,22 +422,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>168.0</v>
+        <v>171.0</v>
       </c>
       <c r="E6" t="n">
-        <v>64855.0</v>
+        <v>65975.0</v>
       </c>
       <c r="F6" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -443,10 +446,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="K6" t="n">
-        <v>407.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="7">
@@ -454,22 +457,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0</v>
+        <v>172.0</v>
       </c>
       <c r="E7" t="n">
-        <v>68370.0</v>
+        <v>69490.0</v>
       </c>
       <c r="F7" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="G7" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -481,7 +484,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>396.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="8">
@@ -489,22 +492,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>165.0</v>
+        <v>168.0</v>
       </c>
       <c r="E8" t="n">
-        <v>66640.0</v>
+        <v>68320.0</v>
       </c>
       <c r="F8" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="G8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -516,7 +519,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>391.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="9">
@@ -524,22 +527,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>154.0</v>
+        <v>157.0</v>
       </c>
       <c r="E9" t="n">
-        <v>62440.0</v>
+        <v>63560.0</v>
       </c>
       <c r="F9" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="G9" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="H9" t="n">
         <v>5.0</v>
@@ -548,10 +551,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="K9" t="n">
-        <v>390.0</v>
+        <v>399.0</v>
       </c>
     </row>
     <row r="10">
@@ -559,31 +562,31 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>158.0</v>
+        <v>159.0</v>
       </c>
       <c r="E10" t="n">
-        <v>63897.0</v>
+        <v>64177.0</v>
       </c>
       <c r="F10" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I10" t="n">
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="K10" t="n">
         <v>386.0</v>
@@ -594,22 +597,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>171.0</v>
+        <v>174.0</v>
       </c>
       <c r="E11" t="n">
-        <v>70000.0</v>
+        <v>70840.0</v>
       </c>
       <c r="F11" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="G11" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
@@ -621,7 +624,7 @@
         <v>48.0</v>
       </c>
       <c r="K11" t="n">
-        <v>370.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,7 +635,7 @@
         <v>53.0</v>
       </c>
       <c r="C12" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D12" t="n">
         <v>153.0</v>
@@ -656,7 +659,7 @@
         <v>67.0</v>
       </c>
       <c r="K12" t="n">
-        <v>362.0</v>
+        <v>361.0</v>
       </c>
     </row>
     <row r="13">
@@ -664,22 +667,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="C13" t="n">
         <v>80.0</v>
       </c>
       <c r="D13" t="n">
-        <v>159.0</v>
+        <v>162.0</v>
       </c>
       <c r="E13" t="n">
-        <v>65520.0</v>
+        <v>66640.0</v>
       </c>
       <c r="F13" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="G13" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H13" t="n">
         <v>3.0</v>
@@ -688,10 +691,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="K13" t="n">
-        <v>349.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="14">
@@ -699,22 +702,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C14" t="n">
         <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>165.0</v>
+        <v>168.0</v>
       </c>
       <c r="E14" t="n">
-        <v>64971.0</v>
+        <v>66091.0</v>
       </c>
       <c r="F14" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="G14" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -723,10 +726,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="K14" t="n">
-        <v>330.0</v>
+        <v>339.0</v>
       </c>
     </row>
     <row r="15">
@@ -734,22 +737,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C15" t="n">
         <v>93.0</v>
       </c>
       <c r="D15" t="n">
-        <v>151.0</v>
+        <v>154.0</v>
       </c>
       <c r="E15" t="n">
-        <v>60760.0</v>
+        <v>62160.0</v>
       </c>
       <c r="F15" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G15" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H15" t="n">
         <v>8.0</v>
@@ -758,10 +761,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="K15" t="n">
-        <v>307.0</v>
+        <v>316.0</v>
       </c>
     </row>
     <row r="16">
@@ -769,22 +772,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C16" t="n">
         <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>103.0</v>
+        <v>106.0</v>
       </c>
       <c r="E16" t="n">
-        <v>44240.0</v>
+        <v>45360.0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H16" t="n">
         <v>2.0</v>
@@ -793,10 +796,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K16" t="n">
-        <v>304.0</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="17">
@@ -804,22 +807,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C17" t="n">
         <v>87.0</v>
       </c>
       <c r="D17" t="n">
-        <v>136.0</v>
+        <v>139.0</v>
       </c>
       <c r="E17" t="n">
-        <v>55720.0</v>
+        <v>56560.0</v>
       </c>
       <c r="F17" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G17" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="H17" t="n">
         <v>11.0</v>
@@ -828,10 +831,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="K17" t="n">
-        <v>304.0</v>
+        <v>312.0</v>
       </c>
     </row>
     <row r="18">
@@ -839,19 +842,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>156.0</v>
+        <v>159.0</v>
       </c>
       <c r="E18" t="n">
-        <v>63034.0</v>
+        <v>64434.0</v>
       </c>
       <c r="F18" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="G18" t="n">
         <v>22.0</v>
@@ -863,10 +866,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="K18" t="n">
-        <v>303.0</v>
+        <v>306.0</v>
       </c>
     </row>
     <row r="19">
@@ -874,19 +877,19 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.0</v>
+        <v>167.0</v>
       </c>
       <c r="E19" t="n">
-        <v>58469.0</v>
+        <v>59781.0</v>
       </c>
       <c r="F19" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="G19" t="n">
         <v>25.0</v>
@@ -898,10 +901,10 @@
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="K19" t="n">
-        <v>292.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,7 +915,7 @@
         <v>44.0</v>
       </c>
       <c r="C20" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
         <v>132.0</v>
@@ -936,7 +939,7 @@
         <v>67.0</v>
       </c>
       <c r="K20" t="n">
-        <v>291.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="21">
@@ -944,19 +947,19 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>167.0</v>
+        <v>170.0</v>
       </c>
       <c r="E21" t="n">
-        <v>65342.0</v>
+        <v>66462.0</v>
       </c>
       <c r="F21" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="G21" t="n">
         <v>19.0</v>
@@ -968,10 +971,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="K21" t="n">
-        <v>284.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="22">
@@ -979,19 +982,19 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D22" t="n">
-        <v>124.0</v>
+        <v>127.0</v>
       </c>
       <c r="E22" t="n">
-        <v>52080.0</v>
+        <v>53480.0</v>
       </c>
       <c r="F22" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="G22" t="n">
         <v>31.0</v>
@@ -1003,10 +1006,10 @@
         <v>1.0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.0</v>
+        <v>63.0</v>
       </c>
       <c r="K22" t="n">
-        <v>278.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="23">
@@ -1014,34 +1017,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="E23" t="n">
-        <v>48160.0</v>
+        <v>50680.0</v>
       </c>
       <c r="F23" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="G23" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="H23" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>63.0</v>
+        <v>44.0</v>
       </c>
       <c r="K23" t="n">
-        <v>248.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="24">
@@ -1049,34 +1052,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>114.0</v>
+        <v>118.0</v>
       </c>
       <c r="E24" t="n">
-        <v>49000.0</v>
+        <v>49560.0</v>
       </c>
       <c r="F24" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="G24" t="n">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>42.0</v>
+        <v>61.0</v>
       </c>
       <c r="K24" t="n">
-        <v>244.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="25">
@@ -1084,19 +1087,19 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
       <c r="E25" t="n">
-        <v>48981.0</v>
+        <v>50468.0</v>
       </c>
       <c r="F25" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G25" t="n">
         <v>16.0</v>
@@ -1108,10 +1111,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="K25" t="n">
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="26">
@@ -1119,34 +1122,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>54.0</v>
+        <v>38.0</v>
       </c>
       <c r="C26" t="n">
         <v>87.0</v>
       </c>
       <c r="D26" t="n">
-        <v>149.0</v>
+        <v>111.0</v>
       </c>
       <c r="E26" t="n">
-        <v>61013.0</v>
+        <v>43400.0</v>
       </c>
       <c r="F26" t="n">
-        <v>56.0</v>
+        <v>38.0</v>
       </c>
       <c r="G26" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="H26" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="n">
-        <v>43.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>227.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="27">
@@ -1154,34 +1157,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
       <c r="C27" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D27" t="n">
-        <v>109.0</v>
+        <v>144.0</v>
       </c>
       <c r="E27" t="n">
-        <v>42840.0</v>
+        <v>60480.0</v>
       </c>
       <c r="F27" t="n">
-        <v>37.0</v>
+        <v>53.0</v>
       </c>
       <c r="G27" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>54.0</v>
+        <v>34.0</v>
       </c>
       <c r="K27" t="n">
-        <v>223.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="28">
@@ -1189,34 +1192,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="C28" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D28" t="n">
-        <v>144.0</v>
+        <v>150.0</v>
       </c>
       <c r="E28" t="n">
-        <v>60480.0</v>
+        <v>61573.0</v>
       </c>
       <c r="F28" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="H28" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.0</v>
+        <v>42.0</v>
       </c>
       <c r="K28" t="n">
-        <v>219.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,7 +1230,7 @@
         <v>51.0</v>
       </c>
       <c r="C29" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="D29" t="n">
         <v>150.0</v>
@@ -1251,7 +1254,7 @@
         <v>40.0</v>
       </c>
       <c r="K29" t="n">
-        <v>208.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1265,7 @@
         <v>44.0</v>
       </c>
       <c r="C30" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D30" t="n">
         <v>118.0</v>
@@ -1294,19 +1297,19 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C31" t="n">
         <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>100.0</v>
+        <v>103.0</v>
       </c>
       <c r="E31" t="n">
-        <v>42280.0</v>
+        <v>43680.0</v>
       </c>
       <c r="F31" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="G31" t="n">
         <v>9.0</v>
@@ -1321,7 +1324,7 @@
         <v>26.0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="32">
@@ -1329,19 +1332,19 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C32" t="n">
         <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="E32" t="n">
-        <v>28275.0</v>
+        <v>29395.0</v>
       </c>
       <c r="F32" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G32" t="n">
         <v>10.0</v>
@@ -1353,10 +1356,10 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="K32" t="n">
-        <v>142.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,7 +1370,7 @@
         <v>24.0</v>
       </c>
       <c r="C33" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="D33" t="n">
         <v>65.0</v>
@@ -1399,16 +1402,16 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C34" t="n">
         <v>80.0</v>
       </c>
       <c r="D34" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="E34" t="n">
-        <v>43579.0</v>
+        <v>44979.0</v>
       </c>
       <c r="F34" t="n">
         <v>42.0</v>
@@ -1420,13 +1423,13 @@
         <v>8.0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J34" t="n">
         <v>19.0</v>
       </c>
       <c r="K34" t="n">
-        <v>125.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="35">
@@ -1461,7 +1464,7 @@
         <v>56.99999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>115.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,7 +1475,7 @@
         <v>13.0</v>
       </c>
       <c r="C36" t="n">
-        <v>53.0</v>
+        <v>47.0</v>
       </c>
       <c r="D36" t="n">
         <v>39.0</v>
@@ -1496,7 +1499,7 @@
         <v>71.0</v>
       </c>
       <c r="K36" t="n">
-        <v>110.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="37">
@@ -1507,7 +1510,7 @@
         <v>34.0</v>
       </c>
       <c r="C37" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="D37" t="n">
         <v>98.0</v>
@@ -1531,7 +1534,7 @@
         <v>48.0</v>
       </c>
       <c r="K37" t="n">
-        <v>98.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,19 +1542,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C38" t="n">
         <v>47.0</v>
       </c>
       <c r="D38" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="E38" t="n">
-        <v>15915.0</v>
+        <v>17227.0</v>
       </c>
       <c r="F38" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G38" t="n">
         <v>3.0</v>
@@ -1563,10 +1566,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="K38" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="39">
@@ -1574,22 +1577,22 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C39" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="D39" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="E39" t="n">
-        <v>9747.0</v>
+        <v>10867.0</v>
       </c>
       <c r="F39" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H39" t="n">
         <v>1.0</v>
@@ -1598,10 +1601,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="K39" t="n">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="40">
@@ -1609,16 +1612,16 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C40" t="n">
         <v>87.0</v>
       </c>
       <c r="D40" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="E40" t="n">
-        <v>17529.0</v>
+        <v>19104.0</v>
       </c>
       <c r="F40" t="n">
         <v>18.0</v>
@@ -1630,13 +1633,13 @@
         <v>6.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" t="n">
         <v>6.0</v>
       </c>
       <c r="K40" t="n">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="41">
@@ -1677,19 +1680,19 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C42" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="D42" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1400.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G42" t="n">
         <v>1.0</v>
@@ -1701,10 +1704,10 @@
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="K42" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -1712,22 +1715,22 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C43" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="D43" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1400.0</v>
+        <v>2240.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1739,7 +1742,7 @@
         <v>100.0</v>
       </c>
       <c r="K43" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -1772,7 +1775,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="45">
@@ -1813,34 +1816,32 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>18451.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>16.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J46"/>
       <c r="K46" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="47">
@@ -1848,32 +1849,34 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>18451.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J47"/>
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>16.0</v>
+      </c>
       <c r="K47" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="48">
@@ -1881,34 +1884,32 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>97.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>36332.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>32.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J48"/>
       <c r="K48" t="n">
-        <v>-20.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -1916,34 +1917,34 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>37381.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I49" t="n">
         <v>3.0</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>3640.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.0</v>
-      </c>
       <c r="J49" t="n">
-        <v>100.0</v>
+        <v>32.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-175.0</v>
+        <v>-17.0</v>
       </c>
     </row>
     <row r="50">
@@ -1951,34 +1952,69 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3640.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-182.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="n">
         <v>32.0</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>53.0</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>91.0</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E51" t="n">
         <v>26995.0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F51" t="n">
         <v>28.0</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G51" t="n">
         <v>6.0</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>5.0</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>5.0</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J51" t="n">
         <v>21.0</v>
       </c>
-      <c r="K50" t="n">
-        <v>-226.0</v>
+      <c r="K51" t="n">
+        <v>-229.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -59,87 +59,87 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
     <t>snowkids</t>
   </si>
   <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
     <t>Madnasty</t>
   </si>
   <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
+    <t>zau</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>zau</t>
-  </si>
-  <si>
     <t>Tio João</t>
   </si>
   <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
+    <t>Ricky</t>
   </si>
   <si>
     <t>unb</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
     <t>Robb Stark</t>
   </si>
   <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
     <t>Matilde Pires</t>
   </si>
   <si>
+    <t>LCINORC</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>LCINORC</t>
+    <t>filipe</t>
   </si>
   <si>
     <t>Jonix21</t>
   </si>
   <si>
-    <t>filipe</t>
+    <t>metamox</t>
+  </si>
+  <si>
+    <t>Da Silva</t>
   </si>
   <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>metamox</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
     <t>Marcelo</t>
   </si>
   <si>
@@ -158,40 +158,34 @@
     <t>rei da guerra</t>
   </si>
   <si>
-    <t>president</t>
-  </si>
-  <si>
     <t>Rei</t>
   </si>
   <si>
-    <t>MIGUEL O PIOR</t>
+    <t>Barbosa</t>
   </si>
   <si>
     <t>Marcelino</t>
   </si>
   <si>
-    <t>Barbosa</t>
-  </si>
-  <si>
-    <t>André™</t>
+    <t>⚽vinicius f.c⚽</t>
+  </si>
+  <si>
+    <t>metralha</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>Ruizinhooo</t>
   </si>
   <si>
-    <t>Jonas 705</t>
-  </si>
-  <si>
-    <t>JoaoYTV</t>
-  </si>
-  <si>
     <t>Sra. Clash</t>
   </si>
   <si>
-    <t>MARCO TULIO</t>
-  </si>
-  <si>
     <t>Manu</t>
+  </si>
+  <si>
+    <t>Welton</t>
   </si>
 </sst>
 </file>
@@ -282,22 +276,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>57.0</v>
+        <v>61.0</v>
       </c>
       <c r="C2" t="n">
         <v>93.0</v>
       </c>
       <c r="D2" t="n">
-        <v>170.0</v>
+        <v>182.0</v>
       </c>
       <c r="E2" t="n">
-        <v>68578.0</v>
+        <v>73687.0</v>
       </c>
       <c r="F2" t="n">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -306,10 +300,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="K2" t="n">
-        <v>495.0</v>
+        <v>532.0</v>
       </c>
     </row>
     <row r="3">
@@ -317,22 +311,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>174.0</v>
+        <v>186.0</v>
       </c>
       <c r="E3" t="n">
-        <v>68320.0</v>
+        <v>73080.0</v>
       </c>
       <c r="F3" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,7 +338,7 @@
         <v>70.0</v>
       </c>
       <c r="K3" t="n">
-        <v>472.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,22 +346,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="C4" t="n">
         <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>168.0</v>
+        <v>180.0</v>
       </c>
       <c r="E4" t="n">
-        <v>67200.0</v>
+        <v>72240.0</v>
       </c>
       <c r="F4" t="n">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -376,10 +370,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="K4" t="n">
-        <v>440.0</v>
+        <v>464.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,22 +381,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>174.0</v>
+        <v>186.0</v>
       </c>
       <c r="E5" t="n">
-        <v>68892.0</v>
+        <v>73932.0</v>
       </c>
       <c r="F5" t="n">
-        <v>57.0</v>
+        <v>61.0</v>
       </c>
       <c r="G5" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -414,7 +408,7 @@
         <v>72.0</v>
       </c>
       <c r="K5" t="n">
-        <v>433.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,34 +416,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>171.0</v>
+        <v>169.0</v>
       </c>
       <c r="E6" t="n">
-        <v>65975.0</v>
+        <v>67760.0</v>
       </c>
       <c r="F6" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="G6" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="K6" t="n">
-        <v>416.0</v>
+        <v>434.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,25 +451,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>172.0</v>
+        <v>183.0</v>
       </c>
       <c r="E7" t="n">
-        <v>69490.0</v>
+        <v>70735.0</v>
       </c>
       <c r="F7" t="n">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
       <c r="G7" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -484,7 +478,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>405.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,25 +486,25 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>56.0</v>
+        <v>62.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>168.0</v>
+        <v>184.0</v>
       </c>
       <c r="E8" t="n">
-        <v>68320.0</v>
+        <v>73970.0</v>
       </c>
       <c r="F8" t="n">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -519,7 +513,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>401.0</v>
+        <v>427.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,34 +521,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>54.0</v>
+        <v>59.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>157.0</v>
+        <v>171.0</v>
       </c>
       <c r="E9" t="n">
-        <v>63560.0</v>
+        <v>69777.0</v>
       </c>
       <c r="F9" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="G9" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.0</v>
+        <v>71.0</v>
       </c>
       <c r="K9" t="n">
-        <v>399.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="10">
@@ -562,34 +556,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>159.0</v>
+        <v>180.0</v>
       </c>
       <c r="E10" t="n">
-        <v>64177.0</v>
+        <v>73360.0</v>
       </c>
       <c r="F10" t="n">
-        <v>55.0</v>
+        <v>63.0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>71.0</v>
+        <v>59.0</v>
       </c>
       <c r="K10" t="n">
-        <v>386.0</v>
+        <v>413.0</v>
       </c>
     </row>
     <row r="11">
@@ -597,22 +591,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>174.0</v>
+        <v>186.0</v>
       </c>
       <c r="E11" t="n">
-        <v>70840.0</v>
+        <v>75320.0</v>
       </c>
       <c r="F11" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="G11" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
@@ -624,7 +618,7 @@
         <v>48.0</v>
       </c>
       <c r="K11" t="n">
-        <v>378.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +626,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>53.0</v>
+        <v>59.0</v>
       </c>
       <c r="C12" t="n">
         <v>80.0</v>
       </c>
       <c r="D12" t="n">
-        <v>153.0</v>
+        <v>173.0</v>
       </c>
       <c r="E12" t="n">
-        <v>61600.0</v>
+        <v>71960.0</v>
       </c>
       <c r="F12" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
         <v>52.0</v>
       </c>
-      <c r="G12" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>67.0</v>
-      </c>
       <c r="K12" t="n">
-        <v>361.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,34 +661,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>65240.0</v>
+      </c>
+      <c r="F13" t="n">
         <v>55.0</v>
       </c>
-      <c r="C13" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>162.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>66640.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>58.0</v>
-      </c>
       <c r="G13" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.0</v>
+        <v>65.0</v>
       </c>
       <c r="K13" t="n">
-        <v>358.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,22 +696,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="C14" t="n">
         <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>168.0</v>
+        <v>180.0</v>
       </c>
       <c r="E14" t="n">
-        <v>66091.0</v>
+        <v>70851.0</v>
       </c>
       <c r="F14" t="n">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="G14" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -726,10 +720,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="K14" t="n">
-        <v>339.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,34 +731,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>54.0</v>
+        <v>40.0</v>
       </c>
       <c r="C15" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>154.0</v>
+        <v>118.0</v>
       </c>
       <c r="E15" t="n">
-        <v>62160.0</v>
+        <v>50120.0</v>
       </c>
       <c r="F15" t="n">
-        <v>55.0</v>
+        <v>42.0</v>
       </c>
       <c r="G15" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="H15" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>49.0</v>
+        <v>69.0</v>
       </c>
       <c r="K15" t="n">
-        <v>316.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="16">
@@ -772,34 +766,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0</v>
+        <v>57.0</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.0</v>
+        <v>163.0</v>
       </c>
       <c r="E16" t="n">
-        <v>45360.0</v>
+        <v>65520.0</v>
       </c>
       <c r="F16" t="n">
-        <v>37.0</v>
+        <v>58.0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>70.0</v>
+        <v>52.0</v>
       </c>
       <c r="K16" t="n">
-        <v>313.0</v>
+        <v>342.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,34 +801,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="C17" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>139.0</v>
+        <v>171.0</v>
       </c>
       <c r="E17" t="n">
-        <v>56560.0</v>
+        <v>69474.0</v>
       </c>
       <c r="F17" t="n">
-        <v>51.0</v>
+        <v>61.0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="H17" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>67.0</v>
+        <v>41.0</v>
       </c>
       <c r="K17" t="n">
-        <v>312.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +836,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="C18" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.0</v>
+        <v>145.0</v>
       </c>
       <c r="E18" t="n">
-        <v>64434.0</v>
+        <v>58800.0</v>
       </c>
       <c r="F18" t="n">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
       <c r="G18" t="n">
-        <v>22.0</v>
+        <v>35.0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>39.0</v>
+        <v>66.0</v>
       </c>
       <c r="K18" t="n">
-        <v>306.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,22 +871,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>167.0</v>
+        <v>179.0</v>
       </c>
       <c r="E19" t="n">
-        <v>59781.0</v>
+        <v>64240.0</v>
       </c>
       <c r="F19" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="G19" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="H19" t="n">
         <v>1.0</v>
@@ -901,10 +895,10 @@
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="K19" t="n">
-        <v>295.0</v>
+        <v>317.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,22 +906,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="C20" t="n">
         <v>87.0</v>
       </c>
       <c r="D20" t="n">
-        <v>132.0</v>
+        <v>141.0</v>
       </c>
       <c r="E20" t="n">
-        <v>52514.0</v>
+        <v>55594.0</v>
       </c>
       <c r="F20" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="G20" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="H20" t="n">
         <v>0.0</v>
@@ -939,7 +933,7 @@
         <v>67.0</v>
       </c>
       <c r="K20" t="n">
-        <v>290.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,34 +941,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="C21" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>170.0</v>
+        <v>139.0</v>
       </c>
       <c r="E21" t="n">
-        <v>66462.0</v>
+        <v>59080.0</v>
       </c>
       <c r="F21" t="n">
-        <v>63.0</v>
+        <v>53.0</v>
       </c>
       <c r="G21" t="n">
-        <v>19.0</v>
+        <v>33.0</v>
       </c>
       <c r="H21" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J21" t="n">
-        <v>30.0</v>
+        <v>62.0</v>
       </c>
       <c r="K21" t="n">
-        <v>286.0</v>
+        <v>307.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,34 +976,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>46.0</v>
+        <v>61.0</v>
       </c>
       <c r="C22" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>127.0</v>
+        <v>182.0</v>
       </c>
       <c r="E22" t="n">
-        <v>53480.0</v>
+        <v>71607.0</v>
       </c>
       <c r="F22" t="n">
-        <v>49.0</v>
+        <v>67.0</v>
       </c>
       <c r="G22" t="n">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
       <c r="H22" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.0</v>
+        <v>30.0</v>
       </c>
       <c r="K22" t="n">
-        <v>281.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,22 +1011,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>117.0</v>
+        <v>129.0</v>
       </c>
       <c r="E23" t="n">
-        <v>50680.0</v>
+        <v>55440.0</v>
       </c>
       <c r="F23" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="G23" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -1044,7 +1038,7 @@
         <v>44.0</v>
       </c>
       <c r="K23" t="n">
-        <v>254.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,34 +1046,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>118.0</v>
+        <v>126.0</v>
       </c>
       <c r="E24" t="n">
-        <v>49560.0</v>
+        <v>55508.0</v>
       </c>
       <c r="F24" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G24" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="H24" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>61.0</v>
+        <v>38.0</v>
       </c>
       <c r="K24" t="n">
-        <v>251.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,34 +1081,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>114.0</v>
+        <v>129.0</v>
       </c>
       <c r="E25" t="n">
-        <v>50468.0</v>
+        <v>54040.0</v>
       </c>
       <c r="F25" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="G25" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>39.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>237.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,34 +1116,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>38.0</v>
+        <v>56.0</v>
       </c>
       <c r="C26" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D26" t="n">
-        <v>111.0</v>
+        <v>156.0</v>
       </c>
       <c r="E26" t="n">
-        <v>43400.0</v>
+        <v>65520.0</v>
       </c>
       <c r="F26" t="n">
-        <v>38.0</v>
+        <v>58.0</v>
       </c>
       <c r="G26" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.00000000000001</v>
+        <v>34.0</v>
       </c>
       <c r="K26" t="n">
-        <v>229.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,34 +1151,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="C27" t="n">
         <v>93.0</v>
       </c>
       <c r="D27" t="n">
-        <v>144.0</v>
+        <v>121.0</v>
       </c>
       <c r="E27" t="n">
-        <v>60480.0</v>
+        <v>47320.0</v>
       </c>
       <c r="F27" t="n">
-        <v>53.0</v>
+        <v>41.0</v>
       </c>
       <c r="G27" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="H27" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>218.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,34 +1186,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>55.0</v>
+        <v>51.0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.0</v>
+        <v>40.0</v>
       </c>
       <c r="D28" t="n">
         <v>150.0</v>
       </c>
       <c r="E28" t="n">
-        <v>61573.0</v>
+        <v>57983.0</v>
       </c>
       <c r="F28" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="H28" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="K28" t="n">
-        <v>213.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,34 +1221,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>51.0</v>
+        <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>150.0</v>
+        <v>84.0</v>
       </c>
       <c r="E29" t="n">
-        <v>57983.0</v>
+        <v>34715.0</v>
       </c>
       <c r="F29" t="n">
-        <v>50.0</v>
+        <v>29.0</v>
       </c>
       <c r="G29" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="K29" t="n">
-        <v>207.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,34 +1256,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>44.0</v>
+        <v>59.0</v>
       </c>
       <c r="C30" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>118.0</v>
+        <v>158.0</v>
       </c>
       <c r="E30" t="n">
-        <v>48912.0</v>
+        <v>64373.0</v>
       </c>
       <c r="F30" t="n">
-        <v>43.0</v>
+        <v>61.0</v>
       </c>
       <c r="G30" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="H30" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.0</v>
+        <v>39.0</v>
       </c>
       <c r="K30" t="n">
-        <v>164.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,34 +1291,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>35.0</v>
+        <v>48.0</v>
       </c>
       <c r="C31" t="n">
         <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>103.0</v>
+        <v>129.0</v>
       </c>
       <c r="E31" t="n">
-        <v>43680.0</v>
+        <v>53952.0</v>
       </c>
       <c r="F31" t="n">
-        <v>35.0</v>
+        <v>47.0</v>
       </c>
       <c r="G31" t="n">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
       <c r="H31" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I31" t="n">
         <v>2.0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1.0</v>
-      </c>
       <c r="J31" t="n">
-        <v>26.0</v>
+        <v>49.0</v>
       </c>
       <c r="K31" t="n">
-        <v>158.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,34 +1326,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="C32" t="n">
         <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>72.0</v>
+        <v>112.0</v>
       </c>
       <c r="E32" t="n">
-        <v>29395.0</v>
+        <v>47600.0</v>
       </c>
       <c r="F32" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="G32" t="n">
         <v>10.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>42.0</v>
+        <v>26.0</v>
       </c>
       <c r="K32" t="n">
-        <v>144.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,25 +1361,25 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="C33" t="n">
-        <v>33.0</v>
+        <v>53.0</v>
       </c>
       <c r="D33" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="E33" t="n">
-        <v>27440.0</v>
+        <v>31640.0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="G33" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="H33" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
@@ -1394,7 +1388,7 @@
         <v>74.0</v>
       </c>
       <c r="K33" t="n">
-        <v>128.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="34">
@@ -1402,19 +1396,19 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="C34" t="n">
         <v>80.0</v>
       </c>
       <c r="D34" t="n">
-        <v>115.0</v>
+        <v>124.0</v>
       </c>
       <c r="E34" t="n">
-        <v>44979.0</v>
+        <v>49354.0</v>
       </c>
       <c r="F34" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="G34" t="n">
         <v>8.0</v>
@@ -1426,10 +1420,10 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="K34" t="n">
-        <v>116.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,22 +1431,22 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C35" t="n">
         <v>27.0</v>
       </c>
-      <c r="C35" t="n">
-        <v>40.0</v>
-      </c>
       <c r="D35" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="E35" t="n">
-        <v>31920.0</v>
+        <v>33320.0</v>
       </c>
       <c r="F35" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H35" t="n">
         <v>8.0</v>
@@ -1461,10 +1455,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>56.99999999999999</v>
+        <v>59.0</v>
       </c>
       <c r="K35" t="n">
-        <v>112.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,7 +1469,7 @@
         <v>13.0</v>
       </c>
       <c r="C36" t="n">
-        <v>47.0</v>
+        <v>20.0</v>
       </c>
       <c r="D36" t="n">
         <v>39.0</v>
@@ -1499,7 +1493,7 @@
         <v>71.0</v>
       </c>
       <c r="K36" t="n">
-        <v>109.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,7 +1504,7 @@
         <v>34.0</v>
       </c>
       <c r="C37" t="n">
-        <v>33.0</v>
+        <v>7.0</v>
       </c>
       <c r="D37" t="n">
         <v>98.0</v>
@@ -1534,7 +1528,7 @@
         <v>48.0</v>
       </c>
       <c r="K37" t="n">
-        <v>95.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="38">
@@ -1542,101 +1536,101 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="C38" t="n">
         <v>47.0</v>
       </c>
       <c r="D38" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="E38" t="n">
-        <v>17227.0</v>
+        <v>18538.0</v>
       </c>
       <c r="F38" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.0</v>
       </c>
-      <c r="H38" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="K38" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="E39" t="n">
-        <v>10867.0</v>
+        <v>4760.0</v>
       </c>
       <c r="F39" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I39" t="n">
         <v>1.0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.0</v>
       </c>
       <c r="J39" t="n">
         <v>33.0</v>
       </c>
       <c r="K39" t="n">
-        <v>63.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="C40" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>51.0</v>
+        <v>9.0</v>
       </c>
       <c r="E40" t="n">
-        <v>19104.0</v>
+        <v>3920.0</v>
       </c>
       <c r="F40" t="n">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>6.0</v>
+        <v>67.0</v>
       </c>
       <c r="K40" t="n">
         <v>42.0</v>
@@ -1644,25 +1638,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>2240.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -1670,32 +1664,34 @@
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
-      <c r="J41"/>
+      <c r="J41" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K41" t="n">
-        <v>40.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>2800.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
@@ -1703,34 +1699,32 @@
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
-      <c r="J42" t="n">
-        <v>50.0</v>
-      </c>
+      <c r="J42"/>
       <c r="K42" t="n">
-        <v>31.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2240.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1738,16 +1732,14 @@
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
-      <c r="J43" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="J43"/>
       <c r="K43" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -1775,24 +1767,24 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>21.0</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>280.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1801,220 +1793,119 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>11.0</v>
+        <v>-4.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>106.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>40005.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J46"/>
+        <v>3.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>30.0</v>
+      </c>
       <c r="K46" t="n">
-        <v>11.0</v>
+        <v>-17.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>19.0</v>
+        <v>33.0</v>
       </c>
       <c r="C47" t="n">
-        <v>27.0</v>
+        <v>53.0</v>
       </c>
       <c r="D47" t="n">
-        <v>47.0</v>
+        <v>94.0</v>
       </c>
       <c r="E47" t="n">
-        <v>18451.0</v>
+        <v>27676.0</v>
       </c>
       <c r="F47" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="G47" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H47" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="J47" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="K47" t="n">
-        <v>7.0</v>
+        <v>-231.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>54320.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J48"/>
+        <v>6.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>28.999999999999996</v>
+      </c>
       <c r="K48" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>37381.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-17.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>3640.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-182.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>26995.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-229.0</v>
+        <v>-637.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -59,51 +59,51 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>snowkids</t>
+  </si>
+  <si>
     <t>King Bonixe</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>snowkids</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
     <t>zau</t>
   </si>
   <si>
+    <t>Tio João</t>
+  </si>
+  <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
-    <t>Tabo da amarela</t>
+    <t>Ricky</t>
   </si>
   <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>unb</t>
   </si>
   <si>
+    <t>Robb Stark</t>
+  </si>
+  <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
     <t>TheKingJK</t>
   </si>
   <si>
@@ -116,27 +116,21 @@
     <t>LCINORC</t>
   </si>
   <si>
+    <t>filipe</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>filipe</t>
-  </si>
-  <si>
-    <t>Jonix21</t>
-  </si>
-  <si>
-    <t>metamox</t>
-  </si>
-  <si>
     <t>Da Silva</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
     <t>hugo</t>
   </si>
   <si>
@@ -149,37 +143,52 @@
     <t>Wut</t>
   </si>
   <si>
-    <t>batata</t>
-  </si>
-  <si>
-    <t>supercell</t>
-  </si>
-  <si>
     <t>rei da guerra</t>
   </si>
   <si>
-    <t>Rei</t>
+    <t>nunogsp</t>
   </si>
   <si>
     <t>Barbosa</t>
   </si>
   <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t>Marcelino</t>
   </si>
   <si>
+    <t>The fats</t>
+  </si>
+  <si>
+    <t>DiDaarc</t>
+  </si>
+  <si>
+    <t>San-Nin</t>
+  </si>
+  <si>
+    <t>PedroNabaisHD</t>
+  </si>
+  <si>
+    <t>supercel</t>
+  </si>
+  <si>
     <t>⚽vinicius f.c⚽</t>
   </si>
   <si>
-    <t>metralha</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Ruizinhooo</t>
+    <t>AlexCarneiro</t>
+  </si>
+  <si>
+    <t>Os Irmaos PT</t>
   </si>
   <si>
     <t>Sra. Clash</t>
+  </si>
+  <si>
+    <t>CarvaPower.</t>
   </si>
   <si>
     <t>Manu</t>
@@ -276,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="C2" t="n">
         <v>93.0</v>
       </c>
       <c r="D2" t="n">
-        <v>182.0</v>
+        <v>191.0</v>
       </c>
       <c r="E2" t="n">
-        <v>73687.0</v>
+        <v>77327.0</v>
       </c>
       <c r="F2" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -300,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
       <c r="K2" t="n">
-        <v>532.0</v>
+        <v>553.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>186.0</v>
+        <v>195.0</v>
       </c>
       <c r="E3" t="n">
-        <v>73080.0</v>
+        <v>76720.0</v>
       </c>
       <c r="F3" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="G3" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -335,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="K3" t="n">
-        <v>501.0</v>
+        <v>529.0</v>
       </c>
     </row>
     <row r="4">
@@ -346,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="C4" t="n">
         <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>180.0</v>
+        <v>189.0</v>
       </c>
       <c r="E4" t="n">
-        <v>72240.0</v>
+        <v>76440.0</v>
       </c>
       <c r="F4" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="G4" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -373,7 +382,7 @@
         <v>67.0</v>
       </c>
       <c r="K4" t="n">
-        <v>464.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="5">
@@ -381,34 +390,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>186.0</v>
+        <v>195.0</v>
       </c>
       <c r="E5" t="n">
-        <v>73932.0</v>
+        <v>77852.0</v>
       </c>
       <c r="F5" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="K5" t="n">
-        <v>463.0</v>
+        <v>469.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,34 +425,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>58.0</v>
+        <v>65.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>169.0</v>
+        <v>193.0</v>
       </c>
       <c r="E6" t="n">
-        <v>67760.0</v>
+        <v>77050.0</v>
       </c>
       <c r="F6" t="n">
-        <v>62.0</v>
+        <v>67.0</v>
       </c>
       <c r="G6" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>66.0</v>
+        <v>60.0</v>
       </c>
       <c r="K6" t="n">
-        <v>434.0</v>
+        <v>454.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,28 +466,28 @@
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>183.0</v>
+        <v>178.0</v>
       </c>
       <c r="E7" t="n">
-        <v>70735.0</v>
+        <v>71680.0</v>
       </c>
       <c r="F7" t="n">
         <v>65.0</v>
       </c>
       <c r="G7" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>57.99999999999999</v>
+        <v>65.0</v>
       </c>
       <c r="K7" t="n">
-        <v>433.0</v>
+        <v>449.0</v>
       </c>
     </row>
     <row r="8">
@@ -486,34 +495,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>184.0</v>
+        <v>189.0</v>
       </c>
       <c r="E8" t="n">
-        <v>73970.0</v>
+        <v>77000.0</v>
       </c>
       <c r="F8" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="G8" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" t="n">
-        <v>57.99999999999999</v>
+        <v>61.0</v>
       </c>
       <c r="K8" t="n">
-        <v>427.0</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="9">
@@ -521,34 +530,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>171.0</v>
+        <v>192.0</v>
       </c>
       <c r="E9" t="n">
-        <v>69777.0</v>
+        <v>74375.0</v>
       </c>
       <c r="F9" t="n">
-        <v>59.0</v>
+        <v>69.0</v>
       </c>
       <c r="G9" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>71.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>418.0</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="10">
@@ -556,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>180.0</v>
+        <v>178.0</v>
       </c>
       <c r="E10" t="n">
-        <v>73360.0</v>
+        <v>73417.0</v>
       </c>
       <c r="F10" t="n">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="G10" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" t="n">
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.0</v>
+        <v>71.0</v>
       </c>
       <c r="K10" t="n">
-        <v>413.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="11">
@@ -591,22 +600,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>186.0</v>
+        <v>195.0</v>
       </c>
       <c r="E11" t="n">
-        <v>75320.0</v>
+        <v>79520.0</v>
       </c>
       <c r="F11" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="G11" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
@@ -618,7 +627,7 @@
         <v>48.0</v>
       </c>
       <c r="K11" t="n">
-        <v>401.0</v>
+        <v>417.0</v>
       </c>
     </row>
     <row r="12">
@@ -626,19 +635,19 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="C12" t="n">
         <v>80.0</v>
       </c>
       <c r="D12" t="n">
-        <v>173.0</v>
+        <v>182.0</v>
       </c>
       <c r="E12" t="n">
-        <v>71960.0</v>
+        <v>75880.0</v>
       </c>
       <c r="F12" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="G12" t="n">
         <v>32.0</v>
@@ -650,10 +659,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="K12" t="n">
-        <v>380.0</v>
+        <v>389.0</v>
       </c>
     </row>
     <row r="13">
@@ -661,34 +670,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="C13" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.0</v>
+        <v>189.0</v>
       </c>
       <c r="E13" t="n">
-        <v>65240.0</v>
+        <v>73931.0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.0</v>
+        <v>68.0</v>
       </c>
       <c r="G13" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="H13" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.0</v>
+        <v>46.0</v>
       </c>
       <c r="K13" t="n">
-        <v>371.0</v>
+        <v>382.0</v>
       </c>
     </row>
     <row r="14">
@@ -696,34 +705,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>60.0</v>
+        <v>43.0</v>
       </c>
       <c r="C14" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>180.0</v>
+        <v>127.0</v>
       </c>
       <c r="E14" t="n">
-        <v>70851.0</v>
+        <v>53760.0</v>
       </c>
       <c r="F14" t="n">
-        <v>65.0</v>
+        <v>46.0</v>
       </c>
       <c r="G14" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.0</v>
+        <v>70.0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="15">
@@ -731,34 +740,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>40.0</v>
+        <v>58.0</v>
       </c>
       <c r="C15" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D15" t="n">
-        <v>118.0</v>
+        <v>167.0</v>
       </c>
       <c r="E15" t="n">
-        <v>50120.0</v>
+        <v>67760.0</v>
       </c>
       <c r="F15" t="n">
-        <v>42.0</v>
+        <v>56.0</v>
       </c>
       <c r="G15" t="n">
-        <v>29.0</v>
+        <v>37.0</v>
       </c>
       <c r="H15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J15" t="n">
-        <v>69.0</v>
+        <v>66.0</v>
       </c>
       <c r="K15" t="n">
-        <v>343.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="16">
@@ -766,34 +775,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>57.0</v>
+        <v>61.0</v>
       </c>
       <c r="C16" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>163.0</v>
+        <v>180.0</v>
       </c>
       <c r="E16" t="n">
-        <v>65520.0</v>
+        <v>72554.0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.0</v>
+        <v>64.0</v>
       </c>
       <c r="G16" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="K16" t="n">
-        <v>342.0</v>
+        <v>363.0</v>
       </c>
     </row>
     <row r="17">
@@ -801,34 +810,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>171.0</v>
+        <v>170.0</v>
       </c>
       <c r="E17" t="n">
-        <v>69474.0</v>
+        <v>68880.0</v>
       </c>
       <c r="F17" t="n">
         <v>61.0</v>
       </c>
       <c r="G17" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="K17" t="n">
-        <v>337.0</v>
+        <v>352.0</v>
       </c>
     </row>
     <row r="18">
@@ -836,22 +845,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="C18" t="n">
         <v>73.0</v>
       </c>
       <c r="D18" t="n">
-        <v>145.0</v>
+        <v>154.0</v>
       </c>
       <c r="E18" t="n">
-        <v>58800.0</v>
+        <v>62440.0</v>
       </c>
       <c r="F18" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="H18" t="n">
         <v>11.0</v>
@@ -863,7 +872,7 @@
         <v>66.0</v>
       </c>
       <c r="K18" t="n">
-        <v>321.0</v>
+        <v>342.0</v>
       </c>
     </row>
     <row r="19">
@@ -871,34 +880,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D19" t="n">
-        <v>179.0</v>
+        <v>150.0</v>
       </c>
       <c r="E19" t="n">
-        <v>64240.0</v>
+        <v>59514.0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J19" t="n">
-        <v>44.0</v>
+        <v>66.0</v>
       </c>
       <c r="K19" t="n">
-        <v>317.0</v>
+        <v>336.0</v>
       </c>
     </row>
     <row r="20">
@@ -906,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>47.0</v>
+        <v>63.0</v>
       </c>
       <c r="C20" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>141.0</v>
+        <v>188.0</v>
       </c>
       <c r="E20" t="n">
-        <v>55594.0</v>
+        <v>67984.0</v>
       </c>
       <c r="F20" t="n">
-        <v>45.0</v>
+        <v>65.0</v>
       </c>
       <c r="G20" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.0</v>
+        <v>43.0</v>
       </c>
       <c r="K20" t="n">
-        <v>308.0</v>
+        <v>332.0</v>
       </c>
     </row>
     <row r="21">
@@ -941,22 +950,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>139.0</v>
+        <v>148.0</v>
       </c>
       <c r="E21" t="n">
-        <v>59080.0</v>
+        <v>62440.0</v>
       </c>
       <c r="F21" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="G21" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="H21" t="n">
         <v>11.0</v>
@@ -968,7 +977,7 @@
         <v>62.0</v>
       </c>
       <c r="K21" t="n">
-        <v>307.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="22">
@@ -976,22 +985,22 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="C22" t="n">
         <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>182.0</v>
+        <v>191.0</v>
       </c>
       <c r="E22" t="n">
-        <v>71607.0</v>
+        <v>74878.0</v>
       </c>
       <c r="F22" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H22" t="n">
         <v>1.0</v>
@@ -1000,10 +1009,10 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K22" t="n">
-        <v>304.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="23">
@@ -1011,22 +1020,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>129.0</v>
+        <v>138.0</v>
       </c>
       <c r="E23" t="n">
-        <v>55440.0</v>
+        <v>58520.0</v>
       </c>
       <c r="F23" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="G23" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -1038,7 +1047,7 @@
         <v>44.0</v>
       </c>
       <c r="K23" t="n">
-        <v>277.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="24">
@@ -1046,22 +1055,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>126.0</v>
+        <v>135.0</v>
       </c>
       <c r="E24" t="n">
-        <v>55508.0</v>
+        <v>58868.0</v>
       </c>
       <c r="F24" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="G24" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1073,7 +1082,7 @@
         <v>38.0</v>
       </c>
       <c r="K24" t="n">
-        <v>255.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="25">
@@ -1081,22 +1090,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>47.0</v>
+        <v>58.0</v>
       </c>
       <c r="C25" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D25" t="n">
-        <v>129.0</v>
+        <v>162.0</v>
       </c>
       <c r="E25" t="n">
-        <v>54040.0</v>
+        <v>68320.0</v>
       </c>
       <c r="F25" t="n">
-        <v>49.0</v>
+        <v>61.0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="H25" t="n">
         <v>12.0</v>
@@ -1105,7 +1114,7 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>55.00000000000001</v>
+        <v>34.0</v>
       </c>
       <c r="K25" t="n">
         <v>254.0</v>
@@ -1116,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="C26" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>156.0</v>
+        <v>137.0</v>
       </c>
       <c r="E26" t="n">
-        <v>65520.0</v>
+        <v>57400.0</v>
       </c>
       <c r="F26" t="n">
-        <v>58.0</v>
+        <v>51.0</v>
       </c>
       <c r="G26" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="H26" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>242.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="27">
@@ -1151,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>42.0</v>
+        <v>31.0</v>
       </c>
       <c r="C27" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D27" t="n">
         <v>93.0</v>
       </c>
-      <c r="D27" t="n">
-        <v>121.0</v>
-      </c>
       <c r="E27" t="n">
-        <v>47320.0</v>
+        <v>38635.0</v>
       </c>
       <c r="F27" t="n">
-        <v>41.0</v>
+        <v>32.0</v>
       </c>
       <c r="G27" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="H27" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>56.00000000000001</v>
+        <v>47.0</v>
       </c>
       <c r="K27" t="n">
-        <v>229.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="28">
@@ -1189,31 +1198,31 @@
         <v>51.0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.0</v>
+        <v>93.0</v>
       </c>
       <c r="D28" t="n">
-        <v>150.0</v>
+        <v>138.0</v>
       </c>
       <c r="E28" t="n">
-        <v>57983.0</v>
+        <v>58432.0</v>
       </c>
       <c r="F28" t="n">
         <v>50.0</v>
       </c>
       <c r="G28" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K28" t="n">
-        <v>202.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="29">
@@ -1221,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>28.0</v>
+        <v>62.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>84.0</v>
+        <v>166.0</v>
       </c>
       <c r="E29" t="n">
-        <v>34715.0</v>
+        <v>68293.0</v>
       </c>
       <c r="F29" t="n">
-        <v>29.0</v>
+        <v>64.0</v>
       </c>
       <c r="G29" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>48.0</v>
+        <v>41.0</v>
       </c>
       <c r="K29" t="n">
-        <v>182.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="30">
@@ -1256,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>59.0</v>
+        <v>39.0</v>
       </c>
       <c r="C30" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0</v>
+        <v>115.0</v>
       </c>
       <c r="E30" t="n">
-        <v>64373.0</v>
+        <v>49280.0</v>
       </c>
       <c r="F30" t="n">
-        <v>61.0</v>
+        <v>39.0</v>
       </c>
       <c r="G30" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="H30" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
       <c r="K30" t="n">
-        <v>181.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="31">
@@ -1291,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.0</v>
+        <v>60.0</v>
       </c>
       <c r="D31" t="n">
-        <v>129.0</v>
+        <v>84.0</v>
       </c>
       <c r="E31" t="n">
-        <v>53952.0</v>
+        <v>35560.0</v>
       </c>
       <c r="F31" t="n">
-        <v>47.0</v>
+        <v>30.0</v>
       </c>
       <c r="G31" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="I31" t="n">
         <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.0</v>
+        <v>73.0</v>
       </c>
       <c r="K31" t="n">
-        <v>173.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
       <c r="C32" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D32" t="n">
-        <v>112.0</v>
+        <v>133.0</v>
       </c>
       <c r="E32" t="n">
-        <v>47600.0</v>
+        <v>52714.0</v>
       </c>
       <c r="F32" t="n">
-        <v>38.0</v>
+        <v>48.0</v>
       </c>
       <c r="G32" t="n">
         <v>10.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="K32" t="n">
-        <v>172.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="33">
@@ -1364,31 +1373,31 @@
         <v>28.0</v>
       </c>
       <c r="C33" t="n">
-        <v>53.0</v>
+        <v>20.0</v>
       </c>
       <c r="D33" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="E33" t="n">
-        <v>31640.0</v>
+        <v>33320.0</v>
       </c>
       <c r="F33" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="G33" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="H33" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>74.0</v>
+        <v>59.0</v>
       </c>
       <c r="K33" t="n">
-        <v>146.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="34">
@@ -1396,34 +1405,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>44.0</v>
+        <v>18.0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.0</v>
+        <v>33.0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.0</v>
+        <v>51.0</v>
       </c>
       <c r="E34" t="n">
-        <v>49354.0</v>
+        <v>18538.0</v>
       </c>
       <c r="F34" t="n">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="H34" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="K34" t="n">
-        <v>123.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="35">
@@ -1431,34 +1440,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="C35" t="n">
-        <v>27.0</v>
+        <v>100.0</v>
       </c>
       <c r="D35" t="n">
-        <v>76.0</v>
+        <v>3.0</v>
       </c>
       <c r="E35" t="n">
-        <v>33320.0</v>
+        <v>1487.0</v>
       </c>
       <c r="F35" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="H35" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>109.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="36">
@@ -1466,22 +1475,22 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="C36" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>39.0</v>
+        <v>18.0</v>
       </c>
       <c r="E36" t="n">
-        <v>16530.0</v>
+        <v>7280.0</v>
       </c>
       <c r="F36" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="G36" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="H36" t="n">
         <v>0.0</v>
@@ -1490,10 +1499,10 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>71.0</v>
+        <v>50.0</v>
       </c>
       <c r="K36" t="n">
-        <v>102.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="37">
@@ -1501,34 +1510,32 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" t="n">
-        <v>98.0</v>
+        <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>38622.0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="H37" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>48.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J37"/>
       <c r="K37" t="n">
-        <v>82.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="38">
@@ -1536,34 +1543,32 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" t="n">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>18538.0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
-      <c r="J38" t="n">
-        <v>20.0</v>
-      </c>
+      <c r="J38"/>
       <c r="K38" t="n">
-        <v>66.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
@@ -1571,34 +1576,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C39" t="n">
-        <v>100.0</v>
+        <v>18.0</v>
       </c>
       <c r="D39" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="E39" t="n">
-        <v>4760.0</v>
+        <v>2240.0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.0</v>
+        <v>100.0</v>
       </c>
       <c r="K39" t="n">
-        <v>45.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="40">
@@ -1606,22 +1611,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>3920.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1629,11 +1634,9 @@
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
-      <c r="J40" t="n">
-        <v>67.0</v>
-      </c>
+      <c r="J40"/>
       <c r="K40" t="n">
-        <v>42.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="41">
@@ -1644,13 +1647,13 @@
         <v>2.0</v>
       </c>
       <c r="C41" t="n">
-        <v>25.0</v>
+        <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E41" t="n">
-        <v>2240.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
@@ -1659,7 +1662,7 @@
         <v>2.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -1668,7 +1671,7 @@
         <v>100.0</v>
       </c>
       <c r="K41" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="42">
@@ -1701,7 +1704,7 @@
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="43">
@@ -1709,19 +1712,19 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>2520.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
@@ -1732,9 +1735,11 @@
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
-      <c r="J43"/>
+      <c r="J43" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K43" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="44">
@@ -1767,7 +1772,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>-0.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="45">
@@ -1775,16 +1780,16 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>280.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1793,14 +1798,14 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>-4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="46">
@@ -1808,34 +1813,32 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>40005.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-17.0</v>
       </c>
     </row>
     <row r="47">
@@ -1843,34 +1846,32 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>94.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>27676.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>24.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>-231.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -1878,34 +1879,139 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>41947.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-54.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>33600.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-201.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C50" t="n">
         <v>47.0</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D50" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>27676.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-243.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C51" t="n">
         <v>40.0</v>
       </c>
-      <c r="D48" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>54320.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="D51" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>58800.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.0</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>6.0</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J51" t="n">
         <v>28.999999999999996</v>
       </c>
-      <c r="K48" t="n">
-        <v>-637.0</v>
+      <c r="K51" t="n">
+        <v>-620.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -65,12 +65,12 @@
     <t>King Bonixe</t>
   </si>
   <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
     <t>Madnasty</t>
   </si>
   <si>
-    <t>Fabíola</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
@@ -86,10 +86,13 @@
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Ricky</t>
+    <t>Robb Stark</t>
   </si>
   <si>
     <t>pjp</t>
@@ -98,15 +101,12 @@
     <t>unb</t>
   </si>
   <si>
-    <t>Robb Stark</t>
+    <t>TheKingJK</t>
   </si>
   <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
     <t>faneca</t>
   </si>
   <si>
@@ -116,18 +116,18 @@
     <t>LCINORC</t>
   </si>
   <si>
+    <t>Savler</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>Savler</t>
+    <t>Sergas</t>
   </si>
   <si>
     <t>Da Silva</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
     <t>qzt</t>
   </si>
   <si>
@@ -143,46 +143,46 @@
     <t>Wut</t>
   </si>
   <si>
+    <t>nunogsp</t>
+  </si>
+  <si>
+    <t>Barbosa</t>
+  </si>
+  <si>
     <t>rei da guerra</t>
   </si>
   <si>
-    <t>nunogsp</t>
-  </si>
-  <si>
-    <t>Barbosa</t>
-  </si>
-  <si>
-    <t>Antonio</t>
+    <t>Thiago 2</t>
   </si>
   <si>
     <t>André</t>
   </si>
   <si>
+    <t>PedroNabaisHD</t>
+  </si>
+  <si>
     <t>Marcelino</t>
   </si>
   <si>
-    <t>The fats</t>
+    <t>Destruidor</t>
+  </si>
+  <si>
+    <t>San-Nin</t>
+  </si>
+  <si>
+    <t>Os Irmaos PT</t>
   </si>
   <si>
     <t>DiDaarc</t>
   </si>
   <si>
-    <t>San-Nin</t>
-  </si>
-  <si>
-    <t>PedroNabaisHD</t>
-  </si>
-  <si>
-    <t>supercel</t>
-  </si>
-  <si>
     <t>⚽vinicius f.c⚽</t>
   </si>
   <si>
     <t>AlexCarneiro</t>
   </si>
   <si>
-    <t>Os Irmaos PT</t>
+    <t>metralha</t>
   </si>
   <si>
     <t>Sra. Clash</t>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="C2" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>191.0</v>
+        <v>200.0</v>
       </c>
       <c r="E2" t="n">
-        <v>77327.0</v>
+        <v>80967.0</v>
       </c>
       <c r="F2" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="G2" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -309,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="K2" t="n">
-        <v>553.0</v>
+        <v>581.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>195.0</v>
+        <v>204.0</v>
       </c>
       <c r="E3" t="n">
-        <v>76720.0</v>
+        <v>80640.0</v>
       </c>
       <c r="F3" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="G3" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="K3" t="n">
-        <v>529.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="C4" t="n">
         <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>189.0</v>
+        <v>198.0</v>
       </c>
       <c r="E4" t="n">
-        <v>76440.0</v>
+        <v>80080.0</v>
       </c>
       <c r="F4" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="G4" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -382,7 +382,7 @@
         <v>67.0</v>
       </c>
       <c r="K4" t="n">
-        <v>486.0</v>
+        <v>508.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>195.0</v>
+        <v>204.0</v>
       </c>
       <c r="E5" t="n">
-        <v>77852.0</v>
+        <v>81492.0</v>
       </c>
       <c r="F5" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="G5" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -417,7 +417,7 @@
         <v>73.0</v>
       </c>
       <c r="K5" t="n">
-        <v>469.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>193.0</v>
+        <v>202.0</v>
       </c>
       <c r="E6" t="n">
-        <v>77050.0</v>
+        <v>80042.0</v>
       </c>
       <c r="F6" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="G6" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
@@ -449,10 +449,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="K6" t="n">
-        <v>454.0</v>
+        <v>480.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>178.0</v>
+        <v>187.0</v>
       </c>
       <c r="E7" t="n">
-        <v>71680.0</v>
+        <v>75040.0</v>
       </c>
       <c r="F7" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="G7" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="H7" t="n">
         <v>5.0</v>
@@ -487,7 +487,7 @@
         <v>65.0</v>
       </c>
       <c r="K7" t="n">
-        <v>449.0</v>
+        <v>469.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,19 +495,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>189.0</v>
+        <v>201.0</v>
       </c>
       <c r="E8" t="n">
-        <v>77000.0</v>
+        <v>78855.0</v>
       </c>
       <c r="F8" t="n">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
       <c r="G8" t="n">
         <v>40.0</v>
@@ -516,13 +516,13 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>61.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>441.0</v>
+        <v>464.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,34 +530,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>192.0</v>
+        <v>198.0</v>
       </c>
       <c r="E9" t="n">
-        <v>74375.0</v>
+        <v>80360.0</v>
       </c>
       <c r="F9" t="n">
         <v>69.0</v>
       </c>
       <c r="G9" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>55.00000000000001</v>
+        <v>59.0</v>
       </c>
       <c r="K9" t="n">
-        <v>441.0</v>
+        <v>455.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,22 +565,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D10" t="n">
-        <v>178.0</v>
+        <v>184.0</v>
       </c>
       <c r="E10" t="n">
-        <v>73417.0</v>
+        <v>75937.0</v>
       </c>
       <c r="F10" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="G10" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H10" t="n">
         <v>8.0</v>
@@ -589,10 +589,10 @@
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="K10" t="n">
-        <v>430.0</v>
+        <v>448.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,22 +600,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>195.0</v>
+        <v>204.0</v>
       </c>
       <c r="E11" t="n">
-        <v>79520.0</v>
+        <v>83720.0</v>
       </c>
       <c r="F11" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="G11" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
@@ -624,10 +624,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="K11" t="n">
-        <v>417.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,19 +635,19 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="C12" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D12" t="n">
-        <v>182.0</v>
+        <v>191.0</v>
       </c>
       <c r="E12" t="n">
-        <v>75880.0</v>
+        <v>79520.0</v>
       </c>
       <c r="F12" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="G12" t="n">
         <v>32.0</v>
@@ -659,10 +659,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="K12" t="n">
-        <v>389.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,19 +670,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>189.0</v>
+        <v>198.0</v>
       </c>
       <c r="E13" t="n">
-        <v>73931.0</v>
+        <v>77291.0</v>
       </c>
       <c r="F13" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="G13" t="n">
         <v>31.0</v>
@@ -694,10 +694,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="K13" t="n">
-        <v>382.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,22 +705,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C14" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>127.0</v>
+        <v>133.0</v>
       </c>
       <c r="E14" t="n">
-        <v>53760.0</v>
+        <v>56000.0</v>
       </c>
       <c r="F14" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G14" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="H14" t="n">
         <v>2.0</v>
@@ -729,10 +729,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="K14" t="n">
-        <v>370.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,34 +740,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>58.0</v>
+        <v>64.0</v>
       </c>
       <c r="C15" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>167.0</v>
+        <v>189.0</v>
       </c>
       <c r="E15" t="n">
-        <v>67760.0</v>
+        <v>76194.0</v>
       </c>
       <c r="F15" t="n">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
       <c r="G15" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="H15" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>66.0</v>
+        <v>45.0</v>
       </c>
       <c r="K15" t="n">
-        <v>366.0</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,34 +775,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="D16" t="n">
-        <v>180.0</v>
+        <v>173.0</v>
       </c>
       <c r="E16" t="n">
-        <v>72554.0</v>
+        <v>70280.0</v>
       </c>
       <c r="F16" t="n">
-        <v>64.0</v>
+        <v>58.0</v>
       </c>
       <c r="G16" t="n">
-        <v>28.0</v>
+        <v>38.0</v>
       </c>
       <c r="H16" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.0</v>
+        <v>66.0</v>
       </c>
       <c r="K16" t="n">
-        <v>363.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,34 +810,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>60.0</v>
+        <v>53.0</v>
       </c>
       <c r="C17" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0</v>
+        <v>159.0</v>
       </c>
       <c r="E17" t="n">
-        <v>68880.0</v>
+        <v>63434.0</v>
       </c>
       <c r="F17" t="n">
-        <v>61.0</v>
+        <v>53.0</v>
       </c>
       <c r="G17" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="H17" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.0</v>
+        <v>66.0</v>
       </c>
       <c r="K17" t="n">
-        <v>352.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,34 +845,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>55.0</v>
+        <v>63.0</v>
       </c>
       <c r="C18" t="n">
-        <v>73.0</v>
+        <v>93.0</v>
       </c>
       <c r="D18" t="n">
-        <v>154.0</v>
+        <v>179.0</v>
       </c>
       <c r="E18" t="n">
-        <v>62440.0</v>
+        <v>72800.0</v>
       </c>
       <c r="F18" t="n">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="G18" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="H18" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>66.0</v>
+        <v>52.0</v>
       </c>
       <c r="K18" t="n">
-        <v>342.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,34 +880,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="C19" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D19" t="n">
-        <v>150.0</v>
+        <v>161.0</v>
       </c>
       <c r="E19" t="n">
-        <v>59514.0</v>
+        <v>65240.0</v>
       </c>
       <c r="F19" t="n">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
       <c r="G19" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="K19" t="n">
-        <v>336.0</v>
+        <v>354.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>63.0</v>
+        <v>56.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>188.0</v>
+        <v>157.0</v>
       </c>
       <c r="E20" t="n">
-        <v>67984.0</v>
+        <v>66360.0</v>
       </c>
       <c r="F20" t="n">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="G20" t="n">
-        <v>28.0</v>
+        <v>37.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="K20" t="n">
-        <v>332.0</v>
+        <v>348.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>53.0</v>
+        <v>66.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>148.0</v>
+        <v>197.0</v>
       </c>
       <c r="E21" t="n">
-        <v>62440.0</v>
+        <v>70676.0</v>
       </c>
       <c r="F21" t="n">
-        <v>56.0</v>
+        <v>68.0</v>
       </c>
       <c r="G21" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="H21" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
       <c r="K21" t="n">
-        <v>327.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,19 +985,19 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>191.0</v>
+        <v>200.0</v>
       </c>
       <c r="E22" t="n">
-        <v>74878.0</v>
+        <v>78238.0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="G22" t="n">
         <v>22.0</v>
@@ -1009,10 +1009,10 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="K22" t="n">
-        <v>324.0</v>
+        <v>331.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,22 +1020,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>138.0</v>
+        <v>147.0</v>
       </c>
       <c r="E23" t="n">
-        <v>58520.0</v>
+        <v>62160.0</v>
       </c>
       <c r="F23" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="G23" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -1044,10 +1044,10 @@
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="K23" t="n">
-        <v>291.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,22 +1055,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>135.0</v>
+        <v>144.0</v>
       </c>
       <c r="E24" t="n">
-        <v>58868.0</v>
+        <v>62508.0</v>
       </c>
       <c r="F24" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="G24" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1079,10 +1079,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="K24" t="n">
-        <v>269.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>58.0</v>
+        <v>53.0</v>
       </c>
       <c r="C25" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>162.0</v>
+        <v>146.0</v>
       </c>
       <c r="E25" t="n">
-        <v>68320.0</v>
+        <v>61880.0</v>
       </c>
       <c r="F25" t="n">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
       <c r="G25" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="H25" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>254.0</v>
+        <v>271.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="C26" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D26" t="n">
-        <v>137.0</v>
+        <v>168.0</v>
       </c>
       <c r="E26" t="n">
-        <v>57400.0</v>
+        <v>70280.0</v>
       </c>
       <c r="F26" t="n">
-        <v>51.0</v>
+        <v>63.0</v>
       </c>
       <c r="G26" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="H26" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.00000000000001</v>
+        <v>35.0</v>
       </c>
       <c r="K26" t="n">
-        <v>248.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>31.0</v>
+        <v>54.0</v>
       </c>
       <c r="C27" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D27" t="n">
-        <v>93.0</v>
+        <v>147.0</v>
       </c>
       <c r="E27" t="n">
-        <v>38635.0</v>
+        <v>61792.0</v>
       </c>
       <c r="F27" t="n">
-        <v>32.0</v>
+        <v>53.0</v>
       </c>
       <c r="G27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H27" t="n">
         <v>15.0</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="K27" t="n">
-        <v>197.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,34 +1195,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>51.0</v>
+        <v>34.0</v>
       </c>
       <c r="C28" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.0</v>
+        <v>100.0</v>
       </c>
       <c r="E28" t="n">
-        <v>58432.0</v>
+        <v>41995.0</v>
       </c>
       <c r="F28" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="G28" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="H28" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="K28" t="n">
-        <v>196.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>166.0</v>
+        <v>174.0</v>
       </c>
       <c r="E29" t="n">
-        <v>68293.0</v>
+        <v>71933.0</v>
       </c>
       <c r="F29" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="G29" t="n">
         <v>26.0</v>
       </c>
       <c r="H29" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="I29" t="n">
         <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="K29" t="n">
-        <v>192.0</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,22 +1265,22 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="C30" t="n">
         <v>80.0</v>
       </c>
       <c r="D30" t="n">
-        <v>115.0</v>
+        <v>124.0</v>
       </c>
       <c r="E30" t="n">
-        <v>49280.0</v>
+        <v>52640.0</v>
       </c>
       <c r="F30" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="G30" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H30" t="n">
         <v>2.0</v>
@@ -1292,7 +1292,7 @@
         <v>26.0</v>
       </c>
       <c r="K30" t="n">
-        <v>174.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="C31" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="D31" t="n">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
       <c r="E31" t="n">
-        <v>35560.0</v>
+        <v>38080.0</v>
       </c>
       <c r="F31" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="G31" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="I31" t="n">
         <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.0</v>
+        <v>70.0</v>
       </c>
       <c r="K31" t="n">
-        <v>168.0</v>
+        <v>162.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,19 +1335,19 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>133.0</v>
+        <v>142.0</v>
       </c>
       <c r="E32" t="n">
-        <v>52714.0</v>
+        <v>55986.0</v>
       </c>
       <c r="F32" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="G32" t="n">
         <v>10.0</v>
@@ -1359,10 +1359,10 @@
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,22 +1370,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="C33" t="n">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="D33" t="n">
-        <v>76.0</v>
+        <v>85.0</v>
       </c>
       <c r="E33" t="n">
-        <v>33320.0</v>
+        <v>36960.0</v>
       </c>
       <c r="F33" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="G33" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H33" t="n">
         <v>8.0</v>
@@ -1394,10 +1394,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>59.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>96.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,34 +1405,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.0</v>
+        <v>75.0</v>
       </c>
       <c r="D34" t="n">
-        <v>51.0</v>
+        <v>9.0</v>
       </c>
       <c r="E34" t="n">
-        <v>18538.0</v>
+        <v>4759.0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H34" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.0</v>
+        <v>67.0</v>
       </c>
       <c r="K34" t="n">
-        <v>62.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,23 +1440,23 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C35" t="n">
         <v>100.0</v>
       </c>
       <c r="D35" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11480.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G35" t="n">
         <v>3.0</v>
       </c>
-      <c r="E35" t="n">
-        <v>1487.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.0</v>
-      </c>
       <c r="H35" t="n">
         <v>0.0</v>
       </c>
@@ -1464,10 +1464,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="K35" t="n">
-        <v>56.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="C36" t="n">
-        <v>100.0</v>
+        <v>27.0</v>
       </c>
       <c r="D36" t="n">
-        <v>18.0</v>
+        <v>54.0</v>
       </c>
       <c r="E36" t="n">
-        <v>7280.0</v>
+        <v>19324.0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="G36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.0</v>
       </c>
-      <c r="H36" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I36" t="n">
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>50.0</v>
+        <v>24.0</v>
       </c>
       <c r="K36" t="n">
-        <v>56.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,19 +1510,19 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>0.0</v>
@@ -1533,9 +1533,11 @@
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
-      <c r="J37"/>
+      <c r="J37" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K37" t="n">
-        <v>38.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="38">
@@ -1543,22 +1545,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>3360.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1566,9 +1568,11 @@
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
-      <c r="J38"/>
+      <c r="J38" t="n">
+        <v>33.0</v>
+      </c>
       <c r="K38" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="39">
@@ -1576,22 +1580,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C39" t="n">
-        <v>18.0</v>
+        <v>100.0</v>
       </c>
       <c r="D39" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6544.0</v>
+      </c>
+      <c r="F39" t="n">
         <v>6.0</v>
       </c>
-      <c r="E39" t="n">
-        <v>2240.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.0</v>
-      </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
@@ -1600,10 +1604,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>100.0</v>
+        <v>17.0</v>
       </c>
       <c r="K39" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
@@ -1611,22 +1615,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>2240.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1634,9 +1638,11 @@
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
-      <c r="J40"/>
+      <c r="J40" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K40" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="41">
@@ -1644,34 +1650,32 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1120.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
-      <c r="J41" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="J41"/>
       <c r="K41" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="42">
@@ -1704,7 +1708,7 @@
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="43">
@@ -1715,7 +1719,7 @@
         <v>2.0</v>
       </c>
       <c r="C43" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="D43" t="n">
         <v>6.0</v>
@@ -1724,10 +1728,10 @@
         <v>2520.0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1736,10 +1740,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="K43" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="44">
@@ -1747,32 +1751,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>3640.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J44"/>
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>75.0</v>
+      </c>
       <c r="K44" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="45">
@@ -1805,7 +1811,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
@@ -1838,7 +1844,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -1846,16 +1852,16 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>280.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -1864,14 +1870,14 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>3.0</v>
+        <v>-14.0</v>
       </c>
     </row>
     <row r="48">
@@ -1879,34 +1885,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>43276.0</v>
+      </c>
+      <c r="F48" t="n">
         <v>45.0</v>
       </c>
-      <c r="C48" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>41947.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>43.0</v>
-      </c>
       <c r="G48" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H48" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="I48" t="n">
         <v>3.0</v>
       </c>
       <c r="J48" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K48" t="n">
-        <v>-54.0</v>
+        <v>-74.0</v>
       </c>
     </row>
     <row r="49">
@@ -1941,7 +1947,7 @@
         <v>68.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-201.0</v>
+        <v>-213.0</v>
       </c>
     </row>
     <row r="50">
@@ -1949,22 +1955,22 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="C50" t="n">
         <v>47.0</v>
       </c>
       <c r="D50" t="n">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
       <c r="E50" t="n">
-        <v>27676.0</v>
+        <v>29266.0</v>
       </c>
       <c r="F50" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="G50" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H50" t="n">
         <v>5.0</v>
@@ -1973,10 +1979,10 @@
         <v>5.0</v>
       </c>
       <c r="J50" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-243.0</v>
+        <v>-237.0</v>
       </c>
     </row>
     <row r="51">
@@ -1984,22 +1990,22 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="C51" t="n">
-        <v>40.0</v>
+        <v>53.0</v>
       </c>
       <c r="D51" t="n">
-        <v>139.0</v>
+        <v>148.0</v>
       </c>
       <c r="E51" t="n">
-        <v>58800.0</v>
+        <v>63280.0</v>
       </c>
       <c r="F51" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="G51" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H51" t="n">
         <v>11.0</v>
@@ -2011,7 +2017,7 @@
         <v>28.999999999999996</v>
       </c>
       <c r="K51" t="n">
-        <v>-620.0</v>
+        <v>-604.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -113,7 +113,7 @@
     <t>Matilde Pires</t>
   </si>
   <si>
-    <t>LCINORC</t>
+    <t>Cronicl3_2</t>
   </si>
   <si>
     <t>Savler</t>
@@ -167,7 +167,7 @@
     <t>Destruidor</t>
   </si>
   <si>
-    <t>San-Nin</t>
+    <t>rei gnomo</t>
   </si>
   <si>
     <t>Os Irmaos PT</t>
@@ -176,7 +176,7 @@
     <t>DiDaarc</t>
   </si>
   <si>
-    <t>⚽vinicius f.c⚽</t>
+    <t>frederico</t>
   </si>
   <si>
     <t>AlexCarneiro</t>
@@ -1047,7 +1047,7 @@
         <v>47.0</v>
       </c>
       <c r="K23" t="n">
-        <v>319.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="24">
@@ -1187,7 +1187,7 @@
         <v>51.0</v>
       </c>
       <c r="K27" t="n">
-        <v>217.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="28">
@@ -1292,7 +1292,7 @@
         <v>26.0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="31">
@@ -1327,7 +1327,7 @@
         <v>70.0</v>
       </c>
       <c r="K31" t="n">
-        <v>162.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="32">
@@ -1467,7 +1467,7 @@
         <v>33.0</v>
       </c>
       <c r="K35" t="n">
-        <v>66.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="36">
@@ -1512,8 +1512,8 @@
       <c r="B37" t="n">
         <v>1.0</v>
       </c>
-      <c r="C37" t="e">
-        <v>#DIV/0!</v>
+      <c r="C37" t="n">
+        <v>50.0</v>
       </c>
       <c r="D37" t="n">
         <v>3.0</v>
@@ -1537,7 +1537,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="38">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>-14.0</v>
+        <v>-15.0</v>
       </c>
     </row>
     <row r="48">

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -80,39 +80,39 @@
     <t>zau</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>Tio João</t>
   </si>
   <si>
     <t>Tabo da amarela</t>
   </si>
   <si>
-    <t>Ricky</t>
+    <t>Robb Stark</t>
   </si>
   <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
     <t>unb</t>
   </si>
   <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
-    <t>carmen</t>
+    <t>Matilde Pires</t>
   </si>
   <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>Cronicl3_2</t>
   </si>
   <si>
@@ -128,43 +128,55 @@
     <t>Da Silva</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>hugo</t>
+    <t>fglopes</t>
   </si>
   <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>fglopes</t>
-  </si>
-  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>nunogsp</t>
+    <t>Gingka</t>
+  </si>
+  <si>
+    <t>Thiago 2</t>
+  </si>
+  <si>
+    <t>huracan</t>
   </si>
   <si>
     <t>Barbosa</t>
   </si>
   <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>MiStErIo</t>
+  </si>
+  <si>
+    <t>PedroNabaisHD</t>
+  </si>
+  <si>
     <t>rei da guerra</t>
   </si>
   <si>
-    <t>Thiago 2</t>
-  </si>
-  <si>
-    <t>André</t>
-  </si>
-  <si>
-    <t>PedroNabaisHD</t>
+    <t>Destruidor</t>
   </si>
   <si>
     <t>Marcelino</t>
   </si>
   <si>
-    <t>Destruidor</t>
+    <t>Fraldisqueira</t>
   </si>
   <si>
     <t>rei gnomo</t>
@@ -173,22 +185,10 @@
     <t>Os Irmaos PT</t>
   </si>
   <si>
-    <t>DiDaarc</t>
-  </si>
-  <si>
-    <t>frederico</t>
-  </si>
-  <si>
     <t>AlexCarneiro</t>
   </si>
   <si>
-    <t>metralha</t>
-  </si>
-  <si>
     <t>Sra. Clash</t>
-  </si>
-  <si>
-    <t>CarvaPower.</t>
   </si>
   <si>
     <t>Manu</t>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>67.0</v>
+        <v>71.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>200.0</v>
+        <v>212.0</v>
       </c>
       <c r="E2" t="n">
-        <v>80967.0</v>
+        <v>86076.0</v>
       </c>
       <c r="F2" t="n">
-        <v>69.0</v>
+        <v>73.0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -309,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.0</v>
+        <v>78.0</v>
       </c>
       <c r="K2" t="n">
-        <v>581.0</v>
+        <v>598.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>204.0</v>
+        <v>216.0</v>
       </c>
       <c r="E3" t="n">
-        <v>80640.0</v>
+        <v>86240.0</v>
       </c>
       <c r="F3" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="G3" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.0</v>
+        <v>71.0</v>
       </c>
       <c r="K3" t="n">
-        <v>557.0</v>
+        <v>582.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,34 +355,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>85120.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>66.0</v>
       </c>
-      <c r="C4" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80080.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67.0</v>
-      </c>
       <c r="K4" t="n">
-        <v>508.0</v>
+        <v>531.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>204.0</v>
+        <v>216.0</v>
       </c>
       <c r="E5" t="n">
-        <v>81492.0</v>
+        <v>85692.0</v>
       </c>
       <c r="F5" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="G5" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -417,7 +417,7 @@
         <v>73.0</v>
       </c>
       <c r="K5" t="n">
-        <v>490.0</v>
+        <v>519.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>202.0</v>
+        <v>214.0</v>
       </c>
       <c r="E6" t="n">
-        <v>80042.0</v>
+        <v>84906.0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="G6" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
@@ -452,7 +452,7 @@
         <v>61.0</v>
       </c>
       <c r="K6" t="n">
-        <v>480.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>187.0</v>
+        <v>199.0</v>
       </c>
       <c r="E7" t="n">
-        <v>75040.0</v>
+        <v>80360.0</v>
       </c>
       <c r="F7" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H7" t="n">
         <v>5.0</v>
@@ -484,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="K7" t="n">
-        <v>469.0</v>
+        <v>494.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,22 +495,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>67.0</v>
+        <v>71.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>201.0</v>
+        <v>213.0</v>
       </c>
       <c r="E8" t="n">
-        <v>78855.0</v>
+        <v>82775.0</v>
       </c>
       <c r="F8" t="n">
-        <v>72.0</v>
+        <v>76.0</v>
       </c>
       <c r="G8" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -519,10 +519,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.00000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>464.0</v>
+        <v>492.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>198.0</v>
+        <v>210.0</v>
       </c>
       <c r="E9" t="n">
-        <v>80360.0</v>
+        <v>85120.0</v>
       </c>
       <c r="F9" t="n">
-        <v>69.0</v>
+        <v>73.0</v>
       </c>
       <c r="G9" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -554,10 +554,10 @@
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>59.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>455.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,22 +565,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="C10" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D10" t="n">
-        <v>184.0</v>
+        <v>193.0</v>
       </c>
       <c r="E10" t="n">
-        <v>75937.0</v>
+        <v>79577.0</v>
       </c>
       <c r="F10" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="G10" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="H10" t="n">
         <v>8.0</v>
@@ -589,10 +589,10 @@
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>72.0</v>
+        <v>70.0</v>
       </c>
       <c r="K10" t="n">
-        <v>448.0</v>
+        <v>462.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,22 +600,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>204.0</v>
+        <v>216.0</v>
       </c>
       <c r="E11" t="n">
-        <v>83720.0</v>
+        <v>88200.0</v>
       </c>
       <c r="F11" t="n">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
@@ -624,10 +624,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="K11" t="n">
-        <v>433.0</v>
+        <v>449.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,22 +635,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="C12" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>191.0</v>
+        <v>203.0</v>
       </c>
       <c r="E12" t="n">
-        <v>79520.0</v>
+        <v>84280.0</v>
       </c>
       <c r="F12" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="G12" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
@@ -659,10 +659,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="K12" t="n">
-        <v>397.0</v>
+        <v>427.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,34 +670,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>198.0</v>
+        <v>201.0</v>
       </c>
       <c r="E13" t="n">
-        <v>77291.0</v>
+        <v>81514.0</v>
       </c>
       <c r="F13" t="n">
         <v>71.0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="K13" t="n">
-        <v>390.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,34 +705,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>45.0</v>
+        <v>70.0</v>
       </c>
       <c r="C14" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>133.0</v>
+        <v>210.0</v>
       </c>
       <c r="E14" t="n">
-        <v>56000.0</v>
+        <v>81771.0</v>
       </c>
       <c r="F14" t="n">
-        <v>48.0</v>
+        <v>75.0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.0</v>
+        <v>44.0</v>
       </c>
       <c r="K14" t="n">
-        <v>388.0</v>
+        <v>413.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,34 +740,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>64.0</v>
+        <v>48.0</v>
       </c>
       <c r="C15" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D15" t="n">
-        <v>189.0</v>
+        <v>140.0</v>
       </c>
       <c r="E15" t="n">
-        <v>76194.0</v>
+        <v>59534.0</v>
       </c>
       <c r="F15" t="n">
-        <v>67.0</v>
+        <v>51.0</v>
       </c>
       <c r="G15" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.0</v>
+        <v>73.0</v>
       </c>
       <c r="K15" t="n">
-        <v>384.0</v>
+        <v>411.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,34 +775,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
       <c r="C16" t="n">
-        <v>67.0</v>
+        <v>87.0</v>
       </c>
       <c r="D16" t="n">
-        <v>173.0</v>
+        <v>171.0</v>
       </c>
       <c r="E16" t="n">
-        <v>70280.0</v>
+        <v>68474.0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="G16" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="H16" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
         <v>2.0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.0</v>
+        <v>65.0</v>
       </c>
       <c r="K16" t="n">
-        <v>377.0</v>
+        <v>382.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,34 +810,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>53.0</v>
+        <v>64.0</v>
       </c>
       <c r="C17" t="n">
-        <v>87.0</v>
+        <v>73.0</v>
       </c>
       <c r="D17" t="n">
-        <v>159.0</v>
+        <v>185.0</v>
       </c>
       <c r="E17" t="n">
-        <v>63434.0</v>
+        <v>75880.0</v>
       </c>
       <c r="F17" t="n">
-        <v>53.0</v>
+        <v>61.0</v>
       </c>
       <c r="G17" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J17" t="n">
         <v>66.0</v>
       </c>
       <c r="K17" t="n">
-        <v>358.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,25 +845,25 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="C18" t="n">
         <v>93.0</v>
       </c>
       <c r="D18" t="n">
-        <v>179.0</v>
+        <v>190.0</v>
       </c>
       <c r="E18" t="n">
-        <v>72800.0</v>
+        <v>77280.0</v>
       </c>
       <c r="F18" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="G18" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="H18" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -872,7 +872,7 @@
         <v>52.0</v>
       </c>
       <c r="K18" t="n">
-        <v>355.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,34 +880,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>58.0</v>
+        <v>70.0</v>
       </c>
       <c r="C19" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.0</v>
+        <v>209.0</v>
       </c>
       <c r="E19" t="n">
-        <v>65240.0</v>
+        <v>74872.0</v>
       </c>
       <c r="F19" t="n">
-        <v>59.0</v>
+        <v>72.0</v>
       </c>
       <c r="G19" t="n">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="H19" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.0</v>
+        <v>43.0</v>
       </c>
       <c r="K19" t="n">
-        <v>354.0</v>
+        <v>367.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,22 +915,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>157.0</v>
+        <v>169.0</v>
       </c>
       <c r="E20" t="n">
-        <v>66360.0</v>
+        <v>71400.0</v>
       </c>
       <c r="F20" t="n">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="G20" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="H20" t="n">
         <v>11.0</v>
@@ -939,10 +939,10 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
       <c r="K20" t="n">
-        <v>348.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>66.0</v>
+        <v>62.0</v>
       </c>
       <c r="C21" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D21" t="n">
-        <v>197.0</v>
+        <v>171.0</v>
       </c>
       <c r="E21" t="n">
-        <v>70676.0</v>
+        <v>69440.0</v>
       </c>
       <c r="F21" t="n">
-        <v>68.0</v>
+        <v>63.0</v>
       </c>
       <c r="G21" t="n">
-        <v>28.0</v>
+        <v>42.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.0</v>
+        <v>67.0</v>
       </c>
       <c r="K21" t="n">
-        <v>338.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,34 +985,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>67.0</v>
+        <v>53.0</v>
       </c>
       <c r="C22" t="n">
         <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>200.0</v>
+        <v>159.0</v>
       </c>
       <c r="E22" t="n">
-        <v>78238.0</v>
+        <v>66920.0</v>
       </c>
       <c r="F22" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
       <c r="G22" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.0</v>
+        <v>48.0</v>
       </c>
       <c r="K22" t="n">
-        <v>331.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1020,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>49.0</v>
+        <v>71.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>147.0</v>
+        <v>212.0</v>
       </c>
       <c r="E23" t="n">
-        <v>62160.0</v>
+        <v>83278.0</v>
       </c>
       <c r="F23" t="n">
-        <v>51.0</v>
+        <v>77.0</v>
       </c>
       <c r="G23" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>47.0</v>
+        <v>30.0</v>
       </c>
       <c r="K23" t="n">
-        <v>318.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,22 +1055,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>144.0</v>
+        <v>156.0</v>
       </c>
       <c r="E24" t="n">
-        <v>62508.0</v>
+        <v>67635.0</v>
       </c>
       <c r="F24" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="G24" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1079,10 +1079,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="K24" t="n">
-        <v>283.0</v>
+        <v>307.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,22 +1090,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.0</v>
+        <v>158.0</v>
       </c>
       <c r="E25" t="n">
-        <v>61880.0</v>
+        <v>66360.0</v>
       </c>
       <c r="F25" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="G25" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="H25" t="n">
         <v>13.0</v>
@@ -1114,10 +1114,10 @@
         <v>1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>56.00000000000001</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>271.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,31 +1125,31 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="C26" t="n">
         <v>80.0</v>
       </c>
       <c r="D26" t="n">
-        <v>168.0</v>
+        <v>178.0</v>
       </c>
       <c r="E26" t="n">
-        <v>70280.0</v>
+        <v>73920.0</v>
       </c>
       <c r="F26" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="G26" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H26" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="K26" t="n">
         <v>264.0</v>
@@ -1160,22 +1160,22 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="C27" t="n">
         <v>93.0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.0</v>
+        <v>159.0</v>
       </c>
       <c r="E27" t="n">
-        <v>61792.0</v>
+        <v>67672.0</v>
       </c>
       <c r="F27" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="G27" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="H27" t="n">
         <v>15.0</v>
@@ -1184,10 +1184,10 @@
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="K27" t="n">
-        <v>216.0</v>
+        <v>249.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,34 +1195,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="C28" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D28" t="n">
-        <v>100.0</v>
+        <v>108.0</v>
       </c>
       <c r="E28" t="n">
-        <v>41995.0</v>
+        <v>45635.0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="G28" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>65.0</v>
+        <v>46.0</v>
       </c>
       <c r="C29" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D29" t="n">
-        <v>174.0</v>
+        <v>135.0</v>
       </c>
       <c r="E29" t="n">
-        <v>71933.0</v>
+        <v>57400.0</v>
       </c>
       <c r="F29" t="n">
-        <v>67.0</v>
+        <v>46.0</v>
       </c>
       <c r="G29" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="H29" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" t="n">
-        <v>39.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="K29" t="n">
-        <v>189.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>42.0</v>
+        <v>69.0</v>
       </c>
       <c r="C30" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>124.0</v>
+        <v>184.0</v>
       </c>
       <c r="E30" t="n">
-        <v>52640.0</v>
+        <v>75275.0</v>
       </c>
       <c r="F30" t="n">
-        <v>42.0</v>
+        <v>71.0</v>
       </c>
       <c r="G30" t="n">
-        <v>11.0</v>
+        <v>28.0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="K30" t="n">
-        <v>187.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>34.0</v>
+        <v>53.0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D31" t="n">
-        <v>90.0</v>
+        <v>151.0</v>
       </c>
       <c r="E31" t="n">
-        <v>38080.0</v>
+        <v>59906.0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.0</v>
+        <v>54.0</v>
       </c>
       <c r="G31" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.0</v>
+        <v>20.0</v>
       </c>
       <c r="K31" t="n">
-        <v>160.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>50.0</v>
+        <v>38.0</v>
       </c>
       <c r="C32" t="n">
         <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>142.0</v>
+        <v>100.0</v>
       </c>
       <c r="E32" t="n">
-        <v>55986.0</v>
+        <v>42280.0</v>
       </c>
       <c r="F32" t="n">
-        <v>51.0</v>
+        <v>37.0</v>
       </c>
       <c r="G32" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="H32" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J32" t="n">
-        <v>20.0</v>
+        <v>65.0</v>
       </c>
       <c r="K32" t="n">
-        <v>148.0</v>
+        <v>162.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,22 +1370,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="C33" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="D33" t="n">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
       <c r="E33" t="n">
-        <v>36960.0</v>
+        <v>38920.0</v>
       </c>
       <c r="F33" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="G33" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H33" t="n">
         <v>8.0</v>
@@ -1394,10 +1394,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>56.00000000000001</v>
+        <v>59.0</v>
       </c>
       <c r="K33" t="n">
-        <v>110.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,19 +1405,19 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C34" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4759.0</v>
+        <v>1960.0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G34" t="n">
         <v>2.0</v>
@@ -1429,10 +1429,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="K34" t="n">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,19 +1440,19 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="D35" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" t="n">
-        <v>11480.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="G35" t="n">
         <v>3.0</v>
@@ -1464,10 +1464,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>33.0</v>
+        <v>75.0</v>
       </c>
       <c r="K35" t="n">
-        <v>65.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="C36" t="n">
-        <v>27.0</v>
+        <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>54.0</v>
+        <v>6.0</v>
       </c>
       <c r="E36" t="n">
-        <v>19324.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F36" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.0</v>
+        <v>50.0</v>
       </c>
       <c r="K36" t="n">
-        <v>64.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,34 +1510,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C37" t="n">
-        <v>50.0</v>
+        <v>92.0</v>
       </c>
       <c r="D37" t="n">
-        <v>3.0</v>
+        <v>34.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1400.0</v>
+        <v>14560.0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="K37" t="n">
-        <v>51.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,19 +1545,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E38" t="n">
-        <v>3360.0</v>
+        <v>1680.0</v>
       </c>
       <c r="F38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G38" t="n">
         <v>1.0</v>
@@ -1569,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="K38" t="n">
-        <v>44.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,22 +1580,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C39" t="n">
         <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="E39" t="n">
-        <v>6544.0</v>
+        <v>8960.0</v>
       </c>
       <c r="F39" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
@@ -1604,10 +1604,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>17.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>32.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,22 +1615,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C40" t="n">
-        <v>14.0</v>
+        <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2240.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1642,7 +1642,7 @@
         <v>100.0</v>
       </c>
       <c r="K40" t="n">
-        <v>17.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,22 +1650,22 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>12336.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -1673,9 +1673,11 @@
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
-      <c r="J41"/>
+      <c r="J41" t="n">
+        <v>20.0</v>
+      </c>
       <c r="K41" t="n">
-        <v>17.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="42">
@@ -1683,32 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>21948.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J42"/>
+        <v>2.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>24.0</v>
+      </c>
       <c r="K42" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="43">
@@ -1719,19 +1723,19 @@
         <v>2.0</v>
       </c>
       <c r="C43" t="n">
-        <v>67.0</v>
+        <v>50.0</v>
       </c>
       <c r="D43" t="n">
         <v>6.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2520.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1740,10 +1744,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.0</v>
+        <v>67.0</v>
       </c>
       <c r="K43" t="n">
-        <v>15.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="44">
@@ -1754,31 +1758,31 @@
         <v>5.0</v>
       </c>
       <c r="C44" t="n">
-        <v>100.0</v>
+        <v>27.0</v>
       </c>
       <c r="D44" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="E44" t="n">
-        <v>3640.0</v>
+        <v>6160.0</v>
       </c>
       <c r="F44" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>75.0</v>
+        <v>40.0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
@@ -1811,7 +1815,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="46">
@@ -1819,32 +1823,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>280.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
         <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
-      <c r="J46"/>
+      <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K46" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="47">
@@ -1852,32 +1858,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C47" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3080.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="K47" t="n">
         <v>12.0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>280.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47" t="n">
-        <v>-15.0</v>
       </c>
     </row>
     <row r="48">
@@ -1885,34 +1893,32 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>115.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>43276.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>31.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J48"/>
       <c r="K48" t="n">
-        <v>-74.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="49">
@@ -1920,34 +1926,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>45516.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J49" t="n">
         <v>32.0</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>33600.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>68.0</v>
-      </c>
       <c r="K49" t="n">
-        <v>-213.0</v>
+        <v>-68.0</v>
       </c>
     </row>
     <row r="50">
@@ -1955,19 +1961,19 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="C50" t="n">
         <v>47.0</v>
       </c>
       <c r="D50" t="n">
-        <v>100.0</v>
+        <v>112.0</v>
       </c>
       <c r="E50" t="n">
-        <v>29266.0</v>
+        <v>32902.0</v>
       </c>
       <c r="F50" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="G50" t="n">
         <v>8.0</v>
@@ -1979,10 +1985,10 @@
         <v>5.0</v>
       </c>
       <c r="J50" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-237.0</v>
+        <v>-229.0</v>
       </c>
     </row>
     <row r="51">
@@ -1990,34 +1996,34 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="C51" t="n">
-        <v>53.0</v>
+        <v>80.0</v>
       </c>
       <c r="D51" t="n">
-        <v>148.0</v>
+        <v>157.0</v>
       </c>
       <c r="E51" t="n">
-        <v>63280.0</v>
+        <v>67200.0</v>
       </c>
       <c r="F51" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="G51" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H51" t="n">
         <v>14.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>11.0</v>
       </c>
       <c r="I51" t="n">
         <v>6.0</v>
       </c>
       <c r="J51" t="n">
-        <v>28.999999999999996</v>
+        <v>33.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-604.0</v>
+        <v>-598.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -59,60 +59,60 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
     <t>snowkids</t>
   </si>
   <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
     <t>Fabíola</t>
   </si>
   <si>
     <t>Madnasty</t>
   </si>
   <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
-    <t>Goblyn</t>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
+    <t>Ricky</t>
   </si>
   <si>
     <t>zau</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>Tio João</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>Robb Stark</t>
   </si>
   <si>
     <t>leal</t>
   </si>
   <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>TheKingJK</t>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>faneca</t>
   </si>
   <si>
     <t>unb</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>faneca</t>
-  </si>
-  <si>
     <t>Cronicl3_2</t>
   </si>
   <si>
@@ -146,34 +146,34 @@
     <t>Gingka</t>
   </si>
   <si>
+    <t>huracan</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>virtudes</t>
+  </si>
+  <si>
+    <t>MiStErIo</t>
+  </si>
+  <si>
     <t>Thiago 2</t>
   </si>
   <si>
-    <t>huracan</t>
-  </si>
-  <si>
     <t>Barbosa</t>
   </si>
   <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>André</t>
-  </si>
-  <si>
-    <t>MiStErIo</t>
-  </si>
-  <si>
     <t>PedroNabaisHD</t>
   </si>
   <si>
+    <t>Marcelino</t>
+  </si>
+  <si>
     <t>rei da guerra</t>
-  </si>
-  <si>
-    <t>Destruidor</t>
-  </si>
-  <si>
-    <t>Marcelino</t>
   </si>
   <si>
     <t>Fraldisqueira</t>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.0</v>
+        <v>221.0</v>
       </c>
       <c r="E2" t="n">
-        <v>86076.0</v>
+        <v>90083.0</v>
       </c>
       <c r="F2" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -312,7 +312,7 @@
         <v>78.0</v>
       </c>
       <c r="K2" t="n">
-        <v>598.0</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>216.0</v>
+        <v>225.0</v>
       </c>
       <c r="E3" t="n">
-        <v>86240.0</v>
+        <v>89880.0</v>
       </c>
       <c r="F3" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="G3" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -347,7 +347,7 @@
         <v>71.0</v>
       </c>
       <c r="K3" t="n">
-        <v>582.0</v>
+        <v>604.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>210.0</v>
+        <v>219.0</v>
       </c>
       <c r="E4" t="n">
-        <v>85120.0</v>
+        <v>89320.0</v>
       </c>
       <c r="F4" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="G4" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -379,10 +379,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="K4" t="n">
-        <v>531.0</v>
+        <v>560.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>216.0</v>
+        <v>225.0</v>
       </c>
       <c r="E5" t="n">
-        <v>85692.0</v>
+        <v>89052.0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="G5" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -417,7 +417,7 @@
         <v>73.0</v>
       </c>
       <c r="K5" t="n">
-        <v>519.0</v>
+        <v>539.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,34 +425,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>214.0</v>
+        <v>208.0</v>
       </c>
       <c r="E6" t="n">
-        <v>84906.0</v>
+        <v>83720.0</v>
       </c>
       <c r="F6" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="G6" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="K6" t="n">
-        <v>503.0</v>
+        <v>521.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,34 +460,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>68.0</v>
+        <v>75.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>199.0</v>
+        <v>223.0</v>
       </c>
       <c r="E7" t="n">
-        <v>80360.0</v>
+        <v>88266.0</v>
       </c>
       <c r="F7" t="n">
-        <v>72.0</v>
+        <v>76.0</v>
       </c>
       <c r="G7" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="K7" t="n">
-        <v>494.0</v>
+        <v>512.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,22 +495,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>213.0</v>
+        <v>222.0</v>
       </c>
       <c r="E8" t="n">
-        <v>82775.0</v>
+        <v>87255.0</v>
       </c>
       <c r="F8" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="G8" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -519,10 +519,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>492.0</v>
+        <v>508.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>210.0</v>
+        <v>219.0</v>
       </c>
       <c r="E9" t="n">
-        <v>85120.0</v>
+        <v>88760.0</v>
       </c>
       <c r="F9" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="G9" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -554,10 +554,10 @@
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>57.99999999999999</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>472.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>67.0</v>
+        <v>75.0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>193.0</v>
+        <v>225.0</v>
       </c>
       <c r="E10" t="n">
-        <v>79577.0</v>
+        <v>92120.0</v>
       </c>
       <c r="F10" t="n">
-        <v>67.0</v>
+        <v>81.0</v>
       </c>
       <c r="G10" t="n">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>70.0</v>
+        <v>48.0</v>
       </c>
       <c r="K10" t="n">
-        <v>462.0</v>
+        <v>484.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,34 +600,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>72.0</v>
+        <v>68.0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D11" t="n">
-        <v>216.0</v>
+        <v>196.0</v>
       </c>
       <c r="E11" t="n">
-        <v>88200.0</v>
+        <v>80417.0</v>
       </c>
       <c r="F11" t="n">
-        <v>77.0</v>
+        <v>68.0</v>
       </c>
       <c r="G11" t="n">
-        <v>35.0</v>
+        <v>48.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.0</v>
+        <v>71.0</v>
       </c>
       <c r="K11" t="n">
-        <v>449.0</v>
+        <v>469.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,22 +635,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>69.0</v>
+        <v>51.0</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D12" t="n">
-        <v>203.0</v>
+        <v>149.0</v>
       </c>
       <c r="E12" t="n">
-        <v>84280.0</v>
+        <v>62894.0</v>
       </c>
       <c r="F12" t="n">
-        <v>72.0</v>
+        <v>54.0</v>
       </c>
       <c r="G12" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
@@ -659,10 +659,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>49.0</v>
+        <v>74.0</v>
       </c>
       <c r="K12" t="n">
-        <v>427.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,22 +670,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>201.0</v>
+        <v>210.0</v>
       </c>
       <c r="E13" t="n">
-        <v>81514.0</v>
+        <v>85714.0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="G13" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="H13" t="n">
         <v>3.0</v>
@@ -697,7 +697,7 @@
         <v>46.0</v>
       </c>
       <c r="K13" t="n">
-        <v>415.0</v>
+        <v>431.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,34 +705,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="C14" t="n">
         <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>210.0</v>
+        <v>212.0</v>
       </c>
       <c r="E14" t="n">
-        <v>81771.0</v>
+        <v>88200.0</v>
       </c>
       <c r="F14" t="n">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="G14" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="K14" t="n">
-        <v>413.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,34 +740,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>48.0</v>
+        <v>73.0</v>
       </c>
       <c r="C15" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>140.0</v>
+        <v>219.0</v>
       </c>
       <c r="E15" t="n">
-        <v>59534.0</v>
+        <v>85131.0</v>
       </c>
       <c r="F15" t="n">
-        <v>51.0</v>
+        <v>78.0</v>
       </c>
       <c r="G15" t="n">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
       <c r="H15" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>73.0</v>
+        <v>44.0</v>
       </c>
       <c r="K15" t="n">
-        <v>411.0</v>
+        <v>427.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,22 +775,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C16" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0</v>
+        <v>180.0</v>
       </c>
       <c r="E16" t="n">
-        <v>68474.0</v>
+        <v>72394.0</v>
       </c>
       <c r="F16" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="G16" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
@@ -802,7 +802,7 @@
         <v>65.0</v>
       </c>
       <c r="K16" t="n">
-        <v>382.0</v>
+        <v>403.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,22 +810,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>78960.0</v>
+      </c>
+      <c r="F17" t="n">
         <v>64.0</v>
       </c>
-      <c r="C17" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>185.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>75880.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>61.0</v>
-      </c>
       <c r="G17" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="H17" t="n">
         <v>7.0</v>
@@ -837,7 +837,7 @@
         <v>66.0</v>
       </c>
       <c r="K17" t="n">
-        <v>375.0</v>
+        <v>395.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,22 +845,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="C18" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>190.0</v>
+        <v>178.0</v>
       </c>
       <c r="E18" t="n">
-        <v>77280.0</v>
+        <v>75320.0</v>
       </c>
       <c r="F18" t="n">
         <v>67.0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="H18" t="n">
         <v>11.0</v>
@@ -869,10 +869,10 @@
         <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
       <c r="K18" t="n">
-        <v>372.0</v>
+        <v>394.0</v>
       </c>
     </row>
     <row r="19">
@@ -883,31 +883,31 @@
         <v>70.0</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>209.0</v>
+        <v>199.0</v>
       </c>
       <c r="E19" t="n">
-        <v>74872.0</v>
+        <v>81200.0</v>
       </c>
       <c r="F19" t="n">
-        <v>72.0</v>
+        <v>70.0</v>
       </c>
       <c r="G19" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
       <c r="K19" t="n">
-        <v>367.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>60.0</v>
+        <v>73.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>169.0</v>
+        <v>218.0</v>
       </c>
       <c r="E20" t="n">
-        <v>71400.0</v>
+        <v>77881.0</v>
       </c>
       <c r="F20" t="n">
-        <v>64.0</v>
+        <v>75.0</v>
       </c>
       <c r="G20" t="n">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="H20" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>59.0</v>
+        <v>43.0</v>
       </c>
       <c r="K20" t="n">
-        <v>366.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="C21" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>171.0</v>
+        <v>168.0</v>
       </c>
       <c r="E21" t="n">
-        <v>69440.0</v>
+        <v>70560.0</v>
       </c>
       <c r="F21" t="n">
-        <v>63.0</v>
+        <v>59.0</v>
       </c>
       <c r="G21" t="n">
-        <v>42.0</v>
+        <v>30.0</v>
       </c>
       <c r="H21" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>67.0</v>
+        <v>51.0</v>
       </c>
       <c r="K21" t="n">
-        <v>360.0</v>
+        <v>376.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,34 +985,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>53.0</v>
+        <v>74.0</v>
       </c>
       <c r="C22" t="n">
         <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>159.0</v>
+        <v>221.0</v>
       </c>
       <c r="E22" t="n">
-        <v>66920.0</v>
+        <v>87443.0</v>
       </c>
       <c r="F22" t="n">
-        <v>56.0</v>
+        <v>80.0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>48.0</v>
+        <v>30.0</v>
       </c>
       <c r="K22" t="n">
-        <v>349.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1020,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>71.0</v>
+        <v>64.0</v>
       </c>
       <c r="C23" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D23" t="n">
-        <v>212.0</v>
+        <v>176.0</v>
       </c>
       <c r="E23" t="n">
-        <v>83278.0</v>
+        <v>71400.0</v>
       </c>
       <c r="F23" t="n">
-        <v>77.0</v>
+        <v>65.0</v>
       </c>
       <c r="G23" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.0</v>
+        <v>66.0</v>
       </c>
       <c r="K23" t="n">
-        <v>349.0</v>
+        <v>361.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,19 +1055,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>156.0</v>
+        <v>165.0</v>
       </c>
       <c r="E24" t="n">
-        <v>67635.0</v>
+        <v>70995.0</v>
       </c>
       <c r="F24" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="G24" t="n">
         <v>21.0</v>
@@ -1079,10 +1079,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="K24" t="n">
-        <v>307.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>158.0</v>
+        <v>166.0</v>
       </c>
       <c r="E25" t="n">
-        <v>66360.0</v>
+        <v>69440.0</v>
       </c>
       <c r="F25" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="G25" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="H25" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="I25" t="n">
         <v>1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>55.00000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>294.0</v>
+        <v>306.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,22 +1125,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="C26" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D26" t="n">
-        <v>178.0</v>
+        <v>187.0</v>
       </c>
       <c r="E26" t="n">
-        <v>73920.0</v>
+        <v>77560.0</v>
       </c>
       <c r="F26" t="n">
-        <v>67.0</v>
+        <v>71.0</v>
       </c>
       <c r="G26" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H26" t="n">
         <v>14.0</v>
@@ -1152,7 +1152,7 @@
         <v>34.0</v>
       </c>
       <c r="K26" t="n">
-        <v>264.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,22 +1160,22 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="C27" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.0</v>
+        <v>168.0</v>
       </c>
       <c r="E27" t="n">
-        <v>67672.0</v>
+        <v>71312.0</v>
       </c>
       <c r="F27" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="G27" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="H27" t="n">
         <v>15.0</v>
@@ -1184,10 +1184,10 @@
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="K27" t="n">
-        <v>249.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,22 +1195,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C28" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D28" t="n">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
       <c r="E28" t="n">
-        <v>45635.0</v>
+        <v>46755.0</v>
       </c>
       <c r="F28" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H28" t="n">
         <v>3.0</v>
@@ -1219,10 +1219,10 @@
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="K28" t="n">
-        <v>226.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,19 +1230,19 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="C29" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D29" t="n">
-        <v>135.0</v>
+        <v>144.0</v>
       </c>
       <c r="E29" t="n">
-        <v>57400.0</v>
+        <v>61040.0</v>
       </c>
       <c r="F29" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G29" t="n">
         <v>13.0</v>
@@ -1251,13 +1251,13 @@
         <v>3.0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.000000000000004</v>
+        <v>27.0</v>
       </c>
       <c r="K29" t="n">
-        <v>209.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>184.0</v>
+        <v>192.0</v>
       </c>
       <c r="E30" t="n">
-        <v>75275.0</v>
+        <v>78915.0</v>
       </c>
       <c r="F30" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="G30" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="H30" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="K30" t="n">
-        <v>185.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,22 +1300,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>151.0</v>
+        <v>160.0</v>
       </c>
       <c r="E31" t="n">
-        <v>59906.0</v>
+        <v>63826.0</v>
       </c>
       <c r="F31" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="G31" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H31" t="n">
         <v>8.0</v>
@@ -1324,10 +1324,10 @@
         <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K31" t="n">
-        <v>163.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,22 +1335,22 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="C32" t="n">
         <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>100.0</v>
+        <v>106.0</v>
       </c>
       <c r="E32" t="n">
-        <v>42280.0</v>
+        <v>44240.0</v>
       </c>
       <c r="F32" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="G32" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H32" t="n">
         <v>14.0</v>
@@ -1359,10 +1359,10 @@
         <v>2.0</v>
       </c>
       <c r="J32" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="K32" t="n">
-        <v>162.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,34 +1370,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="C33" t="n">
-        <v>40.0</v>
+        <v>53.0</v>
       </c>
       <c r="D33" t="n">
-        <v>91.0</v>
+        <v>96.0</v>
       </c>
       <c r="E33" t="n">
-        <v>38920.0</v>
+        <v>40880.0</v>
       </c>
       <c r="F33" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="G33" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H33" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="K33" t="n">
-        <v>118.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,22 +1405,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="E34" t="n">
-        <v>1960.0</v>
+        <v>5040.0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1432,7 +1432,7 @@
         <v>100.0</v>
       </c>
       <c r="K34" t="n">
-        <v>80.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,23 +1440,23 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6720.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G35" t="n">
         <v>4.0</v>
       </c>
-      <c r="C35" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>5880.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3.0</v>
-      </c>
       <c r="H35" t="n">
         <v>0.0</v>
       </c>
@@ -1464,10 +1464,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="K35" t="n">
-        <v>80.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,22 +1475,22 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C36" t="n">
         <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="E36" t="n">
-        <v>2800.0</v>
+        <v>5320.0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H36" t="n">
         <v>0.0</v>
@@ -1499,10 +1499,10 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="K36" t="n">
-        <v>71.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,34 +1510,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C37" t="n">
-        <v>92.0</v>
+        <v>100.0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="E37" t="n">
-        <v>14560.0</v>
+        <v>13160.0</v>
       </c>
       <c r="F37" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="K37" t="n">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,19 +1545,19 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1680.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
         <v>1.0</v>
@@ -1569,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="K38" t="n">
-        <v>65.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,22 +1580,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" t="n">
         <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="E39" t="n">
-        <v>8960.0</v>
+        <v>4760.0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
@@ -1604,10 +1604,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.999999999999996</v>
+        <v>75.0</v>
       </c>
       <c r="K39" t="n">
-        <v>63.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,34 +1615,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0</v>
+        <v>56.0</v>
       </c>
       <c r="D40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7280.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G40" t="n">
         <v>3.0</v>
       </c>
-      <c r="E40" t="n">
-        <v>1400.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="K40" t="n">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,34 +1650,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C41" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D41" t="n">
-        <v>27.0</v>
+        <v>34.0</v>
       </c>
       <c r="E41" t="n">
-        <v>12336.0</v>
+        <v>14560.0</v>
       </c>
       <c r="F41" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H41" t="n">
         <v>2.0</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="K41" t="n">
-        <v>51.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="C42" t="n">
-        <v>40.0</v>
+        <v>92.0</v>
       </c>
       <c r="D42" t="n">
-        <v>60.0</v>
+        <v>33.0</v>
       </c>
       <c r="E42" t="n">
-        <v>21948.0</v>
+        <v>15416.0</v>
       </c>
       <c r="F42" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="G42" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K42" t="n">
-        <v>40.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,34 +1720,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C43" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="E43" t="n">
-        <v>2800.0</v>
+        <v>8960.0</v>
       </c>
       <c r="F43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G43" t="n">
         <v>3.0</v>
       </c>
-      <c r="G43" t="n">
-        <v>2.0</v>
-      </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>67.0</v>
+        <v>43.0</v>
       </c>
       <c r="K43" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="44">
@@ -1755,34 +1755,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="C44" t="n">
         <v>27.0</v>
       </c>
       <c r="D44" t="n">
-        <v>14.0</v>
+        <v>60.0</v>
       </c>
       <c r="E44" t="n">
-        <v>6160.0</v>
+        <v>21948.0</v>
       </c>
       <c r="F44" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G44" t="n">
         <v>5.0</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.0</v>
       </c>
-      <c r="H44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J44" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="K44" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="45">
@@ -1790,22 +1790,22 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>1680.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
@@ -1813,9 +1813,11 @@
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
-      <c r="J45"/>
+      <c r="J45" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K45" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="46">
@@ -1826,7 +1828,7 @@
         <v>1.0</v>
       </c>
       <c r="C46" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
@@ -1850,7 +1852,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="47">
@@ -1861,7 +1863,7 @@
         <v>3.0</v>
       </c>
       <c r="C47" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="D47" t="n">
         <v>7.0</v>
@@ -1885,7 +1887,7 @@
         <v>33.0</v>
       </c>
       <c r="K47" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="48">
@@ -1918,7 +1920,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>-1.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="49">
@@ -1926,34 +1928,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>48876.0</v>
+      </c>
+      <c r="F49" t="n">
         <v>49.0</v>
       </c>
-      <c r="C49" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>45516.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>47.0</v>
-      </c>
       <c r="G49" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H49" t="n">
         <v>26.0</v>
       </c>
       <c r="I49" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J49" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-68.0</v>
+        <v>-118.0</v>
       </c>
     </row>
     <row r="50">
@@ -1961,22 +1963,22 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="C50" t="n">
-        <v>47.0</v>
+        <v>67.0</v>
       </c>
       <c r="D50" t="n">
-        <v>112.0</v>
+        <v>121.0</v>
       </c>
       <c r="E50" t="n">
-        <v>32902.0</v>
+        <v>36489.0</v>
       </c>
       <c r="F50" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="G50" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H50" t="n">
         <v>5.0</v>
@@ -1985,10 +1987,10 @@
         <v>5.0</v>
       </c>
       <c r="J50" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-229.0</v>
+        <v>-208.0</v>
       </c>
     </row>
     <row r="51">
@@ -1996,19 +1998,19 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C51" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D51" t="n">
-        <v>157.0</v>
+        <v>166.0</v>
       </c>
       <c r="E51" t="n">
-        <v>67200.0</v>
+        <v>70560.0</v>
       </c>
       <c r="F51" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="G51" t="n">
         <v>17.0</v>
@@ -2020,10 +2022,10 @@
         <v>6.0</v>
       </c>
       <c r="J51" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-598.0</v>
+        <v>-590.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -173,19 +173,19 @@
     <t>Marcelino</t>
   </si>
   <si>
+    <t>Vasco</t>
+  </si>
+  <si>
     <t>rei da guerra</t>
   </si>
   <si>
     <t>Fraldisqueira</t>
   </si>
   <si>
-    <t>rei gnomo</t>
-  </si>
-  <si>
-    <t>Os Irmaos PT</t>
-  </si>
-  <si>
-    <t>AlexCarneiro</t>
+    <t>Cristy</t>
+  </si>
+  <si>
+    <t>LucasNN</t>
   </si>
   <si>
     <t>Sra. Clash</t>
@@ -1755,34 +1755,32 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>21948.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>24.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="45">
@@ -1790,31 +1788,31 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="C45" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="D45" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21948.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.0</v>
       </c>
-      <c r="E45" t="n">
-        <v>1680.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0</v>
+        <v>24.0</v>
       </c>
       <c r="K45" t="n">
         <v>32.0</v>
@@ -1828,31 +1826,31 @@
         <v>1.0</v>
       </c>
       <c r="C46" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E46" t="n">
-        <v>280.0</v>
+        <v>1680.0</v>
       </c>
       <c r="F46" t="n">
         <v>1.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="47">
@@ -1860,34 +1858,32 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>3080.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
       </c>
-      <c r="J47" t="n">
-        <v>33.0</v>
-      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="48">
@@ -1920,7 +1916,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>-6.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="49">

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -68,60 +68,60 @@
     <t>Fabíola</t>
   </si>
   <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
     <t>Madnasty</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>zau</t>
+  </si>
+  <si>
     <t>Ricky</t>
   </si>
   <si>
-    <t>zau</t>
-  </si>
-  <si>
     <t>Tio João</t>
   </si>
   <si>
     <t>Robb Stark</t>
   </si>
   <si>
+    <t>pjp</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
+    <t>faneca</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
-    <t>pjp</t>
-  </si>
-  <si>
-    <t>carmen</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>faneca</t>
-  </si>
-  <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>Cronicl3_2</t>
   </si>
   <si>
+    <t>filipe</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>filipe</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
@@ -134,30 +134,33 @@
     <t>qzt</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>Marcelo</t>
+    <t>huracan</t>
+  </si>
+  <si>
+    <t>Gingka</t>
+  </si>
+  <si>
+    <t>Marshall</t>
   </si>
   <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>Gingka</t>
-  </si>
-  <si>
-    <t>huracan</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>André</t>
   </si>
   <si>
     <t>virtudes</t>
   </si>
   <si>
+    <t>PedroNabaisHD</t>
+  </si>
+  <si>
     <t>MiStErIo</t>
   </si>
   <si>
@@ -167,25 +170,22 @@
     <t>Barbosa</t>
   </si>
   <si>
-    <t>PedroNabaisHD</t>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Cristy</t>
+  </si>
+  <si>
+    <t>LucasNN</t>
   </si>
   <si>
     <t>Marcelino</t>
   </si>
   <si>
-    <t>Vasco</t>
-  </si>
-  <si>
-    <t>rei da guerra</t>
-  </si>
-  <si>
-    <t>Fraldisqueira</t>
-  </si>
-  <si>
-    <t>Cristy</t>
-  </si>
-  <si>
-    <t>LucasNN</t>
+    <t>GUIIII</t>
+  </si>
+  <si>
+    <t>✖ Luffy ✖</t>
   </si>
   <si>
     <t>Sra. Clash</t>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>221.0</v>
+        <v>230.0</v>
       </c>
       <c r="E2" t="n">
-        <v>90083.0</v>
+        <v>93443.0</v>
       </c>
       <c r="F2" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -312,7 +312,7 @@
         <v>78.0</v>
       </c>
       <c r="K2" t="n">
-        <v>620.0</v>
+        <v>647.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>225.0</v>
+        <v>234.0</v>
       </c>
       <c r="E3" t="n">
-        <v>89880.0</v>
+        <v>93800.0</v>
       </c>
       <c r="F3" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="G3" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -347,7 +347,7 @@
         <v>71.0</v>
       </c>
       <c r="K3" t="n">
-        <v>604.0</v>
+        <v>625.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>219.0</v>
+        <v>228.0</v>
       </c>
       <c r="E4" t="n">
-        <v>89320.0</v>
+        <v>92680.0</v>
       </c>
       <c r="F4" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -382,7 +382,7 @@
         <v>68.0</v>
       </c>
       <c r="K4" t="n">
-        <v>560.0</v>
+        <v>581.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>225.0</v>
+        <v>234.0</v>
       </c>
       <c r="E5" t="n">
-        <v>89052.0</v>
+        <v>93252.0</v>
       </c>
       <c r="F5" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="G5" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -414,10 +414,10 @@
         <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="K5" t="n">
-        <v>539.0</v>
+        <v>561.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>208.0</v>
+        <v>217.0</v>
       </c>
       <c r="E6" t="n">
-        <v>83720.0</v>
+        <v>87080.0</v>
       </c>
       <c r="F6" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="G6" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="H6" t="n">
         <v>5.0</v>
@@ -452,7 +452,7 @@
         <v>65.0</v>
       </c>
       <c r="K6" t="n">
-        <v>521.0</v>
+        <v>541.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="C7" t="n">
         <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>223.0</v>
+        <v>232.0</v>
       </c>
       <c r="E7" t="n">
-        <v>88266.0</v>
+        <v>91066.0</v>
       </c>
       <c r="F7" t="n">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="G7" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
@@ -487,7 +487,7 @@
         <v>62.0</v>
       </c>
       <c r="K7" t="n">
-        <v>512.0</v>
+        <v>538.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,22 +495,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>222.0</v>
+        <v>231.0</v>
       </c>
       <c r="E8" t="n">
-        <v>87255.0</v>
+        <v>90335.0</v>
       </c>
       <c r="F8" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="G8" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -519,10 +519,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.00000000000001</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>508.0</v>
+        <v>521.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,34 +530,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>219.0</v>
+        <v>234.0</v>
       </c>
       <c r="E9" t="n">
-        <v>88760.0</v>
+        <v>96040.0</v>
       </c>
       <c r="F9" t="n">
-        <v>76.0</v>
+        <v>84.0</v>
       </c>
       <c r="G9" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.99999999999999</v>
+        <v>49.0</v>
       </c>
       <c r="K9" t="n">
-        <v>486.0</v>
+        <v>505.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>225.0</v>
+        <v>228.0</v>
       </c>
       <c r="E10" t="n">
         <v>92120.0</v>
       </c>
       <c r="F10" t="n">
-        <v>81.0</v>
+        <v>79.0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>484.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,22 +600,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C11" t="n">
-        <v>73.0</v>
+        <v>60.0</v>
       </c>
       <c r="D11" t="n">
-        <v>196.0</v>
+        <v>199.0</v>
       </c>
       <c r="E11" t="n">
-        <v>80417.0</v>
+        <v>81817.0</v>
       </c>
       <c r="F11" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="G11" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="H11" t="n">
         <v>8.0</v>
@@ -627,7 +627,7 @@
         <v>71.0</v>
       </c>
       <c r="K11" t="n">
-        <v>469.0</v>
+        <v>476.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,22 +635,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="C12" t="n">
         <v>87.0</v>
       </c>
       <c r="D12" t="n">
-        <v>149.0</v>
+        <v>158.0</v>
       </c>
       <c r="E12" t="n">
-        <v>62894.0</v>
+        <v>66814.0</v>
       </c>
       <c r="F12" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="G12" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
@@ -662,7 +662,7 @@
         <v>74.0</v>
       </c>
       <c r="K12" t="n">
-        <v>437.0</v>
+        <v>458.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,34 +670,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>210.0</v>
+        <v>221.0</v>
       </c>
       <c r="E13" t="n">
-        <v>85714.0</v>
+        <v>92120.0</v>
       </c>
       <c r="F13" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="K13" t="n">
-        <v>431.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,34 +705,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="C14" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>212.0</v>
+        <v>216.0</v>
       </c>
       <c r="E14" t="n">
-        <v>88200.0</v>
+        <v>88234.0</v>
       </c>
       <c r="F14" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="G14" t="n">
         <v>36.0</v>
       </c>
       <c r="H14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="K14" t="n">
-        <v>430.0</v>
+        <v>449.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="C15" t="n">
         <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>219.0</v>
+        <v>228.0</v>
       </c>
       <c r="E15" t="n">
-        <v>85131.0</v>
+        <v>89611.0</v>
       </c>
       <c r="F15" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="G15" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
@@ -767,7 +767,7 @@
         <v>44.0</v>
       </c>
       <c r="K15" t="n">
-        <v>427.0</v>
+        <v>449.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,22 +775,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="C16" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>180.0</v>
+        <v>189.0</v>
       </c>
       <c r="E16" t="n">
-        <v>72394.0</v>
+        <v>75754.0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
@@ -799,10 +799,10 @@
         <v>2.0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.0</v>
+        <v>63.0</v>
       </c>
       <c r="K16" t="n">
-        <v>403.0</v>
+        <v>417.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,34 +810,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>67.0</v>
+        <v>73.0</v>
       </c>
       <c r="C17" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>194.0</v>
+        <v>208.0</v>
       </c>
       <c r="E17" t="n">
-        <v>78960.0</v>
+        <v>85120.0</v>
       </c>
       <c r="F17" t="n">
-        <v>64.0</v>
+        <v>74.0</v>
       </c>
       <c r="G17" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>66.0</v>
+        <v>53.0</v>
       </c>
       <c r="K17" t="n">
-        <v>395.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,34 +845,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>63.0</v>
+        <v>76.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>178.0</v>
+        <v>227.0</v>
       </c>
       <c r="E18" t="n">
-        <v>75320.0</v>
+        <v>81521.0</v>
       </c>
       <c r="F18" t="n">
-        <v>67.0</v>
+        <v>78.0</v>
       </c>
       <c r="G18" t="n">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="H18" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>61.0</v>
+        <v>44.0</v>
       </c>
       <c r="K18" t="n">
-        <v>394.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,34 +880,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>70.0</v>
+        <v>66.0</v>
       </c>
       <c r="C19" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>199.0</v>
+        <v>187.0</v>
       </c>
       <c r="E19" t="n">
-        <v>81200.0</v>
+        <v>79800.0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="G19" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="H19" t="n">
         <v>11.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J19" t="n">
-        <v>53.0</v>
+        <v>61.0</v>
       </c>
       <c r="K19" t="n">
-        <v>393.0</v>
+        <v>394.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>218.0</v>
+        <v>230.0</v>
       </c>
       <c r="E20" t="n">
-        <v>77881.0</v>
+        <v>91590.0</v>
       </c>
       <c r="F20" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="G20" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="H20" t="n">
         <v>1.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.0</v>
+        <v>33.0</v>
       </c>
       <c r="K20" t="n">
-        <v>380.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,22 +950,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>168.0</v>
+        <v>177.0</v>
       </c>
       <c r="E21" t="n">
-        <v>70560.0</v>
+        <v>73920.0</v>
       </c>
       <c r="F21" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="G21" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="H21" t="n">
         <v>0.0</v>
@@ -974,10 +974,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="K21" t="n">
-        <v>376.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,34 +985,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>74.0</v>
+        <v>67.0</v>
       </c>
       <c r="C22" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>221.0</v>
+        <v>183.0</v>
       </c>
       <c r="E22" t="n">
-        <v>87443.0</v>
+        <v>74480.0</v>
       </c>
       <c r="F22" t="n">
-        <v>80.0</v>
+        <v>68.0</v>
       </c>
       <c r="G22" t="n">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.0</v>
+        <v>63.0</v>
       </c>
       <c r="K22" t="n">
-        <v>365.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1020,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>64.0</v>
+        <v>70.0</v>
       </c>
       <c r="C23" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D23" t="n">
-        <v>176.0</v>
+        <v>203.0</v>
       </c>
       <c r="E23" t="n">
-        <v>71400.0</v>
+        <v>82320.0</v>
       </c>
       <c r="F23" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="G23" t="n">
         <v>43.0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J23" t="n">
-        <v>66.0</v>
+        <v>65.0</v>
       </c>
       <c r="K23" t="n">
-        <v>361.0</v>
+        <v>344.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,22 +1055,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>165.0</v>
+        <v>174.0</v>
       </c>
       <c r="E24" t="n">
-        <v>70995.0</v>
+        <v>74075.0</v>
       </c>
       <c r="F24" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="G24" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1079,10 +1079,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="K24" t="n">
-        <v>315.0</v>
+        <v>334.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="C25" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D25" t="n">
-        <v>166.0</v>
+        <v>196.0</v>
       </c>
       <c r="E25" t="n">
-        <v>69440.0</v>
+        <v>82040.0</v>
       </c>
       <c r="F25" t="n">
-        <v>61.0</v>
+        <v>74.0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="H25" t="n">
         <v>14.0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>56.00000000000001</v>
+        <v>35.0</v>
       </c>
       <c r="K25" t="n">
-        <v>306.0</v>
+        <v>301.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="C26" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>187.0</v>
+        <v>175.0</v>
       </c>
       <c r="E26" t="n">
-        <v>77560.0</v>
+        <v>72520.0</v>
       </c>
       <c r="F26" t="n">
-        <v>71.0</v>
+        <v>63.0</v>
       </c>
       <c r="G26" t="n">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
       <c r="H26" t="n">
         <v>14.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.0</v>
+        <v>54.0</v>
       </c>
       <c r="K26" t="n">
-        <v>278.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>168.0</v>
+        <v>176.0</v>
       </c>
       <c r="E27" t="n">
-        <v>71312.0</v>
+        <v>74672.0</v>
       </c>
       <c r="F27" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="G27" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="H27" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="I27" t="n">
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="K27" t="n">
-        <v>263.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="28">
@@ -1198,7 +1198,7 @@
         <v>38.0</v>
       </c>
       <c r="C28" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="D28" t="n">
         <v>111.0</v>
@@ -1222,7 +1222,7 @@
         <v>49.0</v>
       </c>
       <c r="K28" t="n">
-        <v>234.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,22 +1230,22 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="C29" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D29" t="n">
-        <v>144.0</v>
+        <v>153.0</v>
       </c>
       <c r="E29" t="n">
-        <v>61040.0</v>
+        <v>64960.0</v>
       </c>
       <c r="F29" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="G29" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H29" t="n">
         <v>3.0</v>
@@ -1254,10 +1254,10 @@
         <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>27.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>200.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,22 +1265,22 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>192.0</v>
+        <v>201.0</v>
       </c>
       <c r="E30" t="n">
-        <v>78915.0</v>
+        <v>82800.0</v>
       </c>
       <c r="F30" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="G30" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="H30" t="n">
         <v>24.0</v>
@@ -1289,10 +1289,10 @@
         <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="K30" t="n">
-        <v>193.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>56.0</v>
+        <v>43.0</v>
       </c>
       <c r="C31" t="n">
         <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>160.0</v>
+        <v>114.0</v>
       </c>
       <c r="E31" t="n">
-        <v>63826.0</v>
+        <v>47880.0</v>
       </c>
       <c r="F31" t="n">
-        <v>57.0</v>
+        <v>42.0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>21.0</v>
+        <v>64.0</v>
       </c>
       <c r="K31" t="n">
-        <v>179.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>40.0</v>
+        <v>58.0</v>
       </c>
       <c r="C32" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D32" t="n">
-        <v>106.0</v>
+        <v>165.0</v>
       </c>
       <c r="E32" t="n">
-        <v>44240.0</v>
+        <v>65452.0</v>
       </c>
       <c r="F32" t="n">
-        <v>39.0</v>
+        <v>59.0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="H32" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>64.0</v>
+        <v>22.0</v>
       </c>
       <c r="K32" t="n">
-        <v>169.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,34 +1370,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>35.0</v>
+        <v>8.0</v>
       </c>
       <c r="C33" t="n">
-        <v>53.0</v>
+        <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>96.0</v>
+        <v>24.0</v>
       </c>
       <c r="E33" t="n">
-        <v>40880.0</v>
+        <v>10920.0</v>
       </c>
       <c r="F33" t="n">
-        <v>36.0</v>
+        <v>8.0</v>
       </c>
       <c r="G33" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="H33" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>61.0</v>
+        <v>88.0</v>
       </c>
       <c r="K33" t="n">
-        <v>125.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,22 +1405,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="E34" t="n">
-        <v>5040.0</v>
+        <v>8680.0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1429,10 +1429,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.0</v>
+        <v>88.0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,22 +1440,22 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C35" t="n">
         <v>100.0</v>
       </c>
       <c r="D35" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="E35" t="n">
-        <v>6720.0</v>
+        <v>8960.0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H35" t="n">
         <v>0.0</v>
@@ -1464,10 +1464,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>80.0</v>
+        <v>88.0</v>
       </c>
       <c r="K35" t="n">
-        <v>99.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>5.0</v>
+        <v>35.0</v>
       </c>
       <c r="C36" t="n">
-        <v>100.0</v>
+        <v>47.0</v>
       </c>
       <c r="D36" t="n">
-        <v>15.0</v>
+        <v>96.0</v>
       </c>
       <c r="E36" t="n">
-        <v>5320.0</v>
+        <v>40880.0</v>
       </c>
       <c r="F36" t="n">
-        <v>5.0</v>
+        <v>36.0</v>
       </c>
       <c r="G36" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>80.0</v>
+        <v>61.0</v>
       </c>
       <c r="K36" t="n">
-        <v>92.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,34 +1510,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="C37" t="n">
         <v>100.0</v>
       </c>
       <c r="D37" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="E37" t="n">
-        <v>13160.0</v>
+        <v>16800.0</v>
       </c>
       <c r="F37" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G37" t="n">
         <v>4.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="K37" t="n">
-        <v>85.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,22 +1545,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1120.0</v>
+        <v>4480.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1569,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="K38" t="n">
-        <v>77.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,22 +1580,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C39" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D39" t="n">
-        <v>12.0</v>
+        <v>42.0</v>
       </c>
       <c r="E39" t="n">
-        <v>4760.0</v>
+        <v>19616.0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
@@ -1604,10 +1604,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>75.0</v>
+        <v>33.0</v>
       </c>
       <c r="K39" t="n">
-        <v>75.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,34 +1615,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C40" t="n">
-        <v>56.0</v>
+        <v>86.0</v>
       </c>
       <c r="D40" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="E40" t="n">
-        <v>7280.0</v>
+        <v>6160.0</v>
       </c>
       <c r="F40" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G40" t="n">
         <v>3.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="K40" t="n">
         <v>75.0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>70.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,34 +1650,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C41" t="n">
-        <v>73.0</v>
+        <v>42.0</v>
       </c>
       <c r="D41" t="n">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c r="E41" t="n">
-        <v>14560.0</v>
+        <v>7280.0</v>
       </c>
       <c r="F41" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.0</v>
+        <v>75.0</v>
       </c>
       <c r="K41" t="n">
-        <v>68.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14560.0</v>
+      </c>
+      <c r="F42" t="n">
         <v>11.0</v>
       </c>
-      <c r="C42" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>15416.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>12.0</v>
-      </c>
       <c r="G42" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
       <c r="K42" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,34 +1720,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C43" t="n">
-        <v>33.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="E43" t="n">
-        <v>8960.0</v>
+        <v>1960.0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="K43" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="44">
@@ -1755,32 +1755,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>2205.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
-      <c r="J44"/>
+      <c r="J44" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K44" t="n">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -1788,34 +1790,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="C45" t="n">
-        <v>27.0</v>
+        <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>60.0</v>
+        <v>6.0</v>
       </c>
       <c r="E45" t="n">
-        <v>21948.0</v>
+        <v>1960.0</v>
       </c>
       <c r="F45" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="46">
@@ -1823,34 +1825,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10640.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.0</v>
       </c>
-      <c r="C46" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1680.0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="I46" t="n">
         <v>1.0</v>
       </c>
-      <c r="G46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J46" t="n">
-        <v>100.0</v>
+        <v>43.0</v>
       </c>
       <c r="K46" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="47">
@@ -1883,7 +1885,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="48">
@@ -1916,7 +1918,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="49">
@@ -1924,34 +1926,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C49" t="n">
         <v>73.0</v>
       </c>
       <c r="D49" t="n">
-        <v>130.0</v>
+        <v>134.0</v>
       </c>
       <c r="E49" t="n">
-        <v>48876.0</v>
+        <v>50276.0</v>
       </c>
       <c r="F49" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="G49" t="n">
         <v>16.0</v>
       </c>
       <c r="H49" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="I49" t="n">
         <v>4.0</v>
       </c>
       <c r="J49" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-118.0</v>
+        <v>-147.0</v>
       </c>
     </row>
     <row r="50">
@@ -1959,22 +1961,22 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="C50" t="n">
-        <v>67.0</v>
+        <v>80.0</v>
       </c>
       <c r="D50" t="n">
-        <v>121.0</v>
+        <v>130.0</v>
       </c>
       <c r="E50" t="n">
-        <v>36489.0</v>
+        <v>39184.0</v>
       </c>
       <c r="F50" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="G50" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H50" t="n">
         <v>5.0</v>
@@ -1983,10 +1985,10 @@
         <v>5.0</v>
       </c>
       <c r="J50" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-208.0</v>
+        <v>-195.0</v>
       </c>
     </row>
     <row r="51">
@@ -1994,22 +1996,22 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="C51" t="n">
         <v>100.0</v>
       </c>
       <c r="D51" t="n">
-        <v>166.0</v>
+        <v>175.0</v>
       </c>
       <c r="E51" t="n">
-        <v>70560.0</v>
+        <v>74480.0</v>
       </c>
       <c r="F51" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="G51" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H51" t="n">
         <v>14.0</v>
@@ -2021,7 +2023,7 @@
         <v>31.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-590.0</v>
+        <v>-575.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -59,81 +59,81 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>snowkids</t>
+  </si>
+  <si>
     <t>King Bonixe</t>
   </si>
   <si>
-    <t>snowkids</t>
+    <t>Goblyn</t>
   </si>
   <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
     <t>Madnasty</t>
   </si>
   <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>zau</t>
   </si>
   <si>
+    <t>Tio João</t>
+  </si>
+  <si>
     <t>Ricky</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
     <t>Robb Stark</t>
   </si>
   <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>carmen</t>
-  </si>
-  <si>
-    <t>TheKingJK</t>
+    <t>Matilde Pires</t>
   </si>
   <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
+    <t>leal</t>
   </si>
   <si>
     <t>unb</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
     <t>Cronicl3_2</t>
   </si>
   <si>
     <t>filipe</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>Sergas</t>
+    <t>qzt</t>
+  </si>
+  <si>
+    <t>hugo</t>
   </si>
   <si>
     <t>Da Silva</t>
   </si>
   <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>qzt</t>
-  </si>
-  <si>
     <t>Marcelo</t>
   </si>
   <si>
@@ -149,18 +149,18 @@
     <t>Marshall</t>
   </si>
   <si>
+    <t>virtudes</t>
+  </si>
+  <si>
+    <t>PedroNabaisHD</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>André</t>
-  </si>
-  <si>
-    <t>virtudes</t>
-  </si>
-  <si>
-    <t>PedroNabaisHD</t>
-  </si>
-  <si>
     <t>MiStErIo</t>
   </si>
   <si>
@@ -170,19 +170,10 @@
     <t>Barbosa</t>
   </si>
   <si>
-    <t>Vasco</t>
-  </si>
-  <si>
-    <t>Cristy</t>
-  </si>
-  <si>
-    <t>LucasNN</t>
+    <t>GUIIII</t>
   </si>
   <si>
     <t>Marcelino</t>
-  </si>
-  <si>
-    <t>GUIIII</t>
   </si>
   <si>
     <t>✖ Luffy ✖</t>
@@ -285,22 +276,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>230.0</v>
+        <v>242.0</v>
       </c>
       <c r="E2" t="n">
-        <v>93443.0</v>
+        <v>98483.0</v>
       </c>
       <c r="F2" t="n">
-        <v>79.0</v>
+        <v>84.0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.0</v>
+        <v>67.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -309,10 +300,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
       <c r="K2" t="n">
-        <v>647.0</v>
+        <v>691.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +311,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>234.0</v>
+        <v>246.0</v>
       </c>
       <c r="E3" t="n">
-        <v>93800.0</v>
+        <v>98280.0</v>
       </c>
       <c r="F3" t="n">
-        <v>83.0</v>
+        <v>87.0</v>
       </c>
       <c r="G3" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -347,7 +338,7 @@
         <v>71.0</v>
       </c>
       <c r="K3" t="n">
-        <v>625.0</v>
+        <v>655.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +346,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>228.0</v>
+        <v>240.0</v>
       </c>
       <c r="E4" t="n">
-        <v>92680.0</v>
+        <v>98280.0</v>
       </c>
       <c r="F4" t="n">
-        <v>80.0</v>
+        <v>84.0</v>
       </c>
       <c r="G4" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -382,7 +373,7 @@
         <v>68.0</v>
       </c>
       <c r="K4" t="n">
-        <v>581.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +381,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>234.0</v>
+        <v>246.0</v>
       </c>
       <c r="E5" t="n">
-        <v>93252.0</v>
+        <v>98292.0</v>
       </c>
       <c r="F5" t="n">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="G5" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -414,10 +405,10 @@
         <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="K5" t="n">
-        <v>561.0</v>
+        <v>586.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,34 +416,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>74.0</v>
+        <v>82.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>217.0</v>
+        <v>243.0</v>
       </c>
       <c r="E6" t="n">
-        <v>87080.0</v>
+        <v>95546.0</v>
       </c>
       <c r="F6" t="n">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="G6" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="K6" t="n">
-        <v>541.0</v>
+        <v>571.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,34 +451,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>78.0</v>
+        <v>77.0</v>
       </c>
       <c r="C7" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D7" t="n">
-        <v>232.0</v>
+        <v>226.0</v>
       </c>
       <c r="E7" t="n">
-        <v>91066.0</v>
+        <v>91280.0</v>
       </c>
       <c r="F7" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="K7" t="n">
-        <v>538.0</v>
+        <v>557.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,22 +486,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>231.0</v>
+        <v>246.0</v>
       </c>
       <c r="E8" t="n">
-        <v>90335.0</v>
+        <v>100800.0</v>
       </c>
       <c r="F8" t="n">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
       <c r="G8" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -519,10 +510,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>55.00000000000001</v>
+        <v>50.0</v>
       </c>
       <c r="K8" t="n">
-        <v>521.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,34 +521,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
       <c r="C9" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D9" t="n">
-        <v>234.0</v>
+        <v>239.0</v>
       </c>
       <c r="E9" t="n">
-        <v>96040.0</v>
+        <v>92855.0</v>
       </c>
       <c r="F9" t="n">
         <v>84.0</v>
       </c>
       <c r="G9" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>49.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>505.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,22 +556,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>228.0</v>
+        <v>240.0</v>
       </c>
       <c r="E10" t="n">
-        <v>92120.0</v>
+        <v>96600.0</v>
       </c>
       <c r="F10" t="n">
-        <v>79.0</v>
+        <v>83.0</v>
       </c>
       <c r="G10" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
@@ -589,10 +580,10 @@
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>56.00000000000001</v>
+        <v>54.0</v>
       </c>
       <c r="K10" t="n">
-        <v>500.0</v>
+        <v>517.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,34 +591,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>69.0</v>
+        <v>58.0</v>
       </c>
       <c r="C11" t="n">
-        <v>60.0</v>
+        <v>87.0</v>
       </c>
       <c r="D11" t="n">
-        <v>199.0</v>
+        <v>170.0</v>
       </c>
       <c r="E11" t="n">
-        <v>81817.0</v>
+        <v>71574.0</v>
       </c>
       <c r="F11" t="n">
-        <v>69.0</v>
+        <v>61.0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.0</v>
+        <v>45.0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="K11" t="n">
-        <v>476.0</v>
+        <v>489.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,34 +626,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>54.0</v>
+        <v>71.0</v>
       </c>
       <c r="C12" t="n">
-        <v>87.0</v>
+        <v>53.0</v>
       </c>
       <c r="D12" t="n">
-        <v>158.0</v>
+        <v>205.0</v>
       </c>
       <c r="E12" t="n">
-        <v>66814.0</v>
+        <v>84337.0</v>
       </c>
       <c r="F12" t="n">
-        <v>57.0</v>
+        <v>71.0</v>
       </c>
       <c r="G12" t="n">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
       <c r="H12" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>74.0</v>
+        <v>70.0</v>
       </c>
       <c r="K12" t="n">
-        <v>458.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>221.0</v>
+        <v>233.0</v>
       </c>
       <c r="E13" t="n">
-        <v>92120.0</v>
+        <v>97160.0</v>
       </c>
       <c r="F13" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="H13" t="n">
         <v>4.0</v>
@@ -694,10 +685,10 @@
         <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>452.0</v>
+        <v>482.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,34 +696,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>73.0</v>
+        <v>80.0</v>
       </c>
       <c r="C14" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>216.0</v>
+        <v>240.0</v>
       </c>
       <c r="E14" t="n">
-        <v>88234.0</v>
+        <v>94371.0</v>
       </c>
       <c r="F14" t="n">
-        <v>76.0</v>
+        <v>87.0</v>
       </c>
       <c r="G14" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="K14" t="n">
-        <v>449.0</v>
+        <v>479.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,34 +731,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="C15" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D15" t="n">
         <v>228.0</v>
       </c>
       <c r="E15" t="n">
-        <v>89611.0</v>
+        <v>93274.0</v>
       </c>
       <c r="F15" t="n">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
       <c r="G15" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="K15" t="n">
-        <v>449.0</v>
+        <v>473.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,22 +766,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="C16" t="n">
         <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>189.0</v>
+        <v>201.0</v>
       </c>
       <c r="E16" t="n">
-        <v>75754.0</v>
+        <v>80794.0</v>
       </c>
       <c r="F16" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="G16" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
@@ -799,10 +790,10 @@
         <v>2.0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="K16" t="n">
-        <v>417.0</v>
+        <v>454.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,34 +801,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>73.0</v>
+        <v>80.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>208.0</v>
+        <v>239.0</v>
       </c>
       <c r="E17" t="n">
-        <v>85120.0</v>
+        <v>86001.0</v>
       </c>
       <c r="F17" t="n">
-        <v>74.0</v>
+        <v>82.0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="H17" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>53.0</v>
+        <v>44.0</v>
       </c>
       <c r="K17" t="n">
-        <v>415.0</v>
+        <v>424.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,34 +836,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>76.0</v>
+        <v>70.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>227.0</v>
+        <v>199.0</v>
       </c>
       <c r="E18" t="n">
-        <v>81521.0</v>
+        <v>84840.0</v>
       </c>
       <c r="F18" t="n">
-        <v>78.0</v>
+        <v>73.0</v>
       </c>
       <c r="G18" t="n">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J18" t="n">
-        <v>44.0</v>
+        <v>60.0</v>
       </c>
       <c r="K18" t="n">
-        <v>401.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,34 +871,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>66.0</v>
+        <v>77.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>187.0</v>
+        <v>219.0</v>
       </c>
       <c r="E19" t="n">
-        <v>79800.0</v>
+        <v>89040.0</v>
       </c>
       <c r="F19" t="n">
-        <v>69.0</v>
+        <v>78.0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="H19" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>61.0</v>
+        <v>50.0</v>
       </c>
       <c r="K19" t="n">
-        <v>394.0</v>
+        <v>417.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +906,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>77.0</v>
+        <v>63.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>230.0</v>
+        <v>189.0</v>
       </c>
       <c r="E20" t="n">
-        <v>91590.0</v>
+        <v>78120.0</v>
       </c>
       <c r="F20" t="n">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
       <c r="G20" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="K20" t="n">
-        <v>393.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +941,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>59.0</v>
+        <v>81.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>177.0</v>
+        <v>242.0</v>
       </c>
       <c r="E21" t="n">
-        <v>73920.0</v>
+        <v>96070.0</v>
       </c>
       <c r="F21" t="n">
-        <v>62.0</v>
+        <v>88.0</v>
       </c>
       <c r="G21" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
         <v>31.0</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>50.0</v>
-      </c>
       <c r="K21" t="n">
-        <v>390.0</v>
+        <v>403.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,34 +976,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
       <c r="C22" t="n">
         <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>183.0</v>
+        <v>215.0</v>
       </c>
       <c r="E22" t="n">
-        <v>74480.0</v>
+        <v>87640.0</v>
       </c>
       <c r="F22" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="K22" t="n">
-        <v>349.0</v>
+        <v>376.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1011,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C23" t="n">
         <v>93.0</v>
       </c>
       <c r="D23" t="n">
-        <v>203.0</v>
+        <v>195.0</v>
       </c>
       <c r="E23" t="n">
-        <v>82320.0</v>
+        <v>80080.0</v>
       </c>
       <c r="F23" t="n">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
       <c r="G23" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>65.0</v>
+        <v>62.0</v>
       </c>
       <c r="K23" t="n">
-        <v>344.0</v>
+        <v>374.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,22 +1046,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>174.0</v>
+        <v>186.0</v>
       </c>
       <c r="E24" t="n">
-        <v>74075.0</v>
+        <v>79115.0</v>
       </c>
       <c r="F24" t="n">
-        <v>61.0</v>
+        <v>66.0</v>
       </c>
       <c r="G24" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1082,7 +1073,7 @@
         <v>38.0</v>
       </c>
       <c r="K24" t="n">
-        <v>334.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,22 +1081,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="C25" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>196.0</v>
+        <v>208.0</v>
       </c>
       <c r="E25" t="n">
-        <v>82040.0</v>
+        <v>86800.0</v>
       </c>
       <c r="F25" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H25" t="n">
         <v>14.0</v>
@@ -1117,7 +1108,7 @@
         <v>35.0</v>
       </c>
       <c r="K25" t="n">
-        <v>301.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1116,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="C26" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D26" t="n">
-        <v>175.0</v>
+        <v>185.0</v>
       </c>
       <c r="E26" t="n">
-        <v>72520.0</v>
+        <v>78032.0</v>
       </c>
       <c r="F26" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="G26" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H26" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="I26" t="n">
         <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="K26" t="n">
-        <v>297.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,22 +1151,22 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>176.0</v>
+        <v>185.0</v>
       </c>
       <c r="E27" t="n">
-        <v>74672.0</v>
+        <v>75600.0</v>
       </c>
       <c r="F27" t="n">
-        <v>63.0</v>
+        <v>68.0</v>
       </c>
       <c r="G27" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H27" t="n">
         <v>16.0</v>
@@ -1184,10 +1175,10 @@
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
       <c r="K27" t="n">
-        <v>281.0</v>
+        <v>293.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,34 +1186,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>38.0</v>
+        <v>79.0</v>
       </c>
       <c r="C28" t="n">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>111.0</v>
+        <v>213.0</v>
       </c>
       <c r="E28" t="n">
-        <v>46755.0</v>
+        <v>86702.0</v>
       </c>
       <c r="F28" t="n">
-        <v>39.0</v>
+        <v>81.0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.0</v>
+        <v>35.0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.0</v>
+        <v>43.0</v>
       </c>
       <c r="K28" t="n">
-        <v>231.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1221,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="C29" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>153.0</v>
+        <v>165.0</v>
       </c>
       <c r="E29" t="n">
-        <v>64960.0</v>
+        <v>69720.0</v>
       </c>
       <c r="F29" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="G29" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H29" t="n">
         <v>3.0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.999999999999996</v>
+        <v>30.0</v>
       </c>
       <c r="K29" t="n">
-        <v>222.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1256,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>75.0</v>
+        <v>39.0</v>
       </c>
       <c r="C30" t="n">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="D30" t="n">
-        <v>201.0</v>
+        <v>112.0</v>
       </c>
       <c r="E30" t="n">
-        <v>82800.0</v>
+        <v>47035.0</v>
       </c>
       <c r="F30" t="n">
-        <v>77.0</v>
+        <v>39.0</v>
       </c>
       <c r="G30" t="n">
-        <v>32.0</v>
+        <v>19.0</v>
       </c>
       <c r="H30" t="n">
-        <v>24.0</v>
+        <v>5.0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="K30" t="n">
-        <v>215.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,22 +1291,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D31" t="n">
-        <v>114.0</v>
+        <v>123.0</v>
       </c>
       <c r="E31" t="n">
-        <v>47880.0</v>
+        <v>51240.0</v>
       </c>
       <c r="F31" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="H31" t="n">
         <v>15.0</v>
@@ -1327,7 +1318,7 @@
         <v>64.0</v>
       </c>
       <c r="K31" t="n">
-        <v>181.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1326,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="C32" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D32" t="n">
-        <v>165.0</v>
+        <v>173.0</v>
       </c>
       <c r="E32" t="n">
-        <v>65452.0</v>
+        <v>68532.0</v>
       </c>
       <c r="F32" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="G32" t="n">
         <v>13.0</v>
       </c>
       <c r="H32" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="K32" t="n">
-        <v>179.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,22 +1361,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="E33" t="n">
-        <v>10920.0</v>
+        <v>16240.0</v>
       </c>
       <c r="F33" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="G33" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
@@ -1394,10 +1385,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.0</v>
+        <v>85.0</v>
       </c>
       <c r="K33" t="n">
-        <v>128.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,22 +1396,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="E34" t="n">
-        <v>8680.0</v>
+        <v>13720.0</v>
       </c>
       <c r="F34" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1429,10 +1420,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.0</v>
+        <v>83.0</v>
       </c>
       <c r="K34" t="n">
-        <v>127.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,22 +1431,22 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C35" t="n">
         <v>100.0</v>
       </c>
       <c r="D35" t="n">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="E35" t="n">
-        <v>8960.0</v>
+        <v>13160.0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="H35" t="n">
         <v>0.0</v>
@@ -1464,10 +1455,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>88.0</v>
+        <v>69.0</v>
       </c>
       <c r="K35" t="n">
-        <v>119.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1466,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>35.0</v>
+        <v>8.0</v>
       </c>
       <c r="C36" t="n">
-        <v>47.0</v>
+        <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>96.0</v>
+        <v>24.0</v>
       </c>
       <c r="E36" t="n">
-        <v>40880.0</v>
+        <v>9240.0</v>
       </c>
       <c r="F36" t="n">
-        <v>36.0</v>
+        <v>8.0</v>
       </c>
       <c r="G36" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="H36" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>61.0</v>
+        <v>50.0</v>
       </c>
       <c r="K36" t="n">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,34 +1501,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="C37" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D37" t="n">
-        <v>38.0</v>
+        <v>54.0</v>
       </c>
       <c r="E37" t="n">
-        <v>16800.0</v>
+        <v>24936.0</v>
       </c>
       <c r="F37" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="K37" t="n">
-        <v>92.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,34 +1536,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>12.0</v>
+        <v>50.0</v>
       </c>
       <c r="E38" t="n">
-        <v>4480.0</v>
+        <v>22680.0</v>
       </c>
       <c r="F38" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K38" t="n">
-        <v>90.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,34 +1571,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>14.0</v>
+        <v>36.0</v>
       </c>
       <c r="C39" t="n">
-        <v>93.0</v>
+        <v>40.0</v>
       </c>
       <c r="D39" t="n">
-        <v>42.0</v>
+        <v>99.0</v>
       </c>
       <c r="E39" t="n">
-        <v>19616.0</v>
+        <v>42000.0</v>
       </c>
       <c r="F39" t="n">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="G39" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.0</v>
+        <v>63.0</v>
       </c>
       <c r="K39" t="n">
-        <v>86.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,22 +1606,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C40" t="n">
-        <v>86.0</v>
+        <v>91.0</v>
       </c>
       <c r="D40" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="E40" t="n">
-        <v>6160.0</v>
+        <v>12040.0</v>
       </c>
       <c r="F40" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" t="n">
         <v>2.0</v>
@@ -1639,10 +1630,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="K40" t="n">
-        <v>75.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="41">
@@ -1653,7 +1644,7 @@
         <v>5.0</v>
       </c>
       <c r="C41" t="n">
-        <v>42.0</v>
+        <v>33.0</v>
       </c>
       <c r="D41" t="n">
         <v>15.0</v>
@@ -1677,7 +1668,7 @@
         <v>75.0</v>
       </c>
       <c r="K41" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="42">
@@ -1688,7 +1679,7 @@
         <v>12.0</v>
       </c>
       <c r="C42" t="n">
-        <v>53.0</v>
+        <v>27.0</v>
       </c>
       <c r="D42" t="n">
         <v>34.0</v>
@@ -1712,7 +1703,7 @@
         <v>45.0</v>
       </c>
       <c r="K42" t="n">
-        <v>65.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,22 +1711,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1960.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1743,11 +1734,9 @@
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
-      <c r="J43" t="n">
-        <v>50.0</v>
-      </c>
+      <c r="J43"/>
       <c r="K43" t="n">
-        <v>47.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
@@ -1755,34 +1744,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C44" t="n">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="E44" t="n">
-        <v>2205.0</v>
+        <v>10640.0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H44" t="n">
         <v>1.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="K44" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="45">
@@ -1790,26 +1779,26 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n">
         <v>2.0</v>
       </c>
-      <c r="C45" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1960.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
@@ -1817,7 +1806,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
@@ -1825,34 +1814,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>8.0</v>
+        <v>56.0</v>
       </c>
       <c r="C46" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="D46" t="n">
-        <v>23.0</v>
+        <v>140.0</v>
       </c>
       <c r="E46" t="n">
-        <v>10640.0</v>
+        <v>52637.0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.0</v>
+        <v>53.0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="K46" t="n">
-        <v>21.0</v>
+        <v>-148.0</v>
       </c>
     </row>
     <row r="47">
@@ -1860,32 +1849,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>142.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>43663.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J47"/>
+        <v>5.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>28.999999999999996</v>
+      </c>
       <c r="K47" t="n">
-        <v>15.0</v>
+        <v>-172.0</v>
       </c>
     </row>
     <row r="48">
@@ -1893,137 +1884,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>184.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>78680.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J48"/>
+        <v>6.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>33.0</v>
+      </c>
       <c r="K48" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>50276.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-147.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>39184.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-195.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>175.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>74480.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-575.0</v>
+        <v>-555.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -68,27 +68,27 @@
     <t>Goblyn</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>Tio João</t>
+  </si>
+  <si>
+    <t>zau</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
-    <t>zau</t>
-  </si>
-  <si>
-    <t>Tio João</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>Robb Stark</t>
   </si>
   <si>
@@ -98,21 +98,21 @@
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>faneca</t>
   </si>
   <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>Cronicl3_2</t>
   </si>
   <si>
@@ -128,33 +128,30 @@
     <t>qzt</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
-    <t>Marcelo</t>
+    <t>huracan</t>
+  </si>
+  <si>
+    <t>Gingka</t>
   </si>
   <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>huracan</t>
-  </si>
-  <si>
-    <t>Gingka</t>
-  </si>
-  <si>
     <t>Marshall</t>
   </si>
   <si>
+    <t>PedroNabaisHD</t>
+  </si>
+  <si>
     <t>virtudes</t>
   </si>
   <si>
-    <t>PedroNabaisHD</t>
-  </si>
-  <si>
     <t>André</t>
   </si>
   <si>
@@ -164,28 +161,34 @@
     <t>MiStErIo</t>
   </si>
   <si>
-    <t>Thiago 2</t>
-  </si>
-  <si>
-    <t>Barbosa</t>
-  </si>
-  <si>
-    <t>GUIIII</t>
+    <t>Soul_Eater</t>
+  </si>
+  <si>
+    <t>RichPath</t>
+  </si>
+  <si>
+    <t>sil</t>
+  </si>
+  <si>
+    <t>Tiagiovic-RUSSO</t>
+  </si>
+  <si>
+    <t>marinheiro</t>
+  </si>
+  <si>
+    <t>the killer zone</t>
   </si>
   <si>
     <t>Marcelino</t>
   </si>
   <si>
-    <t>✖ Luffy ✖</t>
+    <t>diogo</t>
   </si>
   <si>
     <t>Sra. Clash</t>
   </si>
   <si>
     <t>Manu</t>
-  </si>
-  <si>
-    <t>Welton</t>
   </si>
 </sst>
 </file>
@@ -276,22 +279,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>242.0</v>
+        <v>251.0</v>
       </c>
       <c r="E2" t="n">
-        <v>98483.0</v>
+        <v>101283.0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="G2" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -300,10 +303,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.0</v>
+        <v>78.0</v>
       </c>
       <c r="K2" t="n">
-        <v>691.0</v>
+        <v>703.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,22 +314,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>246.0</v>
+        <v>255.0</v>
       </c>
       <c r="E3" t="n">
-        <v>98280.0</v>
+        <v>101360.0</v>
       </c>
       <c r="F3" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="G3" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -335,10 +338,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="K3" t="n">
-        <v>655.0</v>
+        <v>681.0</v>
       </c>
     </row>
     <row r="4">
@@ -346,22 +349,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>240.0</v>
+        <v>249.0</v>
       </c>
       <c r="E4" t="n">
-        <v>98280.0</v>
+        <v>101920.0</v>
       </c>
       <c r="F4" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -373,7 +376,7 @@
         <v>68.0</v>
       </c>
       <c r="K4" t="n">
-        <v>613.0</v>
+        <v>634.0</v>
       </c>
     </row>
     <row r="5">
@@ -381,22 +384,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>246.0</v>
+        <v>255.0</v>
       </c>
       <c r="E5" t="n">
-        <v>98292.0</v>
+        <v>101372.0</v>
       </c>
       <c r="F5" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="G5" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -405,10 +408,10 @@
         <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="K5" t="n">
-        <v>586.0</v>
+        <v>599.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +419,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>243.0</v>
+        <v>252.0</v>
       </c>
       <c r="E6" t="n">
-        <v>95546.0</v>
+        <v>99746.0</v>
       </c>
       <c r="F6" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="H6" t="n">
         <v>3.0</v>
@@ -440,10 +443,10 @@
         <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="K6" t="n">
-        <v>571.0</v>
+        <v>587.0</v>
       </c>
     </row>
     <row r="7">
@@ -451,22 +454,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="C7" t="n">
         <v>93.0</v>
       </c>
       <c r="D7" t="n">
-        <v>226.0</v>
+        <v>235.0</v>
       </c>
       <c r="E7" t="n">
-        <v>91280.0</v>
+        <v>95480.0</v>
       </c>
       <c r="F7" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="H7" t="n">
         <v>5.0</v>
@@ -478,7 +481,7 @@
         <v>64.0</v>
       </c>
       <c r="K7" t="n">
-        <v>557.0</v>
+        <v>579.0</v>
       </c>
     </row>
     <row r="8">
@@ -486,22 +489,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>246.0</v>
+        <v>255.0</v>
       </c>
       <c r="E8" t="n">
-        <v>100800.0</v>
+        <v>104440.0</v>
       </c>
       <c r="F8" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="G8" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -510,10 +513,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="K8" t="n">
-        <v>535.0</v>
+        <v>563.0</v>
       </c>
     </row>
     <row r="9">
@@ -521,25 +524,25 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="C9" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>239.0</v>
+        <v>249.0</v>
       </c>
       <c r="E9" t="n">
-        <v>92855.0</v>
+        <v>100520.0</v>
       </c>
       <c r="F9" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="G9" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -548,7 +551,7 @@
         <v>55.00000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>520.0</v>
+        <v>538.0</v>
       </c>
     </row>
     <row r="10">
@@ -559,31 +562,31 @@
         <v>80.0</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D10" t="n">
-        <v>240.0</v>
+        <v>239.0</v>
       </c>
       <c r="E10" t="n">
-        <v>96600.0</v>
+        <v>92855.0</v>
       </c>
       <c r="F10" t="n">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="G10" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>54.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>517.0</v>
+        <v>519.0</v>
       </c>
     </row>
     <row r="11">
@@ -591,22 +594,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="C11" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>170.0</v>
+        <v>179.0</v>
       </c>
       <c r="E11" t="n">
-        <v>71574.0</v>
+        <v>75214.0</v>
       </c>
       <c r="F11" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="G11" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
@@ -615,10 +618,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="K11" t="n">
-        <v>489.0</v>
+        <v>516.0</v>
       </c>
     </row>
     <row r="12">
@@ -626,34 +629,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>71.0</v>
+        <v>83.0</v>
       </c>
       <c r="C12" t="n">
-        <v>53.0</v>
+        <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>205.0</v>
+        <v>249.0</v>
       </c>
       <c r="E12" t="n">
-        <v>84337.0</v>
+        <v>97171.0</v>
       </c>
       <c r="F12" t="n">
-        <v>71.0</v>
+        <v>90.0</v>
       </c>
       <c r="G12" t="n">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
       <c r="H12" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.0</v>
+        <v>47.0</v>
       </c>
       <c r="K12" t="n">
-        <v>486.0</v>
+        <v>505.0</v>
       </c>
     </row>
     <row r="13">
@@ -661,22 +664,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>233.0</v>
+        <v>242.0</v>
       </c>
       <c r="E13" t="n">
-        <v>97160.0</v>
+        <v>100800.0</v>
       </c>
       <c r="F13" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="H13" t="n">
         <v>4.0</v>
@@ -688,7 +691,7 @@
         <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>482.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="14">
@@ -699,31 +702,31 @@
         <v>80.0</v>
       </c>
       <c r="C14" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>240.0</v>
+        <v>237.0</v>
       </c>
       <c r="E14" t="n">
-        <v>94371.0</v>
+        <v>96914.0</v>
       </c>
       <c r="F14" t="n">
-        <v>87.0</v>
+        <v>83.0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="K14" t="n">
-        <v>479.0</v>
+        <v>494.0</v>
       </c>
     </row>
     <row r="15">
@@ -731,34 +734,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>77.0</v>
+        <v>73.0</v>
       </c>
       <c r="C15" t="n">
-        <v>93.0</v>
+        <v>53.0</v>
       </c>
       <c r="D15" t="n">
-        <v>228.0</v>
+        <v>211.0</v>
       </c>
       <c r="E15" t="n">
-        <v>93274.0</v>
+        <v>86577.0</v>
       </c>
       <c r="F15" t="n">
-        <v>80.0</v>
+        <v>73.0</v>
       </c>
       <c r="G15" t="n">
-        <v>38.0</v>
+        <v>50.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>48.0</v>
+        <v>68.0</v>
       </c>
       <c r="K15" t="n">
-        <v>473.0</v>
+        <v>489.0</v>
       </c>
     </row>
     <row r="16">
@@ -766,34 +769,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="C16" t="n">
         <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>201.0</v>
+        <v>208.0</v>
       </c>
       <c r="E16" t="n">
-        <v>80794.0</v>
+        <v>83314.0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.0</v>
+        <v>71.0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I16" t="n">
         <v>2.0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.0</v>
+        <v>65.0</v>
       </c>
       <c r="K16" t="n">
-        <v>454.0</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="17">
@@ -801,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>239.0</v>
+        <v>248.0</v>
       </c>
       <c r="E17" t="n">
-        <v>86001.0</v>
+        <v>89361.0</v>
       </c>
       <c r="F17" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="G17" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -825,10 +828,10 @@
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="K17" t="n">
-        <v>424.0</v>
+        <v>444.0</v>
       </c>
     </row>
     <row r="18">
@@ -836,22 +839,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>199.0</v>
+        <v>208.0</v>
       </c>
       <c r="E18" t="n">
-        <v>84840.0</v>
+        <v>89320.0</v>
       </c>
       <c r="F18" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H18" t="n">
         <v>11.0</v>
@@ -860,10 +863,10 @@
         <v>2.0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="K18" t="n">
-        <v>418.0</v>
+        <v>442.0</v>
       </c>
     </row>
     <row r="19">
@@ -871,34 +874,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>77.0</v>
+        <v>66.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>219.0</v>
+        <v>198.0</v>
       </c>
       <c r="E19" t="n">
-        <v>89040.0</v>
+        <v>81760.0</v>
       </c>
       <c r="F19" t="n">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
       <c r="G19" t="n">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="H19" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
         <v>50.0</v>
       </c>
       <c r="K19" t="n">
-        <v>417.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="20">
@@ -906,34 +909,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>63.0</v>
+        <v>80.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>189.0</v>
+        <v>226.0</v>
       </c>
       <c r="E20" t="n">
-        <v>78120.0</v>
+        <v>91840.0</v>
       </c>
       <c r="F20" t="n">
-        <v>66.0</v>
+        <v>81.0</v>
       </c>
       <c r="G20" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="K20" t="n">
-        <v>412.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="21">
@@ -941,19 +944,19 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>242.0</v>
+        <v>251.0</v>
       </c>
       <c r="E21" t="n">
-        <v>96070.0</v>
+        <v>99990.0</v>
       </c>
       <c r="F21" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="G21" t="n">
         <v>27.0</v>
@@ -965,10 +968,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>31.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K21" t="n">
-        <v>403.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,28 +985,28 @@
         <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>215.0</v>
+        <v>204.0</v>
       </c>
       <c r="E22" t="n">
-        <v>87640.0</v>
+        <v>83440.0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="G22" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="H22" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>66.0</v>
+        <v>64.0</v>
       </c>
       <c r="K22" t="n">
-        <v>376.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="23">
@@ -1011,34 +1014,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>71.0</v>
+        <v>77.0</v>
       </c>
       <c r="C23" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>195.0</v>
+        <v>224.0</v>
       </c>
       <c r="E23" t="n">
-        <v>80080.0</v>
+        <v>91000.0</v>
       </c>
       <c r="F23" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="G23" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="H23" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J23" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="K23" t="n">
-        <v>374.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="24">
@@ -1046,19 +1049,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>186.0</v>
+        <v>195.0</v>
       </c>
       <c r="E24" t="n">
-        <v>79115.0</v>
+        <v>82475.0</v>
       </c>
       <c r="F24" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="G24" t="n">
         <v>25.0</v>
@@ -1070,10 +1073,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="K24" t="n">
-        <v>359.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="25">
@@ -1081,22 +1084,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>208.0</v>
+        <v>217.0</v>
       </c>
       <c r="E25" t="n">
-        <v>86800.0</v>
+        <v>90720.0</v>
       </c>
       <c r="F25" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H25" t="n">
         <v>14.0</v>
@@ -1108,7 +1111,7 @@
         <v>35.0</v>
       </c>
       <c r="K25" t="n">
-        <v>318.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1119,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="C26" t="n">
         <v>93.0</v>
       </c>
       <c r="D26" t="n">
-        <v>185.0</v>
+        <v>194.0</v>
       </c>
       <c r="E26" t="n">
-        <v>78032.0</v>
+        <v>81952.0</v>
       </c>
       <c r="F26" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="G26" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="H26" t="n">
         <v>16.0</v>
@@ -1140,10 +1143,10 @@
         <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="K26" t="n">
-        <v>295.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="27">
@@ -1151,34 +1154,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>185.0</v>
+        <v>192.0</v>
       </c>
       <c r="E27" t="n">
-        <v>75600.0</v>
+        <v>78400.0</v>
       </c>
       <c r="F27" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="G27" t="n">
         <v>35.0</v>
       </c>
       <c r="H27" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="I27" t="n">
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="K27" t="n">
-        <v>293.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="28">
@@ -1186,25 +1189,25 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="C28" t="n">
         <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>213.0</v>
+        <v>220.0</v>
       </c>
       <c r="E28" t="n">
-        <v>86702.0</v>
+        <v>89502.0</v>
       </c>
       <c r="F28" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="G28" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="I28" t="n">
         <v>2.0</v>
@@ -1213,7 +1216,7 @@
         <v>43.0</v>
       </c>
       <c r="K28" t="n">
-        <v>243.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="29">
@@ -1221,34 +1224,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="C29" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D29" t="n">
-        <v>165.0</v>
+        <v>132.0</v>
       </c>
       <c r="E29" t="n">
-        <v>69720.0</v>
+        <v>55440.0</v>
       </c>
       <c r="F29" t="n">
-        <v>54.0</v>
+        <v>48.0</v>
       </c>
       <c r="G29" t="n">
-        <v>16.0</v>
+        <v>31.0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="K29" t="n">
-        <v>212.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="30">
@@ -1256,34 +1259,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>39.0</v>
+        <v>58.0</v>
       </c>
       <c r="C30" t="n">
-        <v>40.0</v>
+        <v>93.0</v>
       </c>
       <c r="D30" t="n">
-        <v>112.0</v>
+        <v>169.0</v>
       </c>
       <c r="E30" t="n">
-        <v>47035.0</v>
+        <v>71680.0</v>
       </c>
       <c r="F30" t="n">
-        <v>39.0</v>
+        <v>56.0</v>
       </c>
       <c r="G30" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H30" t="n">
         <v>5.0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J30" t="n">
-        <v>49.0</v>
+        <v>30.0</v>
       </c>
       <c r="K30" t="n">
-        <v>211.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="31">
@@ -1291,34 +1294,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>46.0</v>
+        <v>15.0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D31" t="n">
-        <v>123.0</v>
+        <v>45.0</v>
       </c>
       <c r="E31" t="n">
-        <v>51240.0</v>
+        <v>19320.0</v>
       </c>
       <c r="F31" t="n">
-        <v>45.0</v>
+        <v>17.0</v>
       </c>
       <c r="G31" t="n">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>64.0</v>
+        <v>76.0</v>
       </c>
       <c r="K31" t="n">
-        <v>202.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,34 +1329,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>61.0</v>
+        <v>15.0</v>
       </c>
       <c r="C32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17640.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
         <v>80.0</v>
       </c>
-      <c r="D32" t="n">
-        <v>173.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>68532.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>21.0</v>
-      </c>
       <c r="K32" t="n">
-        <v>177.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="33">
@@ -1361,34 +1364,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>70212.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.0</v>
       </c>
-      <c r="C33" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>16240.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>85.0</v>
+        <v>20.0</v>
       </c>
       <c r="K33" t="n">
-        <v>165.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="34">
@@ -1396,22 +1399,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>36.0</v>
+        <v>45.0</v>
       </c>
       <c r="E34" t="n">
-        <v>13720.0</v>
+        <v>16800.0</v>
       </c>
       <c r="F34" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1420,10 +1423,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.0</v>
+        <v>65.0</v>
       </c>
       <c r="K34" t="n">
-        <v>158.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="35">
@@ -1431,34 +1434,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D35" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28576.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
         <v>36.0</v>
       </c>
-      <c r="E35" t="n">
-        <v>13160.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>69.0</v>
-      </c>
       <c r="K35" t="n">
-        <v>142.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="36">
@@ -1466,22 +1469,22 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C36" t="n">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="D36" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="E36" t="n">
-        <v>9240.0</v>
+        <v>12040.0</v>
       </c>
       <c r="F36" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G36" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H36" t="n">
         <v>0.0</v>
@@ -1493,7 +1496,7 @@
         <v>50.0</v>
       </c>
       <c r="K36" t="n">
-        <v>114.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="37">
@@ -1501,34 +1504,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="C37" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D37" t="n">
-        <v>54.0</v>
+        <v>59.0</v>
       </c>
       <c r="E37" t="n">
-        <v>24936.0</v>
+        <v>25760.0</v>
       </c>
       <c r="F37" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="K37" t="n">
-        <v>111.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="38">
@@ -1536,34 +1539,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>17.0</v>
+        <v>37.0</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0</v>
+        <v>33.0</v>
       </c>
       <c r="D38" t="n">
-        <v>50.0</v>
+        <v>102.0</v>
       </c>
       <c r="E38" t="n">
-        <v>22680.0</v>
+        <v>43400.0</v>
       </c>
       <c r="F38" t="n">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>28.999999999999996</v>
+        <v>64.0</v>
       </c>
       <c r="K38" t="n">
-        <v>111.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="39">
@@ -1571,34 +1574,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>36.0</v>
+        <v>13.0</v>
       </c>
       <c r="C39" t="n">
-        <v>40.0</v>
+        <v>93.0</v>
       </c>
       <c r="D39" t="n">
-        <v>99.0</v>
+        <v>35.0</v>
       </c>
       <c r="E39" t="n">
-        <v>42000.0</v>
+        <v>14840.0</v>
       </c>
       <c r="F39" t="n">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c r="G39" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="H39" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>63.0</v>
+        <v>31.0</v>
       </c>
       <c r="K39" t="n">
-        <v>108.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="40">
@@ -1606,34 +1609,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C40" t="n">
-        <v>91.0</v>
+        <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>28.0</v>
+        <v>6.0</v>
       </c>
       <c r="E40" t="n">
-        <v>12040.0</v>
+        <v>2240.0</v>
       </c>
       <c r="F40" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="K40" t="n">
-        <v>95.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="41">
@@ -1641,34 +1644,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C41" t="n">
-        <v>33.0</v>
+        <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="E41" t="n">
-        <v>7280.0</v>
+        <v>2240.0</v>
       </c>
       <c r="F41" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="K41" t="n">
-        <v>63.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="42">
@@ -1676,34 +1679,32 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>14560.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>45.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J42"/>
       <c r="K42" t="n">
-        <v>61.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="43">
@@ -1736,7 +1737,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>14.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="44">
@@ -1744,34 +1745,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C44" t="n">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>23.0</v>
+        <v>6.0</v>
       </c>
       <c r="E44" t="n">
-        <v>10640.0</v>
+        <v>2169.0</v>
       </c>
       <c r="F44" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>43.0</v>
+        <v>67.0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="45">
@@ -1785,10 +1786,10 @@
         <v>50.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E45" t="n">
-        <v>560.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F45" t="n">
         <v>1.0</v>
@@ -1797,7 +1798,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -1806,7 +1807,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="46">
@@ -1814,34 +1815,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>56.0</v>
+        <v>8.0</v>
       </c>
       <c r="C46" t="n">
-        <v>60.0</v>
+        <v>33.0</v>
       </c>
       <c r="D46" t="n">
-        <v>140.0</v>
+        <v>23.0</v>
       </c>
       <c r="E46" t="n">
-        <v>52637.0</v>
+        <v>10640.0</v>
       </c>
       <c r="F46" t="n">
-        <v>53.0</v>
+        <v>7.0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="H46" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.0</v>
+        <v>43.0</v>
       </c>
       <c r="K46" t="n">
-        <v>-148.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
@@ -1849,34 +1850,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>49.0</v>
+        <v>5.0</v>
       </c>
       <c r="C47" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>142.0</v>
+        <v>14.0</v>
       </c>
       <c r="E47" t="n">
-        <v>43663.0</v>
+        <v>5880.0</v>
       </c>
       <c r="F47" t="n">
-        <v>45.0</v>
+        <v>4.0</v>
       </c>
       <c r="G47" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="H47" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47" t="n">
-        <v>28.999999999999996</v>
+        <v>50.0</v>
       </c>
       <c r="K47" t="n">
-        <v>-172.0</v>
+        <v>-92.0</v>
       </c>
     </row>
     <row r="48">
@@ -1884,34 +1885,69 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>66.0</v>
+        <v>56.0</v>
       </c>
       <c r="C48" t="n">
-        <v>93.0</v>
+        <v>53.0</v>
       </c>
       <c r="D48" t="n">
-        <v>184.0</v>
+        <v>140.0</v>
       </c>
       <c r="E48" t="n">
-        <v>78680.0</v>
+        <v>52637.0</v>
       </c>
       <c r="F48" t="n">
-        <v>61.0</v>
+        <v>53.0</v>
       </c>
       <c r="G48" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="H48" t="n">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="I48" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="J48" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="K48" t="n">
-        <v>-555.0</v>
+        <v>-158.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47862.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-163.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -71,12 +71,12 @@
     <t>Madnasty</t>
   </si>
   <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>Tio João</t>
   </si>
   <si>
@@ -95,12 +95,12 @@
     <t>carmen</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
@@ -125,33 +125,33 @@
     <t>Savler</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>hugo</t>
-  </si>
-  <si>
     <t>huracan</t>
   </si>
   <si>
     <t>Gingka</t>
   </si>
   <si>
+    <t>Marshall</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>Marshall</t>
+    <t>virtudes</t>
   </si>
   <si>
     <t>PedroNabaisHD</t>
   </si>
   <si>
-    <t>virtudes</t>
-  </si>
-  <si>
     <t>André</t>
   </si>
   <si>
@@ -167,28 +167,34 @@
     <t>RichPath</t>
   </si>
   <si>
-    <t>sil</t>
-  </si>
-  <si>
     <t>Tiagiovic-RUSSO</t>
   </si>
   <si>
+    <t>nmaciel8</t>
+  </si>
+  <si>
+    <t>coelhao8</t>
+  </si>
+  <si>
     <t>marinheiro</t>
   </si>
   <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
     <t>the killer zone</t>
   </si>
   <si>
-    <t>Marcelino</t>
+    <t>Iskandir</t>
   </si>
   <si>
     <t>diogo</t>
   </si>
   <si>
+    <t>Manu</t>
+  </si>
+  <si>
     <t>Sra. Clash</t>
-  </si>
-  <si>
-    <t>Manu</t>
   </si>
 </sst>
 </file>
@@ -279,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>251.0</v>
+        <v>257.0</v>
       </c>
       <c r="E2" t="n">
-        <v>101283.0</v>
+        <v>103872.0</v>
       </c>
       <c r="F2" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="G2" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -303,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="K2" t="n">
-        <v>703.0</v>
+        <v>722.0</v>
       </c>
     </row>
     <row r="3">
@@ -314,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>255.0</v>
+        <v>261.0</v>
       </c>
       <c r="E3" t="n">
-        <v>101360.0</v>
+        <v>103880.0</v>
       </c>
       <c r="F3" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="G3" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -338,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="K3" t="n">
-        <v>681.0</v>
+        <v>699.0</v>
       </c>
     </row>
     <row r="4">
@@ -349,19 +355,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>249.0</v>
+        <v>255.0</v>
       </c>
       <c r="E4" t="n">
-        <v>101920.0</v>
+        <v>104160.0</v>
       </c>
       <c r="F4" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="G4" t="n">
         <v>59.0</v>
@@ -373,10 +379,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
       <c r="K4" t="n">
-        <v>634.0</v>
+        <v>639.0</v>
       </c>
     </row>
     <row r="5">
@@ -384,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>104172.0</v>
+      </c>
+      <c r="F5" t="n">
         <v>85.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>255.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>101372.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>83.0</v>
-      </c>
       <c r="G5" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -408,10 +414,10 @@
         <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="K5" t="n">
-        <v>599.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>252.0</v>
+        <v>258.0</v>
       </c>
       <c r="E6" t="n">
-        <v>99746.0</v>
+        <v>101706.0</v>
       </c>
       <c r="F6" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="G6" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="H6" t="n">
         <v>3.0</v>
@@ -446,7 +452,7 @@
         <v>63.0</v>
       </c>
       <c r="K6" t="n">
-        <v>587.0</v>
+        <v>598.0</v>
       </c>
     </row>
     <row r="7">
@@ -454,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>80.0</v>
+        <v>82.0</v>
       </c>
       <c r="C7" t="n">
         <v>93.0</v>
       </c>
       <c r="D7" t="n">
-        <v>235.0</v>
+        <v>241.0</v>
       </c>
       <c r="E7" t="n">
-        <v>95480.0</v>
+        <v>98560.0</v>
       </c>
       <c r="F7" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="G7" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="H7" t="n">
         <v>5.0</v>
@@ -481,7 +487,7 @@
         <v>64.0</v>
       </c>
       <c r="K7" t="n">
-        <v>579.0</v>
+        <v>592.0</v>
       </c>
     </row>
     <row r="8">
@@ -489,22 +495,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>255.0</v>
+        <v>261.0</v>
       </c>
       <c r="E8" t="n">
-        <v>104440.0</v>
+        <v>106960.0</v>
       </c>
       <c r="F8" t="n">
-        <v>91.0</v>
+        <v>93.0</v>
       </c>
       <c r="G8" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -516,7 +522,7 @@
         <v>52.0</v>
       </c>
       <c r="K8" t="n">
-        <v>563.0</v>
+        <v>575.0</v>
       </c>
     </row>
     <row r="9">
@@ -524,19 +530,19 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>249.0</v>
+        <v>255.0</v>
       </c>
       <c r="E9" t="n">
-        <v>100520.0</v>
+        <v>103040.0</v>
       </c>
       <c r="F9" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="G9" t="n">
         <v>47.0</v>
@@ -548,10 +554,10 @@
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>55.00000000000001</v>
+        <v>53.0</v>
       </c>
       <c r="K9" t="n">
-        <v>538.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="10">
@@ -559,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>80.0</v>
+        <v>63.0</v>
       </c>
       <c r="C10" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>239.0</v>
+        <v>185.0</v>
       </c>
       <c r="E10" t="n">
-        <v>92855.0</v>
+        <v>76945.0</v>
       </c>
       <c r="F10" t="n">
-        <v>84.0</v>
+        <v>66.0</v>
       </c>
       <c r="G10" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>55.00000000000001</v>
+        <v>74.0</v>
       </c>
       <c r="K10" t="n">
-        <v>519.0</v>
+        <v>527.0</v>
       </c>
     </row>
     <row r="11">
@@ -594,34 +600,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>61.0</v>
+        <v>80.0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="D11" t="n">
-        <v>179.0</v>
+        <v>239.0</v>
       </c>
       <c r="E11" t="n">
-        <v>75214.0</v>
+        <v>92855.0</v>
       </c>
       <c r="F11" t="n">
-        <v>64.0</v>
+        <v>84.0</v>
       </c>
       <c r="G11" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="H11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n">
-        <v>75.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>516.0</v>
+        <v>517.0</v>
       </c>
     </row>
     <row r="12">
@@ -629,22 +635,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="C12" t="n">
         <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>249.0</v>
+        <v>255.0</v>
       </c>
       <c r="E12" t="n">
-        <v>97171.0</v>
+        <v>99411.0</v>
       </c>
       <c r="F12" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="G12" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
@@ -656,7 +662,7 @@
         <v>47.0</v>
       </c>
       <c r="K12" t="n">
-        <v>505.0</v>
+        <v>516.0</v>
       </c>
     </row>
     <row r="13">
@@ -664,22 +670,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>82.0</v>
+        <v>84.0</v>
       </c>
       <c r="C13" t="n">
         <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>242.0</v>
+        <v>248.0</v>
       </c>
       <c r="E13" t="n">
-        <v>100800.0</v>
+        <v>102760.0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="H13" t="n">
         <v>4.0</v>
@@ -691,7 +697,7 @@
         <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>503.0</v>
+        <v>514.0</v>
       </c>
     </row>
     <row r="14">
@@ -699,22 +705,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>80.0</v>
+        <v>82.0</v>
       </c>
       <c r="C14" t="n">
         <v>93.0</v>
       </c>
       <c r="D14" t="n">
-        <v>237.0</v>
+        <v>243.0</v>
       </c>
       <c r="E14" t="n">
-        <v>96914.0</v>
+        <v>99994.0</v>
       </c>
       <c r="F14" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="G14" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="H14" t="n">
         <v>3.0</v>
@@ -723,10 +729,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="K14" t="n">
-        <v>494.0</v>
+        <v>514.0</v>
       </c>
     </row>
     <row r="15">
@@ -734,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="C15" t="n">
-        <v>53.0</v>
+        <v>47.0</v>
       </c>
       <c r="D15" t="n">
-        <v>211.0</v>
+        <v>214.0</v>
       </c>
       <c r="E15" t="n">
-        <v>86577.0</v>
+        <v>88257.0</v>
       </c>
       <c r="F15" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="G15" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="H15" t="n">
         <v>8.0</v>
@@ -758,10 +764,10 @@
         <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="K15" t="n">
-        <v>489.0</v>
+        <v>498.0</v>
       </c>
     </row>
     <row r="16">
@@ -769,22 +775,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="C16" t="n">
         <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>208.0</v>
+        <v>214.0</v>
       </c>
       <c r="E16" t="n">
-        <v>83314.0</v>
+        <v>85834.0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="G16" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="H16" t="n">
         <v>2.0</v>
@@ -793,10 +799,10 @@
         <v>2.0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="K16" t="n">
-        <v>470.0</v>
+        <v>488.0</v>
       </c>
     </row>
     <row r="17">
@@ -804,22 +810,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>248.0</v>
+        <v>254.0</v>
       </c>
       <c r="E17" t="n">
-        <v>89361.0</v>
+        <v>91321.0</v>
       </c>
       <c r="F17" t="n">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="G17" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -831,7 +837,7 @@
         <v>45.0</v>
       </c>
       <c r="K17" t="n">
-        <v>444.0</v>
+        <v>455.0</v>
       </c>
     </row>
     <row r="18">
@@ -839,34 +845,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>73.0</v>
+        <v>68.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>208.0</v>
+        <v>204.0</v>
       </c>
       <c r="E18" t="n">
-        <v>89320.0</v>
+        <v>84000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>76.0</v>
+        <v>72.0</v>
       </c>
       <c r="G18" t="n">
-        <v>46.0</v>
+        <v>36.0</v>
       </c>
       <c r="H18" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>61.0</v>
+        <v>50.0</v>
       </c>
       <c r="K18" t="n">
-        <v>442.0</v>
+        <v>444.0</v>
       </c>
     </row>
     <row r="19">
@@ -874,34 +880,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>66.0</v>
+        <v>74.0</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>198.0</v>
+        <v>210.0</v>
       </c>
       <c r="E19" t="n">
-        <v>81760.0</v>
+        <v>89880.0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.0</v>
+        <v>77.0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.0</v>
+        <v>47.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J19" t="n">
-        <v>50.0</v>
+        <v>61.0</v>
       </c>
       <c r="K19" t="n">
-        <v>433.0</v>
+        <v>442.0</v>
       </c>
     </row>
     <row r="20">
@@ -909,22 +915,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>80.0</v>
+        <v>82.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>226.0</v>
+        <v>232.0</v>
       </c>
       <c r="E20" t="n">
-        <v>91840.0</v>
+        <v>94080.0</v>
       </c>
       <c r="F20" t="n">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
       <c r="G20" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="H20" t="n">
         <v>14.0</v>
@@ -933,10 +939,10 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="K20" t="n">
-        <v>415.0</v>
+        <v>432.0</v>
       </c>
     </row>
     <row r="21">
@@ -944,22 +950,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>251.0</v>
+        <v>257.0</v>
       </c>
       <c r="E21" t="n">
-        <v>99990.0</v>
+        <v>101950.0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.0</v>
+        <v>94.0</v>
       </c>
       <c r="G21" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H21" t="n">
         <v>1.0</v>
@@ -968,10 +974,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>28.999999999999996</v>
+        <v>30.0</v>
       </c>
       <c r="K21" t="n">
-        <v>412.0</v>
+        <v>423.0</v>
       </c>
     </row>
     <row r="22">
@@ -979,19 +985,19 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="C22" t="n">
         <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>204.0</v>
+        <v>210.0</v>
       </c>
       <c r="E22" t="n">
-        <v>83440.0</v>
+        <v>85960.0</v>
       </c>
       <c r="F22" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
       <c r="G22" t="n">
         <v>48.0</v>
@@ -1003,10 +1009,10 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="K22" t="n">
-        <v>401.0</v>
+        <v>407.0</v>
       </c>
     </row>
     <row r="23">
@@ -1014,22 +1020,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>224.0</v>
+        <v>230.0</v>
       </c>
       <c r="E23" t="n">
-        <v>91000.0</v>
+        <v>93520.0</v>
       </c>
       <c r="F23" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="G23" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="H23" t="n">
         <v>7.0</v>
@@ -1041,7 +1047,7 @@
         <v>63.0</v>
       </c>
       <c r="K23" t="n">
-        <v>383.0</v>
+        <v>395.0</v>
       </c>
     </row>
     <row r="24">
@@ -1049,22 +1055,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>195.0</v>
+        <v>201.0</v>
       </c>
       <c r="E24" t="n">
-        <v>82475.0</v>
+        <v>85642.0</v>
       </c>
       <c r="F24" t="n">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="G24" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1073,10 +1079,10 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="K24" t="n">
-        <v>366.0</v>
+        <v>379.0</v>
       </c>
     </row>
     <row r="25">
@@ -1084,25 +1090,25 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>217.0</v>
+        <v>221.0</v>
       </c>
       <c r="E25" t="n">
-        <v>90720.0</v>
+        <v>92120.0</v>
       </c>
       <c r="F25" t="n">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
       <c r="G25" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H25" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -1111,7 +1117,7 @@
         <v>35.0</v>
       </c>
       <c r="K25" t="n">
-        <v>333.0</v>
+        <v>326.0</v>
       </c>
     </row>
     <row r="26">
@@ -1119,25 +1125,25 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="C26" t="n">
         <v>93.0</v>
       </c>
       <c r="D26" t="n">
-        <v>194.0</v>
+        <v>199.0</v>
       </c>
       <c r="E26" t="n">
-        <v>81952.0</v>
+        <v>83352.0</v>
       </c>
       <c r="F26" t="n">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="G26" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="H26" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="I26" t="n">
         <v>2.0</v>
@@ -1146,7 +1152,7 @@
         <v>54.0</v>
       </c>
       <c r="K26" t="n">
-        <v>315.0</v>
+        <v>316.0</v>
       </c>
     </row>
     <row r="27">
@@ -1154,22 +1160,22 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>192.0</v>
+        <v>198.0</v>
       </c>
       <c r="E27" t="n">
-        <v>78400.0</v>
+        <v>80920.0</v>
       </c>
       <c r="F27" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="G27" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="H27" t="n">
         <v>18.0</v>
@@ -1178,10 +1184,10 @@
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="K27" t="n">
-        <v>280.0</v>
+        <v>299.0</v>
       </c>
     </row>
     <row r="28">
@@ -1189,34 +1195,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>82.0</v>
+        <v>60.0</v>
       </c>
       <c r="C28" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D28" t="n">
-        <v>220.0</v>
+        <v>175.0</v>
       </c>
       <c r="E28" t="n">
-        <v>89502.0</v>
+        <v>74480.0</v>
       </c>
       <c r="F28" t="n">
-        <v>84.0</v>
+        <v>58.0</v>
       </c>
       <c r="G28" t="n">
-        <v>36.0</v>
+        <v>18.0</v>
       </c>
       <c r="H28" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.0</v>
+        <v>31.0</v>
       </c>
       <c r="K28" t="n">
-        <v>228.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="29">
@@ -1224,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>49.0</v>
+        <v>84.0</v>
       </c>
       <c r="C29" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>132.0</v>
+        <v>225.0</v>
       </c>
       <c r="E29" t="n">
-        <v>55440.0</v>
+        <v>91742.0</v>
       </c>
       <c r="F29" t="n">
-        <v>48.0</v>
+        <v>86.0</v>
       </c>
       <c r="G29" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="H29" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="I29" t="n">
         <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>65.0</v>
+        <v>43.0</v>
       </c>
       <c r="K29" t="n">
-        <v>222.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="30">
@@ -1259,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>58.0</v>
+        <v>51.0</v>
       </c>
       <c r="C30" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>169.0</v>
+        <v>136.0</v>
       </c>
       <c r="E30" t="n">
-        <v>71680.0</v>
+        <v>57400.0</v>
       </c>
       <c r="F30" t="n">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="G30" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="H30" t="n">
         <v>17.0</v>
       </c>
-      <c r="H30" t="n">
-        <v>5.0</v>
-      </c>
       <c r="I30" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>30.0</v>
+        <v>66.0</v>
       </c>
       <c r="K30" t="n">
-        <v>215.0</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="31">
@@ -1294,23 +1300,23 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21280.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G31" t="n">
         <v>15.0</v>
       </c>
-      <c r="C31" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>19320.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>13.0</v>
-      </c>
       <c r="H31" t="n">
         <v>0.0</v>
       </c>
@@ -1318,10 +1324,10 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="K31" t="n">
-        <v>185.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="32">
@@ -1329,22 +1335,22 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="C32" t="n">
         <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
       <c r="E32" t="n">
-        <v>17640.0</v>
+        <v>19880.0</v>
       </c>
       <c r="F32" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="H32" t="n">
         <v>0.0</v>
@@ -1353,10 +1359,10 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>80.0</v>
+        <v>82.0</v>
       </c>
       <c r="K32" t="n">
-        <v>180.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="33">
@@ -1364,31 +1370,31 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>63.0</v>
+        <v>17.0</v>
       </c>
       <c r="C33" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>177.0</v>
+        <v>51.0</v>
       </c>
       <c r="E33" t="n">
-        <v>70212.0</v>
+        <v>19040.0</v>
       </c>
       <c r="F33" t="n">
-        <v>65.0</v>
+        <v>19.0</v>
       </c>
       <c r="G33" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="H33" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K33" t="n">
         <v>168.0</v>
@@ -1399,34 +1405,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>15.0</v>
+        <v>64.0</v>
       </c>
       <c r="C34" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D34" t="n">
-        <v>45.0</v>
+        <v>178.0</v>
       </c>
       <c r="E34" t="n">
-        <v>16800.0</v>
+        <v>70772.0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.0</v>
+        <v>66.0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
       <c r="K34" t="n">
-        <v>163.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="35">
@@ -1434,22 +1440,22 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="C35" t="n">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
       <c r="D35" t="n">
-        <v>63.0</v>
+        <v>36.0</v>
       </c>
       <c r="E35" t="n">
-        <v>28576.0</v>
+        <v>14560.0</v>
       </c>
       <c r="F35" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="G35" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="H35" t="n">
         <v>0.0</v>
@@ -1458,10 +1464,10 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="K35" t="n">
-        <v>126.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="36">
@@ -1469,22 +1475,22 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="C36" t="n">
-        <v>91.0</v>
+        <v>93.0</v>
       </c>
       <c r="D36" t="n">
-        <v>30.0</v>
+        <v>69.0</v>
       </c>
       <c r="E36" t="n">
-        <v>12040.0</v>
+        <v>31656.0</v>
       </c>
       <c r="F36" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="H36" t="n">
         <v>0.0</v>
@@ -1493,10 +1499,10 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="37">
@@ -1504,34 +1510,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C37" t="n">
         <v>100.0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="E37" t="n">
-        <v>25760.0</v>
+        <v>27440.0</v>
       </c>
       <c r="F37" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="G37" t="n">
         <v>5.0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="K37" t="n">
-        <v>118.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,22 +1545,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C38" t="n">
         <v>33.0</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="E38" t="n">
-        <v>43400.0</v>
+        <v>44800.0</v>
       </c>
       <c r="F38" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G38" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H38" t="n">
         <v>9.0</v>
@@ -1563,10 +1569,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="K38" t="n">
-        <v>107.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="39">
@@ -1574,19 +1580,19 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C39" t="n">
         <v>93.0</v>
       </c>
       <c r="D39" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="E39" t="n">
-        <v>14840.0</v>
+        <v>17080.0</v>
       </c>
       <c r="F39" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G39" t="n">
         <v>4.0</v>
@@ -1598,10 +1604,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="K39" t="n">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="40">
@@ -1609,22 +1615,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="E40" t="n">
-        <v>2240.0</v>
+        <v>4200.0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1636,7 +1642,7 @@
         <v>100.0</v>
       </c>
       <c r="K40" t="n">
-        <v>76.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="41">
@@ -1644,22 +1650,22 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C41" t="n">
         <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="E41" t="n">
-        <v>2240.0</v>
+        <v>4760.0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -1671,7 +1677,7 @@
         <v>100.0</v>
       </c>
       <c r="K41" t="n">
-        <v>54.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="42">
@@ -1679,22 +1685,22 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
@@ -1702,9 +1708,11 @@
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
-      <c r="J42"/>
+      <c r="J42" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K42" t="n">
-        <v>42.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="43">
@@ -1737,7 +1745,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="44">
@@ -1745,22 +1753,22 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>2169.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -1768,11 +1776,9 @@
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
-      <c r="J44" t="n">
-        <v>67.0</v>
-      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="45">
@@ -1780,34 +1786,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3289.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.0</v>
       </c>
-      <c r="C45" t="n">
+      <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n">
         <v>50.0</v>
       </c>
-      <c r="D45" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1120.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K45" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="46">
@@ -1815,34 +1821,32 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>10640.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>43.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J46"/>
       <c r="K46" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="47">
@@ -1850,34 +1854,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D47" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="E47" t="n">
-        <v>5880.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F47" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J47" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="K47" t="n">
-        <v>-92.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="48">
@@ -1885,34 +1889,32 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>56.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>140.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>52637.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48" t="n">
         <v>16.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-158.0</v>
       </c>
     </row>
     <row r="49">
@@ -1920,34 +1922,104 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>52.0</v>
+        <v>7.0</v>
       </c>
       <c r="C49" t="n">
-        <v>100.0</v>
+        <v>13.0</v>
       </c>
       <c r="D49" t="n">
-        <v>151.0</v>
+        <v>20.0</v>
       </c>
       <c r="E49" t="n">
-        <v>47862.0</v>
+        <v>8400.0</v>
       </c>
       <c r="F49" t="n">
-        <v>49.0</v>
+        <v>6.0</v>
       </c>
       <c r="G49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-80.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>49174.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G50" t="n">
         <v>13.0</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>5.0</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>5.0</v>
       </c>
-      <c r="J49" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-163.0</v>
+      <c r="J50" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-165.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>52637.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-166.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -74,18 +74,18 @@
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>Tio João</t>
+  </si>
+  <si>
+    <t>zau</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
-    <t>zau</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
@@ -119,21 +119,21 @@
     <t>filipe</t>
   </si>
   <si>
+    <t>Savler</t>
+  </si>
+  <si>
     <t>Sergas</t>
   </si>
   <si>
-    <t>Savler</t>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>qzt</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>qzt</t>
-  </si>
-  <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>huracan</t>
   </si>
   <si>
@@ -152,49 +152,49 @@
     <t>PedroNabaisHD</t>
   </si>
   <si>
+    <t>Wut</t>
+  </si>
+  <si>
     <t>André</t>
   </si>
   <si>
-    <t>Wut</t>
-  </si>
-  <si>
     <t>MiStErIo</t>
   </si>
   <si>
+    <t>RichPath</t>
+  </si>
+  <si>
     <t>Soul_Eater</t>
   </si>
   <si>
-    <t>RichPath</t>
-  </si>
-  <si>
-    <t>Tiagiovic-RUSSO</t>
-  </si>
-  <si>
     <t>nmaciel8</t>
   </si>
   <si>
-    <t>coelhao8</t>
-  </si>
-  <si>
     <t>marinheiro</t>
   </si>
   <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>the killer zone</t>
-  </si>
-  <si>
     <t>Iskandir</t>
   </si>
   <si>
+    <t>dr nov4to</t>
+  </si>
+  <si>
+    <t>JotaPTguna</t>
+  </si>
+  <si>
+    <t>LouCo_xD</t>
+  </si>
+  <si>
     <t>diogo</t>
   </si>
   <si>
+    <t>Sra. Clash</t>
+  </si>
+  <si>
     <t>Manu</t>
   </si>
   <si>
-    <t>Sra. Clash</t>
+    <t>Welton</t>
   </si>
 </sst>
 </file>
@@ -285,22 +285,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>257.0</v>
+        <v>263.0</v>
       </c>
       <c r="E2" t="n">
-        <v>103872.0</v>
+        <v>106672.0</v>
       </c>
       <c r="F2" t="n">
-        <v>89.0</v>
+        <v>91.0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -312,7 +312,7 @@
         <v>79.0</v>
       </c>
       <c r="K2" t="n">
-        <v>722.0</v>
+        <v>741.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +320,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>261.0</v>
+        <v>267.0</v>
       </c>
       <c r="E3" t="n">
-        <v>103880.0</v>
+        <v>105840.0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.0</v>
+        <v>94.0</v>
       </c>
       <c r="G3" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="K3" t="n">
-        <v>699.0</v>
+        <v>710.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +355,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>255.0</v>
+        <v>261.0</v>
       </c>
       <c r="E4" t="n">
-        <v>104160.0</v>
+        <v>106960.0</v>
       </c>
       <c r="F4" t="n">
-        <v>89.0</v>
+        <v>91.0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -379,10 +379,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="K4" t="n">
-        <v>639.0</v>
+        <v>658.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>106692.0</v>
+      </c>
+      <c r="F5" t="n">
         <v>87.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>261.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>104172.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>85.0</v>
-      </c>
       <c r="G5" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -417,7 +417,7 @@
         <v>69.0</v>
       </c>
       <c r="K5" t="n">
-        <v>611.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,22 +425,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>258.0</v>
+        <v>264.0</v>
       </c>
       <c r="E6" t="n">
-        <v>101706.0</v>
+        <v>104506.0</v>
       </c>
       <c r="F6" t="n">
-        <v>89.0</v>
+        <v>91.0</v>
       </c>
       <c r="G6" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="H6" t="n">
         <v>3.0</v>
@@ -452,7 +452,7 @@
         <v>63.0</v>
       </c>
       <c r="K6" t="n">
-        <v>598.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +460,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>82.0</v>
+        <v>84.0</v>
       </c>
       <c r="C7" t="n">
         <v>93.0</v>
       </c>
       <c r="D7" t="n">
-        <v>241.0</v>
+        <v>247.0</v>
       </c>
       <c r="E7" t="n">
-        <v>98560.0</v>
+        <v>100800.0</v>
       </c>
       <c r="F7" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="G7" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="H7" t="n">
         <v>5.0</v>
@@ -484,10 +484,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="K7" t="n">
-        <v>592.0</v>
+        <v>610.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,22 +495,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>261.0</v>
+        <v>267.0</v>
       </c>
       <c r="E8" t="n">
-        <v>106960.0</v>
+        <v>109200.0</v>
       </c>
       <c r="F8" t="n">
-        <v>93.0</v>
+        <v>95.0</v>
       </c>
       <c r="G8" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -522,7 +522,7 @@
         <v>52.0</v>
       </c>
       <c r="K8" t="n">
-        <v>575.0</v>
+        <v>586.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>255.0</v>
+        <v>261.0</v>
       </c>
       <c r="E9" t="n">
-        <v>103040.0</v>
+        <v>105560.0</v>
       </c>
       <c r="F9" t="n">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="G9" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -557,7 +557,7 @@
         <v>53.0</v>
       </c>
       <c r="K9" t="n">
-        <v>544.0</v>
+        <v>556.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,22 +565,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>185.0</v>
+        <v>191.0</v>
       </c>
       <c r="E10" t="n">
-        <v>76945.0</v>
+        <v>79185.0</v>
       </c>
       <c r="F10" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="G10" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -589,10 +589,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="K10" t="n">
-        <v>527.0</v>
+        <v>545.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,34 +600,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="C11" t="n">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>239.0</v>
+        <v>261.0</v>
       </c>
       <c r="E11" t="n">
-        <v>92855.0</v>
+        <v>102211.0</v>
       </c>
       <c r="F11" t="n">
-        <v>84.0</v>
+        <v>94.0</v>
       </c>
       <c r="G11" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.00000000000001</v>
+        <v>47.0</v>
       </c>
       <c r="K11" t="n">
-        <v>517.0</v>
+        <v>529.0</v>
       </c>
     </row>
     <row r="12">
@@ -638,31 +638,31 @@
         <v>85.0</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D12" t="n">
-        <v>255.0</v>
+        <v>251.0</v>
       </c>
       <c r="E12" t="n">
-        <v>99411.0</v>
+        <v>104160.0</v>
       </c>
       <c r="F12" t="n">
-        <v>92.0</v>
+        <v>87.0</v>
       </c>
       <c r="G12" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="K12" t="n">
-        <v>516.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="13">
@@ -673,31 +673,31 @@
         <v>84.0</v>
       </c>
       <c r="C13" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D13" t="n">
-        <v>248.0</v>
+        <v>247.0</v>
       </c>
       <c r="E13" t="n">
-        <v>102760.0</v>
+        <v>101954.0</v>
       </c>
       <c r="F13" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="K13" t="n">
-        <v>514.0</v>
+        <v>519.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,34 +705,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>82.0</v>
+        <v>80.0</v>
       </c>
       <c r="C14" t="n">
-        <v>93.0</v>
+        <v>47.0</v>
       </c>
       <c r="D14" t="n">
-        <v>243.0</v>
+        <v>239.0</v>
       </c>
       <c r="E14" t="n">
-        <v>99994.0</v>
+        <v>92855.0</v>
       </c>
       <c r="F14" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>49.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>514.0</v>
+        <v>515.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,22 +740,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="C15" t="n">
         <v>47.0</v>
       </c>
       <c r="D15" t="n">
-        <v>214.0</v>
+        <v>217.0</v>
       </c>
       <c r="E15" t="n">
-        <v>88257.0</v>
+        <v>89097.0</v>
       </c>
       <c r="F15" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="G15" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="H15" t="n">
         <v>8.0</v>
@@ -767,7 +767,7 @@
         <v>69.0</v>
       </c>
       <c r="K15" t="n">
-        <v>498.0</v>
+        <v>505.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,22 +775,22 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D16" t="n">
-        <v>214.0</v>
+        <v>217.0</v>
       </c>
       <c r="E16" t="n">
-        <v>85834.0</v>
+        <v>86674.0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="G16" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="H16" t="n">
         <v>2.0</v>
@@ -802,7 +802,7 @@
         <v>66.0</v>
       </c>
       <c r="K16" t="n">
-        <v>488.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,22 +810,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>254.0</v>
+        <v>260.0</v>
       </c>
       <c r="E17" t="n">
-        <v>91321.0</v>
+        <v>94033.0</v>
       </c>
       <c r="F17" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -834,10 +834,10 @@
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="K17" t="n">
-        <v>455.0</v>
+        <v>474.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,22 +845,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>204.0</v>
+        <v>210.0</v>
       </c>
       <c r="E18" t="n">
-        <v>84000.0</v>
+        <v>86520.0</v>
       </c>
       <c r="F18" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="G18" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
@@ -872,7 +872,7 @@
         <v>50.0</v>
       </c>
       <c r="K18" t="n">
-        <v>444.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,22 +880,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="C19" t="n">
         <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>210.0</v>
+        <v>216.0</v>
       </c>
       <c r="E19" t="n">
-        <v>89880.0</v>
+        <v>92400.0</v>
       </c>
       <c r="F19" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="G19" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="H19" t="n">
         <v>12.0</v>
@@ -907,7 +907,7 @@
         <v>61.0</v>
       </c>
       <c r="K19" t="n">
-        <v>442.0</v>
+        <v>453.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,22 +915,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>82.0</v>
+        <v>84.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>232.0</v>
+        <v>238.0</v>
       </c>
       <c r="E20" t="n">
-        <v>94080.0</v>
+        <v>96320.0</v>
       </c>
       <c r="F20" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="G20" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="H20" t="n">
         <v>14.0</v>
@@ -942,7 +942,7 @@
         <v>51.0</v>
       </c>
       <c r="K20" t="n">
-        <v>432.0</v>
+        <v>444.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,19 +950,19 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>257.0</v>
+        <v>263.0</v>
       </c>
       <c r="E21" t="n">
-        <v>101950.0</v>
+        <v>104190.0</v>
       </c>
       <c r="F21" t="n">
-        <v>94.0</v>
+        <v>96.0</v>
       </c>
       <c r="G21" t="n">
         <v>28.0</v>
@@ -974,10 +974,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>30.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K21" t="n">
-        <v>423.0</v>
+        <v>428.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,22 +985,22 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="C22" t="n">
         <v>93.0</v>
       </c>
       <c r="D22" t="n">
-        <v>210.0</v>
+        <v>216.0</v>
       </c>
       <c r="E22" t="n">
-        <v>85960.0</v>
+        <v>87920.0</v>
       </c>
       <c r="F22" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="G22" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="H22" t="n">
         <v>18.0</v>
@@ -1012,7 +1012,7 @@
         <v>62.0</v>
       </c>
       <c r="K22" t="n">
-        <v>407.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,19 +1020,19 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>230.0</v>
+        <v>236.0</v>
       </c>
       <c r="E23" t="n">
-        <v>93520.0</v>
+        <v>96320.0</v>
       </c>
       <c r="F23" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
       <c r="G23" t="n">
         <v>47.0</v>
@@ -1044,10 +1044,10 @@
         <v>4.0</v>
       </c>
       <c r="J23" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="K23" t="n">
-        <v>395.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,22 +1055,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>201.0</v>
+        <v>207.0</v>
       </c>
       <c r="E24" t="n">
-        <v>85642.0</v>
+        <v>87882.0</v>
       </c>
       <c r="F24" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="G24" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1082,7 +1082,7 @@
         <v>37.0</v>
       </c>
       <c r="K24" t="n">
-        <v>379.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,22 +1090,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>221.0</v>
+        <v>227.0</v>
       </c>
       <c r="E25" t="n">
-        <v>92120.0</v>
+        <v>94640.0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="G25" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H25" t="n">
         <v>16.0</v>
@@ -1117,7 +1117,7 @@
         <v>35.0</v>
       </c>
       <c r="K25" t="n">
-        <v>326.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="C26" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>199.0</v>
+        <v>204.0</v>
       </c>
       <c r="E26" t="n">
-        <v>83352.0</v>
+        <v>83720.0</v>
       </c>
       <c r="F26" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="G26" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="H26" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="I26" t="n">
         <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="K26" t="n">
-        <v>316.0</v>
+        <v>318.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,22 +1160,22 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="C27" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D27" t="n">
-        <v>198.0</v>
+        <v>204.0</v>
       </c>
       <c r="E27" t="n">
-        <v>80920.0</v>
+        <v>84752.0</v>
       </c>
       <c r="F27" t="n">
         <v>73.0</v>
       </c>
       <c r="G27" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="H27" t="n">
         <v>18.0</v>
@@ -1184,10 +1184,10 @@
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="K27" t="n">
-        <v>299.0</v>
+        <v>316.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,34 +1195,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>60.0</v>
+        <v>53.0</v>
       </c>
       <c r="C28" t="n">
         <v>93.0</v>
       </c>
       <c r="D28" t="n">
-        <v>175.0</v>
+        <v>142.0</v>
       </c>
       <c r="E28" t="n">
-        <v>74480.0</v>
+        <v>59360.0</v>
       </c>
       <c r="F28" t="n">
-        <v>58.0</v>
+        <v>52.0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.0</v>
+        <v>35.0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.0</v>
+        <v>67.0</v>
       </c>
       <c r="K28" t="n">
-        <v>227.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,22 +1230,22 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="E29" t="n">
-        <v>91742.0</v>
+        <v>93702.0</v>
       </c>
       <c r="F29" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="G29" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="H29" t="n">
         <v>27.0</v>
@@ -1257,7 +1257,7 @@
         <v>43.0</v>
       </c>
       <c r="K29" t="n">
-        <v>226.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>51.0</v>
+        <v>60.0</v>
       </c>
       <c r="C30" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D30" t="n">
-        <v>136.0</v>
+        <v>175.0</v>
       </c>
       <c r="E30" t="n">
-        <v>57400.0</v>
+        <v>74480.0</v>
       </c>
       <c r="F30" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="G30" t="n">
-        <v>33.0</v>
+        <v>18.0</v>
       </c>
       <c r="H30" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J30" t="n">
-        <v>66.0</v>
+        <v>31.0</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,23 +1300,23 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23520.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G31" t="n">
         <v>17.0</v>
       </c>
-      <c r="C31" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>21280.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>15.0</v>
-      </c>
       <c r="H31" t="n">
         <v>0.0</v>
       </c>
@@ -1324,10 +1324,10 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
       <c r="K31" t="n">
-        <v>202.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,22 +1335,22 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="C32" t="n">
         <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>51.0</v>
+        <v>57.0</v>
       </c>
       <c r="E32" t="n">
-        <v>19880.0</v>
+        <v>22680.0</v>
       </c>
       <c r="F32" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="G32" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H32" t="n">
         <v>0.0</v>
@@ -1359,10 +1359,10 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>82.0</v>
+        <v>84.0</v>
       </c>
       <c r="K32" t="n">
-        <v>198.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,19 +1370,19 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>51.0</v>
+        <v>57.0</v>
       </c>
       <c r="E33" t="n">
-        <v>19040.0</v>
+        <v>21560.0</v>
       </c>
       <c r="F33" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="G33" t="n">
         <v>11.0</v>
@@ -1394,10 +1394,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>57.99999999999999</v>
+        <v>52.0</v>
       </c>
       <c r="K33" t="n">
-        <v>168.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,22 +1405,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C34" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="D34" t="n">
-        <v>178.0</v>
+        <v>181.0</v>
       </c>
       <c r="E34" t="n">
-        <v>70772.0</v>
+        <v>72452.0</v>
       </c>
       <c r="F34" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H34" t="n">
         <v>14.0</v>
@@ -1429,10 +1429,10 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K34" t="n">
-        <v>158.0</v>
+        <v>162.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,25 +1440,25 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C35" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="D35" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E35" t="n">
-        <v>14560.0</v>
+        <v>16240.0</v>
       </c>
       <c r="F35" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -1467,7 +1467,7 @@
         <v>50.0</v>
       </c>
       <c r="K35" t="n">
-        <v>138.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,19 +1475,19 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="C36" t="n">
         <v>93.0</v>
       </c>
       <c r="D36" t="n">
-        <v>69.0</v>
+        <v>75.0</v>
       </c>
       <c r="E36" t="n">
-        <v>31656.0</v>
+        <v>33896.0</v>
       </c>
       <c r="F36" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="G36" t="n">
         <v>8.0</v>
@@ -1499,10 +1499,10 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="K36" t="n">
-        <v>132.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,34 +1510,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>22.0</v>
+        <v>39.0</v>
       </c>
       <c r="C37" t="n">
-        <v>100.0</v>
+        <v>33.0</v>
       </c>
       <c r="D37" t="n">
-        <v>64.0</v>
+        <v>108.0</v>
       </c>
       <c r="E37" t="n">
-        <v>27440.0</v>
+        <v>45920.0</v>
       </c>
       <c r="F37" t="n">
-        <v>22.0</v>
+        <v>41.0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.0</v>
+        <v>66.0</v>
       </c>
       <c r="K37" t="n">
-        <v>120.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,34 +1545,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="C38" t="n">
-        <v>33.0</v>
+        <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>105.0</v>
+        <v>70.0</v>
       </c>
       <c r="E38" t="n">
-        <v>44800.0</v>
+        <v>29400.0</v>
       </c>
       <c r="F38" t="n">
-        <v>40.0</v>
+        <v>23.0</v>
       </c>
       <c r="G38" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J38" t="n">
-        <v>65.0</v>
+        <v>22.0</v>
       </c>
       <c r="K38" t="n">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,34 +1580,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="C39" t="n">
         <v>93.0</v>
       </c>
       <c r="D39" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="E39" t="n">
-        <v>17080.0</v>
+        <v>19320.0</v>
       </c>
       <c r="F39" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="G39" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H39" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>27.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>100.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,22 +1615,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="E40" t="n">
-        <v>4200.0</v>
+        <v>7560.0</v>
       </c>
       <c r="F40" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1642,7 +1642,7 @@
         <v>100.0</v>
       </c>
       <c r="K40" t="n">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,19 +1650,19 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" t="n">
         <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="E41" t="n">
-        <v>4760.0</v>
+        <v>6440.0</v>
       </c>
       <c r="F41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G41" t="n">
         <v>4.0</v>
@@ -1671,13 +1671,13 @@
         <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="K41" t="n">
-        <v>73.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="42">
@@ -1694,13 +1694,13 @@
         <v>6.0</v>
       </c>
       <c r="E42" t="n">
-        <v>2800.0</v>
+        <v>3080.0</v>
       </c>
       <c r="F42" t="n">
         <v>2.0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
@@ -1709,7 +1709,7 @@
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="K42" t="n">
         <v>58.0</v>
@@ -1720,32 +1720,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>5476.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
-      <c r="J43"/>
+      <c r="J43" t="n">
+        <v>50.0</v>
+      </c>
       <c r="K43" t="n">
-        <v>45.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="44">
@@ -1753,22 +1755,22 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -1776,9 +1778,11 @@
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
-      <c r="J44"/>
+      <c r="J44" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K44" t="n">
-        <v>38.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -1786,34 +1790,32 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>3289.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
-      <c r="J45" t="n">
-        <v>50.0</v>
-      </c>
+      <c r="J45"/>
       <c r="K45" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="46">
@@ -1846,7 +1848,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="47">
@@ -1854,19 +1856,19 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1120.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
@@ -1877,11 +1879,9 @@
       <c r="I47" t="n">
         <v>0.0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="48">
@@ -1889,32 +1889,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>11200.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J48"/>
+        <v>1.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>62.0</v>
+      </c>
       <c r="K48" t="n">
-        <v>16.0</v>
+        <v>-66.0</v>
       </c>
     </row>
     <row r="49">
@@ -1922,34 +1924,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>7.0</v>
+        <v>57.0</v>
       </c>
       <c r="C49" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="D49" t="n">
-        <v>20.0</v>
+        <v>143.0</v>
       </c>
       <c r="E49" t="n">
-        <v>8400.0</v>
+        <v>54037.0</v>
       </c>
       <c r="F49" t="n">
-        <v>6.0</v>
+        <v>54.0</v>
       </c>
       <c r="G49" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J49" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-80.0</v>
+        <v>-166.0</v>
       </c>
     </row>
     <row r="50">
@@ -1957,19 +1959,19 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C50" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D50" t="n">
-        <v>154.0</v>
+        <v>157.0</v>
       </c>
       <c r="E50" t="n">
-        <v>49174.0</v>
+        <v>49909.0</v>
       </c>
       <c r="F50" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G50" t="n">
         <v>13.0</v>
@@ -1981,10 +1983,10 @@
         <v>5.0</v>
       </c>
       <c r="J50" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-165.0</v>
+        <v>-167.0</v>
       </c>
     </row>
     <row r="51">
@@ -1992,34 +1994,34 @@
         <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>56.0</v>
+        <v>68.0</v>
       </c>
       <c r="C51" t="n">
-        <v>47.0</v>
+        <v>60.0</v>
       </c>
       <c r="D51" t="n">
-        <v>140.0</v>
+        <v>190.0</v>
       </c>
       <c r="E51" t="n">
-        <v>52637.0</v>
+        <v>81480.0</v>
       </c>
       <c r="F51" t="n">
-        <v>53.0</v>
+        <v>62.0</v>
       </c>
       <c r="G51" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="H51" t="n">
-        <v>28.0</v>
+        <v>14.0</v>
       </c>
       <c r="I51" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="J51" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-166.0</v>
+        <v>-2021.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -56,12 +56,12 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
+    <t>snowkids</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
-    <t>snowkids</t>
-  </si>
-  <si>
     <t>King Bonixe</t>
   </si>
   <si>
@@ -83,15 +83,15 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>Robb Stark</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
     <t>Fabíola</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
@@ -110,48 +110,48 @@
     <t>unb</t>
   </si>
   <si>
+    <t>Cronicl3_2</t>
+  </si>
+  <si>
     <t>leal</t>
   </si>
   <si>
-    <t>Cronicl3_2</t>
+    <t>Savler</t>
   </si>
   <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>Savler</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
     <t>Marcelo</t>
   </si>
   <si>
+    <t>huracan</t>
+  </si>
+  <si>
+    <t>Gingka</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>huracan</t>
-  </si>
-  <si>
-    <t>Gingka</t>
-  </si>
-  <si>
     <t>Marshall</t>
   </si>
   <si>
+    <t>virtudes</t>
+  </si>
+  <si>
+    <t>PedroNabaisHD</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>virtudes</t>
-  </si>
-  <si>
-    <t>PedroNabaisHD</t>
-  </si>
-  <si>
     <t>Wut</t>
   </si>
   <si>
@@ -161,12 +161,12 @@
     <t>MiStErIo</t>
   </si>
   <si>
+    <t>Soul_Eater</t>
+  </si>
+  <si>
     <t>RichPath</t>
   </si>
   <si>
-    <t>Soul_Eater</t>
-  </si>
-  <si>
     <t>nmaciel8</t>
   </si>
   <si>
@@ -176,19 +176,16 @@
     <t>Iskandir</t>
   </si>
   <si>
+    <t>Pp</t>
+  </si>
+  <si>
     <t>dr nov4to</t>
   </si>
   <si>
     <t>JotaPTguna</t>
   </si>
   <si>
-    <t>LouCo_xD</t>
-  </si>
-  <si>
     <t>diogo</t>
-  </si>
-  <si>
-    <t>Sra. Clash</t>
   </si>
   <si>
     <t>Manu</t>
@@ -285,22 +282,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.0</v>
+        <v>275.0</v>
       </c>
       <c r="E2" t="n">
-        <v>106672.0</v>
+        <v>113632.0</v>
       </c>
       <c r="F2" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="G2" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -312,7 +309,7 @@
         <v>79.0</v>
       </c>
       <c r="K2" t="n">
-        <v>741.0</v>
+        <v>776.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +317,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>267.0</v>
+        <v>279.0</v>
       </c>
       <c r="E3" t="n">
-        <v>105840.0</v>
+        <v>111960.0</v>
       </c>
       <c r="F3" t="n">
-        <v>94.0</v>
+        <v>99.0</v>
       </c>
       <c r="G3" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -347,7 +344,7 @@
         <v>72.0</v>
       </c>
       <c r="K3" t="n">
-        <v>710.0</v>
+        <v>743.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,34 +352,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="C4" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>261.0</v>
+        <v>269.0</v>
       </c>
       <c r="E4" t="n">
-        <v>106960.0</v>
+        <v>111440.0</v>
       </c>
       <c r="F4" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="G4" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K4" t="n">
-        <v>658.0</v>
+        <v>685.0</v>
       </c>
     </row>
     <row r="5">
@@ -390,34 +387,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>267.0</v>
+        <v>276.0</v>
       </c>
       <c r="E5" t="n">
-        <v>106692.0</v>
+        <v>111026.0</v>
       </c>
       <c r="F5" t="n">
-        <v>87.0</v>
+        <v>95.0</v>
       </c>
       <c r="G5" t="n">
         <v>60.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="K5" t="n">
-        <v>623.0</v>
+        <v>644.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,34 +422,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="C6" t="n">
         <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>264.0</v>
+        <v>279.0</v>
       </c>
       <c r="E6" t="n">
-        <v>104506.0</v>
+        <v>111972.0</v>
       </c>
       <c r="F6" t="n">
         <v>91.0</v>
       </c>
       <c r="G6" t="n">
-        <v>57.0</v>
+        <v>61.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="K6" t="n">
-        <v>611.0</v>
+        <v>642.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,22 +457,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="C7" t="n">
         <v>93.0</v>
       </c>
       <c r="D7" t="n">
-        <v>247.0</v>
+        <v>259.0</v>
       </c>
       <c r="E7" t="n">
-        <v>100800.0</v>
+        <v>105920.0</v>
       </c>
       <c r="F7" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="G7" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="H7" t="n">
         <v>5.0</v>
@@ -484,10 +481,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="K7" t="n">
-        <v>610.0</v>
+        <v>634.0</v>
       </c>
     </row>
     <row r="8">
@@ -495,22 +492,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>267.0</v>
+        <v>279.0</v>
       </c>
       <c r="E8" t="n">
-        <v>109200.0</v>
+        <v>115600.0</v>
       </c>
       <c r="F8" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
       <c r="G8" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -519,10 +516,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="K8" t="n">
-        <v>586.0</v>
+        <v>626.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,22 +527,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>87.0</v>
+        <v>91.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>261.0</v>
+        <v>273.0</v>
       </c>
       <c r="E9" t="n">
-        <v>105560.0</v>
+        <v>111400.0</v>
       </c>
       <c r="F9" t="n">
-        <v>90.0</v>
+        <v>94.0</v>
       </c>
       <c r="G9" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -557,7 +554,7 @@
         <v>53.0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.0</v>
+        <v>581.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,22 +562,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>191.0</v>
+        <v>203.0</v>
       </c>
       <c r="E10" t="n">
-        <v>79185.0</v>
+        <v>85585.0</v>
       </c>
       <c r="F10" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="G10" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -592,7 +589,7 @@
         <v>75.0</v>
       </c>
       <c r="K10" t="n">
-        <v>545.0</v>
+        <v>578.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,22 +597,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>87.0</v>
+        <v>91.0</v>
       </c>
       <c r="C11" t="n">
         <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>261.0</v>
+        <v>273.0</v>
       </c>
       <c r="E11" t="n">
-        <v>102211.0</v>
+        <v>106491.0</v>
       </c>
       <c r="F11" t="n">
-        <v>94.0</v>
+        <v>98.0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
@@ -627,7 +624,7 @@
         <v>47.0</v>
       </c>
       <c r="K11" t="n">
-        <v>529.0</v>
+        <v>551.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,22 +632,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
       <c r="C12" t="n">
         <v>93.0</v>
       </c>
       <c r="D12" t="n">
-        <v>251.0</v>
+        <v>263.0</v>
       </c>
       <c r="E12" t="n">
-        <v>104160.0</v>
+        <v>109280.0</v>
       </c>
       <c r="F12" t="n">
-        <v>87.0</v>
+        <v>91.0</v>
       </c>
       <c r="G12" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
@@ -662,7 +659,7 @@
         <v>52.0</v>
       </c>
       <c r="K12" t="n">
-        <v>523.0</v>
+        <v>547.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,22 +667,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="C13" t="n">
         <v>93.0</v>
       </c>
       <c r="D13" t="n">
-        <v>247.0</v>
+        <v>256.0</v>
       </c>
       <c r="E13" t="n">
-        <v>101954.0</v>
+        <v>106074.0</v>
       </c>
       <c r="F13" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="H13" t="n">
         <v>5.0</v>
@@ -694,10 +691,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="K13" t="n">
-        <v>519.0</v>
+        <v>540.0</v>
       </c>
     </row>
     <row r="14">
@@ -705,34 +702,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>80.0</v>
+        <v>76.0</v>
       </c>
       <c r="C14" t="n">
-        <v>47.0</v>
+        <v>87.0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.0</v>
+        <v>226.0</v>
       </c>
       <c r="E14" t="n">
-        <v>92855.0</v>
+        <v>91234.0</v>
       </c>
       <c r="F14" t="n">
-        <v>84.0</v>
+        <v>77.0</v>
       </c>
       <c r="G14" t="n">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.00000000000001</v>
+        <v>66.0</v>
       </c>
       <c r="K14" t="n">
-        <v>515.0</v>
+        <v>516.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,19 +737,19 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="C15" t="n">
-        <v>47.0</v>
+        <v>67.0</v>
       </c>
       <c r="D15" t="n">
-        <v>217.0</v>
+        <v>229.0</v>
       </c>
       <c r="E15" t="n">
-        <v>89097.0</v>
+        <v>93497.0</v>
       </c>
       <c r="F15" t="n">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="G15" t="n">
         <v>52.0</v>
@@ -764,10 +761,10 @@
         <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>69.0</v>
+        <v>66.0</v>
       </c>
       <c r="K15" t="n">
-        <v>505.0</v>
+        <v>514.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,34 +772,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>73.0</v>
+        <v>80.0</v>
       </c>
       <c r="C16" t="n">
-        <v>93.0</v>
+        <v>20.0</v>
       </c>
       <c r="D16" t="n">
-        <v>217.0</v>
+        <v>239.0</v>
       </c>
       <c r="E16" t="n">
-        <v>86674.0</v>
+        <v>92855.0</v>
       </c>
       <c r="F16" t="n">
-        <v>74.0</v>
+        <v>84.0</v>
       </c>
       <c r="G16" t="n">
-        <v>49.0</v>
+        <v>46.0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>495.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,22 +807,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>87.0</v>
+        <v>91.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>260.0</v>
+        <v>272.0</v>
       </c>
       <c r="E17" t="n">
-        <v>94033.0</v>
+        <v>98703.0</v>
       </c>
       <c r="F17" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="G17" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -837,7 +834,7 @@
         <v>46.0</v>
       </c>
       <c r="K17" t="n">
-        <v>474.0</v>
+        <v>497.0</v>
       </c>
     </row>
     <row r="18">
@@ -845,22 +842,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>210.0</v>
+        <v>222.0</v>
       </c>
       <c r="E18" t="n">
-        <v>86520.0</v>
+        <v>91480.0</v>
       </c>
       <c r="F18" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="G18" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="H18" t="n">
         <v>0.0</v>
@@ -869,10 +866,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="K18" t="n">
-        <v>456.0</v>
+        <v>487.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,22 +877,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="C19" t="n">
         <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>216.0</v>
+        <v>228.0</v>
       </c>
       <c r="E19" t="n">
-        <v>92400.0</v>
+        <v>98520.0</v>
       </c>
       <c r="F19" t="n">
-        <v>79.0</v>
+        <v>83.0</v>
       </c>
       <c r="G19" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="H19" t="n">
         <v>12.0</v>
@@ -904,10 +901,10 @@
         <v>2.0</v>
       </c>
       <c r="J19" t="n">
-        <v>61.0</v>
+        <v>59.0</v>
       </c>
       <c r="K19" t="n">
-        <v>453.0</v>
+        <v>474.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,22 +912,22 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="C20" t="n">
         <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>238.0</v>
+        <v>250.0</v>
       </c>
       <c r="E20" t="n">
-        <v>96320.0</v>
+        <v>101880.0</v>
       </c>
       <c r="F20" t="n">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
       <c r="G20" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="H20" t="n">
         <v>14.0</v>
@@ -942,7 +939,7 @@
         <v>51.0</v>
       </c>
       <c r="K20" t="n">
-        <v>444.0</v>
+        <v>469.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,22 +947,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="C21" t="n">
         <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>263.0</v>
+        <v>275.0</v>
       </c>
       <c r="E21" t="n">
-        <v>104190.0</v>
+        <v>110030.0</v>
       </c>
       <c r="F21" t="n">
-        <v>96.0</v>
+        <v>100.0</v>
       </c>
       <c r="G21" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="H21" t="n">
         <v>1.0</v>
@@ -974,10 +971,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>28.999999999999996</v>
+        <v>30.0</v>
       </c>
       <c r="K21" t="n">
-        <v>428.0</v>
+        <v>453.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,34 +982,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>216.0</v>
+        <v>228.0</v>
       </c>
       <c r="E22" t="n">
-        <v>87920.0</v>
+        <v>95040.0</v>
       </c>
       <c r="F22" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="G22" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="H22" t="n">
         <v>18.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J22" t="n">
         <v>62.0</v>
       </c>
       <c r="K22" t="n">
-        <v>418.0</v>
+        <v>434.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,34 +1017,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>81.0</v>
+        <v>73.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>236.0</v>
+        <v>219.0</v>
       </c>
       <c r="E23" t="n">
-        <v>96320.0</v>
+        <v>94722.0</v>
       </c>
       <c r="F23" t="n">
         <v>77.0</v>
       </c>
       <c r="G23" t="n">
-        <v>47.0</v>
+        <v>30.0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.0</v>
+        <v>39.0</v>
       </c>
       <c r="K23" t="n">
-        <v>401.0</v>
+        <v>426.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,34 +1052,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>69.0</v>
+        <v>85.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>207.0</v>
+        <v>246.0</v>
       </c>
       <c r="E24" t="n">
-        <v>87882.0</v>
+        <v>101600.0</v>
       </c>
       <c r="F24" t="n">
-        <v>73.0</v>
+        <v>81.0</v>
       </c>
       <c r="G24" t="n">
-        <v>27.0</v>
+        <v>49.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J24" t="n">
-        <v>37.0</v>
+        <v>60.0</v>
       </c>
       <c r="K24" t="n">
-        <v>391.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,34 +1087,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>81.0</v>
+        <v>78.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>227.0</v>
+        <v>216.0</v>
       </c>
       <c r="E25" t="n">
-        <v>94640.0</v>
+        <v>89560.0</v>
       </c>
       <c r="F25" t="n">
-        <v>85.0</v>
+        <v>79.0</v>
       </c>
       <c r="G25" t="n">
-        <v>30.0</v>
+        <v>41.0</v>
       </c>
       <c r="H25" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.0</v>
+        <v>52.0</v>
       </c>
       <c r="K25" t="n">
-        <v>338.0</v>
+        <v>344.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1122,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>74.0</v>
+        <v>85.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>204.0</v>
+        <v>239.0</v>
       </c>
       <c r="E26" t="n">
-        <v>83720.0</v>
+        <v>100200.0</v>
       </c>
       <c r="F26" t="n">
-        <v>75.0</v>
+        <v>88.0</v>
       </c>
       <c r="G26" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="H26" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.0</v>
+        <v>34.0</v>
       </c>
       <c r="K26" t="n">
-        <v>318.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,25 +1157,25 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="C27" t="n">
         <v>93.0</v>
       </c>
       <c r="D27" t="n">
-        <v>204.0</v>
+        <v>215.0</v>
       </c>
       <c r="E27" t="n">
-        <v>84752.0</v>
+        <v>89472.0</v>
       </c>
       <c r="F27" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="G27" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="H27" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="I27" t="n">
         <v>2.0</v>
@@ -1187,7 +1184,7 @@
         <v>53.0</v>
       </c>
       <c r="K27" t="n">
-        <v>316.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,22 +1192,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="C28" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0</v>
+        <v>151.0</v>
       </c>
       <c r="E28" t="n">
-        <v>59360.0</v>
+        <v>63480.0</v>
       </c>
       <c r="F28" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="G28" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="H28" t="n">
         <v>17.0</v>
@@ -1222,7 +1219,7 @@
         <v>67.0</v>
       </c>
       <c r="K28" t="n">
-        <v>239.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1227,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>86.0</v>
+        <v>23.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>231.0</v>
+        <v>69.0</v>
       </c>
       <c r="E29" t="n">
-        <v>93702.0</v>
+        <v>28360.0</v>
       </c>
       <c r="F29" t="n">
-        <v>88.0</v>
+        <v>26.0</v>
       </c>
       <c r="G29" t="n">
-        <v>38.0</v>
+        <v>19.0</v>
       </c>
       <c r="H29" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.0</v>
+        <v>73.0</v>
       </c>
       <c r="K29" t="n">
-        <v>236.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1262,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>60.0</v>
+        <v>23.0</v>
       </c>
       <c r="C30" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>175.0</v>
+        <v>69.0</v>
       </c>
       <c r="E30" t="n">
-        <v>74480.0</v>
+        <v>28680.0</v>
       </c>
       <c r="F30" t="n">
-        <v>58.0</v>
+        <v>23.0</v>
       </c>
       <c r="G30" t="n">
         <v>18.0</v>
       </c>
       <c r="H30" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>31.0</v>
+        <v>78.0</v>
       </c>
       <c r="K30" t="n">
-        <v>225.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1297,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>78480.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="G31" t="n">
         <v>19.0</v>
       </c>
-      <c r="C31" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>23520.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>17.0</v>
-      </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.0</v>
+        <v>31.0</v>
       </c>
       <c r="K31" t="n">
-        <v>220.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1332,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>19.0</v>
+        <v>90.0</v>
       </c>
       <c r="C32" t="n">
         <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>57.0</v>
+        <v>241.0</v>
       </c>
       <c r="E32" t="n">
-        <v>22680.0</v>
+        <v>98262.0</v>
       </c>
       <c r="F32" t="n">
-        <v>19.0</v>
+        <v>92.0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J32" t="n">
-        <v>84.0</v>
+        <v>43.0</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,22 +1367,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="E33" t="n">
-        <v>21560.0</v>
+        <v>27520.0</v>
       </c>
       <c r="F33" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="G33" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
@@ -1394,10 +1391,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="K33" t="n">
-        <v>173.0</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,34 +1402,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>65.0</v>
+        <v>18.0</v>
       </c>
       <c r="C34" t="n">
-        <v>67.0</v>
+        <v>93.0</v>
       </c>
       <c r="D34" t="n">
-        <v>181.0</v>
+        <v>52.0</v>
       </c>
       <c r="E34" t="n">
-        <v>72452.0</v>
+        <v>21480.0</v>
       </c>
       <c r="F34" t="n">
-        <v>67.0</v>
+        <v>18.0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="H34" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="K34" t="n">
-        <v>162.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,34 +1437,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="C35" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D35" t="n">
-        <v>40.0</v>
+        <v>87.0</v>
       </c>
       <c r="E35" t="n">
-        <v>16240.0</v>
+        <v>39576.0</v>
       </c>
       <c r="F35" t="n">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="K35" t="n">
-        <v>146.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1472,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>25.0</v>
+        <v>67.0</v>
       </c>
       <c r="C36" t="n">
-        <v>93.0</v>
+        <v>60.0</v>
       </c>
       <c r="D36" t="n">
-        <v>75.0</v>
+        <v>185.0</v>
       </c>
       <c r="E36" t="n">
-        <v>33896.0</v>
+        <v>75372.0</v>
       </c>
       <c r="F36" t="n">
-        <v>26.0</v>
+        <v>69.0</v>
       </c>
       <c r="G36" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,22 +1507,22 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="C37" t="n">
-        <v>33.0</v>
+        <v>53.0</v>
       </c>
       <c r="D37" t="n">
-        <v>108.0</v>
+        <v>120.0</v>
       </c>
       <c r="E37" t="n">
-        <v>45920.0</v>
+        <v>51760.0</v>
       </c>
       <c r="F37" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="H37" t="n">
         <v>9.0</v>
@@ -1534,10 +1531,10 @@
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="K37" t="n">
-        <v>113.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,22 +1542,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>70.0</v>
+        <v>82.0</v>
       </c>
       <c r="E38" t="n">
-        <v>29400.0</v>
+        <v>34360.0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H38" t="n">
         <v>2.0</v>
@@ -1569,10 +1566,10 @@
         <v>1.0</v>
       </c>
       <c r="J38" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="K38" t="n">
-        <v>112.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,22 +1577,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="C39" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>46.0</v>
+        <v>58.0</v>
       </c>
       <c r="E39" t="n">
-        <v>19320.0</v>
+        <v>24280.0</v>
       </c>
       <c r="F39" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="G39" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H39" t="n">
         <v>5.0</v>
@@ -1604,10 +1601,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.999999999999996</v>
+        <v>33.0</v>
       </c>
       <c r="K39" t="n">
-        <v>109.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,19 +1612,19 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="E40" t="n">
-        <v>7560.0</v>
+        <v>11840.0</v>
       </c>
       <c r="F40" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="G40" t="n">
         <v>6.0</v>
@@ -1636,13 +1633,13 @@
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="K40" t="n">
-        <v>92.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,34 +1647,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C41" t="n">
         <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="E41" t="n">
-        <v>6440.0</v>
+        <v>12400.0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,22 +1682,22 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C42" t="n">
         <v>100.0</v>
       </c>
       <c r="D42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9080.0</v>
+      </c>
+      <c r="F42" t="n">
         <v>6.0</v>
       </c>
-      <c r="E42" t="n">
-        <v>3080.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2.0</v>
-      </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H42" t="n">
         <v>0.0</v>
@@ -1709,10 +1706,10 @@
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>50.0</v>
+        <v>67.0</v>
       </c>
       <c r="K42" t="n">
-        <v>58.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,22 +1717,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C43" t="n">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
       <c r="D43" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5476.0</v>
+        <v>11561.0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H43" t="n">
         <v>2.0</v>
@@ -1744,10 +1741,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="K43" t="n">
-        <v>32.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="44">
@@ -1755,19 +1752,19 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="n">
         <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1400.0</v>
+        <v>7960.0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G44" t="n">
         <v>1.0</v>
@@ -1779,10 +1776,10 @@
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0</v>
+        <v>20.0</v>
       </c>
       <c r="K44" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="45">
@@ -1790,22 +1787,22 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
@@ -1813,9 +1810,11 @@
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
-      <c r="J45"/>
+      <c r="J45" t="n">
+        <v>100.0</v>
+      </c>
       <c r="K45" t="n">
-        <v>13.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="46">
@@ -1823,22 +1822,22 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>4320.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
@@ -1846,9 +1845,11 @@
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
-      <c r="J46"/>
+      <c r="J46" t="n">
+        <v>50.0</v>
+      </c>
       <c r="K46" t="n">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="47">
@@ -1856,19 +1857,19 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>1575.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
@@ -1879,9 +1880,11 @@
       <c r="I47" t="n">
         <v>0.0</v>
       </c>
-      <c r="J47"/>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K47" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="48">
@@ -1889,23 +1892,23 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16600.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G48" t="n">
         <v>9.0</v>
       </c>
-      <c r="C48" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>11200.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>5.0</v>
-      </c>
       <c r="H48" t="n">
         <v>1.0</v>
       </c>
@@ -1913,10 +1916,10 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>62.0</v>
+        <v>75.0</v>
       </c>
       <c r="K48" t="n">
-        <v>-66.0</v>
+        <v>-23.0</v>
       </c>
     </row>
     <row r="49">
@@ -1924,34 +1927,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C49" t="n">
-        <v>40.0</v>
+        <v>87.0</v>
       </c>
       <c r="D49" t="n">
-        <v>143.0</v>
+        <v>167.0</v>
       </c>
       <c r="E49" t="n">
-        <v>54037.0</v>
+        <v>54594.0</v>
       </c>
       <c r="F49" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G49" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H49" t="n">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J49" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-166.0</v>
+        <v>-158.0</v>
       </c>
     </row>
     <row r="50">
@@ -1959,69 +1962,34 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>54.0</v>
+        <v>72.0</v>
       </c>
       <c r="C50" t="n">
-        <v>87.0</v>
+        <v>60.0</v>
       </c>
       <c r="D50" t="n">
-        <v>157.0</v>
+        <v>200.0</v>
       </c>
       <c r="E50" t="n">
-        <v>49909.0</v>
+        <v>87320.0</v>
       </c>
       <c r="F50" t="n">
-        <v>51.0</v>
+        <v>65.0</v>
       </c>
       <c r="G50" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="H50" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="I50" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="J50" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-167.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>190.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>81480.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-2021.0</v>
+        <v>-6409.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -56,12 +56,12 @@
     <t>☆ Di♡g♡</t>
   </si>
   <si>
+    <t>Inferno</t>
+  </si>
+  <si>
     <t>snowkids</t>
   </si>
   <si>
-    <t>Inferno</t>
-  </si>
-  <si>
     <t>King Bonixe</t>
   </si>
   <si>
@@ -74,42 +74,39 @@
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>Tio João</t>
   </si>
   <si>
     <t>zau</t>
   </si>
   <si>
-    <t>Ricky</t>
+    <t>KryptoNnN</t>
   </si>
   <si>
     <t>Robb Stark</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
-    <t>Fabíola</t>
+    <t>Matilde Pires</t>
   </si>
   <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>faneca</t>
+  </si>
+  <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>faneca</t>
-  </si>
-  <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>Cronicl3_2</t>
   </si>
   <si>
@@ -119,79 +116,76 @@
     <t>Savler</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
     <t>Marcelo</t>
   </si>
   <si>
+    <t>Gingka</t>
+  </si>
+  <si>
     <t>huracan</t>
   </si>
   <si>
-    <t>Gingka</t>
+    <t>qzt</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>virtudes</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>qzt</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>virtudes</t>
-  </si>
-  <si>
-    <t>PedroNabaisHD</t>
+    <t>Wut</t>
+  </si>
+  <si>
+    <t>MiStErIo</t>
   </si>
   <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>Wut</t>
+    <t>Soul_Eater</t>
   </si>
   <si>
     <t>André</t>
   </si>
   <si>
-    <t>MiStErIo</t>
-  </si>
-  <si>
-    <t>Soul_Eater</t>
-  </si>
-  <si>
     <t>RichPath</t>
   </si>
   <si>
     <t>nmaciel8</t>
   </si>
   <si>
+    <t>fogo</t>
+  </si>
+  <si>
     <t>marinheiro</t>
   </si>
   <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>Juca</t>
+  </si>
+  <si>
     <t>Iskandir</t>
   </si>
   <si>
-    <t>Pp</t>
-  </si>
-  <si>
     <t>dr nov4to</t>
   </si>
   <si>
-    <t>JotaPTguna</t>
-  </si>
-  <si>
     <t>diogo</t>
   </si>
   <si>
     <t>Manu</t>
-  </si>
-  <si>
-    <t>Welton</t>
   </si>
 </sst>
 </file>
@@ -282,34 +276,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>275.0</v>
+        <v>286.0</v>
       </c>
       <c r="E2" t="n">
-        <v>113632.0</v>
+        <v>119352.0</v>
       </c>
       <c r="F2" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
       <c r="G2" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.0</v>
+        <v>77.0</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0</v>
+        <v>793.0</v>
       </c>
     </row>
     <row r="3">
@@ -317,22 +311,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>279.0</v>
+        <v>291.0</v>
       </c>
       <c r="E3" t="n">
-        <v>111960.0</v>
+        <v>117080.0</v>
       </c>
       <c r="F3" t="n">
-        <v>99.0</v>
+        <v>103.0</v>
       </c>
       <c r="G3" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -341,10 +335,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="K3" t="n">
-        <v>743.0</v>
+        <v>781.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,22 +346,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>90.0</v>
+        <v>94.0</v>
       </c>
       <c r="C4" t="n">
         <v>93.0</v>
       </c>
       <c r="D4" t="n">
-        <v>269.0</v>
+        <v>281.0</v>
       </c>
       <c r="E4" t="n">
-        <v>111440.0</v>
+        <v>117280.0</v>
       </c>
       <c r="F4" t="n">
-        <v>94.0</v>
+        <v>98.0</v>
       </c>
       <c r="G4" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="H4" t="n">
         <v>1.0</v>
@@ -379,7 +373,7 @@
         <v>68.0</v>
       </c>
       <c r="K4" t="n">
-        <v>685.0</v>
+        <v>718.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,34 +381,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>276.0</v>
+        <v>291.0</v>
       </c>
       <c r="E5" t="n">
-        <v>111026.0</v>
+        <v>118532.0</v>
       </c>
       <c r="F5" t="n">
         <v>95.0</v>
       </c>
       <c r="G5" t="n">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="K5" t="n">
-        <v>644.0</v>
+        <v>675.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,34 +416,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>93.0</v>
       </c>
-      <c r="C6" t="n">
-        <v>100.0</v>
-      </c>
       <c r="D6" t="n">
-        <v>279.0</v>
+        <v>285.0</v>
       </c>
       <c r="E6" t="n">
-        <v>111972.0</v>
+        <v>115746.0</v>
       </c>
       <c r="F6" t="n">
-        <v>91.0</v>
+        <v>98.0</v>
       </c>
       <c r="G6" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="K6" t="n">
-        <v>642.0</v>
+        <v>668.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,22 +451,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="C7" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>259.0</v>
+        <v>271.0</v>
       </c>
       <c r="E7" t="n">
-        <v>105920.0</v>
+        <v>111760.0</v>
       </c>
       <c r="F7" t="n">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="H7" t="n">
         <v>5.0</v>
@@ -484,7 +478,7 @@
         <v>64.0</v>
       </c>
       <c r="K7" t="n">
-        <v>634.0</v>
+        <v>660.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,34 +486,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>279.0</v>
+        <v>291.0</v>
       </c>
       <c r="E8" t="n">
-        <v>115600.0</v>
+        <v>121440.0</v>
       </c>
       <c r="F8" t="n">
-        <v>99.0</v>
+        <v>103.0</v>
       </c>
       <c r="G8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
         <v>53.0</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>54.0</v>
-      </c>
       <c r="K8" t="n">
-        <v>626.0</v>
+        <v>652.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,22 +521,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>273.0</v>
+        <v>285.0</v>
       </c>
       <c r="E9" t="n">
-        <v>111400.0</v>
+        <v>117240.0</v>
       </c>
       <c r="F9" t="n">
-        <v>94.0</v>
+        <v>98.0</v>
       </c>
       <c r="G9" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -554,7 +548,7 @@
         <v>53.0</v>
       </c>
       <c r="K9" t="n">
-        <v>581.0</v>
+        <v>607.0</v>
       </c>
     </row>
     <row r="10">
@@ -562,22 +556,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D10" t="n">
-        <v>203.0</v>
+        <v>206.0</v>
       </c>
       <c r="E10" t="n">
-        <v>85585.0</v>
+        <v>86985.0</v>
       </c>
       <c r="F10" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="G10" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -589,7 +583,7 @@
         <v>75.0</v>
       </c>
       <c r="K10" t="n">
-        <v>578.0</v>
+        <v>586.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,31 +594,31 @@
         <v>91.0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D11" t="n">
-        <v>273.0</v>
+        <v>268.0</v>
       </c>
       <c r="E11" t="n">
-        <v>106491.0</v>
+        <v>112194.0</v>
       </c>
       <c r="F11" t="n">
-        <v>98.0</v>
+        <v>94.0</v>
       </c>
       <c r="G11" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="K11" t="n">
-        <v>551.0</v>
+        <v>573.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +626,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>89.0</v>
+        <v>94.0</v>
       </c>
       <c r="C12" t="n">
         <v>93.0</v>
       </c>
       <c r="D12" t="n">
-        <v>263.0</v>
+        <v>282.0</v>
       </c>
       <c r="E12" t="n">
-        <v>109280.0</v>
+        <v>111091.0</v>
       </c>
       <c r="F12" t="n">
-        <v>91.0</v>
+        <v>101.0</v>
       </c>
       <c r="G12" t="n">
         <v>47.0</v>
       </c>
       <c r="H12" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="K12" t="n">
-        <v>547.0</v>
+        <v>568.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,34 +661,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="C13" t="n">
         <v>93.0</v>
       </c>
       <c r="D13" t="n">
-        <v>256.0</v>
+        <v>275.0</v>
       </c>
       <c r="E13" t="n">
-        <v>106074.0</v>
+        <v>114120.0</v>
       </c>
       <c r="F13" t="n">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
       <c r="G13" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="H13" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>540.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,34 +696,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>76.0</v>
+        <v>82.0</v>
       </c>
       <c r="C14" t="n">
-        <v>87.0</v>
+        <v>73.0</v>
       </c>
       <c r="D14" t="n">
-        <v>226.0</v>
+        <v>238.0</v>
       </c>
       <c r="E14" t="n">
-        <v>91234.0</v>
+        <v>97217.0</v>
       </c>
       <c r="F14" t="n">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="G14" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" t="n">
         <v>66.0</v>
       </c>
       <c r="K14" t="n">
-        <v>516.0</v>
+        <v>534.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,34 +731,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="C15" t="n">
-        <v>67.0</v>
+        <v>87.0</v>
       </c>
       <c r="D15" t="n">
-        <v>229.0</v>
+        <v>238.0</v>
       </c>
       <c r="E15" t="n">
-        <v>93497.0</v>
+        <v>96514.0</v>
       </c>
       <c r="F15" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="G15" t="n">
         <v>52.0</v>
       </c>
       <c r="H15" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J15" t="n">
-        <v>66.0</v>
+        <v>64.0</v>
       </c>
       <c r="K15" t="n">
-        <v>514.0</v>
+        <v>534.0</v>
       </c>
     </row>
     <row r="16">
@@ -772,34 +766,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>80.0</v>
+        <v>78.0</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>239.0</v>
+        <v>234.0</v>
       </c>
       <c r="E16" t="n">
-        <v>92855.0</v>
+        <v>98040.0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="G16" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>55.00000000000001</v>
+        <v>52.0</v>
       </c>
       <c r="K16" t="n">
-        <v>510.0</v>
+        <v>521.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,22 +801,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>272.0</v>
+        <v>284.0</v>
       </c>
       <c r="E17" t="n">
-        <v>98703.0</v>
+        <v>103543.0</v>
       </c>
       <c r="F17" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="G17" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -834,7 +828,7 @@
         <v>46.0</v>
       </c>
       <c r="K17" t="n">
-        <v>497.0</v>
+        <v>521.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +836,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
       <c r="C18" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D18" t="n">
-        <v>222.0</v>
+        <v>237.0</v>
       </c>
       <c r="E18" t="n">
-        <v>91480.0</v>
+        <v>102520.0</v>
       </c>
       <c r="F18" t="n">
-        <v>78.0</v>
+        <v>86.0</v>
       </c>
       <c r="G18" t="n">
-        <v>40.0</v>
+        <v>49.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>487.0</v>
+        <v>481.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,34 +871,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>80.0</v>
+        <v>96.0</v>
       </c>
       <c r="C19" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>228.0</v>
+        <v>287.0</v>
       </c>
       <c r="E19" t="n">
-        <v>98520.0</v>
+        <v>116150.0</v>
       </c>
       <c r="F19" t="n">
-        <v>83.0</v>
+        <v>104.0</v>
       </c>
       <c r="G19" t="n">
-        <v>49.0</v>
+        <v>31.0</v>
       </c>
       <c r="H19" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.0</v>
+        <v>30.0</v>
       </c>
       <c r="K19" t="n">
-        <v>474.0</v>
+        <v>473.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,34 +906,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>88.0</v>
+        <v>85.0</v>
       </c>
       <c r="C20" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D20" t="n">
-        <v>250.0</v>
+        <v>237.0</v>
       </c>
       <c r="E20" t="n">
-        <v>101880.0</v>
+        <v>100040.0</v>
       </c>
       <c r="F20" t="n">
-        <v>89.0</v>
+        <v>85.0</v>
       </c>
       <c r="G20" t="n">
-        <v>45.0</v>
+        <v>54.0</v>
       </c>
       <c r="H20" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.0</v>
+        <v>64.0</v>
       </c>
       <c r="K20" t="n">
-        <v>469.0</v>
+        <v>463.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,34 +941,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="C21" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>275.0</v>
+        <v>258.0</v>
       </c>
       <c r="E21" t="n">
-        <v>110030.0</v>
+        <v>105280.0</v>
       </c>
       <c r="F21" t="n">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="G21" t="n">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J21" t="n">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
       <c r="K21" t="n">
-        <v>453.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,34 +976,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>82.0</v>
+        <v>77.0</v>
       </c>
       <c r="C22" t="n">
         <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>228.0</v>
+        <v>231.0</v>
       </c>
       <c r="E22" t="n">
-        <v>95040.0</v>
+        <v>100682.0</v>
       </c>
       <c r="F22" t="n">
-        <v>82.0</v>
+        <v>81.0</v>
       </c>
       <c r="G22" t="n">
-        <v>51.0</v>
+        <v>32.0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>62.0</v>
+        <v>40.0</v>
       </c>
       <c r="K22" t="n">
-        <v>434.0</v>
+        <v>452.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,34 +1011,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>73.0</v>
+        <v>89.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>219.0</v>
+        <v>258.0</v>
       </c>
       <c r="E23" t="n">
-        <v>94722.0</v>
+        <v>107000.0</v>
       </c>
       <c r="F23" t="n">
-        <v>77.0</v>
+        <v>85.0</v>
       </c>
       <c r="G23" t="n">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.0</v>
+        <v>61.0</v>
       </c>
       <c r="K23" t="n">
-        <v>426.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,34 +1046,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>85.0</v>
+        <v>82.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>246.0</v>
+        <v>228.0</v>
       </c>
       <c r="E24" t="n">
-        <v>101600.0</v>
+        <v>95840.0</v>
       </c>
       <c r="F24" t="n">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
       <c r="G24" t="n">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="H24" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.0</v>
+        <v>53.0</v>
       </c>
       <c r="K24" t="n">
-        <v>416.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,34 +1081,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="C25" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D25" t="n">
-        <v>216.0</v>
+        <v>224.0</v>
       </c>
       <c r="E25" t="n">
-        <v>89560.0</v>
+        <v>93672.0</v>
       </c>
       <c r="F25" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="H25" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="I25" t="n">
         <v>2.0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>344.0</v>
+        <v>357.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,25 +1116,25 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>239.0</v>
+        <v>248.0</v>
       </c>
       <c r="E26" t="n">
-        <v>100200.0</v>
+        <v>105200.0</v>
       </c>
       <c r="F26" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="G26" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="H26" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -1149,7 +1143,7 @@
         <v>34.0</v>
       </c>
       <c r="K26" t="n">
-        <v>338.0</v>
+        <v>326.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,34 +1151,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>78.0</v>
+        <v>59.0</v>
       </c>
       <c r="C27" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D27" t="n">
-        <v>215.0</v>
+        <v>160.0</v>
       </c>
       <c r="E27" t="n">
-        <v>89472.0</v>
+        <v>67760.0</v>
       </c>
       <c r="F27" t="n">
-        <v>77.0</v>
+        <v>58.0</v>
       </c>
       <c r="G27" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="H27" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="I27" t="n">
         <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>53.0</v>
+        <v>66.0</v>
       </c>
       <c r="K27" t="n">
-        <v>330.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,34 +1186,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>56.0</v>
+        <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.0</v>
+        <v>81.0</v>
       </c>
       <c r="E28" t="n">
-        <v>63480.0</v>
+        <v>34360.0</v>
       </c>
       <c r="F28" t="n">
-        <v>55.0</v>
+        <v>27.0</v>
       </c>
       <c r="G28" t="n">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
       <c r="H28" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,22 +1221,22 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>69.0</v>
+        <v>81.0</v>
       </c>
       <c r="E29" t="n">
-        <v>28360.0</v>
+        <v>33040.0</v>
       </c>
       <c r="F29" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="G29" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H29" t="n">
         <v>0.0</v>
@@ -1251,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="K29" t="n">
-        <v>244.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,34 +1256,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>23.0</v>
+        <v>94.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>69.0</v>
+        <v>253.0</v>
       </c>
       <c r="E30" t="n">
-        <v>28680.0</v>
+        <v>103382.0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.0</v>
+        <v>96.0</v>
       </c>
       <c r="G30" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>78.0</v>
+        <v>45.0</v>
       </c>
       <c r="K30" t="n">
-        <v>243.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,34 +1291,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>63.0</v>
+        <v>27.0</v>
       </c>
       <c r="C31" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D31" t="n">
-        <v>184.0</v>
+        <v>81.0</v>
       </c>
       <c r="E31" t="n">
-        <v>78480.0</v>
+        <v>33200.0</v>
       </c>
       <c r="F31" t="n">
-        <v>61.0</v>
+        <v>29.0</v>
       </c>
       <c r="G31" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.0</v>
+        <v>48.0</v>
       </c>
       <c r="K31" t="n">
-        <v>240.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,34 +1326,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>90.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0</v>
+        <v>64.0</v>
       </c>
       <c r="E32" t="n">
-        <v>98262.0</v>
+        <v>27600.0</v>
       </c>
       <c r="F32" t="n">
-        <v>92.0</v>
+        <v>22.0</v>
       </c>
       <c r="G32" t="n">
-        <v>40.0</v>
+        <v>11.0</v>
       </c>
       <c r="H32" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="K32" t="n">
-        <v>230.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,34 +1361,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>23.0</v>
+        <v>67.0</v>
       </c>
       <c r="C33" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D33" t="n">
-        <v>69.0</v>
+        <v>195.0</v>
       </c>
       <c r="E33" t="n">
-        <v>27520.0</v>
+        <v>83280.0</v>
       </c>
       <c r="F33" t="n">
-        <v>25.0</v>
+        <v>64.0</v>
       </c>
       <c r="G33" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J33" t="n">
-        <v>48.0</v>
+        <v>30.0</v>
       </c>
       <c r="K33" t="n">
-        <v>193.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="34">
@@ -1402,34 +1396,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>18.0</v>
+        <v>46.0</v>
       </c>
       <c r="C34" t="n">
-        <v>93.0</v>
+        <v>67.0</v>
       </c>
       <c r="D34" t="n">
-        <v>52.0</v>
+        <v>129.0</v>
       </c>
       <c r="E34" t="n">
-        <v>21480.0</v>
+        <v>57040.0</v>
       </c>
       <c r="F34" t="n">
-        <v>18.0</v>
+        <v>49.0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.0</v>
+        <v>33.0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>44.0</v>
+        <v>67.0</v>
       </c>
       <c r="K34" t="n">
-        <v>164.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,34 +1431,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="C35" t="n">
         <v>100.0</v>
       </c>
       <c r="D35" t="n">
-        <v>87.0</v>
+        <v>70.0</v>
       </c>
       <c r="E35" t="n">
-        <v>39576.0</v>
+        <v>30400.0</v>
       </c>
       <c r="F35" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="G35" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="K35" t="n">
-        <v>163.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,19 +1466,19 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
       <c r="C36" t="n">
-        <v>60.0</v>
+        <v>53.0</v>
       </c>
       <c r="D36" t="n">
-        <v>185.0</v>
+        <v>191.0</v>
       </c>
       <c r="E36" t="n">
-        <v>75372.0</v>
+        <v>78172.0</v>
       </c>
       <c r="F36" t="n">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="G36" t="n">
         <v>16.0</v>
@@ -1507,34 +1501,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>43.0</v>
+        <v>14.0</v>
       </c>
       <c r="C37" t="n">
-        <v>53.0</v>
+        <v>100.0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.0</v>
+        <v>41.0</v>
       </c>
       <c r="E37" t="n">
-        <v>51760.0</v>
+        <v>16400.0</v>
       </c>
       <c r="F37" t="n">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="G37" t="n">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="H37" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>151.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="38">
@@ -1542,34 +1536,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>34640.0</v>
+      </c>
+      <c r="F38" t="n">
         <v>28.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>34360.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>27.0</v>
       </c>
       <c r="G38" t="n">
         <v>7.0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
       </c>
       <c r="J38" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="K38" t="n">
-        <v>136.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="39">
@@ -1577,34 +1571,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="C39" t="n">
         <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>58.0</v>
+        <v>42.0</v>
       </c>
       <c r="E39" t="n">
-        <v>24280.0</v>
+        <v>17920.0</v>
       </c>
       <c r="F39" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="G39" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H39" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>133.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="40">
@@ -1621,25 +1615,25 @@
         <v>30.0</v>
       </c>
       <c r="E40" t="n">
-        <v>11840.0</v>
+        <v>15760.0</v>
       </c>
       <c r="F40" t="n">
         <v>10.0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="41">
@@ -1647,22 +1641,22 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>100.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C41" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D41" t="n">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="E41" t="n">
-        <v>12400.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F41" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -1671,10 +1665,10 @@
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="K41" t="n">
-        <v>109.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="42">
@@ -1682,34 +1676,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16561.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G42" t="n">
         <v>6.0</v>
       </c>
-      <c r="C42" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9080.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>4.0</v>
-      </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>67.0</v>
+        <v>46.0</v>
       </c>
       <c r="K42" t="n">
-        <v>91.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="43">
@@ -1717,34 +1711,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="C43" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="E43" t="n">
-        <v>11561.0</v>
+        <v>6360.0</v>
       </c>
       <c r="F43" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="G43" t="n">
         <v>4.0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="K43" t="n">
-        <v>52.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="44">
@@ -1752,19 +1746,19 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>100.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C44" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D44" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="E44" t="n">
-        <v>7960.0</v>
+        <v>3880.0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G44" t="n">
         <v>1.0</v>
@@ -1776,10 +1770,10 @@
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="K44" t="n">
-        <v>40.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="45">
@@ -1787,34 +1781,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13960.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="n">
         <v>1.0</v>
       </c>
-      <c r="C45" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1400.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J45" t="n">
-        <v>100.0</v>
+        <v>25.0</v>
       </c>
       <c r="K45" t="n">
-        <v>34.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="46">
@@ -1822,34 +1816,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C46" t="n">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E46" t="n">
-        <v>4320.0</v>
+        <v>7080.0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G46" t="n">
         <v>1.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="K46" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="47">
@@ -1857,34 +1851,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>21080.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.0</v>
       </c>
-      <c r="C47" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1575.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="K47" t="n">
-        <v>16.0</v>
+        <v>-34.0</v>
       </c>
     </row>
     <row r="48">
@@ -1892,104 +1886,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>13.0</v>
+        <v>62.0</v>
       </c>
       <c r="C48" t="n">
-        <v>53.0</v>
+        <v>87.0</v>
       </c>
       <c r="D48" t="n">
-        <v>38.0</v>
+        <v>179.0</v>
       </c>
       <c r="E48" t="n">
-        <v>16600.0</v>
+        <v>59527.0</v>
       </c>
       <c r="F48" t="n">
-        <v>12.0</v>
+        <v>60.0</v>
       </c>
       <c r="G48" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="J48" t="n">
-        <v>75.0</v>
+        <v>25.0</v>
       </c>
       <c r="K48" t="n">
-        <v>-23.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>167.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>54594.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-158.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>87320.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-6409.0</v>
+        <v>-141.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -74,63 +74,60 @@
     <t>Tabo da amarela</t>
   </si>
   <si>
+    <t>zau</t>
+  </si>
+  <si>
     <t>Ricky</t>
   </si>
   <si>
     <t>Tio João</t>
   </si>
   <si>
-    <t>zau</t>
+    <t>Matilde Pires</t>
   </si>
   <si>
     <t>KryptoNnN</t>
   </si>
   <si>
-    <t>Robb Stark</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
+    <t>faneca</t>
+  </si>
+  <si>
+    <t>Cronicl3_2</t>
+  </si>
+  <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
-    <t>faneca</t>
-  </si>
-  <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>Cronicl3_2</t>
-  </si>
-  <si>
     <t>leal</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
     <t>filipe</t>
   </si>
   <si>
+    <t>Gingka</t>
+  </si>
+  <si>
+    <t>huracan</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>Gingka</t>
-  </si>
-  <si>
-    <t>huracan</t>
-  </si>
-  <si>
     <t>qzt</t>
   </si>
   <si>
@@ -140,49 +137,52 @@
     <t>virtudes</t>
   </si>
   <si>
+    <t>Wut</t>
+  </si>
+  <si>
+    <t>MiStErIo</t>
+  </si>
+  <si>
+    <t>RichPath</t>
+  </si>
+  <si>
+    <t>nmaciel8</t>
+  </si>
+  <si>
+    <t>Soul_Eater</t>
+  </si>
+  <si>
+    <t>fglopes</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>MiStErIo</t>
-  </si>
-  <si>
-    <t>fglopes</t>
-  </si>
-  <si>
-    <t>Soul_Eater</t>
-  </si>
-  <si>
-    <t>André</t>
-  </si>
-  <si>
-    <t>RichPath</t>
-  </si>
-  <si>
-    <t>nmaciel8</t>
+    <t>Tiago</t>
   </si>
   <si>
     <t>fogo</t>
   </si>
   <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>Wannakil</t>
+  </si>
+  <si>
+    <t>Juca</t>
+  </si>
+  <si>
+    <t>Iskandir</t>
+  </si>
+  <si>
     <t>marinheiro</t>
   </si>
   <si>
-    <t>Pp</t>
-  </si>
-  <si>
-    <t>Juca</t>
-  </si>
-  <si>
-    <t>Iskandir</t>
-  </si>
-  <si>
     <t>dr nov4to</t>
-  </si>
-  <si>
-    <t>diogo</t>
   </si>
   <si>
     <t>Manu</t>
@@ -276,22 +276,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="C2" t="n">
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>286.0</v>
+        <v>295.0</v>
       </c>
       <c r="E2" t="n">
-        <v>119352.0</v>
+        <v>123912.0</v>
       </c>
       <c r="F2" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="H2" t="n">
         <v>2.0</v>
@@ -300,10 +300,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="K2" t="n">
-        <v>793.0</v>
+        <v>818.0</v>
       </c>
     </row>
     <row r="3">
@@ -311,19 +311,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
       <c r="C3" t="n">
         <v>100.0</v>
       </c>
       <c r="D3" t="n">
-        <v>291.0</v>
+        <v>300.0</v>
       </c>
       <c r="E3" t="n">
-        <v>117080.0</v>
+        <v>121360.0</v>
       </c>
       <c r="F3" t="n">
-        <v>103.0</v>
+        <v>106.0</v>
       </c>
       <c r="G3" t="n">
         <v>75.0</v>
@@ -335,10 +335,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.0</v>
+        <v>71.0</v>
       </c>
       <c r="K3" t="n">
-        <v>781.0</v>
+        <v>792.0</v>
       </c>
     </row>
     <row r="4">
@@ -346,34 +346,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C4" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D4" t="n">
-        <v>281.0</v>
+        <v>283.0</v>
       </c>
       <c r="E4" t="n">
-        <v>117280.0</v>
+        <v>118960.0</v>
       </c>
       <c r="F4" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="G4" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>67.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>68.0</v>
-      </c>
       <c r="K4" t="n">
-        <v>718.0</v>
+        <v>714.0</v>
       </c>
     </row>
     <row r="5">
@@ -381,22 +381,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
       <c r="C5" t="n">
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>291.0</v>
+        <v>300.0</v>
       </c>
       <c r="E5" t="n">
-        <v>118532.0</v>
+        <v>126108.0</v>
       </c>
       <c r="F5" t="n">
-        <v>95.0</v>
+        <v>98.0</v>
       </c>
       <c r="G5" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -408,7 +408,7 @@
         <v>67.0</v>
       </c>
       <c r="K5" t="n">
-        <v>675.0</v>
+        <v>707.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="C6" t="n">
         <v>93.0</v>
       </c>
       <c r="D6" t="n">
-        <v>285.0</v>
+        <v>294.0</v>
       </c>
       <c r="E6" t="n">
-        <v>115746.0</v>
+        <v>120206.0</v>
       </c>
       <c r="F6" t="n">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="H6" t="n">
         <v>3.0</v>
@@ -440,10 +440,10 @@
         <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="K6" t="n">
-        <v>668.0</v>
+        <v>704.0</v>
       </c>
     </row>
     <row r="7">
@@ -451,22 +451,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="C7" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D7" t="n">
-        <v>271.0</v>
+        <v>280.0</v>
       </c>
       <c r="E7" t="n">
-        <v>111760.0</v>
+        <v>115680.0</v>
       </c>
       <c r="F7" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="G7" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="H7" t="n">
         <v>5.0</v>
@@ -475,10 +475,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="K7" t="n">
-        <v>660.0</v>
+        <v>676.0</v>
       </c>
     </row>
     <row r="8">
@@ -486,19 +486,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
       <c r="C8" t="n">
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>291.0</v>
+        <v>300.0</v>
       </c>
       <c r="E8" t="n">
-        <v>121440.0</v>
+        <v>128000.0</v>
       </c>
       <c r="F8" t="n">
-        <v>103.0</v>
+        <v>106.0</v>
       </c>
       <c r="G8" t="n">
         <v>55.0</v>
@@ -510,10 +510,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="K8" t="n">
-        <v>652.0</v>
+        <v>668.0</v>
       </c>
     </row>
     <row r="9">
@@ -521,22 +521,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
       <c r="C9" t="n">
         <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>285.0</v>
+        <v>297.0</v>
       </c>
       <c r="E9" t="n">
-        <v>117240.0</v>
+        <v>124640.0</v>
       </c>
       <c r="F9" t="n">
-        <v>98.0</v>
+        <v>102.0</v>
       </c>
       <c r="G9" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -548,7 +548,7 @@
         <v>53.0</v>
       </c>
       <c r="K9" t="n">
-        <v>607.0</v>
+        <v>638.0</v>
       </c>
     </row>
     <row r="10">
@@ -556,22 +556,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="C10" t="n">
-        <v>80.0</v>
+        <v>73.0</v>
       </c>
       <c r="D10" t="n">
-        <v>206.0</v>
+        <v>221.0</v>
       </c>
       <c r="E10" t="n">
-        <v>86985.0</v>
+        <v>94781.0</v>
       </c>
       <c r="F10" t="n">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="G10" t="n">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -580,10 +580,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="K10" t="n">
-        <v>586.0</v>
+        <v>628.0</v>
       </c>
     </row>
     <row r="11">
@@ -591,34 +591,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>91.0</v>
+        <v>96.0</v>
       </c>
       <c r="C11" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.0</v>
+        <v>284.0</v>
       </c>
       <c r="E11" t="n">
-        <v>112194.0</v>
+        <v>120400.0</v>
       </c>
       <c r="F11" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="G11" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n">
         <v>51.0</v>
       </c>
       <c r="K11" t="n">
-        <v>573.0</v>
+        <v>587.0</v>
       </c>
     </row>
     <row r="12">
@@ -626,34 +626,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>94.0</v>
+        <v>93.0</v>
       </c>
       <c r="C12" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D12" t="n">
-        <v>282.0</v>
+        <v>271.0</v>
       </c>
       <c r="E12" t="n">
-        <v>111091.0</v>
+        <v>115248.0</v>
       </c>
       <c r="F12" t="n">
-        <v>101.0</v>
+        <v>96.0</v>
       </c>
       <c r="G12" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="K12" t="n">
-        <v>568.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="13">
@@ -661,34 +661,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>93.0</v>
+        <v>95.0</v>
       </c>
       <c r="C13" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D13" t="n">
-        <v>275.0</v>
+        <v>285.0</v>
       </c>
       <c r="E13" t="n">
-        <v>114120.0</v>
+        <v>113778.0</v>
       </c>
       <c r="F13" t="n">
-        <v>95.0</v>
+        <v>102.0</v>
       </c>
       <c r="G13" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.0</v>
+        <v>46.0</v>
       </c>
       <c r="K13" t="n">
-        <v>565.0</v>
+        <v>574.0</v>
       </c>
     </row>
     <row r="14">
@@ -696,34 +696,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>82.0</v>
+        <v>84.0</v>
       </c>
       <c r="C14" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>238.0</v>
+        <v>252.0</v>
       </c>
       <c r="E14" t="n">
-        <v>97217.0</v>
+        <v>108400.0</v>
       </c>
       <c r="F14" t="n">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
       <c r="G14" t="n">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.0</v>
+        <v>51.0</v>
       </c>
       <c r="K14" t="n">
-        <v>534.0</v>
+        <v>556.0</v>
       </c>
     </row>
     <row r="15">
@@ -731,34 +731,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="C15" t="n">
         <v>80.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>87.0</v>
-      </c>
       <c r="D15" t="n">
-        <v>238.0</v>
+        <v>244.0</v>
       </c>
       <c r="E15" t="n">
-        <v>96514.0</v>
+        <v>102096.0</v>
       </c>
       <c r="F15" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="G15" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
         <v>64.0</v>
       </c>
       <c r="K15" t="n">
-        <v>534.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="16">
@@ -766,34 +766,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>78.0</v>
+        <v>98.0</v>
       </c>
       <c r="C16" t="n">
         <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>234.0</v>
+        <v>293.0</v>
       </c>
       <c r="E16" t="n">
-        <v>98040.0</v>
+        <v>108616.0</v>
       </c>
       <c r="F16" t="n">
-        <v>82.0</v>
+        <v>100.0</v>
       </c>
       <c r="G16" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="K16" t="n">
-        <v>521.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="17">
@@ -801,34 +801,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>284.0</v>
+        <v>296.0</v>
       </c>
       <c r="E17" t="n">
-        <v>103543.0</v>
+        <v>122445.0</v>
       </c>
       <c r="F17" t="n">
-        <v>97.0</v>
+        <v>107.0</v>
       </c>
       <c r="G17" t="n">
-        <v>45.0</v>
+        <v>33.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.0</v>
+        <v>31.0</v>
       </c>
       <c r="K17" t="n">
-        <v>521.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="18">
@@ -839,31 +839,31 @@
         <v>83.0</v>
       </c>
       <c r="C18" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>237.0</v>
+        <v>249.0</v>
       </c>
       <c r="E18" t="n">
-        <v>102520.0</v>
+        <v>111882.0</v>
       </c>
       <c r="F18" t="n">
         <v>86.0</v>
       </c>
       <c r="G18" t="n">
-        <v>49.0</v>
+        <v>36.0</v>
       </c>
       <c r="H18" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>56.99999999999999</v>
+        <v>42.0</v>
       </c>
       <c r="K18" t="n">
-        <v>481.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="19">
@@ -871,34 +871,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>287.0</v>
+        <v>247.0</v>
       </c>
       <c r="E19" t="n">
-        <v>116150.0</v>
+        <v>106640.0</v>
       </c>
       <c r="F19" t="n">
-        <v>104.0</v>
+        <v>89.0</v>
       </c>
       <c r="G19" t="n">
-        <v>31.0</v>
+        <v>58.0</v>
       </c>
       <c r="H19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J19" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="K19" t="n">
-        <v>473.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="20">
@@ -906,34 +906,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="C20" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
-        <v>237.0</v>
+        <v>248.0</v>
       </c>
       <c r="E20" t="n">
-        <v>100040.0</v>
+        <v>107960.0</v>
       </c>
       <c r="F20" t="n">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
       <c r="G20" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="H20" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J20" t="n">
-        <v>64.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>463.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="21">
@@ -941,22 +941,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>258.0</v>
+        <v>267.0</v>
       </c>
       <c r="E21" t="n">
-        <v>105280.0</v>
+        <v>111720.0</v>
       </c>
       <c r="F21" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="G21" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="H21" t="n">
         <v>15.0</v>
@@ -968,7 +968,7 @@
         <v>49.0</v>
       </c>
       <c r="K21" t="n">
-        <v>452.0</v>
+        <v>474.0</v>
       </c>
     </row>
     <row r="22">
@@ -976,34 +976,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>77.0</v>
+        <v>92.0</v>
       </c>
       <c r="C22" t="n">
         <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>231.0</v>
+        <v>268.0</v>
       </c>
       <c r="E22" t="n">
-        <v>100682.0</v>
+        <v>113160.0</v>
       </c>
       <c r="F22" t="n">
-        <v>81.0</v>
+        <v>88.0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.0</v>
+        <v>53.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="K22" t="n">
-        <v>452.0</v>
+        <v>474.0</v>
       </c>
     </row>
     <row r="23">
@@ -1011,34 +1011,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>89.0</v>
+        <v>86.0</v>
       </c>
       <c r="C23" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D23" t="n">
-        <v>258.0</v>
+        <v>237.0</v>
       </c>
       <c r="E23" t="n">
-        <v>107000.0</v>
+        <v>102232.0</v>
       </c>
       <c r="F23" t="n">
         <v>85.0</v>
       </c>
       <c r="G23" t="n">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>447.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="24">
@@ -1046,34 +1046,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>228.0</v>
+        <v>243.0</v>
       </c>
       <c r="E24" t="n">
-        <v>95840.0</v>
+        <v>104200.0</v>
       </c>
       <c r="F24" t="n">
-        <v>83.0</v>
+        <v>88.0</v>
       </c>
       <c r="G24" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H24" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J24" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="K24" t="n">
-        <v>377.0</v>
+        <v>348.0</v>
       </c>
     </row>
     <row r="25">
@@ -1081,34 +1081,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>81.0</v>
+        <v>91.0</v>
       </c>
       <c r="C25" t="n">
         <v>93.0</v>
       </c>
       <c r="D25" t="n">
-        <v>224.0</v>
+        <v>256.0</v>
       </c>
       <c r="E25" t="n">
-        <v>93672.0</v>
+        <v>110680.0</v>
       </c>
       <c r="F25" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="G25" t="n">
-        <v>44.0</v>
+        <v>31.0</v>
       </c>
       <c r="H25" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="I25" t="n">
         <v>2.0</v>
       </c>
       <c r="J25" t="n">
-        <v>55.00000000000001</v>
+        <v>33.0</v>
       </c>
       <c r="K25" t="n">
-        <v>357.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="26">
@@ -1116,34 +1116,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>89.0</v>
+        <v>33.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>248.0</v>
+        <v>99.0</v>
       </c>
       <c r="E26" t="n">
-        <v>105200.0</v>
+        <v>44440.0</v>
       </c>
       <c r="F26" t="n">
-        <v>92.0</v>
+        <v>33.0</v>
       </c>
       <c r="G26" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="H26" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.0</v>
+        <v>70.0</v>
       </c>
       <c r="K26" t="n">
-        <v>326.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="27">
@@ -1151,34 +1151,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>59.0</v>
+        <v>33.0</v>
       </c>
       <c r="C27" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>160.0</v>
+        <v>99.0</v>
       </c>
       <c r="E27" t="n">
-        <v>67760.0</v>
+        <v>42520.0</v>
       </c>
       <c r="F27" t="n">
-        <v>58.0</v>
+        <v>36.0</v>
       </c>
       <c r="G27" t="n">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="H27" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="K27" t="n">
-        <v>274.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="28">
@@ -1186,34 +1186,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>27.0</v>
+        <v>64.0</v>
       </c>
       <c r="C28" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D28" t="n">
-        <v>81.0</v>
+        <v>173.0</v>
       </c>
       <c r="E28" t="n">
-        <v>34360.0</v>
+        <v>73960.0</v>
       </c>
       <c r="F28" t="n">
-        <v>27.0</v>
+        <v>63.0</v>
       </c>
       <c r="G28" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.0</v>
+        <v>65.0</v>
       </c>
       <c r="K28" t="n">
-        <v>269.0</v>
+        <v>282.0</v>
       </c>
     </row>
     <row r="29">
@@ -1221,34 +1221,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>27.0</v>
+        <v>97.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>81.0</v>
+        <v>262.0</v>
       </c>
       <c r="E29" t="n">
-        <v>33040.0</v>
+        <v>108786.0</v>
       </c>
       <c r="F29" t="n">
-        <v>30.0</v>
+        <v>99.0</v>
       </c>
       <c r="G29" t="n">
-        <v>20.0</v>
+        <v>43.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J29" t="n">
-        <v>67.0</v>
+        <v>43.0</v>
       </c>
       <c r="K29" t="n">
-        <v>261.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="30">
@@ -1256,34 +1256,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>94.0</v>
+        <v>33.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>253.0</v>
+        <v>99.0</v>
       </c>
       <c r="E30" t="n">
-        <v>103382.0</v>
+        <v>42120.0</v>
       </c>
       <c r="F30" t="n">
-        <v>96.0</v>
+        <v>35.0</v>
       </c>
       <c r="G30" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="H30" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="K30" t="n">
-        <v>260.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="31">
@@ -1291,31 +1291,31 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C31" t="n">
         <v>100.0</v>
       </c>
       <c r="D31" t="n">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="E31" t="n">
-        <v>33200.0</v>
+        <v>37120.0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="G31" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>48.0</v>
+        <v>39.0</v>
       </c>
       <c r="K31" t="n">
         <v>218.0</v>
@@ -1326,34 +1326,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>22.0</v>
+        <v>48.0</v>
       </c>
       <c r="C32" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D32" t="n">
-        <v>64.0</v>
+        <v>136.0</v>
       </c>
       <c r="E32" t="n">
-        <v>27600.0</v>
+        <v>63520.0</v>
       </c>
       <c r="F32" t="n">
-        <v>22.0</v>
+        <v>51.0</v>
       </c>
       <c r="G32" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>50.0</v>
+        <v>67.0</v>
       </c>
       <c r="K32" t="n">
-        <v>197.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="33">
@@ -1361,34 +1361,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>67.0</v>
+        <v>31.0</v>
       </c>
       <c r="C33" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>195.0</v>
+        <v>88.0</v>
       </c>
       <c r="E33" t="n">
-        <v>83280.0</v>
+        <v>40360.0</v>
       </c>
       <c r="F33" t="n">
-        <v>64.0</v>
+        <v>31.0</v>
       </c>
       <c r="G33" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I33" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="K33" t="n">
-        <v>183.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="34">
@@ -1396,34 +1396,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>46.0</v>
+        <v>20.0</v>
       </c>
       <c r="C34" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>129.0</v>
+        <v>60.0</v>
       </c>
       <c r="E34" t="n">
-        <v>57040.0</v>
+        <v>27720.0</v>
       </c>
       <c r="F34" t="n">
-        <v>49.0</v>
+        <v>20.0</v>
       </c>
       <c r="G34" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="H34" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>67.0</v>
+        <v>60.0</v>
       </c>
       <c r="K34" t="n">
-        <v>170.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="35">
@@ -1431,34 +1431,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="C35" t="n">
         <v>100.0</v>
       </c>
       <c r="D35" t="n">
-        <v>70.0</v>
+        <v>48.0</v>
       </c>
       <c r="E35" t="n">
-        <v>30400.0</v>
+        <v>26000.0</v>
       </c>
       <c r="F35" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="K35" t="n">
-        <v>159.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="36">
@@ -1466,34 +1466,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>69.0</v>
+        <v>20.0</v>
       </c>
       <c r="C36" t="n">
-        <v>53.0</v>
+        <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>191.0</v>
+        <v>57.0</v>
       </c>
       <c r="E36" t="n">
-        <v>78172.0</v>
+        <v>23720.0</v>
       </c>
       <c r="F36" t="n">
-        <v>71.0</v>
+        <v>20.0</v>
       </c>
       <c r="G36" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="H36" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.0</v>
+        <v>45.0</v>
       </c>
       <c r="K36" t="n">
-        <v>155.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="37">
@@ -1501,34 +1501,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>14.0</v>
+        <v>74.0</v>
       </c>
       <c r="C37" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D37" t="n">
-        <v>41.0</v>
+        <v>203.0</v>
       </c>
       <c r="E37" t="n">
-        <v>16400.0</v>
+        <v>84020.0</v>
       </c>
       <c r="F37" t="n">
-        <v>14.0</v>
+        <v>76.0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="I37" t="n">
         <v>1.0</v>
       </c>
       <c r="J37" t="n">
-        <v>56.99999999999999</v>
+        <v>22.0</v>
       </c>
       <c r="K37" t="n">
-        <v>133.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="38">
@@ -1536,34 +1536,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="C38" t="n">
         <v>80.0</v>
       </c>
       <c r="D38" t="n">
-        <v>83.0</v>
+        <v>100.0</v>
       </c>
       <c r="E38" t="n">
-        <v>34640.0</v>
+        <v>44720.0</v>
       </c>
       <c r="F38" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="H38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J38" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K38" t="n">
-        <v>131.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="39">
@@ -1571,34 +1571,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="C39" t="n">
         <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="E39" t="n">
-        <v>17920.0</v>
+        <v>7960.0</v>
       </c>
       <c r="F39" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="G39" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J39" t="n">
-        <v>56.99999999999999</v>
+        <v>75.0</v>
       </c>
       <c r="K39" t="n">
-        <v>128.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="40">
@@ -1606,22 +1606,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="E40" t="n">
-        <v>15760.0</v>
+        <v>8960.0</v>
       </c>
       <c r="F40" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1630,10 +1630,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="K40" t="n">
-        <v>113.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="41">
@@ -1641,34 +1641,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7640.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H41" t="n">
         <v>2.0</v>
       </c>
-      <c r="C41" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2800.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="K41" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="42">
@@ -1676,34 +1676,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C42" t="n">
-        <v>86.0</v>
+        <v>100.0</v>
       </c>
       <c r="D42" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="E42" t="n">
-        <v>16561.0</v>
+        <v>14400.0</v>
       </c>
       <c r="F42" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>46.0</v>
+        <v>36.0</v>
       </c>
       <c r="K42" t="n">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="43">
@@ -1711,22 +1711,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C43" t="n">
         <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E43" t="n">
-        <v>6360.0</v>
+        <v>7880.0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G43" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1735,10 +1735,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="K43" t="n">
-        <v>64.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="44">
@@ -1746,34 +1746,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13080.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.0</v>
       </c>
-      <c r="C44" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D44" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3880.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>1.0</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>63.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="45">
@@ -1781,22 +1781,22 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="C45" t="n">
         <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
       <c r="E45" t="n">
-        <v>13960.0</v>
+        <v>23200.0</v>
       </c>
       <c r="F45" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
@@ -1805,10 +1805,10 @@
         <v>1.0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="K45" t="n">
-        <v>48.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="46">
@@ -1816,104 +1816,139 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.0</v>
+        <v>80.0</v>
       </c>
       <c r="D46" t="n">
-        <v>11.0</v>
+        <v>41.0</v>
       </c>
       <c r="E46" t="n">
-        <v>7080.0</v>
+        <v>20121.0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="G46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I46" t="n">
         <v>1.0</v>
       </c>
-      <c r="H46" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J46" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="K46" t="n">
-        <v>27.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>16.0</v>
+        <v>73.0</v>
       </c>
       <c r="C47" t="n">
-        <v>73.0</v>
+        <v>87.0</v>
       </c>
       <c r="D47" t="n">
-        <v>47.0</v>
+        <v>211.0</v>
       </c>
       <c r="E47" t="n">
-        <v>21080.0</v>
+        <v>93040.0</v>
       </c>
       <c r="F47" t="n">
-        <v>14.0</v>
+        <v>69.0</v>
       </c>
       <c r="G47" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="I47" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="J47" t="n">
-        <v>64.0</v>
+        <v>30.0</v>
       </c>
       <c r="K47" t="n">
-        <v>-34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11800.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-7.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="B48" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="B49" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C49" t="n">
         <v>87.0</v>
       </c>
-      <c r="D48" t="n">
-        <v>179.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>59527.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="D49" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>63482.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H49" t="n">
         <v>7.0</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>5.0</v>
       </c>
-      <c r="J48" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-141.0</v>
+      <c r="J49" t="n">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-113.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -53,60 +53,60 @@
     <t>thunder</t>
   </si>
   <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>snowkids</t>
+  </si>
+  <si>
     <t>☆ Di♡g♡</t>
   </si>
   <si>
-    <t>Inferno</t>
-  </si>
-  <si>
-    <t>snowkids</t>
-  </si>
-  <si>
     <t>King Bonixe</t>
   </si>
   <si>
     <t>Goblyn</t>
   </si>
   <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>Madnasty</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>zau</t>
   </si>
   <si>
+    <t>Tio João</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
     <t>Ricky</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
     <t>faneca</t>
   </si>
   <si>
     <t>Cronicl3_2</t>
   </si>
   <si>
+    <t>pjp</t>
+  </si>
+  <si>
     <t>unb</t>
   </si>
   <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
-    <t>pjp</t>
-  </si>
-  <si>
     <t>leal</t>
   </si>
   <si>
@@ -116,45 +116,45 @@
     <t>Savler</t>
   </si>
   <si>
+    <t>Gingka</t>
+  </si>
+  <si>
+    <t>huracan</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>Gingka</t>
-  </si>
-  <si>
-    <t>huracan</t>
-  </si>
-  <si>
     <t>Marcelo</t>
   </si>
   <si>
+    <t>Marshall</t>
+  </si>
+  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>virtudes</t>
   </si>
   <si>
+    <t>MiStErIo</t>
+  </si>
+  <si>
+    <t>RichPath</t>
+  </si>
+  <si>
+    <t>nmaciel8</t>
+  </si>
+  <si>
+    <t>fglopes</t>
+  </si>
+  <si>
+    <t>Soul_Eater</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>MiStErIo</t>
-  </si>
-  <si>
-    <t>RichPath</t>
-  </si>
-  <si>
-    <t>nmaciel8</t>
-  </si>
-  <si>
-    <t>Soul_Eater</t>
-  </si>
-  <si>
-    <t>fglopes</t>
-  </si>
-  <si>
     <t>André</t>
   </si>
   <si>
@@ -164,22 +164,28 @@
     <t>Tiago</t>
   </si>
   <si>
+    <t>Iskandir</t>
+  </si>
+  <si>
     <t>fogo</t>
   </si>
   <si>
+    <t>Wannakil</t>
+  </si>
+  <si>
     <t>Pp</t>
   </si>
   <si>
-    <t>Wannakil</t>
-  </si>
-  <si>
     <t>Juca</t>
   </si>
   <si>
-    <t>Iskandir</t>
+    <t>Muffin3</t>
   </si>
   <si>
     <t>marinheiro</t>
+  </si>
+  <si>
+    <t>pastore</t>
   </si>
   <si>
     <t>dr nov4to</t>
@@ -285,13 +291,13 @@
         <v>295.0</v>
       </c>
       <c r="E2" t="n">
-        <v>123912.0</v>
+        <v>124592.0</v>
       </c>
       <c r="F2" t="n">
         <v>102.0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.0</v>
+        <v>77.0</v>
       </c>
       <c r="H2" t="n">
         <v>2.0</v>
@@ -300,10 +306,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="K2" t="n">
-        <v>818.0</v>
+        <v>816.0</v>
       </c>
     </row>
     <row r="3">
@@ -320,13 +326,13 @@
         <v>300.0</v>
       </c>
       <c r="E3" t="n">
-        <v>121360.0</v>
+        <v>122160.0</v>
       </c>
       <c r="F3" t="n">
         <v>106.0</v>
       </c>
       <c r="G3" t="n">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -335,10 +341,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="K3" t="n">
-        <v>792.0</v>
+        <v>790.0</v>
       </c>
     </row>
     <row r="4">
@@ -346,16 +352,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="C4" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>283.0</v>
+        <v>300.0</v>
       </c>
       <c r="E4" t="n">
-        <v>118960.0</v>
+        <v>127627.0</v>
       </c>
       <c r="F4" t="n">
         <v>99.0</v>
@@ -364,16 +370,16 @@
         <v>66.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" t="n">
         <v>67.0</v>
       </c>
       <c r="K4" t="n">
-        <v>714.0</v>
+        <v>728.0</v>
       </c>
     </row>
     <row r="5">
@@ -381,34 +387,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="C5" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D5" t="n">
-        <v>300.0</v>
+        <v>293.0</v>
       </c>
       <c r="E5" t="n">
-        <v>126108.0</v>
+        <v>121180.0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
       <c r="G5" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" t="n">
         <v>67.0</v>
       </c>
       <c r="K5" t="n">
-        <v>707.0</v>
+        <v>718.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,34 +422,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>99.0</v>
+        <v>95.0</v>
       </c>
       <c r="C6" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D6" t="n">
-        <v>294.0</v>
+        <v>283.0</v>
       </c>
       <c r="E6" t="n">
-        <v>120206.0</v>
+        <v>119880.0</v>
       </c>
       <c r="F6" t="n">
-        <v>101.0</v>
+        <v>98.0</v>
       </c>
       <c r="G6" t="n">
-        <v>66.0</v>
+        <v>64.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
         <v>65.0</v>
       </c>
       <c r="K6" t="n">
-        <v>704.0</v>
+        <v>705.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,10 +466,10 @@
         <v>280.0</v>
       </c>
       <c r="E7" t="n">
-        <v>115680.0</v>
+        <v>116600.0</v>
       </c>
       <c r="F7" t="n">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="G7" t="n">
         <v>62.0</v>
@@ -478,7 +484,7 @@
         <v>63.0</v>
       </c>
       <c r="K7" t="n">
-        <v>676.0</v>
+        <v>679.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,28 +498,28 @@
         <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>300.0</v>
+        <v>299.0</v>
       </c>
       <c r="E8" t="n">
-        <v>128000.0</v>
+        <v>128520.0</v>
       </c>
       <c r="F8" t="n">
         <v>106.0</v>
       </c>
       <c r="G8" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="K8" t="n">
-        <v>668.0</v>
+        <v>675.0</v>
       </c>
     </row>
     <row r="9">
@@ -521,34 +527,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>99.0</v>
+        <v>77.0</v>
       </c>
       <c r="C9" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="D9" t="n">
-        <v>297.0</v>
+        <v>227.0</v>
       </c>
       <c r="E9" t="n">
-        <v>124640.0</v>
+        <v>98101.0</v>
       </c>
       <c r="F9" t="n">
-        <v>102.0</v>
+        <v>80.0</v>
       </c>
       <c r="G9" t="n">
-        <v>54.0</v>
+        <v>61.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.0</v>
+        <v>76.0</v>
       </c>
       <c r="K9" t="n">
-        <v>638.0</v>
+        <v>647.0</v>
       </c>
     </row>
     <row r="10">
@@ -556,34 +562,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>75.0</v>
+        <v>99.0</v>
       </c>
       <c r="C10" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>221.0</v>
+        <v>297.0</v>
       </c>
       <c r="E10" t="n">
-        <v>94781.0</v>
+        <v>125160.0</v>
       </c>
       <c r="F10" t="n">
-        <v>78.0</v>
+        <v>102.0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.0</v>
+        <v>55.0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
       <c r="K10" t="n">
-        <v>628.0</v>
+        <v>647.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,13 +606,13 @@
         <v>284.0</v>
       </c>
       <c r="E11" t="n">
-        <v>120400.0</v>
+        <v>121040.0</v>
       </c>
       <c r="F11" t="n">
         <v>97.0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
@@ -615,10 +621,10 @@
         <v>1.0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>587.0</v>
+        <v>596.0</v>
       </c>
     </row>
     <row r="12">
@@ -626,34 +632,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="C12" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D12" t="n">
-        <v>271.0</v>
+        <v>288.0</v>
       </c>
       <c r="E12" t="n">
-        <v>115248.0</v>
+        <v>116120.0</v>
       </c>
       <c r="F12" t="n">
-        <v>96.0</v>
+        <v>103.0</v>
       </c>
       <c r="G12" t="n">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="H12" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
       <c r="K12" t="n">
-        <v>580.0</v>
+        <v>575.0</v>
       </c>
     </row>
     <row r="13">
@@ -661,34 +667,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>95.0</v>
+        <v>85.0</v>
       </c>
       <c r="C13" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D13" t="n">
-        <v>285.0</v>
+        <v>247.0</v>
       </c>
       <c r="E13" t="n">
-        <v>113778.0</v>
+        <v>104556.0</v>
       </c>
       <c r="F13" t="n">
-        <v>102.0</v>
+        <v>85.0</v>
       </c>
       <c r="G13" t="n">
-        <v>47.0</v>
+        <v>56.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.0</v>
+        <v>66.0</v>
       </c>
       <c r="K13" t="n">
-        <v>574.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +705,7 @@
         <v>84.0</v>
       </c>
       <c r="C14" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D14" t="n">
         <v>252.0</v>
@@ -723,7 +729,7 @@
         <v>51.0</v>
       </c>
       <c r="K14" t="n">
-        <v>556.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="15">
@@ -731,34 +737,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>84.0</v>
+        <v>93.0</v>
       </c>
       <c r="C15" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D15" t="n">
-        <v>244.0</v>
+        <v>268.0</v>
       </c>
       <c r="E15" t="n">
-        <v>102096.0</v>
+        <v>113695.0</v>
       </c>
       <c r="F15" t="n">
-        <v>84.0</v>
+        <v>95.0</v>
       </c>
       <c r="G15" t="n">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
       <c r="H15" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.0</v>
+        <v>49.0</v>
       </c>
       <c r="K15" t="n">
-        <v>544.0</v>
+        <v>543.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,7 +781,7 @@
         <v>293.0</v>
       </c>
       <c r="E16" t="n">
-        <v>108616.0</v>
+        <v>110108.0</v>
       </c>
       <c r="F16" t="n">
         <v>100.0</v>
@@ -793,7 +799,7 @@
         <v>44.0</v>
       </c>
       <c r="K16" t="n">
-        <v>528.0</v>
+        <v>532.0</v>
       </c>
     </row>
     <row r="17">
@@ -801,34 +807,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>99.0</v>
+        <v>91.0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D17" t="n">
-        <v>296.0</v>
+        <v>257.0</v>
       </c>
       <c r="E17" t="n">
-        <v>122445.0</v>
+        <v>112960.0</v>
       </c>
       <c r="F17" t="n">
-        <v>107.0</v>
+        <v>94.0</v>
       </c>
       <c r="G17" t="n">
-        <v>33.0</v>
+        <v>55.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J17" t="n">
-        <v>31.0</v>
+        <v>59.0</v>
       </c>
       <c r="K17" t="n">
-        <v>501.0</v>
+        <v>512.0</v>
       </c>
     </row>
     <row r="18">
@@ -836,34 +842,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>83.0</v>
+        <v>99.0</v>
       </c>
       <c r="C18" t="n">
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>249.0</v>
+        <v>296.0</v>
       </c>
       <c r="E18" t="n">
-        <v>111882.0</v>
+        <v>123175.0</v>
       </c>
       <c r="F18" t="n">
-        <v>86.0</v>
+        <v>107.0</v>
       </c>
       <c r="G18" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>42.0</v>
+        <v>31.0</v>
       </c>
       <c r="K18" t="n">
-        <v>490.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="19">
@@ -871,34 +877,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>89.0</v>
+        <v>86.0</v>
       </c>
       <c r="C19" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>247.0</v>
+        <v>257.0</v>
       </c>
       <c r="E19" t="n">
-        <v>106640.0</v>
+        <v>115722.0</v>
       </c>
       <c r="F19" t="n">
         <v>89.0</v>
       </c>
       <c r="G19" t="n">
-        <v>58.0</v>
+        <v>37.0</v>
       </c>
       <c r="H19" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.0</v>
+        <v>42.0</v>
       </c>
       <c r="K19" t="n">
-        <v>486.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="20">
@@ -906,34 +912,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>88.0</v>
+        <v>95.0</v>
       </c>
       <c r="C20" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D20" t="n">
-        <v>248.0</v>
+        <v>270.0</v>
       </c>
       <c r="E20" t="n">
-        <v>107960.0</v>
+        <v>113920.0</v>
       </c>
       <c r="F20" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="G20" t="n">
-        <v>53.0</v>
+        <v>46.0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="I20" t="n">
         <v>2.0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.99999999999999</v>
+        <v>48.0</v>
       </c>
       <c r="K20" t="n">
-        <v>485.0</v>
+        <v>480.0</v>
       </c>
     </row>
     <row r="21">
@@ -941,34 +947,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>94.0</v>
+        <v>89.0</v>
       </c>
       <c r="C21" t="n">
         <v>93.0</v>
       </c>
       <c r="D21" t="n">
-        <v>267.0</v>
+        <v>247.0</v>
       </c>
       <c r="E21" t="n">
-        <v>111720.0</v>
+        <v>108440.0</v>
       </c>
       <c r="F21" t="n">
-        <v>94.0</v>
+        <v>89.0</v>
       </c>
       <c r="G21" t="n">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
       <c r="H21" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>49.0</v>
+        <v>63.0</v>
       </c>
       <c r="K21" t="n">
-        <v>474.0</v>
+        <v>479.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,13 +991,13 @@
         <v>268.0</v>
       </c>
       <c r="E22" t="n">
-        <v>113160.0</v>
+        <v>113240.0</v>
       </c>
       <c r="F22" t="n">
         <v>88.0</v>
       </c>
       <c r="G22" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="H22" t="n">
         <v>8.0</v>
@@ -1000,10 +1006,10 @@
         <v>4.0</v>
       </c>
       <c r="J22" t="n">
-        <v>60.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>474.0</v>
+        <v>457.0</v>
       </c>
     </row>
     <row r="23">
@@ -1011,22 +1017,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="C23" t="n">
         <v>87.0</v>
       </c>
       <c r="D23" t="n">
-        <v>237.0</v>
+        <v>246.0</v>
       </c>
       <c r="E23" t="n">
-        <v>102232.0</v>
+        <v>107672.0</v>
       </c>
       <c r="F23" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="G23" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="H23" t="n">
         <v>21.0</v>
@@ -1035,10 +1041,10 @@
         <v>2.0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.00000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>372.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="24">
@@ -1046,22 +1052,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>243.0</v>
+        <v>252.0</v>
       </c>
       <c r="E24" t="n">
-        <v>104200.0</v>
+        <v>107920.0</v>
       </c>
       <c r="F24" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="G24" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="H24" t="n">
         <v>21.0</v>
@@ -1070,10 +1076,10 @@
         <v>3.0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="K24" t="n">
-        <v>348.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="25">
@@ -1081,34 +1087,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>91.0</v>
+        <v>36.0</v>
       </c>
       <c r="C25" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>256.0</v>
+        <v>108.0</v>
       </c>
       <c r="E25" t="n">
-        <v>110680.0</v>
+        <v>49600.0</v>
       </c>
       <c r="F25" t="n">
-        <v>93.0</v>
+        <v>37.0</v>
       </c>
       <c r="G25" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="H25" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.0</v>
+        <v>73.0</v>
       </c>
       <c r="K25" t="n">
-        <v>343.0</v>
+        <v>347.0</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1122,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>99.0</v>
+        <v>108.0</v>
       </c>
       <c r="E26" t="n">
-        <v>44440.0</v>
+        <v>46800.0</v>
       </c>
       <c r="F26" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="G26" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="H26" t="n">
         <v>0.0</v>
@@ -1140,10 +1146,10 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>70.0</v>
+        <v>64.0</v>
       </c>
       <c r="K26" t="n">
-        <v>310.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="27">
@@ -1151,34 +1157,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>33.0</v>
+        <v>90.0</v>
       </c>
       <c r="C27" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D27" t="n">
-        <v>99.0</v>
+        <v>251.0</v>
       </c>
       <c r="E27" t="n">
-        <v>42520.0</v>
+        <v>108440.0</v>
       </c>
       <c r="F27" t="n">
-        <v>36.0</v>
+        <v>92.0</v>
       </c>
       <c r="G27" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J27" t="n">
-        <v>67.0</v>
+        <v>32.0</v>
       </c>
       <c r="K27" t="n">
-        <v>308.0</v>
+        <v>306.0</v>
       </c>
     </row>
     <row r="28">
@@ -1186,22 +1192,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="C28" t="n">
         <v>80.0</v>
       </c>
       <c r="D28" t="n">
-        <v>173.0</v>
+        <v>182.0</v>
       </c>
       <c r="E28" t="n">
-        <v>73960.0</v>
+        <v>78520.0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="H28" t="n">
         <v>19.0</v>
@@ -1213,7 +1219,7 @@
         <v>65.0</v>
       </c>
       <c r="K28" t="n">
-        <v>282.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="29">
@@ -1221,31 +1227,31 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>97.0</v>
+        <v>36.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>262.0</v>
+        <v>108.0</v>
       </c>
       <c r="E29" t="n">
-        <v>108786.0</v>
+        <v>46720.0</v>
       </c>
       <c r="F29" t="n">
-        <v>99.0</v>
+        <v>39.0</v>
       </c>
       <c r="G29" t="n">
-        <v>43.0</v>
+        <v>18.0</v>
       </c>
       <c r="H29" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="K29" t="n">
         <v>274.0</v>
@@ -1256,34 +1262,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>33.0</v>
+        <v>97.0</v>
       </c>
       <c r="C30" t="n">
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>108971.0</v>
+      </c>
+      <c r="F30" t="n">
         <v>99.0</v>
       </c>
-      <c r="E30" t="n">
-        <v>42120.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>35.0</v>
-      </c>
       <c r="G30" t="n">
-        <v>17.0</v>
+        <v>44.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="K30" t="n">
-        <v>258.0</v>
+        <v>266.0</v>
       </c>
     </row>
     <row r="31">
@@ -1291,34 +1297,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="C31" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>82.0</v>
+        <v>87.0</v>
       </c>
       <c r="E31" t="n">
-        <v>37120.0</v>
+        <v>39360.0</v>
       </c>
       <c r="F31" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="G31" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="K31" t="n">
-        <v>218.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,34 +1332,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>48.0</v>
+        <v>34.0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>136.0</v>
+        <v>97.0</v>
       </c>
       <c r="E32" t="n">
-        <v>63520.0</v>
+        <v>45360.0</v>
       </c>
       <c r="F32" t="n">
-        <v>51.0</v>
+        <v>34.0</v>
       </c>
       <c r="G32" t="n">
-        <v>34.0</v>
+        <v>11.0</v>
       </c>
       <c r="H32" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.0</v>
+        <v>32.0</v>
       </c>
       <c r="K32" t="n">
-        <v>190.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="33">
@@ -1361,34 +1367,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>88.0</v>
+        <v>69.0</v>
       </c>
       <c r="E33" t="n">
-        <v>40360.0</v>
+        <v>32000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="G33" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H33" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>32.0</v>
+        <v>52.0</v>
       </c>
       <c r="K33" t="n">
-        <v>187.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="34">
@@ -1396,22 +1402,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
       <c r="E34" t="n">
-        <v>27720.0</v>
+        <v>30440.0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="G34" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1420,10 +1426,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.0</v>
+        <v>47.0</v>
       </c>
       <c r="K34" t="n">
-        <v>175.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="35">
@@ -1431,34 +1437,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>16.0</v>
+        <v>72.0</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="D35" t="n">
-        <v>48.0</v>
+        <v>199.0</v>
       </c>
       <c r="E35" t="n">
-        <v>26000.0</v>
+        <v>82709.0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.0</v>
+        <v>74.0</v>
       </c>
       <c r="G35" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>50.0</v>
+        <v>24.0</v>
       </c>
       <c r="K35" t="n">
-        <v>154.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="36">
@@ -1466,34 +1472,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="C36" t="n">
         <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>57.0</v>
+        <v>65.0</v>
       </c>
       <c r="E36" t="n">
-        <v>23720.0</v>
+        <v>27400.0</v>
       </c>
       <c r="F36" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="G36" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="K36" t="n">
-        <v>151.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="37">
@@ -1501,34 +1507,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>74.0</v>
+        <v>45.0</v>
       </c>
       <c r="C37" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="D37" t="n">
-        <v>203.0</v>
+        <v>127.0</v>
       </c>
       <c r="E37" t="n">
-        <v>84020.0</v>
+        <v>59880.0</v>
       </c>
       <c r="F37" t="n">
-        <v>76.0</v>
+        <v>48.0</v>
       </c>
       <c r="G37" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="H37" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>22.0</v>
+        <v>69.0</v>
       </c>
       <c r="K37" t="n">
-        <v>148.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="38">
@@ -1536,34 +1542,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="C38" t="n">
-        <v>80.0</v>
+        <v>73.0</v>
       </c>
       <c r="D38" t="n">
-        <v>100.0</v>
+        <v>105.0</v>
       </c>
       <c r="E38" t="n">
-        <v>44720.0</v>
+        <v>47040.0</v>
       </c>
       <c r="F38" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="G38" t="n">
         <v>9.0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I38" t="n">
         <v>2.0</v>
       </c>
       <c r="J38" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="K38" t="n">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="39">
@@ -1571,23 +1577,23 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9360.0</v>
+      </c>
+      <c r="F39" t="n">
         <v>5.0</v>
       </c>
-      <c r="C39" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7960.0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>4.0</v>
       </c>
-      <c r="G39" t="n">
-        <v>3.0</v>
-      </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
@@ -1595,10 +1601,10 @@
         <v>1.0</v>
       </c>
       <c r="J39" t="n">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="K39" t="n">
-        <v>97.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="40">
@@ -1606,23 +1612,23 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13520.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G40" t="n">
         <v>5.0</v>
       </c>
-      <c r="C40" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>8960.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>4.0</v>
-      </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
@@ -1630,10 +1636,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.0</v>
+        <v>62.0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="41">
@@ -1641,34 +1647,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="C41" t="n">
         <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>16.0</v>
+        <v>54.0</v>
       </c>
       <c r="E41" t="n">
-        <v>7640.0</v>
+        <v>27920.0</v>
       </c>
       <c r="F41" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G41" t="n">
         <v>5.0</v>
       </c>
-      <c r="G41" t="n">
-        <v>3.0</v>
-      </c>
       <c r="H41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>60.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>81.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="42">
@@ -1676,34 +1682,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="C42" t="n">
         <v>100.0</v>
       </c>
       <c r="D42" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="E42" t="n">
-        <v>14400.0</v>
+        <v>10480.0</v>
       </c>
       <c r="F42" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="G42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.0</v>
       </c>
-      <c r="H42" t="n">
-        <v>2.0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J42" t="n">
-        <v>36.0</v>
+        <v>62.0</v>
       </c>
       <c r="K42" t="n">
-        <v>79.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="43">
@@ -1711,22 +1717,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C43" t="n">
         <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="E43" t="n">
-        <v>7880.0</v>
+        <v>12440.0</v>
       </c>
       <c r="F43" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
@@ -1735,10 +1741,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="K43" t="n">
-        <v>78.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="44">
@@ -1746,34 +1752,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="C44" t="n">
         <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>23.0</v>
+        <v>39.0</v>
       </c>
       <c r="E44" t="n">
-        <v>13080.0</v>
+        <v>18280.0</v>
       </c>
       <c r="F44" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>28.999999999999996</v>
+        <v>36.0</v>
       </c>
       <c r="K44" t="n">
-        <v>77.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="45">
@@ -1781,34 +1787,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C45" t="n">
         <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>45.0</v>
+        <v>32.0</v>
       </c>
       <c r="E45" t="n">
-        <v>23200.0</v>
+        <v>17080.0</v>
       </c>
       <c r="F45" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="G45" t="n">
         <v>3.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
       </c>
       <c r="J45" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="K45" t="n">
-        <v>75.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="46">
@@ -1816,104 +1822,104 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="C46" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D46" t="n">
-        <v>41.0</v>
+        <v>3.0</v>
       </c>
       <c r="E46" t="n">
-        <v>20121.0</v>
+        <v>2640.0</v>
       </c>
       <c r="F46" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="K46" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>73.0</v>
+        <v>16.0</v>
       </c>
       <c r="C47" t="n">
-        <v>87.0</v>
+        <v>60.0</v>
       </c>
       <c r="D47" t="n">
-        <v>211.0</v>
+        <v>41.0</v>
       </c>
       <c r="E47" t="n">
-        <v>93040.0</v>
+        <v>20121.0</v>
       </c>
       <c r="F47" t="n">
-        <v>69.0</v>
+        <v>16.0</v>
       </c>
       <c r="G47" t="n">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="H47" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="I47" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K47" t="n">
-        <v>35.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>10.0</v>
+        <v>75.0</v>
       </c>
       <c r="C48" t="n">
-        <v>71.0</v>
+        <v>87.0</v>
       </c>
       <c r="D48" t="n">
-        <v>20.0</v>
+        <v>217.0</v>
       </c>
       <c r="E48" t="n">
-        <v>11800.0</v>
+        <v>96920.0</v>
       </c>
       <c r="F48" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H48" t="n">
         <v>8.0</v>
       </c>
-      <c r="G48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>10.0</v>
-      </c>
       <c r="I48" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="J48" t="n">
-        <v>38.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="49">
@@ -1921,34 +1927,102 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14560.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-7.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="n">
         <v>65.0</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C51" t="n">
         <v>87.0</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>188.0</v>
       </c>
-      <c r="E49" t="n">
-        <v>63482.0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E51" t="n">
+        <v>64217.0</v>
+      </c>
+      <c r="F51" t="n">
         <v>63.0</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G51" t="n">
         <v>18.0</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>7.0</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>5.0</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J51" t="n">
         <v>28.999999999999996</v>
       </c>
-      <c r="K49" t="n">
-        <v>-113.0</v>
+      <c r="K51" t="n">
+        <v>-111.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -53,18 +53,18 @@
     <t>thunder</t>
   </si>
   <si>
+    <t>snowkids</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
-    <t>snowkids</t>
+    <t>King Bonixe</t>
   </si>
   <si>
     <t>☆ Di♡g♡</t>
   </si>
   <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
@@ -77,60 +77,60 @@
     <t>zau</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>KryptoNnN</t>
+  </si>
+  <si>
     <t>Tio João</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
+    <t>Cronicl3_2</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
     <t>faneca</t>
   </si>
   <si>
-    <t>Cronicl3_2</t>
+    <t>unb</t>
   </si>
   <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>unb</t>
-  </si>
-  <si>
     <t>leal</t>
   </si>
   <si>
     <t>Sergas</t>
   </si>
   <si>
+    <t>Gingka</t>
+  </si>
+  <si>
+    <t>huracan</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>Gingka</t>
-  </si>
-  <si>
-    <t>huracan</t>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
   </si>
   <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>qzt</t>
   </si>
   <si>
@@ -146,36 +146,36 @@
     <t>nmaciel8</t>
   </si>
   <si>
+    <t>Soul_Eater</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>Soul_Eater</t>
+    <t>André</t>
   </si>
   <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>André</t>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Iskandir</t>
+  </si>
+  <si>
+    <t>Wannakil</t>
+  </si>
+  <si>
+    <t>fogo</t>
+  </si>
+  <si>
+    <t>Pp</t>
   </si>
   <si>
     <t>hugo</t>
   </si>
   <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>Iskandir</t>
-  </si>
-  <si>
-    <t>fogo</t>
-  </si>
-  <si>
-    <t>Wannakil</t>
-  </si>
-  <si>
-    <t>Pp</t>
-  </si>
-  <si>
     <t>Juca</t>
   </si>
   <si>
@@ -185,7 +185,7 @@
     <t>marinheiro</t>
   </si>
   <si>
-    <t>pastore</t>
+    <t>klu$h</t>
   </si>
   <si>
     <t>dr nov4to</t>
@@ -291,7 +291,7 @@
         <v>295.0</v>
       </c>
       <c r="E2" t="n">
-        <v>124592.0</v>
+        <v>124672.0</v>
       </c>
       <c r="F2" t="n">
         <v>102.0</v>
@@ -309,7 +309,7 @@
         <v>75.0</v>
       </c>
       <c r="K2" t="n">
-        <v>816.0</v>
+        <v>819.0</v>
       </c>
     </row>
     <row r="3">
@@ -326,13 +326,13 @@
         <v>300.0</v>
       </c>
       <c r="E3" t="n">
-        <v>122160.0</v>
+        <v>123800.0</v>
       </c>
       <c r="F3" t="n">
         <v>106.0</v>
       </c>
       <c r="G3" t="n">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -341,10 +341,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="K3" t="n">
-        <v>790.0</v>
+        <v>789.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,25 +352,25 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="C4" t="n">
         <v>100.0</v>
       </c>
       <c r="D4" t="n">
-        <v>300.0</v>
+        <v>293.0</v>
       </c>
       <c r="E4" t="n">
-        <v>127627.0</v>
+        <v>121860.0</v>
       </c>
       <c r="F4" t="n">
-        <v>99.0</v>
+        <v>101.0</v>
       </c>
       <c r="G4" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -379,7 +379,7 @@
         <v>67.0</v>
       </c>
       <c r="K4" t="n">
-        <v>728.0</v>
+        <v>721.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,34 +387,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>129218.0</v>
+      </c>
+      <c r="F5" t="n">
         <v>99.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>293.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>121180.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>101.0</v>
-      </c>
       <c r="G5" t="n">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="H5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="K5" t="n">
-        <v>718.0</v>
+        <v>721.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,34 +422,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="C6" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D6" t="n">
-        <v>283.0</v>
+        <v>285.0</v>
       </c>
       <c r="E6" t="n">
-        <v>119880.0</v>
+        <v>119760.0</v>
       </c>
       <c r="F6" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="G6" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
         <v>64.0</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>65.0</v>
-      </c>
       <c r="K6" t="n">
-        <v>705.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,34 +457,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>95.0</v>
+        <v>93.0</v>
       </c>
       <c r="C7" t="n">
-        <v>87.0</v>
+        <v>73.0</v>
       </c>
       <c r="D7" t="n">
-        <v>280.0</v>
+        <v>277.0</v>
       </c>
       <c r="E7" t="n">
-        <v>116600.0</v>
+        <v>117920.0</v>
       </c>
       <c r="F7" t="n">
-        <v>98.0</v>
+        <v>96.0</v>
       </c>
       <c r="G7" t="n">
         <v>62.0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="K7" t="n">
-        <v>679.0</v>
+        <v>689.0</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         <v>299.0</v>
       </c>
       <c r="E8" t="n">
-        <v>128520.0</v>
+        <v>128600.0</v>
       </c>
       <c r="F8" t="n">
         <v>106.0</v>
@@ -519,7 +519,7 @@
         <v>53.0</v>
       </c>
       <c r="K8" t="n">
-        <v>675.0</v>
+        <v>677.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,22 +527,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="C9" t="n">
-        <v>67.0</v>
+        <v>73.0</v>
       </c>
       <c r="D9" t="n">
-        <v>227.0</v>
+        <v>236.0</v>
       </c>
       <c r="E9" t="n">
-        <v>98101.0</v>
+        <v>102821.0</v>
       </c>
       <c r="F9" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="G9" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="H9" t="n">
         <v>4.0</v>
@@ -554,7 +554,7 @@
         <v>76.0</v>
       </c>
       <c r="K9" t="n">
-        <v>647.0</v>
+        <v>671.0</v>
       </c>
     </row>
     <row r="10">
@@ -571,7 +571,7 @@
         <v>297.0</v>
       </c>
       <c r="E10" t="n">
-        <v>125160.0</v>
+        <v>125800.0</v>
       </c>
       <c r="F10" t="n">
         <v>102.0</v>
@@ -589,7 +589,7 @@
         <v>54.0</v>
       </c>
       <c r="K10" t="n">
-        <v>647.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         <v>284.0</v>
       </c>
       <c r="E11" t="n">
-        <v>121040.0</v>
+        <v>120960.0</v>
       </c>
       <c r="F11" t="n">
         <v>97.0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
@@ -621,10 +621,10 @@
         <v>1.0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="K11" t="n">
-        <v>596.0</v>
+        <v>591.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +632,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>96.0</v>
+        <v>93.0</v>
       </c>
       <c r="C12" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D12" t="n">
-        <v>288.0</v>
+        <v>269.0</v>
       </c>
       <c r="E12" t="n">
-        <v>116120.0</v>
+        <v>114741.0</v>
       </c>
       <c r="F12" t="n">
-        <v>103.0</v>
+        <v>94.0</v>
       </c>
       <c r="G12" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>45.0</v>
+        <v>53.0</v>
       </c>
       <c r="K12" t="n">
-        <v>575.0</v>
+        <v>571.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,34 +667,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="C13" t="n">
-        <v>87.0</v>
+        <v>73.0</v>
       </c>
       <c r="D13" t="n">
-        <v>247.0</v>
+        <v>258.0</v>
       </c>
       <c r="E13" t="n">
-        <v>104556.0</v>
+        <v>111120.0</v>
       </c>
       <c r="F13" t="n">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="G13" t="n">
-        <v>56.0</v>
+        <v>46.0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>66.0</v>
+        <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>566.0</v>
+        <v>567.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,34 +702,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="C14" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D14" t="n">
-        <v>252.0</v>
+        <v>247.0</v>
       </c>
       <c r="E14" t="n">
-        <v>108400.0</v>
+        <v>106707.0</v>
       </c>
       <c r="F14" t="n">
-        <v>88.0</v>
+        <v>85.0</v>
       </c>
       <c r="G14" t="n">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.0</v>
+        <v>65.0</v>
       </c>
       <c r="K14" t="n">
-        <v>555.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,34 +737,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="C15" t="n">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="D15" t="n">
-        <v>268.0</v>
+        <v>288.0</v>
       </c>
       <c r="E15" t="n">
-        <v>113695.0</v>
+        <v>116624.0</v>
       </c>
       <c r="F15" t="n">
-        <v>95.0</v>
+        <v>102.0</v>
       </c>
       <c r="G15" t="n">
-        <v>47.0</v>
+        <v>44.0</v>
       </c>
       <c r="H15" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>49.0</v>
+        <v>43.0</v>
       </c>
       <c r="K15" t="n">
-        <v>543.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="16">
@@ -781,13 +781,13 @@
         <v>293.0</v>
       </c>
       <c r="E16" t="n">
-        <v>110108.0</v>
+        <v>110915.0</v>
       </c>
       <c r="F16" t="n">
         <v>100.0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H16" t="n">
         <v>1.0</v>
@@ -796,10 +796,10 @@
         <v>1.0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="K16" t="n">
-        <v>532.0</v>
+        <v>548.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,34 +807,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>91.0</v>
+        <v>89.0</v>
       </c>
       <c r="C17" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>257.0</v>
+        <v>266.0</v>
       </c>
       <c r="E17" t="n">
-        <v>112960.0</v>
+        <v>120282.0</v>
       </c>
       <c r="F17" t="n">
-        <v>94.0</v>
+        <v>92.0</v>
       </c>
       <c r="G17" t="n">
-        <v>55.0</v>
+        <v>39.0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
       <c r="K17" t="n">
-        <v>512.0</v>
+        <v>527.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +842,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>99.0</v>
+        <v>91.0</v>
       </c>
       <c r="C18" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D18" t="n">
-        <v>296.0</v>
+        <v>257.0</v>
       </c>
       <c r="E18" t="n">
-        <v>123175.0</v>
+        <v>113920.0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.0</v>
+        <v>93.0</v>
       </c>
       <c r="G18" t="n">
-        <v>33.0</v>
+        <v>56.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J18" t="n">
-        <v>31.0</v>
+        <v>60.0</v>
       </c>
       <c r="K18" t="n">
-        <v>504.0</v>
+        <v>521.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,34 +877,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>86.0</v>
+        <v>99.0</v>
       </c>
       <c r="C19" t="n">
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>257.0</v>
+        <v>296.0</v>
       </c>
       <c r="E19" t="n">
-        <v>115722.0</v>
+        <v>124500.0</v>
       </c>
       <c r="F19" t="n">
-        <v>89.0</v>
+        <v>107.0</v>
       </c>
       <c r="G19" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="H19" t="n">
         <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K19" t="n">
-        <v>504.0</v>
+        <v>496.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,34 +912,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>95.0</v>
+        <v>88.0</v>
       </c>
       <c r="C20" t="n">
         <v>93.0</v>
       </c>
       <c r="D20" t="n">
-        <v>270.0</v>
+        <v>244.0</v>
       </c>
       <c r="E20" t="n">
-        <v>113920.0</v>
+        <v>108440.0</v>
       </c>
       <c r="F20" t="n">
-        <v>95.0</v>
+        <v>88.0</v>
       </c>
       <c r="G20" t="n">
-        <v>46.0</v>
+        <v>55.0</v>
       </c>
       <c r="H20" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>48.0</v>
+        <v>62.0</v>
       </c>
       <c r="K20" t="n">
-        <v>480.0</v>
+        <v>473.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,34 +947,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="C21" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>110840.0</v>
+      </c>
+      <c r="F21" t="n">
         <v>93.0</v>
       </c>
-      <c r="D21" t="n">
-        <v>247.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>108440.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>89.0</v>
-      </c>
       <c r="G21" t="n">
-        <v>56.0</v>
+        <v>44.0</v>
       </c>
       <c r="H21" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J21" t="n">
-        <v>63.0</v>
+        <v>47.0</v>
       </c>
       <c r="K21" t="n">
-        <v>479.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="22">
@@ -991,13 +991,13 @@
         <v>268.0</v>
       </c>
       <c r="E22" t="n">
-        <v>113240.0</v>
+        <v>113720.0</v>
       </c>
       <c r="F22" t="n">
         <v>88.0</v>
       </c>
       <c r="G22" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="H22" t="n">
         <v>8.0</v>
@@ -1006,10 +1006,10 @@
         <v>4.0</v>
       </c>
       <c r="J22" t="n">
-        <v>56.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>457.0</v>
+        <v>454.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,22 +1017,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>89.0</v>
+        <v>91.0</v>
       </c>
       <c r="C23" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D23" t="n">
-        <v>246.0</v>
+        <v>252.0</v>
       </c>
       <c r="E23" t="n">
-        <v>107672.0</v>
+        <v>111112.0</v>
       </c>
       <c r="F23" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="H23" t="n">
         <v>21.0</v>
@@ -1041,10 +1041,10 @@
         <v>2.0</v>
       </c>
       <c r="J23" t="n">
-        <v>56.00000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>397.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,34 +1052,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>91.0</v>
+        <v>39.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>252.0</v>
+        <v>117.0</v>
       </c>
       <c r="E24" t="n">
-        <v>107920.0</v>
+        <v>54040.0</v>
       </c>
       <c r="F24" t="n">
-        <v>91.0</v>
+        <v>40.0</v>
       </c>
       <c r="G24" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="H24" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>53.0</v>
+        <v>70.0</v>
       </c>
       <c r="K24" t="n">
-        <v>370.0</v>
+        <v>364.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,22 +1087,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>108.0</v>
+        <v>117.0</v>
       </c>
       <c r="E25" t="n">
-        <v>49600.0</v>
+        <v>51240.0</v>
       </c>
       <c r="F25" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
@@ -1111,10 +1111,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>73.0</v>
+        <v>67.0</v>
       </c>
       <c r="K25" t="n">
-        <v>347.0</v>
+        <v>353.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,34 +1122,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0</v>
+        <v>94.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>108.0</v>
+        <v>260.0</v>
       </c>
       <c r="E26" t="n">
-        <v>46800.0</v>
+        <v>111320.0</v>
       </c>
       <c r="F26" t="n">
-        <v>39.0</v>
+        <v>93.0</v>
       </c>
       <c r="G26" t="n">
-        <v>25.0</v>
+        <v>49.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J26" t="n">
-        <v>64.0</v>
+        <v>53.0</v>
       </c>
       <c r="K26" t="n">
-        <v>323.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,34 +1157,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>90.0</v>
+        <v>39.0</v>
       </c>
       <c r="C27" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>251.0</v>
+        <v>117.0</v>
       </c>
       <c r="E27" t="n">
-        <v>108440.0</v>
+        <v>51160.0</v>
       </c>
       <c r="F27" t="n">
-        <v>92.0</v>
+        <v>42.0</v>
       </c>
       <c r="G27" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="H27" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>32.0</v>
+        <v>50.0</v>
       </c>
       <c r="K27" t="n">
-        <v>306.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,25 +1192,25 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
       <c r="C28" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D28" t="n">
-        <v>182.0</v>
+        <v>186.0</v>
       </c>
       <c r="E28" t="n">
-        <v>78520.0</v>
+        <v>80760.0</v>
       </c>
       <c r="F28" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="G28" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="H28" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="I28" t="n">
         <v>2.0</v>
@@ -1219,7 +1219,7 @@
         <v>65.0</v>
       </c>
       <c r="K28" t="n">
-        <v>305.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,34 +1227,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
       <c r="C29" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D29" t="n">
-        <v>108.0</v>
+        <v>250.0</v>
       </c>
       <c r="E29" t="n">
-        <v>46720.0</v>
+        <v>109000.0</v>
       </c>
       <c r="F29" t="n">
-        <v>39.0</v>
+        <v>90.0</v>
       </c>
       <c r="G29" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J29" t="n">
-        <v>46.0</v>
+        <v>30.0</v>
       </c>
       <c r="K29" t="n">
-        <v>274.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="30">
@@ -1268,28 +1268,28 @@
         <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>261.0</v>
+        <v>260.0</v>
       </c>
       <c r="E30" t="n">
-        <v>108971.0</v>
+        <v>108771.0</v>
       </c>
       <c r="F30" t="n">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="G30" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="H30" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
       </c>
       <c r="J30" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="K30" t="n">
-        <v>266.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,22 +1297,22 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="C31" t="n">
         <v>93.0</v>
       </c>
       <c r="D31" t="n">
-        <v>87.0</v>
+        <v>96.0</v>
       </c>
       <c r="E31" t="n">
-        <v>39360.0</v>
+        <v>43800.0</v>
       </c>
       <c r="F31" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="H31" t="n">
         <v>3.0</v>
@@ -1321,10 +1321,10 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="K31" t="n">
-        <v>226.0</v>
+        <v>256.0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,19 +1332,19 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="C32" t="n">
         <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>97.0</v>
+        <v>106.0</v>
       </c>
       <c r="E32" t="n">
-        <v>45360.0</v>
+        <v>50080.0</v>
       </c>
       <c r="F32" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="G32" t="n">
         <v>11.0</v>
@@ -1356,10 +1356,10 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="K32" t="n">
-        <v>205.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,19 +1367,19 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>69.0</v>
+        <v>78.0</v>
       </c>
       <c r="E33" t="n">
-        <v>32000.0</v>
+        <v>36982.0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="G33" t="n">
         <v>12.0</v>
@@ -1391,10 +1391,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.0</v>
+        <v>46.0</v>
       </c>
       <c r="K33" t="n">
-        <v>185.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="34">
@@ -1402,22 +1402,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.0</v>
+        <v>66.0</v>
       </c>
       <c r="E34" t="n">
-        <v>30440.0</v>
+        <v>34600.0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="G34" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1426,10 +1426,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="K34" t="n">
-        <v>171.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,34 +1437,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>72.0</v>
+        <v>26.0</v>
       </c>
       <c r="C35" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D35" t="n">
-        <v>199.0</v>
+        <v>74.0</v>
       </c>
       <c r="E35" t="n">
-        <v>82709.0</v>
+        <v>30960.0</v>
       </c>
       <c r="F35" t="n">
-        <v>74.0</v>
+        <v>26.0</v>
       </c>
       <c r="G35" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="H35" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="K35" t="n">
-        <v>166.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,34 +1472,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>23.0</v>
+        <v>72.0</v>
       </c>
       <c r="C36" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D36" t="n">
-        <v>65.0</v>
+        <v>199.0</v>
       </c>
       <c r="E36" t="n">
-        <v>27400.0</v>
+        <v>84438.0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.0</v>
+        <v>74.0</v>
       </c>
       <c r="G36" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="H36" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>43.0</v>
+        <v>24.0</v>
       </c>
       <c r="K36" t="n">
-        <v>163.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="37">
@@ -1507,34 +1507,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0</v>
+        <v>73.0</v>
       </c>
       <c r="D37" t="n">
-        <v>127.0</v>
+        <v>114.0</v>
       </c>
       <c r="E37" t="n">
-        <v>59880.0</v>
+        <v>52040.0</v>
       </c>
       <c r="F37" t="n">
-        <v>48.0</v>
+        <v>39.0</v>
       </c>
       <c r="G37" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.0</v>
+        <v>26.0</v>
       </c>
       <c r="K37" t="n">
-        <v>157.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="38">
@@ -1542,34 +1542,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="C38" t="n">
-        <v>73.0</v>
+        <v>53.0</v>
       </c>
       <c r="D38" t="n">
-        <v>105.0</v>
+        <v>123.0</v>
       </c>
       <c r="E38" t="n">
-        <v>47040.0</v>
+        <v>58280.0</v>
       </c>
       <c r="F38" t="n">
-        <v>36.0</v>
+        <v>46.0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.0</v>
+        <v>31.0</v>
       </c>
       <c r="H38" t="n">
         <v>6.0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>25.0</v>
+        <v>67.0</v>
       </c>
       <c r="K38" t="n">
-        <v>147.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="39">
@@ -1577,34 +1577,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="C39" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="E39" t="n">
-        <v>9360.0</v>
+        <v>18800.0</v>
       </c>
       <c r="F39" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="G39" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.0</v>
+        <v>64.0</v>
       </c>
       <c r="K39" t="n">
-        <v>105.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="40">
@@ -1612,34 +1612,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.0</v>
+        <v>63.0</v>
       </c>
       <c r="E40" t="n">
-        <v>13520.0</v>
+        <v>33200.0</v>
       </c>
       <c r="F40" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" t="n">
-        <v>62.0</v>
+        <v>35.0</v>
       </c>
       <c r="K40" t="n">
-        <v>104.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="41">
@@ -1647,19 +1647,19 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C41" t="n">
         <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>54.0</v>
+        <v>30.0</v>
       </c>
       <c r="E41" t="n">
-        <v>27920.0</v>
+        <v>17000.0</v>
       </c>
       <c r="F41" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="G41" t="n">
         <v>5.0</v>
@@ -1668,13 +1668,13 @@
         <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>28.999999999999996</v>
+        <v>50.0</v>
       </c>
       <c r="K41" t="n">
-        <v>98.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="42">
@@ -1682,22 +1682,22 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C42" t="n">
         <v>100.0</v>
       </c>
       <c r="D42" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="E42" t="n">
-        <v>10480.0</v>
+        <v>15640.0</v>
       </c>
       <c r="F42" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G42" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H42" t="n">
         <v>4.0</v>
@@ -1706,10 +1706,10 @@
         <v>1.0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>95.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="43">
@@ -1717,34 +1717,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="C43" t="n">
         <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>21.0</v>
+        <v>48.0</v>
       </c>
       <c r="E43" t="n">
-        <v>12440.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="G43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.0</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.0</v>
+        <v>35.0</v>
       </c>
       <c r="K43" t="n">
-        <v>94.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="44">
@@ -1752,34 +1752,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="C44" t="n">
-        <v>100.0</v>
+        <v>82.0</v>
       </c>
       <c r="D44" t="n">
-        <v>39.0</v>
+        <v>27.0</v>
       </c>
       <c r="E44" t="n">
-        <v>18280.0</v>
+        <v>13480.0</v>
       </c>
       <c r="F44" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="G44" t="n">
         <v>5.0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J44" t="n">
-        <v>36.0</v>
+        <v>71.0</v>
       </c>
       <c r="K44" t="n">
-        <v>92.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="45">
@@ -1787,34 +1787,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="C45" t="n">
         <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>32.0</v>
+        <v>41.0</v>
       </c>
       <c r="E45" t="n">
-        <v>17080.0</v>
+        <v>21360.0</v>
       </c>
       <c r="F45" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="G45" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H45" t="n">
         <v>1.0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J45" t="n">
-        <v>30.0</v>
+        <v>42.0</v>
       </c>
       <c r="K45" t="n">
-        <v>92.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="46">
@@ -1822,34 +1822,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C46" t="n">
         <v>100.0</v>
       </c>
       <c r="D46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5800.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G46" t="n">
         <v>3.0</v>
       </c>
-      <c r="E46" t="n">
-        <v>2640.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="K46" t="n">
-        <v>67.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="47">
@@ -1860,7 +1860,7 @@
         <v>16.0</v>
       </c>
       <c r="C47" t="n">
-        <v>60.0</v>
+        <v>47.0</v>
       </c>
       <c r="D47" t="n">
         <v>41.0</v>
@@ -1884,145 +1884,145 @@
         <v>50.0</v>
       </c>
       <c r="K47" t="n">
-        <v>64.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>217.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>96920.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>72.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>28.999999999999996</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J48"/>
       <c r="K48" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>14560.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J49"/>
+        <v>2.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>40.0</v>
+      </c>
       <c r="K49" t="n">
-        <v>12.0</v>
+        <v>-11.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>12.0</v>
+        <v>64.0</v>
       </c>
       <c r="C50" t="n">
         <v>80.0</v>
       </c>
       <c r="D50" t="n">
-        <v>24.0</v>
+        <v>186.0</v>
       </c>
       <c r="E50" t="n">
-        <v>14560.0</v>
+        <v>64864.0</v>
       </c>
       <c r="F50" t="n">
-        <v>10.0</v>
+        <v>62.0</v>
       </c>
       <c r="G50" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="H50" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="I50" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="J50" t="n">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.0</v>
+        <v>-102.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>65.0</v>
+        <v>78.0</v>
       </c>
       <c r="C51" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D51" t="n">
-        <v>188.0</v>
+        <v>223.0</v>
       </c>
       <c r="E51" t="n">
-        <v>64217.0</v>
+        <v>100520.0</v>
       </c>
       <c r="F51" t="n">
-        <v>63.0</v>
+        <v>73.0</v>
       </c>
       <c r="G51" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="H51" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I51" t="n">
         <v>7.0</v>
       </c>
-      <c r="I51" t="n">
-        <v>5.0</v>
-      </c>
       <c r="J51" t="n">
-        <v>28.999999999999996</v>
+        <v>30.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-111.0</v>
+        <v>-1925.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -53,10 +53,13 @@
     <t>thunder</t>
   </si>
   <si>
+    <t>Inferno</t>
+  </si>
+  <si>
     <t>snowkids</t>
   </si>
   <si>
-    <t>Inferno</t>
+    <t>Tabo da amarela</t>
   </si>
   <si>
     <t>King Bonixe</t>
@@ -68,48 +71,45 @@
     <t>Goblyn</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
     <t>Madnasty</t>
   </si>
   <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
     <t>zau</t>
   </si>
   <si>
     <t>Ricky</t>
   </si>
   <si>
-    <t>Matilde Pires</t>
+    <t>Tio João</t>
   </si>
   <si>
     <t>KryptoNnN</t>
   </si>
   <si>
-    <t>Tio João</t>
-  </si>
-  <si>
     <t>carmen</t>
   </si>
   <si>
     <t>Cronicl3_2</t>
   </si>
   <si>
+    <t>faneca</t>
+  </si>
+  <si>
+    <t>unb</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
-    <t>faneca</t>
-  </si>
-  <si>
-    <t>unb</t>
+    <t>leal</t>
   </si>
   <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
     <t>Sergas</t>
   </si>
   <si>
@@ -125,70 +125,67 @@
     <t>Marshall</t>
   </si>
   <si>
+    <t>virtudes</t>
+  </si>
+  <si>
+    <t>filipe</t>
+  </si>
+  <si>
     <t>Marcelo</t>
   </si>
   <si>
-    <t>filipe</t>
-  </si>
-  <si>
     <t>qzt</t>
   </si>
   <si>
-    <t>virtudes</t>
-  </si>
-  <si>
     <t>MiStErIo</t>
   </si>
   <si>
     <t>RichPath</t>
   </si>
   <si>
+    <t>Soul_Eater</t>
+  </si>
+  <si>
+    <t>fglopes</t>
+  </si>
+  <si>
     <t>nmaciel8</t>
   </si>
   <si>
-    <t>Soul_Eater</t>
-  </si>
-  <si>
-    <t>fglopes</t>
-  </si>
-  <si>
     <t>André</t>
   </si>
   <si>
+    <t>Wannakil</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
     <t>Wut</t>
   </si>
   <si>
-    <t>Tiago</t>
-  </si>
-  <si>
     <t>Iskandir</t>
   </si>
   <si>
-    <t>Wannakil</t>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>Muffin3</t>
+  </si>
+  <si>
+    <t>Juca</t>
   </si>
   <si>
     <t>fogo</t>
   </si>
   <si>
-    <t>Pp</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>Juca</t>
-  </si>
-  <si>
-    <t>Muffin3</t>
-  </si>
-  <si>
-    <t>marinheiro</t>
-  </si>
-  <si>
-    <t>klu$h</t>
-  </si>
-  <si>
-    <t>dr nov4to</t>
+    <t>PatRick</t>
+  </si>
+  <si>
+    <t>casanova</t>
   </si>
   <si>
     <t>Manu</t>
@@ -291,13 +288,13 @@
         <v>295.0</v>
       </c>
       <c r="E2" t="n">
-        <v>124672.0</v>
+        <v>126863.0</v>
       </c>
       <c r="F2" t="n">
         <v>102.0</v>
       </c>
       <c r="G2" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="H2" t="n">
         <v>2.0</v>
@@ -306,10 +303,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="K2" t="n">
-        <v>819.0</v>
+        <v>832.0</v>
       </c>
     </row>
     <row r="3">
@@ -326,13 +323,13 @@
         <v>300.0</v>
       </c>
       <c r="E3" t="n">
-        <v>123800.0</v>
+        <v>125520.0</v>
       </c>
       <c r="F3" t="n">
         <v>106.0</v>
       </c>
       <c r="G3" t="n">
-        <v>73.0</v>
+        <v>71.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -341,10 +338,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="K3" t="n">
-        <v>789.0</v>
+        <v>782.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,34 +349,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>131146.0</v>
+      </c>
+      <c r="F4" t="n">
         <v>99.0</v>
       </c>
-      <c r="C4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>293.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>121860.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>101.0</v>
-      </c>
       <c r="G4" t="n">
-        <v>68.0</v>
+        <v>65.0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
       </c>
       <c r="J4" t="n">
-        <v>67.0</v>
+        <v>66.0</v>
       </c>
       <c r="K4" t="n">
-        <v>721.0</v>
+        <v>733.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,31 +384,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>100.0</v>
+        <v>98.0</v>
       </c>
       <c r="C5" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D5" t="n">
-        <v>300.0</v>
+        <v>292.0</v>
       </c>
       <c r="E5" t="n">
-        <v>129218.0</v>
+        <v>121588.0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="G5" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="K5" t="n">
         <v>721.0</v>
@@ -422,34 +419,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>96.0</v>
+        <v>83.0</v>
       </c>
       <c r="C6" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D6" t="n">
-        <v>285.0</v>
+        <v>245.0</v>
       </c>
       <c r="E6" t="n">
-        <v>119760.0</v>
+        <v>107970.0</v>
       </c>
       <c r="F6" t="n">
-        <v>99.0</v>
+        <v>86.0</v>
       </c>
       <c r="G6" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.0</v>
+        <v>77.0</v>
       </c>
       <c r="K6" t="n">
-        <v>700.0</v>
+        <v>701.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,34 +454,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>93.0</v>
       </c>
-      <c r="C7" t="n">
-        <v>73.0</v>
-      </c>
       <c r="D7" t="n">
-        <v>277.0</v>
+        <v>285.0</v>
       </c>
       <c r="E7" t="n">
-        <v>117920.0</v>
+        <v>121967.0</v>
       </c>
       <c r="F7" t="n">
-        <v>96.0</v>
+        <v>98.0</v>
       </c>
       <c r="G7" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>62.0</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>65.0</v>
-      </c>
       <c r="K7" t="n">
-        <v>689.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="8">
@@ -492,34 +489,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>100.0</v>
+        <v>92.0</v>
       </c>
       <c r="C8" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="D8" t="n">
-        <v>299.0</v>
+        <v>272.0</v>
       </c>
       <c r="E8" t="n">
-        <v>128600.0</v>
+        <v>116360.0</v>
       </c>
       <c r="F8" t="n">
-        <v>106.0</v>
+        <v>96.0</v>
       </c>
       <c r="G8" t="n">
-        <v>56.0</v>
+        <v>61.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.0</v>
+        <v>64.0</v>
       </c>
       <c r="K8" t="n">
-        <v>677.0</v>
+        <v>675.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,34 +524,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="C9" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>236.0</v>
+        <v>299.0</v>
       </c>
       <c r="E9" t="n">
-        <v>102821.0</v>
+        <v>131109.0</v>
       </c>
       <c r="F9" t="n">
-        <v>83.0</v>
+        <v>106.0</v>
       </c>
       <c r="G9" t="n">
-        <v>63.0</v>
+        <v>54.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0</v>
+        <v>51.0</v>
       </c>
       <c r="K9" t="n">
-        <v>671.0</v>
+        <v>672.0</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +568,13 @@
         <v>297.0</v>
       </c>
       <c r="E10" t="n">
-        <v>125800.0</v>
+        <v>126640.0</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="G10" t="n">
-        <v>55.0</v>
+        <v>52.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
@@ -586,10 +583,10 @@
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
       <c r="K10" t="n">
-        <v>650.0</v>
+        <v>636.0</v>
       </c>
     </row>
     <row r="11">
@@ -597,34 +594,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>96.0</v>
+        <v>90.0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D11" t="n">
-        <v>284.0</v>
+        <v>270.0</v>
       </c>
       <c r="E11" t="n">
-        <v>120960.0</v>
+        <v>117440.0</v>
       </c>
       <c r="F11" t="n">
-        <v>97.0</v>
+        <v>94.0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="H11" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="K11" t="n">
-        <v>591.0</v>
+        <v>607.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,34 +629,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="C12" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>269.0</v>
+        <v>285.0</v>
       </c>
       <c r="E12" t="n">
-        <v>114741.0</v>
+        <v>123520.0</v>
       </c>
       <c r="F12" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="G12" t="n">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
       <c r="H12" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>53.0</v>
+        <v>48.0</v>
       </c>
       <c r="K12" t="n">
-        <v>571.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,34 +664,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>86.0</v>
+        <v>93.0</v>
       </c>
       <c r="C13" t="n">
-        <v>73.0</v>
+        <v>87.0</v>
       </c>
       <c r="D13" t="n">
-        <v>258.0</v>
+        <v>270.0</v>
       </c>
       <c r="E13" t="n">
-        <v>111120.0</v>
+        <v>116512.0</v>
       </c>
       <c r="F13" t="n">
-        <v>90.0</v>
+        <v>94.0</v>
       </c>
       <c r="G13" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="K13" t="n">
-        <v>567.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,34 +699,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>85.0</v>
+        <v>95.0</v>
       </c>
       <c r="C14" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="D14" t="n">
-        <v>247.0</v>
+        <v>285.0</v>
       </c>
       <c r="E14" t="n">
-        <v>106707.0</v>
+        <v>117720.0</v>
       </c>
       <c r="F14" t="n">
-        <v>85.0</v>
+        <v>100.0</v>
       </c>
       <c r="G14" t="n">
-        <v>55.0</v>
+        <v>44.0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>65.0</v>
+        <v>44.0</v>
       </c>
       <c r="K14" t="n">
-        <v>566.0</v>
+        <v>569.0</v>
       </c>
     </row>
     <row r="15">
@@ -737,34 +734,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>96.0</v>
+        <v>85.0</v>
       </c>
       <c r="C15" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>288.0</v>
+        <v>247.0</v>
       </c>
       <c r="E15" t="n">
-        <v>116624.0</v>
+        <v>108746.0</v>
       </c>
       <c r="F15" t="n">
-        <v>102.0</v>
+        <v>85.0</v>
       </c>
       <c r="G15" t="n">
-        <v>44.0</v>
+        <v>53.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="K15" t="n">
-        <v>565.0</v>
+        <v>559.0</v>
       </c>
     </row>
     <row r="16">
@@ -781,7 +778,7 @@
         <v>293.0</v>
       </c>
       <c r="E16" t="n">
-        <v>110915.0</v>
+        <v>113708.0</v>
       </c>
       <c r="F16" t="n">
         <v>100.0</v>
@@ -799,7 +796,7 @@
         <v>46.0</v>
       </c>
       <c r="K16" t="n">
-        <v>548.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,22 +804,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>266.0</v>
+        <v>275.0</v>
       </c>
       <c r="E17" t="n">
-        <v>120282.0</v>
+        <v>125254.0</v>
       </c>
       <c r="F17" t="n">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -831,10 +828,10 @@
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="K17" t="n">
-        <v>527.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="18">
@@ -842,34 +839,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>91.0</v>
+        <v>99.0</v>
       </c>
       <c r="C18" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>257.0</v>
+        <v>296.0</v>
       </c>
       <c r="E18" t="n">
-        <v>113920.0</v>
+        <v>127695.0</v>
       </c>
       <c r="F18" t="n">
-        <v>93.0</v>
+        <v>107.0</v>
       </c>
       <c r="G18" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="H18" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="K18" t="n">
-        <v>521.0</v>
+        <v>511.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,34 +874,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>99.0</v>
+        <v>89.0</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>296.0</v>
+        <v>247.0</v>
       </c>
       <c r="E19" t="n">
-        <v>124500.0</v>
+        <v>111229.0</v>
       </c>
       <c r="F19" t="n">
-        <v>107.0</v>
+        <v>89.0</v>
       </c>
       <c r="G19" t="n">
-        <v>31.0</v>
+        <v>56.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>28.999999999999996</v>
+        <v>63.0</v>
       </c>
       <c r="K19" t="n">
-        <v>496.0</v>
+        <v>488.0</v>
       </c>
     </row>
     <row r="20">
@@ -912,34 +909,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="C20" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
-        <v>244.0</v>
+        <v>252.0</v>
       </c>
       <c r="E20" t="n">
-        <v>108440.0</v>
+        <v>111840.0</v>
       </c>
       <c r="F20" t="n">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="G20" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="H20" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="K20" t="n">
-        <v>473.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,31 +947,31 @@
         <v>93.0</v>
       </c>
       <c r="C21" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>264.0</v>
+        <v>271.0</v>
       </c>
       <c r="E21" t="n">
-        <v>110840.0</v>
+        <v>116560.0</v>
       </c>
       <c r="F21" t="n">
-        <v>93.0</v>
+        <v>89.0</v>
       </c>
       <c r="G21" t="n">
-        <v>44.0</v>
+        <v>51.0</v>
       </c>
       <c r="H21" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J21" t="n">
-        <v>47.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>460.0</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,34 +979,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="C22" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D22" t="n">
-        <v>268.0</v>
+        <v>264.0</v>
       </c>
       <c r="E22" t="n">
-        <v>113720.0</v>
+        <v>112360.0</v>
       </c>
       <c r="F22" t="n">
-        <v>88.0</v>
+        <v>93.0</v>
       </c>
       <c r="G22" t="n">
-        <v>49.0</v>
+        <v>45.0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J22" t="n">
-        <v>56.00000000000001</v>
+        <v>48.0</v>
       </c>
       <c r="K22" t="n">
-        <v>454.0</v>
+        <v>473.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,22 +1014,22 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="C23" t="n">
         <v>80.0</v>
       </c>
       <c r="D23" t="n">
-        <v>252.0</v>
+        <v>249.0</v>
       </c>
       <c r="E23" t="n">
-        <v>111112.0</v>
+        <v>109800.0</v>
       </c>
       <c r="F23" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="G23" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="H23" t="n">
         <v>21.0</v>
@@ -1044,7 +1041,7 @@
         <v>56.99999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>425.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,34 +1049,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>117.0</v>
+        <v>129.0</v>
       </c>
       <c r="E24" t="n">
-        <v>54040.0</v>
+        <v>59640.0</v>
       </c>
       <c r="F24" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="G24" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" t="n">
         <v>70.0</v>
       </c>
       <c r="K24" t="n">
-        <v>364.0</v>
+        <v>377.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,34 +1084,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0</v>
+        <v>129.0</v>
       </c>
       <c r="E25" t="n">
-        <v>51240.0</v>
+        <v>56680.0</v>
       </c>
       <c r="F25" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="G25" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="K25" t="n">
-        <v>353.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,22 +1119,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>94.0</v>
+        <v>98.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>260.0</v>
+        <v>272.0</v>
       </c>
       <c r="E26" t="n">
-        <v>111320.0</v>
+        <v>116640.0</v>
       </c>
       <c r="F26" t="n">
-        <v>93.0</v>
+        <v>98.0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="H26" t="n">
         <v>22.0</v>
@@ -1146,10 +1143,10 @@
         <v>4.0</v>
       </c>
       <c r="J26" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="K26" t="n">
-        <v>308.0</v>
+        <v>332.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,34 +1154,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>117.0</v>
+        <v>129.0</v>
       </c>
       <c r="E27" t="n">
-        <v>51160.0</v>
+        <v>56880.0</v>
       </c>
       <c r="F27" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="G27" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="K27" t="n">
-        <v>303.0</v>
+        <v>317.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,34 +1189,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>69.0</v>
+        <v>37.0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="D28" t="n">
-        <v>186.0</v>
+        <v>108.0</v>
       </c>
       <c r="E28" t="n">
-        <v>80760.0</v>
+        <v>51280.0</v>
       </c>
       <c r="F28" t="n">
-        <v>68.0</v>
+        <v>37.0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.0</v>
+        <v>17.0</v>
       </c>
       <c r="H28" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.0</v>
+        <v>46.0</v>
       </c>
       <c r="K28" t="n">
-        <v>292.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,22 +1224,22 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>109760.0</v>
+      </c>
+      <c r="F29" t="n">
         <v>89.0</v>
       </c>
-      <c r="C29" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>109000.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>90.0</v>
-      </c>
       <c r="G29" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="H29" t="n">
         <v>17.0</v>
@@ -1251,10 +1248,10 @@
         <v>3.0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>286.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,34 +1259,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>97.0</v>
+        <v>73.0</v>
       </c>
       <c r="C30" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>260.0</v>
+        <v>197.0</v>
       </c>
       <c r="E30" t="n">
-        <v>108771.0</v>
+        <v>86240.0</v>
       </c>
       <c r="F30" t="n">
-        <v>98.0</v>
+        <v>71.0</v>
       </c>
       <c r="G30" t="n">
         <v>45.0</v>
       </c>
       <c r="H30" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J30" t="n">
-        <v>46.0</v>
+        <v>63.0</v>
       </c>
       <c r="K30" t="n">
-        <v>258.0</v>
+        <v>271.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,34 +1294,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>33.0</v>
+        <v>98.0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D31" t="n">
-        <v>96.0</v>
+        <v>263.0</v>
       </c>
       <c r="E31" t="n">
-        <v>43800.0</v>
+        <v>110931.0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.0</v>
+        <v>99.0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.0</v>
+        <v>46.0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.0</v>
+        <v>31.0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="K31" t="n">
-        <v>256.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,19 +1329,19 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="C32" t="n">
         <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="E32" t="n">
-        <v>50080.0</v>
+        <v>57120.0</v>
       </c>
       <c r="F32" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="G32" t="n">
         <v>11.0</v>
@@ -1356,10 +1353,10 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="K32" t="n">
-        <v>215.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,19 +1364,19 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>78.0</v>
+        <v>90.0</v>
       </c>
       <c r="E33" t="n">
-        <v>36982.0</v>
+        <v>43182.0</v>
       </c>
       <c r="F33" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="G33" t="n">
         <v>12.0</v>
@@ -1391,10 +1388,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="K33" t="n">
-        <v>196.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="34">
@@ -1402,34 +1399,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>66.0</v>
+        <v>86.0</v>
       </c>
       <c r="E34" t="n">
-        <v>34600.0</v>
+        <v>36880.0</v>
       </c>
       <c r="F34" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="K34" t="n">
-        <v>186.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,34 +1434,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>26.0</v>
+        <v>73.0</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="D35" t="n">
-        <v>74.0</v>
+        <v>202.0</v>
       </c>
       <c r="E35" t="n">
-        <v>30960.0</v>
+        <v>88438.0</v>
       </c>
       <c r="F35" t="n">
-        <v>26.0</v>
+        <v>75.0</v>
       </c>
       <c r="G35" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="H35" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="K35" t="n">
-        <v>171.0</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,34 +1469,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>72.0</v>
+        <v>26.0</v>
       </c>
       <c r="C36" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>199.0</v>
+        <v>78.0</v>
       </c>
       <c r="E36" t="n">
-        <v>84438.0</v>
+        <v>40520.0</v>
       </c>
       <c r="F36" t="n">
-        <v>74.0</v>
+        <v>25.0</v>
       </c>
       <c r="G36" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="H36" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="K36" t="n">
-        <v>170.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="37">
@@ -1507,34 +1504,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="C37" t="n">
-        <v>73.0</v>
+        <v>93.0</v>
       </c>
       <c r="D37" t="n">
-        <v>114.0</v>
+        <v>124.0</v>
       </c>
       <c r="E37" t="n">
-        <v>52040.0</v>
+        <v>57400.0</v>
       </c>
       <c r="F37" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="G37" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J37" t="n">
-        <v>26.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K37" t="n">
-        <v>164.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="38">
@@ -1542,34 +1539,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>43.0</v>
+        <v>14.0</v>
       </c>
       <c r="C38" t="n">
-        <v>53.0</v>
+        <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>123.0</v>
+        <v>42.0</v>
       </c>
       <c r="E38" t="n">
-        <v>58280.0</v>
+        <v>23200.0</v>
       </c>
       <c r="F38" t="n">
-        <v>46.0</v>
+        <v>14.0</v>
       </c>
       <c r="G38" t="n">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>67.0</v>
+        <v>50.0</v>
       </c>
       <c r="K38" t="n">
-        <v>138.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="39">
@@ -1577,19 +1574,19 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C39" t="n">
         <v>100.0</v>
       </c>
       <c r="D39" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="E39" t="n">
-        <v>18800.0</v>
+        <v>24840.0</v>
       </c>
       <c r="F39" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="G39" t="n">
         <v>7.0</v>
@@ -1601,10 +1598,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.0</v>
+        <v>47.0</v>
       </c>
       <c r="K39" t="n">
-        <v>129.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="40">
@@ -1612,34 +1609,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>21.0</v>
+        <v>43.0</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0</v>
+        <v>47.0</v>
       </c>
       <c r="D40" t="n">
-        <v>63.0</v>
+        <v>122.0</v>
       </c>
       <c r="E40" t="n">
-        <v>33200.0</v>
+        <v>57880.0</v>
       </c>
       <c r="F40" t="n">
-        <v>20.0</v>
+        <v>46.0</v>
       </c>
       <c r="G40" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="H40" t="n">
         <v>7.0</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" t="n">
-        <v>35.0</v>
+        <v>70.0</v>
       </c>
       <c r="K40" t="n">
-        <v>123.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="41">
@@ -1647,34 +1644,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="C41" t="n">
         <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>30.0</v>
+        <v>75.0</v>
       </c>
       <c r="E41" t="n">
-        <v>17000.0</v>
+        <v>39840.0</v>
       </c>
       <c r="F41" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>50.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>117.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="42">
@@ -1682,34 +1679,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="C42" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D42" t="n">
-        <v>32.0</v>
+        <v>57.0</v>
       </c>
       <c r="E42" t="n">
-        <v>15640.0</v>
+        <v>29120.0</v>
       </c>
       <c r="F42" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H42" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42" t="n">
-        <v>55.00000000000001</v>
+        <v>40.0</v>
       </c>
       <c r="K42" t="n">
-        <v>113.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="43">
@@ -1717,34 +1714,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="C43" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D43" t="n">
-        <v>48.0</v>
+        <v>36.0</v>
       </c>
       <c r="E43" t="n">
-        <v>24000.0</v>
+        <v>18400.0</v>
       </c>
       <c r="F43" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J43" t="n">
-        <v>35.0</v>
+        <v>70.0</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="44">
@@ -1752,34 +1749,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C44" t="n">
-        <v>82.0</v>
+        <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="E44" t="n">
-        <v>13480.0</v>
+        <v>11800.0</v>
       </c>
       <c r="F44" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.0</v>
+        <v>50.0</v>
       </c>
       <c r="K44" t="n">
-        <v>105.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="45">
@@ -1787,34 +1784,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="C45" t="n">
         <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="E45" t="n">
-        <v>21360.0</v>
+        <v>27737.0</v>
       </c>
       <c r="F45" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G45" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J45" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="K45" t="n">
-        <v>99.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="46">
@@ -1822,34 +1819,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="C46" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D46" t="n">
-        <v>10.0</v>
+        <v>39.0</v>
       </c>
       <c r="E46" t="n">
-        <v>5800.0</v>
+        <v>19880.0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="G46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I46" t="n">
         <v>3.0</v>
       </c>
-      <c r="H46" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J46" t="n">
-        <v>75.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>84.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="47">
@@ -1857,34 +1854,32 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>20121.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>50.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>59.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="48">
@@ -1892,19 +1887,19 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C48" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -1915,9 +1910,11 @@
       <c r="I48" t="n">
         <v>0.0</v>
       </c>
-      <c r="J48"/>
+      <c r="J48" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K48" t="n">
-        <v>44.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="49">
@@ -1925,104 +1922,69 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>12.0</v>
+        <v>65.0</v>
       </c>
       <c r="C49" t="n">
-        <v>67.0</v>
+        <v>80.0</v>
       </c>
       <c r="D49" t="n">
-        <v>24.0</v>
+        <v>189.0</v>
       </c>
       <c r="E49" t="n">
-        <v>14560.0</v>
+        <v>67952.0</v>
       </c>
       <c r="F49" t="n">
-        <v>10.0</v>
+        <v>63.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="H49" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="I49" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="J49" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-11.0</v>
+        <v>-91.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>64.0</v>
+        <v>82.0</v>
       </c>
       <c r="C50" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D50" t="n">
-        <v>186.0</v>
+        <v>234.0</v>
       </c>
       <c r="E50" t="n">
-        <v>64864.0</v>
+        <v>106720.0</v>
       </c>
       <c r="F50" t="n">
-        <v>62.0</v>
+        <v>75.0</v>
       </c>
       <c r="G50" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="H50" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="I50" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="J50" t="n">
-        <v>31.0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K50" t="n">
-        <v>-102.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>223.0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>100520.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-1925.0</v>
+        <v>-19434.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -65,48 +65,48 @@
     <t>King Bonixe</t>
   </si>
   <si>
+    <t>Goblyn</t>
+  </si>
+  <si>
     <t>☆ Di♡g♡</t>
   </si>
   <si>
-    <t>Goblyn</t>
-  </si>
-  <si>
     <t>Madnasty</t>
   </si>
   <si>
     <t>Matilde Pires</t>
   </si>
   <si>
+    <t>Ricky</t>
+  </si>
+  <si>
     <t>zau</t>
   </si>
   <si>
-    <t>Ricky</t>
-  </si>
-  <si>
     <t>Tio João</t>
   </si>
   <si>
+    <t>Cronicl3_2</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
     <t>KryptoNnN</t>
   </si>
   <si>
-    <t>carmen</t>
-  </si>
-  <si>
-    <t>Cronicl3_2</t>
-  </si>
-  <si>
     <t>faneca</t>
   </si>
   <si>
     <t>unb</t>
   </si>
   <si>
+    <t>leal</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
     <t>pjp</t>
   </si>
   <si>
@@ -119,12 +119,12 @@
     <t>huracan</t>
   </si>
   <si>
+    <t>Marshall</t>
+  </si>
+  <si>
     <t>Savler</t>
   </si>
   <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>virtudes</t>
   </si>
   <si>
@@ -146,46 +146,49 @@
     <t>Soul_Eater</t>
   </si>
   <si>
+    <t>nmaciel8</t>
+  </si>
+  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>nmaciel8</t>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Wannakil</t>
+  </si>
+  <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>Iskandir</t>
+  </si>
+  <si>
+    <t>Wut</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>Muffin3</t>
+  </si>
+  <si>
+    <t>Juca</t>
   </si>
   <si>
     <t>André</t>
   </si>
   <si>
-    <t>Wannakil</t>
-  </si>
-  <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>Iskandir</t>
-  </si>
-  <si>
-    <t>Pp</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>Muffin3</t>
-  </si>
-  <si>
-    <t>Juca</t>
+    <t>PatRick</t>
   </si>
   <si>
     <t>fogo</t>
   </si>
   <si>
-    <t>PatRick</t>
-  </si>
-  <si>
     <t>casanova</t>
+  </si>
+  <si>
+    <t>Jonix21</t>
   </si>
   <si>
     <t>Manu</t>
@@ -288,7 +291,7 @@
         <v>295.0</v>
       </c>
       <c r="E2" t="n">
-        <v>126863.0</v>
+        <v>127019.0</v>
       </c>
       <c r="F2" t="n">
         <v>102.0</v>
@@ -306,7 +309,7 @@
         <v>76.0</v>
       </c>
       <c r="K2" t="n">
-        <v>832.0</v>
+        <v>834.0</v>
       </c>
     </row>
     <row r="3">
@@ -323,10 +326,10 @@
         <v>300.0</v>
       </c>
       <c r="E3" t="n">
-        <v>125520.0</v>
+        <v>125240.0</v>
       </c>
       <c r="F3" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="G3" t="n">
         <v>71.0</v>
@@ -338,10 +341,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K3" t="n">
-        <v>782.0</v>
+        <v>783.0</v>
       </c>
     </row>
     <row r="4">
@@ -358,7 +361,7 @@
         <v>300.0</v>
       </c>
       <c r="E4" t="n">
-        <v>131146.0</v>
+        <v>131916.0</v>
       </c>
       <c r="F4" t="n">
         <v>99.0</v>
@@ -376,7 +379,7 @@
         <v>66.0</v>
       </c>
       <c r="K4" t="n">
-        <v>733.0</v>
+        <v>736.0</v>
       </c>
     </row>
     <row r="5">
@@ -393,7 +396,7 @@
         <v>292.0</v>
       </c>
       <c r="E5" t="n">
-        <v>121588.0</v>
+        <v>121308.0</v>
       </c>
       <c r="F5" t="n">
         <v>100.0</v>
@@ -411,7 +414,7 @@
         <v>67.0</v>
       </c>
       <c r="K5" t="n">
-        <v>721.0</v>
+        <v>722.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,22 +422,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
       <c r="C6" t="n">
         <v>80.0</v>
       </c>
       <c r="D6" t="n">
-        <v>245.0</v>
+        <v>251.0</v>
       </c>
       <c r="E6" t="n">
-        <v>107970.0</v>
+        <v>110646.0</v>
       </c>
       <c r="F6" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="G6" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="H6" t="n">
         <v>4.0</v>
@@ -443,10 +446,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="K6" t="n">
-        <v>701.0</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="7">
@@ -463,13 +466,13 @@
         <v>285.0</v>
       </c>
       <c r="E7" t="n">
-        <v>121967.0</v>
+        <v>121807.0</v>
       </c>
       <c r="F7" t="n">
         <v>98.0</v>
       </c>
       <c r="G7" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -478,10 +481,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="K7" t="n">
-        <v>695.0</v>
+        <v>702.0</v>
       </c>
     </row>
     <row r="8">
@@ -489,34 +492,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>92.0</v>
+        <v>100.0</v>
       </c>
       <c r="C8" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>272.0</v>
+        <v>299.0</v>
       </c>
       <c r="E8" t="n">
-        <v>116360.0</v>
+        <v>131003.0</v>
       </c>
       <c r="F8" t="n">
-        <v>96.0</v>
+        <v>106.0</v>
       </c>
       <c r="G8" t="n">
-        <v>61.0</v>
+        <v>53.0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>64.0</v>
+        <v>50.0</v>
       </c>
       <c r="K8" t="n">
-        <v>675.0</v>
+        <v>667.0</v>
       </c>
     </row>
     <row r="9">
@@ -524,34 +527,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="C9" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="D9" t="n">
-        <v>299.0</v>
+        <v>269.0</v>
       </c>
       <c r="E9" t="n">
-        <v>131109.0</v>
+        <v>114960.0</v>
       </c>
       <c r="F9" t="n">
-        <v>106.0</v>
+        <v>94.0</v>
       </c>
       <c r="G9" t="n">
-        <v>54.0</v>
+        <v>60.0</v>
       </c>
       <c r="H9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J9" t="n">
-        <v>51.0</v>
+        <v>64.0</v>
       </c>
       <c r="K9" t="n">
-        <v>672.0</v>
+        <v>653.0</v>
       </c>
     </row>
     <row r="10">
@@ -559,22 +562,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>297.0</v>
+        <v>300.0</v>
       </c>
       <c r="E10" t="n">
-        <v>126640.0</v>
+        <v>128600.0</v>
       </c>
       <c r="F10" t="n">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="G10" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
@@ -583,10 +586,10 @@
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="K10" t="n">
-        <v>636.0</v>
+        <v>647.0</v>
       </c>
     </row>
     <row r="11">
@@ -594,22 +597,22 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="C11" t="n">
         <v>73.0</v>
       </c>
       <c r="D11" t="n">
-        <v>270.0</v>
+        <v>276.0</v>
       </c>
       <c r="E11" t="n">
-        <v>117440.0</v>
+        <v>120712.0</v>
       </c>
       <c r="F11" t="n">
-        <v>94.0</v>
+        <v>96.0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
@@ -618,10 +621,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="K11" t="n">
-        <v>607.0</v>
+        <v>627.0</v>
       </c>
     </row>
     <row r="12">
@@ -629,34 +632,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>96.0</v>
+        <v>93.0</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D12" t="n">
-        <v>285.0</v>
+        <v>270.0</v>
       </c>
       <c r="E12" t="n">
-        <v>123520.0</v>
+        <v>117352.0</v>
       </c>
       <c r="F12" t="n">
-        <v>97.0</v>
+        <v>94.0</v>
       </c>
       <c r="G12" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>48.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>589.0</v>
+        <v>598.0</v>
       </c>
     </row>
     <row r="13">
@@ -664,34 +667,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="C13" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>270.0</v>
+        <v>285.0</v>
       </c>
       <c r="E13" t="n">
-        <v>116512.0</v>
+        <v>122960.0</v>
       </c>
       <c r="F13" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
       <c r="H13" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.0</v>
+        <v>48.0</v>
       </c>
       <c r="K13" t="n">
-        <v>583.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,19 +705,19 @@
         <v>95.0</v>
       </c>
       <c r="C14" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D14" t="n">
         <v>285.0</v>
       </c>
       <c r="E14" t="n">
-        <v>117720.0</v>
+        <v>117440.0</v>
       </c>
       <c r="F14" t="n">
         <v>100.0</v>
       </c>
       <c r="G14" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -723,10 +726,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="K14" t="n">
-        <v>569.0</v>
+        <v>582.0</v>
       </c>
     </row>
     <row r="15">
@@ -734,34 +737,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>85.0</v>
+        <v>94.0</v>
       </c>
       <c r="C15" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D15" t="n">
-        <v>247.0</v>
+        <v>281.0</v>
       </c>
       <c r="E15" t="n">
-        <v>108746.0</v>
+        <v>128526.0</v>
       </c>
       <c r="F15" t="n">
-        <v>85.0</v>
+        <v>97.0</v>
       </c>
       <c r="G15" t="n">
-        <v>53.0</v>
+        <v>42.0</v>
       </c>
       <c r="H15" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.0</v>
+        <v>43.0</v>
       </c>
       <c r="K15" t="n">
-        <v>559.0</v>
+        <v>564.0</v>
       </c>
     </row>
     <row r="16">
@@ -778,7 +781,7 @@
         <v>293.0</v>
       </c>
       <c r="E16" t="n">
-        <v>113708.0</v>
+        <v>113691.0</v>
       </c>
       <c r="F16" t="n">
         <v>100.0</v>
@@ -796,7 +799,7 @@
         <v>46.0</v>
       </c>
       <c r="K16" t="n">
-        <v>555.0</v>
+        <v>556.0</v>
       </c>
     </row>
     <row r="17">
@@ -804,34 +807,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
       <c r="C17" t="n">
         <v>93.0</v>
       </c>
       <c r="D17" t="n">
-        <v>275.0</v>
+        <v>242.0</v>
       </c>
       <c r="E17" t="n">
-        <v>125254.0</v>
+        <v>107066.0</v>
       </c>
       <c r="F17" t="n">
-        <v>95.0</v>
+        <v>84.0</v>
       </c>
       <c r="G17" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="I17" t="n">
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.0</v>
+        <v>63.0</v>
       </c>
       <c r="K17" t="n">
-        <v>550.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="18">
@@ -848,13 +851,13 @@
         <v>296.0</v>
       </c>
       <c r="E18" t="n">
-        <v>127695.0</v>
+        <v>127328.0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.0</v>
+        <v>106.0</v>
       </c>
       <c r="G18" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="H18" t="n">
         <v>1.0</v>
@@ -863,10 +866,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>30.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="K18" t="n">
-        <v>511.0</v>
+        <v>499.0</v>
       </c>
     </row>
     <row r="19">
@@ -874,22 +877,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="C19" t="n">
         <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>247.0</v>
+        <v>250.0</v>
       </c>
       <c r="E19" t="n">
-        <v>111229.0</v>
+        <v>111927.0</v>
       </c>
       <c r="F19" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="G19" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="H19" t="n">
         <v>20.0</v>
@@ -901,7 +904,7 @@
         <v>63.0</v>
       </c>
       <c r="K19" t="n">
-        <v>488.0</v>
+        <v>498.0</v>
       </c>
     </row>
     <row r="20">
@@ -909,34 +912,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C20" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>252.0</v>
+        <v>272.0</v>
       </c>
       <c r="E20" t="n">
-        <v>111840.0</v>
+        <v>116611.0</v>
       </c>
       <c r="F20" t="n">
-        <v>90.0</v>
+        <v>89.0</v>
       </c>
       <c r="G20" t="n">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
       <c r="H20" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J20" t="n">
-        <v>60.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>486.0</v>
+        <v>481.0</v>
       </c>
     </row>
     <row r="21">
@@ -944,34 +947,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="C21" t="n">
         <v>93.0</v>
       </c>
-      <c r="C21" t="n">
-        <v>100.0</v>
-      </c>
       <c r="D21" t="n">
-        <v>271.0</v>
+        <v>251.0</v>
       </c>
       <c r="E21" t="n">
-        <v>116560.0</v>
+        <v>111419.0</v>
       </c>
       <c r="F21" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="G21" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="H21" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="I21" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J21" t="n">
-        <v>56.99999999999999</v>
+        <v>59.0</v>
       </c>
       <c r="K21" t="n">
-        <v>475.0</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,10 +988,10 @@
         <v>80.0</v>
       </c>
       <c r="D22" t="n">
-        <v>264.0</v>
+        <v>262.0</v>
       </c>
       <c r="E22" t="n">
-        <v>112360.0</v>
+        <v>111326.0</v>
       </c>
       <c r="F22" t="n">
         <v>93.0</v>
@@ -997,7 +1000,7 @@
         <v>45.0</v>
       </c>
       <c r="H22" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="I22" t="n">
         <v>2.0</v>
@@ -1006,7 +1009,7 @@
         <v>48.0</v>
       </c>
       <c r="K22" t="n">
-        <v>473.0</v>
+        <v>453.0</v>
       </c>
     </row>
     <row r="23">
@@ -1020,10 +1023,10 @@
         <v>80.0</v>
       </c>
       <c r="D23" t="n">
-        <v>249.0</v>
+        <v>251.0</v>
       </c>
       <c r="E23" t="n">
-        <v>109800.0</v>
+        <v>110080.0</v>
       </c>
       <c r="F23" t="n">
         <v>90.0</v>
@@ -1032,7 +1035,7 @@
         <v>51.0</v>
       </c>
       <c r="H23" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="I23" t="n">
         <v>2.0</v>
@@ -1041,7 +1044,7 @@
         <v>56.99999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>416.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="24">
@@ -1049,22 +1052,22 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>129.0</v>
+        <v>135.0</v>
       </c>
       <c r="E24" t="n">
-        <v>59640.0</v>
+        <v>62018.0</v>
       </c>
       <c r="F24" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="G24" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1073,10 +1076,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="K24" t="n">
-        <v>377.0</v>
+        <v>396.0</v>
       </c>
     </row>
     <row r="25">
@@ -1084,22 +1087,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C25" t="n">
         <v>100.0</v>
       </c>
       <c r="D25" t="n">
-        <v>129.0</v>
+        <v>135.0</v>
       </c>
       <c r="E25" t="n">
-        <v>56680.0</v>
+        <v>59480.0</v>
       </c>
       <c r="F25" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G25" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
@@ -1108,10 +1111,10 @@
         <v>1.0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="K25" t="n">
-        <v>359.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="26">
@@ -1119,34 +1122,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>98.0</v>
+        <v>45.0</v>
       </c>
       <c r="C26" t="n">
         <v>100.0</v>
       </c>
       <c r="D26" t="n">
-        <v>272.0</v>
+        <v>135.0</v>
       </c>
       <c r="E26" t="n">
-        <v>116640.0</v>
+        <v>59120.0</v>
       </c>
       <c r="F26" t="n">
-        <v>98.0</v>
+        <v>47.0</v>
       </c>
       <c r="G26" t="n">
-        <v>51.0</v>
+        <v>25.0</v>
       </c>
       <c r="H26" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="K26" t="n">
-        <v>332.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="27">
@@ -1154,34 +1157,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>43.0</v>
+        <v>100.0</v>
       </c>
       <c r="C27" t="n">
         <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>129.0</v>
+        <v>277.0</v>
       </c>
       <c r="E27" t="n">
-        <v>56880.0</v>
+        <v>118880.0</v>
       </c>
       <c r="F27" t="n">
-        <v>45.0</v>
+        <v>100.0</v>
       </c>
       <c r="G27" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="H27" t="n">
         <v>23.0</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J27" t="n">
         <v>51.0</v>
       </c>
       <c r="K27" t="n">
-        <v>317.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="28">
@@ -1189,25 +1192,25 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C28" t="n">
         <v>93.0</v>
       </c>
       <c r="D28" t="n">
-        <v>108.0</v>
+        <v>113.0</v>
       </c>
       <c r="E28" t="n">
-        <v>51280.0</v>
+        <v>53659.0</v>
       </c>
       <c r="F28" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -1216,7 +1219,7 @@
         <v>46.0</v>
       </c>
       <c r="K28" t="n">
-        <v>285.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="29">
@@ -1224,22 +1227,22 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="C29" t="n">
         <v>73.0</v>
       </c>
       <c r="D29" t="n">
-        <v>247.0</v>
+        <v>250.0</v>
       </c>
       <c r="E29" t="n">
-        <v>109760.0</v>
+        <v>110686.0</v>
       </c>
       <c r="F29" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="G29" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H29" t="n">
         <v>17.0</v>
@@ -1248,10 +1251,10 @@
         <v>3.0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.999999999999996</v>
+        <v>30.0</v>
       </c>
       <c r="K29" t="n">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="30">
@@ -1259,22 +1262,22 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="C30" t="n">
         <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>197.0</v>
+        <v>203.0</v>
       </c>
       <c r="E30" t="n">
-        <v>86240.0</v>
+        <v>88916.0</v>
       </c>
       <c r="F30" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="G30" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="H30" t="n">
         <v>22.0</v>
@@ -1286,7 +1289,7 @@
         <v>63.0</v>
       </c>
       <c r="K30" t="n">
-        <v>271.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,28 +1303,28 @@
         <v>100.0</v>
       </c>
       <c r="D31" t="n">
-        <v>263.0</v>
+        <v>262.0</v>
       </c>
       <c r="E31" t="n">
-        <v>110931.0</v>
+        <v>111211.0</v>
       </c>
       <c r="F31" t="n">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="G31" t="n">
         <v>46.0</v>
       </c>
       <c r="H31" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="I31" t="n">
         <v>2.0</v>
       </c>
       <c r="J31" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="K31" t="n">
-        <v>270.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="32">
@@ -1329,22 +1332,22 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="C32" t="n">
         <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>118.0</v>
+        <v>124.0</v>
       </c>
       <c r="E32" t="n">
-        <v>57120.0</v>
+        <v>59200.0</v>
       </c>
       <c r="F32" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="G32" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H32" t="n">
         <v>5.0</v>
@@ -1353,10 +1356,10 @@
         <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="K32" t="n">
-        <v>231.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="33">
@@ -1364,22 +1367,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>90.0</v>
+        <v>96.0</v>
       </c>
       <c r="E33" t="n">
-        <v>43182.0</v>
+        <v>45702.0</v>
       </c>
       <c r="F33" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="G33" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
@@ -1388,10 +1391,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="K33" t="n">
-        <v>209.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="34">
@@ -1399,22 +1402,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>86.0</v>
+        <v>92.0</v>
       </c>
       <c r="E34" t="n">
-        <v>36880.0</v>
+        <v>39400.0</v>
       </c>
       <c r="F34" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H34" t="n">
         <v>4.0</v>
@@ -1423,10 +1426,10 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="K34" t="n">
-        <v>203.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="35">
@@ -1434,34 +1437,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>73.0</v>
+        <v>28.0</v>
       </c>
       <c r="C35" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D35" t="n">
-        <v>202.0</v>
+        <v>84.0</v>
       </c>
       <c r="E35" t="n">
-        <v>88438.0</v>
+        <v>43407.0</v>
       </c>
       <c r="F35" t="n">
-        <v>75.0</v>
+        <v>27.0</v>
       </c>
       <c r="G35" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="H35" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>25.0</v>
+        <v>41.0</v>
       </c>
       <c r="K35" t="n">
-        <v>189.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="36">
@@ -1469,34 +1472,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>87878.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J36" t="n">
         <v>26.0</v>
       </c>
-      <c r="C36" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>40520.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>40.0</v>
-      </c>
       <c r="K36" t="n">
-        <v>187.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="37">
@@ -1504,34 +1507,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>44.0</v>
+        <v>17.0</v>
       </c>
       <c r="C37" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.0</v>
+        <v>51.0</v>
       </c>
       <c r="E37" t="n">
-        <v>57400.0</v>
+        <v>27360.0</v>
       </c>
       <c r="F37" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>28.999999999999996</v>
+        <v>53.0</v>
       </c>
       <c r="K37" t="n">
-        <v>152.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,22 +1542,22 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="E38" t="n">
-        <v>23200.0</v>
+        <v>25720.0</v>
       </c>
       <c r="F38" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1566,7 +1569,7 @@
         <v>50.0</v>
       </c>
       <c r="K38" t="n">
-        <v>144.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="39">
@@ -1574,34 +1577,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="C39" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D39" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>31640.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n">
         <v>45.0</v>
       </c>
-      <c r="E39" t="n">
-        <v>24840.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>47.0</v>
-      </c>
       <c r="K39" t="n">
-        <v>142.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="40">
@@ -1609,34 +1612,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>43.0</v>
+        <v>27.0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.0</v>
+        <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>122.0</v>
+        <v>81.0</v>
       </c>
       <c r="E40" t="n">
-        <v>57880.0</v>
+        <v>42920.0</v>
       </c>
       <c r="F40" t="n">
-        <v>46.0</v>
+        <v>26.0</v>
       </c>
       <c r="G40" t="n">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.0</v>
+        <v>31.0</v>
       </c>
       <c r="K40" t="n">
-        <v>140.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="41">
@@ -1644,34 +1647,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="C41" t="n">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="D41" t="n">
-        <v>75.0</v>
+        <v>122.0</v>
       </c>
       <c r="E41" t="n">
-        <v>39840.0</v>
+        <v>58720.0</v>
       </c>
       <c r="F41" t="n">
-        <v>24.0</v>
+        <v>46.0</v>
       </c>
       <c r="G41" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="H41" t="n">
         <v>7.0</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>28.999999999999996</v>
+        <v>70.0</v>
       </c>
       <c r="K41" t="n">
-        <v>137.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="42">
@@ -1679,34 +1682,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="C42" t="n">
-        <v>93.0</v>
+        <v>73.0</v>
       </c>
       <c r="D42" t="n">
-        <v>57.0</v>
+        <v>39.0</v>
       </c>
       <c r="E42" t="n">
-        <v>29120.0</v>
+        <v>19887.0</v>
       </c>
       <c r="F42" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="G42" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J42" t="n">
-        <v>40.0</v>
+        <v>64.0</v>
       </c>
       <c r="K42" t="n">
-        <v>135.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="43">
@@ -1714,34 +1717,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C43" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>36.0</v>
+        <v>24.0</v>
       </c>
       <c r="E43" t="n">
-        <v>18400.0</v>
+        <v>13760.0</v>
       </c>
       <c r="F43" t="n">
         <v>10.0</v>
       </c>
       <c r="G43" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="K43" t="n">
-        <v>128.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="44">
@@ -1749,34 +1752,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="C44" t="n">
         <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>20.0</v>
+        <v>58.0</v>
       </c>
       <c r="E44" t="n">
-        <v>11800.0</v>
+        <v>30711.0</v>
       </c>
       <c r="F44" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H44" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
       <c r="K44" t="n">
-        <v>99.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="45">
@@ -1784,34 +1787,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>18.0</v>
+        <v>46.0</v>
       </c>
       <c r="C45" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D45" t="n">
-        <v>52.0</v>
+        <v>130.0</v>
       </c>
       <c r="E45" t="n">
-        <v>27737.0</v>
+        <v>60672.0</v>
       </c>
       <c r="F45" t="n">
-        <v>15.0</v>
+        <v>43.0</v>
       </c>
       <c r="G45" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J45" t="n">
-        <v>40.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>89.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="46">
@@ -1819,34 +1822,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="C46" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.0</v>
+        <v>6.0</v>
       </c>
       <c r="E46" t="n">
-        <v>19880.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F46" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H46" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>57.99999999999999</v>
+        <v>100.0</v>
       </c>
       <c r="K46" t="n">
-        <v>77.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="47">
@@ -1854,32 +1857,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>20720.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J47"/>
+        <v>3.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>62.0</v>
+      </c>
       <c r="K47" t="n">
-        <v>70.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="48">
@@ -1887,34 +1892,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4200.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n">
         <v>1.0</v>
       </c>
-      <c r="C48" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1400.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J48" t="n">
         <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="49">
@@ -1922,69 +1927,104 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>65.0</v>
+        <v>30.0</v>
       </c>
       <c r="C49" t="n">
-        <v>80.0</v>
+        <v>7.0</v>
       </c>
       <c r="D49" t="n">
-        <v>189.0</v>
+        <v>84.0</v>
       </c>
       <c r="E49" t="n">
-        <v>67952.0</v>
+        <v>32760.0</v>
       </c>
       <c r="F49" t="n">
-        <v>63.0</v>
+        <v>29.0</v>
       </c>
       <c r="G49" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H49" t="n">
         <v>6.0</v>
       </c>
       <c r="I49" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="J49" t="n">
-        <v>30.0</v>
+        <v>59.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-91.0</v>
+        <v>-105.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>82.0</v>
+        <v>65.0</v>
       </c>
       <c r="C50" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>67707.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-587.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="C51" t="n">
         <v>93.0</v>
       </c>
-      <c r="D50" t="n">
-        <v>234.0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>106720.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="D51" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>109240.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.0</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>9.0</v>
       </c>
-      <c r="J50" t="n">
-        <v>28.999999999999996</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-19434.0</v>
+      <c r="J51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-19422.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -53,18 +53,18 @@
     <t>thunder</t>
   </si>
   <si>
+    <t>Tabo da amarela</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
+    <t>King Bonixe</t>
+  </si>
+  <si>
     <t>snowkids</t>
   </si>
   <si>
-    <t>Tabo da amarela</t>
-  </si>
-  <si>
-    <t>King Bonixe</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
@@ -80,21 +80,21 @@
     <t>Ricky</t>
   </si>
   <si>
+    <t>Cronicl3_2</t>
+  </si>
+  <si>
     <t>zau</t>
   </si>
   <si>
     <t>Tio João</t>
   </si>
   <si>
-    <t>Cronicl3_2</t>
+    <t>KryptoNnN</t>
   </si>
   <si>
     <t>carmen</t>
   </si>
   <si>
-    <t>KryptoNnN</t>
-  </si>
-  <si>
     <t>faneca</t>
   </si>
   <si>
@@ -104,94 +104,97 @@
     <t>leal</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
     <t>TheKingJK</t>
   </si>
   <si>
+    <t>Gingka</t>
+  </si>
+  <si>
+    <t>huracan</t>
+  </si>
+  <si>
     <t>pjp</t>
   </si>
   <si>
-    <t>Sergas</t>
-  </si>
-  <si>
-    <t>Gingka</t>
-  </si>
-  <si>
-    <t>huracan</t>
-  </si>
-  <si>
     <t>Marshall</t>
   </si>
   <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Wut</t>
+  </si>
+  <si>
+    <t>virtudes</t>
+  </si>
+  <si>
+    <t>filipe</t>
+  </si>
+  <si>
+    <t>MiStErIo</t>
+  </si>
+  <si>
+    <t>Soul_Eater</t>
+  </si>
+  <si>
+    <t>RichPath</t>
+  </si>
+  <si>
+    <t>nmaciel8</t>
+  </si>
+  <si>
+    <t>Jonix21</t>
+  </si>
+  <si>
+    <t>fglopes</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>qzt</t>
+  </si>
+  <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>Iskandir</t>
+  </si>
+  <si>
+    <t>Wannakil</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>Juca</t>
+  </si>
+  <si>
+    <t>Muffin3</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>PatRick</t>
+  </si>
+  <si>
+    <t>Akof</t>
+  </si>
+  <si>
+    <t>fogo</t>
+  </si>
+  <si>
+    <t>Olakas</t>
+  </si>
+  <si>
+    <t>casanova</t>
+  </si>
+  <si>
     <t>Savler</t>
-  </si>
-  <si>
-    <t>virtudes</t>
-  </si>
-  <si>
-    <t>filipe</t>
-  </si>
-  <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
-    <t>qzt</t>
-  </si>
-  <si>
-    <t>MiStErIo</t>
-  </si>
-  <si>
-    <t>RichPath</t>
-  </si>
-  <si>
-    <t>Soul_Eater</t>
-  </si>
-  <si>
-    <t>nmaciel8</t>
-  </si>
-  <si>
-    <t>fglopes</t>
-  </si>
-  <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>Wannakil</t>
-  </si>
-  <si>
-    <t>Pp</t>
-  </si>
-  <si>
-    <t>Iskandir</t>
-  </si>
-  <si>
-    <t>Wut</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>Muffin3</t>
-  </si>
-  <si>
-    <t>Juca</t>
-  </si>
-  <si>
-    <t>André</t>
-  </si>
-  <si>
-    <t>PatRick</t>
-  </si>
-  <si>
-    <t>fogo</t>
-  </si>
-  <si>
-    <t>casanova</t>
-  </si>
-  <si>
-    <t>Jonix21</t>
-  </si>
-  <si>
-    <t>Manu</t>
   </si>
 </sst>
 </file>
@@ -291,13 +294,13 @@
         <v>295.0</v>
       </c>
       <c r="E2" t="n">
-        <v>127019.0</v>
+        <v>131294.0</v>
       </c>
       <c r="F2" t="n">
         <v>102.0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="H2" t="n">
         <v>2.0</v>
@@ -306,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="K2" t="n">
-        <v>834.0</v>
+        <v>853.0</v>
       </c>
     </row>
     <row r="3">
@@ -326,7 +329,7 @@
         <v>300.0</v>
       </c>
       <c r="E3" t="n">
-        <v>125240.0</v>
+        <v>129691.0</v>
       </c>
       <c r="F3" t="n">
         <v>105.0</v>
@@ -344,7 +347,7 @@
         <v>68.0</v>
       </c>
       <c r="K3" t="n">
-        <v>783.0</v>
+        <v>796.0</v>
       </c>
     </row>
     <row r="4">
@@ -352,34 +355,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="C4" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D4" t="n">
-        <v>300.0</v>
+        <v>266.0</v>
       </c>
       <c r="E4" t="n">
-        <v>131916.0</v>
+        <v>117276.0</v>
       </c>
       <c r="F4" t="n">
-        <v>99.0</v>
+        <v>93.0</v>
       </c>
       <c r="G4" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>66.0</v>
+        <v>74.0</v>
       </c>
       <c r="K4" t="n">
-        <v>736.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="5">
@@ -387,34 +390,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>98.0</v>
+        <v>100.0</v>
       </c>
       <c r="C5" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>292.0</v>
+        <v>300.0</v>
       </c>
       <c r="E5" t="n">
-        <v>121308.0</v>
+        <v>134420.0</v>
       </c>
       <c r="F5" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="G5" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
       <c r="K5" t="n">
-        <v>722.0</v>
+        <v>732.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,34 +425,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>85.0</v>
+        <v>96.0</v>
       </c>
       <c r="C6" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D6" t="n">
-        <v>251.0</v>
+        <v>286.0</v>
       </c>
       <c r="E6" t="n">
-        <v>110646.0</v>
+        <v>125458.0</v>
       </c>
       <c r="F6" t="n">
-        <v>88.0</v>
+        <v>98.0</v>
       </c>
       <c r="G6" t="n">
-        <v>67.0</v>
+        <v>59.0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0</v>
+        <v>60.0</v>
       </c>
       <c r="K6" t="n">
-        <v>713.0</v>
+        <v>698.0</v>
       </c>
     </row>
     <row r="7">
@@ -457,16 +460,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="C7" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D7" t="n">
-        <v>285.0</v>
+        <v>289.0</v>
       </c>
       <c r="E7" t="n">
-        <v>121807.0</v>
+        <v>121668.0</v>
       </c>
       <c r="F7" t="n">
         <v>98.0</v>
@@ -475,16 +478,16 @@
         <v>62.0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n">
         <v>63.0</v>
       </c>
       <c r="K7" t="n">
-        <v>702.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="8">
@@ -501,10 +504,10 @@
         <v>299.0</v>
       </c>
       <c r="E8" t="n">
-        <v>131003.0</v>
+        <v>134120.0</v>
       </c>
       <c r="F8" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="G8" t="n">
         <v>53.0</v>
@@ -519,7 +522,7 @@
         <v>50.0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.0</v>
+        <v>677.0</v>
       </c>
     </row>
     <row r="9">
@@ -527,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="C9" t="n">
-        <v>60.0</v>
+        <v>67.0</v>
       </c>
       <c r="D9" t="n">
-        <v>269.0</v>
+        <v>266.0</v>
       </c>
       <c r="E9" t="n">
-        <v>114960.0</v>
+        <v>116087.0</v>
       </c>
       <c r="F9" t="n">
-        <v>94.0</v>
+        <v>93.0</v>
       </c>
       <c r="G9" t="n">
-        <v>60.0</v>
+        <v>58.0</v>
       </c>
       <c r="H9" t="n">
         <v>4.0</v>
@@ -551,10 +554,10 @@
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="K9" t="n">
-        <v>653.0</v>
+        <v>651.0</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +574,13 @@
         <v>300.0</v>
       </c>
       <c r="E10" t="n">
-        <v>128600.0</v>
+        <v>131127.0</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="G10" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
@@ -586,10 +589,10 @@
         <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="K10" t="n">
-        <v>647.0</v>
+        <v>649.0</v>
       </c>
     </row>
     <row r="11">
@@ -597,19 +600,19 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="C11" t="n">
-        <v>73.0</v>
+        <v>93.0</v>
       </c>
       <c r="D11" t="n">
-        <v>276.0</v>
+        <v>288.0</v>
       </c>
       <c r="E11" t="n">
-        <v>120712.0</v>
+        <v>127884.0</v>
       </c>
       <c r="F11" t="n">
-        <v>96.0</v>
+        <v>100.0</v>
       </c>
       <c r="G11" t="n">
         <v>52.0</v>
@@ -621,10 +624,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>627.0</v>
+        <v>646.0</v>
       </c>
     </row>
     <row r="12">
@@ -632,22 +635,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="C12" t="n">
         <v>93.0</v>
       </c>
-      <c r="C12" t="n">
-        <v>87.0</v>
-      </c>
       <c r="D12" t="n">
-        <v>270.0</v>
+        <v>276.0</v>
       </c>
       <c r="E12" t="n">
-        <v>117352.0</v>
+        <v>123991.0</v>
       </c>
       <c r="F12" t="n">
-        <v>94.0</v>
+        <v>96.0</v>
       </c>
       <c r="G12" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="H12" t="n">
         <v>9.0</v>
@@ -656,10 +659,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>55.00000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>598.0</v>
+        <v>636.0</v>
       </c>
     </row>
     <row r="13">
@@ -667,34 +670,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="C13" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D13" t="n">
-        <v>285.0</v>
+        <v>296.0</v>
       </c>
       <c r="E13" t="n">
-        <v>122960.0</v>
+        <v>136843.0</v>
       </c>
       <c r="F13" t="n">
-        <v>97.0</v>
+        <v>102.0</v>
       </c>
       <c r="G13" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="K13" t="n">
-        <v>589.0</v>
+        <v>604.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,34 +705,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="C14" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>285.0</v>
+        <v>283.0</v>
       </c>
       <c r="E14" t="n">
-        <v>117440.0</v>
+        <v>124589.0</v>
       </c>
       <c r="F14" t="n">
-        <v>100.0</v>
+        <v>97.0</v>
       </c>
       <c r="G14" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="K14" t="n">
-        <v>582.0</v>
+        <v>596.0</v>
       </c>
     </row>
     <row r="15">
@@ -740,31 +743,31 @@
         <v>94.0</v>
       </c>
       <c r="C15" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D15" t="n">
-        <v>281.0</v>
+        <v>282.0</v>
       </c>
       <c r="E15" t="n">
-        <v>128526.0</v>
+        <v>119520.0</v>
       </c>
       <c r="F15" t="n">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
       <c r="G15" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="K15" t="n">
-        <v>564.0</v>
+        <v>584.0</v>
       </c>
     </row>
     <row r="16">
@@ -772,34 +775,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>98.0</v>
+        <v>84.0</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D16" t="n">
-        <v>293.0</v>
+        <v>240.0</v>
       </c>
       <c r="E16" t="n">
-        <v>113691.0</v>
+        <v>110325.0</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0</v>
+        <v>85.0</v>
       </c>
       <c r="G16" t="n">
-        <v>46.0</v>
+        <v>54.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.0</v>
+        <v>64.0</v>
       </c>
       <c r="K16" t="n">
-        <v>556.0</v>
+        <v>574.0</v>
       </c>
     </row>
     <row r="17">
@@ -807,34 +810,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>84.0</v>
+        <v>98.0</v>
       </c>
       <c r="C17" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>242.0</v>
+        <v>294.0</v>
       </c>
       <c r="E17" t="n">
-        <v>107066.0</v>
+        <v>116247.0</v>
       </c>
       <c r="F17" t="n">
-        <v>84.0</v>
+        <v>99.0</v>
       </c>
       <c r="G17" t="n">
-        <v>53.0</v>
+        <v>46.0</v>
       </c>
       <c r="H17" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>63.0</v>
+        <v>46.0</v>
       </c>
       <c r="K17" t="n">
-        <v>544.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="18">
@@ -851,13 +854,13 @@
         <v>296.0</v>
       </c>
       <c r="E18" t="n">
-        <v>127328.0</v>
+        <v>130951.0</v>
       </c>
       <c r="F18" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="G18" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="H18" t="n">
         <v>1.0</v>
@@ -869,7 +872,7 @@
         <v>28.000000000000004</v>
       </c>
       <c r="K18" t="n">
-        <v>499.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="19">
@@ -877,16 +880,16 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="C19" t="n">
         <v>93.0</v>
       </c>
       <c r="D19" t="n">
-        <v>250.0</v>
+        <v>251.0</v>
       </c>
       <c r="E19" t="n">
-        <v>111927.0</v>
+        <v>114268.0</v>
       </c>
       <c r="F19" t="n">
         <v>90.0</v>
@@ -895,7 +898,7 @@
         <v>57.0</v>
       </c>
       <c r="H19" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -904,7 +907,7 @@
         <v>63.0</v>
       </c>
       <c r="K19" t="n">
-        <v>498.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="20">
@@ -921,13 +924,13 @@
         <v>272.0</v>
       </c>
       <c r="E20" t="n">
-        <v>116611.0</v>
+        <v>119225.0</v>
       </c>
       <c r="F20" t="n">
         <v>89.0</v>
       </c>
       <c r="G20" t="n">
-        <v>51.0</v>
+        <v>47.0</v>
       </c>
       <c r="H20" t="n">
         <v>7.0</v>
@@ -936,10 +939,10 @@
         <v>4.0</v>
       </c>
       <c r="J20" t="n">
-        <v>56.99999999999999</v>
+        <v>53.0</v>
       </c>
       <c r="K20" t="n">
-        <v>481.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="21">
@@ -947,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="C21" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D21" t="n">
-        <v>251.0</v>
+        <v>256.0</v>
       </c>
       <c r="E21" t="n">
-        <v>111419.0</v>
+        <v>112960.0</v>
       </c>
       <c r="F21" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="G21" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="H21" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="I21" t="n">
         <v>2.0</v>
       </c>
       <c r="J21" t="n">
-        <v>59.0</v>
+        <v>54.0</v>
       </c>
       <c r="K21" t="n">
-        <v>470.0</v>
+        <v>462.0</v>
       </c>
     </row>
     <row r="22">
@@ -982,34 +985,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>93.0</v>
+        <v>89.0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.0</v>
+        <v>87.0</v>
       </c>
       <c r="D22" t="n">
-        <v>262.0</v>
+        <v>246.0</v>
       </c>
       <c r="E22" t="n">
-        <v>111326.0</v>
+        <v>111332.0</v>
       </c>
       <c r="F22" t="n">
-        <v>93.0</v>
+        <v>89.0</v>
       </c>
       <c r="G22" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="H22" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="I22" t="n">
         <v>2.0</v>
       </c>
       <c r="J22" t="n">
-        <v>48.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>453.0</v>
+        <v>438.0</v>
       </c>
     </row>
     <row r="23">
@@ -1017,34 +1020,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>90.0</v>
+        <v>51.0</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>251.0</v>
+        <v>153.0</v>
       </c>
       <c r="E23" t="n">
-        <v>110080.0</v>
+        <v>70985.0</v>
       </c>
       <c r="F23" t="n">
-        <v>90.0</v>
+        <v>52.0</v>
       </c>
       <c r="G23" t="n">
-        <v>51.0</v>
+        <v>35.0</v>
       </c>
       <c r="H23" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>56.99999999999999</v>
+        <v>67.0</v>
       </c>
       <c r="K23" t="n">
-        <v>440.0</v>
+        <v>435.0</v>
       </c>
     </row>
     <row r="24">
@@ -1052,19 +1055,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
       <c r="C24" t="n">
         <v>100.0</v>
       </c>
       <c r="D24" t="n">
-        <v>135.0</v>
+        <v>153.0</v>
       </c>
       <c r="E24" t="n">
-        <v>62018.0</v>
+        <v>67122.0</v>
       </c>
       <c r="F24" t="n">
-        <v>45.0</v>
+        <v>54.0</v>
       </c>
       <c r="G24" t="n">
         <v>32.0</v>
@@ -1076,10 +1079,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.0</v>
+        <v>59.0</v>
       </c>
       <c r="K24" t="n">
-        <v>396.0</v>
+        <v>402.0</v>
       </c>
     </row>
     <row r="25">
@@ -1087,34 +1090,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>45.0</v>
+        <v>90.0</v>
       </c>
       <c r="C25" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="D25" t="n">
-        <v>135.0</v>
+        <v>252.0</v>
       </c>
       <c r="E25" t="n">
-        <v>59480.0</v>
+        <v>108621.0</v>
       </c>
       <c r="F25" t="n">
-        <v>48.0</v>
+        <v>89.0</v>
       </c>
       <c r="G25" t="n">
-        <v>30.0</v>
+        <v>41.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J25" t="n">
-        <v>62.0</v>
+        <v>46.0</v>
       </c>
       <c r="K25" t="n">
-        <v>372.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="26">
@@ -1122,22 +1125,22 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="C26" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D26" t="n">
-        <v>135.0</v>
+        <v>150.0</v>
       </c>
       <c r="E26" t="n">
-        <v>59120.0</v>
+        <v>65920.0</v>
       </c>
       <c r="F26" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="G26" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="H26" t="n">
         <v>0.0</v>
@@ -1146,10 +1149,10 @@
         <v>1.0</v>
       </c>
       <c r="J26" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="K26" t="n">
-        <v>335.0</v>
+        <v>369.0</v>
       </c>
     </row>
     <row r="27">
@@ -1157,19 +1160,19 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>100.0</v>
+        <v>79.0</v>
       </c>
       <c r="C27" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D27" t="n">
-        <v>277.0</v>
+        <v>214.0</v>
       </c>
       <c r="E27" t="n">
-        <v>118880.0</v>
+        <v>96292.0</v>
       </c>
       <c r="F27" t="n">
-        <v>100.0</v>
+        <v>77.0</v>
       </c>
       <c r="G27" t="n">
         <v>51.0</v>
@@ -1178,13 +1181,13 @@
         <v>23.0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.0</v>
+        <v>66.0</v>
       </c>
       <c r="K27" t="n">
-        <v>325.0</v>
+        <v>354.0</v>
       </c>
     </row>
     <row r="28">
@@ -1192,34 +1195,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="C28" t="n">
-        <v>93.0</v>
+        <v>40.0</v>
       </c>
       <c r="D28" t="n">
-        <v>113.0</v>
+        <v>122.0</v>
       </c>
       <c r="E28" t="n">
-        <v>53659.0</v>
+        <v>60240.0</v>
       </c>
       <c r="F28" t="n">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.0</v>
+        <v>70.0</v>
       </c>
       <c r="K28" t="n">
-        <v>294.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="29">
@@ -1227,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>89.0</v>
+        <v>45.0</v>
       </c>
       <c r="C29" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>250.0</v>
+        <v>131.0</v>
       </c>
       <c r="E29" t="n">
-        <v>110686.0</v>
+        <v>63391.0</v>
       </c>
       <c r="F29" t="n">
-        <v>90.0</v>
+        <v>45.0</v>
       </c>
       <c r="G29" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="H29" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
       <c r="K29" t="n">
-        <v>292.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="30">
@@ -1262,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>75.0</v>
+        <v>90.0</v>
       </c>
       <c r="C30" t="n">
         <v>87.0</v>
       </c>
       <c r="D30" t="n">
-        <v>203.0</v>
+        <v>252.0</v>
       </c>
       <c r="E30" t="n">
-        <v>88916.0</v>
+        <v>113939.0</v>
       </c>
       <c r="F30" t="n">
-        <v>73.0</v>
+        <v>91.0</v>
       </c>
       <c r="G30" t="n">
-        <v>46.0</v>
+        <v>28.0</v>
       </c>
       <c r="H30" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="I30" t="n">
         <v>3.0</v>
       </c>
       <c r="J30" t="n">
-        <v>63.0</v>
+        <v>31.0</v>
       </c>
       <c r="K30" t="n">
-        <v>283.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="31">
@@ -1297,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>98.0</v>
+        <v>49.0</v>
       </c>
       <c r="C31" t="n">
         <v>100.0</v>
       </c>
       <c r="D31" t="n">
-        <v>262.0</v>
+        <v>142.0</v>
       </c>
       <c r="E31" t="n">
-        <v>111211.0</v>
+        <v>69562.0</v>
       </c>
       <c r="F31" t="n">
-        <v>98.0</v>
+        <v>50.0</v>
       </c>
       <c r="G31" t="n">
-        <v>46.0</v>
+        <v>13.0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.0</v>
+        <v>26.0</v>
       </c>
       <c r="K31" t="n">
-        <v>255.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="C32" t="n">
         <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>124.0</v>
+        <v>110.0</v>
       </c>
       <c r="E32" t="n">
-        <v>59200.0</v>
+        <v>49989.0</v>
       </c>
       <c r="F32" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="G32" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K32" t="n">
-        <v>248.0</v>
+        <v>271.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,22 +1370,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>96.0</v>
+        <v>114.0</v>
       </c>
       <c r="E33" t="n">
-        <v>45702.0</v>
+        <v>56062.0</v>
       </c>
       <c r="F33" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="G33" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
@@ -1391,10 +1394,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="K33" t="n">
-        <v>222.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="34">
@@ -1402,34 +1405,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
       <c r="E34" t="n">
-        <v>39400.0</v>
+        <v>53876.0</v>
       </c>
       <c r="F34" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.0</v>
+        <v>41.0</v>
       </c>
       <c r="K34" t="n">
-        <v>222.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="35">
@@ -1437,34 +1440,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0</v>
+        <v>47.0</v>
       </c>
       <c r="D35" t="n">
         <v>84.0</v>
       </c>
       <c r="E35" t="n">
-        <v>43407.0</v>
+        <v>35824.0</v>
       </c>
       <c r="F35" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="G35" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J35" t="n">
-        <v>41.0</v>
+        <v>62.0</v>
       </c>
       <c r="K35" t="n">
-        <v>200.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="C36" t="n">
-        <v>67.0</v>
+        <v>80.0</v>
       </c>
       <c r="D36" t="n">
-        <v>201.0</v>
+        <v>209.0</v>
       </c>
       <c r="E36" t="n">
-        <v>87878.0</v>
+        <v>91949.0</v>
       </c>
       <c r="F36" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="G36" t="n">
         <v>19.0</v>
       </c>
       <c r="H36" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="I36" t="n">
         <v>2.0</v>
       </c>
       <c r="J36" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="K36" t="n">
-        <v>163.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="37">
@@ -1507,34 +1510,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="C37" t="n">
         <v>100.0</v>
       </c>
       <c r="D37" t="n">
-        <v>51.0</v>
+        <v>68.0</v>
       </c>
       <c r="E37" t="n">
-        <v>27360.0</v>
+        <v>36865.0</v>
       </c>
       <c r="F37" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="K37" t="n">
-        <v>161.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="38">
@@ -1542,34 +1545,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>16.0</v>
+        <v>98.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>48.0</v>
+        <v>259.0</v>
       </c>
       <c r="E38" t="n">
-        <v>25720.0</v>
+        <v>111009.0</v>
       </c>
       <c r="F38" t="n">
-        <v>16.0</v>
+        <v>98.0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.0</v>
+        <v>45.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="K38" t="n">
-        <v>156.0</v>
+        <v>197.0</v>
       </c>
     </row>
     <row r="39">
@@ -1577,22 +1580,22 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="C39" t="n">
         <v>93.0</v>
       </c>
       <c r="D39" t="n">
-        <v>63.0</v>
+        <v>81.0</v>
       </c>
       <c r="E39" t="n">
-        <v>31640.0</v>
+        <v>41829.0</v>
       </c>
       <c r="F39" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="G39" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H39" t="n">
         <v>3.0</v>
@@ -1601,10 +1604,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="K39" t="n">
-        <v>154.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="40">
@@ -1612,22 +1615,22 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="C40" t="n">
         <v>100.0</v>
       </c>
       <c r="D40" t="n">
-        <v>81.0</v>
+        <v>99.0</v>
       </c>
       <c r="E40" t="n">
-        <v>42920.0</v>
+        <v>52560.0</v>
       </c>
       <c r="F40" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1639,7 +1642,7 @@
         <v>31.0</v>
       </c>
       <c r="K40" t="n">
-        <v>151.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="41">
@@ -1647,34 +1650,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="C41" t="n">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>122.0</v>
+        <v>66.0</v>
       </c>
       <c r="E41" t="n">
-        <v>58720.0</v>
+        <v>34851.0</v>
       </c>
       <c r="F41" t="n">
-        <v>46.0</v>
+        <v>22.0</v>
       </c>
       <c r="G41" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>70.0</v>
+        <v>41.0</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="42">
@@ -1682,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="C42" t="n">
-        <v>73.0</v>
+        <v>80.0</v>
       </c>
       <c r="D42" t="n">
-        <v>39.0</v>
+        <v>52.0</v>
       </c>
       <c r="E42" t="n">
-        <v>19887.0</v>
+        <v>26630.0</v>
       </c>
       <c r="F42" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="G42" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I42" t="n">
         <v>2.0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>131.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="43">
@@ -1717,34 +1720,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="C43" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.0</v>
+        <v>73.0</v>
       </c>
       <c r="E43" t="n">
-        <v>13760.0</v>
+        <v>39865.0</v>
       </c>
       <c r="F43" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J43" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="K43" t="n">
-        <v>109.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="44">
@@ -1752,34 +1755,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="C44" t="n">
         <v>100.0</v>
       </c>
       <c r="D44" t="n">
-        <v>58.0</v>
+        <v>40.0</v>
       </c>
       <c r="E44" t="n">
-        <v>30711.0</v>
+        <v>23300.0</v>
       </c>
       <c r="F44" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>41.0</v>
+        <v>62.0</v>
       </c>
       <c r="K44" t="n">
-        <v>103.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="45">
@@ -1787,22 +1790,22 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>46.0</v>
+        <v>52.0</v>
       </c>
       <c r="C45" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>130.0</v>
+        <v>148.0</v>
       </c>
       <c r="E45" t="n">
-        <v>60672.0</v>
+        <v>71432.0</v>
       </c>
       <c r="F45" t="n">
-        <v>43.0</v>
+        <v>49.0</v>
       </c>
       <c r="G45" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H45" t="n">
         <v>8.0</v>
@@ -1811,10 +1814,10 @@
         <v>4.0</v>
       </c>
       <c r="J45" t="n">
-        <v>28.000000000000004</v>
+        <v>27.0</v>
       </c>
       <c r="K45" t="n">
-        <v>95.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="46">
@@ -1822,22 +1825,22 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C46" t="n">
         <v>100.0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
       <c r="E46" t="n">
-        <v>2800.0</v>
+        <v>13600.0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
@@ -1846,10 +1849,10 @@
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.0</v>
+        <v>44.0</v>
       </c>
       <c r="K46" t="n">
-        <v>90.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="47">
@@ -1857,34 +1860,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="C47" t="n">
         <v>80.0</v>
       </c>
       <c r="D47" t="n">
-        <v>42.0</v>
+        <v>12.0</v>
       </c>
       <c r="E47" t="n">
-        <v>20720.0</v>
+        <v>5240.0</v>
       </c>
       <c r="F47" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="G47" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="H47" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J47" t="n">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
       <c r="K47" t="n">
-        <v>86.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="48">
@@ -1892,34 +1895,34 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="C48" t="n">
-        <v>150.0</v>
+        <v>87.0</v>
       </c>
       <c r="D48" t="n">
-        <v>9.0</v>
+        <v>60.0</v>
       </c>
       <c r="E48" t="n">
-        <v>4200.0</v>
+        <v>31183.0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="K48" t="n">
-        <v>50.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="49">
@@ -1927,34 +1930,34 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="C49" t="n">
-        <v>7.0</v>
+        <v>100.0</v>
       </c>
       <c r="D49" t="n">
-        <v>84.0</v>
+        <v>3.0</v>
       </c>
       <c r="E49" t="n">
-        <v>32760.0</v>
+        <v>1120.0</v>
       </c>
       <c r="F49" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J49" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-105.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="50">
@@ -1962,69 +1965,69 @@
         <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>65.0</v>
+        <v>7.0</v>
       </c>
       <c r="C50" t="n">
-        <v>87.0</v>
+        <v>78.0</v>
       </c>
       <c r="D50" t="n">
-        <v>189.0</v>
+        <v>15.0</v>
       </c>
       <c r="E50" t="n">
-        <v>67707.0</v>
+        <v>6480.0</v>
       </c>
       <c r="F50" t="n">
-        <v>62.0</v>
+        <v>6.0</v>
       </c>
       <c r="G50" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="H50" t="n">
         <v>6.0</v>
       </c>
       <c r="I50" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="J50" t="n">
-        <v>31.0</v>
+        <v>17.0</v>
       </c>
       <c r="K50" t="n">
-        <v>-587.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>84.0</v>
+        <v>100.0</v>
       </c>
       <c r="C51" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D51" t="n">
-        <v>240.0</v>
+        <v>274.0</v>
       </c>
       <c r="E51" t="n">
-        <v>109240.0</v>
+        <v>119560.0</v>
       </c>
       <c r="F51" t="n">
-        <v>77.0</v>
+        <v>99.0</v>
       </c>
       <c r="G51" t="n">
-        <v>23.0</v>
+        <v>48.0</v>
       </c>
       <c r="H51" t="n">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
       <c r="I51" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="J51" t="n">
-        <v>30.0</v>
+        <v>48.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-19422.0</v>
+        <v>-396.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/warstats.xlsx
+++ b/docs/data/warstats.xlsx
@@ -59,30 +59,30 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>snowkids</t>
+  </si>
+  <si>
     <t>King Bonixe</t>
   </si>
   <si>
-    <t>snowkids</t>
-  </si>
-  <si>
     <t>Goblyn</t>
   </si>
   <si>
+    <t>Madnasty</t>
+  </si>
+  <si>
+    <t>Matilde Pires</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Cronicl3_2</t>
+  </si>
+  <si>
     <t>☆ Di♡g♡</t>
   </si>
   <si>
-    <t>Madnasty</t>
-  </si>
-  <si>
-    <t>Matilde Pires</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>Cronicl3_2</t>
-  </si>
-  <si>
     <t>zau</t>
   </si>
   <si>
@@ -98,30 +98,30 @@
     <t>faneca</t>
   </si>
   <si>
+    <t>Sergas</t>
+  </si>
+  <si>
+    <t>TheKingJK</t>
+  </si>
+  <si>
+    <t>Gingka</t>
+  </si>
+  <si>
+    <t>leal</t>
+  </si>
+  <si>
+    <t>huracan</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>pjp</t>
+  </si>
+  <si>
     <t>unb</t>
   </si>
   <si>
-    <t>leal</t>
-  </si>
-  <si>
-    <t>Sergas</t>
-  </si>
-  <si>
-    <t>TheKingJK</t>
-  </si>
-  <si>
-    <t>Gingka</t>
-  </si>
-  <si>
-    <t>huracan</t>
-  </si>
-  <si>
-    <t>pjp</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>Marcelo</t>
   </si>
   <si>
@@ -131,55 +131,55 @@
     <t>virtudes</t>
   </si>
   <si>
+    <t>Soul_Eater</t>
+  </si>
+  <si>
+    <t>qzt</t>
+  </si>
+  <si>
+    <t>RichPath</t>
+  </si>
+  <si>
+    <t>MiStErIo</t>
+  </si>
+  <si>
+    <t>nmaciel8</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>Jonix21</t>
+  </si>
+  <si>
+    <t>Iskandir</t>
+  </si>
+  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>MiStErIo</t>
-  </si>
-  <si>
-    <t>Soul_Eater</t>
-  </si>
-  <si>
-    <t>RichPath</t>
-  </si>
-  <si>
-    <t>nmaciel8</t>
-  </si>
-  <si>
-    <t>Jonix21</t>
-  </si>
-  <si>
     <t>fglopes</t>
   </si>
   <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>qzt</t>
-  </si>
-  <si>
-    <t>Pp</t>
-  </si>
-  <si>
-    <t>Iskandir</t>
-  </si>
-  <si>
     <t>Wannakil</t>
   </si>
   <si>
+    <t>Juca</t>
+  </si>
+  <si>
+    <t>Muffin3</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>PatRick</t>
+  </si>
+  <si>
     <t>hugo</t>
-  </si>
-  <si>
-    <t>Juca</t>
-  </si>
-  <si>
-    <t>Muffin3</t>
-  </si>
-  <si>
-    <t>André</t>
-  </si>
-  <si>
-    <t>PatRick</t>
   </si>
   <si>
     <t>Akof</t>
@@ -294,13 +294,13 @@
         <v>295.0</v>
       </c>
       <c r="E2" t="n">
-        <v>131294.0</v>
+        <v>132430.0</v>
       </c>
       <c r="F2" t="n">
-        <v>102.0</v>
+        <v>100.0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.0</v>
+        <v>76.0</v>
       </c>
       <c r="H2" t="n">
         <v>2.0</v>
@@ -309,10 +309,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="K2" t="n">
-        <v>853.0</v>
+        <v>841.0</v>
       </c>
     </row>
     <row r="3">
@@ -329,13 +329,13 @@
         <v>300.0</v>
       </c>
       <c r="E3" t="n">
-        <v>129691.0</v>
+        <v>131451.0</v>
       </c>
       <c r="F3" t="n">
-        <v>105.0</v>
+        <v>103.0</v>
       </c>
       <c r="G3" t="n">
-        <v>71.0</v>
+        <v>67.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -344,10 +344,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>68.0</v>
+        <v>65.0</v>
       </c>
       <c r="K3" t="n">
-        <v>796.0</v>
+        <v>779.0</v>
       </c>
     </row>
     <row r="4">
@@ -355,34 +355,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="C4" t="n">
         <v>87.0</v>
       </c>
       <c r="D4" t="n">
-        <v>266.0</v>
+        <v>268.0</v>
       </c>
       <c r="E4" t="n">
-        <v>117276.0</v>
+        <v>119033.0</v>
       </c>
       <c r="F4" t="n">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.0</v>
+        <v>68.0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>74.0</v>
+        <v>72.0</v>
       </c>
       <c r="K4" t="n">
-        <v>746.0</v>
+        <v>743.0</v>
       </c>
     </row>
     <row r="5">
@@ -399,10 +399,10 @@
         <v>300.0</v>
       </c>
       <c r="E5" t="n">
-        <v>134420.0</v>
+        <v>134537.0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="G5" t="n">
         <v>63.0</v>
@@ -414,10 +414,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="K5" t="n">
-        <v>732.0</v>
+        <v>736.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,34 +425,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="C6" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D6" t="n">
-        <v>286.0</v>
+        <v>289.0</v>
       </c>
       <c r="E6" t="n">
-        <v>125458.0</v>
+        <v>123388.0</v>
       </c>
       <c r="F6" t="n">
         <v>98.0</v>
       </c>
       <c r="G6" t="n">
-        <v>59.0</v>
+        <v>65.0</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="K6" t="n">
-        <v>698.0</v>
+        <v>721.0</v>
       </c>
     </row>
     <row r="7">
@@ -463,31 +463,31 @@
         <v>97.0</v>
       </c>
       <c r="C7" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D7" t="n">
         <v>289.0</v>
       </c>
       <c r="E7" t="n">
-        <v>121668.0</v>
+        <v>127425.0</v>
       </c>
       <c r="F7" t="n">
         <v>98.0</v>
       </c>
       <c r="G7" t="n">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="K7" t="n">
-        <v>695.0</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="8">
@@ -504,13 +504,13 @@
         <v>299.0</v>
       </c>
       <c r="E8" t="n">
-        <v>134120.0</v>
+        <v>137110.0</v>
       </c>
       <c r="F8" t="n">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="G8" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -519,10 +519,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="K8" t="n">
-        <v>677.0</v>
+        <v>693.0</v>
       </c>
     </row>
     <row r="9">
@@ -530,34 +530,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="C9" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>266.0</v>
+        <v>300.0</v>
       </c>
       <c r="E9" t="n">
-        <v>116087.0</v>
+        <v>132730.0</v>
       </c>
       <c r="F9" t="n">
-        <v>93.0</v>
+        <v>102.0</v>
       </c>
       <c r="G9" t="n">
-        <v>58.0</v>
+        <v>52.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.0</v>
+        <v>51.0</v>
       </c>
       <c r="K9" t="n">
-        <v>651.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="10">
@@ -565,34 +565,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>100.0</v>
+        <v>96.0</v>
       </c>
       <c r="C10" t="n">
         <v>100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>300.0</v>
+        <v>288.0</v>
       </c>
       <c r="E10" t="n">
-        <v>131127.0</v>
+        <v>128230.0</v>
       </c>
       <c r="F10" t="n">
-        <v>103.0</v>
+        <v>100.0</v>
       </c>
       <c r="G10" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="K10" t="n">
-        <v>649.0</v>
+        <v>644.0</v>
       </c>
     </row>
     <row r="11">
@@ -600,34 +600,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>125506.0</v>
+      </c>
+      <c r="F11" t="n">
         <v>96.0</v>
       </c>
-      <c r="C11" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>288.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>127884.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100.0</v>
-      </c>
       <c r="G11" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.0</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>646.0</v>
+        <v>636.0</v>
       </c>
     </row>
     <row r="12">
@@ -635,34 +635,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
       <c r="C12" t="n">
         <v>93.0</v>
       </c>
       <c r="D12" t="n">
-        <v>276.0</v>
+        <v>296.0</v>
       </c>
       <c r="E12" t="n">
-        <v>123991.0</v>
+        <v>140149.0</v>
       </c>
       <c r="F12" t="n">
-        <v>96.0</v>
+        <v>101.0</v>
       </c>
       <c r="G12" t="n">
-        <v>55.0</v>
+        <v>46.0</v>
       </c>
       <c r="H12" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>56.99999999999999</v>
+        <v>46.0</v>
       </c>
       <c r="K12" t="n">
-        <v>636.0</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="13">
@@ -670,34 +670,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>99.0</v>
+        <v>86.0</v>
       </c>
       <c r="C13" t="n">
-        <v>93.0</v>
+        <v>60.0</v>
       </c>
       <c r="D13" t="n">
-        <v>296.0</v>
+        <v>254.0</v>
       </c>
       <c r="E13" t="n">
-        <v>136843.0</v>
+        <v>111047.0</v>
       </c>
       <c r="F13" t="n">
-        <v>102.0</v>
+        <v>88.0</v>
       </c>
       <c r="G13" t="n">
-        <v>45.0</v>
+        <v>53.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.0</v>
+        <v>60.0</v>
       </c>
       <c r="K13" t="n">
-        <v>604.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="14">
@@ -714,13 +714,13 @@
         <v>283.0</v>
       </c>
       <c r="E14" t="n">
-        <v>124589.0</v>
+        <v>125299.0</v>
       </c>
       <c r="F14" t="n">
         <v>97.0</v>
       </c>
       <c r="G14" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="H14" t="n">
         <v>5.0</v>
@@ -729,10 +729,10 @@
         <v>1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="K14" t="n">
-        <v>596.0</v>
+        <v>607.0</v>
       </c>
     </row>
     <row r="15">
@@ -746,28 +746,28 @@
         <v>87.0</v>
       </c>
       <c r="D15" t="n">
-        <v>282.0</v>
+        <v>281.0</v>
       </c>
       <c r="E15" t="n">
-        <v>119520.0</v>
+        <v>121120.0</v>
       </c>
       <c r="F15" t="n">
         <v>99.0</v>
       </c>
       <c r="G15" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="K15" t="n">
-        <v>584.0</v>
+        <v>595.0</v>
       </c>
     </row>
     <row r="16">
@@ -775,16 +775,16 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="C16" t="n">
         <v>87.0</v>
       </c>
       <c r="D16" t="n">
-        <v>240.0</v>
+        <v>243.0</v>
       </c>
       <c r="E16" t="n">
-        <v>110325.0</v>
+        <v>113194.0</v>
       </c>
       <c r="F16" t="n">
         <v>85.0</v>
@@ -802,7 +802,7 @@
         <v>64.0</v>
       </c>
       <c r="K16" t="n">
-        <v>574.0</v>
+        <v>584.0</v>
       </c>
     </row>
     <row r="17">
@@ -810,22 +810,22 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>294.0</v>
+        <v>297.0</v>
       </c>
       <c r="E17" t="n">
-        <v>116247.0</v>
+        <v>118454.0</v>
       </c>
       <c r="F17" t="n">
         <v>99.0</v>
       </c>
       <c r="G17" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
@@ -834,10 +834,10 @@
         <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="K17" t="n">
-        <v>565.0</v>
+        <v>578.0</v>
       </c>
     </row>
     <row r="18">
@@ -851,28 +851,28 @@
         <v>100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>296.0</v>
+        <v>297.0</v>
       </c>
       <c r="E18" t="n">
-        <v>130951.0</v>
+        <v>132973.0</v>
       </c>
       <c r="F18" t="n">
-        <v>105.0</v>
+        <v>103.0</v>
       </c>
       <c r="G18" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>28.000000000000004</v>
+        <v>27.0</v>
       </c>
       <c r="K18" t="n">
-        <v>504.0</v>
+        <v>505.0</v>
       </c>
     </row>
     <row r="19">
@@ -880,34 +880,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="C19" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>115760.0</v>
+      </c>
+      <c r="F19" t="n">
         <v>93.0</v>
       </c>
-      <c r="D19" t="n">
-        <v>251.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>114268.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>90.0</v>
-      </c>
       <c r="G19" t="n">
-        <v>57.0</v>
+        <v>53.0</v>
       </c>
       <c r="H19" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.0</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>490.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="20">
@@ -915,34 +915,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>93.0</v>
+        <v>88.0</v>
       </c>
       <c r="C20" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
-        <v>272.0</v>
+        <v>245.0</v>
       </c>
       <c r="E20" t="n">
-        <v>119225.0</v>
+        <v>111543.0</v>
       </c>
       <c r="F20" t="n">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
       <c r="G20" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J20" t="n">
-        <v>53.0</v>
+        <v>59.0</v>
       </c>
       <c r="K20" t="n">
-        <v>468.0</v>
+        <v>476.0</v>
       </c>
     </row>
     <row r="21">
@@ -950,34 +950,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>91.0</v>
+        <v>57.0</v>
       </c>
       <c r="C21" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D21" t="n">
-        <v>256.0</v>
+        <v>171.0</v>
       </c>
       <c r="E21" t="n">
-        <v>112960.0</v>
+        <v>78405.0</v>
       </c>
       <c r="F21" t="n">
-        <v>91.0</v>
+        <v>58.0</v>
       </c>
       <c r="G21" t="n">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="H21" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>54.0</v>
+        <v>66.0</v>
       </c>
       <c r="K21" t="n">
-        <v>462.0</v>
+        <v>471.0</v>
       </c>
     </row>
     <row r="22">
@@ -985,31 +985,31 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>89.0</v>
+        <v>94.0</v>
       </c>
       <c r="C22" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D22" t="n">
-        <v>246.0</v>
+        <v>272.0</v>
       </c>
       <c r="E22" t="n">
-        <v>111332.0</v>
+        <v>120207.0</v>
       </c>
       <c r="F22" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="G22" t="n">
-        <v>50.0</v>
+        <v>44.0</v>
       </c>
       <c r="H22" t="n">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J22" t="n">
-        <v>56.00000000000001</v>
+        <v>49.0</v>
       </c>
       <c r="K22" t="n">
         <v>438.0</v>
@@ -1020,19 +1020,19 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>51.0</v>
+        <v>57.0</v>
       </c>
       <c r="C23" t="n">
         <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>153.0</v>
+        <v>171.0</v>
       </c>
       <c r="E23" t="n">
-        <v>70985.0</v>
+        <v>73682.0</v>
       </c>
       <c r="F23" t="n">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="G23" t="n">
         <v>35.0</v>
@@ -1044,10 +1044,10 @@
         <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>435.0</v>
+        <v>436.0</v>
       </c>
     </row>
     <row r="24">
@@ -1055,19 +1055,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>51.0</v>
+        <v>56.0</v>
       </c>
       <c r="C24" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D24" t="n">
-        <v>153.0</v>
+        <v>168.0</v>
       </c>
       <c r="E24" t="n">
-        <v>67122.0</v>
+        <v>73360.0</v>
       </c>
       <c r="F24" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="G24" t="n">
         <v>32.0</v>
@@ -1079,10 +1079,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" t="n">
-        <v>59.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>402.0</v>
+        <v>412.0</v>
       </c>
     </row>
     <row r="25">
@@ -1090,22 +1090,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>90.0</v>
+        <v>88.0</v>
       </c>
       <c r="C25" t="n">
-        <v>60.0</v>
+        <v>67.0</v>
       </c>
       <c r="D25" t="n">
-        <v>252.0</v>
+        <v>246.0</v>
       </c>
       <c r="E25" t="n">
-        <v>108621.0</v>
+        <v>108529.0</v>
       </c>
       <c r="F25" t="n">
-        <v>89.0</v>
+        <v>87.0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="H25" t="n">
         <v>18.0</v>
@@ -1114,10 +1114,10 @@
         <v>3.0</v>
       </c>
       <c r="J25" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="K25" t="n">
-        <v>390.0</v>
+        <v>398.0</v>
       </c>
     </row>
     <row r="26">
@@ -1125,34 +1125,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>50.0</v>
+        <v>91.0</v>
       </c>
       <c r="C26" t="n">
         <v>93.0</v>
       </c>
       <c r="D26" t="n">
-        <v>150.0</v>
+        <v>247.0</v>
       </c>
       <c r="E26" t="n">
-        <v>65920.0</v>
+        <v>113629.0</v>
       </c>
       <c r="F26" t="n">
-        <v>52.0</v>
+        <v>89.0</v>
       </c>
       <c r="G26" t="n">
-        <v>28.0</v>
+        <v>53.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J26" t="n">
-        <v>54.0</v>
+        <v>60.0</v>
       </c>
       <c r="K26" t="n">
-        <v>369.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="27">
@@ -1160,34 +1160,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>79.0</v>
+        <v>83.0</v>
       </c>
       <c r="C27" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" t="n">
-        <v>214.0</v>
+        <v>227.0</v>
       </c>
       <c r="E27" t="n">
-        <v>96292.0</v>
+        <v>104656.0</v>
       </c>
       <c r="F27" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="G27" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="H27" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="I27" t="n">
         <v>3.0</v>
       </c>
       <c r="J27" t="n">
-        <v>66.0</v>
+        <v>64.0</v>
       </c>
       <c r="K27" t="n">
-        <v>354.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="28">
@@ -1195,25 +1195,25 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="D28" t="n">
-        <v>122.0</v>
+        <v>126.0</v>
       </c>
       <c r="E28" t="n">
-        <v>60240.0</v>
+        <v>63475.0</v>
       </c>
       <c r="F28" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="G28" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -1222,7 +1222,7 @@
         <v>70.0</v>
       </c>
       <c r="K28" t="n">
-        <v>351.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="29">
@@ -1230,34 +1230,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
       <c r="C29" t="n">
         <v>100.0</v>
       </c>
       <c r="D29" t="n">
-        <v>131.0</v>
+        <v>149.0</v>
       </c>
       <c r="E29" t="n">
-        <v>63391.0</v>
+        <v>73417.0</v>
       </c>
       <c r="F29" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="G29" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H29" t="n">
         <v>4.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" t="n">
         <v>44.0</v>
       </c>
       <c r="K29" t="n">
-        <v>329.0</v>
+        <v>352.0</v>
       </c>
     </row>
     <row r="30">
@@ -1265,34 +1265,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>90.0</v>
+        <v>44.0</v>
       </c>
       <c r="C30" t="n">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>252.0</v>
+        <v>128.0</v>
       </c>
       <c r="E30" t="n">
-        <v>113939.0</v>
+        <v>58869.0</v>
       </c>
       <c r="F30" t="n">
-        <v>91.0</v>
+        <v>44.0</v>
       </c>
       <c r="G30" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="H30" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>31.0</v>
+        <v>48.0</v>
       </c>
       <c r="K30" t="n">
-        <v>305.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,34 +1300,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>49.0</v>
+        <v>98.0</v>
       </c>
       <c r="C31" t="n">
         <v>100.0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.0</v>
+        <v>262.0</v>
       </c>
       <c r="E31" t="n">
-        <v>69562.0</v>
+        <v>114165.0</v>
       </c>
       <c r="F31" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="G31" t="n">
-        <v>13.0</v>
+        <v>47.0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.0</v>
+        <v>47.0</v>
       </c>
       <c r="K31" t="n">
-        <v>272.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="32">
@@ -1335,34 +1335,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="C32" t="n">
         <v>100.0</v>
       </c>
       <c r="D32" t="n">
-        <v>110.0</v>
+        <v>132.0</v>
       </c>
       <c r="E32" t="n">
-        <v>49989.0</v>
+        <v>65622.0</v>
       </c>
       <c r="F32" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="G32" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="H32" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
       <c r="K32" t="n">
-        <v>271.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="33">
@@ -1370,34 +1370,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>38.0</v>
+        <v>55.0</v>
       </c>
       <c r="C33" t="n">
         <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>114.0</v>
+        <v>157.0</v>
       </c>
       <c r="E33" t="n">
-        <v>56062.0</v>
+        <v>77845.0</v>
       </c>
       <c r="F33" t="n">
-        <v>38.0</v>
+        <v>56.0</v>
       </c>
       <c r="G33" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="K33" t="n">
-        <v>251.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="34">
@@ -1405,22 +1405,22 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="C34" t="n">
         <v>100.0</v>
       </c>
       <c r="D34" t="n">
-        <v>102.0</v>
+        <v>120.0</v>
       </c>
       <c r="E34" t="n">
-        <v>53876.0</v>
+        <v>62875.0</v>
       </c>
       <c r="F34" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1429,10 +1429,10 @@
         <v>2.0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="K34" t="n">
-        <v>227.0</v>
+        <v>266.0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,34 +1440,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C35" t="n">
-        <v>47.0</v>
+        <v>100.0</v>
       </c>
       <c r="D35" t="n">
         <v>84.0</v>
       </c>
       <c r="E35" t="n">
-        <v>35824.0</v>
+        <v>45079.0</v>
       </c>
       <c r="F35" t="n">
         <v>29.0</v>
       </c>
       <c r="G35" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,34 +1475,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>76.0</v>
+        <v>34.0</v>
       </c>
       <c r="C36" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D36" t="n">
-        <v>209.0</v>
+        <v>99.0</v>
       </c>
       <c r="E36" t="n">
-        <v>91949.0</v>
+        <v>52474.0</v>
       </c>
       <c r="F36" t="n">
-        <v>77.0</v>
+        <v>34.0</v>
       </c>
       <c r="G36" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H36" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.0</v>
+        <v>44.0</v>
       </c>
       <c r="K36" t="n">
-        <v>209.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="37">
@@ -1510,34 +1510,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="C37" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.0</v>
+        <v>90.0</v>
       </c>
       <c r="E37" t="n">
-        <v>36865.0</v>
+        <v>40395.0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="K37" t="n">
-        <v>200.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="38">
@@ -1545,34 +1545,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>98.0</v>
+        <v>39.0</v>
       </c>
       <c r="C38" t="n">
         <v>100.0</v>
       </c>
       <c r="D38" t="n">
-        <v>259.0</v>
+        <v>117.0</v>
       </c>
       <c r="E38" t="n">
-        <v>111009.0</v>
+        <v>61280.0</v>
       </c>
       <c r="F38" t="n">
-        <v>98.0</v>
+        <v>38.0</v>
       </c>
       <c r="G38" t="n">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="H38" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J38" t="n">
-        <v>46.0</v>
+        <v>37.0</v>
       </c>
       <c r="K38" t="n">
-        <v>197.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="39">
@@ -1580,34 +1580,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>28.0</v>
+        <v>89.0</v>
       </c>
       <c r="C39" t="n">
         <v>93.0</v>
       </c>
       <c r="D39" t="n">
-        <v>81.0</v>
+        <v>247.0</v>
       </c>
       <c r="E39" t="n">
-        <v>41829.0</v>
+        <v>112511.0</v>
       </c>
       <c r="F39" t="n">
-        <v>28.0</v>
+        <v>89.0</v>
       </c>
       <c r="G39" t="n">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J39" t="n">
-        <v>43.0</v>
+        <v>33.0</v>
       </c>
       <c r="K39" t="n">
-        <v>190.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="40">
@@ -1615,34 +1615,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>33.0</v>
+        <v>77.0</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
       <c r="D40" t="n">
-        <v>99.0</v>
+        <v>212.0</v>
       </c>
       <c r="E40" t="n">
-        <v>52560.0</v>
+        <v>93568.0</v>
       </c>
       <c r="F40" t="n">
-        <v>32.0</v>
+        <v>78.0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="K40" t="n">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="41">
@@ -1650,22 +1650,22 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="C41" t="n">
         <v>100.0</v>
       </c>
       <c r="D41" t="n">
-        <v>66.0</v>
+        <v>84.0</v>
       </c>
       <c r="E41" t="n">
-        <v>34851.0</v>
+        <v>44795.0</v>
       </c>
       <c r="F41" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="G41" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -1674,10 +1674,10 @@
         <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="K41" t="n">
-        <v>183.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="42">
@@ -1685,34 +1685,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="C42" t="n">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="D42" t="n">
-        <v>52.0</v>
+        <v>91.0</v>
       </c>
       <c r="E42" t="n">
-        <v>26630.0</v>
+        <v>49735.0</v>
       </c>
       <c r="F42" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G42" t="n">
         <v>16.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>9.0</v>
       </c>
       <c r="H42" t="n">
         <v>2.0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J42" t="n">
-        <v>56.00000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>158.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="43">
@@ -1720,34 +1720,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="C43" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
       <c r="E43" t="n">
-        <v>39865.0</v>
+        <v>31620.0</v>
       </c>
       <c r="F43" t="n">
         <v>22.0</v>
       </c>
       <c r="G43" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.0</v>
+        <v>73.0</v>
       </c>
       <c r="K43" t="n">
-        <v>149.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="44">
@@ -1755,34 +1755,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>16.0</v>
+        <v>57.0</v>
       </c>
       <c r="C44" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D44" t="n">
-        <v>40.0</v>
+        <v>163.0</v>
       </c>
       <c r="E44" t="n">
-        <v>23300.0</v>
+        <v>79503.0</v>
       </c>
       <c r="F44" t="n">
-        <v>16.0</v>
+        <v>54.0</v>
       </c>
       <c r="G44" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="H44" t="n">
         <v>8.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J44" t="n">
-        <v>62.0</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>147.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="45">
@@ -1790,34 +1790,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>52.0</v>
+        <v>14.0</v>
       </c>
       <c r="C45" t="n">
         <v>100.0</v>
       </c>
       <c r="D45" t="n">
-        <v>148.0</v>
+        <v>42.0</v>
       </c>
       <c r="E45" t="n">
-        <v>71432.0</v>
+        <v>22560.0</v>
       </c>
       <c r="F45" t="n">
-        <v>49.0</v>
+        <v>15.0</v>
       </c>
       <c r="G45" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="H45" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="K45" t="n">
-        <v>127.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="46">
@@ -1825,34 +1825,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="C46" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.0</v>
+        <v>64.0</v>
       </c>
       <c r="E46" t="n">
-        <v>13600.0</v>
+        <v>31891.0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>126.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="47">
@@ -1860,22 +1860,22 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C47" t="n">
-        <v>80.0</v>
+        <v>91.0</v>
       </c>
       <c r="D47" t="n">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
       <c r="E47" t="n">
-        <v>5240.0</v>
+        <v>13400.0</v>
       </c>
       <c r="F47" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
@@ -1887,7 +1887,7 @@
         <v>50.0</v>
       </c>
       <c r="K47" t="n">
-        <v>81.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="48">
@@ -1895,22 +1895,22 @@
         <v>57</v>
       </c>
       <c r="B48" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="C48" t="n">
         <v>87.0</v>
       </c>
       <c r="D48" t="n">
-        <v>60.0</v>
+        <v>78.0</v>
       </c>
       <c r="E48" t="n">
-        <v>31183.0</v>
+        <v>41264.0</v>
       </c>
       <c r="F48" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="G48" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="H48" t="n">
         <v>6.0</v>
@@ -1919,10 +1919,10 @@
         <v>4.0</v>
       </c>
       <c r="J48" t="n">
-        <v>67.0</v>
+        <v>62.0</v>
       </c>
       <c r="K48" t="n">
-        <v>71.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="49">
@@ -1930,22 +1930,22 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C49" t="n">
         <v>100.0</v>
       </c>
       <c r="D49" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1120.0</v>
+        <v>9876.0</v>
       </c>
       <c r="F49" t="n">
-     